--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1560.01349260526</v>
+        <v>839.687014301025</v>
       </c>
       <c r="C2">
-        <v>32.8475457368456</v>
+        <v>49.323792088012</v>
       </c>
       <c r="D2">
-        <v>55.6413135138082</v>
+        <v>82.5968266872744</v>
       </c>
       <c r="E2">
-        <v>50.7041085241678</v>
+        <v>74.3942095380048</v>
       </c>
       <c r="F2">
-        <v>15.120667936344</v>
+        <v>21.0529869465685</v>
       </c>
       <c r="G2">
-        <v>11.8610115799452</v>
+        <v>16.3743453716248</v>
       </c>
       <c r="H2">
-        <v>12.1342354983063</v>
+        <v>21.8709797640587</v>
       </c>
       <c r="I2">
-        <v>12.9377504664202</v>
+        <v>16.4041844954482</v>
       </c>
       <c r="J2">
-        <v>55.3660157580053</v>
+        <v>73.0397189268689</v>
       </c>
       <c r="K2">
-        <v>13.0376557236237</v>
+        <v>23.4173459425454</v>
       </c>
       <c r="L2">
-        <v>31.1464311552431</v>
+        <v>39.9552493976168</v>
       </c>
       <c r="M2">
-        <v>42.997608944397</v>
+        <v>49.5036195414388</v>
       </c>
       <c r="N2">
-        <v>32.0168288095575</v>
+        <v>29.6026114235301</v>
       </c>
       <c r="O2">
-        <v>1203.16747511227</v>
+        <v>1779.69983313008</v>
       </c>
       <c r="P2">
-        <v>25.7633095258224</v>
+        <v>36.6388538886687</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>230.967928904271</v>
+        <v>129.408378124132</v>
       </c>
       <c r="C3">
-        <v>0.7474737244816591</v>
+        <v>7.52793849839609</v>
       </c>
       <c r="D3">
-        <v>0.178040862007434</v>
+        <v>0.183065790410742</v>
       </c>
       <c r="E3">
-        <v>1.3438033400979</v>
+        <v>1.33441583367405</v>
       </c>
       <c r="F3">
-        <v>11.5616261136535</v>
+        <v>14.2964635834523</v>
       </c>
       <c r="G3">
-        <v>0.382082615187009</v>
+        <v>0.12577165208682</v>
       </c>
       <c r="H3">
-        <v>0.09077237038940381</v>
+        <v>0.259740987970435</v>
       </c>
       <c r="I3">
-        <v>0.166747015288172</v>
+        <v>0.330387975180075</v>
       </c>
       <c r="J3">
-        <v>0.798556487261512</v>
+        <v>0.885222001739516</v>
       </c>
       <c r="K3">
-        <v>0.321924484523097</v>
+        <v>0.126506782007399</v>
       </c>
       <c r="L3">
-        <v>0.185472498893759</v>
+        <v>0.263015007417208</v>
       </c>
       <c r="M3">
-        <v>0.280776604518355</v>
+        <v>1.3665497978868</v>
       </c>
       <c r="N3">
-        <v>1.36211529369638</v>
+        <v>1.23390005845231</v>
       </c>
       <c r="O3">
-        <v>296.8180219492</v>
+        <v>378.579472778448</v>
       </c>
       <c r="P3">
-        <v>4.35994168381518</v>
+        <v>15.1305751043364</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1695.23797773025</v>
+        <v>928.313718943615</v>
       </c>
       <c r="C4">
-        <v>16.5050497966061</v>
+        <v>12.2545475453113</v>
       </c>
       <c r="D4">
-        <v>4.02474063557126</v>
+        <v>3.80797726629505</v>
       </c>
       <c r="E4">
-        <v>22.5949432883226</v>
+        <v>24.1929787528758</v>
       </c>
       <c r="F4">
-        <v>13.595199908812</v>
+        <v>13.3335128024643</v>
       </c>
       <c r="G4">
-        <v>9.8445794909497</v>
+        <v>9.72850129024112</v>
       </c>
       <c r="H4">
-        <v>12.0003243188696</v>
+        <v>10.3379273634297</v>
       </c>
       <c r="I4">
-        <v>9.05962117318092</v>
+        <v>11.9492363165224</v>
       </c>
       <c r="J4">
-        <v>22.9810810287533</v>
+        <v>30.0545142192841</v>
       </c>
       <c r="K4">
-        <v>9.23902039748695</v>
+        <v>12.2499857528836</v>
       </c>
       <c r="L4">
-        <v>64.9538640829587</v>
+        <v>78.2933573333398</v>
       </c>
       <c r="M4">
-        <v>57.3468069666805</v>
+        <v>62.680482455636</v>
       </c>
       <c r="N4">
-        <v>27.3924704134868</v>
+        <v>37.2530179550829</v>
       </c>
       <c r="O4">
-        <v>1639.75763126535</v>
+        <v>2351.48815275649</v>
       </c>
       <c r="P4">
-        <v>23.1042150910851</v>
+        <v>49.5089086479442</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>979.668031140808</v>
+        <v>475.901012768241</v>
       </c>
       <c r="C5">
-        <v>59.6086305292688</v>
+        <v>83.788954390442</v>
       </c>
       <c r="D5">
-        <v>11.2426171284942</v>
+        <v>19.5794852353169</v>
       </c>
       <c r="E5">
-        <v>36.8971064785764</v>
+        <v>50.9693719093672</v>
       </c>
       <c r="F5">
-        <v>3.14950096448808</v>
+        <v>3.64770949663542</v>
       </c>
       <c r="G5">
-        <v>12.2600552512428</v>
+        <v>12.5780832862105</v>
       </c>
       <c r="H5">
-        <v>11.0785901906189</v>
+        <v>13.7202654687342</v>
       </c>
       <c r="I5">
-        <v>7.01795189940162</v>
+        <v>9.30423278948744</v>
       </c>
       <c r="J5">
-        <v>19.4724977708575</v>
+        <v>31.2499992169416</v>
       </c>
       <c r="K5">
-        <v>13.4153127904416</v>
+        <v>27.166721977589</v>
       </c>
       <c r="L5">
-        <v>16.1080852835557</v>
+        <v>22.6167937335027</v>
       </c>
       <c r="M5">
-        <v>22.5242967299799</v>
+        <v>25.7691245891952</v>
       </c>
       <c r="N5">
-        <v>14.9407092476742</v>
+        <v>22.1541954713625</v>
       </c>
       <c r="O5">
-        <v>673.442332484556</v>
+        <v>1035.50568550972</v>
       </c>
       <c r="P5">
-        <v>36.1928065612367</v>
+        <v>63.8616691282504</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>10213.9424376821</v>
+        <v>6339.91708242285</v>
       </c>
       <c r="C6">
-        <v>149.412726664294</v>
+        <v>201.110411230351</v>
       </c>
       <c r="D6">
-        <v>125.777887476053</v>
+        <v>225.843403347066</v>
       </c>
       <c r="E6">
-        <v>205.489363900556</v>
+        <v>168.739126065244</v>
       </c>
       <c r="F6">
-        <v>39.6550133868616</v>
+        <v>33.4038203844108</v>
       </c>
       <c r="G6">
-        <v>95.8266461437963</v>
+        <v>115.18137305806</v>
       </c>
       <c r="H6">
-        <v>60.2221615987815</v>
+        <v>79.6753950108703</v>
       </c>
       <c r="I6">
-        <v>51.4684275458399</v>
+        <v>58.0379507482005</v>
       </c>
       <c r="J6">
-        <v>163.451839877035</v>
+        <v>195.366695742082</v>
       </c>
       <c r="K6">
-        <v>84.2538188908117</v>
+        <v>122.855166873103</v>
       </c>
       <c r="L6">
-        <v>574.196222038894</v>
+        <v>598.916824275506</v>
       </c>
       <c r="M6">
-        <v>233.309736101501</v>
+        <v>284.969382913805</v>
       </c>
       <c r="N6">
-        <v>211.618753705403</v>
+        <v>289.696683309712</v>
       </c>
       <c r="O6">
-        <v>10369.1463949345</v>
+        <v>13840.4590271485</v>
       </c>
       <c r="P6">
-        <v>240.646098339731</v>
+        <v>359.835671087409</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1102.14939427959</v>
+        <v>563.677721957248</v>
       </c>
       <c r="C7">
-        <v>17.9834630304441</v>
+        <v>31.544341266089</v>
       </c>
       <c r="D7">
-        <v>4.76360732118874</v>
+        <v>3.6433486336238</v>
       </c>
       <c r="E7">
-        <v>25.5934465532932</v>
+        <v>20.5627055705448</v>
       </c>
       <c r="F7">
-        <v>22.3400592276014</v>
+        <v>17.3285764181002</v>
       </c>
       <c r="G7">
-        <v>12.6172497666047</v>
+        <v>10.3771835597133</v>
       </c>
       <c r="H7">
-        <v>8.32688947585431</v>
+        <v>9.224159046573581</v>
       </c>
       <c r="I7">
-        <v>6.82858175606682</v>
+        <v>9.87170286151092</v>
       </c>
       <c r="J7">
-        <v>18.7541762581949</v>
+        <v>20.8932131959328</v>
       </c>
       <c r="K7">
-        <v>9.225608771885311</v>
+        <v>16.7535018019512</v>
       </c>
       <c r="L7">
-        <v>60.4597568579512</v>
+        <v>55.0388481607544</v>
       </c>
       <c r="M7">
-        <v>17.9195742382298</v>
+        <v>19.5801288074418</v>
       </c>
       <c r="N7">
-        <v>22.9763665678719</v>
+        <v>26.7872844375719</v>
       </c>
       <c r="O7">
-        <v>1526.07696393825</v>
+        <v>2054.95576021531</v>
       </c>
       <c r="P7">
-        <v>53.2017830519359</v>
+        <v>44.9633804821218</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>944.8455658499601</v>
+        <v>504.866265490131</v>
       </c>
       <c r="C8">
-        <v>7.93979373185702</v>
+        <v>10.1404386948041</v>
       </c>
       <c r="D8">
-        <v>6.15072787128991</v>
+        <v>12.1403327982095</v>
       </c>
       <c r="E8">
-        <v>25.5321766787457</v>
+        <v>23.3051404828195</v>
       </c>
       <c r="F8">
-        <v>2.79552854193298</v>
+        <v>1.70726991205685</v>
       </c>
       <c r="G8">
-        <v>29.5722339868963</v>
+        <v>38.8119796670907</v>
       </c>
       <c r="H8">
-        <v>6.12528062412369</v>
+        <v>9.98665610804613</v>
       </c>
       <c r="I8">
-        <v>3.04566550734103</v>
+        <v>2.81035060189456</v>
       </c>
       <c r="J8">
-        <v>52.2885814178232</v>
+        <v>59.444127442746</v>
       </c>
       <c r="K8">
-        <v>22.2738014315251</v>
+        <v>27.0335781926508</v>
       </c>
       <c r="L8">
-        <v>49.6189983361231</v>
+        <v>49.0624208946877</v>
       </c>
       <c r="M8">
-        <v>56.3006683157941</v>
+        <v>59.2903702708295</v>
       </c>
       <c r="N8">
-        <v>14.647002757842</v>
+        <v>18.5989748060458</v>
       </c>
       <c r="O8">
-        <v>1127.79249394802</v>
+        <v>1528.39122196469</v>
       </c>
       <c r="P8">
-        <v>3.5678817699613</v>
+        <v>6.36187105604045</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>333.986490910116</v>
+        <v>129.39919213331</v>
       </c>
       <c r="C9">
-        <v>7.17574419937011</v>
+        <v>13.0596930999765</v>
       </c>
       <c r="D9">
-        <v>2.00378220014587</v>
+        <v>3.59785555531711</v>
       </c>
       <c r="E9">
-        <v>7.14530976942696</v>
+        <v>8.264032273006871</v>
       </c>
       <c r="F9">
-        <v>2.16683636369505</v>
+        <v>2.37371052068833</v>
       </c>
       <c r="G9">
-        <v>20.0174036612024</v>
+        <v>27.6476870896221</v>
       </c>
       <c r="H9">
-        <v>2.45131760012438</v>
+        <v>3.36185275338806</v>
       </c>
       <c r="I9">
-        <v>0.7020502670370981</v>
+        <v>2.06139305668177</v>
       </c>
       <c r="J9">
-        <v>2.52422401498329</v>
+        <v>4.3345840366011</v>
       </c>
       <c r="K9">
-        <v>1.51356972807983</v>
+        <v>3.75570077542702</v>
       </c>
       <c r="L9">
-        <v>4.96971932717051</v>
+        <v>4.71467902848567</v>
       </c>
       <c r="M9">
-        <v>6.00508791988223</v>
+        <v>12.4007842904285</v>
       </c>
       <c r="N9">
-        <v>4.61693134010501</v>
+        <v>6.2772852967502</v>
       </c>
       <c r="O9">
-        <v>299.995298624385</v>
+        <v>457.270720157211</v>
       </c>
       <c r="P9">
-        <v>4.77706651546269</v>
+        <v>9.8756842964552</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5879.71827619046</v>
+        <v>3110.80151914078</v>
       </c>
       <c r="C10">
-        <v>55.3818782470479</v>
+        <v>60.1202980948851</v>
       </c>
       <c r="D10">
-        <v>18.8773416162678</v>
+        <v>30.7810982733671</v>
       </c>
       <c r="E10">
-        <v>89.72137332101021</v>
+        <v>67.250354244478</v>
       </c>
       <c r="F10">
-        <v>11.2619778781963</v>
+        <v>16.6976185718971</v>
       </c>
       <c r="G10">
-        <v>31.0878827791939</v>
+        <v>30.1062368527316</v>
       </c>
       <c r="H10">
-        <v>22.3056813339961</v>
+        <v>18.8370981749095</v>
       </c>
       <c r="I10">
-        <v>25.0964775573514</v>
+        <v>34.0313162585084</v>
       </c>
       <c r="J10">
-        <v>45.2792326601697</v>
+        <v>65.2792917831615</v>
       </c>
       <c r="K10">
-        <v>27.1143750116266</v>
+        <v>35.6528795981843</v>
       </c>
       <c r="L10">
-        <v>76.61644614364209</v>
+        <v>120.243339875715</v>
       </c>
       <c r="M10">
-        <v>83.4716397009623</v>
+        <v>107.82162863874</v>
       </c>
       <c r="N10">
-        <v>62.4922491068322</v>
+        <v>87.5524413968959</v>
       </c>
       <c r="O10">
-        <v>5483.17918898084</v>
+        <v>8068.07714632822</v>
       </c>
       <c r="P10">
-        <v>62.5348258658776</v>
+        <v>113.650377814458</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2484.70183735809</v>
+        <v>1355.07868466692</v>
       </c>
       <c r="C11">
-        <v>68.6949133171471</v>
+        <v>75.0486698825932</v>
       </c>
       <c r="D11">
-        <v>91.2808983793943</v>
+        <v>163.023713136614</v>
       </c>
       <c r="E11">
-        <v>108.018147375655</v>
+        <v>107.114099378889</v>
       </c>
       <c r="F11">
-        <v>18.8530641715263</v>
+        <v>8.53948827883606</v>
       </c>
       <c r="G11">
-        <v>29.8372665463109</v>
+        <v>32.9700280678544</v>
       </c>
       <c r="H11">
-        <v>23.2886014209432</v>
+        <v>21.0431918627276</v>
       </c>
       <c r="I11">
-        <v>17.169456955624</v>
+        <v>19.559323753283</v>
       </c>
       <c r="J11">
-        <v>44.3385149092438</v>
+        <v>70.0512738562872</v>
       </c>
       <c r="K11">
-        <v>27.8942576213832</v>
+        <v>36.7085492952808</v>
       </c>
       <c r="L11">
-        <v>51.5749878920164</v>
+        <v>68.0691546215868</v>
       </c>
       <c r="M11">
-        <v>71.49797021524159</v>
+        <v>66.87756610629729</v>
       </c>
       <c r="N11">
-        <v>50.4025626926175</v>
+        <v>45.122023463477</v>
       </c>
       <c r="O11">
-        <v>2540.69465184267</v>
+        <v>3555.83709915171</v>
       </c>
       <c r="P11">
-        <v>42.2052975438712</v>
+        <v>37.7474387838585</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>455.246377621998</v>
+        <v>230.235103256387</v>
       </c>
       <c r="C12">
-        <v>5.63558414443053</v>
+        <v>7.51795883689682</v>
       </c>
       <c r="D12">
-        <v>2.20928271033282</v>
+        <v>4.2019644022173</v>
       </c>
       <c r="E12">
-        <v>2.80773528898758</v>
+        <v>0.806474977355624</v>
       </c>
       <c r="F12">
-        <v>0.689940449526297</v>
+        <v>0.601754447963442</v>
       </c>
       <c r="G12">
-        <v>0.588004599975826</v>
+        <v>0.238104791683668</v>
       </c>
       <c r="H12">
-        <v>0.66766601907984</v>
+        <v>0.43797313303057</v>
       </c>
       <c r="I12">
-        <v>2.24397764480374</v>
+        <v>1.70314517272294</v>
       </c>
       <c r="J12">
-        <v>0.452827773125825</v>
+        <v>1.18362717804169</v>
       </c>
       <c r="K12">
-        <v>0.309097497913254</v>
+        <v>0.504155635576572</v>
       </c>
       <c r="L12">
-        <v>0.7040357143316151</v>
+        <v>0.483065293779875</v>
       </c>
       <c r="M12">
-        <v>3.46006831336599</v>
+        <v>4.03519441163479</v>
       </c>
       <c r="N12">
-        <v>3.67754667528773</v>
+        <v>4.25157762369582</v>
       </c>
       <c r="O12">
-        <v>507.868859527466</v>
+        <v>695.969794620377</v>
       </c>
       <c r="P12">
-        <v>13.4244236473868</v>
+        <v>27.1598852222895</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>457.227792395677</v>
+        <v>198.222643419708</v>
       </c>
       <c r="C13">
-        <v>20.6097021602139</v>
+        <v>31.0052027433528</v>
       </c>
       <c r="D13">
-        <v>1.31880059339157</v>
+        <v>2.21709490603492</v>
       </c>
       <c r="E13">
-        <v>19.9003151735685</v>
+        <v>17.8917505855647</v>
       </c>
       <c r="F13">
-        <v>0.223532148486903</v>
+        <v>3.62196593106643</v>
       </c>
       <c r="G13">
-        <v>5.69472696774565</v>
+        <v>6.08624144065274</v>
       </c>
       <c r="H13">
-        <v>0.251596507628655</v>
+        <v>2.24412069462727</v>
       </c>
       <c r="I13">
-        <v>1.23730202835196</v>
+        <v>1.01108971595014</v>
       </c>
       <c r="J13">
-        <v>4.53968841046656</v>
+        <v>7.0131197596144</v>
       </c>
       <c r="K13">
-        <v>4.00505683415669</v>
+        <v>3.87343724283926</v>
       </c>
       <c r="L13">
-        <v>16.8538679827393</v>
+        <v>24.5336378337429</v>
       </c>
       <c r="M13">
-        <v>1.4887347730538</v>
+        <v>2.48132111670389</v>
       </c>
       <c r="N13">
-        <v>6.6056190924423</v>
+        <v>8.335799677926561</v>
       </c>
       <c r="O13">
-        <v>381.747227031813</v>
+        <v>595.900558239317</v>
       </c>
       <c r="P13">
-        <v>45.4917706959717</v>
+        <v>59.3181085909197</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3530.79545046024</v>
+        <v>1968.90114645979</v>
       </c>
       <c r="C14">
-        <v>93.3119241554185</v>
+        <v>112.446546422617</v>
       </c>
       <c r="D14">
-        <v>18.9690973408849</v>
+        <v>16.1462501984071</v>
       </c>
       <c r="E14">
-        <v>152.566463975005</v>
+        <v>104.408822244939</v>
       </c>
       <c r="F14">
-        <v>36.541471752302</v>
+        <v>28.6822737413407</v>
       </c>
       <c r="G14">
-        <v>69.7033949294235</v>
+        <v>88.7478993670271</v>
       </c>
       <c r="H14">
-        <v>71.7658869435095</v>
+        <v>68.81653952965399</v>
       </c>
       <c r="I14">
-        <v>13.7568619376257</v>
+        <v>27.0326553171784</v>
       </c>
       <c r="J14">
-        <v>160.697902930103</v>
+        <v>172.449201424198</v>
       </c>
       <c r="K14">
-        <v>128.475958152595</v>
+        <v>178.771895351063</v>
       </c>
       <c r="L14">
-        <v>125.092346447793</v>
+        <v>143.417358895189</v>
       </c>
       <c r="M14">
-        <v>79.2825581355637</v>
+        <v>96.33677721983069</v>
       </c>
       <c r="N14">
-        <v>67.78107564860341</v>
+        <v>99.8127171068892</v>
       </c>
       <c r="O14">
-        <v>3861.18725753703</v>
+        <v>5317.28071152049</v>
       </c>
       <c r="P14">
-        <v>85.6106748186161</v>
+        <v>81.064377622785</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1734.57702558812</v>
+        <v>831.13547264309</v>
       </c>
       <c r="C15">
-        <v>44.1096820967073</v>
+        <v>57.8933843078306</v>
       </c>
       <c r="D15">
-        <v>10.1337236973978</v>
+        <v>10.5686139501349</v>
       </c>
       <c r="E15">
-        <v>65.936996450626</v>
+        <v>64.26057603812291</v>
       </c>
       <c r="F15">
-        <v>8.706912374806651</v>
+        <v>14.2938622717938</v>
       </c>
       <c r="G15">
-        <v>42.443006348276</v>
+        <v>44.0987783335012</v>
       </c>
       <c r="H15">
-        <v>32.4831712273882</v>
+        <v>51.806119869455</v>
       </c>
       <c r="I15">
-        <v>22.1495376260563</v>
+        <v>42.674410104685</v>
       </c>
       <c r="J15">
-        <v>131.248810411355</v>
+        <v>182.86736244504</v>
       </c>
       <c r="K15">
-        <v>33.9553250167432</v>
+        <v>68.4090681118774</v>
       </c>
       <c r="L15">
-        <v>56.165786153709</v>
+        <v>56.246924311243</v>
       </c>
       <c r="M15">
-        <v>222.410314374268</v>
+        <v>207.598185857418</v>
       </c>
       <c r="N15">
-        <v>68.9747188987821</v>
+        <v>92.35818499833179</v>
       </c>
       <c r="O15">
-        <v>1746.44261062687</v>
+        <v>2488.74833163115</v>
       </c>
       <c r="P15">
-        <v>44.896151217531</v>
+        <v>55.8584239583029</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>855.070678753153</v>
+        <v>333.064340199195</v>
       </c>
       <c r="C16">
-        <v>57.1739246530064</v>
+        <v>75.9473855597717</v>
       </c>
       <c r="D16">
-        <v>6.31264998968277</v>
+        <v>10.1551226079251</v>
       </c>
       <c r="E16">
-        <v>35.7308933986788</v>
+        <v>33.764927401967</v>
       </c>
       <c r="F16">
-        <v>2.84203260111803</v>
+        <v>6.09195030022189</v>
       </c>
       <c r="G16">
-        <v>9.843837076358639</v>
+        <v>14.6527911235009</v>
       </c>
       <c r="H16">
-        <v>17.3808375132426</v>
+        <v>23.077749039666</v>
       </c>
       <c r="I16">
-        <v>6.9294289034</v>
+        <v>8.46857541291541</v>
       </c>
       <c r="J16">
-        <v>51.8722189885119</v>
+        <v>49.6689391550374</v>
       </c>
       <c r="K16">
-        <v>47.2334804971336</v>
+        <v>59.6782660354154</v>
       </c>
       <c r="L16">
-        <v>23.7456065709079</v>
+        <v>36.5184656352574</v>
       </c>
       <c r="M16">
-        <v>29.5677664839081</v>
+        <v>29.1482018757572</v>
       </c>
       <c r="N16">
-        <v>18.0496453706124</v>
+        <v>27.4321828338838</v>
       </c>
       <c r="O16">
-        <v>906.011633052365</v>
+        <v>1315.57402145676</v>
       </c>
       <c r="P16">
-        <v>92.34348356331731</v>
+        <v>116.550850508416</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>749.636311578913</v>
+        <v>378.507897878137</v>
       </c>
       <c r="C17">
-        <v>19.0313884413602</v>
+        <v>29.6393527935009</v>
       </c>
       <c r="D17">
-        <v>6.17961634703583</v>
+        <v>6.52735017543343</v>
       </c>
       <c r="E17">
-        <v>32.0509406300715</v>
+        <v>21.5663185045179</v>
       </c>
       <c r="F17">
-        <v>16.8655272859717</v>
+        <v>15.1113562604825</v>
       </c>
       <c r="G17">
-        <v>8.27121105199684</v>
+        <v>11.5812734345271</v>
       </c>
       <c r="H17">
-        <v>8.903320618162491</v>
+        <v>11.4042419557292</v>
       </c>
       <c r="I17">
-        <v>9.951243616815789</v>
+        <v>6.97035683094006</v>
       </c>
       <c r="J17">
-        <v>19.644939726199</v>
+        <v>19.8030002226268</v>
       </c>
       <c r="K17">
-        <v>18.4482398160649</v>
+        <v>19.5951768914756</v>
       </c>
       <c r="L17">
-        <v>12.5010970634635</v>
+        <v>14.3509929959204</v>
       </c>
       <c r="M17">
-        <v>60.1490255728746</v>
+        <v>81.2293550852403</v>
       </c>
       <c r="N17">
-        <v>14.2807940312931</v>
+        <v>12.9191951690341</v>
       </c>
       <c r="O17">
-        <v>875.165276034429</v>
+        <v>1217.18223194527</v>
       </c>
       <c r="P17">
-        <v>68.47146024173981</v>
+        <v>66.1191830043668</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1629.84130667036</v>
+        <v>795.850899258036</v>
       </c>
       <c r="C18">
-        <v>33.5320146680443</v>
+        <v>37.4361053652144</v>
       </c>
       <c r="D18">
-        <v>16.669016811068</v>
+        <v>17.5435877401071</v>
       </c>
       <c r="E18">
-        <v>66.2296073610954</v>
+        <v>47.6372782925291</v>
       </c>
       <c r="F18">
-        <v>21.7582718286711</v>
+        <v>37.7181796832551</v>
       </c>
       <c r="G18">
-        <v>9.79674084145684</v>
+        <v>22.6432759511057</v>
       </c>
       <c r="H18">
-        <v>15.8230509367084</v>
+        <v>26.2446426071511</v>
       </c>
       <c r="I18">
-        <v>10.4063813350543</v>
+        <v>9.52099298747766</v>
       </c>
       <c r="J18">
-        <v>54.19566425757</v>
+        <v>57.8481957017859</v>
       </c>
       <c r="K18">
-        <v>24.981369770882</v>
+        <v>28.6583556100429</v>
       </c>
       <c r="L18">
-        <v>13.7482783705674</v>
+        <v>33.5560837952371</v>
       </c>
       <c r="M18">
-        <v>74.8435656304181</v>
+        <v>73.2499126436486</v>
       </c>
       <c r="N18">
-        <v>22.2336359919636</v>
+        <v>28.4831270449189</v>
       </c>
       <c r="O18">
-        <v>1021.0375789696</v>
+        <v>1764.21701875857</v>
       </c>
       <c r="P18">
-        <v>29.1005009083562</v>
+        <v>54.0210027392615</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1567.23163893421</v>
+        <v>902.093450058031</v>
       </c>
       <c r="C19">
-        <v>19.8175825545718</v>
+        <v>23.2855271019536</v>
       </c>
       <c r="D19">
-        <v>4.60526795906839</v>
+        <v>11.9019450143746</v>
       </c>
       <c r="E19">
-        <v>31.9342479213417</v>
+        <v>33.9268377713894</v>
       </c>
       <c r="F19">
-        <v>53.2918335287636</v>
+        <v>73.46731197682411</v>
       </c>
       <c r="G19">
-        <v>33.3106390623188</v>
+        <v>38.5314153676963</v>
       </c>
       <c r="H19">
-        <v>8.539887875150271</v>
+        <v>9.44562137630008</v>
       </c>
       <c r="I19">
-        <v>14.2197520944665</v>
+        <v>11.1530418257846</v>
       </c>
       <c r="J19">
-        <v>22.8633561537545</v>
+        <v>20.6866447203669</v>
       </c>
       <c r="K19">
-        <v>12.4521747349399</v>
+        <v>16.5346596649144</v>
       </c>
       <c r="L19">
-        <v>5.03722733953577</v>
+        <v>4.56207043015993</v>
       </c>
       <c r="M19">
-        <v>24.4467983879167</v>
+        <v>39.7034978375642</v>
       </c>
       <c r="N19">
-        <v>3.99025063265943</v>
+        <v>5.05056739991284</v>
       </c>
       <c r="O19">
-        <v>1296.57203515545</v>
+        <v>1889.84793244317</v>
       </c>
       <c r="P19">
-        <v>48.4832670201217</v>
+        <v>64.83977239056</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>445.683064699926</v>
+        <v>207.033627340423</v>
       </c>
       <c r="C20">
-        <v>8.403743281538871</v>
+        <v>9.537895755408879</v>
       </c>
       <c r="D20">
-        <v>8.90968299255684</v>
+        <v>12.8524252592127</v>
       </c>
       <c r="E20">
-        <v>36.4584166309948</v>
+        <v>42.1300228636012</v>
       </c>
       <c r="F20">
-        <v>0.176351440112283</v>
+        <v>0.142652796987806</v>
       </c>
       <c r="G20">
-        <v>1.52710295901622</v>
+        <v>1.0160774090874</v>
       </c>
       <c r="H20">
-        <v>1.79258953044212</v>
+        <v>2.1402163772063</v>
       </c>
       <c r="I20">
-        <v>0.681650646425769</v>
+        <v>0.609711883549363</v>
       </c>
       <c r="J20">
-        <v>6.94873877651979</v>
+        <v>8.478398664139631</v>
       </c>
       <c r="K20">
-        <v>2.62245024449973</v>
+        <v>3.7542981709133</v>
       </c>
       <c r="L20">
-        <v>9.265459661928301</v>
+        <v>9.201856045438481</v>
       </c>
       <c r="M20">
-        <v>17.3500643486664</v>
+        <v>19.4918700716151</v>
       </c>
       <c r="N20">
-        <v>6.42918766624509</v>
+        <v>7.29292229018008</v>
       </c>
       <c r="O20">
-        <v>431.050651527351</v>
+        <v>632.595306125738</v>
       </c>
       <c r="P20">
-        <v>14.2766557060626</v>
+        <v>27.7634360689359</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1563.72439807805</v>
+        <v>670.378588201131</v>
       </c>
       <c r="C21">
-        <v>21.0494158477195</v>
+        <v>22.2638669270615</v>
       </c>
       <c r="D21">
-        <v>11.5892568525817</v>
+        <v>9.22863682578889</v>
       </c>
       <c r="E21">
-        <v>52.371655045829</v>
+        <v>36.8244533272671</v>
       </c>
       <c r="F21">
-        <v>3.76457773525308</v>
+        <v>2.67148069652585</v>
       </c>
       <c r="G21">
-        <v>16.5217819943499</v>
+        <v>18.2000408691983</v>
       </c>
       <c r="H21">
-        <v>5.55412496926669</v>
+        <v>9.49036635400785</v>
       </c>
       <c r="I21">
-        <v>7.85991610640347</v>
+        <v>8.049976590602499</v>
       </c>
       <c r="J21">
-        <v>24.1189347784949</v>
+        <v>24.3979661556755</v>
       </c>
       <c r="K21">
-        <v>11.0351868233991</v>
+        <v>11.6478909345136</v>
       </c>
       <c r="L21">
-        <v>40.0287899979355</v>
+        <v>31.0027414758409</v>
       </c>
       <c r="M21">
-        <v>26.2478039168766</v>
+        <v>28.7798061464858</v>
       </c>
       <c r="N21">
-        <v>13.0339131813856</v>
+        <v>17.328577325248</v>
       </c>
       <c r="O21">
-        <v>1861.57301043411</v>
+        <v>2746.90488847368</v>
       </c>
       <c r="P21">
-        <v>19.5350819363068</v>
+        <v>25.1097046943507</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1763.85530618939</v>
+        <v>931.638981950499</v>
       </c>
       <c r="C22">
-        <v>18.3328789831059</v>
+        <v>13.6677058453243</v>
       </c>
       <c r="D22">
-        <v>21.1349696409436</v>
+        <v>27.1799182487464</v>
       </c>
       <c r="E22">
-        <v>57.1670240194279</v>
+        <v>50.5640805630989</v>
       </c>
       <c r="F22">
-        <v>0.8615514958480151</v>
+        <v>1.00064407191021</v>
       </c>
       <c r="G22">
-        <v>24.1651042532874</v>
+        <v>28.38653183234</v>
       </c>
       <c r="H22">
-        <v>19.7363353081091</v>
+        <v>24.3071293488435</v>
       </c>
       <c r="I22">
-        <v>10.2568995368178</v>
+        <v>10.5311011698468</v>
       </c>
       <c r="J22">
-        <v>44.0759578339194</v>
+        <v>57.6091357507179</v>
       </c>
       <c r="K22">
-        <v>26.1494249803242</v>
+        <v>34.8230366152811</v>
       </c>
       <c r="L22">
-        <v>111.91748710278</v>
+        <v>124.259441408917</v>
       </c>
       <c r="M22">
-        <v>22.0816789631237</v>
+        <v>23.9074443764175</v>
       </c>
       <c r="N22">
-        <v>38.6986794026862</v>
+        <v>62.6959892656847</v>
       </c>
       <c r="O22">
-        <v>2158.53775390645</v>
+        <v>2912.42715854392</v>
       </c>
       <c r="P22">
-        <v>8.08747530342974</v>
+        <v>18.9653021984965</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>3058.63877715155</v>
+        <v>1687.92596531035</v>
       </c>
       <c r="C23">
-        <v>47.541959144051</v>
+        <v>54.7209444543964</v>
       </c>
       <c r="D23">
-        <v>7.92369380433346</v>
+        <v>13.6130449737632</v>
       </c>
       <c r="E23">
-        <v>77.4847238229155</v>
+        <v>68.6829856848189</v>
       </c>
       <c r="F23">
-        <v>6.89903984710247</v>
+        <v>2.9105183118127</v>
       </c>
       <c r="G23">
-        <v>56.130342670354</v>
+        <v>68.3071365632175</v>
       </c>
       <c r="H23">
-        <v>52.7698200093989</v>
+        <v>80.6960880979465</v>
       </c>
       <c r="I23">
-        <v>26.5168715055535</v>
+        <v>35.0309459560625</v>
       </c>
       <c r="J23">
-        <v>152.862054433597</v>
+        <v>178.726906575949</v>
       </c>
       <c r="K23">
-        <v>81.2723757844975</v>
+        <v>121.606950724777</v>
       </c>
       <c r="L23">
-        <v>38.0803810775788</v>
+        <v>43.8206202612295</v>
       </c>
       <c r="M23">
-        <v>497.300766932943</v>
+        <v>608.832466584667</v>
       </c>
       <c r="N23">
-        <v>65.7350305432872</v>
+        <v>88.34928593637309</v>
       </c>
       <c r="O23">
-        <v>2735.29444572527</v>
+        <v>3833.51017834827</v>
       </c>
       <c r="P23">
-        <v>55.313923172588</v>
+        <v>77.690729242236</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1156.84502944914</v>
+        <v>520.676958142451</v>
       </c>
       <c r="C24">
-        <v>71.1511680951167</v>
+        <v>82.6432984627608</v>
       </c>
       <c r="D24">
-        <v>6.62638475236469</v>
+        <v>11.4252308655284</v>
       </c>
       <c r="E24">
-        <v>94.0946740923097</v>
+        <v>73.8100137733697</v>
       </c>
       <c r="F24">
-        <v>12.0727073524764</v>
+        <v>30.0821353497527</v>
       </c>
       <c r="G24">
-        <v>12.6080887041404</v>
+        <v>14.9010736242822</v>
       </c>
       <c r="H24">
-        <v>9.33670881935536</v>
+        <v>14.7074366281132</v>
       </c>
       <c r="I24">
-        <v>11.1473359492854</v>
+        <v>13.8141310172069</v>
       </c>
       <c r="J24">
-        <v>64.9407766456101</v>
+        <v>64.3115834412222</v>
       </c>
       <c r="K24">
-        <v>40.1753260876738</v>
+        <v>62.738257206326</v>
       </c>
       <c r="L24">
-        <v>76.81967501319571</v>
+        <v>74.7588109378692</v>
       </c>
       <c r="M24">
-        <v>23.6283854237041</v>
+        <v>23.8850420497046</v>
       </c>
       <c r="N24">
-        <v>42.8044245189069</v>
+        <v>63.5133011111761</v>
       </c>
       <c r="O24">
-        <v>1670.23268182518</v>
+        <v>2207.24020766957</v>
       </c>
       <c r="P24">
-        <v>99.134699266133</v>
+        <v>135.07931999769</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>1099.05814420562</v>
+        <v>560.192547650258</v>
       </c>
       <c r="C25">
-        <v>19.5639451119551</v>
+        <v>47.6665460269468</v>
       </c>
       <c r="D25">
-        <v>21.8370756036443</v>
+        <v>25.1960147481627</v>
       </c>
       <c r="E25">
-        <v>32.3762941082689</v>
+        <v>44.6176544223801</v>
       </c>
       <c r="F25">
-        <v>7.77123411798058</v>
+        <v>19.414947400847</v>
       </c>
       <c r="G25">
-        <v>12.7905820398166</v>
+        <v>12.3571032417307</v>
       </c>
       <c r="H25">
-        <v>12.5170446809377</v>
+        <v>15.4395530220902</v>
       </c>
       <c r="I25">
-        <v>4.96411867774883</v>
+        <v>5.74210064841881</v>
       </c>
       <c r="J25">
-        <v>18.6945912818568</v>
+        <v>25.1339822266173</v>
       </c>
       <c r="K25">
-        <v>22.5839762078746</v>
+        <v>25.1333250416797</v>
       </c>
       <c r="L25">
-        <v>22.8088480641407</v>
+        <v>31.9074896842329</v>
       </c>
       <c r="M25">
-        <v>21.2233158061309</v>
+        <v>50.4704815047405</v>
       </c>
       <c r="N25">
-        <v>48.5532984183038</v>
+        <v>46.4034105209644</v>
       </c>
       <c r="O25">
-        <v>735.091664010613</v>
+        <v>1129.10328194491</v>
       </c>
       <c r="P25">
-        <v>31.3207021844538</v>
+        <v>54.5010570102709</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1740.84990402708</v>
+        <v>770.867462879203</v>
       </c>
       <c r="C26">
-        <v>67.586035418682</v>
+        <v>74.05341793299679</v>
       </c>
       <c r="D26">
-        <v>14.5293860877017</v>
+        <v>16.3530111270419</v>
       </c>
       <c r="E26">
-        <v>61.9708146362486</v>
+        <v>60.6142674034863</v>
       </c>
       <c r="F26">
-        <v>15.5493645282851</v>
+        <v>12.2805720728103</v>
       </c>
       <c r="G26">
-        <v>26.1808873003963</v>
+        <v>42.9854927672111</v>
       </c>
       <c r="H26">
-        <v>17.5265377695651</v>
+        <v>30.140477438565</v>
       </c>
       <c r="I26">
-        <v>8.5903397530946</v>
+        <v>13.6059636692662</v>
       </c>
       <c r="J26">
-        <v>62.2098671598027</v>
+        <v>59.655728663105</v>
       </c>
       <c r="K26">
-        <v>29.4986574504423</v>
+        <v>38.5290169151311</v>
       </c>
       <c r="L26">
-        <v>40.442170663547</v>
+        <v>44.0986398821593</v>
       </c>
       <c r="M26">
-        <v>63.9387115640752</v>
+        <v>85.4395139092979</v>
       </c>
       <c r="N26">
-        <v>33.5235918634792</v>
+        <v>30.0670436170878</v>
       </c>
       <c r="O26">
-        <v>1622.41877276365</v>
+        <v>2496.86099190426</v>
       </c>
       <c r="P26">
-        <v>68.9423766897792</v>
+        <v>78.481607454049</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>350.327171282333</v>
+        <v>145.271425579467</v>
       </c>
       <c r="C27">
-        <v>3.37564102148159</v>
+        <v>4.66710313720767</v>
       </c>
       <c r="D27">
-        <v>1.23659285264198</v>
+        <v>1.20893970633672</v>
       </c>
       <c r="E27">
-        <v>7.80112722756659</v>
+        <v>14.808822204176</v>
       </c>
       <c r="F27">
-        <v>6.56793387460993</v>
+        <v>8.23703477935933</v>
       </c>
       <c r="G27">
-        <v>0.459814476487023</v>
+        <v>0.629614049167378</v>
       </c>
       <c r="H27">
-        <v>0.124173049618592</v>
+        <v>0.134836525750264</v>
       </c>
       <c r="I27">
-        <v>2.22741881554811</v>
+        <v>2.66213922030478</v>
       </c>
       <c r="J27">
-        <v>2.85565779776725</v>
+        <v>4.7363230339335</v>
       </c>
       <c r="K27">
-        <v>0.82587149316168</v>
+        <v>2.62386906792325</v>
       </c>
       <c r="L27">
-        <v>1.68047848199902</v>
+        <v>1.81022908641707</v>
       </c>
       <c r="M27">
-        <v>1.10981632341584</v>
+        <v>1.37243092177141</v>
       </c>
       <c r="N27">
-        <v>4.20472412759418</v>
+        <v>4.99207512084688</v>
       </c>
       <c r="O27">
-        <v>320.990654410491</v>
+        <v>490.745193282662</v>
       </c>
       <c r="P27">
-        <v>39.5758296471813</v>
+        <v>57.5489009350823</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>461.217258436961</v>
+        <v>200.28844224684</v>
       </c>
       <c r="C28">
-        <v>41.4926889176399</v>
+        <v>42.9404222921599</v>
       </c>
       <c r="D28">
-        <v>1.67776188960157</v>
+        <v>1.84243160286616</v>
       </c>
       <c r="E28">
-        <v>11.8831339706057</v>
+        <v>10.3879684681747</v>
       </c>
       <c r="F28">
-        <v>2.72836193440361</v>
+        <v>2.56571085947624</v>
       </c>
       <c r="G28">
-        <v>5.9196764047714</v>
+        <v>6.48970006758029</v>
       </c>
       <c r="H28">
-        <v>5.27489749686741</v>
+        <v>7.3651242346542</v>
       </c>
       <c r="I28">
-        <v>4.87522633544617</v>
+        <v>4.47788899768406</v>
       </c>
       <c r="J28">
-        <v>12.8397672749572</v>
+        <v>19.6125298851739</v>
       </c>
       <c r="K28">
-        <v>15.3870690603653</v>
+        <v>19.2249046305023</v>
       </c>
       <c r="L28">
-        <v>9.34502977067473</v>
+        <v>14.4397608334599</v>
       </c>
       <c r="M28">
-        <v>11.344475529977</v>
+        <v>10.1444755422239</v>
       </c>
       <c r="N28">
-        <v>12.8348643681466</v>
+        <v>11.119557332115</v>
       </c>
       <c r="O28">
-        <v>599.163060988702</v>
+        <v>819.526500361884</v>
       </c>
       <c r="P28">
-        <v>81.8387149388826</v>
+        <v>96.62101870510359</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>701.003022545956</v>
+        <v>341.012500032638</v>
       </c>
       <c r="C29">
-        <v>6.06782766314434</v>
+        <v>4.74530417348828</v>
       </c>
       <c r="D29">
-        <v>2.19470783807634</v>
+        <v>2.67029563559821</v>
       </c>
       <c r="E29">
-        <v>10.7627613890096</v>
+        <v>7.40147196351331</v>
       </c>
       <c r="F29">
-        <v>13.5028797974636</v>
+        <v>18.5213862437955</v>
       </c>
       <c r="G29">
-        <v>2.64336797697165</v>
+        <v>2.89821654126469</v>
       </c>
       <c r="H29">
-        <v>2.39967322692301</v>
+        <v>2.68615387046924</v>
       </c>
       <c r="I29">
-        <v>3.81960612627542</v>
+        <v>4.56444212820908</v>
       </c>
       <c r="J29">
-        <v>7.44488769128674</v>
+        <v>5.6224328300482</v>
       </c>
       <c r="K29">
-        <v>1.53547815682171</v>
+        <v>2.86477201005357</v>
       </c>
       <c r="L29">
-        <v>6.62751040834409</v>
+        <v>3.31975889096784</v>
       </c>
       <c r="M29">
-        <v>1.98286553751339</v>
+        <v>2.57483213964884</v>
       </c>
       <c r="N29">
-        <v>5.4339240272537</v>
+        <v>12.0378848565786</v>
       </c>
       <c r="O29">
-        <v>773.75332658471</v>
+        <v>1120.47440884414</v>
       </c>
       <c r="P29">
-        <v>8.356198384396871</v>
+        <v>6.02112497754846</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>375.62328918823</v>
+        <v>167.659858157648</v>
       </c>
       <c r="C30">
-        <v>4.22671658368651</v>
+        <v>4.17070283551747</v>
       </c>
       <c r="D30">
-        <v>4.14530146256935</v>
+        <v>5.84895272776473</v>
       </c>
       <c r="E30">
-        <v>14.7765567646494</v>
+        <v>12.7032070293044</v>
       </c>
       <c r="F30">
-        <v>0.17667843214768</v>
+        <v>0.471341324036479</v>
       </c>
       <c r="G30">
-        <v>3.84766405926649</v>
+        <v>5.5826779190071</v>
       </c>
       <c r="H30">
-        <v>4.12251218032663</v>
+        <v>7.37661198930475</v>
       </c>
       <c r="I30">
-        <v>2.19010823580263</v>
+        <v>2.91587255500807</v>
       </c>
       <c r="J30">
-        <v>20.9573643253129</v>
+        <v>21.4976825669859</v>
       </c>
       <c r="K30">
-        <v>7.07254263730193</v>
+        <v>13.3725558686183</v>
       </c>
       <c r="L30">
-        <v>29.5172664661314</v>
+        <v>44.0765712669591</v>
       </c>
       <c r="M30">
-        <v>7.91568907768607</v>
+        <v>11.1564869838996</v>
       </c>
       <c r="N30">
-        <v>11.5634918082465</v>
+        <v>15.4586495947269</v>
       </c>
       <c r="O30">
-        <v>479.023066987254</v>
+        <v>639.132772406527</v>
       </c>
       <c r="P30">
-        <v>5.00509771611664</v>
+        <v>7.34918608190457</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2680.4341235191</v>
+        <v>1472.07824995226</v>
       </c>
       <c r="C31">
-        <v>33.1297358249331</v>
+        <v>43.3917417594145</v>
       </c>
       <c r="D31">
-        <v>23.1349082612351</v>
+        <v>42.5111019385115</v>
       </c>
       <c r="E31">
-        <v>56.8732751161064</v>
+        <v>45.2172329554557</v>
       </c>
       <c r="F31">
-        <v>12.827119938461</v>
+        <v>11.3670327094327</v>
       </c>
       <c r="G31">
-        <v>131.193697028828</v>
+        <v>148.649638247909</v>
       </c>
       <c r="H31">
-        <v>21.3627375848308</v>
+        <v>25.5055963963159</v>
       </c>
       <c r="I31">
-        <v>15.7888593737184</v>
+        <v>22.2818867489161</v>
       </c>
       <c r="J31">
-        <v>43.478869968985</v>
+        <v>49.5128855336214</v>
       </c>
       <c r="K31">
-        <v>26.6607789205304</v>
+        <v>28.7356903918985</v>
       </c>
       <c r="L31">
-        <v>83.2339699870777</v>
+        <v>84.60896264211981</v>
       </c>
       <c r="M31">
-        <v>13.3144984453545</v>
+        <v>19.2829957764818</v>
       </c>
       <c r="N31">
-        <v>47.4285497360495</v>
+        <v>58.7167495838068</v>
       </c>
       <c r="O31">
-        <v>2693.40445545896</v>
+        <v>3825.56973500064</v>
       </c>
       <c r="P31">
-        <v>10.4498642102886</v>
+        <v>11.4055282656615</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>663.034037818868</v>
+        <v>343.195869239469</v>
       </c>
       <c r="C32">
-        <v>6.42991863905106</v>
+        <v>7.67165008286466</v>
       </c>
       <c r="D32">
-        <v>0.725277624722153</v>
+        <v>2.20633776020705</v>
       </c>
       <c r="E32">
-        <v>5.03763217616827</v>
+        <v>6.40287621613887</v>
       </c>
       <c r="F32">
-        <v>26.2091848888277</v>
+        <v>29.0272888218032</v>
       </c>
       <c r="G32">
-        <v>1.42920020037319</v>
+        <v>0.8174812340011171</v>
       </c>
       <c r="H32">
-        <v>0.00345267676064603</v>
+        <v>0.259404903084458</v>
       </c>
       <c r="I32">
-        <v>3.17456699277058</v>
+        <v>7.06147406462226</v>
       </c>
       <c r="J32">
-        <v>4.74458820280693</v>
+        <v>7.47001802049589</v>
       </c>
       <c r="K32">
-        <v>1.51025370834645</v>
+        <v>4.85619367056931</v>
       </c>
       <c r="L32">
-        <v>10.0824548750842</v>
+        <v>14.3026379585306</v>
       </c>
       <c r="M32">
-        <v>5.58356908544746</v>
+        <v>3.45675317854824</v>
       </c>
       <c r="N32">
-        <v>3.52731869291574</v>
+        <v>8.403367851611749</v>
       </c>
       <c r="O32">
-        <v>575.819128077807</v>
+        <v>867.16972328562</v>
       </c>
       <c r="P32">
-        <v>22.7940750974543</v>
+        <v>31.340327700606</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5919.97230940792</v>
+        <v>3646.35075478555</v>
       </c>
       <c r="C33">
-        <v>76.0229718112472</v>
+        <v>92.3098735454153</v>
       </c>
       <c r="D33">
-        <v>49.4515114811114</v>
+        <v>96.1994795335401</v>
       </c>
       <c r="E33">
-        <v>146.297832877955</v>
+        <v>104.014814347435</v>
       </c>
       <c r="F33">
-        <v>6.59688696984906</v>
+        <v>8.396559153828569</v>
       </c>
       <c r="G33">
-        <v>64.6309890766009</v>
+        <v>81.2626566049331</v>
       </c>
       <c r="H33">
-        <v>37.7510254568022</v>
+        <v>48.3821354094309</v>
       </c>
       <c r="I33">
-        <v>24.7593990575207</v>
+        <v>34.1050565544812</v>
       </c>
       <c r="J33">
-        <v>88.9283781227881</v>
+        <v>115.377946614407</v>
       </c>
       <c r="K33">
-        <v>123.732347915751</v>
+        <v>120.887274150544</v>
       </c>
       <c r="L33">
-        <v>132.06867020022</v>
+        <v>161.866376693356</v>
       </c>
       <c r="M33">
-        <v>82.35521799392851</v>
+        <v>89.3299138533778</v>
       </c>
       <c r="N33">
-        <v>101.261148424123</v>
+        <v>163.639077960126</v>
       </c>
       <c r="O33">
-        <v>6063.41940223486</v>
+        <v>8211.07103060052</v>
       </c>
       <c r="P33">
-        <v>79.9266989091373</v>
+        <v>82.8523350048266</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2534.18724910141</v>
+        <v>1327.27066623908</v>
       </c>
       <c r="C34">
-        <v>49.6600153295525</v>
+        <v>88.00357842207541</v>
       </c>
       <c r="D34">
-        <v>157.500565128383</v>
+        <v>223.55975544436</v>
       </c>
       <c r="E34">
-        <v>89.8186320995231</v>
+        <v>73.33079357113709</v>
       </c>
       <c r="F34">
-        <v>7.23176115237206</v>
+        <v>7.08515604017786</v>
       </c>
       <c r="G34">
-        <v>49.1594704760236</v>
+        <v>67.9029691469713</v>
       </c>
       <c r="H34">
-        <v>32.7544727625603</v>
+        <v>47.323723013725</v>
       </c>
       <c r="I34">
-        <v>21.9923029748135</v>
+        <v>27.8645592724855</v>
       </c>
       <c r="J34">
-        <v>42.3741990603753</v>
+        <v>51.6220293386114</v>
       </c>
       <c r="K34">
-        <v>31.7601737093114</v>
+        <v>60.0184240818797</v>
       </c>
       <c r="L34">
-        <v>91.2367230977793</v>
+        <v>103.986330079826</v>
       </c>
       <c r="M34">
-        <v>39.0808927842117</v>
+        <v>54.0045653297218</v>
       </c>
       <c r="N34">
-        <v>121.265894704769</v>
+        <v>140.907867422684</v>
       </c>
       <c r="O34">
-        <v>2376.95960529956</v>
+        <v>3316.51138712768</v>
       </c>
       <c r="P34">
-        <v>54.876029681965</v>
+        <v>85.5837268878747</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>212.161811828058</v>
+        <v>83.9622738283984</v>
       </c>
       <c r="C35">
-        <v>6.63052166964555</v>
+        <v>10.250173318653</v>
       </c>
       <c r="D35">
-        <v>0.424612562127881</v>
+        <v>0.66224734670793</v>
       </c>
       <c r="E35">
-        <v>2.29618167625881</v>
+        <v>2.99410225881355</v>
       </c>
       <c r="F35">
-        <v>5.36994105184047</v>
+        <v>6.52404253338879</v>
       </c>
       <c r="G35">
-        <v>0.469555418351168</v>
+        <v>0.356517901110308</v>
       </c>
       <c r="H35">
-        <v>0.598294033656558</v>
+        <v>0.6599819985819531</v>
       </c>
       <c r="I35">
-        <v>0.376909281980152</v>
+        <v>0.683804984659087</v>
       </c>
       <c r="J35">
-        <v>2.75818748844674</v>
+        <v>3.42261166842341</v>
       </c>
       <c r="K35">
-        <v>4.98873653722363</v>
+        <v>6.38170392219066</v>
       </c>
       <c r="L35">
-        <v>2.7825568277386</v>
+        <v>3.18210153404424</v>
       </c>
       <c r="M35">
-        <v>4.00265008054463</v>
+        <v>3.27368302596767</v>
       </c>
       <c r="N35">
-        <v>2.09875972912581</v>
+        <v>2.91001068766019</v>
       </c>
       <c r="O35">
-        <v>237.217055974944</v>
+        <v>332.990993318868</v>
       </c>
       <c r="P35">
-        <v>41.2295825512171</v>
+        <v>59.0136518239465</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3478.83644212204</v>
+        <v>1839.62016748556</v>
       </c>
       <c r="C36">
-        <v>77.5042629324447</v>
+        <v>81.3417302438358</v>
       </c>
       <c r="D36">
-        <v>23.8292642273928</v>
+        <v>19.322572208844</v>
       </c>
       <c r="E36">
-        <v>134.985502967054</v>
+        <v>115.995018824318</v>
       </c>
       <c r="F36">
-        <v>19.3915790982177</v>
+        <v>32.4269045816979</v>
       </c>
       <c r="G36">
-        <v>78.49648980650809</v>
+        <v>87.84199798378791</v>
       </c>
       <c r="H36">
-        <v>88.9867162041939</v>
+        <v>122.513852099937</v>
       </c>
       <c r="I36">
-        <v>39.8887240304514</v>
+        <v>63.6693567456629</v>
       </c>
       <c r="J36">
-        <v>233.791176591802</v>
+        <v>257.660337104353</v>
       </c>
       <c r="K36">
-        <v>89.3241341827687</v>
+        <v>122.94819241079</v>
       </c>
       <c r="L36">
-        <v>93.13507155647361</v>
+        <v>109.657405498555</v>
       </c>
       <c r="M36">
-        <v>239.317143007488</v>
+        <v>271.481589811953</v>
       </c>
       <c r="N36">
-        <v>68.7808973199619</v>
+        <v>86.5105114355209</v>
       </c>
       <c r="O36">
-        <v>3239.32494292505</v>
+        <v>4683.33121876495</v>
       </c>
       <c r="P36">
-        <v>35.2736156254075</v>
+        <v>46.6932091627954</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1122.74385274457</v>
+        <v>594.594464466826</v>
       </c>
       <c r="C37">
-        <v>22.0744882803743</v>
+        <v>27.258280176044</v>
       </c>
       <c r="D37">
-        <v>9.85445996192859</v>
+        <v>10.1978552207703</v>
       </c>
       <c r="E37">
-        <v>10.765851901285</v>
+        <v>15.9556293174191</v>
       </c>
       <c r="F37">
-        <v>45.3375182330931</v>
+        <v>48.2287310843429</v>
       </c>
       <c r="G37">
-        <v>7.68821571745077</v>
+        <v>5.85960708005918</v>
       </c>
       <c r="H37">
-        <v>15.4786493277038</v>
+        <v>24.1373650171109</v>
       </c>
       <c r="I37">
-        <v>6.01397300344427</v>
+        <v>9.86624311923069</v>
       </c>
       <c r="J37">
-        <v>31.2863699170996</v>
+        <v>31.5170583472581</v>
       </c>
       <c r="K37">
-        <v>31.2222429753567</v>
+        <v>45.4053159796917</v>
       </c>
       <c r="L37">
-        <v>19.6853551048273</v>
+        <v>26.9975321481675</v>
       </c>
       <c r="M37">
-        <v>34.3590438020147</v>
+        <v>35.5497814290382</v>
       </c>
       <c r="N37">
-        <v>10.8664168991906</v>
+        <v>16.0246968374024</v>
       </c>
       <c r="O37">
-        <v>990.014980334329</v>
+        <v>1439.453454328</v>
       </c>
       <c r="P37">
-        <v>20.4574833460408</v>
+        <v>51.1455098722626</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1090.93902937171</v>
+        <v>561.588917773501</v>
       </c>
       <c r="C38">
-        <v>12.5992454810814</v>
+        <v>28.6580819628722</v>
       </c>
       <c r="D38">
-        <v>9.22214802267017</v>
+        <v>12.4889589620272</v>
       </c>
       <c r="E38">
-        <v>62.3121079684839</v>
+        <v>59.2082076504122</v>
       </c>
       <c r="F38">
-        <v>3.00567735460632</v>
+        <v>3.25625095615509</v>
       </c>
       <c r="G38">
-        <v>5.10139401591506</v>
+        <v>5.96660321324164</v>
       </c>
       <c r="H38">
-        <v>4.60212029870968</v>
+        <v>7.00852449819771</v>
       </c>
       <c r="I38">
-        <v>1.34372241883203</v>
+        <v>3.31104672142453</v>
       </c>
       <c r="J38">
-        <v>29.7520046145178</v>
+        <v>40.4926787821325</v>
       </c>
       <c r="K38">
-        <v>15.4148402665716</v>
+        <v>16.5426368140599</v>
       </c>
       <c r="L38">
-        <v>63.9601855915999</v>
+        <v>83.0055423263258</v>
       </c>
       <c r="M38">
-        <v>22.0811271174302</v>
+        <v>21.7215028697383</v>
       </c>
       <c r="N38">
-        <v>17.9391395339571</v>
+        <v>21.1632190949704</v>
       </c>
       <c r="O38">
-        <v>1090.90724768245</v>
+        <v>1523.9533282155</v>
       </c>
       <c r="P38">
-        <v>48.2781647424784</v>
+        <v>92.9269737948877</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3900.04949198355</v>
+        <v>2125.70487273935</v>
       </c>
       <c r="C39">
-        <v>83.0044924475953</v>
+        <v>112.096422969266</v>
       </c>
       <c r="D39">
-        <v>60.1284686536715</v>
+        <v>86.9034636688333</v>
       </c>
       <c r="E39">
-        <v>136.621455337822</v>
+        <v>136.994382849777</v>
       </c>
       <c r="F39">
-        <v>34.2460261951175</v>
+        <v>41.1251126266129</v>
       </c>
       <c r="G39">
-        <v>81.651848538064</v>
+        <v>107.892830171315</v>
       </c>
       <c r="H39">
-        <v>46.5308757443149</v>
+        <v>53.9990727909833</v>
       </c>
       <c r="I39">
-        <v>52.7566673783826</v>
+        <v>60.5844369798917</v>
       </c>
       <c r="J39">
-        <v>203.032170055766</v>
+        <v>208.545216206171</v>
       </c>
       <c r="K39">
-        <v>70.6797220777287</v>
+        <v>111.585783945741</v>
       </c>
       <c r="L39">
-        <v>109.123370309879</v>
+        <v>117.722241397105</v>
       </c>
       <c r="M39">
-        <v>58.5874676437433</v>
+        <v>77.6852445738615</v>
       </c>
       <c r="N39">
-        <v>92.9341307645784</v>
+        <v>116.099596009213</v>
       </c>
       <c r="O39">
-        <v>3691.47769360606</v>
+        <v>5257.92195484807</v>
       </c>
       <c r="P39">
-        <v>70.8712792905722</v>
+        <v>80.09933078508421</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>395.317690688421</v>
+        <v>170.515811423449</v>
       </c>
       <c r="C40">
-        <v>3.34543538854766</v>
+        <v>6.01924609976392</v>
       </c>
       <c r="D40">
-        <v>5.7341321699149</v>
+        <v>14.4061922570876</v>
       </c>
       <c r="E40">
-        <v>7.43516129714068</v>
+        <v>7.74738644345893</v>
       </c>
       <c r="F40">
-        <v>0.758288210982055</v>
+        <v>0.460993244066931</v>
       </c>
       <c r="G40">
-        <v>4.06849250946228</v>
+        <v>6.36730607487085</v>
       </c>
       <c r="H40">
-        <v>3.73675352984834</v>
+        <v>6.88139477555699</v>
       </c>
       <c r="I40">
-        <v>1.21534140411415</v>
+        <v>3.79652040477518</v>
       </c>
       <c r="J40">
-        <v>13.5641633401911</v>
+        <v>17.0919177962672</v>
       </c>
       <c r="K40">
-        <v>3.32462741638212</v>
+        <v>4.72648858776522</v>
       </c>
       <c r="L40">
-        <v>13.7589293697311</v>
+        <v>18.5319948889399</v>
       </c>
       <c r="M40">
-        <v>5.68796188039636</v>
+        <v>7.78982196552773</v>
       </c>
       <c r="N40">
-        <v>16.8273007259219</v>
+        <v>30.0557733997343</v>
       </c>
       <c r="O40">
-        <v>373.612396551538</v>
+        <v>537.969395119943</v>
       </c>
       <c r="P40">
-        <v>0.881107577711447</v>
+        <v>1.77600682939853</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1385.6003993474</v>
+        <v>659.231717415028</v>
       </c>
       <c r="C41">
-        <v>12.8733858078167</v>
+        <v>18.1587439007636</v>
       </c>
       <c r="D41">
-        <v>69.19943459442069</v>
+        <v>103.974118863953</v>
       </c>
       <c r="E41">
-        <v>37.4076475558599</v>
+        <v>52.2321458904705</v>
       </c>
       <c r="F41">
-        <v>1.97269134472659</v>
+        <v>3.44115031817727</v>
       </c>
       <c r="G41">
-        <v>25.0688122475978</v>
+        <v>34.0520340495603</v>
       </c>
       <c r="H41">
-        <v>36.1686628233913</v>
+        <v>38.9758455846946</v>
       </c>
       <c r="I41">
-        <v>6.90849813348397</v>
+        <v>8.14865406868652</v>
       </c>
       <c r="J41">
-        <v>38.7622652013219</v>
+        <v>62.8885959271894</v>
       </c>
       <c r="K41">
-        <v>25.3871554494027</v>
+        <v>38.7804339021</v>
       </c>
       <c r="L41">
-        <v>20.7187158937459</v>
+        <v>33.4449834168519</v>
       </c>
       <c r="M41">
-        <v>35.7642441149522</v>
+        <v>47.443753775752</v>
       </c>
       <c r="N41">
-        <v>22.8043702438568</v>
+        <v>26.6939780212182</v>
       </c>
       <c r="O41">
-        <v>1103.75073895862</v>
+        <v>1675.52526481089</v>
       </c>
       <c r="P41">
-        <v>12.7587330108173</v>
+        <v>22.4389947254152</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>253.044192066946</v>
+        <v>91.3253679251828</v>
       </c>
       <c r="C42">
-        <v>8.18222891344492</v>
+        <v>9.95234747331517</v>
       </c>
       <c r="D42">
-        <v>0.424017034087656</v>
+        <v>0.865098726622367</v>
       </c>
       <c r="E42">
-        <v>7.08160228266654</v>
+        <v>10.2121516893254</v>
       </c>
       <c r="F42">
-        <v>1.85951330041109</v>
+        <v>3.02685743497745</v>
       </c>
       <c r="G42">
-        <v>0.609147003082144</v>
+        <v>0.899566342828248</v>
       </c>
       <c r="H42">
-        <v>2.2303499072249</v>
+        <v>2.30945405186124</v>
       </c>
       <c r="I42">
-        <v>3.47224544368326</v>
+        <v>2.23717039084459</v>
       </c>
       <c r="J42">
-        <v>7.2223709096795</v>
+        <v>5.96956960193408</v>
       </c>
       <c r="K42">
-        <v>4.59487098376982</v>
+        <v>6.35463235764102</v>
       </c>
       <c r="L42">
-        <v>5.53343884653538</v>
+        <v>8.278415766047001</v>
       </c>
       <c r="M42">
-        <v>3.32569780032433</v>
+        <v>3.9939758182456</v>
       </c>
       <c r="N42">
-        <v>8.272310318870931</v>
+        <v>7.76811922903677</v>
       </c>
       <c r="O42">
-        <v>301.085232661283</v>
+        <v>420.513306697639</v>
       </c>
       <c r="P42">
-        <v>39.8422463163241</v>
+        <v>62.664318102888</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1894.1322158694</v>
+        <v>1077.31650702625</v>
       </c>
       <c r="C43">
-        <v>51.4154456365649</v>
+        <v>58.4073183780519</v>
       </c>
       <c r="D43">
-        <v>20.8339470601878</v>
+        <v>45.951357876645</v>
       </c>
       <c r="E43">
-        <v>72.9507129118352</v>
+        <v>69.75573032933541</v>
       </c>
       <c r="F43">
-        <v>4.0503016436587</v>
+        <v>6.91651578279089</v>
       </c>
       <c r="G43">
-        <v>32.70669204592</v>
+        <v>32.7420198027806</v>
       </c>
       <c r="H43">
-        <v>28.4881964070508</v>
+        <v>31.43268513353</v>
       </c>
       <c r="I43">
-        <v>11.9334321907902</v>
+        <v>21.6312614166252</v>
       </c>
       <c r="J43">
-        <v>50.6227066568035</v>
+        <v>63.2626747848459</v>
       </c>
       <c r="K43">
-        <v>41.5170880617808</v>
+        <v>55.4731557919003</v>
       </c>
       <c r="L43">
-        <v>43.181491609198</v>
+        <v>58.3190000417395</v>
       </c>
       <c r="M43">
-        <v>105.54019294925</v>
+        <v>109.069327007003</v>
       </c>
       <c r="N43">
-        <v>46.0927914270928</v>
+        <v>55.2552482904391</v>
       </c>
       <c r="O43">
-        <v>1620.00636595499</v>
+        <v>2326.81736298836</v>
       </c>
       <c r="P43">
-        <v>29.8551688906685</v>
+        <v>52.7124768884354</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6202.16040651767</v>
+        <v>3767.93848990751</v>
       </c>
       <c r="C44">
-        <v>89.278211317097</v>
+        <v>131.845243220918</v>
       </c>
       <c r="D44">
-        <v>37.8589171647963</v>
+        <v>58.1987670255394</v>
       </c>
       <c r="E44">
-        <v>105.079205695931</v>
+        <v>102.768484948642</v>
       </c>
       <c r="F44">
-        <v>215.688234507522</v>
+        <v>245.889030545553</v>
       </c>
       <c r="G44">
-        <v>103.425129037723</v>
+        <v>122.049741343063</v>
       </c>
       <c r="H44">
-        <v>56.3146294192251</v>
+        <v>54.6101031241324</v>
       </c>
       <c r="I44">
-        <v>50.200413889151</v>
+        <v>52.6007709983688</v>
       </c>
       <c r="J44">
-        <v>131.779725536238</v>
+        <v>132.295931234305</v>
       </c>
       <c r="K44">
-        <v>73.9635065456302</v>
+        <v>101.092899414903</v>
       </c>
       <c r="L44">
-        <v>213.402725038774</v>
+        <v>225.857695417542</v>
       </c>
       <c r="M44">
-        <v>124.333585902468</v>
+        <v>125.12565465152</v>
       </c>
       <c r="N44">
-        <v>92.5891926141225</v>
+        <v>92.6471446627173</v>
       </c>
       <c r="O44">
-        <v>6267.05476953959</v>
+        <v>8502.95367981074</v>
       </c>
       <c r="P44">
-        <v>116.996532968712</v>
+        <v>230.780055081286</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>617.6865823388461</v>
+        <v>378.631588565859</v>
       </c>
       <c r="C45">
-        <v>14.6209950657087</v>
+        <v>22.9368760961559</v>
       </c>
       <c r="D45">
-        <v>2.9060931527764</v>
+        <v>4.17710277885095</v>
       </c>
       <c r="E45">
-        <v>18.3869000830824</v>
+        <v>13.8932701987769</v>
       </c>
       <c r="F45">
-        <v>20.4541950714148</v>
+        <v>24.3844326259262</v>
       </c>
       <c r="G45">
-        <v>11.42964991587</v>
+        <v>12.6151162309227</v>
       </c>
       <c r="H45">
-        <v>1.86311980295692</v>
+        <v>3.32807013343634</v>
       </c>
       <c r="I45">
-        <v>5.71853758050715</v>
+        <v>5.56660342080066</v>
       </c>
       <c r="J45">
-        <v>15.1633607770251</v>
+        <v>17.0992241384616</v>
       </c>
       <c r="K45">
-        <v>5.01474436226575</v>
+        <v>6.79890954850813</v>
       </c>
       <c r="L45">
-        <v>18.8799898740354</v>
+        <v>18.1264485613754</v>
       </c>
       <c r="M45">
-        <v>23.1731282623138</v>
+        <v>25.531423243887</v>
       </c>
       <c r="N45">
-        <v>24.8011648367224</v>
+        <v>26.5821522647609</v>
       </c>
       <c r="O45">
-        <v>693.749951369263</v>
+        <v>913.608034154585</v>
       </c>
       <c r="P45">
-        <v>8.998374889996271</v>
+        <v>18.6159507079175</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>203.826561075345</v>
+        <v>80.4936685228033</v>
       </c>
       <c r="C46">
-        <v>5.2143796401425</v>
+        <v>6.68518425706169</v>
       </c>
       <c r="D46">
-        <v>1.00148149722997</v>
+        <v>2.01852987316368</v>
       </c>
       <c r="E46">
-        <v>7.84977992692812</v>
+        <v>8.59016516002024</v>
       </c>
       <c r="F46">
-        <v>0.895985419031314</v>
+        <v>1.88786225530943</v>
       </c>
       <c r="G46">
-        <v>2.08284712359622</v>
+        <v>2.60597130969132</v>
       </c>
       <c r="H46">
-        <v>2.39681965838289</v>
+        <v>2.74594375431706</v>
       </c>
       <c r="I46">
-        <v>1.97834871936314</v>
+        <v>2.0068482613964</v>
       </c>
       <c r="J46">
-        <v>5.68979451137724</v>
+        <v>6.38040177462689</v>
       </c>
       <c r="K46">
-        <v>2.82172949548875</v>
+        <v>4.98066246704369</v>
       </c>
       <c r="L46">
-        <v>13.7114573961696</v>
+        <v>15.0440182300355</v>
       </c>
       <c r="M46">
-        <v>4.65967635227631</v>
+        <v>5.92762380747643</v>
       </c>
       <c r="N46">
-        <v>5.04953565987177</v>
+        <v>9.0973511830659</v>
       </c>
       <c r="O46">
-        <v>260.172447274258</v>
+        <v>360.829258787505</v>
       </c>
       <c r="P46">
-        <v>12.3533584946308</v>
+        <v>15.7442759092855</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>2076.23449047491</v>
+        <v>1113.62081716447</v>
       </c>
       <c r="C47">
-        <v>42.9892642264347</v>
+        <v>60.7096759341178</v>
       </c>
       <c r="D47">
-        <v>38.0034422032381</v>
+        <v>47.564067464258</v>
       </c>
       <c r="E47">
-        <v>62.3722435937754</v>
+        <v>62.1579763376035</v>
       </c>
       <c r="F47">
-        <v>17.2405253938079</v>
+        <v>12.0306298352216</v>
       </c>
       <c r="G47">
-        <v>22.7132429906043</v>
+        <v>27.3243073342576</v>
       </c>
       <c r="H47">
-        <v>22.8126426886916</v>
+        <v>22.8708034590525</v>
       </c>
       <c r="I47">
-        <v>12.6689523554292</v>
+        <v>12.8358025837674</v>
       </c>
       <c r="J47">
-        <v>30.1499886188606</v>
+        <v>40.1627380434672</v>
       </c>
       <c r="K47">
-        <v>21.2276407242987</v>
+        <v>26.3206612003844</v>
       </c>
       <c r="L47">
-        <v>44.5294758012481</v>
+        <v>51.6781148404207</v>
       </c>
       <c r="M47">
-        <v>67.9724886179458</v>
+        <v>75.7408201701811</v>
       </c>
       <c r="N47">
-        <v>43.9592861869453</v>
+        <v>43.5319888018409</v>
       </c>
       <c r="O47">
-        <v>2333.73487365046</v>
+        <v>3219.99207238104</v>
       </c>
       <c r="P47">
-        <v>27.5219817597166</v>
+        <v>53.276438860261</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1810.26721752321</v>
+        <v>1005.1640576791</v>
       </c>
       <c r="C48">
-        <v>36.8694561436089</v>
+        <v>35.3690144909045</v>
       </c>
       <c r="D48">
-        <v>5.9057634638734</v>
+        <v>6.54016603844665</v>
       </c>
       <c r="E48">
-        <v>55.1090381869908</v>
+        <v>69.9620453025812</v>
       </c>
       <c r="F48">
-        <v>3.96446144479463</v>
+        <v>10.0479768099519</v>
       </c>
       <c r="G48">
-        <v>5.20855603549167</v>
+        <v>5.08520708742306</v>
       </c>
       <c r="H48">
-        <v>6.56867499930953</v>
+        <v>5.57103138225061</v>
       </c>
       <c r="I48">
-        <v>7.28286217800802</v>
+        <v>8.87978576109937</v>
       </c>
       <c r="J48">
-        <v>25.7790780067681</v>
+        <v>36.8445263217147</v>
       </c>
       <c r="K48">
-        <v>17.5128656544235</v>
+        <v>21.847943225361</v>
       </c>
       <c r="L48">
-        <v>40.0351653702116</v>
+        <v>45.7745323229466</v>
       </c>
       <c r="M48">
-        <v>125.235159561481</v>
+        <v>135.548859763861</v>
       </c>
       <c r="N48">
-        <v>29.1025104986281</v>
+        <v>35.1813732513578</v>
       </c>
       <c r="O48">
-        <v>1894.45336067505</v>
+        <v>2596.71725718741</v>
       </c>
       <c r="P48">
-        <v>43.0535604644165</v>
+        <v>109.333309806374</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>913.040513577737</v>
+        <v>510.73233843914</v>
       </c>
       <c r="C49">
-        <v>4.76837645682242</v>
+        <v>8.095777912718059</v>
       </c>
       <c r="D49">
-        <v>1.12063210694118</v>
+        <v>3.31945269242252</v>
       </c>
       <c r="E49">
-        <v>13.6561740858579</v>
+        <v>20.15828974403</v>
       </c>
       <c r="F49">
-        <v>24.4615933578833</v>
+        <v>40.2303562856325</v>
       </c>
       <c r="G49">
-        <v>13.4488315635291</v>
+        <v>19.7393975136532</v>
       </c>
       <c r="H49">
-        <v>8.082386924771591</v>
+        <v>12.5641039091761</v>
       </c>
       <c r="I49">
-        <v>1.53621064094348</v>
+        <v>9.280872629176409</v>
       </c>
       <c r="J49">
-        <v>17.4021173019925</v>
+        <v>28.0170007229157</v>
       </c>
       <c r="K49">
-        <v>6.47280157613063</v>
+        <v>11.3056934152527</v>
       </c>
       <c r="L49">
-        <v>2.46371369094138</v>
+        <v>2.81174845482054</v>
       </c>
       <c r="M49">
-        <v>3.40694474762009</v>
+        <v>7.65292130246857</v>
       </c>
       <c r="N49">
-        <v>4.33594302572951</v>
+        <v>5.00785122847284</v>
       </c>
       <c r="O49">
-        <v>455.016164344507</v>
+        <v>777.524155288571</v>
       </c>
       <c r="P49">
-        <v>12.5354448624882</v>
+        <v>15.8659408570564</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1525.15818478271</v>
+        <v>648.885275664281</v>
       </c>
       <c r="C50">
-        <v>76.4045360628362</v>
+        <v>87.8285928304652</v>
       </c>
       <c r="D50">
-        <v>11.0994299905345</v>
+        <v>14.4111334391889</v>
       </c>
       <c r="E50">
-        <v>147.007338979238</v>
+        <v>153.989374353295</v>
       </c>
       <c r="F50">
-        <v>7.0630076125324</v>
+        <v>6.8815068202981</v>
       </c>
       <c r="G50">
-        <v>17.4701600760293</v>
+        <v>25.4409437851991</v>
       </c>
       <c r="H50">
-        <v>50.1813086938989</v>
+        <v>52.4546688775213</v>
       </c>
       <c r="I50">
-        <v>9.74045136673333</v>
+        <v>17.630596403145</v>
       </c>
       <c r="J50">
-        <v>91.2716830561403</v>
+        <v>133.649407795442</v>
       </c>
       <c r="K50">
-        <v>65.5665836313061</v>
+        <v>100.123049023705</v>
       </c>
       <c r="L50">
-        <v>49.5248163959594</v>
+        <v>71.7840140199563</v>
       </c>
       <c r="M50">
-        <v>57.4165443668636</v>
+        <v>47.5357969008223</v>
       </c>
       <c r="N50">
-        <v>54.9175084026361</v>
+        <v>69.5839676718074</v>
       </c>
       <c r="O50">
-        <v>1547.00433952947</v>
+        <v>2245.45101866043</v>
       </c>
       <c r="P50">
-        <v>96.12772194316879</v>
+        <v>123.16652596938</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>222.381273432347</v>
+        <v>91.92382226964141</v>
       </c>
       <c r="C51">
-        <v>0.679090748784431</v>
+        <v>2.39055457780564</v>
       </c>
       <c r="D51">
-        <v>0.15013141327113</v>
+        <v>0.0500354717046099</v>
       </c>
       <c r="E51">
-        <v>2.21123871326669</v>
+        <v>2.8725831131182</v>
       </c>
       <c r="F51">
-        <v>29.623228414742</v>
+        <v>39.9954779608824</v>
       </c>
       <c r="G51">
-        <v>4.23056082207897</v>
+        <v>3.3158053560703</v>
       </c>
       <c r="H51">
-        <v>0.040724919166593</v>
+        <v>0.396108725864854</v>
       </c>
       <c r="I51">
-        <v>0.8240827315164681</v>
+        <v>1.74172196552803</v>
       </c>
       <c r="J51">
-        <v>2.70119209112139</v>
+        <v>2.40466252408216</v>
       </c>
       <c r="K51">
-        <v>0.349049886273421</v>
+        <v>0.813977980528523</v>
       </c>
       <c r="L51">
-        <v>0.381553094203863</v>
+        <v>0.248686523006487</v>
       </c>
       <c r="M51">
-        <v>0.5258362259217551</v>
+        <v>0.5392090450713261</v>
       </c>
       <c r="N51">
-        <v>1.7479521198942</v>
+        <v>2.35392085537989</v>
       </c>
       <c r="O51">
-        <v>234.794651441742</v>
+        <v>329.186399837172</v>
       </c>
       <c r="P51">
-        <v>10.2683508814009</v>
+        <v>23.538616520566</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>839.687014301025</v>
+        <v>452.206425995163</v>
       </c>
       <c r="C2">
-        <v>49.323792088012</v>
+        <v>45.6916394204086</v>
       </c>
       <c r="D2">
-        <v>82.5968266872744</v>
+        <v>80.00192508752821</v>
       </c>
       <c r="E2">
-        <v>74.3942095380048</v>
+        <v>94.61756026267361</v>
       </c>
       <c r="F2">
-        <v>21.0529869465685</v>
+        <v>24.2875137476009</v>
       </c>
       <c r="G2">
-        <v>16.3743453716248</v>
+        <v>23.0389982317506</v>
       </c>
       <c r="H2">
-        <v>21.8709797640587</v>
+        <v>38.5244444161544</v>
       </c>
       <c r="I2">
-        <v>16.4041844954482</v>
+        <v>23.893466399527</v>
       </c>
       <c r="J2">
-        <v>73.0397189268689</v>
+        <v>85.5699876512179</v>
       </c>
       <c r="K2">
-        <v>23.4173459425454</v>
+        <v>25.2817008384206</v>
       </c>
       <c r="L2">
-        <v>39.9552493976168</v>
+        <v>40.3311075549613</v>
       </c>
       <c r="M2">
-        <v>49.5036195414388</v>
+        <v>63.1375680736612</v>
       </c>
       <c r="N2">
-        <v>29.6026114235301</v>
+        <v>32.1271214174369</v>
       </c>
       <c r="O2">
-        <v>1779.69983313008</v>
+        <v>2064.96337142541</v>
       </c>
       <c r="P2">
-        <v>36.6388538886687</v>
+        <v>41.5880993629942</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>129.408378124132</v>
+        <v>100.753442139065</v>
       </c>
       <c r="C3">
-        <v>7.52793849839609</v>
+        <v>5.94572916326191</v>
       </c>
       <c r="D3">
-        <v>0.183065790410742</v>
+        <v>0.352097495015121</v>
       </c>
       <c r="E3">
-        <v>1.33441583367405</v>
+        <v>1.22717210558699</v>
       </c>
       <c r="F3">
-        <v>14.2964635834523</v>
+        <v>17.9135022437612</v>
       </c>
       <c r="G3">
-        <v>0.12577165208682</v>
+        <v>0.314460116907413</v>
       </c>
       <c r="H3">
-        <v>0.259740987970435</v>
+        <v>0.353605610455371</v>
       </c>
       <c r="I3">
-        <v>0.330387975180075</v>
+        <v>0.410273610427611</v>
       </c>
       <c r="J3">
-        <v>0.885222001739516</v>
+        <v>1.0389763138023</v>
       </c>
       <c r="K3">
-        <v>0.126506782007399</v>
+        <v>0.300844074292299</v>
       </c>
       <c r="L3">
-        <v>0.263015007417208</v>
+        <v>0.307709582399453</v>
       </c>
       <c r="M3">
-        <v>1.3665497978868</v>
+        <v>1.73236541860224</v>
       </c>
       <c r="N3">
-        <v>1.23390005845231</v>
+        <v>1.49210001421952</v>
       </c>
       <c r="O3">
-        <v>378.579472778448</v>
+        <v>452.649678889333</v>
       </c>
       <c r="P3">
-        <v>15.1305751043364</v>
+        <v>14.1720086426122</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>928.313718943615</v>
+        <v>544.621772820907</v>
       </c>
       <c r="C4">
-        <v>12.2545475453113</v>
+        <v>14.2016892428069</v>
       </c>
       <c r="D4">
-        <v>3.80797726629505</v>
+        <v>6.136494646202</v>
       </c>
       <c r="E4">
-        <v>24.1929787528758</v>
+        <v>16.7069399649891</v>
       </c>
       <c r="F4">
-        <v>13.3335128024643</v>
+        <v>7.535051388578</v>
       </c>
       <c r="G4">
-        <v>9.72850129024112</v>
+        <v>14.6655377914843</v>
       </c>
       <c r="H4">
-        <v>10.3379273634297</v>
+        <v>11.1261925384285</v>
       </c>
       <c r="I4">
-        <v>11.9492363165224</v>
+        <v>13.3046437986466</v>
       </c>
       <c r="J4">
-        <v>30.0545142192841</v>
+        <v>30.4530475792694</v>
       </c>
       <c r="K4">
-        <v>12.2499857528836</v>
+        <v>12.6504648148789</v>
       </c>
       <c r="L4">
-        <v>78.2933573333398</v>
+        <v>107.994133731918</v>
       </c>
       <c r="M4">
-        <v>62.680482455636</v>
+        <v>76.238457981138</v>
       </c>
       <c r="N4">
-        <v>37.2530179550829</v>
+        <v>43.1946622078509</v>
       </c>
       <c r="O4">
-        <v>2351.48815275649</v>
+        <v>2634.83509368183</v>
       </c>
       <c r="P4">
-        <v>49.5089086479442</v>
+        <v>42.4291906966544</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>475.901012768241</v>
+        <v>265.875554261009</v>
       </c>
       <c r="C5">
-        <v>83.788954390442</v>
+        <v>83.3298120820066</v>
       </c>
       <c r="D5">
-        <v>19.5794852353169</v>
+        <v>22.0850896880888</v>
       </c>
       <c r="E5">
-        <v>50.9693719093672</v>
+        <v>44.9488346731491</v>
       </c>
       <c r="F5">
-        <v>3.64770949663542</v>
+        <v>1.50885237880495</v>
       </c>
       <c r="G5">
-        <v>12.5780832862105</v>
+        <v>12.906367207887</v>
       </c>
       <c r="H5">
-        <v>13.7202654687342</v>
+        <v>14.9607097204314</v>
       </c>
       <c r="I5">
-        <v>9.30423278948744</v>
+        <v>12.2969999857701</v>
       </c>
       <c r="J5">
-        <v>31.2499992169416</v>
+        <v>40.7180010734949</v>
       </c>
       <c r="K5">
-        <v>27.166721977589</v>
+        <v>33.445223955717</v>
       </c>
       <c r="L5">
-        <v>22.6167937335027</v>
+        <v>29.5670533880534</v>
       </c>
       <c r="M5">
-        <v>25.7691245891952</v>
+        <v>19.8019448415297</v>
       </c>
       <c r="N5">
-        <v>22.1541954713625</v>
+        <v>20.9173082082239</v>
       </c>
       <c r="O5">
-        <v>1035.50568550972</v>
+        <v>1242.11377088289</v>
       </c>
       <c r="P5">
-        <v>63.8616691282504</v>
+        <v>53.4793054921723</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6339.91708242285</v>
+        <v>4048.0870554246</v>
       </c>
       <c r="C6">
-        <v>201.110411230351</v>
+        <v>183.455379529008</v>
       </c>
       <c r="D6">
-        <v>225.843403347066</v>
+        <v>292.511928221767</v>
       </c>
       <c r="E6">
-        <v>168.739126065244</v>
+        <v>138.79145069024</v>
       </c>
       <c r="F6">
-        <v>33.4038203844108</v>
+        <v>37.2641691859164</v>
       </c>
       <c r="G6">
-        <v>115.18137305806</v>
+        <v>154.526673752985</v>
       </c>
       <c r="H6">
-        <v>79.6753950108703</v>
+        <v>96.93952579718081</v>
       </c>
       <c r="I6">
-        <v>58.0379507482005</v>
+        <v>68.2299743438272</v>
       </c>
       <c r="J6">
-        <v>195.366695742082</v>
+        <v>219.831481613128</v>
       </c>
       <c r="K6">
-        <v>122.855166873103</v>
+        <v>162.861456628461</v>
       </c>
       <c r="L6">
-        <v>598.916824275506</v>
+        <v>616.873049708014</v>
       </c>
       <c r="M6">
-        <v>284.969382913805</v>
+        <v>404.500488955422</v>
       </c>
       <c r="N6">
-        <v>289.696683309712</v>
+        <v>364.19658895335</v>
       </c>
       <c r="O6">
-        <v>13840.4590271485</v>
+        <v>15631.2668400052</v>
       </c>
       <c r="P6">
-        <v>359.835671087409</v>
+        <v>266.77001355769</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>563.677721957248</v>
+        <v>361.571494129996</v>
       </c>
       <c r="C7">
-        <v>31.544341266089</v>
+        <v>40.9988754367022</v>
       </c>
       <c r="D7">
-        <v>3.6433486336238</v>
+        <v>3.57084556450081</v>
       </c>
       <c r="E7">
-        <v>20.5627055705448</v>
+        <v>16.3699043574105</v>
       </c>
       <c r="F7">
-        <v>17.3285764181002</v>
+        <v>15.4602268975711</v>
       </c>
       <c r="G7">
-        <v>10.3771835597133</v>
+        <v>12.8684693030546</v>
       </c>
       <c r="H7">
-        <v>9.224159046573581</v>
+        <v>12.8526434866856</v>
       </c>
       <c r="I7">
-        <v>9.87170286151092</v>
+        <v>8.770511302810281</v>
       </c>
       <c r="J7">
-        <v>20.8932131959328</v>
+        <v>23.8125476918638</v>
       </c>
       <c r="K7">
-        <v>16.7535018019512</v>
+        <v>20.9852845061596</v>
       </c>
       <c r="L7">
-        <v>55.0388481607544</v>
+        <v>61.732115768851</v>
       </c>
       <c r="M7">
-        <v>19.5801288074418</v>
+        <v>26.5043252482749</v>
       </c>
       <c r="N7">
-        <v>26.7872844375719</v>
+        <v>33.5810044224373</v>
       </c>
       <c r="O7">
-        <v>2054.95576021531</v>
+        <v>2240.54663044818</v>
       </c>
       <c r="P7">
-        <v>44.9633804821218</v>
+        <v>25.0659142449611</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>504.866265490131</v>
+        <v>270.411514614231</v>
       </c>
       <c r="C8">
-        <v>10.1404386948041</v>
+        <v>14.9988075431279</v>
       </c>
       <c r="D8">
-        <v>12.1403327982095</v>
+        <v>10.3311743854304</v>
       </c>
       <c r="E8">
-        <v>23.3051404828195</v>
+        <v>15.2163728251448</v>
       </c>
       <c r="F8">
-        <v>1.70726991205685</v>
+        <v>1.37765830497236</v>
       </c>
       <c r="G8">
-        <v>38.8119796670907</v>
+        <v>42.5325820089375</v>
       </c>
       <c r="H8">
-        <v>9.98665610804613</v>
+        <v>16.2544002215429</v>
       </c>
       <c r="I8">
-        <v>2.81035060189456</v>
+        <v>1.45270404321836</v>
       </c>
       <c r="J8">
-        <v>59.444127442746</v>
+        <v>60.8248099873889</v>
       </c>
       <c r="K8">
-        <v>27.0335781926508</v>
+        <v>44.0978519146622</v>
       </c>
       <c r="L8">
-        <v>49.0624208946877</v>
+        <v>59.6407233679334</v>
       </c>
       <c r="M8">
-        <v>59.2903702708295</v>
+        <v>83.41736143162819</v>
       </c>
       <c r="N8">
-        <v>18.5989748060458</v>
+        <v>31.4281879679701</v>
       </c>
       <c r="O8">
-        <v>1528.39122196469</v>
+        <v>1702.7359537586</v>
       </c>
       <c r="P8">
-        <v>6.36187105604045</v>
+        <v>5.33313448799122</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>129.39919213331</v>
+        <v>77.83293753277729</v>
       </c>
       <c r="C9">
-        <v>13.0596930999765</v>
+        <v>11.8775844006149</v>
       </c>
       <c r="D9">
-        <v>3.59785555531711</v>
+        <v>3.56940142494991</v>
       </c>
       <c r="E9">
-        <v>8.264032273006871</v>
+        <v>6.70864830309339</v>
       </c>
       <c r="F9">
-        <v>2.37371052068833</v>
+        <v>3.30718881403104</v>
       </c>
       <c r="G9">
-        <v>27.6476870896221</v>
+        <v>36.4470971155021</v>
       </c>
       <c r="H9">
-        <v>3.36185275338806</v>
+        <v>4.32598082683004</v>
       </c>
       <c r="I9">
-        <v>2.06139305668177</v>
+        <v>1.64479616278355</v>
       </c>
       <c r="J9">
-        <v>4.3345840366011</v>
+        <v>4.65262472482228</v>
       </c>
       <c r="K9">
-        <v>3.75570077542702</v>
+        <v>5.99932082252481</v>
       </c>
       <c r="L9">
-        <v>4.71467902848567</v>
+        <v>5.95420742380372</v>
       </c>
       <c r="M9">
-        <v>12.4007842904285</v>
+        <v>12.3532860751346</v>
       </c>
       <c r="N9">
-        <v>6.2772852967502</v>
+        <v>8.42983608894264</v>
       </c>
       <c r="O9">
-        <v>457.270720157211</v>
+        <v>543.198485658524</v>
       </c>
       <c r="P9">
-        <v>9.8756842964552</v>
+        <v>11.0688748548767</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3110.80151914078</v>
+        <v>1701.30661691143</v>
       </c>
       <c r="C10">
-        <v>60.1202980948851</v>
+        <v>61.778791189339</v>
       </c>
       <c r="D10">
-        <v>30.7810982733671</v>
+        <v>36.5951738588296</v>
       </c>
       <c r="E10">
-        <v>67.250354244478</v>
+        <v>54.4949957418183</v>
       </c>
       <c r="F10">
-        <v>16.6976185718971</v>
+        <v>11.8928683201376</v>
       </c>
       <c r="G10">
-        <v>30.1062368527316</v>
+        <v>33.0541511071865</v>
       </c>
       <c r="H10">
-        <v>18.8370981749095</v>
+        <v>21.8289577112133</v>
       </c>
       <c r="I10">
-        <v>34.0313162585084</v>
+        <v>42.2976672683538</v>
       </c>
       <c r="J10">
-        <v>65.2792917831615</v>
+        <v>66.43466455865391</v>
       </c>
       <c r="K10">
-        <v>35.6528795981843</v>
+        <v>55.8523449690808</v>
       </c>
       <c r="L10">
-        <v>120.243339875715</v>
+        <v>148.144847228572</v>
       </c>
       <c r="M10">
-        <v>107.82162863874</v>
+        <v>130.774479976481</v>
       </c>
       <c r="N10">
-        <v>87.5524413968959</v>
+        <v>107.389885633302</v>
       </c>
       <c r="O10">
-        <v>8068.07714632822</v>
+        <v>9309.66659539682</v>
       </c>
       <c r="P10">
-        <v>113.650377814458</v>
+        <v>87.7771787572941</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1355.07868466692</v>
+        <v>777.088812488591</v>
       </c>
       <c r="C11">
-        <v>75.0486698825932</v>
+        <v>77.4676558758277</v>
       </c>
       <c r="D11">
-        <v>163.023713136614</v>
+        <v>184.004865281664</v>
       </c>
       <c r="E11">
-        <v>107.114099378889</v>
+        <v>123.910111684636</v>
       </c>
       <c r="F11">
-        <v>8.53948827883606</v>
+        <v>5.8295098671968</v>
       </c>
       <c r="G11">
-        <v>32.9700280678544</v>
+        <v>40.8249364508851</v>
       </c>
       <c r="H11">
-        <v>21.0431918627276</v>
+        <v>17.3785371397178</v>
       </c>
       <c r="I11">
-        <v>19.559323753283</v>
+        <v>24.6787314810797</v>
       </c>
       <c r="J11">
-        <v>70.0512738562872</v>
+        <v>63.8581840184314</v>
       </c>
       <c r="K11">
-        <v>36.7085492952808</v>
+        <v>47.7118202111772</v>
       </c>
       <c r="L11">
-        <v>68.0691546215868</v>
+        <v>76.1528248341609</v>
       </c>
       <c r="M11">
-        <v>66.87756610629729</v>
+        <v>63.6158675639511</v>
       </c>
       <c r="N11">
-        <v>45.122023463477</v>
+        <v>49.7774752966214</v>
       </c>
       <c r="O11">
-        <v>3555.83709915171</v>
+        <v>4071.57179441053</v>
       </c>
       <c r="P11">
-        <v>37.7474387838585</v>
+        <v>27.2481877684038</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>230.235103256387</v>
+        <v>137.46155448863</v>
       </c>
       <c r="C12">
-        <v>7.51795883689682</v>
+        <v>11.41046859086</v>
       </c>
       <c r="D12">
-        <v>4.2019644022173</v>
+        <v>5.83272474946349</v>
       </c>
       <c r="E12">
-        <v>0.806474977355624</v>
+        <v>0.75796330025187</v>
       </c>
       <c r="F12">
-        <v>0.601754447963442</v>
+        <v>0.973969757157065</v>
       </c>
       <c r="G12">
-        <v>0.238104791683668</v>
+        <v>0.50591637129983</v>
       </c>
       <c r="H12">
-        <v>0.43797313303057</v>
+        <v>0.438865712374896</v>
       </c>
       <c r="I12">
-        <v>1.70314517272294</v>
+        <v>2.47096647381441</v>
       </c>
       <c r="J12">
-        <v>1.18362717804169</v>
+        <v>1.73467924704229</v>
       </c>
       <c r="K12">
-        <v>0.504155635576572</v>
+        <v>0.706556093882966</v>
       </c>
       <c r="L12">
-        <v>0.483065293779875</v>
+        <v>0.582839065857354</v>
       </c>
       <c r="M12">
-        <v>4.03519441163479</v>
+        <v>5.35709943775025</v>
       </c>
       <c r="N12">
-        <v>4.25157762369582</v>
+        <v>5.3676946941274</v>
       </c>
       <c r="O12">
-        <v>695.969794620377</v>
+        <v>829.410981238151</v>
       </c>
       <c r="P12">
-        <v>27.1598852222895</v>
+        <v>24.6294406966258</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>198.222643419708</v>
+        <v>133.281126539629</v>
       </c>
       <c r="C13">
-        <v>31.0052027433528</v>
+        <v>34.5554452131735</v>
       </c>
       <c r="D13">
-        <v>2.21709490603492</v>
+        <v>1.81938083984791</v>
       </c>
       <c r="E13">
-        <v>17.8917505855647</v>
+        <v>17.762983834272</v>
       </c>
       <c r="F13">
-        <v>3.62196593106643</v>
+        <v>4.13088452501429</v>
       </c>
       <c r="G13">
-        <v>6.08624144065274</v>
+        <v>8.150883745448059</v>
       </c>
       <c r="H13">
-        <v>2.24412069462727</v>
+        <v>2.76098989874072</v>
       </c>
       <c r="I13">
-        <v>1.01108971595014</v>
+        <v>1.20099172492304</v>
       </c>
       <c r="J13">
-        <v>7.0131197596144</v>
+        <v>7.079881706437</v>
       </c>
       <c r="K13">
-        <v>3.87343724283926</v>
+        <v>5.79515516875402</v>
       </c>
       <c r="L13">
-        <v>24.5336378337429</v>
+        <v>33.4559812760526</v>
       </c>
       <c r="M13">
-        <v>2.48132111670389</v>
+        <v>3.48827549400098</v>
       </c>
       <c r="N13">
-        <v>8.335799677926561</v>
+        <v>9.358007208762871</v>
       </c>
       <c r="O13">
-        <v>595.900558239317</v>
+        <v>667.291239875036</v>
       </c>
       <c r="P13">
-        <v>59.3181085909197</v>
+        <v>56.0751740284588</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1968.90114645979</v>
+        <v>1198.89964847629</v>
       </c>
       <c r="C14">
-        <v>112.446546422617</v>
+        <v>124.539453135897</v>
       </c>
       <c r="D14">
-        <v>16.1462501984071</v>
+        <v>16.722997209192</v>
       </c>
       <c r="E14">
-        <v>104.408822244939</v>
+        <v>66.7854439997916</v>
       </c>
       <c r="F14">
-        <v>28.6822737413407</v>
+        <v>18.7172805488077</v>
       </c>
       <c r="G14">
-        <v>88.7478993670271</v>
+        <v>118.658219971331</v>
       </c>
       <c r="H14">
-        <v>68.81653952965399</v>
+        <v>70.8151218752418</v>
       </c>
       <c r="I14">
-        <v>27.0326553171784</v>
+        <v>32.6420228081583</v>
       </c>
       <c r="J14">
-        <v>172.449201424198</v>
+        <v>155.65871876882</v>
       </c>
       <c r="K14">
-        <v>178.771895351063</v>
+        <v>220.512018867738</v>
       </c>
       <c r="L14">
-        <v>143.417358895189</v>
+        <v>173.997092387237</v>
       </c>
       <c r="M14">
-        <v>96.33677721983069</v>
+        <v>94.36582235769539</v>
       </c>
       <c r="N14">
-        <v>99.8127171068892</v>
+        <v>109.173376534961</v>
       </c>
       <c r="O14">
-        <v>5317.28071152049</v>
+        <v>6028.51679315652</v>
       </c>
       <c r="P14">
-        <v>81.064377622785</v>
+        <v>44.0545650073964</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>831.13547264309</v>
+        <v>495.380820841746</v>
       </c>
       <c r="C15">
-        <v>57.8933843078306</v>
+        <v>47.2785826577778</v>
       </c>
       <c r="D15">
-        <v>10.5686139501349</v>
+        <v>14.2862519021626</v>
       </c>
       <c r="E15">
-        <v>64.26057603812291</v>
+        <v>64.2771720012278</v>
       </c>
       <c r="F15">
-        <v>14.2938622717938</v>
+        <v>14.5456501381594</v>
       </c>
       <c r="G15">
-        <v>44.0987783335012</v>
+        <v>54.5506635094714</v>
       </c>
       <c r="H15">
-        <v>51.806119869455</v>
+        <v>55.5741955740301</v>
       </c>
       <c r="I15">
-        <v>42.674410104685</v>
+        <v>62.0656665677857</v>
       </c>
       <c r="J15">
-        <v>182.86736244504</v>
+        <v>230.931245215201</v>
       </c>
       <c r="K15">
-        <v>68.4090681118774</v>
+        <v>100.194096850209</v>
       </c>
       <c r="L15">
-        <v>56.246924311243</v>
+        <v>60.5688129222635</v>
       </c>
       <c r="M15">
-        <v>207.598185857418</v>
+        <v>175.099028281949</v>
       </c>
       <c r="N15">
-        <v>92.35818499833179</v>
+        <v>117.308812784686</v>
       </c>
       <c r="O15">
-        <v>2488.74833163115</v>
+        <v>2731.77394597432</v>
       </c>
       <c r="P15">
-        <v>55.8584239583029</v>
+        <v>54.2690943340434</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>333.064340199195</v>
+        <v>179.104459560035</v>
       </c>
       <c r="C16">
-        <v>75.9473855597717</v>
+        <v>80.3698046633717</v>
       </c>
       <c r="D16">
-        <v>10.1551226079251</v>
+        <v>19.2276090069183</v>
       </c>
       <c r="E16">
-        <v>33.764927401967</v>
+        <v>26.8810142034338</v>
       </c>
       <c r="F16">
-        <v>6.09195030022189</v>
+        <v>6.02425031403583</v>
       </c>
       <c r="G16">
-        <v>14.6527911235009</v>
+        <v>18.7726021881421</v>
       </c>
       <c r="H16">
-        <v>23.077749039666</v>
+        <v>20.9398410513898</v>
       </c>
       <c r="I16">
-        <v>8.46857541291541</v>
+        <v>10.0528252916755</v>
       </c>
       <c r="J16">
-        <v>49.6689391550374</v>
+        <v>52.486563718938</v>
       </c>
       <c r="K16">
-        <v>59.6782660354154</v>
+        <v>65.83980823392921</v>
       </c>
       <c r="L16">
-        <v>36.5184656352574</v>
+        <v>35.6633903000802</v>
       </c>
       <c r="M16">
-        <v>29.1482018757572</v>
+        <v>18.5426319100795</v>
       </c>
       <c r="N16">
-        <v>27.4321828338838</v>
+        <v>35.4153044764242</v>
       </c>
       <c r="O16">
-        <v>1315.57402145676</v>
+        <v>1502.00473839927</v>
       </c>
       <c r="P16">
-        <v>116.550850508416</v>
+        <v>118.245926033862</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>378.507897878137</v>
+        <v>214.070255652669</v>
       </c>
       <c r="C17">
-        <v>29.6393527935009</v>
+        <v>25.5004975777732</v>
       </c>
       <c r="D17">
-        <v>6.52735017543343</v>
+        <v>9.60514261907065</v>
       </c>
       <c r="E17">
-        <v>21.5663185045179</v>
+        <v>14.5572877474337</v>
       </c>
       <c r="F17">
-        <v>15.1113562604825</v>
+        <v>14.3030207459946</v>
       </c>
       <c r="G17">
-        <v>11.5812734345271</v>
+        <v>15.5452201437904</v>
       </c>
       <c r="H17">
-        <v>11.4042419557292</v>
+        <v>7.8505379957054</v>
       </c>
       <c r="I17">
-        <v>6.97035683094006</v>
+        <v>8.88522224671204</v>
       </c>
       <c r="J17">
-        <v>19.8030002226268</v>
+        <v>20.8811730978848</v>
       </c>
       <c r="K17">
-        <v>19.5951768914756</v>
+        <v>25.4924843444356</v>
       </c>
       <c r="L17">
-        <v>14.3509929959204</v>
+        <v>16.5059636499892</v>
       </c>
       <c r="M17">
-        <v>81.2293550852403</v>
+        <v>94.2336347133636</v>
       </c>
       <c r="N17">
-        <v>12.9191951690341</v>
+        <v>14.5942944073771</v>
       </c>
       <c r="O17">
-        <v>1217.18223194527</v>
+        <v>1407.80677456378</v>
       </c>
       <c r="P17">
-        <v>66.1191830043668</v>
+        <v>60.825888205083</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>795.850899258036</v>
+        <v>454.999915370046</v>
       </c>
       <c r="C18">
-        <v>37.4361053652144</v>
+        <v>40.9726922466453</v>
       </c>
       <c r="D18">
-        <v>17.5435877401071</v>
+        <v>15.4456404747678</v>
       </c>
       <c r="E18">
-        <v>47.6372782925291</v>
+        <v>38.2515203639099</v>
       </c>
       <c r="F18">
-        <v>37.7181796832551</v>
+        <v>47.8041315230825</v>
       </c>
       <c r="G18">
-        <v>22.6432759511057</v>
+        <v>38.7981962582119</v>
       </c>
       <c r="H18">
-        <v>26.2446426071511</v>
+        <v>29.6144012592325</v>
       </c>
       <c r="I18">
-        <v>9.52099298747766</v>
+        <v>10.6829827176258</v>
       </c>
       <c r="J18">
-        <v>57.8481957017859</v>
+        <v>50.0129588548171</v>
       </c>
       <c r="K18">
-        <v>28.6583556100429</v>
+        <v>33.023907935226</v>
       </c>
       <c r="L18">
-        <v>33.5560837952371</v>
+        <v>46.897157329547</v>
       </c>
       <c r="M18">
-        <v>73.2499126436486</v>
+        <v>75.5058481319721</v>
       </c>
       <c r="N18">
-        <v>28.4831270449189</v>
+        <v>26.2072632789776</v>
       </c>
       <c r="O18">
-        <v>1764.21701875857</v>
+        <v>2105.63565347066</v>
       </c>
       <c r="P18">
-        <v>54.0210027392615</v>
+        <v>55.401617382339</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>902.093450058031</v>
+        <v>548.89353959888</v>
       </c>
       <c r="C19">
-        <v>23.2855271019536</v>
+        <v>29.1012792467071</v>
       </c>
       <c r="D19">
-        <v>11.9019450143746</v>
+        <v>13.0401243255069</v>
       </c>
       <c r="E19">
-        <v>33.9268377713894</v>
+        <v>25.4616986053375</v>
       </c>
       <c r="F19">
-        <v>73.46731197682411</v>
+        <v>92.4992247722698</v>
       </c>
       <c r="G19">
-        <v>38.5314153676963</v>
+        <v>47.0331116636437</v>
       </c>
       <c r="H19">
-        <v>9.44562137630008</v>
+        <v>7.95993227038746</v>
       </c>
       <c r="I19">
-        <v>11.1530418257846</v>
+        <v>13.2979422509521</v>
       </c>
       <c r="J19">
-        <v>20.6866447203669</v>
+        <v>14.6492679213125</v>
       </c>
       <c r="K19">
-        <v>16.5346596649144</v>
+        <v>21.5106066014739</v>
       </c>
       <c r="L19">
-        <v>4.56207043015993</v>
+        <v>6.03961278087644</v>
       </c>
       <c r="M19">
-        <v>39.7034978375642</v>
+        <v>38.0347350534808</v>
       </c>
       <c r="N19">
-        <v>5.05056739991284</v>
+        <v>4.77892773421973</v>
       </c>
       <c r="O19">
-        <v>1889.84793244317</v>
+        <v>2233.3737957908</v>
       </c>
       <c r="P19">
-        <v>64.83977239056</v>
+        <v>53.7776598726191</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>207.033627340423</v>
+        <v>120.013175796411</v>
       </c>
       <c r="C20">
-        <v>9.537895755408879</v>
+        <v>10.9022143050792</v>
       </c>
       <c r="D20">
-        <v>12.8524252592127</v>
+        <v>15.0271418529863</v>
       </c>
       <c r="E20">
-        <v>42.1300228636012</v>
+        <v>41.7508607026412</v>
       </c>
       <c r="F20">
-        <v>0.142652796987806</v>
+        <v>0.124251547320042</v>
       </c>
       <c r="G20">
-        <v>1.0160774090874</v>
+        <v>1.05092904668507</v>
       </c>
       <c r="H20">
-        <v>2.1402163772063</v>
+        <v>4.55828708930781</v>
       </c>
       <c r="I20">
-        <v>0.609711883549363</v>
+        <v>0.407703807877471</v>
       </c>
       <c r="J20">
-        <v>8.478398664139631</v>
+        <v>7.11644817304208</v>
       </c>
       <c r="K20">
-        <v>3.7542981709133</v>
+        <v>5.37773752395485</v>
       </c>
       <c r="L20">
-        <v>9.201856045438481</v>
+        <v>10.569076273016</v>
       </c>
       <c r="M20">
-        <v>19.4918700716151</v>
+        <v>29.1343728254363</v>
       </c>
       <c r="N20">
-        <v>7.29292229018008</v>
+        <v>7.12103782148392</v>
       </c>
       <c r="O20">
-        <v>632.595306125738</v>
+        <v>728.683981809419</v>
       </c>
       <c r="P20">
-        <v>27.7634360689359</v>
+        <v>24.8934685564435</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>670.378588201131</v>
+        <v>387.191495777127</v>
       </c>
       <c r="C21">
-        <v>22.2638669270615</v>
+        <v>24.8415824567395</v>
       </c>
       <c r="D21">
-        <v>9.22863682578889</v>
+        <v>7.94954807353789</v>
       </c>
       <c r="E21">
-        <v>36.8244533272671</v>
+        <v>24.222548145019</v>
       </c>
       <c r="F21">
-        <v>2.67148069652585</v>
+        <v>2.18432333551322</v>
       </c>
       <c r="G21">
-        <v>18.2000408691983</v>
+        <v>21.3786158736723</v>
       </c>
       <c r="H21">
-        <v>9.49036635400785</v>
+        <v>10.4916125392429</v>
       </c>
       <c r="I21">
-        <v>8.049976590602499</v>
+        <v>9.318994771302609</v>
       </c>
       <c r="J21">
-        <v>24.3979661556755</v>
+        <v>18.0569653522486</v>
       </c>
       <c r="K21">
-        <v>11.6478909345136</v>
+        <v>19.3767759095518</v>
       </c>
       <c r="L21">
-        <v>31.0027414758409</v>
+        <v>28.2952754291751</v>
       </c>
       <c r="M21">
-        <v>28.7798061464858</v>
+        <v>31.4508321244268</v>
       </c>
       <c r="N21">
-        <v>17.328577325248</v>
+        <v>19.5510811334543</v>
       </c>
       <c r="O21">
-        <v>2746.90488847368</v>
+        <v>3039.60632583213</v>
       </c>
       <c r="P21">
-        <v>25.1097046943507</v>
+        <v>29.0135522050249</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>931.638981950499</v>
+        <v>523.153616817534</v>
       </c>
       <c r="C22">
-        <v>13.6677058453243</v>
+        <v>14.9493123989355</v>
       </c>
       <c r="D22">
-        <v>27.1799182487464</v>
+        <v>29.5453255591604</v>
       </c>
       <c r="E22">
-        <v>50.5640805630989</v>
+        <v>34.8771253130372</v>
       </c>
       <c r="F22">
-        <v>1.00064407191021</v>
+        <v>1.16569278799817</v>
       </c>
       <c r="G22">
-        <v>28.38653183234</v>
+        <v>33.1634157317405</v>
       </c>
       <c r="H22">
-        <v>24.3071293488435</v>
+        <v>34.5639625065344</v>
       </c>
       <c r="I22">
-        <v>10.5311011698468</v>
+        <v>8.80155377122022</v>
       </c>
       <c r="J22">
-        <v>57.6091357507179</v>
+        <v>63.1795440401896</v>
       </c>
       <c r="K22">
-        <v>34.8230366152811</v>
+        <v>50.1636839183451</v>
       </c>
       <c r="L22">
-        <v>124.259441408917</v>
+        <v>128.657479510858</v>
       </c>
       <c r="M22">
-        <v>23.9074443764175</v>
+        <v>27.3109229872776</v>
       </c>
       <c r="N22">
-        <v>62.6959892656847</v>
+        <v>99.00791013822909</v>
       </c>
       <c r="O22">
-        <v>2912.42715854392</v>
+        <v>3262.13565442078</v>
       </c>
       <c r="P22">
-        <v>18.9653021984965</v>
+        <v>18.2395923078895</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1687.92596531035</v>
+        <v>981.472716428363</v>
       </c>
       <c r="C23">
-        <v>54.7209444543964</v>
+        <v>56.1727893004459</v>
       </c>
       <c r="D23">
-        <v>13.6130449737632</v>
+        <v>16.4074913095394</v>
       </c>
       <c r="E23">
-        <v>68.6829856848189</v>
+        <v>44.8697474062188</v>
       </c>
       <c r="F23">
-        <v>2.9105183118127</v>
+        <v>0.532588741820858</v>
       </c>
       <c r="G23">
-        <v>68.3071365632175</v>
+        <v>91.1090747453126</v>
       </c>
       <c r="H23">
-        <v>80.6960880979465</v>
+        <v>78.2098872727174</v>
       </c>
       <c r="I23">
-        <v>35.0309459560625</v>
+        <v>38.6271784680537</v>
       </c>
       <c r="J23">
-        <v>178.726906575949</v>
+        <v>186.50868988695</v>
       </c>
       <c r="K23">
-        <v>121.606950724777</v>
+        <v>162.534053410054</v>
       </c>
       <c r="L23">
-        <v>43.8206202612295</v>
+        <v>56.382067875344</v>
       </c>
       <c r="M23">
-        <v>608.832466584667</v>
+        <v>720.2747575880341</v>
       </c>
       <c r="N23">
-        <v>88.34928593637309</v>
+        <v>105.82812135079</v>
       </c>
       <c r="O23">
-        <v>3833.51017834827</v>
+        <v>4383.83259761238</v>
       </c>
       <c r="P23">
-        <v>77.690729242236</v>
+        <v>53.0352301853972</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>520.676958142451</v>
+        <v>309.569127906272</v>
       </c>
       <c r="C24">
-        <v>82.6432984627608</v>
+        <v>55.8764528997866</v>
       </c>
       <c r="D24">
-        <v>11.4252308655284</v>
+        <v>13.4223031074196</v>
       </c>
       <c r="E24">
-        <v>73.8100137733697</v>
+        <v>52.9165369774412</v>
       </c>
       <c r="F24">
-        <v>30.0821353497527</v>
+        <v>23.042830599521</v>
       </c>
       <c r="G24">
-        <v>14.9010736242822</v>
+        <v>26.4078490868281</v>
       </c>
       <c r="H24">
-        <v>14.7074366281132</v>
+        <v>17.1805017444948</v>
       </c>
       <c r="I24">
-        <v>13.8141310172069</v>
+        <v>12.9772694280705</v>
       </c>
       <c r="J24">
-        <v>64.3115834412222</v>
+        <v>50.769938457998</v>
       </c>
       <c r="K24">
-        <v>62.738257206326</v>
+        <v>98.6644390425565</v>
       </c>
       <c r="L24">
-        <v>74.7588109378692</v>
+        <v>70.9997336248387</v>
       </c>
       <c r="M24">
-        <v>23.8850420497046</v>
+        <v>15.2342205192713</v>
       </c>
       <c r="N24">
-        <v>63.5133011111761</v>
+        <v>85.8163977299282</v>
       </c>
       <c r="O24">
-        <v>2207.24020766957</v>
+        <v>2455.88974409084</v>
       </c>
       <c r="P24">
-        <v>135.07931999769</v>
+        <v>106.871457909319</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>560.192547650258</v>
+        <v>310.530541607991</v>
       </c>
       <c r="C25">
-        <v>47.6665460269468</v>
+        <v>54.5393941228762</v>
       </c>
       <c r="D25">
-        <v>25.1960147481627</v>
+        <v>23.563331478943</v>
       </c>
       <c r="E25">
-        <v>44.6176544223801</v>
+        <v>54.1534608613978</v>
       </c>
       <c r="F25">
-        <v>19.414947400847</v>
+        <v>36.3954823643044</v>
       </c>
       <c r="G25">
-        <v>12.3571032417307</v>
+        <v>13.6335623310511</v>
       </c>
       <c r="H25">
-        <v>15.4395530220902</v>
+        <v>20.4048711349359</v>
       </c>
       <c r="I25">
-        <v>5.74210064841881</v>
+        <v>6.31562560867736</v>
       </c>
       <c r="J25">
-        <v>25.1339822266173</v>
+        <v>24.3136318379972</v>
       </c>
       <c r="K25">
-        <v>25.1333250416797</v>
+        <v>28.3798002823334</v>
       </c>
       <c r="L25">
-        <v>31.9074896842329</v>
+        <v>35.659148923785</v>
       </c>
       <c r="M25">
-        <v>50.4704815047405</v>
+        <v>50.1360028515365</v>
       </c>
       <c r="N25">
-        <v>46.4034105209644</v>
+        <v>35.8476624469287</v>
       </c>
       <c r="O25">
-        <v>1129.10328194491</v>
+        <v>1373.53080145225</v>
       </c>
       <c r="P25">
-        <v>54.5010570102709</v>
+        <v>57.1322857460686</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>770.867462879203</v>
+        <v>429.612931514531</v>
       </c>
       <c r="C26">
-        <v>74.05341793299679</v>
+        <v>73.7917981446721</v>
       </c>
       <c r="D26">
-        <v>16.3530111270419</v>
+        <v>13.114144408937</v>
       </c>
       <c r="E26">
-        <v>60.6142674034863</v>
+        <v>50.0885132818703</v>
       </c>
       <c r="F26">
-        <v>12.2805720728103</v>
+        <v>9.08743493667412</v>
       </c>
       <c r="G26">
-        <v>42.9854927672111</v>
+        <v>55.5457377951366</v>
       </c>
       <c r="H26">
-        <v>30.140477438565</v>
+        <v>21.8321767926868</v>
       </c>
       <c r="I26">
-        <v>13.6059636692662</v>
+        <v>16.2627062681635</v>
       </c>
       <c r="J26">
-        <v>59.655728663105</v>
+        <v>61.4590895475317</v>
       </c>
       <c r="K26">
-        <v>38.5290169151311</v>
+        <v>43.7676453338046</v>
       </c>
       <c r="L26">
-        <v>44.0986398821593</v>
+        <v>37.8173473643885</v>
       </c>
       <c r="M26">
-        <v>85.4395139092979</v>
+        <v>84.9163818615346</v>
       </c>
       <c r="N26">
-        <v>30.0670436170878</v>
+        <v>31.9651210255596</v>
       </c>
       <c r="O26">
-        <v>2496.86099190426</v>
+        <v>2878.11347266115</v>
       </c>
       <c r="P26">
-        <v>78.481607454049</v>
+        <v>53.9999980458506</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>145.271425579467</v>
+        <v>93.08412779245479</v>
       </c>
       <c r="C27">
-        <v>4.66710313720767</v>
+        <v>5.01081886536025</v>
       </c>
       <c r="D27">
-        <v>1.20893970633672</v>
+        <v>1.30693634718471</v>
       </c>
       <c r="E27">
-        <v>14.808822204176</v>
+        <v>17.4793431687356</v>
       </c>
       <c r="F27">
-        <v>8.23703477935933</v>
+        <v>8.967964260838579</v>
       </c>
       <c r="G27">
-        <v>0.629614049167378</v>
+        <v>0.495718057028385</v>
       </c>
       <c r="H27">
-        <v>0.134836525750264</v>
+        <v>0.161134052725142</v>
       </c>
       <c r="I27">
-        <v>2.66213922030478</v>
+        <v>3.9102665926324</v>
       </c>
       <c r="J27">
-        <v>4.7363230339335</v>
+        <v>4.63557327354578</v>
       </c>
       <c r="K27">
-        <v>2.62386906792325</v>
+        <v>2.65070647393119</v>
       </c>
       <c r="L27">
-        <v>1.81022908641707</v>
+        <v>2.92122459688093</v>
       </c>
       <c r="M27">
-        <v>1.37243092177141</v>
+        <v>1.63992743441237</v>
       </c>
       <c r="N27">
-        <v>4.99207512084688</v>
+        <v>6.71008985754173</v>
       </c>
       <c r="O27">
-        <v>490.745193282662</v>
+        <v>569.297035510441</v>
       </c>
       <c r="P27">
-        <v>57.5489009350823</v>
+        <v>58.0212500974402</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>200.28844224684</v>
+        <v>103.798046106747</v>
       </c>
       <c r="C28">
-        <v>42.9404222921599</v>
+        <v>36.6134878696764</v>
       </c>
       <c r="D28">
-        <v>1.84243160286616</v>
+        <v>2.78054929477525</v>
       </c>
       <c r="E28">
-        <v>10.3879684681747</v>
+        <v>7.81387330674911</v>
       </c>
       <c r="F28">
-        <v>2.56571085947624</v>
+        <v>3.32610059046881</v>
       </c>
       <c r="G28">
-        <v>6.48970006758029</v>
+        <v>9.3202449919345</v>
       </c>
       <c r="H28">
-        <v>7.3651242346542</v>
+        <v>10.3894414186519</v>
       </c>
       <c r="I28">
-        <v>4.47788899768406</v>
+        <v>4.95331470830649</v>
       </c>
       <c r="J28">
-        <v>19.6125298851739</v>
+        <v>20.3790896322522</v>
       </c>
       <c r="K28">
-        <v>19.2249046305023</v>
+        <v>19.7807721965688</v>
       </c>
       <c r="L28">
-        <v>14.4397608334599</v>
+        <v>15.3905237612798</v>
       </c>
       <c r="M28">
-        <v>10.1444755422239</v>
+        <v>9.13962790489164</v>
       </c>
       <c r="N28">
-        <v>11.119557332115</v>
+        <v>12.7719516660081</v>
       </c>
       <c r="O28">
-        <v>819.526500361884</v>
+        <v>955.263099924809</v>
       </c>
       <c r="P28">
-        <v>96.62101870510359</v>
+        <v>95.3830142326549</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>341.012500032638</v>
+        <v>209.601862096364</v>
       </c>
       <c r="C29">
-        <v>4.74530417348828</v>
+        <v>4.74350244120653</v>
       </c>
       <c r="D29">
-        <v>2.67029563559821</v>
+        <v>4.90837122614024</v>
       </c>
       <c r="E29">
-        <v>7.40147196351331</v>
+        <v>5.12721186476036</v>
       </c>
       <c r="F29">
-        <v>18.5213862437955</v>
+        <v>20.2304226115759</v>
       </c>
       <c r="G29">
-        <v>2.89821654126469</v>
+        <v>4.0053306873757</v>
       </c>
       <c r="H29">
-        <v>2.68615387046924</v>
+        <v>3.10149070738265</v>
       </c>
       <c r="I29">
-        <v>4.56444212820908</v>
+        <v>7.24086586547054</v>
       </c>
       <c r="J29">
-        <v>5.6224328300482</v>
+        <v>5.26771246368179</v>
       </c>
       <c r="K29">
-        <v>2.86477201005357</v>
+        <v>4.10130322612662</v>
       </c>
       <c r="L29">
-        <v>3.31975889096784</v>
+        <v>2.61894161615466</v>
       </c>
       <c r="M29">
-        <v>2.57483213964884</v>
+        <v>2.60470413635508</v>
       </c>
       <c r="N29">
-        <v>12.0378848565786</v>
+        <v>12.5597575488907</v>
       </c>
       <c r="O29">
-        <v>1120.47440884414</v>
+        <v>1284.13529482229</v>
       </c>
       <c r="P29">
-        <v>6.02112497754846</v>
+        <v>4.35153968969164</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>167.659858157648</v>
+        <v>97.1815316050776</v>
       </c>
       <c r="C30">
-        <v>4.17070283551747</v>
+        <v>5.05051696811613</v>
       </c>
       <c r="D30">
-        <v>5.84895272776473</v>
+        <v>7.34683304620632</v>
       </c>
       <c r="E30">
-        <v>12.7032070293044</v>
+        <v>9.196094820599249</v>
       </c>
       <c r="F30">
-        <v>0.471341324036479</v>
+        <v>0.478402514465053</v>
       </c>
       <c r="G30">
-        <v>5.5826779190071</v>
+        <v>5.90244143147604</v>
       </c>
       <c r="H30">
-        <v>7.37661198930475</v>
+        <v>9.746358100858791</v>
       </c>
       <c r="I30">
-        <v>2.91587255500807</v>
+        <v>3.54098587188447</v>
       </c>
       <c r="J30">
-        <v>21.4976825669859</v>
+        <v>19.4859307577191</v>
       </c>
       <c r="K30">
-        <v>13.3725558686183</v>
+        <v>21.3111901904556</v>
       </c>
       <c r="L30">
-        <v>44.0765712669591</v>
+        <v>53.1658801522172</v>
       </c>
       <c r="M30">
-        <v>11.1564869838996</v>
+        <v>13.2565181205208</v>
       </c>
       <c r="N30">
-        <v>15.4586495947269</v>
+        <v>17.0076804948677</v>
       </c>
       <c r="O30">
-        <v>639.132772406527</v>
+        <v>720.387286535818</v>
       </c>
       <c r="P30">
-        <v>7.34918608190457</v>
+        <v>7.80462683749304</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1472.07824995226</v>
+        <v>905.03154409278</v>
       </c>
       <c r="C31">
-        <v>43.3917417594145</v>
+        <v>50.2112824270246</v>
       </c>
       <c r="D31">
-        <v>42.5111019385115</v>
+        <v>45.9795741614381</v>
       </c>
       <c r="E31">
-        <v>45.2172329554557</v>
+        <v>27.0210209495575</v>
       </c>
       <c r="F31">
-        <v>11.3670327094327</v>
+        <v>12.0733000643599</v>
       </c>
       <c r="G31">
-        <v>148.649638247909</v>
+        <v>169.214315416393</v>
       </c>
       <c r="H31">
-        <v>25.5055963963159</v>
+        <v>30.1698238788598</v>
       </c>
       <c r="I31">
-        <v>22.2818867489161</v>
+        <v>32.9418361135312</v>
       </c>
       <c r="J31">
-        <v>49.5128855336214</v>
+        <v>46.8744699837797</v>
       </c>
       <c r="K31">
-        <v>28.7356903918985</v>
+        <v>41.2119973872456</v>
       </c>
       <c r="L31">
-        <v>84.60896264211981</v>
+        <v>83.3513048871952</v>
       </c>
       <c r="M31">
-        <v>19.2829957764818</v>
+        <v>20.1616670237375</v>
       </c>
       <c r="N31">
-        <v>58.7167495838068</v>
+        <v>70.7143763797869</v>
       </c>
       <c r="O31">
-        <v>3825.56973500064</v>
+        <v>4325.23516011199</v>
       </c>
       <c r="P31">
-        <v>11.4055282656615</v>
+        <v>7.83766275515124</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>343.195869239469</v>
+        <v>220.832512336721</v>
       </c>
       <c r="C32">
-        <v>7.67165008286466</v>
+        <v>7.46310231423347</v>
       </c>
       <c r="D32">
-        <v>2.20633776020705</v>
+        <v>3.71739890969104</v>
       </c>
       <c r="E32">
-        <v>6.40287621613887</v>
+        <v>4.11424780310872</v>
       </c>
       <c r="F32">
-        <v>29.0272888218032</v>
+        <v>42.0720911002808</v>
       </c>
       <c r="G32">
-        <v>0.8174812340011171</v>
+        <v>1.02898667746598</v>
       </c>
       <c r="H32">
-        <v>0.259404903084458</v>
+        <v>0.957802106013392</v>
       </c>
       <c r="I32">
-        <v>7.06147406462226</v>
+        <v>7.62406192123282</v>
       </c>
       <c r="J32">
-        <v>7.47001802049589</v>
+        <v>6.81384377169957</v>
       </c>
       <c r="K32">
-        <v>4.85619367056931</v>
+        <v>7.36839595502708</v>
       </c>
       <c r="L32">
-        <v>14.3026379585306</v>
+        <v>16.2786338540025</v>
       </c>
       <c r="M32">
-        <v>3.45675317854824</v>
+        <v>3.44489857250399</v>
       </c>
       <c r="N32">
-        <v>8.403367851611749</v>
+        <v>10.7363493672404</v>
       </c>
       <c r="O32">
-        <v>867.16972328562</v>
+        <v>975.694676789243</v>
       </c>
       <c r="P32">
-        <v>31.340327700606</v>
+        <v>30.8015478190887</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3646.35075478555</v>
+        <v>2248.84888830745</v>
       </c>
       <c r="C33">
-        <v>92.3098735454153</v>
+        <v>94.2488474408738</v>
       </c>
       <c r="D33">
-        <v>96.1994795335401</v>
+        <v>112.352766332884</v>
       </c>
       <c r="E33">
-        <v>104.014814347435</v>
+        <v>60.9076626658971</v>
       </c>
       <c r="F33">
-        <v>8.396559153828569</v>
+        <v>8.823146159924431</v>
       </c>
       <c r="G33">
-        <v>81.2626566049331</v>
+        <v>72.978110445537</v>
       </c>
       <c r="H33">
-        <v>48.3821354094309</v>
+        <v>50.3740996867976</v>
       </c>
       <c r="I33">
-        <v>34.1050565544812</v>
+        <v>36.2980795344373</v>
       </c>
       <c r="J33">
-        <v>115.377946614407</v>
+        <v>120.274771699534</v>
       </c>
       <c r="K33">
-        <v>120.887274150544</v>
+        <v>131.487119788343</v>
       </c>
       <c r="L33">
-        <v>161.866376693356</v>
+        <v>175.650248368673</v>
       </c>
       <c r="M33">
-        <v>89.3299138533778</v>
+        <v>103.706232278312</v>
       </c>
       <c r="N33">
-        <v>163.639077960126</v>
+        <v>222.992922310722</v>
       </c>
       <c r="O33">
-        <v>8211.07103060052</v>
+        <v>9468.583773258601</v>
       </c>
       <c r="P33">
-        <v>82.8523350048266</v>
+        <v>61.9320193591201</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1327.27066623908</v>
+        <v>746.400445855386</v>
       </c>
       <c r="C34">
-        <v>88.00357842207541</v>
+        <v>97.3987630172881</v>
       </c>
       <c r="D34">
-        <v>223.55975544436</v>
+        <v>248.349123780245</v>
       </c>
       <c r="E34">
-        <v>73.33079357113709</v>
+        <v>66.12000170304791</v>
       </c>
       <c r="F34">
-        <v>7.08515604017786</v>
+        <v>7.02327754582519</v>
       </c>
       <c r="G34">
-        <v>67.9029691469713</v>
+        <v>81.9516010587878</v>
       </c>
       <c r="H34">
-        <v>47.323723013725</v>
+        <v>61.5016467161667</v>
       </c>
       <c r="I34">
-        <v>27.8645592724855</v>
+        <v>30.5972165748273</v>
       </c>
       <c r="J34">
-        <v>51.6220293386114</v>
+        <v>57.8396309178744</v>
       </c>
       <c r="K34">
-        <v>60.0184240818797</v>
+        <v>97.27811115672</v>
       </c>
       <c r="L34">
-        <v>103.986330079826</v>
+        <v>144.301163398682</v>
       </c>
       <c r="M34">
-        <v>54.0045653297218</v>
+        <v>52.8317128800662</v>
       </c>
       <c r="N34">
-        <v>140.907867422684</v>
+        <v>158.554922841644</v>
       </c>
       <c r="O34">
-        <v>3316.51138712768</v>
+        <v>3743.60230158418</v>
       </c>
       <c r="P34">
-        <v>85.5837268878747</v>
+        <v>87.2901446491903</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>83.9622738283984</v>
+        <v>44.5345098892104</v>
       </c>
       <c r="C35">
-        <v>10.250173318653</v>
+        <v>8.92853374980306</v>
       </c>
       <c r="D35">
-        <v>0.66224734670793</v>
+        <v>0.899975285088332</v>
       </c>
       <c r="E35">
-        <v>2.99410225881355</v>
+        <v>4.0051296967597</v>
       </c>
       <c r="F35">
-        <v>6.52404253338879</v>
+        <v>6.43065411100413</v>
       </c>
       <c r="G35">
-        <v>0.356517901110308</v>
+        <v>0.238014784557745</v>
       </c>
       <c r="H35">
-        <v>0.6599819985819531</v>
+        <v>1.00493436262434</v>
       </c>
       <c r="I35">
-        <v>0.683804984659087</v>
+        <v>1.05682737966432</v>
       </c>
       <c r="J35">
-        <v>3.42261166842341</v>
+        <v>3.152316841613</v>
       </c>
       <c r="K35">
-        <v>6.38170392219066</v>
+        <v>8.294041941740639</v>
       </c>
       <c r="L35">
-        <v>3.18210153404424</v>
+        <v>3.60336811507725</v>
       </c>
       <c r="M35">
-        <v>3.27368302596767</v>
+        <v>3.38909942427533</v>
       </c>
       <c r="N35">
-        <v>2.91001068766019</v>
+        <v>3.06042815755967</v>
       </c>
       <c r="O35">
-        <v>332.990993318868</v>
+        <v>397.750572884065</v>
       </c>
       <c r="P35">
-        <v>59.0136518239465</v>
+        <v>53.3045824176136</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1839.62016748556</v>
+        <v>1046.32123929148</v>
       </c>
       <c r="C36">
-        <v>81.3417302438358</v>
+        <v>83.17920485540451</v>
       </c>
       <c r="D36">
-        <v>19.322572208844</v>
+        <v>19.3028185382882</v>
       </c>
       <c r="E36">
-        <v>115.995018824318</v>
+        <v>80.08332949088999</v>
       </c>
       <c r="F36">
-        <v>32.4269045816979</v>
+        <v>48.4444130709843</v>
       </c>
       <c r="G36">
-        <v>87.84199798378791</v>
+        <v>124.565953978155</v>
       </c>
       <c r="H36">
-        <v>122.513852099937</v>
+        <v>135.006421547685</v>
       </c>
       <c r="I36">
-        <v>63.6693567456629</v>
+        <v>56.0176206472235</v>
       </c>
       <c r="J36">
-        <v>257.660337104353</v>
+        <v>255.435870638608</v>
       </c>
       <c r="K36">
-        <v>122.94819241079</v>
+        <v>175.746972253544</v>
       </c>
       <c r="L36">
-        <v>109.657405498555</v>
+        <v>124.651726825862</v>
       </c>
       <c r="M36">
-        <v>271.481589811953</v>
+        <v>266.416101699101</v>
       </c>
       <c r="N36">
-        <v>86.5105114355209</v>
+        <v>103.567430204475</v>
       </c>
       <c r="O36">
-        <v>4683.33121876495</v>
+        <v>5391.59896420559</v>
       </c>
       <c r="P36">
-        <v>46.6932091627954</v>
+        <v>38.9976928926879</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>594.594464466826</v>
+        <v>323.142887704683</v>
       </c>
       <c r="C37">
-        <v>27.258280176044</v>
+        <v>26.1786527066516</v>
       </c>
       <c r="D37">
-        <v>10.1978552207703</v>
+        <v>11.0510530033529</v>
       </c>
       <c r="E37">
-        <v>15.9556293174191</v>
+        <v>16.3722166187707</v>
       </c>
       <c r="F37">
-        <v>48.2287310843429</v>
+        <v>50.4252748257144</v>
       </c>
       <c r="G37">
-        <v>5.85960708005918</v>
+        <v>8.52348404980031</v>
       </c>
       <c r="H37">
-        <v>24.1373650171109</v>
+        <v>28.2497171900503</v>
       </c>
       <c r="I37">
-        <v>9.86624311923069</v>
+        <v>16.5103055855506</v>
       </c>
       <c r="J37">
-        <v>31.5170583472581</v>
+        <v>34.450205036327</v>
       </c>
       <c r="K37">
-        <v>45.4053159796917</v>
+        <v>56.1683019230612</v>
       </c>
       <c r="L37">
-        <v>26.9975321481675</v>
+        <v>32.0303711630157</v>
       </c>
       <c r="M37">
-        <v>35.5497814290382</v>
+        <v>35.2140053919681</v>
       </c>
       <c r="N37">
-        <v>16.0246968374024</v>
+        <v>20.2795805140403</v>
       </c>
       <c r="O37">
-        <v>1439.453454328</v>
+        <v>1646.39655914254</v>
       </c>
       <c r="P37">
-        <v>51.1455098722626</v>
+        <v>58.1143022103927</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>561.588917773501</v>
+        <v>376.167401426568</v>
       </c>
       <c r="C38">
-        <v>28.6580819628722</v>
+        <v>29.755473897674</v>
       </c>
       <c r="D38">
-        <v>12.4889589620272</v>
+        <v>18.3909116786921</v>
       </c>
       <c r="E38">
-        <v>59.2082076504122</v>
+        <v>51.9018180875014</v>
       </c>
       <c r="F38">
-        <v>3.25625095615509</v>
+        <v>3.53228230915634</v>
       </c>
       <c r="G38">
-        <v>5.96660321324164</v>
+        <v>6.88198250021056</v>
       </c>
       <c r="H38">
-        <v>7.00852449819771</v>
+        <v>8.98416320463728</v>
       </c>
       <c r="I38">
-        <v>3.31104672142453</v>
+        <v>3.55365720176195</v>
       </c>
       <c r="J38">
-        <v>40.4926787821325</v>
+        <v>44.1328301763578</v>
       </c>
       <c r="K38">
-        <v>16.5426368140599</v>
+        <v>20.0910728405225</v>
       </c>
       <c r="L38">
-        <v>83.0055423263258</v>
+        <v>96.2319867913241</v>
       </c>
       <c r="M38">
-        <v>21.7215028697383</v>
+        <v>27.0529786245002</v>
       </c>
       <c r="N38">
-        <v>21.1632190949704</v>
+        <v>27.6197768562922</v>
       </c>
       <c r="O38">
-        <v>1523.9533282155</v>
+        <v>1674.51621711373</v>
       </c>
       <c r="P38">
-        <v>92.9269737948877</v>
+        <v>80.184532869593</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2125.70487273935</v>
+        <v>1221.6716360376</v>
       </c>
       <c r="C39">
-        <v>112.096422969266</v>
+        <v>144.395887379329</v>
       </c>
       <c r="D39">
-        <v>86.9034636688333</v>
+        <v>76.8141985719852</v>
       </c>
       <c r="E39">
-        <v>136.994382849777</v>
+        <v>95.9542584381924</v>
       </c>
       <c r="F39">
-        <v>41.1251126266129</v>
+        <v>29.8816865274253</v>
       </c>
       <c r="G39">
-        <v>107.892830171315</v>
+        <v>148.986904896418</v>
       </c>
       <c r="H39">
-        <v>53.9990727909833</v>
+        <v>48.3074157614024</v>
       </c>
       <c r="I39">
-        <v>60.5844369798917</v>
+        <v>62.506184226916</v>
       </c>
       <c r="J39">
-        <v>208.545216206171</v>
+        <v>187.65752230244</v>
       </c>
       <c r="K39">
-        <v>111.585783945741</v>
+        <v>153.301954040083</v>
       </c>
       <c r="L39">
-        <v>117.722241397105</v>
+        <v>142.79845847178</v>
       </c>
       <c r="M39">
-        <v>77.6852445738615</v>
+        <v>85.7227385026364</v>
       </c>
       <c r="N39">
-        <v>116.099596009213</v>
+        <v>135.255959430621</v>
       </c>
       <c r="O39">
-        <v>5257.92195484807</v>
+        <v>6089.5615593853</v>
       </c>
       <c r="P39">
-        <v>80.09933078508421</v>
+        <v>60.6743272093381</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>170.515811423449</v>
+        <v>102.03004097914</v>
       </c>
       <c r="C40">
-        <v>6.01924609976392</v>
+        <v>5.4972885196127</v>
       </c>
       <c r="D40">
-        <v>14.4061922570876</v>
+        <v>14.4074291338757</v>
       </c>
       <c r="E40">
-        <v>7.74738644345893</v>
+        <v>5.0579121842773</v>
       </c>
       <c r="F40">
-        <v>0.460993244066931</v>
+        <v>0.882148806276394</v>
       </c>
       <c r="G40">
-        <v>6.36730607487085</v>
+        <v>8.79264638026668</v>
       </c>
       <c r="H40">
-        <v>6.88139477555699</v>
+        <v>11.3793872113914</v>
       </c>
       <c r="I40">
-        <v>3.79652040477518</v>
+        <v>2.95836858357812</v>
       </c>
       <c r="J40">
-        <v>17.0919177962672</v>
+        <v>17.2226446535098</v>
       </c>
       <c r="K40">
-        <v>4.72648858776522</v>
+        <v>10.8190450584423</v>
       </c>
       <c r="L40">
-        <v>18.5319948889399</v>
+        <v>17.7134828749314</v>
       </c>
       <c r="M40">
-        <v>7.78982196552773</v>
+        <v>9.566943899471079</v>
       </c>
       <c r="N40">
-        <v>30.0557733997343</v>
+        <v>37.6647906800853</v>
       </c>
       <c r="O40">
-        <v>537.969395119943</v>
+        <v>626.110862758722</v>
       </c>
       <c r="P40">
-        <v>1.77600682939853</v>
+        <v>1.6023585406752</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>659.231717415028</v>
+        <v>353.027487326418</v>
       </c>
       <c r="C41">
-        <v>18.1587439007636</v>
+        <v>13.3038230405999</v>
       </c>
       <c r="D41">
-        <v>103.974118863953</v>
+        <v>116.204989543416</v>
       </c>
       <c r="E41">
-        <v>52.2321458904705</v>
+        <v>52.727981058479</v>
       </c>
       <c r="F41">
-        <v>3.44115031817727</v>
+        <v>3.22605869644455</v>
       </c>
       <c r="G41">
-        <v>34.0520340495603</v>
+        <v>59.8738879434481</v>
       </c>
       <c r="H41">
-        <v>38.9758455846946</v>
+        <v>51.7358949839051</v>
       </c>
       <c r="I41">
-        <v>8.14865406868652</v>
+        <v>10.1394978061474</v>
       </c>
       <c r="J41">
-        <v>62.8885959271894</v>
+        <v>76.7675606666528</v>
       </c>
       <c r="K41">
-        <v>38.7804339021</v>
+        <v>59.8500626418053</v>
       </c>
       <c r="L41">
-        <v>33.4449834168519</v>
+        <v>35.5165067469767</v>
       </c>
       <c r="M41">
-        <v>47.443753775752</v>
+        <v>49.7546704212121</v>
       </c>
       <c r="N41">
-        <v>26.6939780212182</v>
+        <v>33.6649854661115</v>
       </c>
       <c r="O41">
-        <v>1675.52526481089</v>
+        <v>1879.86662839902</v>
       </c>
       <c r="P41">
-        <v>22.4389947254152</v>
+        <v>24.6186519684863</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>91.3253679251828</v>
+        <v>52.25866042713</v>
       </c>
       <c r="C42">
-        <v>9.95234747331517</v>
+        <v>10.7543466485101</v>
       </c>
       <c r="D42">
-        <v>0.865098726622367</v>
+        <v>1.42041553649493</v>
       </c>
       <c r="E42">
-        <v>10.2121516893254</v>
+        <v>9.39573818948656</v>
       </c>
       <c r="F42">
-        <v>3.02685743497745</v>
+        <v>3.23304016682796</v>
       </c>
       <c r="G42">
-        <v>0.899566342828248</v>
+        <v>1.32418553995532</v>
       </c>
       <c r="H42">
-        <v>2.30945405186124</v>
+        <v>2.49499199702731</v>
       </c>
       <c r="I42">
-        <v>2.23717039084459</v>
+        <v>1.60172820955463</v>
       </c>
       <c r="J42">
-        <v>5.96956960193408</v>
+        <v>6.3683005098623</v>
       </c>
       <c r="K42">
-        <v>6.35463235764102</v>
+        <v>10.1515160424072</v>
       </c>
       <c r="L42">
-        <v>8.278415766047001</v>
+        <v>11.0392457639189</v>
       </c>
       <c r="M42">
-        <v>3.9939758182456</v>
+        <v>4.87773306635454</v>
       </c>
       <c r="N42">
-        <v>7.76811922903677</v>
+        <v>10.0864064707074</v>
       </c>
       <c r="O42">
-        <v>420.513306697639</v>
+        <v>507.907818106782</v>
       </c>
       <c r="P42">
-        <v>62.664318102888</v>
+        <v>57.5278259055952</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1077.31650702625</v>
+        <v>621.048886060532</v>
       </c>
       <c r="C43">
-        <v>58.4073183780519</v>
+        <v>52.2352731105799</v>
       </c>
       <c r="D43">
-        <v>45.951357876645</v>
+        <v>51.1243793326121</v>
       </c>
       <c r="E43">
-        <v>69.75573032933541</v>
+        <v>48.9181203206655</v>
       </c>
       <c r="F43">
-        <v>6.91651578279089</v>
+        <v>11.3701941947299</v>
       </c>
       <c r="G43">
-        <v>32.7420198027806</v>
+        <v>36.7336328297533</v>
       </c>
       <c r="H43">
-        <v>31.43268513353</v>
+        <v>28.5145883292918</v>
       </c>
       <c r="I43">
-        <v>21.6312614166252</v>
+        <v>33.7828198015071</v>
       </c>
       <c r="J43">
-        <v>63.2626747848459</v>
+        <v>60.0938082751495</v>
       </c>
       <c r="K43">
-        <v>55.4731557919003</v>
+        <v>82.6610052465565</v>
       </c>
       <c r="L43">
-        <v>58.3190000417395</v>
+        <v>62.1559346877299</v>
       </c>
       <c r="M43">
-        <v>109.069327007003</v>
+        <v>100.948606525801</v>
       </c>
       <c r="N43">
-        <v>55.2552482904391</v>
+        <v>77.89968795614909</v>
       </c>
       <c r="O43">
-        <v>2326.81736298836</v>
+        <v>2722.81552412717</v>
       </c>
       <c r="P43">
-        <v>52.7124768884354</v>
+        <v>60.131644216776</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3767.93848990751</v>
+        <v>2301.85800559835</v>
       </c>
       <c r="C44">
-        <v>131.845243220918</v>
+        <v>185.397143559219</v>
       </c>
       <c r="D44">
-        <v>58.1987670255394</v>
+        <v>67.87417554685641</v>
       </c>
       <c r="E44">
-        <v>102.768484948642</v>
+        <v>83.7570300626714</v>
       </c>
       <c r="F44">
-        <v>245.889030545553</v>
+        <v>293.176464927078</v>
       </c>
       <c r="G44">
-        <v>122.049741343063</v>
+        <v>167.403749141269</v>
       </c>
       <c r="H44">
-        <v>54.6101031241324</v>
+        <v>54.6458809814507</v>
       </c>
       <c r="I44">
-        <v>52.6007709983688</v>
+        <v>64.5913891800124</v>
       </c>
       <c r="J44">
-        <v>132.295931234305</v>
+        <v>146.153638570245</v>
       </c>
       <c r="K44">
-        <v>101.092899414903</v>
+        <v>135.867623420878</v>
       </c>
       <c r="L44">
-        <v>225.857695417542</v>
+        <v>259.391604096849</v>
       </c>
       <c r="M44">
-        <v>125.12565465152</v>
+        <v>125.632068476032</v>
       </c>
       <c r="N44">
-        <v>92.6471446627173</v>
+        <v>95.5730092147687</v>
       </c>
       <c r="O44">
-        <v>8502.95367981074</v>
+        <v>9532.752928268421</v>
       </c>
       <c r="P44">
-        <v>230.780055081286</v>
+        <v>274.160780030651</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>378.631588565859</v>
+        <v>252.672926565693</v>
       </c>
       <c r="C45">
-        <v>22.9368760961559</v>
+        <v>20.0653985108823</v>
       </c>
       <c r="D45">
-        <v>4.17710277885095</v>
+        <v>5.2274428431634</v>
       </c>
       <c r="E45">
-        <v>13.8932701987769</v>
+        <v>8.14245974455347</v>
       </c>
       <c r="F45">
-        <v>24.3844326259262</v>
+        <v>28.962746051186</v>
       </c>
       <c r="G45">
-        <v>12.6151162309227</v>
+        <v>14.1523512804016</v>
       </c>
       <c r="H45">
-        <v>3.32807013343634</v>
+        <v>5.5156599302709</v>
       </c>
       <c r="I45">
-        <v>5.56660342080066</v>
+        <v>5.72921556066581</v>
       </c>
       <c r="J45">
-        <v>17.0992241384616</v>
+        <v>17.6245202769208</v>
       </c>
       <c r="K45">
-        <v>6.79890954850813</v>
+        <v>10.8903773939136</v>
       </c>
       <c r="L45">
-        <v>18.1264485613754</v>
+        <v>21.2761099058479</v>
       </c>
       <c r="M45">
-        <v>25.531423243887</v>
+        <v>26.1288614952969</v>
       </c>
       <c r="N45">
-        <v>26.5821522647609</v>
+        <v>27.4588991658507</v>
       </c>
       <c r="O45">
-        <v>913.608034154585</v>
+        <v>1031.75595724565</v>
       </c>
       <c r="P45">
-        <v>18.6159507079175</v>
+        <v>14.9337687398898</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>80.4936685228033</v>
+        <v>48.9873197700624</v>
       </c>
       <c r="C46">
-        <v>6.68518425706169</v>
+        <v>7.04874137271537</v>
       </c>
       <c r="D46">
-        <v>2.01852987316368</v>
+        <v>2.22634854611295</v>
       </c>
       <c r="E46">
-        <v>8.59016516002024</v>
+        <v>7.54037098266926</v>
       </c>
       <c r="F46">
-        <v>1.88786225530943</v>
+        <v>2.02880978466675</v>
       </c>
       <c r="G46">
-        <v>2.60597130969132</v>
+        <v>3.17136565313367</v>
       </c>
       <c r="H46">
-        <v>2.74594375431706</v>
+        <v>4.35537905718412</v>
       </c>
       <c r="I46">
-        <v>2.0068482613964</v>
+        <v>2.44632098607557</v>
       </c>
       <c r="J46">
-        <v>6.38040177462689</v>
+        <v>6.32316288734732</v>
       </c>
       <c r="K46">
-        <v>4.98066246704369</v>
+        <v>6.583781313482</v>
       </c>
       <c r="L46">
-        <v>15.0440182300355</v>
+        <v>20.3543190961721</v>
       </c>
       <c r="M46">
-        <v>5.92762380747643</v>
+        <v>6.73776661062031</v>
       </c>
       <c r="N46">
-        <v>9.0973511830659</v>
+        <v>10.5215606670554</v>
       </c>
       <c r="O46">
-        <v>360.829258787505</v>
+        <v>420.630874181963</v>
       </c>
       <c r="P46">
-        <v>15.7442759092855</v>
+        <v>13.1195199764873</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1113.62081716447</v>
+        <v>635.615137147489</v>
       </c>
       <c r="C47">
-        <v>60.7096759341178</v>
+        <v>67.14102070064931</v>
       </c>
       <c r="D47">
-        <v>47.564067464258</v>
+        <v>40.2283701642023</v>
       </c>
       <c r="E47">
-        <v>62.1579763376035</v>
+        <v>42.3349038770232</v>
       </c>
       <c r="F47">
-        <v>12.0306298352216</v>
+        <v>9.13283320980611</v>
       </c>
       <c r="G47">
-        <v>27.3243073342576</v>
+        <v>35.0461694340839</v>
       </c>
       <c r="H47">
-        <v>22.8708034590525</v>
+        <v>24.4128041931156</v>
       </c>
       <c r="I47">
-        <v>12.8358025837674</v>
+        <v>15.912578779737</v>
       </c>
       <c r="J47">
-        <v>40.1627380434672</v>
+        <v>59.3875192449425</v>
       </c>
       <c r="K47">
-        <v>26.3206612003844</v>
+        <v>26.786707210693</v>
       </c>
       <c r="L47">
-        <v>51.6781148404207</v>
+        <v>63.580418934006</v>
       </c>
       <c r="M47">
-        <v>75.7408201701811</v>
+        <v>85.2519468010741</v>
       </c>
       <c r="N47">
-        <v>43.5319888018409</v>
+        <v>42.2128068121016</v>
       </c>
       <c r="O47">
-        <v>3219.99207238104</v>
+        <v>3681.36587144725</v>
       </c>
       <c r="P47">
-        <v>53.276438860261</v>
+        <v>42.4833470321173</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1005.1640576791</v>
+        <v>658.033632878651</v>
       </c>
       <c r="C48">
-        <v>35.3690144909045</v>
+        <v>22.6266727100465</v>
       </c>
       <c r="D48">
-        <v>6.54016603844665</v>
+        <v>10.3501031418651</v>
       </c>
       <c r="E48">
-        <v>69.9620453025812</v>
+        <v>79.46732960989181</v>
       </c>
       <c r="F48">
-        <v>10.0479768099519</v>
+        <v>15.6309488228602</v>
       </c>
       <c r="G48">
-        <v>5.08520708742306</v>
+        <v>8.158127754594529</v>
       </c>
       <c r="H48">
-        <v>5.57103138225061</v>
+        <v>4.80469981930889</v>
       </c>
       <c r="I48">
-        <v>8.87978576109937</v>
+        <v>14.4042603084989</v>
       </c>
       <c r="J48">
-        <v>36.8445263217147</v>
+        <v>32.3637187305366</v>
       </c>
       <c r="K48">
-        <v>21.847943225361</v>
+        <v>27.9968002399021</v>
       </c>
       <c r="L48">
-        <v>45.7745323229466</v>
+        <v>46.415556744025</v>
       </c>
       <c r="M48">
-        <v>135.548859763861</v>
+        <v>175.436759173494</v>
       </c>
       <c r="N48">
-        <v>35.1813732513578</v>
+        <v>29.8432942021436</v>
       </c>
       <c r="O48">
-        <v>2596.71725718741</v>
+        <v>2880.82691526416</v>
       </c>
       <c r="P48">
-        <v>109.333309806374</v>
+        <v>95.7278641388732</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>510.73233843914</v>
+        <v>312.412297582245</v>
       </c>
       <c r="C49">
-        <v>8.095777912718059</v>
+        <v>7.79289757246603</v>
       </c>
       <c r="D49">
-        <v>3.31945269242252</v>
+        <v>6.08650299812648</v>
       </c>
       <c r="E49">
-        <v>20.15828974403</v>
+        <v>21.6136316383568</v>
       </c>
       <c r="F49">
-        <v>40.2303562856325</v>
+        <v>53.1470108139831</v>
       </c>
       <c r="G49">
-        <v>19.7393975136532</v>
+        <v>27.8640872949695</v>
       </c>
       <c r="H49">
-        <v>12.5641039091761</v>
+        <v>10.6405344420269</v>
       </c>
       <c r="I49">
-        <v>9.280872629176409</v>
+        <v>11.5545018365949</v>
       </c>
       <c r="J49">
-        <v>28.0170007229157</v>
+        <v>34.0505081110049</v>
       </c>
       <c r="K49">
-        <v>11.3056934152527</v>
+        <v>13.1282989768055</v>
       </c>
       <c r="L49">
-        <v>2.81174845482054</v>
+        <v>3.7714969825388</v>
       </c>
       <c r="M49">
-        <v>7.65292130246857</v>
+        <v>8.01880277074209</v>
       </c>
       <c r="N49">
-        <v>5.00785122847284</v>
+        <v>4.79300296662921</v>
       </c>
       <c r="O49">
-        <v>777.524155288571</v>
+        <v>951.425423397027</v>
       </c>
       <c r="P49">
-        <v>15.8659408570564</v>
+        <v>13.5447106208652</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>648.885275664281</v>
+        <v>377.057413938636</v>
       </c>
       <c r="C50">
-        <v>87.8285928304652</v>
+        <v>96.3815455234959</v>
       </c>
       <c r="D50">
-        <v>14.4111334391889</v>
+        <v>15.1172593527636</v>
       </c>
       <c r="E50">
-        <v>153.989374353295</v>
+        <v>126.649227255854</v>
       </c>
       <c r="F50">
-        <v>6.8815068202981</v>
+        <v>4.68496973111698</v>
       </c>
       <c r="G50">
-        <v>25.4409437851991</v>
+        <v>43.6022621463117</v>
       </c>
       <c r="H50">
-        <v>52.4546688775213</v>
+        <v>45.3814145697203</v>
       </c>
       <c r="I50">
-        <v>17.630596403145</v>
+        <v>17.5198000386465</v>
       </c>
       <c r="J50">
-        <v>133.649407795442</v>
+        <v>121.542549355531</v>
       </c>
       <c r="K50">
-        <v>100.123049023705</v>
+        <v>118.635622991497</v>
       </c>
       <c r="L50">
-        <v>71.7840140199563</v>
+        <v>95.1510935074958</v>
       </c>
       <c r="M50">
-        <v>47.5357969008223</v>
+        <v>33.1035633296926</v>
       </c>
       <c r="N50">
-        <v>69.5839676718074</v>
+        <v>89.4097706376778</v>
       </c>
       <c r="O50">
-        <v>2245.45101866043</v>
+        <v>2555.19506612053</v>
       </c>
       <c r="P50">
-        <v>123.16652596938</v>
+        <v>79.20086343967181</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>91.92382226964141</v>
+        <v>63.9070330567576</v>
       </c>
       <c r="C51">
-        <v>2.39055457780564</v>
+        <v>2.76369657599229</v>
       </c>
       <c r="D51">
-        <v>0.0500354717046099</v>
+        <v>0.0396286665112089</v>
       </c>
       <c r="E51">
-        <v>2.8725831131182</v>
+        <v>2.25159352850185</v>
       </c>
       <c r="F51">
-        <v>39.9954779608824</v>
+        <v>48.8601637031306</v>
       </c>
       <c r="G51">
-        <v>3.3158053560703</v>
+        <v>2.84463409343275</v>
       </c>
       <c r="H51">
-        <v>0.396108725864854</v>
+        <v>0.312037296518483</v>
       </c>
       <c r="I51">
-        <v>1.74172196552803</v>
+        <v>2.13109185746738</v>
       </c>
       <c r="J51">
-        <v>2.40466252408216</v>
+        <v>3.22013156801284</v>
       </c>
       <c r="K51">
-        <v>0.813977980528523</v>
+        <v>1.43850303594503</v>
       </c>
       <c r="L51">
-        <v>0.248686523006487</v>
+        <v>0.364079993024284</v>
       </c>
       <c r="M51">
-        <v>0.5392090450713261</v>
+        <v>0.685918934003268</v>
       </c>
       <c r="N51">
-        <v>2.35392085537989</v>
+        <v>2.41525463427396</v>
       </c>
       <c r="O51">
-        <v>329.186399837172</v>
+        <v>398.000755658276</v>
       </c>
       <c r="P51">
-        <v>23.538616520566</v>
+        <v>25.8976544508067</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>452.206425995163</v>
+        <v>928.432631411455</v>
       </c>
       <c r="C2">
-        <v>45.6916394204086</v>
+        <v>37.9013961103524</v>
       </c>
       <c r="D2">
-        <v>80.00192508752821</v>
+        <v>65.393933289605</v>
       </c>
       <c r="E2">
-        <v>94.61756026267361</v>
+        <v>75.3934555091285</v>
       </c>
       <c r="F2">
-        <v>24.2875137476009</v>
+        <v>19.0107613193071</v>
       </c>
       <c r="G2">
-        <v>23.0389982317506</v>
+        <v>19.0439313655443</v>
       </c>
       <c r="H2">
-        <v>38.5244444161544</v>
+        <v>32.8221087386634</v>
       </c>
       <c r="I2">
-        <v>23.893466399527</v>
+        <v>19.7519186378632</v>
       </c>
       <c r="J2">
-        <v>85.5699876512179</v>
+        <v>70.39415761890911</v>
       </c>
       <c r="K2">
-        <v>25.2817008384206</v>
+        <v>20.0105849406706</v>
       </c>
       <c r="L2">
-        <v>40.3311075549613</v>
+        <v>33.3481153690344</v>
       </c>
       <c r="M2">
-        <v>63.1375680736612</v>
+        <v>50.2485161183049</v>
       </c>
       <c r="N2">
-        <v>32.1271214174369</v>
+        <v>26.4607740677354</v>
       </c>
       <c r="O2">
-        <v>2064.96337142541</v>
+        <v>1705.08350147508</v>
       </c>
       <c r="P2">
-        <v>41.5880993629942</v>
+        <v>31.8487340070528</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>100.753442139065</v>
+        <v>155.859727387573</v>
       </c>
       <c r="C3">
-        <v>5.94572916326191</v>
+        <v>5.26555655690217</v>
       </c>
       <c r="D3">
-        <v>0.352097495015121</v>
+        <v>0.316285261730857</v>
       </c>
       <c r="E3">
-        <v>1.22717210558699</v>
+        <v>1.09996803223371</v>
       </c>
       <c r="F3">
-        <v>17.9135022437612</v>
+        <v>15.937816300407</v>
       </c>
       <c r="G3">
-        <v>0.314460116907413</v>
+        <v>0.284946683852719</v>
       </c>
       <c r="H3">
-        <v>0.353605610455371</v>
+        <v>0.308656952183735</v>
       </c>
       <c r="I3">
-        <v>0.410273610427611</v>
+        <v>0.365227282583542</v>
       </c>
       <c r="J3">
-        <v>1.0389763138023</v>
+        <v>0.928192376878984</v>
       </c>
       <c r="K3">
-        <v>0.300844074292299</v>
+        <v>0.27118143230436</v>
       </c>
       <c r="L3">
-        <v>0.307709582399453</v>
+        <v>0.273603091497391</v>
       </c>
       <c r="M3">
-        <v>1.73236541860224</v>
+        <v>1.71089570104137</v>
       </c>
       <c r="N3">
-        <v>1.49210001421952</v>
+        <v>1.33024251048477</v>
       </c>
       <c r="O3">
-        <v>452.649678889333</v>
+        <v>402.659999494774</v>
       </c>
       <c r="P3">
-        <v>14.1720086426122</v>
+        <v>12.3888613271046</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>544.621772820907</v>
+        <v>958.172665879435</v>
       </c>
       <c r="C4">
-        <v>14.2016892428069</v>
+        <v>12.2594521429905</v>
       </c>
       <c r="D4">
-        <v>6.136494646202</v>
+        <v>5.27385054917015</v>
       </c>
       <c r="E4">
-        <v>16.7069399649891</v>
+        <v>14.4620578670468</v>
       </c>
       <c r="F4">
-        <v>7.535051388578</v>
+        <v>6.49378758596458</v>
       </c>
       <c r="G4">
-        <v>14.6655377914843</v>
+        <v>12.2965373003741</v>
       </c>
       <c r="H4">
-        <v>11.1261925384285</v>
+        <v>9.04148502639015</v>
       </c>
       <c r="I4">
-        <v>13.3046437986466</v>
+        <v>10.5973003068474</v>
       </c>
       <c r="J4">
-        <v>30.4530475792694</v>
+        <v>25.1985589248203</v>
       </c>
       <c r="K4">
-        <v>12.6504648148789</v>
+        <v>10.9663255106438</v>
       </c>
       <c r="L4">
-        <v>107.994133731918</v>
+        <v>90.14568130012989</v>
       </c>
       <c r="M4">
-        <v>76.238457981138</v>
+        <v>65.9723403423792</v>
       </c>
       <c r="N4">
-        <v>43.1946622078509</v>
+        <v>37.1009561899186</v>
       </c>
       <c r="O4">
-        <v>2634.83509368183</v>
+        <v>2284.15608029776</v>
       </c>
       <c r="P4">
-        <v>42.4291906966544</v>
+        <v>35.7058910165092</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>265.875554261009</v>
+        <v>593.207121126896</v>
       </c>
       <c r="C5">
-        <v>83.3298120820066</v>
+        <v>66.40854883642921</v>
       </c>
       <c r="D5">
-        <v>22.0850896880888</v>
+        <v>17.1695119385238</v>
       </c>
       <c r="E5">
-        <v>44.9488346731491</v>
+        <v>36.2904874601596</v>
       </c>
       <c r="F5">
-        <v>1.50885237880495</v>
+        <v>1.22277061774568</v>
       </c>
       <c r="G5">
-        <v>12.906367207887</v>
+        <v>10.4395589607397</v>
       </c>
       <c r="H5">
-        <v>14.9607097204314</v>
+        <v>12.1076670711981</v>
       </c>
       <c r="I5">
-        <v>12.2969999857701</v>
+        <v>9.535996946364451</v>
       </c>
       <c r="J5">
-        <v>40.7180010734949</v>
+        <v>32.9495501061804</v>
       </c>
       <c r="K5">
-        <v>33.445223955717</v>
+        <v>26.8204996060444</v>
       </c>
       <c r="L5">
-        <v>29.5670533880534</v>
+        <v>23.1081825092318</v>
       </c>
       <c r="M5">
-        <v>19.8019448415297</v>
+        <v>15.1534370990286</v>
       </c>
       <c r="N5">
-        <v>20.9173082082239</v>
+        <v>17.4809638525324</v>
       </c>
       <c r="O5">
-        <v>1242.11377088289</v>
+        <v>994.053246579915</v>
       </c>
       <c r="P5">
-        <v>53.4793054921723</v>
+        <v>42.3901460489907</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>4048.0870554246</v>
+        <v>6148.43103312036</v>
       </c>
       <c r="C6">
-        <v>183.455379529008</v>
+        <v>166.096042147923</v>
       </c>
       <c r="D6">
-        <v>292.511928221767</v>
+        <v>256.111067152112</v>
       </c>
       <c r="E6">
-        <v>138.79145069024</v>
+        <v>122.850863145024</v>
       </c>
       <c r="F6">
-        <v>37.2641691859164</v>
+        <v>32.3089188859582</v>
       </c>
       <c r="G6">
-        <v>154.526673752985</v>
+        <v>139.617274874656</v>
       </c>
       <c r="H6">
-        <v>96.93952579718081</v>
+        <v>87.00794948955421</v>
       </c>
       <c r="I6">
-        <v>68.2299743438272</v>
+        <v>60.9767795918086</v>
       </c>
       <c r="J6">
-        <v>219.831481613128</v>
+        <v>196.689846781534</v>
       </c>
       <c r="K6">
-        <v>162.861456628461</v>
+        <v>147.477459234871</v>
       </c>
       <c r="L6">
-        <v>616.873049708014</v>
+        <v>543.196463811256</v>
       </c>
       <c r="M6">
-        <v>404.500488955422</v>
+        <v>359.181876301685</v>
       </c>
       <c r="N6">
-        <v>364.19658895335</v>
+        <v>324.9803619362</v>
       </c>
       <c r="O6">
-        <v>15631.2668400052</v>
+        <v>13858.0946338251</v>
       </c>
       <c r="P6">
-        <v>266.77001355769</v>
+        <v>242.734570626385</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>361.571494129996</v>
+        <v>631.489964090178</v>
       </c>
       <c r="C7">
-        <v>40.9988754367022</v>
+        <v>36.569602797894</v>
       </c>
       <c r="D7">
-        <v>3.57084556450081</v>
+        <v>3.22878944789238</v>
       </c>
       <c r="E7">
-        <v>16.3699043574105</v>
+        <v>14.9940599297762</v>
       </c>
       <c r="F7">
-        <v>15.4602268975711</v>
+        <v>13.0665851115056</v>
       </c>
       <c r="G7">
-        <v>12.8684693030546</v>
+        <v>10.8720945893061</v>
       </c>
       <c r="H7">
-        <v>12.8526434866856</v>
+        <v>11.4947382123293</v>
       </c>
       <c r="I7">
-        <v>8.770511302810281</v>
+        <v>7.93465813490568</v>
       </c>
       <c r="J7">
-        <v>23.8125476918638</v>
+        <v>21.9843238708327</v>
       </c>
       <c r="K7">
-        <v>20.9852845061596</v>
+        <v>19.1494833632708</v>
       </c>
       <c r="L7">
-        <v>61.732115768851</v>
+        <v>54.1711648765997</v>
       </c>
       <c r="M7">
-        <v>26.5043252482749</v>
+        <v>22.8136300172989</v>
       </c>
       <c r="N7">
-        <v>33.5810044224373</v>
+        <v>28.9580957168427</v>
       </c>
       <c r="O7">
-        <v>2240.54663044818</v>
+        <v>2005.53384001196</v>
       </c>
       <c r="P7">
-        <v>25.0659142449611</v>
+        <v>22.4592299896737</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>270.411514614231</v>
+        <v>491.029152883497</v>
       </c>
       <c r="C8">
-        <v>14.9988075431279</v>
+        <v>13.0561452982366</v>
       </c>
       <c r="D8">
-        <v>10.3311743854304</v>
+        <v>9.700378874973231</v>
       </c>
       <c r="E8">
-        <v>15.2163728251448</v>
+        <v>13.6502562599885</v>
       </c>
       <c r="F8">
-        <v>1.37765830497236</v>
+        <v>1.29252782039619</v>
       </c>
       <c r="G8">
-        <v>42.5325820089375</v>
+        <v>37.7913218013094</v>
       </c>
       <c r="H8">
-        <v>16.2544002215429</v>
+        <v>15.461016515455</v>
       </c>
       <c r="I8">
-        <v>1.45270404321836</v>
+        <v>1.29837620466805</v>
       </c>
       <c r="J8">
-        <v>60.8248099873889</v>
+        <v>53.7243231560995</v>
       </c>
       <c r="K8">
-        <v>44.0978519146622</v>
+        <v>38.096840129708</v>
       </c>
       <c r="L8">
-        <v>59.6407233679334</v>
+        <v>53.3819488341318</v>
       </c>
       <c r="M8">
-        <v>83.41736143162819</v>
+        <v>72.2956628445442</v>
       </c>
       <c r="N8">
-        <v>31.4281879679701</v>
+        <v>28.1419499673275</v>
       </c>
       <c r="O8">
-        <v>1702.7359537586</v>
+        <v>1524.97682877807</v>
       </c>
       <c r="P8">
-        <v>5.33313448799122</v>
+        <v>5.33108790373987</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>77.83293753277729</v>
+        <v>169.248828986116</v>
       </c>
       <c r="C9">
-        <v>11.8775844006149</v>
+        <v>10.0356791316006</v>
       </c>
       <c r="D9">
-        <v>3.56940142494991</v>
+        <v>2.93368212492907</v>
       </c>
       <c r="E9">
-        <v>6.70864830309339</v>
+        <v>5.67538308356604</v>
       </c>
       <c r="F9">
-        <v>3.30718881403104</v>
+        <v>2.85850163966797</v>
       </c>
       <c r="G9">
-        <v>36.4470971155021</v>
+        <v>30.8551947864395</v>
       </c>
       <c r="H9">
-        <v>4.32598082683004</v>
+        <v>3.66956197076857</v>
       </c>
       <c r="I9">
-        <v>1.64479616278355</v>
+        <v>1.43108739081106</v>
       </c>
       <c r="J9">
-        <v>4.65262472482228</v>
+        <v>4.00328736236668</v>
       </c>
       <c r="K9">
-        <v>5.99932082252481</v>
+        <v>4.9355195313155</v>
       </c>
       <c r="L9">
-        <v>5.95420742380372</v>
+        <v>5.13475844622541</v>
       </c>
       <c r="M9">
-        <v>12.3532860751346</v>
+        <v>10.4889052500624</v>
       </c>
       <c r="N9">
-        <v>8.42983608894264</v>
+        <v>7.28163392128581</v>
       </c>
       <c r="O9">
-        <v>543.198485658524</v>
+        <v>469.845213116724</v>
       </c>
       <c r="P9">
-        <v>11.0688748548767</v>
+        <v>9.03449472871691</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1701.30661691143</v>
+        <v>3140.93695264623</v>
       </c>
       <c r="C10">
-        <v>61.778791189339</v>
+        <v>52.5432708863829</v>
       </c>
       <c r="D10">
-        <v>36.5951738588296</v>
+        <v>31.4776099456471</v>
       </c>
       <c r="E10">
-        <v>54.4949957418183</v>
+        <v>45.8311274867301</v>
       </c>
       <c r="F10">
-        <v>11.8928683201376</v>
+        <v>10.3464612111916</v>
       </c>
       <c r="G10">
-        <v>33.0541511071865</v>
+        <v>30.6426595311804</v>
       </c>
       <c r="H10">
-        <v>21.8289577112133</v>
+        <v>19.4194474554179</v>
       </c>
       <c r="I10">
-        <v>42.2976672683538</v>
+        <v>37.571137469665</v>
       </c>
       <c r="J10">
-        <v>66.43466455865391</v>
+        <v>57.1823408631964</v>
       </c>
       <c r="K10">
-        <v>55.8523449690808</v>
+        <v>47.1401096844927</v>
       </c>
       <c r="L10">
-        <v>148.144847228572</v>
+        <v>126.180802804464</v>
       </c>
       <c r="M10">
-        <v>130.774479976481</v>
+        <v>111.077500365372</v>
       </c>
       <c r="N10">
-        <v>107.389885633302</v>
+        <v>92.0908837806377</v>
       </c>
       <c r="O10">
-        <v>9309.66659539682</v>
+        <v>7990.10270747026</v>
       </c>
       <c r="P10">
-        <v>87.7771787572941</v>
+        <v>79.61431904086911</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>777.088812488591</v>
+        <v>1491.53572844161</v>
       </c>
       <c r="C11">
-        <v>77.4676558758277</v>
+        <v>66.26420673313871</v>
       </c>
       <c r="D11">
-        <v>184.004865281664</v>
+        <v>157.539535010386</v>
       </c>
       <c r="E11">
-        <v>123.910111684636</v>
+        <v>103.057985676445</v>
       </c>
       <c r="F11">
-        <v>5.8295098671968</v>
+        <v>5.0859130443102</v>
       </c>
       <c r="G11">
-        <v>40.8249364508851</v>
+        <v>33.9757585008663</v>
       </c>
       <c r="H11">
-        <v>17.3785371397178</v>
+        <v>15.0227574049742</v>
       </c>
       <c r="I11">
-        <v>24.6787314810797</v>
+        <v>21.2465302850462</v>
       </c>
       <c r="J11">
-        <v>63.8581840184314</v>
+        <v>53.9133058764072</v>
       </c>
       <c r="K11">
-        <v>47.7118202111772</v>
+        <v>40.0215263995473</v>
       </c>
       <c r="L11">
-        <v>76.1528248341609</v>
+        <v>65.92366935934371</v>
       </c>
       <c r="M11">
-        <v>63.6158675639511</v>
+        <v>53.9802262624269</v>
       </c>
       <c r="N11">
-        <v>49.7774752966214</v>
+        <v>43.2167806603779</v>
       </c>
       <c r="O11">
-        <v>4071.57179441053</v>
+        <v>3478.28282923535</v>
       </c>
       <c r="P11">
-        <v>27.2481877684038</v>
+        <v>22.5596072256277</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>137.46155448863</v>
+        <v>241.20367611626</v>
       </c>
       <c r="C12">
-        <v>11.41046859086</v>
+        <v>9.919362321703011</v>
       </c>
       <c r="D12">
-        <v>5.83272474946349</v>
+        <v>5.18460624262896</v>
       </c>
       <c r="E12">
-        <v>0.75796330025187</v>
+        <v>0.668587126686386</v>
       </c>
       <c r="F12">
-        <v>0.973969757157065</v>
+        <v>0.871333128677924</v>
       </c>
       <c r="G12">
-        <v>0.50591637129983</v>
+        <v>0.452695315565448</v>
       </c>
       <c r="H12">
-        <v>0.438865712374896</v>
+        <v>0.392725727161311</v>
       </c>
       <c r="I12">
-        <v>2.47096647381441</v>
+        <v>2.19536745347486</v>
       </c>
       <c r="J12">
-        <v>1.73467924704229</v>
+        <v>1.53736721941182</v>
       </c>
       <c r="K12">
-        <v>0.706556093882966</v>
+        <v>0.47987175878733</v>
       </c>
       <c r="L12">
-        <v>0.582839065857354</v>
+        <v>0.514713494861696</v>
       </c>
       <c r="M12">
-        <v>5.35709943775025</v>
+        <v>4.78964121449546</v>
       </c>
       <c r="N12">
-        <v>5.3676946941274</v>
+        <v>4.77509749035465</v>
       </c>
       <c r="O12">
-        <v>829.410981238151</v>
+        <v>733.230995153378</v>
       </c>
       <c r="P12">
-        <v>24.6294406966258</v>
+        <v>21.7258543951384</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>133.281126539629</v>
+        <v>233.894409722998</v>
       </c>
       <c r="C13">
-        <v>34.5554452131735</v>
+        <v>30.7659939071025</v>
       </c>
       <c r="D13">
-        <v>1.81938083984791</v>
+        <v>1.60246638807445</v>
       </c>
       <c r="E13">
-        <v>17.762983834272</v>
+        <v>16.0428200676441</v>
       </c>
       <c r="F13">
-        <v>4.13088452501429</v>
+        <v>3.66280369370377</v>
       </c>
       <c r="G13">
-        <v>8.150883745448059</v>
+        <v>7.24130114214243</v>
       </c>
       <c r="H13">
-        <v>2.76098989874072</v>
+        <v>2.44832822550563</v>
       </c>
       <c r="I13">
-        <v>1.20099172492304</v>
+        <v>1.06414084772152</v>
       </c>
       <c r="J13">
-        <v>7.079881706437</v>
+        <v>6.27094352918342</v>
       </c>
       <c r="K13">
-        <v>5.79515516875402</v>
+        <v>5.12306657822852</v>
       </c>
       <c r="L13">
-        <v>33.4559812760526</v>
+        <v>29.1565032933194</v>
       </c>
       <c r="M13">
-        <v>3.48827549400098</v>
+        <v>3.51503819324783</v>
       </c>
       <c r="N13">
-        <v>9.358007208762871</v>
+        <v>7.93389603420095</v>
       </c>
       <c r="O13">
-        <v>667.291239875036</v>
+        <v>587.458713836677</v>
       </c>
       <c r="P13">
-        <v>56.0751740284588</v>
+        <v>49.9560927792077</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1198.89964847629</v>
+        <v>1963.33134959858</v>
       </c>
       <c r="C14">
-        <v>124.539453135897</v>
+        <v>109.468969588088</v>
       </c>
       <c r="D14">
-        <v>16.722997209192</v>
+        <v>14.9898113622228</v>
       </c>
       <c r="E14">
-        <v>66.7854439997916</v>
+        <v>60.7700368204191</v>
       </c>
       <c r="F14">
-        <v>18.7172805488077</v>
+        <v>16.5659467733736</v>
       </c>
       <c r="G14">
-        <v>118.658219971331</v>
+        <v>105.573889380144</v>
       </c>
       <c r="H14">
-        <v>70.8151218752418</v>
+        <v>60.4323016831905</v>
       </c>
       <c r="I14">
-        <v>32.6420228081583</v>
+        <v>29.2397808933726</v>
       </c>
       <c r="J14">
-        <v>155.65871876882</v>
+        <v>139.203942808758</v>
       </c>
       <c r="K14">
-        <v>220.512018867738</v>
+        <v>195.889122402077</v>
       </c>
       <c r="L14">
-        <v>173.997092387237</v>
+        <v>154.57096940097</v>
       </c>
       <c r="M14">
-        <v>94.36582235769539</v>
+        <v>83.126778549782</v>
       </c>
       <c r="N14">
-        <v>109.173376534961</v>
+        <v>99.46743782428091</v>
       </c>
       <c r="O14">
-        <v>6028.51679315652</v>
+        <v>5401.40639768563</v>
       </c>
       <c r="P14">
-        <v>44.0545650073964</v>
+        <v>40.0176831940218</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>495.380820841746</v>
+        <v>965.537201516226</v>
       </c>
       <c r="C15">
-        <v>47.2785826577778</v>
+        <v>41.4312084847008</v>
       </c>
       <c r="D15">
-        <v>14.2862519021626</v>
+        <v>13.85193056175</v>
       </c>
       <c r="E15">
-        <v>64.2771720012278</v>
+        <v>56.3228374430538</v>
       </c>
       <c r="F15">
-        <v>14.5456501381594</v>
+        <v>12.7854370277597</v>
       </c>
       <c r="G15">
-        <v>54.5506635094714</v>
+        <v>47.1917585008853</v>
       </c>
       <c r="H15">
-        <v>55.5741955740301</v>
+        <v>46.5654782809316</v>
       </c>
       <c r="I15">
-        <v>62.0656665677857</v>
+        <v>54.4509750908773</v>
       </c>
       <c r="J15">
-        <v>230.931245215201</v>
+        <v>199.396015907435</v>
       </c>
       <c r="K15">
-        <v>100.194096850209</v>
+        <v>83.92428391712269</v>
       </c>
       <c r="L15">
-        <v>60.5688129222635</v>
+        <v>52.4709563801634</v>
       </c>
       <c r="M15">
-        <v>175.099028281949</v>
+        <v>150.284313476658</v>
       </c>
       <c r="N15">
-        <v>117.308812784686</v>
+        <v>102.091323978465</v>
       </c>
       <c r="O15">
-        <v>2731.77394597432</v>
+        <v>2398.62496742376</v>
       </c>
       <c r="P15">
-        <v>54.2690943340434</v>
+        <v>51.8101888026185</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>179.104459560035</v>
+        <v>372.327774177397</v>
       </c>
       <c r="C16">
-        <v>80.3698046633717</v>
+        <v>72.6223228952407</v>
       </c>
       <c r="D16">
-        <v>19.2276090069183</v>
+        <v>15.9684826696204</v>
       </c>
       <c r="E16">
-        <v>26.8810142034338</v>
+        <v>25.0189394650524</v>
       </c>
       <c r="F16">
-        <v>6.02425031403583</v>
+        <v>5.51245778418995</v>
       </c>
       <c r="G16">
-        <v>18.7726021881421</v>
+        <v>17.069757262801</v>
       </c>
       <c r="H16">
-        <v>20.9398410513898</v>
+        <v>19.0364126084388</v>
       </c>
       <c r="I16">
-        <v>10.0528252916755</v>
+        <v>9.08481288056073</v>
       </c>
       <c r="J16">
-        <v>52.486563718938</v>
+        <v>49.0962003911589</v>
       </c>
       <c r="K16">
-        <v>65.83980823392921</v>
+        <v>58.8243385972717</v>
       </c>
       <c r="L16">
-        <v>35.6633903000802</v>
+        <v>32.3917035918972</v>
       </c>
       <c r="M16">
-        <v>18.5426319100795</v>
+        <v>16.8216796223956</v>
       </c>
       <c r="N16">
-        <v>35.4153044764242</v>
+        <v>31.7556174553378</v>
       </c>
       <c r="O16">
-        <v>1502.00473839927</v>
+        <v>1365.50668966623</v>
       </c>
       <c r="P16">
-        <v>118.245926033862</v>
+        <v>97.72270280297811</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>214.070255652669</v>
+        <v>391.179790815481</v>
       </c>
       <c r="C17">
-        <v>25.5004975777732</v>
+        <v>23.010829598096</v>
       </c>
       <c r="D17">
-        <v>9.60514261907065</v>
+        <v>9.3385093483656</v>
       </c>
       <c r="E17">
-        <v>14.5572877474337</v>
+        <v>13.0339939353354</v>
       </c>
       <c r="F17">
-        <v>14.3030207459946</v>
+        <v>12.8989064463292</v>
       </c>
       <c r="G17">
-        <v>15.5452201437904</v>
+        <v>14.0525934892047</v>
       </c>
       <c r="H17">
-        <v>7.8505379957054</v>
+        <v>7.03328568190861</v>
       </c>
       <c r="I17">
-        <v>8.88522224671204</v>
+        <v>7.99259168058135</v>
       </c>
       <c r="J17">
-        <v>20.8811730978848</v>
+        <v>17.6315500056844</v>
       </c>
       <c r="K17">
-        <v>25.4924843444356</v>
+        <v>22.9850097180761</v>
       </c>
       <c r="L17">
-        <v>16.5059636499892</v>
+        <v>14.8677505180277</v>
       </c>
       <c r="M17">
-        <v>94.2336347133636</v>
+        <v>85.3906121173731</v>
       </c>
       <c r="N17">
-        <v>14.5942944073771</v>
+        <v>13.0723981754553</v>
       </c>
       <c r="O17">
-        <v>1407.80677456378</v>
+        <v>1267.26109321419</v>
       </c>
       <c r="P17">
-        <v>60.825888205083</v>
+        <v>50.6791572047551</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>454.999915370046</v>
+        <v>946.385765737855</v>
       </c>
       <c r="C18">
-        <v>40.9726922466453</v>
+        <v>33.6500232367026</v>
       </c>
       <c r="D18">
-        <v>15.4456404747678</v>
+        <v>13.318662536609</v>
       </c>
       <c r="E18">
-        <v>38.2515203639099</v>
+        <v>29.3704227730668</v>
       </c>
       <c r="F18">
-        <v>47.8041315230825</v>
+        <v>37.701533569269</v>
       </c>
       <c r="G18">
-        <v>38.7981962582119</v>
+        <v>30.8184509564572</v>
       </c>
       <c r="H18">
-        <v>29.6144012592325</v>
+        <v>24.3849856300249</v>
       </c>
       <c r="I18">
-        <v>10.6829827176258</v>
+        <v>8.751603559073519</v>
       </c>
       <c r="J18">
-        <v>50.0129588548171</v>
+        <v>40.9626223313894</v>
       </c>
       <c r="K18">
-        <v>33.023907935226</v>
+        <v>25.0055747232758</v>
       </c>
       <c r="L18">
-        <v>46.897157329547</v>
+        <v>39.551133289101</v>
       </c>
       <c r="M18">
-        <v>75.5058481319721</v>
+        <v>62.0890700712421</v>
       </c>
       <c r="N18">
-        <v>26.2072632789776</v>
+        <v>20.8263205255878</v>
       </c>
       <c r="O18">
-        <v>2105.63565347066</v>
+        <v>1709.88357923878</v>
       </c>
       <c r="P18">
-        <v>55.401617382339</v>
+        <v>47.2303339739639</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>548.89353959888</v>
+        <v>995.190279103473</v>
       </c>
       <c r="C19">
-        <v>29.1012792467071</v>
+        <v>25.7542056420906</v>
       </c>
       <c r="D19">
-        <v>13.0401243255069</v>
+        <v>10.8754568683409</v>
       </c>
       <c r="E19">
-        <v>25.4616986053375</v>
+        <v>21.3211528287219</v>
       </c>
       <c r="F19">
-        <v>92.4992247722698</v>
+        <v>76.82010663110989</v>
       </c>
       <c r="G19">
-        <v>47.0331116636437</v>
+        <v>39.4233797894889</v>
       </c>
       <c r="H19">
-        <v>7.95993227038746</v>
+        <v>7.20673528454091</v>
       </c>
       <c r="I19">
-        <v>13.2979422509521</v>
+        <v>11.0902481700597</v>
       </c>
       <c r="J19">
-        <v>14.6492679213125</v>
+        <v>13.1239917058014</v>
       </c>
       <c r="K19">
-        <v>21.5106066014739</v>
+        <v>17.9878547174953</v>
       </c>
       <c r="L19">
-        <v>6.03961278087644</v>
+        <v>4.40582224919546</v>
       </c>
       <c r="M19">
-        <v>38.0347350534808</v>
+        <v>31.9387756800034</v>
       </c>
       <c r="N19">
-        <v>4.77892773421973</v>
+        <v>3.99682466635391</v>
       </c>
       <c r="O19">
-        <v>2233.3737957908</v>
+        <v>1844.51831293216</v>
       </c>
       <c r="P19">
-        <v>53.7776598726191</v>
+        <v>46.6313866448519</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>120.013175796411</v>
+        <v>244.359337105138</v>
       </c>
       <c r="C20">
-        <v>10.9022143050792</v>
+        <v>9.174887295579531</v>
       </c>
       <c r="D20">
-        <v>15.0271418529863</v>
+        <v>12.7355702952593</v>
       </c>
       <c r="E20">
-        <v>41.7508607026412</v>
+        <v>34.7243270298264</v>
       </c>
       <c r="F20">
-        <v>0.124251547320042</v>
+        <v>0.10678300216756</v>
       </c>
       <c r="G20">
-        <v>1.05092904668507</v>
+        <v>0.905908376319813</v>
       </c>
       <c r="H20">
-        <v>4.55828708930781</v>
+        <v>3.81795441930698</v>
       </c>
       <c r="I20">
-        <v>0.407703807877471</v>
+        <v>0.350688425817187</v>
       </c>
       <c r="J20">
-        <v>7.11644817304208</v>
+        <v>6.15759797734195</v>
       </c>
       <c r="K20">
-        <v>5.37773752395485</v>
+        <v>4.96966817314141</v>
       </c>
       <c r="L20">
-        <v>10.569076273016</v>
+        <v>8.846865161341601</v>
       </c>
       <c r="M20">
-        <v>29.1343728254363</v>
+        <v>24.8932816131151</v>
       </c>
       <c r="N20">
-        <v>7.12103782148392</v>
+        <v>5.85138412705991</v>
       </c>
       <c r="O20">
-        <v>728.683981809419</v>
+        <v>628.677372769066</v>
       </c>
       <c r="P20">
-        <v>24.8934685564435</v>
+        <v>21.1221569450244</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>387.191495777127</v>
+        <v>786.052106999724</v>
       </c>
       <c r="C21">
-        <v>24.8415824567395</v>
+        <v>21.5534993948993</v>
       </c>
       <c r="D21">
-        <v>7.94954807353789</v>
+        <v>6.98955395825092</v>
       </c>
       <c r="E21">
-        <v>24.222548145019</v>
+        <v>20.8836971636928</v>
       </c>
       <c r="F21">
-        <v>2.18432333551322</v>
+        <v>1.94944812252347</v>
       </c>
       <c r="G21">
-        <v>21.3786158736723</v>
+        <v>18.7825561909652</v>
       </c>
       <c r="H21">
-        <v>10.4916125392429</v>
+        <v>9.177184735175549</v>
       </c>
       <c r="I21">
-        <v>9.318994771302609</v>
+        <v>8.247132482971869</v>
       </c>
       <c r="J21">
-        <v>18.0569653522486</v>
+        <v>15.9019903011342</v>
       </c>
       <c r="K21">
-        <v>19.3767759095518</v>
+        <v>17.0111101107313</v>
       </c>
       <c r="L21">
-        <v>28.2952754291751</v>
+        <v>24.5724141427246</v>
       </c>
       <c r="M21">
-        <v>31.4508321244268</v>
+        <v>27.7371432277886</v>
       </c>
       <c r="N21">
-        <v>19.5510811334543</v>
+        <v>17.1739078661227</v>
       </c>
       <c r="O21">
-        <v>3039.60632583213</v>
+        <v>2672.32172411693</v>
       </c>
       <c r="P21">
-        <v>29.0135522050249</v>
+        <v>24.4291124459022</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>523.153616817534</v>
+        <v>971.709060985017</v>
       </c>
       <c r="C22">
-        <v>14.9493123989355</v>
+        <v>13.1424520497789</v>
       </c>
       <c r="D22">
-        <v>29.5453255591604</v>
+        <v>25.4902443605214</v>
       </c>
       <c r="E22">
-        <v>34.8771253130372</v>
+        <v>31.1951904909516</v>
       </c>
       <c r="F22">
-        <v>1.16569278799817</v>
+        <v>1.02878939457056</v>
       </c>
       <c r="G22">
-        <v>33.1634157317405</v>
+        <v>29.2728638151579</v>
       </c>
       <c r="H22">
-        <v>34.5639625065344</v>
+        <v>29.0980822945998</v>
       </c>
       <c r="I22">
-        <v>8.80155377122022</v>
+        <v>7.60367489966614</v>
       </c>
       <c r="J22">
-        <v>63.1795440401896</v>
+        <v>54.8007129802467</v>
       </c>
       <c r="K22">
-        <v>50.1636839183451</v>
+        <v>43.1647362957518</v>
       </c>
       <c r="L22">
-        <v>128.657479510858</v>
+        <v>111.453786035053</v>
       </c>
       <c r="M22">
-        <v>27.3109229872776</v>
+        <v>24.5603332218484</v>
       </c>
       <c r="N22">
-        <v>99.00791013822909</v>
+        <v>87.9692806681761</v>
       </c>
       <c r="O22">
-        <v>3262.13565442078</v>
+        <v>2881.25663100886</v>
       </c>
       <c r="P22">
-        <v>18.2395923078895</v>
+        <v>16.255019204104</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>981.472716428363</v>
+        <v>1782.63147532368</v>
       </c>
       <c r="C23">
-        <v>56.1727893004459</v>
+        <v>51.3435207807022</v>
       </c>
       <c r="D23">
-        <v>16.4074913095394</v>
+        <v>14.2850520326785</v>
       </c>
       <c r="E23">
-        <v>44.8697474062188</v>
+        <v>39.7004800303467</v>
       </c>
       <c r="F23">
-        <v>0.532588741820858</v>
+        <v>0.389293410792298</v>
       </c>
       <c r="G23">
-        <v>91.1090747453126</v>
+        <v>79.3491038524475</v>
       </c>
       <c r="H23">
-        <v>78.2098872727174</v>
+        <v>68.6491307908329</v>
       </c>
       <c r="I23">
-        <v>38.6271784680537</v>
+        <v>33.647947652239</v>
       </c>
       <c r="J23">
-        <v>186.50868988695</v>
+        <v>162.390147151113</v>
       </c>
       <c r="K23">
-        <v>162.534053410054</v>
+        <v>141.773079855475</v>
       </c>
       <c r="L23">
-        <v>56.382067875344</v>
+        <v>48.8009876212558</v>
       </c>
       <c r="M23">
-        <v>720.2747575880341</v>
+        <v>619.944344982321</v>
       </c>
       <c r="N23">
-        <v>105.82812135079</v>
+        <v>91.4831376385327</v>
       </c>
       <c r="O23">
-        <v>4383.83259761238</v>
+        <v>3794.9565105725</v>
       </c>
       <c r="P23">
-        <v>53.0352301853972</v>
+        <v>46.0450471742045</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>309.569127906272</v>
+        <v>572.073869658684</v>
       </c>
       <c r="C24">
-        <v>55.8764528997866</v>
+        <v>52.7823041392761</v>
       </c>
       <c r="D24">
-        <v>13.4223031074196</v>
+        <v>12.3556454534895</v>
       </c>
       <c r="E24">
-        <v>52.9165369774412</v>
+        <v>47.5715404308651</v>
       </c>
       <c r="F24">
-        <v>23.042830599521</v>
+        <v>21.2891210818442</v>
       </c>
       <c r="G24">
-        <v>26.4078490868281</v>
+        <v>24.1971206484977</v>
       </c>
       <c r="H24">
-        <v>17.1805017444948</v>
+        <v>15.9460005691776</v>
       </c>
       <c r="I24">
-        <v>12.9772694280705</v>
+        <v>11.9372854484125</v>
       </c>
       <c r="J24">
-        <v>50.769938457998</v>
+        <v>45.977437793563</v>
       </c>
       <c r="K24">
-        <v>98.6644390425565</v>
+        <v>91.041564194939</v>
       </c>
       <c r="L24">
-        <v>70.9997336248387</v>
+        <v>64.7050629591137</v>
       </c>
       <c r="M24">
-        <v>15.2342205192713</v>
+        <v>14.037345317865</v>
       </c>
       <c r="N24">
-        <v>85.8163977299282</v>
+        <v>78.1427656679746</v>
       </c>
       <c r="O24">
-        <v>2455.88974409084</v>
+        <v>2246.69815234014</v>
       </c>
       <c r="P24">
-        <v>106.871457909319</v>
+        <v>96.1050720156174</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>310.530541607991</v>
+        <v>627.435246884166</v>
       </c>
       <c r="C25">
-        <v>54.5393941228762</v>
+        <v>45.859632868991</v>
       </c>
       <c r="D25">
-        <v>23.563331478943</v>
+        <v>18.0080392115373</v>
       </c>
       <c r="E25">
-        <v>54.1534608613978</v>
+        <v>45.9386756036468</v>
       </c>
       <c r="F25">
-        <v>36.3954823643044</v>
+        <v>30.2850370347047</v>
       </c>
       <c r="G25">
-        <v>13.6335623310511</v>
+        <v>11.0252061200941</v>
       </c>
       <c r="H25">
-        <v>20.4048711349359</v>
+        <v>16.3092427256223</v>
       </c>
       <c r="I25">
-        <v>6.31562560867736</v>
+        <v>5.24706579922719</v>
       </c>
       <c r="J25">
-        <v>24.3136318379972</v>
+        <v>18.695596043229</v>
       </c>
       <c r="K25">
-        <v>28.3798002823334</v>
+        <v>24.137367665998</v>
       </c>
       <c r="L25">
-        <v>35.659148923785</v>
+        <v>28.7879162730797</v>
       </c>
       <c r="M25">
-        <v>50.1360028515365</v>
+        <v>40.8543674538686</v>
       </c>
       <c r="N25">
-        <v>35.8476624469287</v>
+        <v>31.6994538406083</v>
       </c>
       <c r="O25">
-        <v>1373.53080145225</v>
+        <v>1134.34358009926</v>
       </c>
       <c r="P25">
-        <v>57.1322857460686</v>
+        <v>46.0533620137271</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>429.612931514531</v>
+        <v>833.574807675638</v>
       </c>
       <c r="C26">
-        <v>73.7917981446721</v>
+        <v>64.8675084193016</v>
       </c>
       <c r="D26">
-        <v>13.114144408937</v>
+        <v>10.8042899229826</v>
       </c>
       <c r="E26">
-        <v>50.0885132818703</v>
+        <v>42.6598800345036</v>
       </c>
       <c r="F26">
-        <v>9.08743493667412</v>
+        <v>7.1130297111689</v>
       </c>
       <c r="G26">
-        <v>55.5457377951366</v>
+        <v>49.0465892788298</v>
       </c>
       <c r="H26">
-        <v>21.8321767926868</v>
+        <v>19.2524413852497</v>
       </c>
       <c r="I26">
-        <v>16.2627062681635</v>
+        <v>14.3820823154296</v>
       </c>
       <c r="J26">
-        <v>61.4590895475317</v>
+        <v>53.4091171312779</v>
       </c>
       <c r="K26">
-        <v>43.7676453338046</v>
+        <v>38.2994922294417</v>
       </c>
       <c r="L26">
-        <v>37.8173473643885</v>
+        <v>33.4624921515065</v>
       </c>
       <c r="M26">
-        <v>84.9163818615346</v>
+        <v>74.7157439032474</v>
       </c>
       <c r="N26">
-        <v>31.9651210255596</v>
+        <v>28.312745713755</v>
       </c>
       <c r="O26">
-        <v>2878.11347266115</v>
+        <v>2537.18341405993</v>
       </c>
       <c r="P26">
-        <v>53.9999980458506</v>
+        <v>54.5345783768141</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>93.08412779245479</v>
+        <v>192.132036173449</v>
       </c>
       <c r="C27">
-        <v>5.01081886536025</v>
+        <v>4.2914588779005</v>
       </c>
       <c r="D27">
-        <v>1.30693634718471</v>
+        <v>1.12987718945189</v>
       </c>
       <c r="E27">
-        <v>17.4793431687356</v>
+        <v>15.1677778900848</v>
       </c>
       <c r="F27">
-        <v>8.967964260838579</v>
+        <v>7.39750966835286</v>
       </c>
       <c r="G27">
-        <v>0.495718057028385</v>
+        <v>0.564656812742331</v>
       </c>
       <c r="H27">
-        <v>0.161134052725142</v>
+        <v>0.139237845562028</v>
       </c>
       <c r="I27">
-        <v>3.9102665926324</v>
+        <v>3.38424429756641</v>
       </c>
       <c r="J27">
-        <v>4.63557327354578</v>
+        <v>3.80900491590369</v>
       </c>
       <c r="K27">
-        <v>2.65070647393119</v>
+        <v>2.24078769793151</v>
       </c>
       <c r="L27">
-        <v>2.92122459688093</v>
+        <v>2.53648615121479</v>
       </c>
       <c r="M27">
-        <v>1.63992743441237</v>
+        <v>1.38448917716012</v>
       </c>
       <c r="N27">
-        <v>6.71008985754173</v>
+        <v>5.76863311093004</v>
       </c>
       <c r="O27">
-        <v>569.297035510441</v>
+        <v>485.295295887692</v>
       </c>
       <c r="P27">
-        <v>58.0212500974402</v>
+        <v>51.2705566987815</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>103.798046106747</v>
+        <v>208.658225799193</v>
       </c>
       <c r="C28">
-        <v>36.6134878696764</v>
+        <v>33.2177358376538</v>
       </c>
       <c r="D28">
-        <v>2.78054929477525</v>
+        <v>2.53930095194243</v>
       </c>
       <c r="E28">
-        <v>7.81387330674911</v>
+        <v>7.01809429732246</v>
       </c>
       <c r="F28">
-        <v>3.32610059046881</v>
+        <v>3.31781784648222</v>
       </c>
       <c r="G28">
-        <v>9.3202449919345</v>
+        <v>8.52618141126314</v>
       </c>
       <c r="H28">
-        <v>10.3894414186519</v>
+        <v>9.48803013973048</v>
       </c>
       <c r="I28">
-        <v>4.95331470830649</v>
+        <v>3.86363844632539</v>
       </c>
       <c r="J28">
-        <v>20.3790896322522</v>
+        <v>18.4804187457563</v>
       </c>
       <c r="K28">
-        <v>19.7807721965688</v>
+        <v>18.0689175530078</v>
       </c>
       <c r="L28">
-        <v>15.3905237612798</v>
+        <v>13.504680865606</v>
       </c>
       <c r="M28">
-        <v>9.13962790489164</v>
+        <v>8.35715861705599</v>
       </c>
       <c r="N28">
-        <v>12.7719516660081</v>
+        <v>11.6771450077239</v>
       </c>
       <c r="O28">
-        <v>955.263099924809</v>
+        <v>874.266605455056</v>
       </c>
       <c r="P28">
-        <v>95.3830142326549</v>
+        <v>85.58329580923851</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>209.601862096364</v>
+        <v>375.398581179955</v>
       </c>
       <c r="C29">
-        <v>4.74350244120653</v>
+        <v>4.18146798779282</v>
       </c>
       <c r="D29">
-        <v>4.90837122614024</v>
+        <v>4.30286653520373</v>
       </c>
       <c r="E29">
-        <v>5.12721186476036</v>
+        <v>4.52919911723931</v>
       </c>
       <c r="F29">
-        <v>20.2304226115759</v>
+        <v>17.4919034508284</v>
       </c>
       <c r="G29">
-        <v>4.0053306873757</v>
+        <v>3.51980163164282</v>
       </c>
       <c r="H29">
-        <v>3.10149070738265</v>
+        <v>2.718895860433</v>
       </c>
       <c r="I29">
-        <v>7.24086586547054</v>
+        <v>6.35401039338004</v>
       </c>
       <c r="J29">
-        <v>5.26771246368179</v>
+        <v>4.632089366354</v>
       </c>
       <c r="K29">
-        <v>4.10130322612662</v>
+        <v>3.71032754709504</v>
       </c>
       <c r="L29">
-        <v>2.61894161615466</v>
+        <v>2.14280155576895</v>
       </c>
       <c r="M29">
-        <v>2.60470413635508</v>
+        <v>2.30500825553126</v>
       </c>
       <c r="N29">
-        <v>12.5597575488907</v>
+        <v>11.0396846739759</v>
       </c>
       <c r="O29">
-        <v>1284.13529482229</v>
+        <v>1127.87738427151</v>
       </c>
       <c r="P29">
-        <v>4.35153968969164</v>
+        <v>4.45467459605306</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>97.1815316050776</v>
+        <v>186.543107836437</v>
       </c>
       <c r="C30">
-        <v>5.05051696811613</v>
+        <v>4.42590931161981</v>
       </c>
       <c r="D30">
-        <v>7.34683304620632</v>
+        <v>6.96320548321066</v>
       </c>
       <c r="E30">
-        <v>9.196094820599249</v>
+        <v>8.586476729896379</v>
       </c>
       <c r="F30">
-        <v>0.478402514465053</v>
+        <v>0.426948800247322</v>
       </c>
       <c r="G30">
-        <v>5.90244143147604</v>
+        <v>5.48117193993803</v>
       </c>
       <c r="H30">
-        <v>9.746358100858791</v>
+        <v>8.454857563318701</v>
       </c>
       <c r="I30">
-        <v>3.54098587188447</v>
+        <v>3.16342537022548</v>
       </c>
       <c r="J30">
-        <v>19.4859307577191</v>
+        <v>17.0462674843928</v>
       </c>
       <c r="K30">
-        <v>21.3111901904556</v>
+        <v>19.1749237202824</v>
       </c>
       <c r="L30">
-        <v>53.1658801522172</v>
+        <v>48.3356718396322</v>
       </c>
       <c r="M30">
-        <v>13.2565181205208</v>
+        <v>11.9220618206867</v>
       </c>
       <c r="N30">
-        <v>17.0076804948677</v>
+        <v>15.0144663586105</v>
       </c>
       <c r="O30">
-        <v>720.387286535818</v>
+        <v>647.260343258421</v>
       </c>
       <c r="P30">
-        <v>7.80462683749304</v>
+        <v>7.62895865308823</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>905.03154409278</v>
+        <v>1474.70166606965</v>
       </c>
       <c r="C31">
-        <v>50.2112824270246</v>
+        <v>45.5468351736837</v>
       </c>
       <c r="D31">
-        <v>45.9795741614381</v>
+        <v>42.0679388367533</v>
       </c>
       <c r="E31">
-        <v>27.0210209495575</v>
+        <v>24.2423398312943</v>
       </c>
       <c r="F31">
-        <v>12.0733000643599</v>
+        <v>10.5993126390842</v>
       </c>
       <c r="G31">
-        <v>169.214315416393</v>
+        <v>147.724784525088</v>
       </c>
       <c r="H31">
-        <v>30.1698238788598</v>
+        <v>23.7910232872274</v>
       </c>
       <c r="I31">
-        <v>32.9418361135312</v>
+        <v>26.3372966401974</v>
       </c>
       <c r="J31">
-        <v>46.8744699837797</v>
+        <v>39.4074797789097</v>
       </c>
       <c r="K31">
-        <v>41.2119973872456</v>
+        <v>36.6968990040182</v>
       </c>
       <c r="L31">
-        <v>83.3513048871952</v>
+        <v>73.73741984070389</v>
       </c>
       <c r="M31">
-        <v>20.1616670237375</v>
+        <v>17.7385896818384</v>
       </c>
       <c r="N31">
-        <v>70.7143763797869</v>
+        <v>62.5989100295995</v>
       </c>
       <c r="O31">
-        <v>4325.23516011199</v>
+        <v>3832.56438711044</v>
       </c>
       <c r="P31">
-        <v>7.83766275515124</v>
+        <v>9.075861490539751</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>220.832512336721</v>
+        <v>385.43950849157</v>
       </c>
       <c r="C32">
-        <v>7.46310231423347</v>
+        <v>7.11215200863461</v>
       </c>
       <c r="D32">
-        <v>3.71739890969104</v>
+        <v>3.39758329630259</v>
       </c>
       <c r="E32">
-        <v>4.11424780310872</v>
+        <v>3.7293747098973</v>
       </c>
       <c r="F32">
-        <v>42.0720911002808</v>
+        <v>35.4909981813085</v>
       </c>
       <c r="G32">
-        <v>1.02898667746598</v>
+        <v>0.86685468775912</v>
       </c>
       <c r="H32">
-        <v>0.957802106013392</v>
+        <v>0.808162856904026</v>
       </c>
       <c r="I32">
-        <v>7.62406192123282</v>
+        <v>6.1854535068029</v>
       </c>
       <c r="J32">
-        <v>6.81384377169957</v>
+        <v>5.52178095693755</v>
       </c>
       <c r="K32">
-        <v>7.36839595502708</v>
+        <v>6.26853215648904</v>
       </c>
       <c r="L32">
-        <v>16.2786338540025</v>
+        <v>14.3447445672757</v>
       </c>
       <c r="M32">
-        <v>3.44489857250399</v>
+        <v>2.91443519165762</v>
       </c>
       <c r="N32">
-        <v>10.7363493672404</v>
+        <v>9.435737120424561</v>
       </c>
       <c r="O32">
-        <v>975.694676789243</v>
+        <v>833.702277377758</v>
       </c>
       <c r="P32">
-        <v>30.8015478190887</v>
+        <v>24.2029991562791</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2248.84888830745</v>
+        <v>3856.15888482384</v>
       </c>
       <c r="C33">
-        <v>94.2488474408738</v>
+        <v>78.73729163251831</v>
       </c>
       <c r="D33">
-        <v>112.352766332884</v>
+        <v>98.1844695156866</v>
       </c>
       <c r="E33">
-        <v>60.9076626658971</v>
+        <v>51.6803760748913</v>
       </c>
       <c r="F33">
-        <v>8.823146159924431</v>
+        <v>7.53889283633369</v>
       </c>
       <c r="G33">
-        <v>72.978110445537</v>
+        <v>63.3409217983165</v>
       </c>
       <c r="H33">
-        <v>50.3740996867976</v>
+        <v>41.7244123391555</v>
       </c>
       <c r="I33">
-        <v>36.2980795344373</v>
+        <v>28.04149954896</v>
       </c>
       <c r="J33">
-        <v>120.274771699534</v>
+        <v>99.1005019003678</v>
       </c>
       <c r="K33">
-        <v>131.487119788343</v>
+        <v>113.075144995429</v>
       </c>
       <c r="L33">
-        <v>175.650248368673</v>
+        <v>145.930669858676</v>
       </c>
       <c r="M33">
-        <v>103.706232278312</v>
+        <v>87.6515510217682</v>
       </c>
       <c r="N33">
-        <v>222.992922310722</v>
+        <v>188.287210483285</v>
       </c>
       <c r="O33">
-        <v>9468.583773258601</v>
+        <v>8057.87397318327</v>
       </c>
       <c r="P33">
-        <v>61.9320193591201</v>
+        <v>54.0928605327873</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>746.400445855386</v>
+        <v>1454.50687352486</v>
       </c>
       <c r="C34">
-        <v>97.3987630172881</v>
+        <v>82.4313012481765</v>
       </c>
       <c r="D34">
-        <v>248.349123780245</v>
+        <v>209.703943756453</v>
       </c>
       <c r="E34">
-        <v>66.12000170304791</v>
+        <v>56.9560834522066</v>
       </c>
       <c r="F34">
-        <v>7.02327754582519</v>
+        <v>6.00149338176683</v>
       </c>
       <c r="G34">
-        <v>81.9516010587878</v>
+        <v>68.98338504834931</v>
       </c>
       <c r="H34">
-        <v>61.5016467161667</v>
+        <v>53.0452901845079</v>
       </c>
       <c r="I34">
-        <v>30.5972165748273</v>
+        <v>26.2089786707997</v>
       </c>
       <c r="J34">
-        <v>57.8396309178744</v>
+        <v>48.3526015513509</v>
       </c>
       <c r="K34">
-        <v>97.27811115672</v>
+        <v>81.9309018965741</v>
       </c>
       <c r="L34">
-        <v>144.301163398682</v>
+        <v>122.639841026576</v>
       </c>
       <c r="M34">
-        <v>52.8317128800662</v>
+        <v>46.7653271007494</v>
       </c>
       <c r="N34">
-        <v>158.554922841644</v>
+        <v>135.485397301601</v>
       </c>
       <c r="O34">
-        <v>3743.60230158418</v>
+        <v>3217.09995402142</v>
       </c>
       <c r="P34">
-        <v>87.2901446491903</v>
+        <v>69.56008422115799</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>44.5345098892104</v>
+        <v>93.4017751894322</v>
       </c>
       <c r="C35">
-        <v>8.92853374980306</v>
+        <v>8.20630091823932</v>
       </c>
       <c r="D35">
-        <v>0.899975285088332</v>
+        <v>0.813817856512029</v>
       </c>
       <c r="E35">
-        <v>4.0051296967597</v>
+        <v>3.57321514544763</v>
       </c>
       <c r="F35">
-        <v>6.43065411100413</v>
+        <v>5.83658160822707</v>
       </c>
       <c r="G35">
-        <v>0.238014784557745</v>
+        <v>0.214938197286036</v>
       </c>
       <c r="H35">
-        <v>1.00493436262434</v>
+        <v>0.906800299027087</v>
       </c>
       <c r="I35">
-        <v>1.05682737966432</v>
+        <v>0.991638731284986</v>
       </c>
       <c r="J35">
-        <v>3.152316841613</v>
+        <v>2.86348557414166</v>
       </c>
       <c r="K35">
-        <v>8.294041941740639</v>
+        <v>7.4954370152716</v>
       </c>
       <c r="L35">
-        <v>3.60336811507725</v>
+        <v>3.27629740916147</v>
       </c>
       <c r="M35">
-        <v>3.38909942427533</v>
+        <v>3.06195421675816</v>
       </c>
       <c r="N35">
-        <v>3.06042815755967</v>
+        <v>2.78301172153456</v>
       </c>
       <c r="O35">
-        <v>397.750572884065</v>
+        <v>358.463137186017</v>
       </c>
       <c r="P35">
-        <v>53.3045824176136</v>
+        <v>47.6015116745395</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1046.32123929148</v>
+        <v>1983.44300941351</v>
       </c>
       <c r="C36">
-        <v>83.17920485540451</v>
+        <v>69.27998471395929</v>
       </c>
       <c r="D36">
-        <v>19.3028185382882</v>
+        <v>15.7704973038016</v>
       </c>
       <c r="E36">
-        <v>80.08332949088999</v>
+        <v>68.3950729949012</v>
       </c>
       <c r="F36">
-        <v>48.4444130709843</v>
+        <v>42.9546970122265</v>
       </c>
       <c r="G36">
-        <v>124.565953978155</v>
+        <v>102.74836282307</v>
       </c>
       <c r="H36">
-        <v>135.006421547685</v>
+        <v>112.684829220265</v>
       </c>
       <c r="I36">
-        <v>56.0176206472235</v>
+        <v>48.4135824601096</v>
       </c>
       <c r="J36">
-        <v>255.435870638608</v>
+        <v>219.985504541298</v>
       </c>
       <c r="K36">
-        <v>175.746972253544</v>
+        <v>148.886740749305</v>
       </c>
       <c r="L36">
-        <v>124.651726825862</v>
+        <v>106.242393633171</v>
       </c>
       <c r="M36">
-        <v>266.416101699101</v>
+        <v>223.592375546122</v>
       </c>
       <c r="N36">
-        <v>103.567430204475</v>
+        <v>90.79118692059021</v>
       </c>
       <c r="O36">
-        <v>5391.59896420559</v>
+        <v>4678.3389799349</v>
       </c>
       <c r="P36">
-        <v>38.9976928926879</v>
+        <v>36.9730038370951</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>323.142887704683</v>
+        <v>668.141149257919</v>
       </c>
       <c r="C37">
-        <v>26.1786527066516</v>
+        <v>22.7627653116135</v>
       </c>
       <c r="D37">
-        <v>11.0510530033529</v>
+        <v>8.435815446568791</v>
       </c>
       <c r="E37">
-        <v>16.3722166187707</v>
+        <v>13.6983171663035</v>
       </c>
       <c r="F37">
-        <v>50.4252748257144</v>
+        <v>42.4731020867391</v>
       </c>
       <c r="G37">
-        <v>8.52348404980031</v>
+        <v>7.06825765869823</v>
       </c>
       <c r="H37">
-        <v>28.2497171900503</v>
+        <v>23.6575706414351</v>
       </c>
       <c r="I37">
-        <v>16.5103055855506</v>
+        <v>13.8143021228671</v>
       </c>
       <c r="J37">
-        <v>34.450205036327</v>
+        <v>26.8863939647054</v>
       </c>
       <c r="K37">
-        <v>56.1683019230612</v>
+        <v>45.732641401387</v>
       </c>
       <c r="L37">
-        <v>32.0303711630157</v>
+        <v>27.5260446400072</v>
       </c>
       <c r="M37">
-        <v>35.2140053919681</v>
+        <v>28.7357913779697</v>
       </c>
       <c r="N37">
-        <v>20.2795805140403</v>
+        <v>16.0921644093155</v>
       </c>
       <c r="O37">
-        <v>1646.39655914254</v>
+        <v>1367.5926158596</v>
       </c>
       <c r="P37">
-        <v>58.1143022103927</v>
+        <v>50.9578297731557</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>376.167401426568</v>
+        <v>644.754088080787</v>
       </c>
       <c r="C38">
-        <v>29.755473897674</v>
+        <v>25.1145637346174</v>
       </c>
       <c r="D38">
-        <v>18.3909116786921</v>
+        <v>16.1270109524963</v>
       </c>
       <c r="E38">
-        <v>51.9018180875014</v>
+        <v>45.6911257734076</v>
       </c>
       <c r="F38">
-        <v>3.53228230915634</v>
+        <v>3.11440578308074</v>
       </c>
       <c r="G38">
-        <v>6.88198250021056</v>
+        <v>6.04407961569651</v>
       </c>
       <c r="H38">
-        <v>8.98416320463728</v>
+        <v>7.84210849684497</v>
       </c>
       <c r="I38">
-        <v>3.55365720176195</v>
+        <v>3.11086357846767</v>
       </c>
       <c r="J38">
-        <v>44.1328301763578</v>
+        <v>38.1170840904789</v>
       </c>
       <c r="K38">
-        <v>20.0910728405225</v>
+        <v>17.1536960171839</v>
       </c>
       <c r="L38">
-        <v>96.2319867913241</v>
+        <v>83.5221187074453</v>
       </c>
       <c r="M38">
-        <v>27.0529786245002</v>
+        <v>23.0244356604092</v>
       </c>
       <c r="N38">
-        <v>27.6197768562922</v>
+        <v>23.4339804189735</v>
       </c>
       <c r="O38">
-        <v>1674.51621711373</v>
+        <v>1463.11078879065</v>
       </c>
       <c r="P38">
-        <v>80.184532869593</v>
+        <v>69.0003070436845</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1221.6716360376</v>
+        <v>2204.9577833389</v>
       </c>
       <c r="C39">
-        <v>144.395887379329</v>
+        <v>126.467757518903</v>
       </c>
       <c r="D39">
-        <v>76.8141985719852</v>
+        <v>62.9514011582042</v>
       </c>
       <c r="E39">
-        <v>95.9542584381924</v>
+        <v>83.2895180824729</v>
       </c>
       <c r="F39">
-        <v>29.8816865274253</v>
+        <v>25.6526465632642</v>
       </c>
       <c r="G39">
-        <v>148.986904896418</v>
+        <v>128.961896682335</v>
       </c>
       <c r="H39">
-        <v>48.3074157614024</v>
+        <v>42.6926965999869</v>
       </c>
       <c r="I39">
-        <v>62.506184226916</v>
+        <v>55.4877719933653</v>
       </c>
       <c r="J39">
-        <v>187.65752230244</v>
+        <v>163.434017227109</v>
       </c>
       <c r="K39">
-        <v>153.301954040083</v>
+        <v>133.938292179016</v>
       </c>
       <c r="L39">
-        <v>142.79845847178</v>
+        <v>117.61823615673</v>
       </c>
       <c r="M39">
-        <v>85.7227385026364</v>
+        <v>74.18510672539691</v>
       </c>
       <c r="N39">
-        <v>135.255959430621</v>
+        <v>117.906762057995</v>
       </c>
       <c r="O39">
-        <v>6089.5615593853</v>
+        <v>5294.55125043593</v>
       </c>
       <c r="P39">
-        <v>60.6743272093381</v>
+        <v>51.1418612033361</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>102.03004097914</v>
+        <v>203.30027479136</v>
       </c>
       <c r="C40">
-        <v>5.4972885196127</v>
+        <v>4.53800433079509</v>
       </c>
       <c r="D40">
-        <v>14.4074291338757</v>
+        <v>12.5731386419946</v>
       </c>
       <c r="E40">
-        <v>5.0579121842773</v>
+        <v>4.25714841221225</v>
       </c>
       <c r="F40">
-        <v>0.882148806276394</v>
+        <v>0.76593858266681</v>
       </c>
       <c r="G40">
-        <v>8.79264638026668</v>
+        <v>7.64110830523368</v>
       </c>
       <c r="H40">
-        <v>11.3793872113914</v>
+        <v>9.74028872727042</v>
       </c>
       <c r="I40">
-        <v>2.95836858357812</v>
+        <v>2.54906131175984</v>
       </c>
       <c r="J40">
-        <v>17.2226446535098</v>
+        <v>14.7314644176046</v>
       </c>
       <c r="K40">
-        <v>10.8190450584423</v>
+        <v>9.61118474566749</v>
       </c>
       <c r="L40">
-        <v>17.7134828749314</v>
+        <v>15.3743315081206</v>
       </c>
       <c r="M40">
-        <v>9.566943899471079</v>
+        <v>8.10745199970513</v>
       </c>
       <c r="N40">
-        <v>37.6647906800853</v>
+        <v>32.6579114374322</v>
       </c>
       <c r="O40">
-        <v>626.110862758722</v>
+        <v>544.492011924757</v>
       </c>
       <c r="P40">
-        <v>1.6023585406752</v>
+        <v>1.39057006998842</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>353.027487326418</v>
+        <v>783.843297094798</v>
       </c>
       <c r="C41">
-        <v>13.3038230405999</v>
+        <v>10.7159467302337</v>
       </c>
       <c r="D41">
-        <v>116.204989543416</v>
+        <v>96.3555322223669</v>
       </c>
       <c r="E41">
-        <v>52.727981058479</v>
+        <v>43.1168186222667</v>
       </c>
       <c r="F41">
-        <v>3.22605869644455</v>
+        <v>2.63595568868557</v>
       </c>
       <c r="G41">
-        <v>59.8738879434481</v>
+        <v>47.2194604384519</v>
       </c>
       <c r="H41">
-        <v>51.7358949839051</v>
+        <v>42.8650849705788</v>
       </c>
       <c r="I41">
-        <v>10.1394978061474</v>
+        <v>8.148756783949271</v>
       </c>
       <c r="J41">
-        <v>76.7675606666528</v>
+        <v>63.9689338386748</v>
       </c>
       <c r="K41">
-        <v>59.8500626418053</v>
+        <v>50.2182073799803</v>
       </c>
       <c r="L41">
-        <v>35.5165067469767</v>
+        <v>29.3650490988433</v>
       </c>
       <c r="M41">
-        <v>49.7546704212121</v>
+        <v>41.2054109631133</v>
       </c>
       <c r="N41">
-        <v>33.6649854661115</v>
+        <v>26.9236997148578</v>
       </c>
       <c r="O41">
-        <v>1879.86662839902</v>
+        <v>1552.76798809501</v>
       </c>
       <c r="P41">
-        <v>24.6186519684863</v>
+        <v>20.8945828820429</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>52.25866042713</v>
+        <v>111.569864280119</v>
       </c>
       <c r="C42">
-        <v>10.7543466485101</v>
+        <v>9.697904283565309</v>
       </c>
       <c r="D42">
-        <v>1.42041553649493</v>
+        <v>1.27388144777245</v>
       </c>
       <c r="E42">
-        <v>9.39573818948656</v>
+        <v>8.700917557726539</v>
       </c>
       <c r="F42">
-        <v>3.23304016682796</v>
+        <v>2.93305269739725</v>
       </c>
       <c r="G42">
-        <v>1.32418553995532</v>
+        <v>1.08713014194874</v>
       </c>
       <c r="H42">
-        <v>2.49499199702731</v>
+        <v>2.25815172557951</v>
       </c>
       <c r="I42">
-        <v>1.60172820955463</v>
+        <v>1.47876730816125</v>
       </c>
       <c r="J42">
-        <v>6.3683005098623</v>
+        <v>5.61955094835448</v>
       </c>
       <c r="K42">
-        <v>10.1515160424072</v>
+        <v>8.7521591319802</v>
       </c>
       <c r="L42">
-        <v>11.0392457639189</v>
+        <v>9.763664208959691</v>
       </c>
       <c r="M42">
-        <v>4.87773306635454</v>
+        <v>4.49989120123853</v>
       </c>
       <c r="N42">
-        <v>10.0864064707074</v>
+        <v>8.827841754622231</v>
       </c>
       <c r="O42">
-        <v>507.907818106782</v>
+        <v>460.711479328239</v>
       </c>
       <c r="P42">
-        <v>57.5278259055952</v>
+        <v>52.8123645300501</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>621.048886060532</v>
+        <v>1198.91579464899</v>
       </c>
       <c r="C43">
-        <v>52.2352731105799</v>
+        <v>42.1711887295894</v>
       </c>
       <c r="D43">
-        <v>51.1243793326121</v>
+        <v>41.5175953915865</v>
       </c>
       <c r="E43">
-        <v>48.9181203206655</v>
+        <v>40.5107749952838</v>
       </c>
       <c r="F43">
-        <v>11.3701941947299</v>
+        <v>9.48697655918728</v>
       </c>
       <c r="G43">
-        <v>36.7336328297533</v>
+        <v>29.9469531163818</v>
       </c>
       <c r="H43">
-        <v>28.5145883292918</v>
+        <v>23.8581229848661</v>
       </c>
       <c r="I43">
-        <v>33.7828198015071</v>
+        <v>28.2632852921075</v>
       </c>
       <c r="J43">
-        <v>60.0938082751495</v>
+        <v>49.8159975789461</v>
       </c>
       <c r="K43">
-        <v>82.6610052465565</v>
+        <v>69.1325096759509</v>
       </c>
       <c r="L43">
-        <v>62.1559346877299</v>
+        <v>51.4034205466557</v>
       </c>
       <c r="M43">
-        <v>100.948606525801</v>
+        <v>82.93050232027279</v>
       </c>
       <c r="N43">
-        <v>77.89968795614909</v>
+        <v>65.9265802967503</v>
       </c>
       <c r="O43">
-        <v>2722.81552412717</v>
+        <v>2272.95760661594</v>
       </c>
       <c r="P43">
-        <v>60.131644216776</v>
+        <v>44.4669636519831</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2301.85800559835</v>
+        <v>3611.89945181363</v>
       </c>
       <c r="C44">
-        <v>185.397143559219</v>
+        <v>165.654653201185</v>
       </c>
       <c r="D44">
-        <v>67.87417554685641</v>
+        <v>58.9374006729502</v>
       </c>
       <c r="E44">
-        <v>83.7570300626714</v>
+        <v>74.3031558922733</v>
       </c>
       <c r="F44">
-        <v>293.176464927078</v>
+        <v>259.118958568909</v>
       </c>
       <c r="G44">
-        <v>167.403749141269</v>
+        <v>147.48396678164</v>
       </c>
       <c r="H44">
-        <v>54.6458809814507</v>
+        <v>47.2428184162633</v>
       </c>
       <c r="I44">
-        <v>64.5913891800124</v>
+        <v>56.4413229535838</v>
       </c>
       <c r="J44">
-        <v>146.153638570245</v>
+        <v>129.911491646846</v>
       </c>
       <c r="K44">
-        <v>135.867623420878</v>
+        <v>121.967635839577</v>
       </c>
       <c r="L44">
-        <v>259.391604096849</v>
+        <v>230.528897290345</v>
       </c>
       <c r="M44">
-        <v>125.632068476032</v>
+        <v>110.342612624758</v>
       </c>
       <c r="N44">
-        <v>95.5730092147687</v>
+        <v>87.7307429183596</v>
       </c>
       <c r="O44">
-        <v>9532.752928268421</v>
+        <v>8443.306223832769</v>
       </c>
       <c r="P44">
-        <v>274.160780030651</v>
+        <v>243.200602690928</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>252.672926565693</v>
+        <v>367.92779209847</v>
       </c>
       <c r="C45">
-        <v>20.0653985108823</v>
+        <v>18.0666752333338</v>
       </c>
       <c r="D45">
-        <v>5.2274428431634</v>
+        <v>4.7357103135495</v>
       </c>
       <c r="E45">
-        <v>8.14245974455347</v>
+        <v>8.16265468058055</v>
       </c>
       <c r="F45">
-        <v>28.962746051186</v>
+        <v>25.6830861428605</v>
       </c>
       <c r="G45">
-        <v>14.1523512804016</v>
+        <v>12.8189942205934</v>
       </c>
       <c r="H45">
-        <v>5.5156599302709</v>
+        <v>5.01133324293454</v>
       </c>
       <c r="I45">
-        <v>5.72921556066581</v>
+        <v>5.18131926778674</v>
       </c>
       <c r="J45">
-        <v>17.6245202769208</v>
+        <v>15.9830914166284</v>
       </c>
       <c r="K45">
-        <v>10.8903773939136</v>
+        <v>9.87867341224538</v>
       </c>
       <c r="L45">
-        <v>21.2761099058479</v>
+        <v>19.6404402470702</v>
       </c>
       <c r="M45">
-        <v>26.1288614952969</v>
+        <v>22.9915620598062</v>
       </c>
       <c r="N45">
-        <v>27.4588991658507</v>
+        <v>24.7428410524797</v>
       </c>
       <c r="O45">
-        <v>1031.75595724565</v>
+        <v>935.809908656036</v>
       </c>
       <c r="P45">
-        <v>14.9337687398898</v>
+        <v>13.7456911532907</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>48.9873197700624</v>
+        <v>104.36138164961</v>
       </c>
       <c r="C46">
-        <v>7.04874137271537</v>
+        <v>6.32705686402732</v>
       </c>
       <c r="D46">
-        <v>2.22634854611295</v>
+        <v>2.17740873803287</v>
       </c>
       <c r="E46">
-        <v>7.54037098266926</v>
+        <v>6.70429870936647</v>
       </c>
       <c r="F46">
-        <v>2.02880978466675</v>
+        <v>1.83182773504178</v>
       </c>
       <c r="G46">
-        <v>3.17136565313367</v>
+        <v>2.83651104940594</v>
       </c>
       <c r="H46">
-        <v>4.35537905718412</v>
+        <v>3.8748997272964</v>
       </c>
       <c r="I46">
-        <v>2.44632098607557</v>
+        <v>2.03034929234921</v>
       </c>
       <c r="J46">
-        <v>6.32316288734732</v>
+        <v>5.85138437825777</v>
       </c>
       <c r="K46">
-        <v>6.583781313482</v>
+        <v>5.72541184809978</v>
       </c>
       <c r="L46">
-        <v>20.3543190961721</v>
+        <v>17.7129921672184</v>
       </c>
       <c r="M46">
-        <v>6.73776661062031</v>
+        <v>5.79164344735527</v>
       </c>
       <c r="N46">
-        <v>10.5215606670554</v>
+        <v>9.385357541109091</v>
       </c>
       <c r="O46">
-        <v>420.630874181963</v>
+        <v>375.211515982852</v>
       </c>
       <c r="P46">
-        <v>13.1195199764873</v>
+        <v>11.9288739845861</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>635.615137147489</v>
+        <v>1189.80627153772</v>
       </c>
       <c r="C47">
-        <v>67.14102070064931</v>
+        <v>56.8727065852964</v>
       </c>
       <c r="D47">
-        <v>40.2283701642023</v>
+        <v>34.8565840673568</v>
       </c>
       <c r="E47">
-        <v>42.3349038770232</v>
+        <v>36.8244236209764</v>
       </c>
       <c r="F47">
-        <v>9.13283320980611</v>
+        <v>7.21002523298346</v>
       </c>
       <c r="G47">
-        <v>35.0461694340839</v>
+        <v>27.7426065354256</v>
       </c>
       <c r="H47">
-        <v>24.4128041931156</v>
+        <v>21.7056737070901</v>
       </c>
       <c r="I47">
-        <v>15.912578779737</v>
+        <v>13.7996949827808</v>
       </c>
       <c r="J47">
-        <v>59.3875192449425</v>
+        <v>48.9473709703088</v>
       </c>
       <c r="K47">
-        <v>26.786707210693</v>
+        <v>21.7897781157654</v>
       </c>
       <c r="L47">
-        <v>63.580418934006</v>
+        <v>54.4792323470672</v>
       </c>
       <c r="M47">
-        <v>85.2519468010741</v>
+        <v>75.8084331385421</v>
       </c>
       <c r="N47">
-        <v>42.2128068121016</v>
+        <v>36.6259973167848</v>
       </c>
       <c r="O47">
-        <v>3681.36587144725</v>
+        <v>3207.68737316713</v>
       </c>
       <c r="P47">
-        <v>42.4833470321173</v>
+        <v>36.5203928951509</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>658.033632878651</v>
+        <v>1097.72532727262</v>
       </c>
       <c r="C48">
-        <v>22.6266727100465</v>
+        <v>20.9700708233559</v>
       </c>
       <c r="D48">
-        <v>10.3501031418651</v>
+        <v>7.8273323995479</v>
       </c>
       <c r="E48">
-        <v>79.46732960989181</v>
+        <v>71.60531714689709</v>
       </c>
       <c r="F48">
-        <v>15.6309488228602</v>
+        <v>13.7524607001717</v>
       </c>
       <c r="G48">
-        <v>8.158127754594529</v>
+        <v>7.16096971663635</v>
       </c>
       <c r="H48">
-        <v>4.80469981930889</v>
+        <v>4.21153760911515</v>
       </c>
       <c r="I48">
-        <v>14.4042603084989</v>
+        <v>13.1315132655377</v>
       </c>
       <c r="J48">
-        <v>32.3637187305366</v>
+        <v>28.4653342630922</v>
       </c>
       <c r="K48">
-        <v>27.9968002399021</v>
+        <v>25.9567019525668</v>
       </c>
       <c r="L48">
-        <v>46.415556744025</v>
+        <v>40.3526489110392</v>
       </c>
       <c r="M48">
-        <v>175.436759173494</v>
+        <v>156.718390549442</v>
       </c>
       <c r="N48">
-        <v>29.8432942021436</v>
+        <v>26.2508710836697</v>
       </c>
       <c r="O48">
-        <v>2880.82691526416</v>
+        <v>2509.45996226901</v>
       </c>
       <c r="P48">
-        <v>95.7278641388732</v>
+        <v>79.0258441758283</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>312.412297582245</v>
+        <v>560.848819090405</v>
       </c>
       <c r="C49">
-        <v>7.79289757246603</v>
+        <v>6.14544246769444</v>
       </c>
       <c r="D49">
-        <v>6.08650299812648</v>
+        <v>4.43118789748698</v>
       </c>
       <c r="E49">
-        <v>21.6136316383568</v>
+        <v>16.7664868213756</v>
       </c>
       <c r="F49">
-        <v>53.1470108139831</v>
+        <v>41.8267092946926</v>
       </c>
       <c r="G49">
-        <v>27.8640872949695</v>
+        <v>21.6896089402598</v>
       </c>
       <c r="H49">
-        <v>10.6405344420269</v>
+        <v>8.783553791548521</v>
       </c>
       <c r="I49">
-        <v>11.5545018365949</v>
+        <v>9.58847223926678</v>
       </c>
       <c r="J49">
-        <v>34.0505081110049</v>
+        <v>27.1012498537602</v>
       </c>
       <c r="K49">
-        <v>13.1282989768055</v>
+        <v>9.907104555065009</v>
       </c>
       <c r="L49">
-        <v>3.7714969825388</v>
+        <v>2.96833446604929</v>
       </c>
       <c r="M49">
-        <v>8.01880277074209</v>
+        <v>7.31318147453739</v>
       </c>
       <c r="N49">
-        <v>4.79300296662921</v>
+        <v>3.95157199573392</v>
       </c>
       <c r="O49">
-        <v>951.425423397027</v>
+        <v>748.404928724904</v>
       </c>
       <c r="P49">
-        <v>13.5447106208652</v>
+        <v>11.1372450966466</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>377.057413938636</v>
+        <v>758.17573355214</v>
       </c>
       <c r="C50">
-        <v>96.3815455234959</v>
+        <v>85.9387579929345</v>
       </c>
       <c r="D50">
-        <v>15.1172593527636</v>
+        <v>13.4403146239178</v>
       </c>
       <c r="E50">
-        <v>126.649227255854</v>
+        <v>112.572043487752</v>
       </c>
       <c r="F50">
-        <v>4.68496973111698</v>
+        <v>4.23469644850579</v>
       </c>
       <c r="G50">
-        <v>43.6022621463117</v>
+        <v>37.2966140090025</v>
       </c>
       <c r="H50">
-        <v>45.3814145697203</v>
+        <v>41.7450802961736</v>
       </c>
       <c r="I50">
-        <v>17.5198000386465</v>
+        <v>14.8114328360728</v>
       </c>
       <c r="J50">
-        <v>121.542549355531</v>
+        <v>106.426944096933</v>
       </c>
       <c r="K50">
-        <v>118.635622991497</v>
+        <v>101.846941398499</v>
       </c>
       <c r="L50">
-        <v>95.1510935074958</v>
+        <v>84.8201938762805</v>
       </c>
       <c r="M50">
-        <v>33.1035633296926</v>
+        <v>28.4015446236995</v>
       </c>
       <c r="N50">
-        <v>89.4097706376778</v>
+        <v>78.8239228578051</v>
       </c>
       <c r="O50">
-        <v>2555.19506612053</v>
+        <v>2277.5458417852</v>
       </c>
       <c r="P50">
-        <v>79.20086343967181</v>
+        <v>71.563501679629</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>63.9070330567576</v>
+        <v>120.104210594156</v>
       </c>
       <c r="C51">
-        <v>2.76369657599229</v>
+        <v>2.64487922030103</v>
       </c>
       <c r="D51">
-        <v>0.0396286665112089</v>
+        <v>0.119860883859251</v>
       </c>
       <c r="E51">
-        <v>2.25159352850185</v>
+        <v>2.15355498187381</v>
       </c>
       <c r="F51">
-        <v>48.8601637031306</v>
+        <v>43.1073082632312</v>
       </c>
       <c r="G51">
-        <v>2.84463409343275</v>
+        <v>2.50651920626151</v>
       </c>
       <c r="H51">
-        <v>0.312037296518483</v>
+        <v>0.276753400214781</v>
       </c>
       <c r="I51">
-        <v>2.13109185746738</v>
+        <v>2.02501950371836</v>
       </c>
       <c r="J51">
-        <v>3.22013156801284</v>
+        <v>2.85455293680183</v>
       </c>
       <c r="K51">
-        <v>1.43850303594503</v>
+        <v>1.28153781217976</v>
       </c>
       <c r="L51">
-        <v>0.364079993024284</v>
+        <v>0.321616947656181</v>
       </c>
       <c r="M51">
-        <v>0.685918934003268</v>
+        <v>0.923508122065567</v>
       </c>
       <c r="N51">
-        <v>2.41525463427396</v>
+        <v>2.17055433748867</v>
       </c>
       <c r="O51">
-        <v>398.000755658276</v>
+        <v>351.187201217278</v>
       </c>
       <c r="P51">
-        <v>25.8976544508067</v>
+        <v>23.0230216973133</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>928.432631411455</v>
+        <v>1267.66735185937</v>
       </c>
       <c r="C2">
-        <v>37.9013961103524</v>
+        <v>24.8367940949886</v>
       </c>
       <c r="D2">
-        <v>65.393933289605</v>
+        <v>39.078052238157</v>
       </c>
       <c r="E2">
-        <v>75.3934555091285</v>
+        <v>62.7808175847733</v>
       </c>
       <c r="F2">
-        <v>19.0107613193071</v>
+        <v>20.7998800731135</v>
       </c>
       <c r="G2">
-        <v>19.0439313655443</v>
+        <v>13.6042760577201</v>
       </c>
       <c r="H2">
-        <v>32.8221087386634</v>
+        <v>25.3620447128668</v>
       </c>
       <c r="I2">
-        <v>19.7519186378632</v>
+        <v>16.5378626406755</v>
       </c>
       <c r="J2">
-        <v>70.39415761890911</v>
+        <v>75.1450379490001</v>
       </c>
       <c r="K2">
-        <v>20.0105849406706</v>
+        <v>18.3456765919741</v>
       </c>
       <c r="L2">
-        <v>33.3481153690344</v>
+        <v>49.2262405346537</v>
       </c>
       <c r="M2">
-        <v>50.2485161183049</v>
+        <v>42.8028214709228</v>
       </c>
       <c r="N2">
-        <v>26.4607740677354</v>
+        <v>24.6214454168768</v>
       </c>
       <c r="O2">
-        <v>1705.08350147508</v>
+        <v>1440.7257196381</v>
       </c>
       <c r="P2">
-        <v>31.8487340070528</v>
+        <v>20.7468485549711</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>155.859727387573</v>
+        <v>169.699427012484</v>
       </c>
       <c r="C3">
-        <v>5.26555655690217</v>
+        <v>5.16152325430799</v>
       </c>
       <c r="D3">
-        <v>0.316285261730857</v>
+        <v>0.621077677827479</v>
       </c>
       <c r="E3">
-        <v>1.09996803223371</v>
+        <v>1.479346190453</v>
       </c>
       <c r="F3">
-        <v>15.937816300407</v>
+        <v>11.0631429460805</v>
       </c>
       <c r="G3">
-        <v>0.284946683852719</v>
+        <v>0.590680694050769</v>
       </c>
       <c r="H3">
-        <v>0.308656952183735</v>
+        <v>0.159898466673211</v>
       </c>
       <c r="I3">
-        <v>0.365227282583542</v>
+        <v>1.20154977167843</v>
       </c>
       <c r="J3">
-        <v>0.928192376878984</v>
+        <v>0.597680306419905</v>
       </c>
       <c r="K3">
-        <v>0.27118143230436</v>
+        <v>0.0860960024533473</v>
       </c>
       <c r="L3">
-        <v>0.273603091497391</v>
+        <v>0.0228791045651631</v>
       </c>
       <c r="M3">
-        <v>1.71089570104137</v>
+        <v>0.92597574985917</v>
       </c>
       <c r="N3">
-        <v>1.33024251048477</v>
+        <v>0.79109433846917</v>
       </c>
       <c r="O3">
-        <v>402.659999494774</v>
+        <v>391.468220773197</v>
       </c>
       <c r="P3">
-        <v>12.3888613271046</v>
+        <v>16.1887776168465</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>958.172665879435</v>
+        <v>1200.87446771598</v>
       </c>
       <c r="C4">
-        <v>12.2594521429905</v>
+        <v>6.32450566582299</v>
       </c>
       <c r="D4">
-        <v>5.27385054917015</v>
+        <v>2.64484110027921</v>
       </c>
       <c r="E4">
-        <v>14.4620578670468</v>
+        <v>24.6455841499844</v>
       </c>
       <c r="F4">
-        <v>6.49378758596458</v>
+        <v>5.65764441309097</v>
       </c>
       <c r="G4">
-        <v>12.2965373003741</v>
+        <v>5.66568208285771</v>
       </c>
       <c r="H4">
-        <v>9.04148502639015</v>
+        <v>14.1109510618423</v>
       </c>
       <c r="I4">
-        <v>10.5973003068474</v>
+        <v>12.0253941873098</v>
       </c>
       <c r="J4">
-        <v>25.1985589248203</v>
+        <v>19.1464106540317</v>
       </c>
       <c r="K4">
-        <v>10.9663255106438</v>
+        <v>3.95059849451138</v>
       </c>
       <c r="L4">
-        <v>90.14568130012989</v>
+        <v>66.7421606032518</v>
       </c>
       <c r="M4">
-        <v>65.9723403423792</v>
+        <v>43.7935804671277</v>
       </c>
       <c r="N4">
-        <v>37.1009561899186</v>
+        <v>30.3448636361134</v>
       </c>
       <c r="O4">
-        <v>2284.15608029776</v>
+        <v>2138.00639829221</v>
       </c>
       <c r="P4">
-        <v>35.7058910165092</v>
+        <v>17.4134038807998</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>593.207121126896</v>
+        <v>666.204429724448</v>
       </c>
       <c r="C5">
-        <v>66.40854883642921</v>
+        <v>47.7594542266724</v>
       </c>
       <c r="D5">
-        <v>17.1695119385238</v>
+        <v>10.7543793124366</v>
       </c>
       <c r="E5">
-        <v>36.2904874601596</v>
+        <v>32.9688648046523</v>
       </c>
       <c r="F5">
-        <v>1.22277061774568</v>
+        <v>5.71672259389562</v>
       </c>
       <c r="G5">
-        <v>10.4395589607397</v>
+        <v>4.49979438103347</v>
       </c>
       <c r="H5">
-        <v>12.1076670711981</v>
+        <v>11.1749642571488</v>
       </c>
       <c r="I5">
-        <v>9.535996946364451</v>
+        <v>8.111558794110399</v>
       </c>
       <c r="J5">
-        <v>32.9495501061804</v>
+        <v>30.8256902160125</v>
       </c>
       <c r="K5">
-        <v>26.8204996060444</v>
+        <v>10.9640863840972</v>
       </c>
       <c r="L5">
-        <v>23.1081825092318</v>
+        <v>22.3755419918615</v>
       </c>
       <c r="M5">
-        <v>15.1534370990286</v>
+        <v>20.414398415984</v>
       </c>
       <c r="N5">
-        <v>17.4809638525324</v>
+        <v>20.1168335184274</v>
       </c>
       <c r="O5">
-        <v>994.053246579915</v>
+        <v>949.469792856705</v>
       </c>
       <c r="P5">
-        <v>42.3901460489907</v>
+        <v>61.3617429656342</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6148.43103312036</v>
+        <v>7320.43764147877</v>
       </c>
       <c r="C6">
-        <v>166.096042147923</v>
+        <v>193.265743742489</v>
       </c>
       <c r="D6">
-        <v>256.111067152112</v>
+        <v>122.375519392445</v>
       </c>
       <c r="E6">
-        <v>122.850863145024</v>
+        <v>174.828774640063</v>
       </c>
       <c r="F6">
-        <v>32.3089188859582</v>
+        <v>37.6005731838931</v>
       </c>
       <c r="G6">
-        <v>139.617274874656</v>
+        <v>123.852940305744</v>
       </c>
       <c r="H6">
-        <v>87.00794948955421</v>
+        <v>71.4195797387743</v>
       </c>
       <c r="I6">
-        <v>60.9767795918086</v>
+        <v>44.1781972887145</v>
       </c>
       <c r="J6">
-        <v>196.689846781534</v>
+        <v>196.661074014674</v>
       </c>
       <c r="K6">
-        <v>147.477459234871</v>
+        <v>80.75987498433599</v>
       </c>
       <c r="L6">
-        <v>543.196463811256</v>
+        <v>484.27283821824</v>
       </c>
       <c r="M6">
-        <v>359.181876301685</v>
+        <v>304.066978845137</v>
       </c>
       <c r="N6">
-        <v>324.9803619362</v>
+        <v>282.522222303994</v>
       </c>
       <c r="O6">
-        <v>13858.0946338251</v>
+        <v>12990.6630878583</v>
       </c>
       <c r="P6">
-        <v>242.734570626385</v>
+        <v>275.086340817709</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>631.489964090178</v>
+        <v>742.18604740627</v>
       </c>
       <c r="C7">
-        <v>36.569602797894</v>
+        <v>37.5472231849433</v>
       </c>
       <c r="D7">
-        <v>3.22878944789238</v>
+        <v>3.0580603636927</v>
       </c>
       <c r="E7">
-        <v>14.9940599297762</v>
+        <v>17.3464530068839</v>
       </c>
       <c r="F7">
-        <v>13.0665851115056</v>
+        <v>10.130159505532</v>
       </c>
       <c r="G7">
-        <v>10.8720945893061</v>
+        <v>6.72379020336897</v>
       </c>
       <c r="H7">
-        <v>11.4947382123293</v>
+        <v>4.62846184587585</v>
       </c>
       <c r="I7">
-        <v>7.93465813490568</v>
+        <v>9.91895153273323</v>
       </c>
       <c r="J7">
-        <v>21.9843238708327</v>
+        <v>13.6873099567532</v>
       </c>
       <c r="K7">
-        <v>19.1494833632708</v>
+        <v>7.98375069666868</v>
       </c>
       <c r="L7">
-        <v>54.1711648765997</v>
+        <v>54.2019546280388</v>
       </c>
       <c r="M7">
-        <v>22.8136300172989</v>
+        <v>17.0190247833108</v>
       </c>
       <c r="N7">
-        <v>28.9580957168427</v>
+        <v>30.7887073526484</v>
       </c>
       <c r="O7">
-        <v>2005.53384001196</v>
+        <v>1925.00586990322</v>
       </c>
       <c r="P7">
-        <v>22.4592299896737</v>
+        <v>19.489416716845</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>491.029152883497</v>
+        <v>612.524330289338</v>
       </c>
       <c r="C8">
-        <v>13.0561452982366</v>
+        <v>14.9614257350119</v>
       </c>
       <c r="D8">
-        <v>9.700378874973231</v>
+        <v>5.21379355590439</v>
       </c>
       <c r="E8">
-        <v>13.6502562599885</v>
+        <v>21.4453432085439</v>
       </c>
       <c r="F8">
-        <v>1.29252782039619</v>
+        <v>1.14070227254632</v>
       </c>
       <c r="G8">
-        <v>37.7913218013094</v>
+        <v>29.4100159967161</v>
       </c>
       <c r="H8">
-        <v>15.461016515455</v>
+        <v>11.7709592831548</v>
       </c>
       <c r="I8">
-        <v>1.29837620466805</v>
+        <v>8.65667524591294</v>
       </c>
       <c r="J8">
-        <v>53.7243231560995</v>
+        <v>38.347622092818</v>
       </c>
       <c r="K8">
-        <v>38.096840129708</v>
+        <v>17.8174691140731</v>
       </c>
       <c r="L8">
-        <v>53.3819488341318</v>
+        <v>51.7703608508104</v>
       </c>
       <c r="M8">
-        <v>72.2956628445442</v>
+        <v>52.3472794806756</v>
       </c>
       <c r="N8">
-        <v>28.1419499673275</v>
+        <v>25.8246743820126</v>
       </c>
       <c r="O8">
-        <v>1524.97682877807</v>
+        <v>1453.64781661694</v>
       </c>
       <c r="P8">
-        <v>5.33108790373987</v>
+        <v>4.43748455616623</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>169.248828986116</v>
+        <v>218.278408650999</v>
       </c>
       <c r="C9">
-        <v>10.0356791316006</v>
+        <v>9.681513063899789</v>
       </c>
       <c r="D9">
-        <v>2.93368212492907</v>
+        <v>3.18833760806924</v>
       </c>
       <c r="E9">
-        <v>5.67538308356604</v>
+        <v>4.69902948101002</v>
       </c>
       <c r="F9">
-        <v>2.85850163966797</v>
+        <v>1.50994173005902</v>
       </c>
       <c r="G9">
-        <v>30.8551947864395</v>
+        <v>28.3352322488301</v>
       </c>
       <c r="H9">
-        <v>3.66956197076857</v>
+        <v>5.15758694601889</v>
       </c>
       <c r="I9">
-        <v>1.43108739081106</v>
+        <v>1.24626780653602</v>
       </c>
       <c r="J9">
-        <v>4.00328736236668</v>
+        <v>6.73034881623016</v>
       </c>
       <c r="K9">
-        <v>4.9355195313155</v>
+        <v>2.45937635207478</v>
       </c>
       <c r="L9">
-        <v>5.13475844622541</v>
+        <v>4.01262418841403</v>
       </c>
       <c r="M9">
-        <v>10.4889052500624</v>
+        <v>10.0829765543291</v>
       </c>
       <c r="N9">
-        <v>7.28163392128581</v>
+        <v>6.27668385143749</v>
       </c>
       <c r="O9">
-        <v>469.845213116724</v>
+        <v>428.201650754331</v>
       </c>
       <c r="P9">
-        <v>9.03449472871691</v>
+        <v>6.54058013130466</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3140.93695264623</v>
+        <v>3899.49863886538</v>
       </c>
       <c r="C10">
-        <v>52.5432708863829</v>
+        <v>69.1025617649955</v>
       </c>
       <c r="D10">
-        <v>31.4776099456471</v>
+        <v>21.6074495125669</v>
       </c>
       <c r="E10">
-        <v>45.8311274867301</v>
+        <v>51.0363582604326</v>
       </c>
       <c r="F10">
-        <v>10.3464612111916</v>
+        <v>12.3625670491096</v>
       </c>
       <c r="G10">
-        <v>30.6426595311804</v>
+        <v>42.1973552920789</v>
       </c>
       <c r="H10">
-        <v>19.4194474554179</v>
+        <v>16.4295265741201</v>
       </c>
       <c r="I10">
-        <v>37.571137469665</v>
+        <v>43.6952664782604</v>
       </c>
       <c r="J10">
-        <v>57.1823408631964</v>
+        <v>60.0869174718045</v>
       </c>
       <c r="K10">
-        <v>47.1401096844927</v>
+        <v>23.6550663073547</v>
       </c>
       <c r="L10">
-        <v>126.180802804464</v>
+        <v>83.94263424439841</v>
       </c>
       <c r="M10">
-        <v>111.077500365372</v>
+        <v>74.15163902785071</v>
       </c>
       <c r="N10">
-        <v>92.0908837806377</v>
+        <v>83.68862753055269</v>
       </c>
       <c r="O10">
-        <v>7990.10270747026</v>
+        <v>7318.37280671378</v>
       </c>
       <c r="P10">
-        <v>79.61431904086911</v>
+        <v>90.15434021835181</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1491.53572844161</v>
+        <v>1796.54834615088</v>
       </c>
       <c r="C11">
-        <v>66.26420673313871</v>
+        <v>64.6138935296776</v>
       </c>
       <c r="D11">
-        <v>157.539535010386</v>
+        <v>179.981842266719</v>
       </c>
       <c r="E11">
-        <v>103.057985676445</v>
+        <v>64.7293659027938</v>
       </c>
       <c r="F11">
-        <v>5.0859130443102</v>
+        <v>0.8314207973621091</v>
       </c>
       <c r="G11">
-        <v>33.9757585008663</v>
+        <v>27.8169691892267</v>
       </c>
       <c r="H11">
-        <v>15.0227574049742</v>
+        <v>16.1653706508615</v>
       </c>
       <c r="I11">
-        <v>21.2465302850462</v>
+        <v>15.0535257614117</v>
       </c>
       <c r="J11">
-        <v>53.9133058764072</v>
+        <v>44.1444559616028</v>
       </c>
       <c r="K11">
-        <v>40.0215263995473</v>
+        <v>17.2221895299924</v>
       </c>
       <c r="L11">
-        <v>65.92366935934371</v>
+        <v>57.4416162775559</v>
       </c>
       <c r="M11">
-        <v>53.9802262624269</v>
+        <v>35.5526553380004</v>
       </c>
       <c r="N11">
-        <v>43.2167806603779</v>
+        <v>52.2847311236844</v>
       </c>
       <c r="O11">
-        <v>3478.28282923535</v>
+        <v>3225.53109987589</v>
       </c>
       <c r="P11">
-        <v>22.5596072256277</v>
+        <v>55.6262018191252</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>241.20367611626</v>
+        <v>298.702154124314</v>
       </c>
       <c r="C12">
-        <v>9.919362321703011</v>
+        <v>8.53855238779958</v>
       </c>
       <c r="D12">
-        <v>5.18460624262896</v>
+        <v>0.721240365703941</v>
       </c>
       <c r="E12">
-        <v>0.668587126686386</v>
+        <v>3.45641386855163</v>
       </c>
       <c r="F12">
-        <v>0.871333128677924</v>
+        <v>0.995440005477458</v>
       </c>
       <c r="G12">
-        <v>0.452695315565448</v>
+        <v>0.664924225454212</v>
       </c>
       <c r="H12">
-        <v>0.392725727161311</v>
+        <v>0.345128173344737</v>
       </c>
       <c r="I12">
-        <v>2.19536745347486</v>
+        <v>1.24105668506689</v>
       </c>
       <c r="J12">
-        <v>1.53736721941182</v>
+        <v>3.48102177177441</v>
       </c>
       <c r="K12">
-        <v>0.47987175878733</v>
+        <v>0.0438238958960174</v>
       </c>
       <c r="L12">
-        <v>0.514713494861696</v>
+        <v>0.628289998792762</v>
       </c>
       <c r="M12">
-        <v>4.78964121449546</v>
+        <v>4.38233963524801</v>
       </c>
       <c r="N12">
-        <v>4.77509749035465</v>
+        <v>2.45571202677497</v>
       </c>
       <c r="O12">
-        <v>733.230995153378</v>
+        <v>677.521324707434</v>
       </c>
       <c r="P12">
-        <v>21.7258543951384</v>
+        <v>24.3977646915142</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>233.894409722998</v>
+        <v>255.357705573931</v>
       </c>
       <c r="C13">
-        <v>30.7659939071025</v>
+        <v>18.5478544156023</v>
       </c>
       <c r="D13">
-        <v>1.60246638807445</v>
+        <v>0.371981782949736</v>
       </c>
       <c r="E13">
-        <v>16.0428200676441</v>
+        <v>13.6429434716966</v>
       </c>
       <c r="F13">
-        <v>3.66280369370377</v>
+        <v>3.43801345860728</v>
       </c>
       <c r="G13">
-        <v>7.24130114214243</v>
+        <v>5.0485820289424</v>
       </c>
       <c r="H13">
-        <v>2.44832822550563</v>
+        <v>2.62504108396612</v>
       </c>
       <c r="I13">
-        <v>1.06414084772152</v>
+        <v>2.31474562563354</v>
       </c>
       <c r="J13">
-        <v>6.27094352918342</v>
+        <v>5.84614763111259</v>
       </c>
       <c r="K13">
-        <v>5.12306657822852</v>
+        <v>5.05549969228519</v>
       </c>
       <c r="L13">
-        <v>29.1565032933194</v>
+        <v>18.5583760069828</v>
       </c>
       <c r="M13">
-        <v>3.51503819324783</v>
+        <v>1.54649756873532</v>
       </c>
       <c r="N13">
-        <v>7.93389603420095</v>
+        <v>5.4441227217927</v>
       </c>
       <c r="O13">
-        <v>587.458713836677</v>
+        <v>592.278004709768</v>
       </c>
       <c r="P13">
-        <v>49.9560927792077</v>
+        <v>56.465775051983</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1963.33134959858</v>
+        <v>2434.7822943028</v>
       </c>
       <c r="C14">
-        <v>109.468969588088</v>
+        <v>119.819423673754</v>
       </c>
       <c r="D14">
-        <v>14.9898113622228</v>
+        <v>13.9144923223592</v>
       </c>
       <c r="E14">
-        <v>60.7700368204191</v>
+        <v>79.6150170982653</v>
       </c>
       <c r="F14">
-        <v>16.5659467733736</v>
+        <v>15.5679217567849</v>
       </c>
       <c r="G14">
-        <v>105.573889380144</v>
+        <v>92.3254234716952</v>
       </c>
       <c r="H14">
-        <v>60.4323016831905</v>
+        <v>36.3649974849143</v>
       </c>
       <c r="I14">
-        <v>29.2397808933726</v>
+        <v>23.6978948020234</v>
       </c>
       <c r="J14">
-        <v>139.203942808758</v>
+        <v>143.368684098991</v>
       </c>
       <c r="K14">
-        <v>195.889122402077</v>
+        <v>140.189694738062</v>
       </c>
       <c r="L14">
-        <v>154.57096940097</v>
+        <v>121.005159419048</v>
       </c>
       <c r="M14">
-        <v>83.126778549782</v>
+        <v>70.395854528477</v>
       </c>
       <c r="N14">
-        <v>99.46743782428091</v>
+        <v>102.14508107774</v>
       </c>
       <c r="O14">
-        <v>5401.40639768563</v>
+        <v>5018.81112289163</v>
       </c>
       <c r="P14">
-        <v>40.0176831940218</v>
+        <v>49.2433109301786</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>965.537201516226</v>
+        <v>1228.94613489915</v>
       </c>
       <c r="C15">
-        <v>41.4312084847008</v>
+        <v>37.8654821449789</v>
       </c>
       <c r="D15">
-        <v>13.85193056175</v>
+        <v>15.4998215503728</v>
       </c>
       <c r="E15">
-        <v>56.3228374430538</v>
+        <v>79.3132380485211</v>
       </c>
       <c r="F15">
-        <v>12.7854370277597</v>
+        <v>21.967070266682</v>
       </c>
       <c r="G15">
-        <v>47.1917585008853</v>
+        <v>46.9127028815898</v>
       </c>
       <c r="H15">
-        <v>46.5654782809316</v>
+        <v>49.6905815121663</v>
       </c>
       <c r="I15">
-        <v>54.4509750908773</v>
+        <v>27.9050951373405</v>
       </c>
       <c r="J15">
-        <v>199.396015907435</v>
+        <v>165.347837462221</v>
       </c>
       <c r="K15">
-        <v>83.92428391712269</v>
+        <v>34.5247060432168</v>
       </c>
       <c r="L15">
-        <v>52.4709563801634</v>
+        <v>38.2591506305989</v>
       </c>
       <c r="M15">
-        <v>150.284313476658</v>
+        <v>171.715586987599</v>
       </c>
       <c r="N15">
-        <v>102.091323978465</v>
+        <v>89.1830761969827</v>
       </c>
       <c r="O15">
-        <v>2398.62496742376</v>
+        <v>2217.20455648537</v>
       </c>
       <c r="P15">
-        <v>51.8101888026185</v>
+        <v>46.8594487465802</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>372.327774177397</v>
+        <v>483.366895650186</v>
       </c>
       <c r="C16">
-        <v>72.6223228952407</v>
+        <v>64.72125877880531</v>
       </c>
       <c r="D16">
-        <v>15.9684826696204</v>
+        <v>6.52409377295249</v>
       </c>
       <c r="E16">
-        <v>25.0189394650524</v>
+        <v>29.7882900039321</v>
       </c>
       <c r="F16">
-        <v>5.51245778418995</v>
+        <v>3.72482099919507</v>
       </c>
       <c r="G16">
-        <v>17.069757262801</v>
+        <v>22.9757100142293</v>
       </c>
       <c r="H16">
-        <v>19.0364126084388</v>
+        <v>12.2343936432738</v>
       </c>
       <c r="I16">
-        <v>9.08481288056073</v>
+        <v>9.876944515780391</v>
       </c>
       <c r="J16">
-        <v>49.0962003911589</v>
+        <v>50.6587038778214</v>
       </c>
       <c r="K16">
-        <v>58.8243385972717</v>
+        <v>44.4385907715461</v>
       </c>
       <c r="L16">
-        <v>32.3917035918972</v>
+        <v>24.3799725432595</v>
       </c>
       <c r="M16">
-        <v>16.8216796223956</v>
+        <v>26.3790767894437</v>
       </c>
       <c r="N16">
-        <v>31.7556174553378</v>
+        <v>31.1138056855728</v>
       </c>
       <c r="O16">
-        <v>1365.50668966623</v>
+        <v>1278.77969469325</v>
       </c>
       <c r="P16">
-        <v>97.72270280297811</v>
+        <v>89.9542281214833</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>391.179790815481</v>
+        <v>496.736110174938</v>
       </c>
       <c r="C17">
-        <v>23.010829598096</v>
+        <v>17.2780025985639</v>
       </c>
       <c r="D17">
-        <v>9.3385093483656</v>
+        <v>3.56955896927679</v>
       </c>
       <c r="E17">
-        <v>13.0339939353354</v>
+        <v>23.1330596277238</v>
       </c>
       <c r="F17">
-        <v>12.8989064463292</v>
+        <v>8.976386901425039</v>
       </c>
       <c r="G17">
-        <v>14.0525934892047</v>
+        <v>6.77980527130188</v>
       </c>
       <c r="H17">
-        <v>7.03328568190861</v>
+        <v>6.38494793494767</v>
       </c>
       <c r="I17">
-        <v>7.99259168058135</v>
+        <v>10.8566160894017</v>
       </c>
       <c r="J17">
-        <v>17.6315500056844</v>
+        <v>15.519962432651</v>
       </c>
       <c r="K17">
-        <v>22.9850097180761</v>
+        <v>10.4659738903571</v>
       </c>
       <c r="L17">
-        <v>14.8677505180277</v>
+        <v>9.46049067262822</v>
       </c>
       <c r="M17">
-        <v>85.3906121173731</v>
+        <v>64.45897350194549</v>
       </c>
       <c r="N17">
-        <v>13.0723981754553</v>
+        <v>15.5546116502554</v>
       </c>
       <c r="O17">
-        <v>1267.26109321419</v>
+        <v>1202.5323792694</v>
       </c>
       <c r="P17">
-        <v>50.6791572047551</v>
+        <v>53.7125545880567</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>946.385765737855</v>
+        <v>1133.3015377683</v>
       </c>
       <c r="C18">
-        <v>33.6500232367026</v>
+        <v>38.5365465180073</v>
       </c>
       <c r="D18">
-        <v>13.318662536609</v>
+        <v>4.9782957324522</v>
       </c>
       <c r="E18">
-        <v>29.3704227730668</v>
+        <v>32.8614056091951</v>
       </c>
       <c r="F18">
-        <v>37.701533569269</v>
+        <v>30.0497061873599</v>
       </c>
       <c r="G18">
-        <v>30.8184509564572</v>
+        <v>26.9119228559517</v>
       </c>
       <c r="H18">
-        <v>24.3849856300249</v>
+        <v>18.4185593216178</v>
       </c>
       <c r="I18">
-        <v>8.751603559073519</v>
+        <v>2.85966580125216</v>
       </c>
       <c r="J18">
-        <v>40.9626223313894</v>
+        <v>44.9629688742025</v>
       </c>
       <c r="K18">
-        <v>25.0055747232758</v>
+        <v>14.7496615663963</v>
       </c>
       <c r="L18">
-        <v>39.551133289101</v>
+        <v>40.885929818004</v>
       </c>
       <c r="M18">
-        <v>62.0890700712421</v>
+        <v>63.9475185863476</v>
       </c>
       <c r="N18">
-        <v>20.8263205255878</v>
+        <v>22.6251685729524</v>
       </c>
       <c r="O18">
-        <v>1709.88357923878</v>
+        <v>1541.68360553131</v>
       </c>
       <c r="P18">
-        <v>47.2303339739639</v>
+        <v>60.9307859791534</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>995.190279103473</v>
+        <v>1157.66748395436</v>
       </c>
       <c r="C19">
-        <v>25.7542056420906</v>
+        <v>31.0434538144154</v>
       </c>
       <c r="D19">
-        <v>10.8754568683409</v>
+        <v>10.3512270047406</v>
       </c>
       <c r="E19">
-        <v>21.3211528287219</v>
+        <v>43.8659344950624</v>
       </c>
       <c r="F19">
-        <v>76.82010663110989</v>
+        <v>98.1031890733978</v>
       </c>
       <c r="G19">
-        <v>39.4233797894889</v>
+        <v>42.7468418602064</v>
       </c>
       <c r="H19">
-        <v>7.20673528454091</v>
+        <v>7.27780277751854</v>
       </c>
       <c r="I19">
-        <v>11.0902481700597</v>
+        <v>1.44813884143707</v>
       </c>
       <c r="J19">
-        <v>13.1239917058014</v>
+        <v>16.9384787079721</v>
       </c>
       <c r="K19">
-        <v>17.9878547174953</v>
+        <v>11.2602159319125</v>
       </c>
       <c r="L19">
-        <v>4.40582224919546</v>
+        <v>3.67419398156533</v>
       </c>
       <c r="M19">
-        <v>31.9387756800034</v>
+        <v>31.6745630619331</v>
       </c>
       <c r="N19">
-        <v>3.99682466635391</v>
+        <v>12.7419441623396</v>
       </c>
       <c r="O19">
-        <v>1844.51831293216</v>
+        <v>1646.31736409831</v>
       </c>
       <c r="P19">
-        <v>46.6313866448519</v>
+        <v>46.2009853914632</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>244.359337105138</v>
+        <v>284.745770946426</v>
       </c>
       <c r="C20">
-        <v>9.174887295579531</v>
+        <v>9.889856295255029</v>
       </c>
       <c r="D20">
-        <v>12.7355702952593</v>
+        <v>7.74332314570506</v>
       </c>
       <c r="E20">
-        <v>34.7243270298264</v>
+        <v>36.191880998473</v>
       </c>
       <c r="F20">
-        <v>0.10678300216756</v>
+        <v>1.49377934468303</v>
       </c>
       <c r="G20">
-        <v>0.905908376319813</v>
+        <v>2.62563113889023</v>
       </c>
       <c r="H20">
-        <v>3.81795441930698</v>
+        <v>1.17647174080563</v>
       </c>
       <c r="I20">
-        <v>0.350688425817187</v>
+        <v>1.9027246938858</v>
       </c>
       <c r="J20">
-        <v>6.15759797734195</v>
+        <v>5.21315464800539</v>
       </c>
       <c r="K20">
-        <v>4.96966817314141</v>
+        <v>2.61003469324119</v>
       </c>
       <c r="L20">
-        <v>8.846865161341601</v>
+        <v>7.35626144556068</v>
       </c>
       <c r="M20">
-        <v>24.8932816131151</v>
+        <v>19.4025067412507</v>
       </c>
       <c r="N20">
-        <v>5.85138412705991</v>
+        <v>7.62909807090765</v>
       </c>
       <c r="O20">
-        <v>628.677372769066</v>
+        <v>594.290822651069</v>
       </c>
       <c r="P20">
-        <v>21.1221569450244</v>
+        <v>25.3132723287724</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>786.052106999724</v>
+        <v>1028.24793895443</v>
       </c>
       <c r="C21">
-        <v>21.5534993948993</v>
+        <v>28.5722401495497</v>
       </c>
       <c r="D21">
-        <v>6.98955395825092</v>
+        <v>3.36862988320882</v>
       </c>
       <c r="E21">
-        <v>20.8836971636928</v>
+        <v>17.6716666914244</v>
       </c>
       <c r="F21">
-        <v>1.94944812252347</v>
+        <v>4.98273569880035</v>
       </c>
       <c r="G21">
-        <v>18.7825561909652</v>
+        <v>16.9669557894555</v>
       </c>
       <c r="H21">
-        <v>9.177184735175549</v>
+        <v>7.35800053920866</v>
       </c>
       <c r="I21">
-        <v>8.247132482971869</v>
+        <v>15.0518410020768</v>
       </c>
       <c r="J21">
-        <v>15.9019903011342</v>
+        <v>24.3859033458852</v>
       </c>
       <c r="K21">
-        <v>17.0111101107313</v>
+        <v>3.02295243100702</v>
       </c>
       <c r="L21">
-        <v>24.5724141427246</v>
+        <v>25.3789842054071</v>
       </c>
       <c r="M21">
-        <v>27.7371432277886</v>
+        <v>23.7629164447951</v>
       </c>
       <c r="N21">
-        <v>17.1739078661227</v>
+        <v>21.851517946915</v>
       </c>
       <c r="O21">
-        <v>2672.32172411693</v>
+        <v>2416.59357697209</v>
       </c>
       <c r="P21">
-        <v>24.4291124459022</v>
+        <v>22.3637259711073</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>971.709060985017</v>
+        <v>1184.92223941115</v>
       </c>
       <c r="C22">
-        <v>13.1424520497789</v>
+        <v>16.8541528021747</v>
       </c>
       <c r="D22">
-        <v>25.4902443605214</v>
+        <v>20.3524487624535</v>
       </c>
       <c r="E22">
-        <v>31.1951904909516</v>
+        <v>45.4215718654393</v>
       </c>
       <c r="F22">
-        <v>1.02878939457056</v>
+        <v>3.81845850504684</v>
       </c>
       <c r="G22">
-        <v>29.2728638151579</v>
+        <v>33.3130797607836</v>
       </c>
       <c r="H22">
-        <v>29.0980822945998</v>
+        <v>15.020257413183</v>
       </c>
       <c r="I22">
-        <v>7.60367489966614</v>
+        <v>9.27528317745073</v>
       </c>
       <c r="J22">
-        <v>54.8007129802467</v>
+        <v>41.26542407901</v>
       </c>
       <c r="K22">
-        <v>43.1647362957518</v>
+        <v>20.6115792418035</v>
       </c>
       <c r="L22">
-        <v>111.453786035053</v>
+        <v>133.338179395029</v>
       </c>
       <c r="M22">
-        <v>24.5603332218484</v>
+        <v>16.0076751704349</v>
       </c>
       <c r="N22">
-        <v>87.9692806681761</v>
+        <v>80.0385989209297</v>
       </c>
       <c r="O22">
-        <v>2881.25663100886</v>
+        <v>2688.4234583033</v>
       </c>
       <c r="P22">
-        <v>16.255019204104</v>
+        <v>10.1699028363514</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1782.63147532368</v>
+        <v>2285.42880821946</v>
       </c>
       <c r="C23">
-        <v>51.3435207807022</v>
+        <v>37.3978795924493</v>
       </c>
       <c r="D23">
-        <v>14.2850520326785</v>
+        <v>8.260794203808819</v>
       </c>
       <c r="E23">
-        <v>39.7004800303467</v>
+        <v>39.1903276950335</v>
       </c>
       <c r="F23">
-        <v>0.389293410792298</v>
+        <v>5.06866877907498</v>
       </c>
       <c r="G23">
-        <v>79.3491038524475</v>
+        <v>64.777073554542</v>
       </c>
       <c r="H23">
-        <v>68.6491307908329</v>
+        <v>58.0954019494442</v>
       </c>
       <c r="I23">
-        <v>33.647947652239</v>
+        <v>10.024919903118</v>
       </c>
       <c r="J23">
-        <v>162.390147151113</v>
+        <v>128.287767742589</v>
       </c>
       <c r="K23">
-        <v>141.773079855475</v>
+        <v>83.0097013908281</v>
       </c>
       <c r="L23">
-        <v>48.8009876212558</v>
+        <v>40.0661485343661</v>
       </c>
       <c r="M23">
-        <v>619.944344982321</v>
+        <v>562.6376036948</v>
       </c>
       <c r="N23">
-        <v>91.4831376385327</v>
+        <v>88.53403932954311</v>
       </c>
       <c r="O23">
-        <v>3794.9565105725</v>
+        <v>3517.85278942343</v>
       </c>
       <c r="P23">
-        <v>46.0450471742045</v>
+        <v>44.1772201049235</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>572.073869658684</v>
+        <v>771.643229758984</v>
       </c>
       <c r="C24">
-        <v>52.7823041392761</v>
+        <v>52.6896445620561</v>
       </c>
       <c r="D24">
-        <v>12.3556454534895</v>
+        <v>5.82674079175704</v>
       </c>
       <c r="E24">
-        <v>47.5715404308651</v>
+        <v>56.6605303176874</v>
       </c>
       <c r="F24">
-        <v>21.2891210818442</v>
+        <v>12.2021855370222</v>
       </c>
       <c r="G24">
-        <v>24.1971206484977</v>
+        <v>28.6970813054484</v>
       </c>
       <c r="H24">
-        <v>15.9460005691776</v>
+        <v>13.7840311871305</v>
       </c>
       <c r="I24">
-        <v>11.9372854484125</v>
+        <v>18.6580548249874</v>
       </c>
       <c r="J24">
-        <v>45.977437793563</v>
+        <v>55.1847253343316</v>
       </c>
       <c r="K24">
-        <v>91.041564194939</v>
+        <v>36.5371116326576</v>
       </c>
       <c r="L24">
-        <v>64.7050629591137</v>
+        <v>68.95149086781071</v>
       </c>
       <c r="M24">
-        <v>14.037345317865</v>
+        <v>31.8392781892789</v>
       </c>
       <c r="N24">
-        <v>78.1427656679746</v>
+        <v>74.17273380309879</v>
       </c>
       <c r="O24">
-        <v>2246.69815234014</v>
+        <v>2053.09450087258</v>
       </c>
       <c r="P24">
-        <v>96.1050720156174</v>
+        <v>101.282406953057</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>627.435246884166</v>
+        <v>769.3528845989</v>
       </c>
       <c r="C25">
-        <v>45.859632868991</v>
+        <v>47.7922585750286</v>
       </c>
       <c r="D25">
-        <v>18.0080392115373</v>
+        <v>14.5031834257461</v>
       </c>
       <c r="E25">
-        <v>45.9386756036468</v>
+        <v>45.0291591152197</v>
       </c>
       <c r="F25">
-        <v>30.2850370347047</v>
+        <v>18.6222729491777</v>
       </c>
       <c r="G25">
-        <v>11.0252061200941</v>
+        <v>9.723383317884119</v>
       </c>
       <c r="H25">
-        <v>16.3092427256223</v>
+        <v>10.2505588854336</v>
       </c>
       <c r="I25">
-        <v>5.24706579922719</v>
+        <v>6.0540645323099</v>
       </c>
       <c r="J25">
-        <v>18.695596043229</v>
+        <v>16.9505549450921</v>
       </c>
       <c r="K25">
-        <v>24.137367665998</v>
+        <v>11.3028878331623</v>
       </c>
       <c r="L25">
-        <v>28.7879162730797</v>
+        <v>17.0219830199878</v>
       </c>
       <c r="M25">
-        <v>40.8543674538686</v>
+        <v>42.8633101490586</v>
       </c>
       <c r="N25">
-        <v>31.6994538406083</v>
+        <v>33.8513037086116</v>
       </c>
       <c r="O25">
-        <v>1134.34358009926</v>
+        <v>1042.81537450459</v>
       </c>
       <c r="P25">
-        <v>46.0533620137271</v>
+        <v>44.5336660547171</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>833.574807675638</v>
+        <v>1052.50448527175</v>
       </c>
       <c r="C26">
-        <v>64.8675084193016</v>
+        <v>60.4543153810258</v>
       </c>
       <c r="D26">
-        <v>10.8042899229826</v>
+        <v>8.395446566618761</v>
       </c>
       <c r="E26">
-        <v>42.6598800345036</v>
+        <v>45.332310574492</v>
       </c>
       <c r="F26">
-        <v>7.1130297111689</v>
+        <v>8.337400597498901</v>
       </c>
       <c r="G26">
-        <v>49.0465892788298</v>
+        <v>36.1608382625368</v>
       </c>
       <c r="H26">
-        <v>19.2524413852497</v>
+        <v>16.0686251791227</v>
       </c>
       <c r="I26">
-        <v>14.3820823154296</v>
+        <v>19.3853386212209</v>
       </c>
       <c r="J26">
-        <v>53.4091171312779</v>
+        <v>46.1993645004689</v>
       </c>
       <c r="K26">
-        <v>38.2994922294417</v>
+        <v>17.8356078758908</v>
       </c>
       <c r="L26">
-        <v>33.4624921515065</v>
+        <v>23.7534071733073</v>
       </c>
       <c r="M26">
-        <v>74.7157439032474</v>
+        <v>88.0413821761891</v>
       </c>
       <c r="N26">
-        <v>28.312745713755</v>
+        <v>18.4456531742586</v>
       </c>
       <c r="O26">
-        <v>2537.18341405993</v>
+        <v>2345.96235665434</v>
       </c>
       <c r="P26">
-        <v>54.5345783768141</v>
+        <v>65.7545128094512</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>192.132036173449</v>
+        <v>223.85433366386</v>
       </c>
       <c r="C27">
-        <v>4.2914588779005</v>
+        <v>2.78954916650277</v>
       </c>
       <c r="D27">
-        <v>1.12987718945189</v>
+        <v>1.88304645245956</v>
       </c>
       <c r="E27">
-        <v>15.1677778900848</v>
+        <v>13.8147523755385</v>
       </c>
       <c r="F27">
-        <v>7.39750966835286</v>
+        <v>6.13170204680496</v>
       </c>
       <c r="G27">
-        <v>0.564656812742331</v>
+        <v>1.04119117712865</v>
       </c>
       <c r="H27">
-        <v>0.139237845562028</v>
+        <v>0.291071645459656</v>
       </c>
       <c r="I27">
-        <v>3.38424429756641</v>
+        <v>3.28903848321794</v>
       </c>
       <c r="J27">
-        <v>3.80900491590369</v>
+        <v>3.37196978795086</v>
       </c>
       <c r="K27">
-        <v>2.24078769793151</v>
+        <v>1.60850905036082</v>
       </c>
       <c r="L27">
-        <v>2.53648615121479</v>
+        <v>2.10220628398185</v>
       </c>
       <c r="M27">
-        <v>1.38448917716012</v>
+        <v>0.798018146557408</v>
       </c>
       <c r="N27">
-        <v>5.76863311093004</v>
+        <v>4.17136383731958</v>
       </c>
       <c r="O27">
-        <v>485.295295887692</v>
+        <v>459.604434140843</v>
       </c>
       <c r="P27">
-        <v>51.2705566987815</v>
+        <v>53.9459829832547</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>208.658225799193</v>
+        <v>275.881724509524</v>
       </c>
       <c r="C28">
-        <v>33.2177358376538</v>
+        <v>36.2257138870329</v>
       </c>
       <c r="D28">
-        <v>2.53930095194243</v>
+        <v>5.61659710423127</v>
       </c>
       <c r="E28">
-        <v>7.01809429732246</v>
+        <v>6.73752655403222</v>
       </c>
       <c r="F28">
-        <v>3.31781784648222</v>
+        <v>2.27984893274645</v>
       </c>
       <c r="G28">
-        <v>8.52618141126314</v>
+        <v>4.93532924341581</v>
       </c>
       <c r="H28">
-        <v>9.48803013973048</v>
+        <v>9.732082425807411</v>
       </c>
       <c r="I28">
-        <v>3.86363844632539</v>
+        <v>2.26509177185599</v>
       </c>
       <c r="J28">
-        <v>18.4804187457563</v>
+        <v>20.3885005556249</v>
       </c>
       <c r="K28">
-        <v>18.0689175530078</v>
+        <v>11.8374563680873</v>
       </c>
       <c r="L28">
-        <v>13.504680865606</v>
+        <v>14.9618806827237</v>
       </c>
       <c r="M28">
-        <v>8.35715861705599</v>
+        <v>8.6236702795602</v>
       </c>
       <c r="N28">
-        <v>11.6771450077239</v>
+        <v>11.4991047176683</v>
       </c>
       <c r="O28">
-        <v>874.266605455056</v>
+        <v>805.945984461174</v>
       </c>
       <c r="P28">
-        <v>85.58329580923851</v>
+        <v>84.4889968161243</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>375.398581179955</v>
+        <v>436.167556001978</v>
       </c>
       <c r="C29">
-        <v>4.18146798779282</v>
+        <v>4.43999245158412</v>
       </c>
       <c r="D29">
-        <v>4.30286653520373</v>
+        <v>3.86736614572918</v>
       </c>
       <c r="E29">
-        <v>4.52919911723931</v>
+        <v>5.07629900044443</v>
       </c>
       <c r="F29">
-        <v>17.4919034508284</v>
+        <v>25.1102168389052</v>
       </c>
       <c r="G29">
-        <v>3.51980163164282</v>
+        <v>4.08515812181679</v>
       </c>
       <c r="H29">
-        <v>2.718895860433</v>
+        <v>3.14889151408977</v>
       </c>
       <c r="I29">
-        <v>6.35401039338004</v>
+        <v>1.96223071647973</v>
       </c>
       <c r="J29">
-        <v>4.632089366354</v>
+        <v>5.78222250533641</v>
       </c>
       <c r="K29">
-        <v>3.71032754709504</v>
+        <v>1.67859736322812</v>
       </c>
       <c r="L29">
-        <v>2.14280155576895</v>
+        <v>3.57227736852589</v>
       </c>
       <c r="M29">
-        <v>2.30500825553126</v>
+        <v>2.96890097931991</v>
       </c>
       <c r="N29">
-        <v>11.0396846739759</v>
+        <v>13.8265397795889</v>
       </c>
       <c r="O29">
-        <v>1127.87738427151</v>
+        <v>1055.3646757081</v>
       </c>
       <c r="P29">
-        <v>4.45467459605306</v>
+        <v>6.33185494377603</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>186.543107836437</v>
+        <v>243.14446698151</v>
       </c>
       <c r="C30">
-        <v>4.42590931161981</v>
+        <v>3.60105776612897</v>
       </c>
       <c r="D30">
-        <v>6.96320548321066</v>
+        <v>7.61173587672202</v>
       </c>
       <c r="E30">
-        <v>8.586476729896379</v>
+        <v>15.9459159713213</v>
       </c>
       <c r="F30">
-        <v>0.426948800247322</v>
+        <v>1.19029340674868</v>
       </c>
       <c r="G30">
-        <v>5.48117193993803</v>
+        <v>5.21763897346018</v>
       </c>
       <c r="H30">
-        <v>8.454857563318701</v>
+        <v>6.18131784885674</v>
       </c>
       <c r="I30">
-        <v>3.16342537022548</v>
+        <v>2.64472930182165</v>
       </c>
       <c r="J30">
-        <v>17.0462674843928</v>
+        <v>17.6489314343839</v>
       </c>
       <c r="K30">
-        <v>19.1749237202824</v>
+        <v>9.42479669072539</v>
       </c>
       <c r="L30">
-        <v>48.3356718396322</v>
+        <v>42.5781857685034</v>
       </c>
       <c r="M30">
-        <v>11.9220618206867</v>
+        <v>11.7281546339014</v>
       </c>
       <c r="N30">
-        <v>15.0144663586105</v>
+        <v>13.9159942377933</v>
       </c>
       <c r="O30">
-        <v>647.260343258421</v>
+        <v>594.215897401332</v>
       </c>
       <c r="P30">
-        <v>7.62895865308823</v>
+        <v>10.4336041063505</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1474.70166606965</v>
+        <v>1694.02726959366</v>
       </c>
       <c r="C31">
-        <v>45.5468351736837</v>
+        <v>56.9386983825536</v>
       </c>
       <c r="D31">
-        <v>42.0679388367533</v>
+        <v>25.6328665460715</v>
       </c>
       <c r="E31">
-        <v>24.2423398312943</v>
+        <v>46.8360958512879</v>
       </c>
       <c r="F31">
-        <v>10.5993126390842</v>
+        <v>9.73457909781542</v>
       </c>
       <c r="G31">
-        <v>147.724784525088</v>
+        <v>107.384401519101</v>
       </c>
       <c r="H31">
-        <v>23.7910232872274</v>
+        <v>11.3650464542987</v>
       </c>
       <c r="I31">
-        <v>26.3372966401974</v>
+        <v>33.0224555772057</v>
       </c>
       <c r="J31">
-        <v>39.4074797789097</v>
+        <v>37.319096873936</v>
       </c>
       <c r="K31">
-        <v>36.6968990040182</v>
+        <v>12.8909313400222</v>
       </c>
       <c r="L31">
-        <v>73.73741984070389</v>
+        <v>75.2016677356972</v>
       </c>
       <c r="M31">
-        <v>17.7385896818384</v>
+        <v>16.7874165749655</v>
       </c>
       <c r="N31">
-        <v>62.5989100295995</v>
+        <v>54.6372163605656</v>
       </c>
       <c r="O31">
-        <v>3832.56438711044</v>
+        <v>3671.8725273569</v>
       </c>
       <c r="P31">
-        <v>9.075861490539751</v>
+        <v>7.7171765506319</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>385.43950849157</v>
+        <v>450.364767972872</v>
       </c>
       <c r="C32">
-        <v>7.11215200863461</v>
+        <v>4.62697401364157</v>
       </c>
       <c r="D32">
-        <v>3.39758329630259</v>
+        <v>0.613427501210859</v>
       </c>
       <c r="E32">
-        <v>3.7293747098973</v>
+        <v>2.31952940722997</v>
       </c>
       <c r="F32">
-        <v>35.4909981813085</v>
+        <v>26.1472743949904</v>
       </c>
       <c r="G32">
-        <v>0.86685468775912</v>
+        <v>3.88190183742533</v>
       </c>
       <c r="H32">
-        <v>0.808162856904026</v>
+        <v>1.20244489042677</v>
       </c>
       <c r="I32">
-        <v>6.1854535068029</v>
+        <v>3.89284945289145</v>
       </c>
       <c r="J32">
-        <v>5.52178095693755</v>
+        <v>4.62607627850136</v>
       </c>
       <c r="K32">
-        <v>6.26853215648904</v>
+        <v>1.45101188755818</v>
       </c>
       <c r="L32">
-        <v>14.3447445672757</v>
+        <v>18.0928145242069</v>
       </c>
       <c r="M32">
-        <v>2.91443519165762</v>
+        <v>2.59742592639584</v>
       </c>
       <c r="N32">
-        <v>9.435737120424561</v>
+        <v>9.444221375905441</v>
       </c>
       <c r="O32">
-        <v>833.702277377758</v>
+        <v>791.930477842278</v>
       </c>
       <c r="P32">
-        <v>24.2029991562791</v>
+        <v>22.6577654868227</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3856.15888482384</v>
+        <v>4384.84400889599</v>
       </c>
       <c r="C33">
-        <v>78.73729163251831</v>
+        <v>87.8446494833275</v>
       </c>
       <c r="D33">
-        <v>98.1844695156866</v>
+        <v>61.4025919558692</v>
       </c>
       <c r="E33">
-        <v>51.6803760748913</v>
+        <v>82.4108830795462</v>
       </c>
       <c r="F33">
-        <v>7.53889283633369</v>
+        <v>8.604080745433521</v>
       </c>
       <c r="G33">
-        <v>63.3409217983165</v>
+        <v>77.5327412835703</v>
       </c>
       <c r="H33">
-        <v>41.7244123391555</v>
+        <v>36.480412691694</v>
       </c>
       <c r="I33">
-        <v>28.04149954896</v>
+        <v>28.5465556975129</v>
       </c>
       <c r="J33">
-        <v>99.1005019003678</v>
+        <v>103.377539341503</v>
       </c>
       <c r="K33">
-        <v>113.075144995429</v>
+        <v>76.6761435347552</v>
       </c>
       <c r="L33">
-        <v>145.930669858676</v>
+        <v>120.323376431635</v>
       </c>
       <c r="M33">
-        <v>87.6515510217682</v>
+        <v>65.7118382861115</v>
       </c>
       <c r="N33">
-        <v>188.287210483285</v>
+        <v>153.55769505126</v>
       </c>
       <c r="O33">
-        <v>8057.87397318327</v>
+        <v>7642.99281324183</v>
       </c>
       <c r="P33">
-        <v>54.0928605327873</v>
+        <v>57.6349417888572</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1454.50687352486</v>
+        <v>1828.66729574661</v>
       </c>
       <c r="C34">
-        <v>82.4313012481765</v>
+        <v>75.0225658934535</v>
       </c>
       <c r="D34">
-        <v>209.703943756453</v>
+        <v>147.558673169986</v>
       </c>
       <c r="E34">
-        <v>56.9560834522066</v>
+        <v>39.491111923491</v>
       </c>
       <c r="F34">
-        <v>6.00149338176683</v>
+        <v>3.64317143599213</v>
       </c>
       <c r="G34">
-        <v>68.98338504834931</v>
+        <v>47.8501267104049</v>
       </c>
       <c r="H34">
-        <v>53.0452901845079</v>
+        <v>47.9155737035208</v>
       </c>
       <c r="I34">
-        <v>26.2089786707997</v>
+        <v>18.7321130951494</v>
       </c>
       <c r="J34">
-        <v>48.3526015513509</v>
+        <v>50.1291356899765</v>
       </c>
       <c r="K34">
-        <v>81.9309018965741</v>
+        <v>32.9570242192903</v>
       </c>
       <c r="L34">
-        <v>122.639841026576</v>
+        <v>104.686019098307</v>
       </c>
       <c r="M34">
-        <v>46.7653271007494</v>
+        <v>31.1124822333276</v>
       </c>
       <c r="N34">
-        <v>135.485397301601</v>
+        <v>128.242183509038</v>
       </c>
       <c r="O34">
-        <v>3217.09995402142</v>
+        <v>3049.42151038453</v>
       </c>
       <c r="P34">
-        <v>69.56008422115799</v>
+        <v>69.4193085013308</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>93.4017751894322</v>
+        <v>121.551090629632</v>
       </c>
       <c r="C35">
-        <v>8.20630091823932</v>
+        <v>9.25201507993725</v>
       </c>
       <c r="D35">
-        <v>0.813817856512029</v>
+        <v>0.690080205145895</v>
       </c>
       <c r="E35">
-        <v>3.57321514544763</v>
+        <v>2.82091608477395</v>
       </c>
       <c r="F35">
-        <v>5.83658160822707</v>
+        <v>4.32854838978467</v>
       </c>
       <c r="G35">
-        <v>0.214938197286036</v>
+        <v>1.98206011439521</v>
       </c>
       <c r="H35">
-        <v>0.906800299027087</v>
+        <v>0.200408303258147</v>
       </c>
       <c r="I35">
-        <v>0.991638731284986</v>
+        <v>1.85067839385722</v>
       </c>
       <c r="J35">
-        <v>2.86348557414166</v>
+        <v>3.62344851709002</v>
       </c>
       <c r="K35">
-        <v>7.4954370152716</v>
+        <v>6.49802778548903</v>
       </c>
       <c r="L35">
-        <v>3.27629740916147</v>
+        <v>3.12744986922665</v>
       </c>
       <c r="M35">
-        <v>3.06195421675816</v>
+        <v>2.16830797935711</v>
       </c>
       <c r="N35">
-        <v>2.78301172153456</v>
+        <v>3.95344371698077</v>
       </c>
       <c r="O35">
-        <v>358.463137186017</v>
+        <v>324.029613064797</v>
       </c>
       <c r="P35">
-        <v>47.6015116745395</v>
+        <v>51.6730843661892</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1983.44300941351</v>
+        <v>2444.25383166771</v>
       </c>
       <c r="C36">
-        <v>69.27998471395929</v>
+        <v>43.8309592149904</v>
       </c>
       <c r="D36">
-        <v>15.7704973038016</v>
+        <v>16.6457167535716</v>
       </c>
       <c r="E36">
-        <v>68.3950729949012</v>
+        <v>116.801061845547</v>
       </c>
       <c r="F36">
-        <v>42.9546970122265</v>
+        <v>33.0098866854886</v>
       </c>
       <c r="G36">
-        <v>102.74836282307</v>
+        <v>96.36058740097511</v>
       </c>
       <c r="H36">
-        <v>112.684829220265</v>
+        <v>87.5054525375825</v>
       </c>
       <c r="I36">
-        <v>48.4135824601096</v>
+        <v>38.7310255380877</v>
       </c>
       <c r="J36">
-        <v>219.985504541298</v>
+        <v>190.767842315668</v>
       </c>
       <c r="K36">
-        <v>148.886740749305</v>
+        <v>78.6576626697677</v>
       </c>
       <c r="L36">
-        <v>106.242393633171</v>
+        <v>76.88576748204</v>
       </c>
       <c r="M36">
-        <v>223.592375546122</v>
+        <v>216.248825804661</v>
       </c>
       <c r="N36">
-        <v>90.79118692059021</v>
+        <v>97.98516783974721</v>
       </c>
       <c r="O36">
-        <v>4678.3389799349</v>
+        <v>4364.58366405633</v>
       </c>
       <c r="P36">
-        <v>36.9730038370951</v>
+        <v>43.1130577090376</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>668.141149257919</v>
+        <v>769.693634130106</v>
       </c>
       <c r="C37">
-        <v>22.7627653116135</v>
+        <v>19.8556644573962</v>
       </c>
       <c r="D37">
-        <v>8.435815446568791</v>
+        <v>3.3090857972164</v>
       </c>
       <c r="E37">
-        <v>13.6983171663035</v>
+        <v>20.6513048196679</v>
       </c>
       <c r="F37">
-        <v>42.4731020867391</v>
+        <v>27.4605851993096</v>
       </c>
       <c r="G37">
-        <v>7.06825765869823</v>
+        <v>7.31657368798079</v>
       </c>
       <c r="H37">
-        <v>23.6575706414351</v>
+        <v>26.7203230354656</v>
       </c>
       <c r="I37">
-        <v>13.8143021228671</v>
+        <v>12.290268797987</v>
       </c>
       <c r="J37">
-        <v>26.8863939647054</v>
+        <v>37.3818934250729</v>
       </c>
       <c r="K37">
-        <v>45.732641401387</v>
+        <v>32.2295300458672</v>
       </c>
       <c r="L37">
-        <v>27.5260446400072</v>
+        <v>24.4209996207062</v>
       </c>
       <c r="M37">
-        <v>28.7357913779697</v>
+        <v>42.324159777945</v>
       </c>
       <c r="N37">
-        <v>16.0921644093155</v>
+        <v>21.628147966448</v>
       </c>
       <c r="O37">
-        <v>1367.5926158596</v>
+        <v>1263.3836020447</v>
       </c>
       <c r="P37">
-        <v>50.9578297731557</v>
+        <v>58.7483687798627</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>644.754088080787</v>
+        <v>771.546843680589</v>
       </c>
       <c r="C38">
-        <v>25.1145637346174</v>
+        <v>23.117507631704</v>
       </c>
       <c r="D38">
-        <v>16.1270109524963</v>
+        <v>11.5758029553482</v>
       </c>
       <c r="E38">
-        <v>45.6911257734076</v>
+        <v>47.3185006700328</v>
       </c>
       <c r="F38">
-        <v>3.11440578308074</v>
+        <v>2.2874882904439</v>
       </c>
       <c r="G38">
-        <v>6.04407961569651</v>
+        <v>7.78950827658497</v>
       </c>
       <c r="H38">
-        <v>7.84210849684497</v>
+        <v>3.76699461003584</v>
       </c>
       <c r="I38">
-        <v>3.11086357846767</v>
+        <v>2.54914326703085</v>
       </c>
       <c r="J38">
-        <v>38.1170840904789</v>
+        <v>42.6346481780665</v>
       </c>
       <c r="K38">
-        <v>17.1536960171839</v>
+        <v>4.53239555727466</v>
       </c>
       <c r="L38">
-        <v>83.5221187074453</v>
+        <v>62.1933536132701</v>
       </c>
       <c r="M38">
-        <v>23.0244356604092</v>
+        <v>17.4753852126237</v>
       </c>
       <c r="N38">
-        <v>23.4339804189735</v>
+        <v>35.230777427364</v>
       </c>
       <c r="O38">
-        <v>1463.11078879065</v>
+        <v>1377.28786784643</v>
       </c>
       <c r="P38">
-        <v>69.0003070436845</v>
+        <v>64.0786613489736</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2204.9577833389</v>
+        <v>2744.27012594879</v>
       </c>
       <c r="C39">
-        <v>126.467757518903</v>
+        <v>95.521900629275</v>
       </c>
       <c r="D39">
-        <v>62.9514011582042</v>
+        <v>44.1265423384052</v>
       </c>
       <c r="E39">
-        <v>83.2895180824729</v>
+        <v>119.394712213723</v>
       </c>
       <c r="F39">
-        <v>25.6526465632642</v>
+        <v>22.5789779780326</v>
       </c>
       <c r="G39">
-        <v>128.961896682335</v>
+        <v>129.139095825312</v>
       </c>
       <c r="H39">
-        <v>42.6926965999869</v>
+        <v>55.7529794435077</v>
       </c>
       <c r="I39">
-        <v>55.4877719933653</v>
+        <v>38.477048054942</v>
       </c>
       <c r="J39">
-        <v>163.434017227109</v>
+        <v>150.132204716446</v>
       </c>
       <c r="K39">
-        <v>133.938292179016</v>
+        <v>94.41343290684669</v>
       </c>
       <c r="L39">
-        <v>117.61823615673</v>
+        <v>99.70667747534139</v>
       </c>
       <c r="M39">
-        <v>74.18510672539691</v>
+        <v>68.0707167550849</v>
       </c>
       <c r="N39">
-        <v>117.906762057995</v>
+        <v>114.180348900504</v>
       </c>
       <c r="O39">
-        <v>5294.55125043593</v>
+        <v>4854.26520830001</v>
       </c>
       <c r="P39">
-        <v>51.1418612033361</v>
+        <v>49.9063964994737</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>203.30027479136</v>
+        <v>246.966877594612</v>
       </c>
       <c r="C40">
-        <v>4.53800433079509</v>
+        <v>4.35094373817397</v>
       </c>
       <c r="D40">
-        <v>12.5731386419946</v>
+        <v>9.30867820180233</v>
       </c>
       <c r="E40">
-        <v>4.25714841221225</v>
+        <v>5.40530368592823</v>
       </c>
       <c r="F40">
-        <v>0.76593858266681</v>
+        <v>0.537551116153729</v>
       </c>
       <c r="G40">
-        <v>7.64110830523368</v>
+        <v>5.59889932978002</v>
       </c>
       <c r="H40">
-        <v>9.74028872727042</v>
+        <v>4.66616014640853</v>
       </c>
       <c r="I40">
-        <v>2.54906131175984</v>
+        <v>1.67323666619544</v>
       </c>
       <c r="J40">
-        <v>14.7314644176046</v>
+        <v>10.6751794103298</v>
       </c>
       <c r="K40">
-        <v>9.61118474566749</v>
+        <v>3.97715202987725</v>
       </c>
       <c r="L40">
-        <v>15.3743315081206</v>
+        <v>17.3212030066665</v>
       </c>
       <c r="M40">
-        <v>8.10745199970513</v>
+        <v>5.58023844333882</v>
       </c>
       <c r="N40">
-        <v>32.6579114374322</v>
+        <v>25.1464844028458</v>
       </c>
       <c r="O40">
-        <v>544.492011924757</v>
+        <v>527.086477740606</v>
       </c>
       <c r="P40">
-        <v>1.39057006998842</v>
+        <v>2.48251076134662</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>783.843297094798</v>
+        <v>956.744921850761</v>
       </c>
       <c r="C41">
-        <v>10.7159467302337</v>
+        <v>10.5308257514105</v>
       </c>
       <c r="D41">
-        <v>96.3555322223669</v>
+        <v>73.7768157694081</v>
       </c>
       <c r="E41">
-        <v>43.1168186222667</v>
+        <v>29.370745534247</v>
       </c>
       <c r="F41">
-        <v>2.63595568868557</v>
+        <v>1.04047001714798</v>
       </c>
       <c r="G41">
-        <v>47.2194604384519</v>
+        <v>26.7077911485842</v>
       </c>
       <c r="H41">
-        <v>42.8650849705788</v>
+        <v>37.1837092216324</v>
       </c>
       <c r="I41">
-        <v>8.148756783949271</v>
+        <v>18.8518309288369</v>
       </c>
       <c r="J41">
-        <v>63.9689338386748</v>
+        <v>42.1023842578853</v>
       </c>
       <c r="K41">
-        <v>50.2182073799803</v>
+        <v>12.2141025650175</v>
       </c>
       <c r="L41">
-        <v>29.3650490988433</v>
+        <v>32.3308767991388</v>
       </c>
       <c r="M41">
-        <v>41.2054109631133</v>
+        <v>23.0811488817055</v>
       </c>
       <c r="N41">
-        <v>26.9236997148578</v>
+        <v>20.2828424500022</v>
       </c>
       <c r="O41">
-        <v>1552.76798809501</v>
+        <v>1501.95009420255</v>
       </c>
       <c r="P41">
-        <v>20.8945828820429</v>
+        <v>36.4749884342236</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>111.569864280119</v>
+        <v>136.302963259706</v>
       </c>
       <c r="C42">
-        <v>9.697904283565309</v>
+        <v>7.12834559082286</v>
       </c>
       <c r="D42">
-        <v>1.27388144777245</v>
+        <v>2.19653396543173</v>
       </c>
       <c r="E42">
-        <v>8.700917557726539</v>
+        <v>7.6010080473624</v>
       </c>
       <c r="F42">
-        <v>2.93305269739725</v>
+        <v>3.1359736327089</v>
       </c>
       <c r="G42">
-        <v>1.08713014194874</v>
+        <v>1.94236648886824</v>
       </c>
       <c r="H42">
-        <v>2.25815172557951</v>
+        <v>0.696855750816634</v>
       </c>
       <c r="I42">
-        <v>1.47876730816125</v>
+        <v>1.03543592126905</v>
       </c>
       <c r="J42">
-        <v>5.61955094835448</v>
+        <v>4.32217162382288</v>
       </c>
       <c r="K42">
-        <v>8.7521591319802</v>
+        <v>5.92399146470781</v>
       </c>
       <c r="L42">
-        <v>9.763664208959691</v>
+        <v>10.1167020024185</v>
       </c>
       <c r="M42">
-        <v>4.49989120123853</v>
+        <v>4.55916314051498</v>
       </c>
       <c r="N42">
-        <v>8.827841754622231</v>
+        <v>10.2851936023297</v>
       </c>
       <c r="O42">
-        <v>460.711479328239</v>
+        <v>431.67841726905</v>
       </c>
       <c r="P42">
-        <v>52.8123645300501</v>
+        <v>60.038368269637</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1198.91579464899</v>
+        <v>1372.42258195112</v>
       </c>
       <c r="C43">
-        <v>42.1711887295894</v>
+        <v>40.5313515662986</v>
       </c>
       <c r="D43">
-        <v>41.5175953915865</v>
+        <v>32.3870028874613</v>
       </c>
       <c r="E43">
-        <v>40.5107749952838</v>
+        <v>78.17490220689911</v>
       </c>
       <c r="F43">
-        <v>9.48697655918728</v>
+        <v>6.99066571360308</v>
       </c>
       <c r="G43">
-        <v>29.9469531163818</v>
+        <v>21.5909831493034</v>
       </c>
       <c r="H43">
-        <v>23.8581229848661</v>
+        <v>41.5444626415393</v>
       </c>
       <c r="I43">
-        <v>28.2632852921075</v>
+        <v>29.7541356042559</v>
       </c>
       <c r="J43">
-        <v>49.8159975789461</v>
+        <v>47.3257844468684</v>
       </c>
       <c r="K43">
-        <v>69.1325096759509</v>
+        <v>33.6631720732898</v>
       </c>
       <c r="L43">
-        <v>51.4034205466557</v>
+        <v>43.3131776068088</v>
       </c>
       <c r="M43">
-        <v>82.93050232027279</v>
+        <v>120.624304930878</v>
       </c>
       <c r="N43">
-        <v>65.9265802967503</v>
+        <v>54.3144630395714</v>
       </c>
       <c r="O43">
-        <v>2272.95760661594</v>
+        <v>2089.78387787786</v>
       </c>
       <c r="P43">
-        <v>44.4669636519831</v>
+        <v>46.8986968937358</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3611.89945181363</v>
+        <v>4272.30429112768</v>
       </c>
       <c r="C44">
-        <v>165.654653201185</v>
+        <v>158.987811844314</v>
       </c>
       <c r="D44">
-        <v>58.9374006729502</v>
+        <v>32.3809603253258</v>
       </c>
       <c r="E44">
-        <v>74.3031558922733</v>
+        <v>95.4481998246162</v>
       </c>
       <c r="F44">
-        <v>259.118958568909</v>
+        <v>228.770795944779</v>
       </c>
       <c r="G44">
-        <v>147.48396678164</v>
+        <v>118.752297099781</v>
       </c>
       <c r="H44">
-        <v>47.2428184162633</v>
+        <v>40.6991263691647</v>
       </c>
       <c r="I44">
-        <v>56.4413229535838</v>
+        <v>43.7030105246371</v>
       </c>
       <c r="J44">
-        <v>129.911491646846</v>
+        <v>97.1685087032901</v>
       </c>
       <c r="K44">
-        <v>121.967635839577</v>
+        <v>60.2419824062611</v>
       </c>
       <c r="L44">
-        <v>230.528897290345</v>
+        <v>162.84668288987</v>
       </c>
       <c r="M44">
-        <v>110.342612624758</v>
+        <v>87.8331304794239</v>
       </c>
       <c r="N44">
-        <v>87.7307429183596</v>
+        <v>99.276411839923</v>
       </c>
       <c r="O44">
-        <v>8443.306223832769</v>
+        <v>8065.20681507935</v>
       </c>
       <c r="P44">
-        <v>243.200602690928</v>
+        <v>225.0394686734</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>367.92779209847</v>
+        <v>428.176739108014</v>
       </c>
       <c r="C45">
-        <v>18.0666752333338</v>
+        <v>19.8123256274964</v>
       </c>
       <c r="D45">
-        <v>4.7357103135495</v>
+        <v>2.77037174184582</v>
       </c>
       <c r="E45">
-        <v>8.16265468058055</v>
+        <v>23.411557845277</v>
       </c>
       <c r="F45">
-        <v>25.6830861428605</v>
+        <v>23.8719499554717</v>
       </c>
       <c r="G45">
-        <v>12.8189942205934</v>
+        <v>6.24005602967544</v>
       </c>
       <c r="H45">
-        <v>5.01133324293454</v>
+        <v>4.45119761369471</v>
       </c>
       <c r="I45">
-        <v>5.18131926778674</v>
+        <v>3.8685481492985</v>
       </c>
       <c r="J45">
-        <v>15.9830914166284</v>
+        <v>20.4013232180274</v>
       </c>
       <c r="K45">
-        <v>9.87867341224538</v>
+        <v>5.27946519571047</v>
       </c>
       <c r="L45">
-        <v>19.6404402470702</v>
+        <v>14.6520219287841</v>
       </c>
       <c r="M45">
-        <v>22.9915620598062</v>
+        <v>15.9580539065203</v>
       </c>
       <c r="N45">
-        <v>24.7428410524797</v>
+        <v>25.9557640970742</v>
       </c>
       <c r="O45">
-        <v>935.809908656036</v>
+        <v>874.281303464433</v>
       </c>
       <c r="P45">
-        <v>13.7456911532907</v>
+        <v>20.0385040082358</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>104.36138164961</v>
+        <v>130.696311564835</v>
       </c>
       <c r="C46">
-        <v>6.32705686402732</v>
+        <v>4.84688520561162</v>
       </c>
       <c r="D46">
-        <v>2.17740873803287</v>
+        <v>1.12909213574231</v>
       </c>
       <c r="E46">
-        <v>6.70429870936647</v>
+        <v>6.02967312059118</v>
       </c>
       <c r="F46">
-        <v>1.83182773504178</v>
+        <v>1.01944969299683</v>
       </c>
       <c r="G46">
-        <v>2.83651104940594</v>
+        <v>3.82148612326794</v>
       </c>
       <c r="H46">
-        <v>3.8748997272964</v>
+        <v>1.64929623202901</v>
       </c>
       <c r="I46">
-        <v>2.03034929234921</v>
+        <v>2.09535320010226</v>
       </c>
       <c r="J46">
-        <v>5.85138437825777</v>
+        <v>5.94051098542529</v>
       </c>
       <c r="K46">
-        <v>5.72541184809978</v>
+        <v>3.08233113589086</v>
       </c>
       <c r="L46">
-        <v>17.7129921672184</v>
+        <v>14.6499764175343</v>
       </c>
       <c r="M46">
-        <v>5.79164344735527</v>
+        <v>3.99358844741932</v>
       </c>
       <c r="N46">
-        <v>9.385357541109091</v>
+        <v>11.3662883139387</v>
       </c>
       <c r="O46">
-        <v>375.211515982852</v>
+        <v>355.853811802444</v>
       </c>
       <c r="P46">
-        <v>11.9288739845861</v>
+        <v>12.4503805277684</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1189.80627153772</v>
+        <v>1486.9574756867</v>
       </c>
       <c r="C47">
-        <v>56.8727065852964</v>
+        <v>53.3562502940557</v>
       </c>
       <c r="D47">
-        <v>34.8565840673568</v>
+        <v>25.0303436061146</v>
       </c>
       <c r="E47">
-        <v>36.8244236209764</v>
+        <v>55.2152584902538</v>
       </c>
       <c r="F47">
-        <v>7.21002523298346</v>
+        <v>9.5770545475912</v>
       </c>
       <c r="G47">
-        <v>27.7426065354256</v>
+        <v>23.5661135889313</v>
       </c>
       <c r="H47">
-        <v>21.7056737070901</v>
+        <v>9.7011269342515</v>
       </c>
       <c r="I47">
-        <v>13.7996949827808</v>
+        <v>4.12275997345935</v>
       </c>
       <c r="J47">
-        <v>48.9473709703088</v>
+        <v>41.0258890878514</v>
       </c>
       <c r="K47">
-        <v>21.7897781157654</v>
+        <v>12.5023751020365</v>
       </c>
       <c r="L47">
-        <v>54.4792323470672</v>
+        <v>31.8685463302295</v>
       </c>
       <c r="M47">
-        <v>75.8084331385421</v>
+        <v>72.8412596175867</v>
       </c>
       <c r="N47">
-        <v>36.6259973167848</v>
+        <v>40.1140111799733</v>
       </c>
       <c r="O47">
-        <v>3207.68737316713</v>
+        <v>2964.68697974351</v>
       </c>
       <c r="P47">
-        <v>36.5203928951509</v>
+        <v>35.0650773045603</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1097.72532727262</v>
+        <v>1302.77887694931</v>
       </c>
       <c r="C48">
-        <v>20.9700708233559</v>
+        <v>25.2682767906888</v>
       </c>
       <c r="D48">
-        <v>7.8273323995479</v>
+        <v>4.25433221358255</v>
       </c>
       <c r="E48">
-        <v>71.60531714689709</v>
+        <v>73.263213429704</v>
       </c>
       <c r="F48">
-        <v>13.7524607001717</v>
+        <v>6.80631527733258</v>
       </c>
       <c r="G48">
-        <v>7.16096971663635</v>
+        <v>5.35203015882763</v>
       </c>
       <c r="H48">
-        <v>4.21153760911515</v>
+        <v>3.33567044254914</v>
       </c>
       <c r="I48">
-        <v>13.1315132655377</v>
+        <v>10.7799236562454</v>
       </c>
       <c r="J48">
-        <v>28.4653342630922</v>
+        <v>35.6759568001152</v>
       </c>
       <c r="K48">
-        <v>25.9567019525668</v>
+        <v>11.348485961366</v>
       </c>
       <c r="L48">
-        <v>40.3526489110392</v>
+        <v>49.1125849279723</v>
       </c>
       <c r="M48">
-        <v>156.718390549442</v>
+        <v>117.456189656213</v>
       </c>
       <c r="N48">
-        <v>26.2508710836697</v>
+        <v>34.935389277331</v>
       </c>
       <c r="O48">
-        <v>2509.45996226901</v>
+        <v>2331.42635931201</v>
       </c>
       <c r="P48">
-        <v>79.0258441758283</v>
+        <v>95.96357108196411</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>560.848819090405</v>
+        <v>673.1707813956861</v>
       </c>
       <c r="C49">
-        <v>6.14544246769444</v>
+        <v>6.12531522717007</v>
       </c>
       <c r="D49">
-        <v>4.43118789748698</v>
+        <v>4.25204805631057</v>
       </c>
       <c r="E49">
-        <v>16.7664868213756</v>
+        <v>25.1026617679954</v>
       </c>
       <c r="F49">
-        <v>41.8267092946926</v>
+        <v>29.4529207657284</v>
       </c>
       <c r="G49">
-        <v>21.6896089402598</v>
+        <v>15.2474877089293</v>
       </c>
       <c r="H49">
-        <v>8.783553791548521</v>
+        <v>7.50636871668948</v>
       </c>
       <c r="I49">
-        <v>9.58847223926678</v>
+        <v>4.65104647622169</v>
       </c>
       <c r="J49">
-        <v>27.1012498537602</v>
+        <v>23.6086051730321</v>
       </c>
       <c r="K49">
-        <v>9.907104555065009</v>
+        <v>3.4424169933146</v>
       </c>
       <c r="L49">
-        <v>2.96833446604929</v>
+        <v>0.950652960357228</v>
       </c>
       <c r="M49">
-        <v>7.31318147453739</v>
+        <v>6.89771601373817</v>
       </c>
       <c r="N49">
-        <v>3.95157199573392</v>
+        <v>3.86781549713085</v>
       </c>
       <c r="O49">
-        <v>748.404928724904</v>
+        <v>681.198326298863</v>
       </c>
       <c r="P49">
-        <v>11.1372450966466</v>
+        <v>7.01453075604203</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>758.17573355214</v>
+        <v>896.3258682572809</v>
       </c>
       <c r="C50">
-        <v>85.9387579929345</v>
+        <v>75.75129934190321</v>
       </c>
       <c r="D50">
-        <v>13.4403146239178</v>
+        <v>15.5445585013844</v>
       </c>
       <c r="E50">
-        <v>112.572043487752</v>
+        <v>152.181548841839</v>
       </c>
       <c r="F50">
-        <v>4.23469644850579</v>
+        <v>3.75262469997559</v>
       </c>
       <c r="G50">
-        <v>37.2966140090025</v>
+        <v>32.1541535562783</v>
       </c>
       <c r="H50">
-        <v>41.7450802961736</v>
+        <v>36.9819631238365</v>
       </c>
       <c r="I50">
-        <v>14.8114328360728</v>
+        <v>16.4858552141901</v>
       </c>
       <c r="J50">
-        <v>106.426944096933</v>
+        <v>109.097466917415</v>
       </c>
       <c r="K50">
-        <v>101.846941398499</v>
+        <v>68.116073173373</v>
       </c>
       <c r="L50">
-        <v>84.8201938762805</v>
+        <v>54.8595267694231</v>
       </c>
       <c r="M50">
-        <v>28.4015446236995</v>
+        <v>34.1989235654294</v>
       </c>
       <c r="N50">
-        <v>78.8239228578051</v>
+        <v>58.4275096035437</v>
       </c>
       <c r="O50">
-        <v>2277.5458417852</v>
+        <v>2177.14992726937</v>
       </c>
       <c r="P50">
-        <v>71.563501679629</v>
+        <v>79.9415890917317</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>120.104210594156</v>
+        <v>141.944938654602</v>
       </c>
       <c r="C51">
-        <v>2.64487922030103</v>
+        <v>5.17468317691425</v>
       </c>
       <c r="D51">
-        <v>0.119860883859251</v>
+        <v>0.0533243859441884</v>
       </c>
       <c r="E51">
-        <v>2.15355498187381</v>
+        <v>2.34448104392068</v>
       </c>
       <c r="F51">
-        <v>43.1073082632312</v>
+        <v>37.0599596780682</v>
       </c>
       <c r="G51">
-        <v>2.50651920626151</v>
+        <v>2.21192165849491</v>
       </c>
       <c r="H51">
-        <v>0.276753400214781</v>
+        <v>0.0193966268480432</v>
       </c>
       <c r="I51">
-        <v>2.02501950371836</v>
+        <v>1.34036167846566</v>
       </c>
       <c r="J51">
-        <v>2.85455293680183</v>
+        <v>1.46195709717031</v>
       </c>
       <c r="K51">
-        <v>1.28153781217976</v>
+        <v>1.0477279139257</v>
       </c>
       <c r="L51">
-        <v>0.321616947656181</v>
+        <v>0.236078626727825</v>
       </c>
       <c r="M51">
-        <v>0.923508122065567</v>
+        <v>0.563288832011195</v>
       </c>
       <c r="N51">
-        <v>2.17055433748867</v>
+        <v>1.35248000178867</v>
       </c>
       <c r="O51">
-        <v>351.187201217278</v>
+        <v>330.42043546571</v>
       </c>
       <c r="P51">
-        <v>23.0230216973133</v>
+        <v>29.3061712357909</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1267.66735185937</v>
+        <v>1359.33669916724</v>
       </c>
       <c r="C2">
-        <v>24.8367940949886</v>
+        <v>25.8484087225831</v>
       </c>
       <c r="D2">
-        <v>39.078052238157</v>
+        <v>40.2521197210765</v>
       </c>
       <c r="E2">
-        <v>62.7808175847733</v>
+        <v>60.4740343017406</v>
       </c>
       <c r="F2">
-        <v>20.7998800731135</v>
+        <v>20.2814550156818</v>
       </c>
       <c r="G2">
-        <v>13.6042760577201</v>
+        <v>12.6034997663015</v>
       </c>
       <c r="H2">
-        <v>25.3620447128668</v>
+        <v>22.1013736110026</v>
       </c>
       <c r="I2">
-        <v>16.5378626406755</v>
+        <v>15.6047998125248</v>
       </c>
       <c r="J2">
-        <v>75.1450379490001</v>
+        <v>73.7840992186832</v>
       </c>
       <c r="K2">
-        <v>18.3456765919741</v>
+        <v>17.8236055628584</v>
       </c>
       <c r="L2">
-        <v>49.2262405346537</v>
+        <v>48.5670329285125</v>
       </c>
       <c r="M2">
-        <v>42.8028214709228</v>
+        <v>41.4721082055048</v>
       </c>
       <c r="N2">
-        <v>24.6214454168768</v>
+        <v>25.0273117683895</v>
       </c>
       <c r="O2">
-        <v>1440.7257196381</v>
+        <v>1370.15175242152</v>
       </c>
       <c r="P2">
-        <v>20.7468485549711</v>
+        <v>21.1375421469199</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>169.699427012484</v>
+        <v>164.262080467555</v>
       </c>
       <c r="C3">
-        <v>5.16152325430799</v>
+        <v>5.20524394405838</v>
       </c>
       <c r="D3">
-        <v>0.621077677827479</v>
+        <v>0.534174467896556</v>
       </c>
       <c r="E3">
-        <v>1.479346190453</v>
+        <v>1.35886605903241</v>
       </c>
       <c r="F3">
-        <v>11.0631429460805</v>
+        <v>9.434830000540529</v>
       </c>
       <c r="G3">
-        <v>0.590680694050769</v>
+        <v>0.411080575931282</v>
       </c>
       <c r="H3">
-        <v>0.159898466673211</v>
+        <v>0.137962525095268</v>
       </c>
       <c r="I3">
-        <v>1.20154977167843</v>
+        <v>0.980965414071552</v>
       </c>
       <c r="J3">
-        <v>0.597680306419905</v>
+        <v>0.521070141638484</v>
       </c>
       <c r="K3">
-        <v>0.0860960024533473</v>
+        <v>0.0750484999621779</v>
       </c>
       <c r="L3">
-        <v>0.0228791045651631</v>
+        <v>0.0190361567652002</v>
       </c>
       <c r="M3">
-        <v>0.92597574985917</v>
+        <v>0.8165738650522481</v>
       </c>
       <c r="N3">
-        <v>0.79109433846917</v>
+        <v>0.69364851090157</v>
       </c>
       <c r="O3">
-        <v>391.468220773197</v>
+        <v>346.397357607829</v>
       </c>
       <c r="P3">
-        <v>16.1887776168465</v>
+        <v>14.8942202172048</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1200.87446771598</v>
+        <v>1313.87861338054</v>
       </c>
       <c r="C4">
-        <v>6.32450566582299</v>
+        <v>6.56907745522523</v>
       </c>
       <c r="D4">
-        <v>2.64484110027921</v>
+        <v>2.64673202314118</v>
       </c>
       <c r="E4">
-        <v>24.6455841499844</v>
+        <v>25.7307957239504</v>
       </c>
       <c r="F4">
-        <v>5.65764441309097</v>
+        <v>6.9201475157385</v>
       </c>
       <c r="G4">
-        <v>5.66568208285771</v>
+        <v>5.33065517572802</v>
       </c>
       <c r="H4">
-        <v>14.1109510618423</v>
+        <v>14.4017837446971</v>
       </c>
       <c r="I4">
-        <v>12.0253941873098</v>
+        <v>11.6442807780542</v>
       </c>
       <c r="J4">
-        <v>19.1464106540317</v>
+        <v>19.4812629582571</v>
       </c>
       <c r="K4">
-        <v>3.95059849451138</v>
+        <v>3.99668476070954</v>
       </c>
       <c r="L4">
-        <v>66.7421606032518</v>
+        <v>63.4100069240914</v>
       </c>
       <c r="M4">
-        <v>43.7935804671277</v>
+        <v>42.7396381465092</v>
       </c>
       <c r="N4">
-        <v>30.3448636361134</v>
+        <v>29.6376461154208</v>
       </c>
       <c r="O4">
-        <v>2138.00639829221</v>
+        <v>2070.18419770378</v>
       </c>
       <c r="P4">
-        <v>17.4134038807998</v>
+        <v>17.6948666106643</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>666.204429724448</v>
+        <v>715.854849115027</v>
       </c>
       <c r="C5">
-        <v>47.7594542266724</v>
+        <v>47.3240636942435</v>
       </c>
       <c r="D5">
-        <v>10.7543793124366</v>
+        <v>10.1289053550845</v>
       </c>
       <c r="E5">
-        <v>32.9688648046523</v>
+        <v>34.853304536196</v>
       </c>
       <c r="F5">
-        <v>5.71672259389562</v>
+        <v>6.93461337927592</v>
       </c>
       <c r="G5">
-        <v>4.49979438103347</v>
+        <v>4.32532477552566</v>
       </c>
       <c r="H5">
-        <v>11.1749642571488</v>
+        <v>11.1926039696861</v>
       </c>
       <c r="I5">
-        <v>8.111558794110399</v>
+        <v>8.01894847549843</v>
       </c>
       <c r="J5">
-        <v>30.8256902160125</v>
+        <v>30.53800156549</v>
       </c>
       <c r="K5">
-        <v>10.9640863840972</v>
+        <v>9.9473466408263</v>
       </c>
       <c r="L5">
-        <v>22.3755419918615</v>
+        <v>20.5581044592663</v>
       </c>
       <c r="M5">
-        <v>20.414398415984</v>
+        <v>21.2874537220206</v>
       </c>
       <c r="N5">
-        <v>20.1168335184274</v>
+        <v>19.9982441690205</v>
       </c>
       <c r="O5">
-        <v>949.469792856705</v>
+        <v>905.17555738684</v>
       </c>
       <c r="P5">
-        <v>61.3617429656342</v>
+        <v>62.348767513736</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7320.43764147877</v>
+        <v>7975.88600541678</v>
       </c>
       <c r="C6">
-        <v>193.265743742489</v>
+        <v>195.497515202081</v>
       </c>
       <c r="D6">
-        <v>122.375519392445</v>
+        <v>114.015415267841</v>
       </c>
       <c r="E6">
-        <v>174.828774640063</v>
+        <v>176.95224527171</v>
       </c>
       <c r="F6">
-        <v>37.6005731838931</v>
+        <v>36.3061082315349</v>
       </c>
       <c r="G6">
-        <v>123.852940305744</v>
+        <v>119.321953620578</v>
       </c>
       <c r="H6">
-        <v>71.4195797387743</v>
+        <v>68.6921933067771</v>
       </c>
       <c r="I6">
-        <v>44.1781972887145</v>
+        <v>42.1459429965773</v>
       </c>
       <c r="J6">
-        <v>196.661074014674</v>
+        <v>191.388758715862</v>
       </c>
       <c r="K6">
-        <v>80.75987498433599</v>
+        <v>78.7192456047346</v>
       </c>
       <c r="L6">
-        <v>484.27283821824</v>
+        <v>478.584978350588</v>
       </c>
       <c r="M6">
-        <v>304.066978845137</v>
+        <v>288.865469647175</v>
       </c>
       <c r="N6">
-        <v>282.522222303994</v>
+        <v>268.706262710922</v>
       </c>
       <c r="O6">
-        <v>12990.6630878583</v>
+        <v>12515.8293830275</v>
       </c>
       <c r="P6">
-        <v>275.086340817709</v>
+        <v>290.836348269631</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>742.18604740627</v>
+        <v>799.324335963713</v>
       </c>
       <c r="C7">
-        <v>37.5472231849433</v>
+        <v>36.5294919798077</v>
       </c>
       <c r="D7">
-        <v>3.0580603636927</v>
+        <v>2.92716093577096</v>
       </c>
       <c r="E7">
-        <v>17.3464530068839</v>
+        <v>17.5322804086056</v>
       </c>
       <c r="F7">
-        <v>10.130159505532</v>
+        <v>11.0415629722877</v>
       </c>
       <c r="G7">
-        <v>6.72379020336897</v>
+        <v>6.40286142864969</v>
       </c>
       <c r="H7">
-        <v>4.62846184587585</v>
+        <v>4.22758186771269</v>
       </c>
       <c r="I7">
-        <v>9.91895153273323</v>
+        <v>9.712871218465899</v>
       </c>
       <c r="J7">
-        <v>13.6873099567532</v>
+        <v>13.1858947968899</v>
       </c>
       <c r="K7">
-        <v>7.98375069666868</v>
+        <v>7.46686263352139</v>
       </c>
       <c r="L7">
-        <v>54.2019546280388</v>
+        <v>52.7276151883974</v>
       </c>
       <c r="M7">
-        <v>17.0190247833108</v>
+        <v>16.3346278559252</v>
       </c>
       <c r="N7">
-        <v>30.7887073526484</v>
+        <v>29.7247150883822</v>
       </c>
       <c r="O7">
-        <v>1925.00586990322</v>
+        <v>1886.92671491098</v>
       </c>
       <c r="P7">
-        <v>19.489416716845</v>
+        <v>24.8711361193235</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>612.524330289338</v>
+        <v>677.397364071664</v>
       </c>
       <c r="C8">
-        <v>14.9614257350119</v>
+        <v>14.9537228037543</v>
       </c>
       <c r="D8">
-        <v>5.21379355590439</v>
+        <v>5.27083852378195</v>
       </c>
       <c r="E8">
-        <v>21.4453432085439</v>
+        <v>21.9444574437937</v>
       </c>
       <c r="F8">
-        <v>1.14070227254632</v>
+        <v>1.10024187791213</v>
       </c>
       <c r="G8">
-        <v>29.4100159967161</v>
+        <v>27.0429573670212</v>
       </c>
       <c r="H8">
-        <v>11.7709592831548</v>
+        <v>10.8478182106671</v>
       </c>
       <c r="I8">
-        <v>8.65667524591294</v>
+        <v>8.463846083007409</v>
       </c>
       <c r="J8">
-        <v>38.347622092818</v>
+        <v>38.0188152060437</v>
       </c>
       <c r="K8">
-        <v>17.8174691140731</v>
+        <v>16.3620618196072</v>
       </c>
       <c r="L8">
-        <v>51.7703608508104</v>
+        <v>49.1507975799183</v>
       </c>
       <c r="M8">
-        <v>52.3472794806756</v>
+        <v>48.6302393839386</v>
       </c>
       <c r="N8">
-        <v>25.8246743820126</v>
+        <v>23.5569311106393</v>
       </c>
       <c r="O8">
-        <v>1453.64781661694</v>
+        <v>1404.08949563399</v>
       </c>
       <c r="P8">
-        <v>4.43748455616623</v>
+        <v>4.61006005542804</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>218.278408650999</v>
+        <v>223.401439755892</v>
       </c>
       <c r="C9">
-        <v>9.681513063899789</v>
+        <v>9.33152704817878</v>
       </c>
       <c r="D9">
-        <v>3.18833760806924</v>
+        <v>2.96178897490036</v>
       </c>
       <c r="E9">
-        <v>4.69902948101002</v>
+        <v>4.52414933987963</v>
       </c>
       <c r="F9">
-        <v>1.50994173005902</v>
+        <v>1.34276924023866</v>
       </c>
       <c r="G9">
-        <v>28.3352322488301</v>
+        <v>25.1100136389033</v>
       </c>
       <c r="H9">
-        <v>5.15758694601889</v>
+        <v>4.63295101616081</v>
       </c>
       <c r="I9">
-        <v>1.24626780653602</v>
+        <v>1.09625025120949</v>
       </c>
       <c r="J9">
-        <v>6.73034881623016</v>
+        <v>6.16965260070892</v>
       </c>
       <c r="K9">
-        <v>2.45937635207478</v>
+        <v>2.24132406454412</v>
       </c>
       <c r="L9">
-        <v>4.01262418841403</v>
+        <v>3.77915269457869</v>
       </c>
       <c r="M9">
-        <v>10.0829765543291</v>
+        <v>9.475702101393679</v>
       </c>
       <c r="N9">
-        <v>6.27668385143749</v>
+        <v>5.57205109816002</v>
       </c>
       <c r="O9">
-        <v>428.201650754331</v>
+        <v>388.932576442999</v>
       </c>
       <c r="P9">
-        <v>6.54058013130466</v>
+        <v>6.03146906562026</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3899.49863886538</v>
+        <v>4316.91505293636</v>
       </c>
       <c r="C10">
-        <v>69.1025617649955</v>
+        <v>67.5140472271207</v>
       </c>
       <c r="D10">
-        <v>21.6074495125669</v>
+        <v>19.9369461211197</v>
       </c>
       <c r="E10">
-        <v>51.0363582604326</v>
+        <v>51.6967605086013</v>
       </c>
       <c r="F10">
-        <v>12.3625670491096</v>
+        <v>11.9917293077397</v>
       </c>
       <c r="G10">
-        <v>42.1973552920789</v>
+        <v>40.9759303993566</v>
       </c>
       <c r="H10">
-        <v>16.4295265741201</v>
+        <v>15.8929412625628</v>
       </c>
       <c r="I10">
-        <v>43.6952664782604</v>
+        <v>40.5856457957235</v>
       </c>
       <c r="J10">
-        <v>60.0869174718045</v>
+        <v>58.5843913433329</v>
       </c>
       <c r="K10">
-        <v>23.6550663073547</v>
+        <v>21.9804624856781</v>
       </c>
       <c r="L10">
-        <v>83.94263424439841</v>
+        <v>78.4785457068987</v>
       </c>
       <c r="M10">
-        <v>74.15163902785071</v>
+        <v>70.8011675513568</v>
       </c>
       <c r="N10">
-        <v>83.68862753055269</v>
+        <v>81.0779042518633</v>
       </c>
       <c r="O10">
-        <v>7318.37280671378</v>
+        <v>7011.30649344776</v>
       </c>
       <c r="P10">
-        <v>90.15434021835181</v>
+        <v>90.8907684119546</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1796.54834615088</v>
+        <v>1916.18960766045</v>
       </c>
       <c r="C11">
-        <v>64.6138935296776</v>
+        <v>65.2832263850033</v>
       </c>
       <c r="D11">
-        <v>179.981842266719</v>
+        <v>174.361482014328</v>
       </c>
       <c r="E11">
-        <v>64.7293659027938</v>
+        <v>65.365818952368</v>
       </c>
       <c r="F11">
-        <v>0.8314207973621091</v>
+        <v>0.86976158938653</v>
       </c>
       <c r="G11">
-        <v>27.8169691892267</v>
+        <v>29.0239776490287</v>
       </c>
       <c r="H11">
-        <v>16.1653706508615</v>
+        <v>16.7482786762464</v>
       </c>
       <c r="I11">
-        <v>15.0535257614117</v>
+        <v>14.6177767106737</v>
       </c>
       <c r="J11">
-        <v>44.1444559616028</v>
+        <v>43.9998496509711</v>
       </c>
       <c r="K11">
-        <v>17.2221895299924</v>
+        <v>16.2616613749246</v>
       </c>
       <c r="L11">
-        <v>57.4416162775559</v>
+        <v>56.6380046423314</v>
       </c>
       <c r="M11">
-        <v>35.5526553380004</v>
+        <v>35.1930128502612</v>
       </c>
       <c r="N11">
-        <v>52.2847311236844</v>
+        <v>51.907138849839</v>
       </c>
       <c r="O11">
-        <v>3225.53109987589</v>
+        <v>3124.4343272284</v>
       </c>
       <c r="P11">
-        <v>55.6262018191252</v>
+        <v>60.0975180142013</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>298.702154124314</v>
+        <v>316.330353753092</v>
       </c>
       <c r="C12">
-        <v>8.53855238779958</v>
+        <v>7.29237661116846</v>
       </c>
       <c r="D12">
-        <v>0.721240365703941</v>
+        <v>0.64800283481629</v>
       </c>
       <c r="E12">
-        <v>3.45641386855163</v>
+        <v>3.12843516459611</v>
       </c>
       <c r="F12">
-        <v>0.995440005477458</v>
+        <v>0.842648717697689</v>
       </c>
       <c r="G12">
-        <v>0.664924225454212</v>
+        <v>0.611521912298982</v>
       </c>
       <c r="H12">
-        <v>0.345128173344737</v>
+        <v>0.32546954985332</v>
       </c>
       <c r="I12">
-        <v>1.24105668506689</v>
+        <v>1.09242920595772</v>
       </c>
       <c r="J12">
-        <v>3.48102177177441</v>
+        <v>2.92818670326029</v>
       </c>
       <c r="K12">
-        <v>0.0438238958960174</v>
+        <v>0.0359117637011497</v>
       </c>
       <c r="L12">
-        <v>0.628289998792762</v>
+        <v>0.566064421933232</v>
       </c>
       <c r="M12">
-        <v>4.38233963524801</v>
+        <v>3.99547582410223</v>
       </c>
       <c r="N12">
-        <v>2.45571202677497</v>
+        <v>2.25938850438401</v>
       </c>
       <c r="O12">
-        <v>677.521324707434</v>
+        <v>615.690516393727</v>
       </c>
       <c r="P12">
-        <v>24.3977646915142</v>
+        <v>22.7633586514995</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>255.357705573931</v>
+        <v>274.080369987747</v>
       </c>
       <c r="C13">
-        <v>18.5478544156023</v>
+        <v>17.8811338651015</v>
       </c>
       <c r="D13">
-        <v>0.371981782949736</v>
+        <v>0.379359553134468</v>
       </c>
       <c r="E13">
-        <v>13.6429434716966</v>
+        <v>13.4229524346574</v>
       </c>
       <c r="F13">
-        <v>3.43801345860728</v>
+        <v>3.2814577117608</v>
       </c>
       <c r="G13">
-        <v>5.0485820289424</v>
+        <v>4.76576495830611</v>
       </c>
       <c r="H13">
-        <v>2.62504108396612</v>
+        <v>2.61185865894778</v>
       </c>
       <c r="I13">
-        <v>2.31474562563354</v>
+        <v>2.01264657956058</v>
       </c>
       <c r="J13">
-        <v>5.84614763111259</v>
+        <v>5.67123882435069</v>
       </c>
       <c r="K13">
-        <v>5.05549969228519</v>
+        <v>4.17326737226879</v>
       </c>
       <c r="L13">
-        <v>18.5583760069828</v>
+        <v>17.1362845357048</v>
       </c>
       <c r="M13">
-        <v>1.54649756873532</v>
+        <v>1.5350250803158</v>
       </c>
       <c r="N13">
-        <v>5.4441227217927</v>
+        <v>5.17832765503706</v>
       </c>
       <c r="O13">
-        <v>592.278004709768</v>
+        <v>559.330821543611</v>
       </c>
       <c r="P13">
-        <v>56.465775051983</v>
+        <v>53.7374097258548</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2434.7822943028</v>
+        <v>2666.97660783162</v>
       </c>
       <c r="C14">
-        <v>119.819423673754</v>
+        <v>117.915750811322</v>
       </c>
       <c r="D14">
-        <v>13.9144923223592</v>
+        <v>14.4181993255965</v>
       </c>
       <c r="E14">
-        <v>79.6150170982653</v>
+        <v>83.96220417302671</v>
       </c>
       <c r="F14">
-        <v>15.5679217567849</v>
+        <v>15.9706323253472</v>
       </c>
       <c r="G14">
-        <v>92.3254234716952</v>
+        <v>85.00408780328731</v>
       </c>
       <c r="H14">
-        <v>36.3649974849143</v>
+        <v>36.2283856304711</v>
       </c>
       <c r="I14">
-        <v>23.6978948020234</v>
+        <v>22.8162815052106</v>
       </c>
       <c r="J14">
-        <v>143.368684098991</v>
+        <v>144.571580640466</v>
       </c>
       <c r="K14">
-        <v>140.189694738062</v>
+        <v>136.543467953981</v>
       </c>
       <c r="L14">
-        <v>121.005159419048</v>
+        <v>119.410586048264</v>
       </c>
       <c r="M14">
-        <v>70.395854528477</v>
+        <v>70.2110849380922</v>
       </c>
       <c r="N14">
-        <v>102.14508107774</v>
+        <v>99.1589560678617</v>
       </c>
       <c r="O14">
-        <v>5018.81112289163</v>
+        <v>4815.81434082943</v>
       </c>
       <c r="P14">
-        <v>49.2433109301786</v>
+        <v>59.6789626568784</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1228.94613489915</v>
+        <v>1317.22666422402</v>
       </c>
       <c r="C15">
-        <v>37.8654821449789</v>
+        <v>38.6286939952992</v>
       </c>
       <c r="D15">
-        <v>15.4998215503728</v>
+        <v>14.7802727435627</v>
       </c>
       <c r="E15">
-        <v>79.3132380485211</v>
+        <v>78.2714384487804</v>
       </c>
       <c r="F15">
-        <v>21.967070266682</v>
+        <v>22.1764968857121</v>
       </c>
       <c r="G15">
-        <v>46.9127028815898</v>
+        <v>46.7053237380355</v>
       </c>
       <c r="H15">
-        <v>49.6905815121663</v>
+        <v>47.7963617119467</v>
       </c>
       <c r="I15">
-        <v>27.9050951373405</v>
+        <v>26.4079401779327</v>
       </c>
       <c r="J15">
-        <v>165.347837462221</v>
+        <v>159.709950331477</v>
       </c>
       <c r="K15">
-        <v>34.5247060432168</v>
+        <v>33.3755244242441</v>
       </c>
       <c r="L15">
-        <v>38.2591506305989</v>
+        <v>37.9103434567174</v>
       </c>
       <c r="M15">
-        <v>171.715586987599</v>
+        <v>178.836599041974</v>
       </c>
       <c r="N15">
-        <v>89.1830761969827</v>
+        <v>82.6747551900399</v>
       </c>
       <c r="O15">
-        <v>2217.20455648537</v>
+        <v>2140.15321055432</v>
       </c>
       <c r="P15">
-        <v>46.8594487465802</v>
+        <v>45.2300285031725</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>483.366895650186</v>
+        <v>539.78869076717</v>
       </c>
       <c r="C16">
-        <v>64.72125877880531</v>
+        <v>61.9592432340795</v>
       </c>
       <c r="D16">
-        <v>6.52409377295249</v>
+        <v>5.54700636107386</v>
       </c>
       <c r="E16">
-        <v>29.7882900039321</v>
+        <v>29.5844436912613</v>
       </c>
       <c r="F16">
-        <v>3.72482099919507</v>
+        <v>2.98212692616992</v>
       </c>
       <c r="G16">
-        <v>22.9757100142293</v>
+        <v>23.574266105332</v>
       </c>
       <c r="H16">
-        <v>12.2343936432738</v>
+        <v>12.9642763373588</v>
       </c>
       <c r="I16">
-        <v>9.876944515780391</v>
+        <v>9.947223440867109</v>
       </c>
       <c r="J16">
-        <v>50.6587038778214</v>
+        <v>49.519787609968</v>
       </c>
       <c r="K16">
-        <v>44.4385907715461</v>
+        <v>42.5179564968297</v>
       </c>
       <c r="L16">
-        <v>24.3799725432595</v>
+        <v>25.2640074461816</v>
       </c>
       <c r="M16">
-        <v>26.3790767894437</v>
+        <v>28.2004681426395</v>
       </c>
       <c r="N16">
-        <v>31.1138056855728</v>
+        <v>28.8850186707419</v>
       </c>
       <c r="O16">
-        <v>1278.77969469325</v>
+        <v>1199.06938034333</v>
       </c>
       <c r="P16">
-        <v>89.9542281214833</v>
+        <v>83.8249931617196</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>496.736110174938</v>
+        <v>543.259428029661</v>
       </c>
       <c r="C17">
-        <v>17.2780025985639</v>
+        <v>17.6801546073318</v>
       </c>
       <c r="D17">
-        <v>3.56955896927679</v>
+        <v>3.43428622227745</v>
       </c>
       <c r="E17">
-        <v>23.1330596277238</v>
+        <v>23.2075198054107</v>
       </c>
       <c r="F17">
-        <v>8.976386901425039</v>
+        <v>11.0767633366985</v>
       </c>
       <c r="G17">
-        <v>6.77980527130188</v>
+        <v>6.8838070430347</v>
       </c>
       <c r="H17">
-        <v>6.38494793494767</v>
+        <v>7.24481753508759</v>
       </c>
       <c r="I17">
-        <v>10.8566160894017</v>
+        <v>9.812349137684921</v>
       </c>
       <c r="J17">
-        <v>15.519962432651</v>
+        <v>15.1952188944802</v>
       </c>
       <c r="K17">
-        <v>10.4659738903571</v>
+        <v>10.0686274758533</v>
       </c>
       <c r="L17">
-        <v>9.46049067262822</v>
+        <v>8.88556014189909</v>
       </c>
       <c r="M17">
-        <v>64.45897350194549</v>
+        <v>61.7117071350179</v>
       </c>
       <c r="N17">
-        <v>15.5546116502554</v>
+        <v>15.3968689210127</v>
       </c>
       <c r="O17">
-        <v>1202.5323792694</v>
+        <v>1124.97010702759</v>
       </c>
       <c r="P17">
-        <v>53.7125545880567</v>
+        <v>55.4780905384869</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1133.3015377683</v>
+        <v>1190.21733195462</v>
       </c>
       <c r="C18">
-        <v>38.5365465180073</v>
+        <v>37.39755051176</v>
       </c>
       <c r="D18">
-        <v>4.9782957324522</v>
+        <v>5.17691765625828</v>
       </c>
       <c r="E18">
-        <v>32.8614056091951</v>
+        <v>34.0872397950065</v>
       </c>
       <c r="F18">
-        <v>30.0497061873599</v>
+        <v>27.9176438967921</v>
       </c>
       <c r="G18">
-        <v>26.9119228559517</v>
+        <v>24.2642751399657</v>
       </c>
       <c r="H18">
-        <v>18.4185593216178</v>
+        <v>18.7615180994962</v>
       </c>
       <c r="I18">
-        <v>2.85966580125216</v>
+        <v>2.9529622581498</v>
       </c>
       <c r="J18">
-        <v>44.9629688742025</v>
+        <v>44.4685270849013</v>
       </c>
       <c r="K18">
-        <v>14.7496615663963</v>
+        <v>14.1212294192069</v>
       </c>
       <c r="L18">
-        <v>40.885929818004</v>
+        <v>39.4737971280017</v>
       </c>
       <c r="M18">
-        <v>63.9475185863476</v>
+        <v>65.1325876431459</v>
       </c>
       <c r="N18">
-        <v>22.6251685729524</v>
+        <v>22.9432271295081</v>
       </c>
       <c r="O18">
-        <v>1541.68360553131</v>
+        <v>1451.00588529125</v>
       </c>
       <c r="P18">
-        <v>60.9307859791534</v>
+        <v>58.9567505122009</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1157.66748395436</v>
+        <v>1222.4045468732</v>
       </c>
       <c r="C19">
-        <v>31.0434538144154</v>
+        <v>29.9485458850795</v>
       </c>
       <c r="D19">
-        <v>10.3512270047406</v>
+        <v>10.0633196704322</v>
       </c>
       <c r="E19">
-        <v>43.8659344950624</v>
+        <v>45.6685310956986</v>
       </c>
       <c r="F19">
-        <v>98.1031890733978</v>
+        <v>93.62326593604131</v>
       </c>
       <c r="G19">
-        <v>42.7468418602064</v>
+        <v>42.9131026444405</v>
       </c>
       <c r="H19">
-        <v>7.27780277751854</v>
+        <v>7.47821474737993</v>
       </c>
       <c r="I19">
-        <v>1.44813884143707</v>
+        <v>1.41334753271605</v>
       </c>
       <c r="J19">
-        <v>16.9384787079721</v>
+        <v>16.9597936058756</v>
       </c>
       <c r="K19">
-        <v>11.2602159319125</v>
+        <v>10.9123127211301</v>
       </c>
       <c r="L19">
-        <v>3.67419398156533</v>
+        <v>3.86723939857716</v>
       </c>
       <c r="M19">
-        <v>31.6745630619331</v>
+        <v>31.8928296561032</v>
       </c>
       <c r="N19">
-        <v>12.7419441623396</v>
+        <v>13.0765719759599</v>
       </c>
       <c r="O19">
-        <v>1646.31736409831</v>
+        <v>1566.73906246318</v>
       </c>
       <c r="P19">
-        <v>46.2009853914632</v>
+        <v>45.9915978314185</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>284.745770946426</v>
+        <v>307.353638641828</v>
       </c>
       <c r="C20">
-        <v>9.889856295255029</v>
+        <v>9.52365906491158</v>
       </c>
       <c r="D20">
-        <v>7.74332314570506</v>
+        <v>7.71992623630251</v>
       </c>
       <c r="E20">
-        <v>36.191880998473</v>
+        <v>36.0594090470705</v>
       </c>
       <c r="F20">
-        <v>1.49377934468303</v>
+        <v>1.3579868318235</v>
       </c>
       <c r="G20">
-        <v>2.62563113889023</v>
+        <v>2.43406459542757</v>
       </c>
       <c r="H20">
-        <v>1.17647174080563</v>
+        <v>1.12711117925494</v>
       </c>
       <c r="I20">
-        <v>1.9027246938858</v>
+        <v>1.96483027374647</v>
       </c>
       <c r="J20">
-        <v>5.21315464800539</v>
+        <v>5.24226880315857</v>
       </c>
       <c r="K20">
-        <v>2.61003469324119</v>
+        <v>2.38428392053775</v>
       </c>
       <c r="L20">
-        <v>7.35626144556068</v>
+        <v>7.2413859488974</v>
       </c>
       <c r="M20">
-        <v>19.4025067412507</v>
+        <v>18.2400455729157</v>
       </c>
       <c r="N20">
-        <v>7.62909807090765</v>
+        <v>7.31041728136886</v>
       </c>
       <c r="O20">
-        <v>594.290822651069</v>
+        <v>555.519039947827</v>
       </c>
       <c r="P20">
-        <v>25.3132723287724</v>
+        <v>25.4817054009586</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1028.24793895443</v>
+        <v>1108.1026658305</v>
       </c>
       <c r="C21">
-        <v>28.5722401495497</v>
+        <v>28.6896828420496</v>
       </c>
       <c r="D21">
-        <v>3.36862988320882</v>
+        <v>3.41258070550838</v>
       </c>
       <c r="E21">
-        <v>17.6716666914244</v>
+        <v>17.8245986678494</v>
       </c>
       <c r="F21">
-        <v>4.98273569880035</v>
+        <v>4.72780452771039</v>
       </c>
       <c r="G21">
-        <v>16.9669557894555</v>
+        <v>16.0192317136597</v>
       </c>
       <c r="H21">
-        <v>7.35800053920866</v>
+        <v>6.77164070923214</v>
       </c>
       <c r="I21">
-        <v>15.0518410020768</v>
+        <v>15.4536790728199</v>
       </c>
       <c r="J21">
-        <v>24.3859033458852</v>
+        <v>24.4287174357962</v>
       </c>
       <c r="K21">
-        <v>3.02295243100702</v>
+        <v>2.88141687103921</v>
       </c>
       <c r="L21">
-        <v>25.3789842054071</v>
+        <v>24.9842694987818</v>
       </c>
       <c r="M21">
-        <v>23.7629164447951</v>
+        <v>21.7418194954367</v>
       </c>
       <c r="N21">
-        <v>21.851517946915</v>
+        <v>21.7980761097047</v>
       </c>
       <c r="O21">
-        <v>2416.59357697209</v>
+        <v>2350.42569699455</v>
       </c>
       <c r="P21">
-        <v>22.3637259711073</v>
+        <v>22.218922792077</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1184.92223941115</v>
+        <v>1290.31390594509</v>
       </c>
       <c r="C22">
-        <v>16.8541528021747</v>
+        <v>17.1310510971664</v>
       </c>
       <c r="D22">
-        <v>20.3524487624535</v>
+        <v>21.010755775425</v>
       </c>
       <c r="E22">
-        <v>45.4215718654393</v>
+        <v>47.5182280561672</v>
       </c>
       <c r="F22">
-        <v>3.81845850504684</v>
+        <v>3.84009264555957</v>
       </c>
       <c r="G22">
-        <v>33.3130797607836</v>
+        <v>31.4340895789472</v>
       </c>
       <c r="H22">
-        <v>15.020257413183</v>
+        <v>13.8359691420718</v>
       </c>
       <c r="I22">
-        <v>9.27528317745073</v>
+        <v>9.63418104859003</v>
       </c>
       <c r="J22">
-        <v>41.26542407901</v>
+        <v>39.4544364171993</v>
       </c>
       <c r="K22">
-        <v>20.6115792418035</v>
+        <v>19.7069200412138</v>
       </c>
       <c r="L22">
-        <v>133.338179395029</v>
+        <v>128.791280043854</v>
       </c>
       <c r="M22">
-        <v>16.0076751704349</v>
+        <v>14.6142902306754</v>
       </c>
       <c r="N22">
-        <v>80.0385989209297</v>
+        <v>75.540666412307</v>
       </c>
       <c r="O22">
-        <v>2688.4234583033</v>
+        <v>2609.84785104762</v>
       </c>
       <c r="P22">
-        <v>10.1699028363514</v>
+        <v>10.5591622327917</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2285.42880821946</v>
+        <v>2474.40033728762</v>
       </c>
       <c r="C23">
-        <v>37.3978795924493</v>
+        <v>37.510512346907</v>
       </c>
       <c r="D23">
-        <v>8.260794203808819</v>
+        <v>7.87594987782078</v>
       </c>
       <c r="E23">
-        <v>39.1903276950335</v>
+        <v>40.6076875636832</v>
       </c>
       <c r="F23">
-        <v>5.06866877907498</v>
+        <v>5.95039991876851</v>
       </c>
       <c r="G23">
-        <v>64.777073554542</v>
+        <v>60.7613633290915</v>
       </c>
       <c r="H23">
-        <v>58.0954019494442</v>
+        <v>56.778198906963</v>
       </c>
       <c r="I23">
-        <v>10.024919903118</v>
+        <v>9.49402178299167</v>
       </c>
       <c r="J23">
-        <v>128.287767742589</v>
+        <v>126.477354577213</v>
       </c>
       <c r="K23">
-        <v>83.0097013908281</v>
+        <v>76.8133434893121</v>
       </c>
       <c r="L23">
-        <v>40.0661485343661</v>
+        <v>37.903966268286</v>
       </c>
       <c r="M23">
-        <v>562.6376036948</v>
+        <v>533.908361392312</v>
       </c>
       <c r="N23">
-        <v>88.53403932954311</v>
+        <v>83.7678815556559</v>
       </c>
       <c r="O23">
-        <v>3517.85278942343</v>
+        <v>3361.65436944919</v>
       </c>
       <c r="P23">
-        <v>44.1772201049235</v>
+        <v>47.4385737103185</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>771.643229758984</v>
+        <v>850.368178772103</v>
       </c>
       <c r="C24">
-        <v>52.6896445620561</v>
+        <v>56.9411223803597</v>
       </c>
       <c r="D24">
-        <v>5.82674079175704</v>
+        <v>5.47820689282409</v>
       </c>
       <c r="E24">
-        <v>56.6605303176874</v>
+        <v>58.1059480198203</v>
       </c>
       <c r="F24">
-        <v>12.2021855370222</v>
+        <v>12.3010757222856</v>
       </c>
       <c r="G24">
-        <v>28.6970813054484</v>
+        <v>28.470302036639</v>
       </c>
       <c r="H24">
-        <v>13.7840311871305</v>
+        <v>13.6054234991899</v>
       </c>
       <c r="I24">
-        <v>18.6580548249874</v>
+        <v>18.7033287364899</v>
       </c>
       <c r="J24">
-        <v>55.1847253343316</v>
+        <v>56.8158854736436</v>
       </c>
       <c r="K24">
-        <v>36.5371116326576</v>
+        <v>33.8905868533282</v>
       </c>
       <c r="L24">
-        <v>68.95149086781071</v>
+        <v>70.15049843838141</v>
       </c>
       <c r="M24">
-        <v>31.8392781892789</v>
+        <v>33.1069246488252</v>
       </c>
       <c r="N24">
-        <v>74.17273380309879</v>
+        <v>71.9481618158721</v>
       </c>
       <c r="O24">
-        <v>2053.09450087258</v>
+        <v>1979.53364567921</v>
       </c>
       <c r="P24">
-        <v>101.282406953057</v>
+        <v>104.283547009713</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>769.3528845989</v>
+        <v>823.930187078314</v>
       </c>
       <c r="C25">
-        <v>47.7922585750286</v>
+        <v>42.3640349780893</v>
       </c>
       <c r="D25">
-        <v>14.5031834257461</v>
+        <v>13.8561991408015</v>
       </c>
       <c r="E25">
-        <v>45.0291591152197</v>
+        <v>41.8118981167144</v>
       </c>
       <c r="F25">
-        <v>18.6222729491777</v>
+        <v>15.9074388199397</v>
       </c>
       <c r="G25">
-        <v>9.723383317884119</v>
+        <v>9.462686132934641</v>
       </c>
       <c r="H25">
-        <v>10.2505588854336</v>
+        <v>9.76487515883994</v>
       </c>
       <c r="I25">
-        <v>6.0540645323099</v>
+        <v>5.76732087177905</v>
       </c>
       <c r="J25">
-        <v>16.9505549450921</v>
+        <v>16.0722053760352</v>
       </c>
       <c r="K25">
-        <v>11.3028878331623</v>
+        <v>10.0059857034985</v>
       </c>
       <c r="L25">
-        <v>17.0219830199878</v>
+        <v>17.2714589519638</v>
       </c>
       <c r="M25">
-        <v>42.8633101490586</v>
+        <v>41.690675430577</v>
       </c>
       <c r="N25">
-        <v>33.8513037086116</v>
+        <v>36.461533583676</v>
       </c>
       <c r="O25">
-        <v>1042.81537450459</v>
+        <v>966.63871398638</v>
       </c>
       <c r="P25">
-        <v>44.5336660547171</v>
+        <v>43.7219677134255</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1052.50448527175</v>
+        <v>1180.25114977392</v>
       </c>
       <c r="C26">
-        <v>60.4543153810258</v>
+        <v>59.0606163670818</v>
       </c>
       <c r="D26">
-        <v>8.395446566618761</v>
+        <v>8.982580887006209</v>
       </c>
       <c r="E26">
-        <v>45.332310574492</v>
+        <v>50.1110818575286</v>
       </c>
       <c r="F26">
-        <v>8.337400597498901</v>
+        <v>9.297425699955371</v>
       </c>
       <c r="G26">
-        <v>36.1608382625368</v>
+        <v>33.311738234699</v>
       </c>
       <c r="H26">
-        <v>16.0686251791227</v>
+        <v>16.5815235481887</v>
       </c>
       <c r="I26">
-        <v>19.3853386212209</v>
+        <v>18.2811993143914</v>
       </c>
       <c r="J26">
-        <v>46.1993645004689</v>
+        <v>44.5939255204455</v>
       </c>
       <c r="K26">
-        <v>17.8356078758908</v>
+        <v>16.3984013645109</v>
       </c>
       <c r="L26">
-        <v>23.7534071733073</v>
+        <v>24.8015436733355</v>
       </c>
       <c r="M26">
-        <v>88.0413821761891</v>
+        <v>88.9301359724565</v>
       </c>
       <c r="N26">
-        <v>18.4456531742586</v>
+        <v>18.9493442372519</v>
       </c>
       <c r="O26">
-        <v>2345.96235665434</v>
+        <v>2225.76133805923</v>
       </c>
       <c r="P26">
-        <v>65.7545128094512</v>
+        <v>70.4699440194164</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>223.85433366386</v>
+        <v>236.679879131826</v>
       </c>
       <c r="C27">
-        <v>2.78954916650277</v>
+        <v>2.50994020652764</v>
       </c>
       <c r="D27">
-        <v>1.88304645245956</v>
+        <v>1.84791223840855</v>
       </c>
       <c r="E27">
-        <v>13.8147523755385</v>
+        <v>12.7760858058183</v>
       </c>
       <c r="F27">
-        <v>6.13170204680496</v>
+        <v>5.86420424935532</v>
       </c>
       <c r="G27">
-        <v>1.04119117712865</v>
+        <v>0.9535448859399121</v>
       </c>
       <c r="H27">
-        <v>0.291071645459656</v>
+        <v>0.261289336462774</v>
       </c>
       <c r="I27">
-        <v>3.28903848321794</v>
+        <v>2.69782910383714</v>
       </c>
       <c r="J27">
-        <v>3.37196978795086</v>
+        <v>3.17235784229221</v>
       </c>
       <c r="K27">
-        <v>1.60850905036082</v>
+        <v>1.57100677640947</v>
       </c>
       <c r="L27">
-        <v>2.10220628398185</v>
+        <v>1.97446753086927</v>
       </c>
       <c r="M27">
-        <v>0.798018146557408</v>
+        <v>0.734044990717341</v>
       </c>
       <c r="N27">
-        <v>4.17136383731958</v>
+        <v>3.76645448285531</v>
       </c>
       <c r="O27">
-        <v>459.604434140843</v>
+        <v>420.839569781939</v>
       </c>
       <c r="P27">
-        <v>53.9459829832547</v>
+        <v>52.3020215016908</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>275.881724509524</v>
+        <v>306.177901237495</v>
       </c>
       <c r="C28">
-        <v>36.2257138870329</v>
+        <v>35.6883177664838</v>
       </c>
       <c r="D28">
-        <v>5.61659710423127</v>
+        <v>4.44501269256419</v>
       </c>
       <c r="E28">
-        <v>6.73752655403222</v>
+        <v>6.72205874257045</v>
       </c>
       <c r="F28">
-        <v>2.27984893274645</v>
+        <v>2.26945013410438</v>
       </c>
       <c r="G28">
-        <v>4.93532924341581</v>
+        <v>4.40960919857365</v>
       </c>
       <c r="H28">
-        <v>9.732082425807411</v>
+        <v>9.437529325885439</v>
       </c>
       <c r="I28">
-        <v>2.26509177185599</v>
+        <v>2.14136877789976</v>
       </c>
       <c r="J28">
-        <v>20.3885005556249</v>
+        <v>19.6801834787704</v>
       </c>
       <c r="K28">
-        <v>11.8374563680873</v>
+        <v>11.6019471097208</v>
       </c>
       <c r="L28">
-        <v>14.9618806827237</v>
+        <v>13.4640846574711</v>
       </c>
       <c r="M28">
-        <v>8.6236702795602</v>
+        <v>9.11760667935153</v>
       </c>
       <c r="N28">
-        <v>11.4991047176683</v>
+        <v>11.0273988562283</v>
       </c>
       <c r="O28">
-        <v>805.945984461174</v>
+        <v>751.569483330429</v>
       </c>
       <c r="P28">
-        <v>84.4889968161243</v>
+        <v>82.23040170697941</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>436.167556001978</v>
+        <v>472.010596111029</v>
       </c>
       <c r="C29">
-        <v>4.43999245158412</v>
+        <v>4.49269919247083</v>
       </c>
       <c r="D29">
-        <v>3.86736614572918</v>
+        <v>3.63754668053247</v>
       </c>
       <c r="E29">
-        <v>5.07629900044443</v>
+        <v>5.11885119869748</v>
       </c>
       <c r="F29">
-        <v>25.1102168389052</v>
+        <v>24.7217896470289</v>
       </c>
       <c r="G29">
-        <v>4.08515812181679</v>
+        <v>3.81814388437392</v>
       </c>
       <c r="H29">
-        <v>3.14889151408977</v>
+        <v>3.1502766695042</v>
       </c>
       <c r="I29">
-        <v>1.96223071647973</v>
+        <v>1.71215117753449</v>
       </c>
       <c r="J29">
-        <v>5.78222250533641</v>
+        <v>6.08509920995291</v>
       </c>
       <c r="K29">
-        <v>1.67859736322812</v>
+        <v>1.44617987237146</v>
       </c>
       <c r="L29">
-        <v>3.57227736852589</v>
+        <v>3.50811122630164</v>
       </c>
       <c r="M29">
-        <v>2.96890097931991</v>
+        <v>2.75364042123839</v>
       </c>
       <c r="N29">
-        <v>13.8265397795889</v>
+        <v>13.2087783766442</v>
       </c>
       <c r="O29">
-        <v>1055.3646757081</v>
+        <v>995.876080818359</v>
       </c>
       <c r="P29">
-        <v>6.33185494377603</v>
+        <v>6.57049414429268</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>243.14446698151</v>
+        <v>257.693616175602</v>
       </c>
       <c r="C30">
-        <v>3.60105776612897</v>
+        <v>3.48360764834232</v>
       </c>
       <c r="D30">
-        <v>7.61173587672202</v>
+        <v>7.12384455183329</v>
       </c>
       <c r="E30">
-        <v>15.9459159713213</v>
+        <v>15.6754443012327</v>
       </c>
       <c r="F30">
-        <v>1.19029340674868</v>
+        <v>1.13969695047974</v>
       </c>
       <c r="G30">
-        <v>5.21763897346018</v>
+        <v>4.95984268634789</v>
       </c>
       <c r="H30">
-        <v>6.18131784885674</v>
+        <v>5.95884670017577</v>
       </c>
       <c r="I30">
-        <v>2.64472930182165</v>
+        <v>2.42340436613882</v>
       </c>
       <c r="J30">
-        <v>17.6489314343839</v>
+        <v>17.0837084229902</v>
       </c>
       <c r="K30">
-        <v>9.42479669072539</v>
+        <v>8.394371458580199</v>
       </c>
       <c r="L30">
-        <v>42.5781857685034</v>
+        <v>40.4476700068172</v>
       </c>
       <c r="M30">
-        <v>11.7281546339014</v>
+        <v>10.964656171805</v>
       </c>
       <c r="N30">
-        <v>13.9159942377933</v>
+        <v>13.1769897141784</v>
       </c>
       <c r="O30">
-        <v>594.215897401332</v>
+        <v>559.327110939385</v>
       </c>
       <c r="P30">
-        <v>10.4336041063505</v>
+        <v>10.4941455653999</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1694.02726959366</v>
+        <v>1841.17781011664</v>
       </c>
       <c r="C31">
-        <v>56.9386983825536</v>
+        <v>55.4554502810284</v>
       </c>
       <c r="D31">
-        <v>25.6328665460715</v>
+        <v>25.3812589767397</v>
       </c>
       <c r="E31">
-        <v>46.8360958512879</v>
+        <v>49.8583423953295</v>
       </c>
       <c r="F31">
-        <v>9.73457909781542</v>
+        <v>10.8116331437169</v>
       </c>
       <c r="G31">
-        <v>107.384401519101</v>
+        <v>105.859531335814</v>
       </c>
       <c r="H31">
-        <v>11.3650464542987</v>
+        <v>11.0420012440069</v>
       </c>
       <c r="I31">
-        <v>33.0224555772057</v>
+        <v>33.1044966782294</v>
       </c>
       <c r="J31">
-        <v>37.319096873936</v>
+        <v>38.1512969758256</v>
       </c>
       <c r="K31">
-        <v>12.8909313400222</v>
+        <v>11.9538914625984</v>
       </c>
       <c r="L31">
-        <v>75.2016677356972</v>
+        <v>73.77564289050901</v>
       </c>
       <c r="M31">
-        <v>16.7874165749655</v>
+        <v>17.0324435327254</v>
       </c>
       <c r="N31">
-        <v>54.6372163605656</v>
+        <v>53.4509743948387</v>
       </c>
       <c r="O31">
-        <v>3671.8725273569</v>
+        <v>3544.50972212462</v>
       </c>
       <c r="P31">
-        <v>7.7171765506319</v>
+        <v>8.583767534767929</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>450.364767972872</v>
+        <v>483.254515778521</v>
       </c>
       <c r="C32">
-        <v>4.62697401364157</v>
+        <v>4.58924361994507</v>
       </c>
       <c r="D32">
-        <v>0.613427501210859</v>
+        <v>0.540601211537892</v>
       </c>
       <c r="E32">
-        <v>2.31952940722997</v>
+        <v>3.50217326120586</v>
       </c>
       <c r="F32">
-        <v>26.1472743949904</v>
+        <v>23.8180717829048</v>
       </c>
       <c r="G32">
-        <v>3.88190183742533</v>
+        <v>3.25329619598102</v>
       </c>
       <c r="H32">
-        <v>1.20244489042677</v>
+        <v>1.18661658329883</v>
       </c>
       <c r="I32">
-        <v>3.89284945289145</v>
+        <v>3.96508753201829</v>
       </c>
       <c r="J32">
-        <v>4.62607627850136</v>
+        <v>4.26232444739557</v>
       </c>
       <c r="K32">
-        <v>1.45101188755818</v>
+        <v>1.33008494463989</v>
       </c>
       <c r="L32">
-        <v>18.0928145242069</v>
+        <v>16.66888036575</v>
       </c>
       <c r="M32">
-        <v>2.59742592639584</v>
+        <v>2.47246250177935</v>
       </c>
       <c r="N32">
-        <v>9.444221375905441</v>
+        <v>9.15607113645126</v>
       </c>
       <c r="O32">
-        <v>791.930477842278</v>
+        <v>751.631941602803</v>
       </c>
       <c r="P32">
-        <v>22.6577654868227</v>
+        <v>21.8156334090458</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4384.84400889599</v>
+        <v>4727.93218398531</v>
       </c>
       <c r="C33">
-        <v>87.8446494833275</v>
+        <v>88.0429166926222</v>
       </c>
       <c r="D33">
-        <v>61.4025919558692</v>
+        <v>58.5345835580947</v>
       </c>
       <c r="E33">
-        <v>82.4108830795462</v>
+        <v>89.59363091418339</v>
       </c>
       <c r="F33">
-        <v>8.604080745433521</v>
+        <v>8.20724455860158</v>
       </c>
       <c r="G33">
-        <v>77.5327412835703</v>
+        <v>77.700776326509</v>
       </c>
       <c r="H33">
-        <v>36.480412691694</v>
+        <v>35.2203486749939</v>
       </c>
       <c r="I33">
-        <v>28.5465556975129</v>
+        <v>28.0517654033774</v>
       </c>
       <c r="J33">
-        <v>103.377539341503</v>
+        <v>103.812822645531</v>
       </c>
       <c r="K33">
-        <v>76.6761435347552</v>
+        <v>75.8252159024172</v>
       </c>
       <c r="L33">
-        <v>120.323376431635</v>
+        <v>119.008169813705</v>
       </c>
       <c r="M33">
-        <v>65.7118382861115</v>
+        <v>64.3577383865334</v>
       </c>
       <c r="N33">
-        <v>153.55769505126</v>
+        <v>146.777385623494</v>
       </c>
       <c r="O33">
-        <v>7642.99281324183</v>
+        <v>7354.94040722337</v>
       </c>
       <c r="P33">
-        <v>57.6349417888572</v>
+        <v>62.8692226165291</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1828.66729574661</v>
+        <v>1964.56463511157</v>
       </c>
       <c r="C34">
-        <v>75.0225658934535</v>
+        <v>72.78332547460759</v>
       </c>
       <c r="D34">
-        <v>147.558673169986</v>
+        <v>145.990374936199</v>
       </c>
       <c r="E34">
-        <v>39.491111923491</v>
+        <v>41.5292235141589</v>
       </c>
       <c r="F34">
-        <v>3.64317143599213</v>
+        <v>3.73087684845511</v>
       </c>
       <c r="G34">
-        <v>47.8501267104049</v>
+        <v>45.4955157628334</v>
       </c>
       <c r="H34">
-        <v>47.9155737035208</v>
+        <v>46.0886356783589</v>
       </c>
       <c r="I34">
-        <v>18.7321130951494</v>
+        <v>18.8489766770327</v>
       </c>
       <c r="J34">
-        <v>50.1291356899765</v>
+        <v>48.3903621060122</v>
       </c>
       <c r="K34">
-        <v>32.9570242192903</v>
+        <v>30.6994077423152</v>
       </c>
       <c r="L34">
-        <v>104.686019098307</v>
+        <v>99.24530918192529</v>
       </c>
       <c r="M34">
-        <v>31.1124822333276</v>
+        <v>32.829390239878</v>
       </c>
       <c r="N34">
-        <v>128.242183509038</v>
+        <v>125.184991242337</v>
       </c>
       <c r="O34">
-        <v>3049.42151038453</v>
+        <v>2937.10699923655</v>
       </c>
       <c r="P34">
-        <v>69.4193085013308</v>
+        <v>67.8368261603171</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>121.551090629632</v>
+        <v>134.620268903363</v>
       </c>
       <c r="C35">
-        <v>9.25201507993725</v>
+        <v>8.85251738165589</v>
       </c>
       <c r="D35">
-        <v>0.690080205145895</v>
+        <v>0.64929303825865</v>
       </c>
       <c r="E35">
-        <v>2.82091608477395</v>
+        <v>2.4731636087822</v>
       </c>
       <c r="F35">
-        <v>4.32854838978467</v>
+        <v>4.19865940543619</v>
       </c>
       <c r="G35">
-        <v>1.98206011439521</v>
+        <v>1.85003308045199</v>
       </c>
       <c r="H35">
-        <v>0.200408303258147</v>
+        <v>0.175654637005</v>
       </c>
       <c r="I35">
-        <v>1.85067839385722</v>
+        <v>1.69415467230304</v>
       </c>
       <c r="J35">
-        <v>3.62344851709002</v>
+        <v>3.29128579590963</v>
       </c>
       <c r="K35">
-        <v>6.49802778548903</v>
+        <v>6.11419036690594</v>
       </c>
       <c r="L35">
-        <v>3.12744986922665</v>
+        <v>2.77655348151969</v>
       </c>
       <c r="M35">
-        <v>2.16830797935711</v>
+        <v>2.04064439992247</v>
       </c>
       <c r="N35">
-        <v>3.95344371698077</v>
+        <v>3.61708500429537</v>
       </c>
       <c r="O35">
-        <v>324.029613064797</v>
+        <v>297.320398829641</v>
       </c>
       <c r="P35">
-        <v>51.6730843661892</v>
+        <v>48.1645748883114</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2444.25383166771</v>
+        <v>2640.67763290966</v>
       </c>
       <c r="C36">
-        <v>43.8309592149904</v>
+        <v>44.3445053925295</v>
       </c>
       <c r="D36">
-        <v>16.6457167535716</v>
+        <v>17.0145413068861</v>
       </c>
       <c r="E36">
-        <v>116.801061845547</v>
+        <v>122.126872332715</v>
       </c>
       <c r="F36">
-        <v>33.0098866854886</v>
+        <v>29.6338846287609</v>
       </c>
       <c r="G36">
-        <v>96.36058740097511</v>
+        <v>93.1556616453716</v>
       </c>
       <c r="H36">
-        <v>87.5054525375825</v>
+        <v>87.1471712474771</v>
       </c>
       <c r="I36">
-        <v>38.7310255380877</v>
+        <v>38.6120003693094</v>
       </c>
       <c r="J36">
-        <v>190.767842315668</v>
+        <v>195.198963427115</v>
       </c>
       <c r="K36">
-        <v>78.6576626697677</v>
+        <v>72.96150048725789</v>
       </c>
       <c r="L36">
-        <v>76.88576748204</v>
+        <v>73.88537194236641</v>
       </c>
       <c r="M36">
-        <v>216.248825804661</v>
+        <v>216.870445443877</v>
       </c>
       <c r="N36">
-        <v>97.98516783974721</v>
+        <v>95.1927317563551</v>
       </c>
       <c r="O36">
-        <v>4364.58366405633</v>
+        <v>4174.99315832101</v>
       </c>
       <c r="P36">
-        <v>43.1130577090376</v>
+        <v>45.2127955515515</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>769.693634130106</v>
+        <v>831.412688357848</v>
       </c>
       <c r="C37">
-        <v>19.8556644573962</v>
+        <v>19.9588169769331</v>
       </c>
       <c r="D37">
-        <v>3.3090857972164</v>
+        <v>3.11104964977343</v>
       </c>
       <c r="E37">
-        <v>20.6513048196679</v>
+        <v>20.5629221960264</v>
       </c>
       <c r="F37">
-        <v>27.4605851993096</v>
+        <v>27.6045795819004</v>
       </c>
       <c r="G37">
-        <v>7.31657368798079</v>
+        <v>7.031539956076</v>
       </c>
       <c r="H37">
-        <v>26.7203230354656</v>
+        <v>25.6551923666787</v>
       </c>
       <c r="I37">
-        <v>12.290268797987</v>
+        <v>11.3206347420071</v>
       </c>
       <c r="J37">
-        <v>37.3818934250729</v>
+        <v>38.9014525244056</v>
       </c>
       <c r="K37">
-        <v>32.2295300458672</v>
+        <v>29.1807140950846</v>
       </c>
       <c r="L37">
-        <v>24.4209996207062</v>
+        <v>23.218734555325</v>
       </c>
       <c r="M37">
-        <v>42.324159777945</v>
+        <v>42.4403657948585</v>
       </c>
       <c r="N37">
-        <v>21.628147966448</v>
+        <v>20.9647623446516</v>
       </c>
       <c r="O37">
-        <v>1263.3836020447</v>
+        <v>1228.08177343568</v>
       </c>
       <c r="P37">
-        <v>58.7483687798627</v>
+        <v>57.9720676057931</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>771.546843680589</v>
+        <v>835.509426451924</v>
       </c>
       <c r="C38">
-        <v>23.117507631704</v>
+        <v>22.6004958115812</v>
       </c>
       <c r="D38">
-        <v>11.5758029553482</v>
+        <v>10.6996107191804</v>
       </c>
       <c r="E38">
-        <v>47.3185006700328</v>
+        <v>51.8761474209448</v>
       </c>
       <c r="F38">
-        <v>2.2874882904439</v>
+        <v>2.08354345893774</v>
       </c>
       <c r="G38">
-        <v>7.78950827658497</v>
+        <v>7.48435892812794</v>
       </c>
       <c r="H38">
-        <v>3.76699461003584</v>
+        <v>3.39965659568806</v>
       </c>
       <c r="I38">
-        <v>2.54914326703085</v>
+        <v>2.74665212665678</v>
       </c>
       <c r="J38">
-        <v>42.6346481780665</v>
+        <v>40.0078448086366</v>
       </c>
       <c r="K38">
-        <v>4.53239555727466</v>
+        <v>4.46020801185924</v>
       </c>
       <c r="L38">
-        <v>62.1933536132701</v>
+        <v>58.9723587485923</v>
       </c>
       <c r="M38">
-        <v>17.4753852126237</v>
+        <v>16.574791719598</v>
       </c>
       <c r="N38">
-        <v>35.230777427364</v>
+        <v>33.7428061857279</v>
       </c>
       <c r="O38">
-        <v>1377.28786784643</v>
+        <v>1326.35946164705</v>
       </c>
       <c r="P38">
-        <v>64.0786613489736</v>
+        <v>64.1273859014009</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2744.27012594879</v>
+        <v>2993.9916120964</v>
       </c>
       <c r="C39">
-        <v>95.521900629275</v>
+        <v>91.5556714295488</v>
       </c>
       <c r="D39">
-        <v>44.1265423384052</v>
+        <v>43.3574923733829</v>
       </c>
       <c r="E39">
-        <v>119.394712213723</v>
+        <v>127.760355921252</v>
       </c>
       <c r="F39">
-        <v>22.5789779780326</v>
+        <v>23.8113802310332</v>
       </c>
       <c r="G39">
-        <v>129.139095825312</v>
+        <v>122.070719633283</v>
       </c>
       <c r="H39">
-        <v>55.7529794435077</v>
+        <v>57.0044480337977</v>
       </c>
       <c r="I39">
-        <v>38.477048054942</v>
+        <v>38.4967232228753</v>
       </c>
       <c r="J39">
-        <v>150.132204716446</v>
+        <v>154.41162070749</v>
       </c>
       <c r="K39">
-        <v>94.41343290684669</v>
+        <v>90.6033978687435</v>
       </c>
       <c r="L39">
-        <v>99.70667747534139</v>
+        <v>98.0218441817284</v>
       </c>
       <c r="M39">
-        <v>68.0707167550849</v>
+        <v>68.03097848581061</v>
       </c>
       <c r="N39">
-        <v>114.180348900504</v>
+        <v>111.877833002726</v>
       </c>
       <c r="O39">
-        <v>4854.26520830001</v>
+        <v>4614.56049093855</v>
       </c>
       <c r="P39">
-        <v>49.9063964994737</v>
+        <v>53.559968660377</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>246.966877594612</v>
+        <v>262.42070628389</v>
       </c>
       <c r="C40">
-        <v>4.35094373817397</v>
+        <v>4.27086689280957</v>
       </c>
       <c r="D40">
-        <v>9.30867820180233</v>
+        <v>8.91760680898685</v>
       </c>
       <c r="E40">
-        <v>5.40530368592823</v>
+        <v>5.34477429263367</v>
       </c>
       <c r="F40">
-        <v>0.537551116153729</v>
+        <v>0.507730421254325</v>
       </c>
       <c r="G40">
-        <v>5.59889932978002</v>
+        <v>5.08311257504409</v>
       </c>
       <c r="H40">
-        <v>4.66616014640853</v>
+        <v>4.2069605071983</v>
       </c>
       <c r="I40">
-        <v>1.67323666619544</v>
+        <v>1.54778501378663</v>
       </c>
       <c r="J40">
-        <v>10.6751794103298</v>
+        <v>10.2823772508886</v>
       </c>
       <c r="K40">
-        <v>3.97715202987725</v>
+        <v>3.62607227427771</v>
       </c>
       <c r="L40">
-        <v>17.3212030066665</v>
+        <v>16.4388548360206</v>
       </c>
       <c r="M40">
-        <v>5.58023844333882</v>
+        <v>5.12857140698317</v>
       </c>
       <c r="N40">
-        <v>25.1464844028458</v>
+        <v>23.3164249837937</v>
       </c>
       <c r="O40">
-        <v>527.086477740606</v>
+        <v>484.757500824108</v>
       </c>
       <c r="P40">
-        <v>2.48251076134662</v>
+        <v>2.68312378240917</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>956.744921850761</v>
+        <v>1030.18674564529</v>
       </c>
       <c r="C41">
-        <v>10.5308257514105</v>
+        <v>12.2273819672851</v>
       </c>
       <c r="D41">
-        <v>73.7768157694081</v>
+        <v>73.53597524991051</v>
       </c>
       <c r="E41">
-        <v>29.370745534247</v>
+        <v>30.0648674027725</v>
       </c>
       <c r="F41">
-        <v>1.04047001714798</v>
+        <v>0.9897608551484161</v>
       </c>
       <c r="G41">
-        <v>26.7077911485842</v>
+        <v>25.5056147313946</v>
       </c>
       <c r="H41">
-        <v>37.1837092216324</v>
+        <v>35.8537676881042</v>
       </c>
       <c r="I41">
-        <v>18.8518309288369</v>
+        <v>18.5792960051571</v>
       </c>
       <c r="J41">
-        <v>42.1023842578853</v>
+        <v>40.1186616945561</v>
       </c>
       <c r="K41">
-        <v>12.2141025650175</v>
+        <v>11.6694189684368</v>
       </c>
       <c r="L41">
-        <v>32.3308767991388</v>
+        <v>30.743664760864</v>
       </c>
       <c r="M41">
-        <v>23.0811488817055</v>
+        <v>22.6732646576178</v>
       </c>
       <c r="N41">
-        <v>20.2828424500022</v>
+        <v>19.8335473523799</v>
       </c>
       <c r="O41">
-        <v>1501.95009420255</v>
+        <v>1449.60095513696</v>
       </c>
       <c r="P41">
-        <v>36.4749884342236</v>
+        <v>35.39315671313</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>136.302963259706</v>
+        <v>146.541503684585</v>
       </c>
       <c r="C42">
-        <v>7.12834559082286</v>
+        <v>6.80394778888065</v>
       </c>
       <c r="D42">
-        <v>2.19653396543173</v>
+        <v>2.08414732116968</v>
       </c>
       <c r="E42">
-        <v>7.6010080473624</v>
+        <v>7.32478159509105</v>
       </c>
       <c r="F42">
-        <v>3.1359736327089</v>
+        <v>2.93013229140491</v>
       </c>
       <c r="G42">
-        <v>1.94236648886824</v>
+        <v>1.67257939224212</v>
       </c>
       <c r="H42">
-        <v>0.696855750816634</v>
+        <v>0.688006798825235</v>
       </c>
       <c r="I42">
-        <v>1.03543592126905</v>
+        <v>1.05153877231491</v>
       </c>
       <c r="J42">
-        <v>4.32217162382288</v>
+        <v>4.00606050786329</v>
       </c>
       <c r="K42">
-        <v>5.92399146470781</v>
+        <v>5.13458565921309</v>
       </c>
       <c r="L42">
-        <v>10.1167020024185</v>
+        <v>8.9811233769871</v>
       </c>
       <c r="M42">
-        <v>4.55916314051498</v>
+        <v>4.20550583961886</v>
       </c>
       <c r="N42">
-        <v>10.2851936023297</v>
+        <v>9.880445072093771</v>
       </c>
       <c r="O42">
-        <v>431.67841726905</v>
+        <v>381.688493208822</v>
       </c>
       <c r="P42">
-        <v>60.038368269637</v>
+        <v>57.5922037723128</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1372.42258195112</v>
+        <v>1480.96139689324</v>
       </c>
       <c r="C43">
-        <v>40.5313515662986</v>
+        <v>43.8315481673611</v>
       </c>
       <c r="D43">
-        <v>32.3870028874613</v>
+        <v>31.5426066321651</v>
       </c>
       <c r="E43">
-        <v>78.17490220689911</v>
+        <v>82.173320784878</v>
       </c>
       <c r="F43">
-        <v>6.99066571360308</v>
+        <v>6.35686871474468</v>
       </c>
       <c r="G43">
-        <v>21.5909831493034</v>
+        <v>21.7419761077662</v>
       </c>
       <c r="H43">
-        <v>41.5444626415393</v>
+        <v>43.3453133364153</v>
       </c>
       <c r="I43">
-        <v>29.7541356042559</v>
+        <v>25.9983818081666</v>
       </c>
       <c r="J43">
-        <v>47.3257844468684</v>
+        <v>51.2057548437187</v>
       </c>
       <c r="K43">
-        <v>33.6631720732898</v>
+        <v>32.0816931129943</v>
       </c>
       <c r="L43">
-        <v>43.3131776068088</v>
+        <v>43.6625507654152</v>
       </c>
       <c r="M43">
-        <v>120.624304930878</v>
+        <v>127.015799551522</v>
       </c>
       <c r="N43">
-        <v>54.3144630395714</v>
+        <v>51.485332164654</v>
       </c>
       <c r="O43">
-        <v>2089.78387787786</v>
+        <v>1989.24593420873</v>
       </c>
       <c r="P43">
-        <v>46.8986968937358</v>
+        <v>42.3600742121956</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4272.30429112768</v>
+        <v>4660.26394385825</v>
       </c>
       <c r="C44">
-        <v>158.987811844314</v>
+        <v>147.709909187203</v>
       </c>
       <c r="D44">
-        <v>32.3809603253258</v>
+        <v>31.1555301302719</v>
       </c>
       <c r="E44">
-        <v>95.4481998246162</v>
+        <v>99.4743397317783</v>
       </c>
       <c r="F44">
-        <v>228.770795944779</v>
+        <v>217.906865454404</v>
       </c>
       <c r="G44">
-        <v>118.752297099781</v>
+        <v>112.436958779163</v>
       </c>
       <c r="H44">
-        <v>40.6991263691647</v>
+        <v>42.1802787339272</v>
       </c>
       <c r="I44">
-        <v>43.7030105246371</v>
+        <v>42.9720324901709</v>
       </c>
       <c r="J44">
-        <v>97.1685087032901</v>
+        <v>95.4803225548077</v>
       </c>
       <c r="K44">
-        <v>60.2419824062611</v>
+        <v>58.368280630242</v>
       </c>
       <c r="L44">
-        <v>162.84668288987</v>
+        <v>159.407090183509</v>
       </c>
       <c r="M44">
-        <v>87.8331304794239</v>
+        <v>88.0509545796639</v>
       </c>
       <c r="N44">
-        <v>99.276411839923</v>
+        <v>99.30843492219771</v>
       </c>
       <c r="O44">
-        <v>8065.20681507935</v>
+        <v>7836.40832986152</v>
       </c>
       <c r="P44">
-        <v>225.0394686734</v>
+        <v>214.220791393893</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>428.176739108014</v>
+        <v>454.529598755144</v>
       </c>
       <c r="C45">
-        <v>19.8123256274964</v>
+        <v>20.5191099153667</v>
       </c>
       <c r="D45">
-        <v>2.77037174184582</v>
+        <v>2.62764041640244</v>
       </c>
       <c r="E45">
-        <v>23.411557845277</v>
+        <v>25.0532400056903</v>
       </c>
       <c r="F45">
-        <v>23.8719499554717</v>
+        <v>22.7019070434682</v>
       </c>
       <c r="G45">
-        <v>6.24005602967544</v>
+        <v>5.93567136529683</v>
       </c>
       <c r="H45">
-        <v>4.45119761369471</v>
+        <v>4.24284937362798</v>
       </c>
       <c r="I45">
-        <v>3.8685481492985</v>
+        <v>3.76915711831613</v>
       </c>
       <c r="J45">
-        <v>20.4013232180274</v>
+        <v>19.3046313501012</v>
       </c>
       <c r="K45">
-        <v>5.27946519571047</v>
+        <v>5.13662844632552</v>
       </c>
       <c r="L45">
-        <v>14.6520219287841</v>
+        <v>14.8531555440815</v>
       </c>
       <c r="M45">
-        <v>15.9580539065203</v>
+        <v>16.4787351700273</v>
       </c>
       <c r="N45">
-        <v>25.9557640970742</v>
+        <v>25.9374615969368</v>
       </c>
       <c r="O45">
-        <v>874.281303464433</v>
+        <v>845.119349670485</v>
       </c>
       <c r="P45">
-        <v>20.0385040082358</v>
+        <v>20.5644211054667</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>130.696311564835</v>
+        <v>136.919630714002</v>
       </c>
       <c r="C46">
-        <v>4.84688520561162</v>
+        <v>4.70611352410776</v>
       </c>
       <c r="D46">
-        <v>1.12909213574231</v>
+        <v>1.01830996989063</v>
       </c>
       <c r="E46">
-        <v>6.02967312059118</v>
+        <v>5.83884846478237</v>
       </c>
       <c r="F46">
-        <v>1.01944969299683</v>
+        <v>0.841364146990022</v>
       </c>
       <c r="G46">
-        <v>3.82148612326794</v>
+        <v>3.36542434896846</v>
       </c>
       <c r="H46">
-        <v>1.64929623202901</v>
+        <v>1.41342679109091</v>
       </c>
       <c r="I46">
-        <v>2.09535320010226</v>
+        <v>1.81376544122558</v>
       </c>
       <c r="J46">
-        <v>5.94051098542529</v>
+        <v>5.65366605979966</v>
       </c>
       <c r="K46">
-        <v>3.08233113589086</v>
+        <v>2.718531416115</v>
       </c>
       <c r="L46">
-        <v>14.6499764175343</v>
+        <v>13.1054044475633</v>
       </c>
       <c r="M46">
-        <v>3.99358844741932</v>
+        <v>3.78663828954818</v>
       </c>
       <c r="N46">
-        <v>11.3662883139387</v>
+        <v>10.5844224464809</v>
       </c>
       <c r="O46">
-        <v>355.853811802444</v>
+        <v>323.687102176913</v>
       </c>
       <c r="P46">
-        <v>12.4503805277684</v>
+        <v>12.5419201357279</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1486.9574756867</v>
+        <v>1599.87584316066</v>
       </c>
       <c r="C47">
-        <v>53.3562502940557</v>
+        <v>50.8318966506264</v>
       </c>
       <c r="D47">
-        <v>25.0303436061146</v>
+        <v>25.7213025052882</v>
       </c>
       <c r="E47">
-        <v>55.2152584902538</v>
+        <v>57.8586327926934</v>
       </c>
       <c r="F47">
-        <v>9.5770545475912</v>
+        <v>9.914388725820009</v>
       </c>
       <c r="G47">
-        <v>23.5661135889313</v>
+        <v>22.4558516961741</v>
       </c>
       <c r="H47">
-        <v>9.7011269342515</v>
+        <v>9.871847040592691</v>
       </c>
       <c r="I47">
-        <v>4.12275997345935</v>
+        <v>4.29601646827001</v>
       </c>
       <c r="J47">
-        <v>41.0258890878514</v>
+        <v>39.2654139988879</v>
       </c>
       <c r="K47">
-        <v>12.5023751020365</v>
+        <v>12.8089288239959</v>
       </c>
       <c r="L47">
-        <v>31.8685463302295</v>
+        <v>31.2301972349993</v>
       </c>
       <c r="M47">
-        <v>72.8412596175867</v>
+        <v>71.7646616644695</v>
       </c>
       <c r="N47">
-        <v>40.1140111799733</v>
+        <v>40.8550646936241</v>
       </c>
       <c r="O47">
-        <v>2964.68697974351</v>
+        <v>2866.34100430796</v>
       </c>
       <c r="P47">
-        <v>35.0650773045603</v>
+        <v>36.2825825358237</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1302.77887694931</v>
+        <v>1395.05416019186</v>
       </c>
       <c r="C48">
-        <v>25.2682767906888</v>
+        <v>27.7565021773695</v>
       </c>
       <c r="D48">
-        <v>4.25433221358255</v>
+        <v>3.87697323252389</v>
       </c>
       <c r="E48">
-        <v>73.263213429704</v>
+        <v>72.13010695761641</v>
       </c>
       <c r="F48">
-        <v>6.80631527733258</v>
+        <v>6.46342346421416</v>
       </c>
       <c r="G48">
-        <v>5.35203015882763</v>
+        <v>5.15029318921574</v>
       </c>
       <c r="H48">
-        <v>3.33567044254914</v>
+        <v>3.55507071295852</v>
       </c>
       <c r="I48">
-        <v>10.7799236562454</v>
+        <v>10.3164266072743</v>
       </c>
       <c r="J48">
-        <v>35.6759568001152</v>
+        <v>35.8998547734744</v>
       </c>
       <c r="K48">
-        <v>11.348485961366</v>
+        <v>10.7403623150286</v>
       </c>
       <c r="L48">
-        <v>49.1125849279723</v>
+        <v>48.204842997447</v>
       </c>
       <c r="M48">
-        <v>117.456189656213</v>
+        <v>111.238666927121</v>
       </c>
       <c r="N48">
-        <v>34.935389277331</v>
+        <v>35.187977549088</v>
       </c>
       <c r="O48">
-        <v>2331.42635931201</v>
+        <v>2262.26554287916</v>
       </c>
       <c r="P48">
-        <v>95.96357108196411</v>
+        <v>95.8287029062915</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>673.1707813956861</v>
+        <v>700.088150336622</v>
       </c>
       <c r="C49">
-        <v>6.12531522717007</v>
+        <v>6.0529095737023</v>
       </c>
       <c r="D49">
-        <v>4.25204805631057</v>
+        <v>3.67497254817637</v>
       </c>
       <c r="E49">
-        <v>25.1026617679954</v>
+        <v>24.423891503927</v>
       </c>
       <c r="F49">
-        <v>29.4529207657284</v>
+        <v>27.2695908671034</v>
       </c>
       <c r="G49">
-        <v>15.2474877089293</v>
+        <v>14.5659201889083</v>
       </c>
       <c r="H49">
-        <v>7.50636871668948</v>
+        <v>7.53234679301699</v>
       </c>
       <c r="I49">
-        <v>4.65104647622169</v>
+        <v>4.32119821035727</v>
       </c>
       <c r="J49">
-        <v>23.6086051730321</v>
+        <v>21.7687061385635</v>
       </c>
       <c r="K49">
-        <v>3.4424169933146</v>
+        <v>3.25276001657593</v>
       </c>
       <c r="L49">
-        <v>0.950652960357228</v>
+        <v>0.877621957422955</v>
       </c>
       <c r="M49">
-        <v>6.89771601373817</v>
+        <v>6.87873770156503</v>
       </c>
       <c r="N49">
-        <v>3.86781549713085</v>
+        <v>3.62480197899015</v>
       </c>
       <c r="O49">
-        <v>681.198326298863</v>
+        <v>638.186357398817</v>
       </c>
       <c r="P49">
-        <v>7.01453075604203</v>
+        <v>6.93702959109266</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>896.3258682572809</v>
+        <v>995.6195176334149</v>
       </c>
       <c r="C50">
-        <v>75.75129934190321</v>
+        <v>78.35071424195969</v>
       </c>
       <c r="D50">
-        <v>15.5445585013844</v>
+        <v>14.9592356757807</v>
       </c>
       <c r="E50">
-        <v>152.181548841839</v>
+        <v>153.841694195185</v>
       </c>
       <c r="F50">
-        <v>3.75262469997559</v>
+        <v>3.73661940554654</v>
       </c>
       <c r="G50">
-        <v>32.1541535562783</v>
+        <v>28.29380375891</v>
       </c>
       <c r="H50">
-        <v>36.9819631238365</v>
+        <v>36.5292715816399</v>
       </c>
       <c r="I50">
-        <v>16.4858552141901</v>
+        <v>16.1336831265899</v>
       </c>
       <c r="J50">
-        <v>109.097466917415</v>
+        <v>108.216468786507</v>
       </c>
       <c r="K50">
-        <v>68.116073173373</v>
+        <v>63.8124028865151</v>
       </c>
       <c r="L50">
-        <v>54.8595267694231</v>
+        <v>53.21427652965</v>
       </c>
       <c r="M50">
-        <v>34.1989235654294</v>
+        <v>34.6183823782387</v>
       </c>
       <c r="N50">
-        <v>58.4275096035437</v>
+        <v>56.2725677620057</v>
       </c>
       <c r="O50">
-        <v>2177.14992726937</v>
+        <v>2077.27122688975</v>
       </c>
       <c r="P50">
-        <v>79.9415890917317</v>
+        <v>86.82645235259911</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>141.944938654602</v>
+        <v>140.30878111795</v>
       </c>
       <c r="C51">
-        <v>5.17468317691425</v>
+        <v>4.48609484004768</v>
       </c>
       <c r="D51">
-        <v>0.0533243859441884</v>
+        <v>0.0728015490286263</v>
       </c>
       <c r="E51">
-        <v>2.34448104392068</v>
+        <v>2.27435168560037</v>
       </c>
       <c r="F51">
-        <v>37.0599596780682</v>
+        <v>33.8136995618925</v>
       </c>
       <c r="G51">
-        <v>2.21192165849491</v>
+        <v>2.31891419790721</v>
       </c>
       <c r="H51">
-        <v>0.0193966268480432</v>
+        <v>0.0229291938717871</v>
       </c>
       <c r="I51">
-        <v>1.34036167846566</v>
+        <v>1.23322382253034</v>
       </c>
       <c r="J51">
-        <v>1.46195709717031</v>
+        <v>1.26495746994704</v>
       </c>
       <c r="K51">
-        <v>1.0477279139257</v>
+        <v>0.86970739288032</v>
       </c>
       <c r="L51">
-        <v>0.236078626727825</v>
+        <v>0.233653428456663</v>
       </c>
       <c r="M51">
-        <v>0.563288832011195</v>
+        <v>0.5043448237759</v>
       </c>
       <c r="N51">
-        <v>1.35248000178867</v>
+        <v>1.18443127291423</v>
       </c>
       <c r="O51">
-        <v>330.42043546571</v>
+        <v>289.038360425694</v>
       </c>
       <c r="P51">
-        <v>29.3061712357909</v>
+        <v>26.1456397427972</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1359.33669916724</v>
+        <v>1359.33720181439</v>
       </c>
       <c r="C2">
-        <v>25.8484087225831</v>
+        <v>25.8484148781348</v>
       </c>
       <c r="D2">
-        <v>40.2521197210765</v>
+        <v>40.2521044938461</v>
       </c>
       <c r="E2">
-        <v>60.4740343017406</v>
+        <v>60.4739730640627</v>
       </c>
       <c r="F2">
-        <v>20.2814550156818</v>
+        <v>20.2813373653989</v>
       </c>
       <c r="G2">
-        <v>12.6034997663015</v>
+        <v>12.6034930526946</v>
       </c>
       <c r="H2">
-        <v>22.1013736110026</v>
+        <v>22.1012234818072</v>
       </c>
       <c r="I2">
-        <v>15.6047998125248</v>
+        <v>15.6047962060559</v>
       </c>
       <c r="J2">
-        <v>73.7840992186832</v>
+        <v>73.784045112005</v>
       </c>
       <c r="K2">
-        <v>17.8236055628584</v>
+        <v>17.8235486711071</v>
       </c>
       <c r="L2">
-        <v>48.5670329285125</v>
+        <v>48.5667311759241</v>
       </c>
       <c r="M2">
-        <v>41.4721082055048</v>
+        <v>41.4720993377625</v>
       </c>
       <c r="N2">
-        <v>25.0273117683895</v>
+        <v>25.0272766659894</v>
       </c>
       <c r="O2">
-        <v>1370.15175242152</v>
+        <v>1370.15233964818</v>
       </c>
       <c r="P2">
-        <v>21.1375421469199</v>
+        <v>21.1375432105899</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>164.262080467555</v>
+        <v>164.241175357494</v>
       </c>
       <c r="C3">
-        <v>5.20524394405838</v>
+        <v>5.20454900486866</v>
       </c>
       <c r="D3">
-        <v>0.534174467896556</v>
+        <v>0.534109314486097</v>
       </c>
       <c r="E3">
-        <v>1.35886605903241</v>
+        <v>1.35867437271796</v>
       </c>
       <c r="F3">
-        <v>9.434830000540529</v>
+        <v>9.43353816800799</v>
       </c>
       <c r="G3">
-        <v>0.411080575931282</v>
+        <v>0.411017825676852</v>
       </c>
       <c r="H3">
-        <v>0.137962525095268</v>
+        <v>0.147394934943478</v>
       </c>
       <c r="I3">
-        <v>0.980965414071552</v>
+        <v>0.9844037857508931</v>
       </c>
       <c r="J3">
-        <v>0.521070141638484</v>
+        <v>0.52270039959889</v>
       </c>
       <c r="K3">
-        <v>0.0750484999621779</v>
+        <v>0.07978730083154551</v>
       </c>
       <c r="L3">
-        <v>0.0190361567652002</v>
+        <v>0.024083374123457</v>
       </c>
       <c r="M3">
-        <v>0.8165738650522481</v>
+        <v>0.816696539687126</v>
       </c>
       <c r="N3">
-        <v>0.69364851090157</v>
+        <v>0.698089295078325</v>
       </c>
       <c r="O3">
-        <v>346.397357607829</v>
+        <v>346.370948802642</v>
       </c>
       <c r="P3">
-        <v>14.8942202172048</v>
+        <v>14.892203918466</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1313.87861338054</v>
+        <v>1313.88062275765</v>
       </c>
       <c r="C4">
-        <v>6.56907745522523</v>
+        <v>6.56906323892565</v>
       </c>
       <c r="D4">
-        <v>2.64673202314118</v>
+        <v>2.64672840643604</v>
       </c>
       <c r="E4">
-        <v>25.7307957239504</v>
+        <v>25.7308511022615</v>
       </c>
       <c r="F4">
-        <v>6.9201475157385</v>
+        <v>6.92000533768779</v>
       </c>
       <c r="G4">
-        <v>5.33065517572802</v>
+        <v>5.33063638750498</v>
       </c>
       <c r="H4">
-        <v>14.4017837446971</v>
+        <v>14.3962713351801</v>
       </c>
       <c r="I4">
-        <v>11.6442807780542</v>
+        <v>11.6439650678811</v>
       </c>
       <c r="J4">
-        <v>19.4812629582571</v>
+        <v>19.4811803357509</v>
       </c>
       <c r="K4">
-        <v>3.99668476070954</v>
+        <v>3.99661698322818</v>
       </c>
       <c r="L4">
-        <v>63.4100069240914</v>
+        <v>63.4094331013953</v>
       </c>
       <c r="M4">
-        <v>42.7396381465092</v>
+        <v>42.7395299547992</v>
       </c>
       <c r="N4">
-        <v>29.6376461154208</v>
+        <v>29.637514204974</v>
       </c>
       <c r="O4">
-        <v>2070.18419770378</v>
+        <v>2070.18695077665</v>
       </c>
       <c r="P4">
-        <v>17.6948666106643</v>
+        <v>17.6949445907494</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>715.854849115027</v>
+        <v>715.854992893954</v>
       </c>
       <c r="C5">
-        <v>47.3240636942435</v>
+        <v>47.3240699489485</v>
       </c>
       <c r="D5">
-        <v>10.1289053550845</v>
+        <v>10.1289011134513</v>
       </c>
       <c r="E5">
-        <v>34.853304536196</v>
+        <v>34.8531229900436</v>
       </c>
       <c r="F5">
-        <v>6.93461337927592</v>
+        <v>6.93452971405994</v>
       </c>
       <c r="G5">
-        <v>4.32532477552566</v>
+        <v>4.3253317776119</v>
       </c>
       <c r="H5">
-        <v>11.1926039696861</v>
+        <v>11.1927059184193</v>
       </c>
       <c r="I5">
-        <v>8.01894847549843</v>
+        <v>8.01893211876788</v>
       </c>
       <c r="J5">
-        <v>30.53800156549</v>
+        <v>30.5380348999135</v>
       </c>
       <c r="K5">
-        <v>9.9473466408263</v>
+        <v>9.94731742867444</v>
       </c>
       <c r="L5">
-        <v>20.5581044592663</v>
+        <v>20.5580344149796</v>
       </c>
       <c r="M5">
-        <v>21.2874537220206</v>
+        <v>21.2874605043661</v>
       </c>
       <c r="N5">
-        <v>19.9982441690205</v>
+        <v>19.99815948763</v>
       </c>
       <c r="O5">
-        <v>905.17555738684</v>
+        <v>905.175708953716</v>
       </c>
       <c r="P5">
-        <v>62.348767513736</v>
+        <v>62.3487852941477</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7975.88600541678</v>
+        <v>7975.8914092885</v>
       </c>
       <c r="C6">
-        <v>195.497515202081</v>
+        <v>195.497613198487</v>
       </c>
       <c r="D6">
-        <v>114.015415267841</v>
+        <v>114.015425369496</v>
       </c>
       <c r="E6">
-        <v>176.95224527171</v>
+        <v>176.9511888833</v>
       </c>
       <c r="F6">
-        <v>36.3061082315349</v>
+        <v>36.305114629792</v>
       </c>
       <c r="G6">
-        <v>119.321953620578</v>
+        <v>119.321279281203</v>
       </c>
       <c r="H6">
-        <v>68.6921933067771</v>
+        <v>68.6892767077842</v>
       </c>
       <c r="I6">
-        <v>42.1459429965773</v>
+        <v>42.1454174513491</v>
       </c>
       <c r="J6">
-        <v>191.388758715862</v>
+        <v>191.388169579622</v>
       </c>
       <c r="K6">
-        <v>78.7192456047346</v>
+        <v>78.7187954138272</v>
       </c>
       <c r="L6">
-        <v>478.584978350588</v>
+        <v>478.582485375099</v>
       </c>
       <c r="M6">
-        <v>288.865469647175</v>
+        <v>288.864837671045</v>
       </c>
       <c r="N6">
-        <v>268.706262710922</v>
+        <v>268.705109386628</v>
       </c>
       <c r="O6">
-        <v>12515.8293830275</v>
+        <v>12515.8367765611</v>
       </c>
       <c r="P6">
-        <v>290.836348269631</v>
+        <v>290.837007481052</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>799.324335963713</v>
+        <v>799.325972328454</v>
       </c>
       <c r="C7">
-        <v>36.5294919798077</v>
+        <v>36.5295521097891</v>
       </c>
       <c r="D7">
-        <v>2.92716093577096</v>
+        <v>2.92713322308687</v>
       </c>
       <c r="E7">
-        <v>17.5322804086056</v>
+        <v>17.5322052824209</v>
       </c>
       <c r="F7">
-        <v>11.0415629722877</v>
+        <v>11.0415131269418</v>
       </c>
       <c r="G7">
-        <v>6.40286142864969</v>
+        <v>6.40240510732691</v>
       </c>
       <c r="H7">
-        <v>4.22758186771269</v>
+        <v>4.22649077748242</v>
       </c>
       <c r="I7">
-        <v>9.712871218465899</v>
+        <v>9.712847508855219</v>
       </c>
       <c r="J7">
-        <v>13.1858947968899</v>
+        <v>13.1858118489292</v>
       </c>
       <c r="K7">
-        <v>7.46686263352139</v>
+        <v>7.46655259508515</v>
       </c>
       <c r="L7">
-        <v>52.7276151883974</v>
+        <v>52.727210419947</v>
       </c>
       <c r="M7">
-        <v>16.3346278559252</v>
+        <v>16.3345692713511</v>
       </c>
       <c r="N7">
-        <v>29.7247150883822</v>
+        <v>29.7243111311447</v>
       </c>
       <c r="O7">
-        <v>1886.92671491098</v>
+        <v>1886.92904391692</v>
       </c>
       <c r="P7">
-        <v>24.8711361193235</v>
+        <v>24.8712660086181</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>677.397364071664</v>
+        <v>677.395080078363</v>
       </c>
       <c r="C8">
-        <v>14.9537228037543</v>
+        <v>14.9536836421309</v>
       </c>
       <c r="D8">
-        <v>5.27083852378195</v>
+        <v>5.27082663635247</v>
       </c>
       <c r="E8">
-        <v>21.9444574437937</v>
+        <v>21.9443640959252</v>
       </c>
       <c r="F8">
-        <v>1.10024187791213</v>
+        <v>1.10360382718432</v>
       </c>
       <c r="G8">
-        <v>27.0429573670212</v>
+        <v>27.0428431732694</v>
       </c>
       <c r="H8">
-        <v>10.8478182106671</v>
+        <v>10.8476475077967</v>
       </c>
       <c r="I8">
-        <v>8.463846083007409</v>
+        <v>8.463758115971601</v>
       </c>
       <c r="J8">
-        <v>38.0188152060437</v>
+        <v>38.01866264324</v>
       </c>
       <c r="K8">
-        <v>16.3620618196072</v>
+        <v>16.3619804943315</v>
       </c>
       <c r="L8">
-        <v>49.1507975799183</v>
+        <v>49.1504858279885</v>
       </c>
       <c r="M8">
-        <v>48.6302393839386</v>
+        <v>48.63000181755</v>
       </c>
       <c r="N8">
-        <v>23.5569311106393</v>
+        <v>23.5568082123488</v>
       </c>
       <c r="O8">
-        <v>1404.08949563399</v>
+        <v>1404.08696402272</v>
       </c>
       <c r="P8">
-        <v>4.61006005542804</v>
+        <v>4.61004858302752</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>223.401439755892</v>
+        <v>223.40149388661</v>
       </c>
       <c r="C9">
-        <v>9.33152704817878</v>
+        <v>9.331529084519021</v>
       </c>
       <c r="D9">
-        <v>2.96178897490036</v>
+        <v>2.96179294827127</v>
       </c>
       <c r="E9">
-        <v>4.52414933987963</v>
+        <v>4.52414578711983</v>
       </c>
       <c r="F9">
-        <v>1.34276924023866</v>
+        <v>1.34275346051964</v>
       </c>
       <c r="G9">
-        <v>25.1100136389033</v>
+        <v>25.1100176050993</v>
       </c>
       <c r="H9">
-        <v>4.63295101616081</v>
+        <v>4.63297057686103</v>
       </c>
       <c r="I9">
-        <v>1.09625025120949</v>
+        <v>1.09624670529921</v>
       </c>
       <c r="J9">
-        <v>6.16965260070892</v>
+        <v>6.16967048893784</v>
       </c>
       <c r="K9">
-        <v>2.24132406454412</v>
+        <v>2.24132955731909</v>
       </c>
       <c r="L9">
-        <v>3.77915269457869</v>
+        <v>3.77914623970094</v>
       </c>
       <c r="M9">
-        <v>9.475702101393679</v>
+        <v>9.47569416758134</v>
       </c>
       <c r="N9">
-        <v>5.57205109816002</v>
+        <v>5.57206043690006</v>
       </c>
       <c r="O9">
-        <v>388.932576442999</v>
+        <v>388.932680400639</v>
       </c>
       <c r="P9">
-        <v>6.03146906562026</v>
+        <v>6.03147227899913</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4316.91505293636</v>
+        <v>4316.91713227196</v>
       </c>
       <c r="C10">
-        <v>67.5140472271207</v>
+        <v>67.5140909857257</v>
       </c>
       <c r="D10">
-        <v>19.9369461211197</v>
+        <v>19.9369494143254</v>
       </c>
       <c r="E10">
-        <v>51.6967605086013</v>
+        <v>51.6967693669047</v>
       </c>
       <c r="F10">
-        <v>11.9917293077397</v>
+        <v>11.9912218941482</v>
       </c>
       <c r="G10">
-        <v>40.9759303993566</v>
+        <v>40.9756465132683</v>
       </c>
       <c r="H10">
-        <v>15.8929412625628</v>
+        <v>15.8927534671761</v>
       </c>
       <c r="I10">
-        <v>40.5856457957235</v>
+        <v>40.5852362906314</v>
       </c>
       <c r="J10">
-        <v>58.5843913433329</v>
+        <v>58.5842087761556</v>
       </c>
       <c r="K10">
-        <v>21.9804624856781</v>
+        <v>21.9802667479554</v>
       </c>
       <c r="L10">
-        <v>78.4785457068987</v>
+        <v>78.47829578362</v>
       </c>
       <c r="M10">
-        <v>70.8011675513568</v>
+        <v>70.8010444643932</v>
       </c>
       <c r="N10">
-        <v>81.0779042518633</v>
+        <v>81.0777560666328</v>
       </c>
       <c r="O10">
-        <v>7011.30649344776</v>
+        <v>7011.30846729917</v>
       </c>
       <c r="P10">
-        <v>90.8907684119546</v>
+        <v>90.8908934813106</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1916.18960766045</v>
+        <v>1916.19038719647</v>
       </c>
       <c r="C11">
-        <v>65.2832263850033</v>
+        <v>65.28325886888339</v>
       </c>
       <c r="D11">
-        <v>174.361482014328</v>
+        <v>174.361450894116</v>
       </c>
       <c r="E11">
-        <v>65.365818952368</v>
+        <v>65.3658314133087</v>
       </c>
       <c r="F11">
-        <v>0.86976158938653</v>
+        <v>0.869617627157706</v>
       </c>
       <c r="G11">
-        <v>29.0239776490287</v>
+        <v>29.0239377322733</v>
       </c>
       <c r="H11">
-        <v>16.7482786762464</v>
+        <v>16.748250635898</v>
       </c>
       <c r="I11">
-        <v>14.6177767106737</v>
+        <v>14.6177579689111</v>
       </c>
       <c r="J11">
-        <v>43.9998496509711</v>
+        <v>43.9997927999387</v>
       </c>
       <c r="K11">
-        <v>16.2616613749246</v>
+        <v>16.261609392541</v>
       </c>
       <c r="L11">
-        <v>56.6380046423314</v>
+        <v>56.6378063321236</v>
       </c>
       <c r="M11">
-        <v>35.1930128502612</v>
+        <v>35.1930107703046</v>
       </c>
       <c r="N11">
-        <v>51.907138849839</v>
+        <v>51.9070381338583</v>
       </c>
       <c r="O11">
-        <v>3124.4343272284</v>
+        <v>3124.43504743225</v>
       </c>
       <c r="P11">
-        <v>60.0975180142013</v>
+        <v>60.0975128109143</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>316.330353753092</v>
+        <v>316.309568755361</v>
       </c>
       <c r="C12">
-        <v>7.29237661116846</v>
+        <v>7.29169241469298</v>
       </c>
       <c r="D12">
-        <v>0.64800283481629</v>
+        <v>0.6479263213838951</v>
       </c>
       <c r="E12">
-        <v>3.12843516459611</v>
+        <v>3.14115300966902</v>
       </c>
       <c r="F12">
-        <v>0.842648717697689</v>
+        <v>0.845728681816305</v>
       </c>
       <c r="G12">
-        <v>0.611521912298982</v>
+        <v>0.611464954247984</v>
       </c>
       <c r="H12">
-        <v>0.32546954985332</v>
+        <v>0.339417200081361</v>
       </c>
       <c r="I12">
-        <v>1.09242920595772</v>
+        <v>1.09230728722984</v>
       </c>
       <c r="J12">
-        <v>2.92818670326029</v>
+        <v>2.92783441686991</v>
       </c>
       <c r="K12">
-        <v>0.0359117637011497</v>
+        <v>0.0359050919258687</v>
       </c>
       <c r="L12">
-        <v>0.566064421933232</v>
+        <v>0.572686180998669</v>
       </c>
       <c r="M12">
-        <v>3.99547582410223</v>
+        <v>3.9951164341009</v>
       </c>
       <c r="N12">
-        <v>2.25938850438401</v>
+        <v>2.27087505308467</v>
       </c>
       <c r="O12">
-        <v>615.690516393727</v>
+        <v>615.664602712863</v>
       </c>
       <c r="P12">
-        <v>22.7633586514995</v>
+        <v>22.7612268623495</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>274.080369987747</v>
+        <v>274.061371024921</v>
       </c>
       <c r="C13">
-        <v>17.8811338651015</v>
+        <v>17.8766406305236</v>
       </c>
       <c r="D13">
-        <v>0.379359553134468</v>
+        <v>0.37935434337862</v>
       </c>
       <c r="E13">
-        <v>13.4229524346574</v>
+        <v>13.4228793545659</v>
       </c>
       <c r="F13">
-        <v>3.2814577117608</v>
+        <v>3.28144761189497</v>
       </c>
       <c r="G13">
-        <v>4.76576495830611</v>
+        <v>4.76567891623177</v>
       </c>
       <c r="H13">
-        <v>2.61185865894778</v>
+        <v>2.61180463724437</v>
       </c>
       <c r="I13">
-        <v>2.01264657956058</v>
+        <v>2.08594777242326</v>
       </c>
       <c r="J13">
-        <v>5.67123882435069</v>
+        <v>5.67114263461036</v>
       </c>
       <c r="K13">
-        <v>4.17326737226879</v>
+        <v>4.17298512532238</v>
       </c>
       <c r="L13">
-        <v>17.1362845357048</v>
+        <v>17.1360715425182</v>
       </c>
       <c r="M13">
-        <v>1.5350250803158</v>
+        <v>1.53501064224355</v>
       </c>
       <c r="N13">
-        <v>5.17832765503706</v>
+        <v>5.17825586609318</v>
       </c>
       <c r="O13">
-        <v>559.330821543611</v>
+        <v>559.2840513490201</v>
       </c>
       <c r="P13">
-        <v>53.7374097258548</v>
+        <v>53.7372153617556</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2666.97660783162</v>
+        <v>2666.97717129119</v>
       </c>
       <c r="C14">
-        <v>117.915750811322</v>
+        <v>117.915736799685</v>
       </c>
       <c r="D14">
-        <v>14.4181993255965</v>
+        <v>14.4181739507157</v>
       </c>
       <c r="E14">
-        <v>83.96220417302671</v>
+        <v>83.9621067328229</v>
       </c>
       <c r="F14">
-        <v>15.9706323253472</v>
+        <v>15.9704871353206</v>
       </c>
       <c r="G14">
-        <v>85.00408780328731</v>
+        <v>85.0039488105208</v>
       </c>
       <c r="H14">
-        <v>36.2283856304711</v>
+        <v>36.2281541516823</v>
       </c>
       <c r="I14">
-        <v>22.8162815052106</v>
+        <v>22.8162155221543</v>
       </c>
       <c r="J14">
-        <v>144.571580640466</v>
+        <v>144.571471743824</v>
       </c>
       <c r="K14">
-        <v>136.543467953981</v>
+        <v>136.543240214737</v>
       </c>
       <c r="L14">
-        <v>119.410586048264</v>
+        <v>119.410340518705</v>
       </c>
       <c r="M14">
-        <v>70.2110849380922</v>
+        <v>70.21099363821951</v>
       </c>
       <c r="N14">
-        <v>99.1589560678617</v>
+        <v>99.15882421327029</v>
       </c>
       <c r="O14">
-        <v>4815.81434082943</v>
+        <v>4815.8149964754</v>
       </c>
       <c r="P14">
-        <v>59.6789626568784</v>
+        <v>59.6790208307411</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1317.22666422402</v>
+        <v>1317.22687694629</v>
       </c>
       <c r="C15">
-        <v>38.6286939952992</v>
+        <v>38.6286939924331</v>
       </c>
       <c r="D15">
-        <v>14.7802727435627</v>
+        <v>14.780279165179</v>
       </c>
       <c r="E15">
-        <v>78.2714384487804</v>
+        <v>78.2712432073494</v>
       </c>
       <c r="F15">
-        <v>22.1764968857121</v>
+        <v>22.1762861853319</v>
       </c>
       <c r="G15">
-        <v>46.7053237380355</v>
+        <v>46.7053146230129</v>
       </c>
       <c r="H15">
-        <v>47.7963617119467</v>
+        <v>47.7963102797049</v>
       </c>
       <c r="I15">
-        <v>26.4079401779327</v>
+        <v>26.4079189132737</v>
       </c>
       <c r="J15">
-        <v>159.709950331477</v>
+        <v>159.710026391236</v>
       </c>
       <c r="K15">
-        <v>33.3755244242441</v>
+        <v>33.3755238020412</v>
       </c>
       <c r="L15">
-        <v>37.9103434567174</v>
+        <v>37.9103253109035</v>
       </c>
       <c r="M15">
-        <v>178.836599041974</v>
+        <v>178.836547401213</v>
       </c>
       <c r="N15">
-        <v>82.6747551900399</v>
+        <v>82.6747043058823</v>
       </c>
       <c r="O15">
-        <v>2140.15321055432</v>
+        <v>2140.15355405538</v>
       </c>
       <c r="P15">
-        <v>45.2300285031725</v>
+        <v>45.2300358155938</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>539.78869076717</v>
+        <v>539.788878527654</v>
       </c>
       <c r="C16">
-        <v>61.9592432340795</v>
+        <v>61.959245615592</v>
       </c>
       <c r="D16">
-        <v>5.54700636107386</v>
+        <v>5.54701418153013</v>
       </c>
       <c r="E16">
-        <v>29.5844436912613</v>
+        <v>29.584618464723</v>
       </c>
       <c r="F16">
-        <v>2.98212692616992</v>
+        <v>2.98211531918327</v>
       </c>
       <c r="G16">
-        <v>23.574266105332</v>
+        <v>23.5742693522946</v>
       </c>
       <c r="H16">
-        <v>12.9642763373588</v>
+        <v>12.964315255042</v>
       </c>
       <c r="I16">
-        <v>9.947223440867109</v>
+        <v>9.94708519241644</v>
       </c>
       <c r="J16">
-        <v>49.519787609968</v>
+        <v>49.5197733174979</v>
       </c>
       <c r="K16">
-        <v>42.5179564968297</v>
+        <v>42.5179247433785</v>
       </c>
       <c r="L16">
-        <v>25.2640074461816</v>
+        <v>25.2639776842699</v>
       </c>
       <c r="M16">
-        <v>28.2004681426395</v>
+        <v>28.2004795314689</v>
       </c>
       <c r="N16">
-        <v>28.8850186707419</v>
+        <v>28.8849860136969</v>
       </c>
       <c r="O16">
-        <v>1199.06938034333</v>
+        <v>1199.06962478854</v>
       </c>
       <c r="P16">
-        <v>83.8249931617196</v>
+        <v>83.8250163860653</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>543.259428029661</v>
+        <v>543.259721552298</v>
       </c>
       <c r="C17">
-        <v>17.6801546073318</v>
+        <v>17.6801613595659</v>
       </c>
       <c r="D17">
-        <v>3.43428622227745</v>
+        <v>3.4342907634402</v>
       </c>
       <c r="E17">
-        <v>23.2075198054107</v>
+        <v>23.2076857532571</v>
       </c>
       <c r="F17">
-        <v>11.0767633366985</v>
+        <v>11.0766776256452</v>
       </c>
       <c r="G17">
-        <v>6.8838070430347</v>
+        <v>6.88379712894265</v>
       </c>
       <c r="H17">
-        <v>7.24481753508759</v>
+        <v>7.24483873320232</v>
       </c>
       <c r="I17">
-        <v>9.812349137684921</v>
+        <v>9.812306401198249</v>
       </c>
       <c r="J17">
-        <v>15.1952188944802</v>
+        <v>15.1952102744823</v>
       </c>
       <c r="K17">
-        <v>10.0686274758533</v>
+        <v>10.0686133965466</v>
       </c>
       <c r="L17">
-        <v>8.88556014189909</v>
+        <v>8.885545089456199</v>
       </c>
       <c r="M17">
-        <v>61.7117071350179</v>
+        <v>61.7116834238806</v>
       </c>
       <c r="N17">
-        <v>15.3968689210127</v>
+        <v>15.3969061436815</v>
       </c>
       <c r="O17">
-        <v>1124.97010702759</v>
+        <v>1124.97073171636</v>
       </c>
       <c r="P17">
-        <v>55.4780905384869</v>
+        <v>55.4781219861456</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1190.21733195462</v>
+        <v>1190.21768618768</v>
       </c>
       <c r="C18">
-        <v>37.39755051176</v>
+        <v>37.397552221181</v>
       </c>
       <c r="D18">
-        <v>5.17691765625828</v>
+        <v>5.1769180040321</v>
       </c>
       <c r="E18">
-        <v>34.0872397950065</v>
+        <v>34.0874369870699</v>
       </c>
       <c r="F18">
-        <v>27.9176438967921</v>
+        <v>27.9175904623116</v>
       </c>
       <c r="G18">
-        <v>24.2642751399657</v>
+        <v>24.2642598925152</v>
       </c>
       <c r="H18">
-        <v>18.7615180994962</v>
+        <v>18.7617035357671</v>
       </c>
       <c r="I18">
-        <v>2.9529622581498</v>
+        <v>2.95296393845786</v>
       </c>
       <c r="J18">
-        <v>44.4685270849013</v>
+        <v>44.4685356336568</v>
       </c>
       <c r="K18">
-        <v>14.1212294192069</v>
+        <v>14.1212108604857</v>
       </c>
       <c r="L18">
-        <v>39.4737971280017</v>
+        <v>39.4737674430217</v>
       </c>
       <c r="M18">
-        <v>65.1325876431459</v>
+        <v>65.1326171804397</v>
       </c>
       <c r="N18">
-        <v>22.9432271295081</v>
+        <v>22.9432229276256</v>
       </c>
       <c r="O18">
-        <v>1451.00588529125</v>
+        <v>1451.00636538314</v>
       </c>
       <c r="P18">
-        <v>58.9567505122009</v>
+        <v>58.9567937918854</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1222.4045468732</v>
+        <v>1222.40491059496</v>
       </c>
       <c r="C19">
-        <v>29.9485458850795</v>
+        <v>29.9485814166054</v>
       </c>
       <c r="D19">
-        <v>10.0633196704322</v>
+        <v>10.0633873265629</v>
       </c>
       <c r="E19">
-        <v>45.6685310956986</v>
+        <v>45.6695710058215</v>
       </c>
       <c r="F19">
-        <v>93.62326593604131</v>
+        <v>93.62330069511719</v>
       </c>
       <c r="G19">
-        <v>42.9131026444405</v>
+        <v>42.9130790701761</v>
       </c>
       <c r="H19">
-        <v>7.47821474737993</v>
+        <v>7.47821107083068</v>
       </c>
       <c r="I19">
-        <v>1.41334753271605</v>
+        <v>1.41333258047355</v>
       </c>
       <c r="J19">
-        <v>16.9597936058756</v>
+        <v>16.9597885412288</v>
       </c>
       <c r="K19">
-        <v>10.9123127211301</v>
+        <v>10.912272121145</v>
       </c>
       <c r="L19">
-        <v>3.86723939857716</v>
+        <v>3.86719002559237</v>
       </c>
       <c r="M19">
-        <v>31.8928296561032</v>
+        <v>31.8928092168331</v>
       </c>
       <c r="N19">
-        <v>13.0765719759599</v>
+        <v>13.0765787629742</v>
       </c>
       <c r="O19">
-        <v>1566.73906246318</v>
+        <v>1566.73948788641</v>
       </c>
       <c r="P19">
-        <v>45.9915978314185</v>
+        <v>45.9916237791197</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>307.353638641828</v>
+        <v>307.352683300737</v>
       </c>
       <c r="C20">
-        <v>9.52365906491158</v>
+        <v>9.52362955560859</v>
       </c>
       <c r="D20">
-        <v>7.71992623630251</v>
+        <v>7.71989748195301</v>
       </c>
       <c r="E20">
-        <v>36.0594090470705</v>
+        <v>36.0591919130683</v>
       </c>
       <c r="F20">
-        <v>1.3579868318235</v>
+        <v>1.36061365478648</v>
       </c>
       <c r="G20">
-        <v>2.43406459542757</v>
+        <v>2.43405136675206</v>
       </c>
       <c r="H20">
-        <v>1.12711117925494</v>
+        <v>1.12710402749451</v>
       </c>
       <c r="I20">
-        <v>1.96483027374647</v>
+        <v>1.9648106181511</v>
       </c>
       <c r="J20">
-        <v>5.24226880315857</v>
+        <v>5.24224668405129</v>
       </c>
       <c r="K20">
-        <v>2.38428392053775</v>
+        <v>2.38427035748025</v>
       </c>
       <c r="L20">
-        <v>7.2413859488974</v>
+        <v>7.24133580322833</v>
       </c>
       <c r="M20">
-        <v>18.2400455729157</v>
+        <v>18.2399875082463</v>
       </c>
       <c r="N20">
-        <v>7.31041728136886</v>
+        <v>7.31037051416728</v>
       </c>
       <c r="O20">
-        <v>555.519039947827</v>
+        <v>555.5183656169641</v>
       </c>
       <c r="P20">
-        <v>25.4817054009586</v>
+        <v>25.4816119226441</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1108.1026658305</v>
+        <v>1108.10299766173</v>
       </c>
       <c r="C21">
-        <v>28.6896828420496</v>
+        <v>28.689679484533</v>
       </c>
       <c r="D21">
-        <v>3.41258070550838</v>
+        <v>3.41258273564596</v>
       </c>
       <c r="E21">
-        <v>17.8245986678494</v>
+        <v>17.8246285014086</v>
       </c>
       <c r="F21">
-        <v>4.72780452771039</v>
+        <v>4.72737970052201</v>
       </c>
       <c r="G21">
-        <v>16.0192317136597</v>
+        <v>16.0192603096091</v>
       </c>
       <c r="H21">
-        <v>6.77164070923214</v>
+        <v>6.77168636871763</v>
       </c>
       <c r="I21">
-        <v>15.4536790728199</v>
+        <v>15.4535688062067</v>
       </c>
       <c r="J21">
-        <v>24.4287174357962</v>
+        <v>24.42869253735</v>
       </c>
       <c r="K21">
-        <v>2.88141687103921</v>
+        <v>2.88142005818552</v>
       </c>
       <c r="L21">
-        <v>24.9842694987818</v>
+        <v>24.9842428263235</v>
       </c>
       <c r="M21">
-        <v>21.7418194954367</v>
+        <v>21.7418133117987</v>
       </c>
       <c r="N21">
-        <v>21.7980761097047</v>
+        <v>21.7980834800065</v>
       </c>
       <c r="O21">
-        <v>2350.42569699455</v>
+        <v>2350.42618705549</v>
       </c>
       <c r="P21">
-        <v>22.218922792077</v>
+        <v>22.2189407662688</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1290.31390594509</v>
+        <v>1290.3149426195</v>
       </c>
       <c r="C22">
-        <v>17.1310510971664</v>
+        <v>17.1310772871532</v>
       </c>
       <c r="D22">
-        <v>21.010755775425</v>
+        <v>21.0107641732769</v>
       </c>
       <c r="E22">
-        <v>47.5182280561672</v>
+        <v>47.5182087398231</v>
       </c>
       <c r="F22">
-        <v>3.84009264555957</v>
+        <v>3.83961077379373</v>
       </c>
       <c r="G22">
-        <v>31.4340895789472</v>
+        <v>31.4340154381899</v>
       </c>
       <c r="H22">
-        <v>13.8359691420718</v>
+        <v>13.8358065106118</v>
       </c>
       <c r="I22">
-        <v>9.63418104859003</v>
+        <v>9.633823918276169</v>
       </c>
       <c r="J22">
-        <v>39.4544364171993</v>
+        <v>39.4544041232772</v>
       </c>
       <c r="K22">
-        <v>19.7069200412138</v>
+        <v>19.7068690961223</v>
       </c>
       <c r="L22">
-        <v>128.791280043854</v>
+        <v>128.790565823683</v>
       </c>
       <c r="M22">
-        <v>14.6142902306754</v>
+        <v>14.6142749841</v>
       </c>
       <c r="N22">
-        <v>75.540666412307</v>
+        <v>75.5405694237254</v>
       </c>
       <c r="O22">
-        <v>2609.84785104762</v>
+        <v>2609.84918110807</v>
       </c>
       <c r="P22">
-        <v>10.5591622327917</v>
+        <v>10.5591928475382</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2474.40033728762</v>
+        <v>2474.40069902533</v>
       </c>
       <c r="C23">
-        <v>37.510512346907</v>
+        <v>37.5105238810542</v>
       </c>
       <c r="D23">
-        <v>7.87594987782078</v>
+        <v>7.87594948081531</v>
       </c>
       <c r="E23">
-        <v>40.6076875636832</v>
+        <v>40.6077583897211</v>
       </c>
       <c r="F23">
-        <v>5.95039991876851</v>
+        <v>5.9500596507063</v>
       </c>
       <c r="G23">
-        <v>60.7613633290915</v>
+        <v>60.761196372793</v>
       </c>
       <c r="H23">
-        <v>56.778198906963</v>
+        <v>56.7782880532317</v>
       </c>
       <c r="I23">
-        <v>9.49402178299167</v>
+        <v>9.494005178421549</v>
       </c>
       <c r="J23">
-        <v>126.477354577213</v>
+        <v>126.477384308421</v>
       </c>
       <c r="K23">
-        <v>76.8133434893121</v>
+        <v>76.8133534207292</v>
       </c>
       <c r="L23">
-        <v>37.903966268286</v>
+        <v>37.9039392713464</v>
       </c>
       <c r="M23">
-        <v>533.908361392312</v>
+        <v>533.908280855944</v>
       </c>
       <c r="N23">
-        <v>83.7678815556559</v>
+        <v>83.7678657465225</v>
       </c>
       <c r="O23">
-        <v>3361.65436944919</v>
+        <v>3361.65517156494</v>
       </c>
       <c r="P23">
-        <v>47.4385737103185</v>
+        <v>47.4386151343093</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>850.368178772103</v>
+        <v>850.368888771602</v>
       </c>
       <c r="C24">
-        <v>56.9411223803597</v>
+        <v>56.9411623164353</v>
       </c>
       <c r="D24">
-        <v>5.47820689282409</v>
+        <v>5.47819929032873</v>
       </c>
       <c r="E24">
-        <v>58.1059480198203</v>
+        <v>58.1058493561855</v>
       </c>
       <c r="F24">
-        <v>12.3010757222856</v>
+        <v>12.3010714260887</v>
       </c>
       <c r="G24">
-        <v>28.470302036639</v>
+        <v>28.4701369401628</v>
       </c>
       <c r="H24">
-        <v>13.6054234991899</v>
+        <v>13.6052946287082</v>
       </c>
       <c r="I24">
-        <v>18.7033287364899</v>
+        <v>18.703262811201</v>
       </c>
       <c r="J24">
-        <v>56.8158854736436</v>
+        <v>56.8158004632364</v>
       </c>
       <c r="K24">
-        <v>33.8905868533282</v>
+        <v>33.8904732950944</v>
       </c>
       <c r="L24">
-        <v>70.15049843838141</v>
+        <v>70.1499697016728</v>
       </c>
       <c r="M24">
-        <v>33.1069246488252</v>
+        <v>33.1068929099114</v>
       </c>
       <c r="N24">
-        <v>71.9481618158721</v>
+        <v>71.94792911281451</v>
       </c>
       <c r="O24">
-        <v>1979.53364567921</v>
+        <v>1979.53477553584</v>
       </c>
       <c r="P24">
-        <v>104.283547009713</v>
+        <v>104.283631397185</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>823.930187078314</v>
+        <v>823.930342734449</v>
       </c>
       <c r="C25">
-        <v>42.3640349780893</v>
+        <v>42.364039794342</v>
       </c>
       <c r="D25">
-        <v>13.8561991408015</v>
+        <v>13.8561937899581</v>
       </c>
       <c r="E25">
-        <v>41.8118981167144</v>
+        <v>41.8118732870124</v>
       </c>
       <c r="F25">
-        <v>15.9074388199397</v>
+        <v>15.9073978881847</v>
       </c>
       <c r="G25">
-        <v>9.462686132934641</v>
+        <v>9.46267012144477</v>
       </c>
       <c r="H25">
-        <v>9.76487515883994</v>
+        <v>9.764843240120261</v>
       </c>
       <c r="I25">
-        <v>5.76732087177905</v>
+        <v>5.76732023910729</v>
       </c>
       <c r="J25">
-        <v>16.0722053760352</v>
+        <v>16.0722002806207</v>
       </c>
       <c r="K25">
-        <v>10.0059857034985</v>
+        <v>10.0059682238573</v>
       </c>
       <c r="L25">
-        <v>17.2714589519638</v>
+        <v>17.2714411876047</v>
       </c>
       <c r="M25">
-        <v>41.690675430577</v>
+        <v>41.6906643953961</v>
       </c>
       <c r="N25">
-        <v>36.461533583676</v>
+        <v>36.4614658884348</v>
       </c>
       <c r="O25">
-        <v>966.63871398638</v>
+        <v>966.638933406481</v>
       </c>
       <c r="P25">
-        <v>43.7219677134255</v>
+        <v>43.7219762831425</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1180.25114977392</v>
+        <v>1180.251662126</v>
       </c>
       <c r="C26">
-        <v>59.0606163670818</v>
+        <v>59.0606191969134</v>
       </c>
       <c r="D26">
-        <v>8.982580887006209</v>
+        <v>8.98257242356595</v>
       </c>
       <c r="E26">
-        <v>50.1110818575286</v>
+        <v>50.110977966754</v>
       </c>
       <c r="F26">
-        <v>9.297425699955371</v>
+        <v>9.29727365047345</v>
       </c>
       <c r="G26">
-        <v>33.311738234699</v>
+        <v>33.3116420851796</v>
       </c>
       <c r="H26">
-        <v>16.5815235481887</v>
+        <v>16.5812496122681</v>
       </c>
       <c r="I26">
-        <v>18.2811993143914</v>
+        <v>18.281122137887</v>
       </c>
       <c r="J26">
-        <v>44.5939255204455</v>
+        <v>44.5938620125339</v>
       </c>
       <c r="K26">
-        <v>16.3984013645109</v>
+        <v>16.3982237715514</v>
       </c>
       <c r="L26">
-        <v>24.8015436733355</v>
+        <v>24.8013232777454</v>
       </c>
       <c r="M26">
-        <v>88.9301359724565</v>
+        <v>88.930033471597</v>
       </c>
       <c r="N26">
-        <v>18.9493442372519</v>
+        <v>18.9492195818502</v>
       </c>
       <c r="O26">
-        <v>2225.76133805923</v>
+        <v>2225.76231932005</v>
       </c>
       <c r="P26">
-        <v>70.4699440194164</v>
+        <v>70.47001643888279</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>236.679879131826</v>
+        <v>236.687066915061</v>
       </c>
       <c r="C27">
-        <v>2.50994020652764</v>
+        <v>2.50973757037773</v>
       </c>
       <c r="D27">
-        <v>1.84791223840855</v>
+        <v>1.84780926934051</v>
       </c>
       <c r="E27">
-        <v>12.7760858058183</v>
+        <v>12.7753498160631</v>
       </c>
       <c r="F27">
-        <v>5.86420424935532</v>
+        <v>5.86391401954472</v>
       </c>
       <c r="G27">
-        <v>0.9535448859399121</v>
+        <v>0.953489889038646</v>
       </c>
       <c r="H27">
-        <v>0.261289336462774</v>
+        <v>0.269669568580639</v>
       </c>
       <c r="I27">
-        <v>2.69782910383714</v>
+        <v>2.69752362772676</v>
       </c>
       <c r="J27">
-        <v>3.17235784229221</v>
+        <v>3.17218914424169</v>
       </c>
       <c r="K27">
-        <v>1.57100677640947</v>
+        <v>1.57091837199755</v>
       </c>
       <c r="L27">
-        <v>1.97446753086927</v>
+        <v>1.97432486874861</v>
       </c>
       <c r="M27">
-        <v>0.734044990717341</v>
+        <v>0.73399516606709</v>
       </c>
       <c r="N27">
-        <v>3.76645448285531</v>
+        <v>3.76615819840353</v>
       </c>
       <c r="O27">
-        <v>420.839569781939</v>
+        <v>420.829665157435</v>
       </c>
       <c r="P27">
-        <v>52.3020215016908</v>
+        <v>52.300431334931</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>306.177901237495</v>
+        <v>306.177933530888</v>
       </c>
       <c r="C28">
-        <v>35.6883177664838</v>
+        <v>35.6883202408113</v>
       </c>
       <c r="D28">
-        <v>4.44501269256419</v>
+        <v>4.44500708173269</v>
       </c>
       <c r="E28">
-        <v>6.72205874257045</v>
+        <v>6.72204254393034</v>
       </c>
       <c r="F28">
-        <v>2.26945013410438</v>
+        <v>2.26944007793815</v>
       </c>
       <c r="G28">
-        <v>4.40960919857365</v>
+        <v>4.40960159263698</v>
       </c>
       <c r="H28">
-        <v>9.437529325885439</v>
+        <v>9.437497080298311</v>
       </c>
       <c r="I28">
-        <v>2.14136877789976</v>
+        <v>2.14133893793912</v>
       </c>
       <c r="J28">
-        <v>19.6801834787704</v>
+        <v>19.6801636933399</v>
       </c>
       <c r="K28">
-        <v>11.6019471097208</v>
+        <v>11.6019394438847</v>
       </c>
       <c r="L28">
-        <v>13.4640846574711</v>
+        <v>13.4640742434432</v>
       </c>
       <c r="M28">
-        <v>9.11760667935153</v>
+        <v>9.11760439648323</v>
       </c>
       <c r="N28">
-        <v>11.0273988562283</v>
+        <v>11.0273858532053</v>
       </c>
       <c r="O28">
-        <v>751.569483330429</v>
+        <v>751.5695622516</v>
       </c>
       <c r="P28">
-        <v>82.23040170697941</v>
+        <v>82.2304221126999</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>472.010596111029</v>
+        <v>472.011264918024</v>
       </c>
       <c r="C29">
-        <v>4.49269919247083</v>
+        <v>4.49271251676577</v>
       </c>
       <c r="D29">
-        <v>3.63754668053247</v>
+        <v>3.63755320431465</v>
       </c>
       <c r="E29">
-        <v>5.11885119869748</v>
+        <v>5.1188104041906</v>
       </c>
       <c r="F29">
-        <v>24.7217896470289</v>
+        <v>24.7217871646585</v>
       </c>
       <c r="G29">
-        <v>3.81814388437392</v>
+        <v>3.81810339403195</v>
       </c>
       <c r="H29">
-        <v>3.1502766695042</v>
+        <v>3.14964100098983</v>
       </c>
       <c r="I29">
-        <v>1.71215117753449</v>
+        <v>1.71209625294373</v>
       </c>
       <c r="J29">
-        <v>6.08509920995291</v>
+        <v>6.08506576405505</v>
       </c>
       <c r="K29">
-        <v>1.44617987237146</v>
+        <v>1.44616006194343</v>
       </c>
       <c r="L29">
-        <v>3.50811122630164</v>
+        <v>3.50804796386491</v>
       </c>
       <c r="M29">
-        <v>2.75364042123839</v>
+        <v>2.75363598666611</v>
       </c>
       <c r="N29">
-        <v>13.2087783766442</v>
+        <v>13.2087328531468</v>
       </c>
       <c r="O29">
-        <v>995.876080818359</v>
+        <v>995.876751247249</v>
       </c>
       <c r="P29">
-        <v>6.57049414429268</v>
+        <v>6.57055848100859</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>257.693616175602</v>
+        <v>257.693748242023</v>
       </c>
       <c r="C30">
-        <v>3.48360764834232</v>
+        <v>3.4836089821364</v>
       </c>
       <c r="D30">
-        <v>7.12384455183329</v>
+        <v>7.12383679243673</v>
       </c>
       <c r="E30">
-        <v>15.6754443012327</v>
+        <v>15.6754572555995</v>
       </c>
       <c r="F30">
-        <v>1.13969695047974</v>
+        <v>1.13968685878512</v>
       </c>
       <c r="G30">
-        <v>4.95984268634789</v>
+        <v>4.95984167903702</v>
       </c>
       <c r="H30">
-        <v>5.95884670017577</v>
+        <v>5.95884828371844</v>
       </c>
       <c r="I30">
-        <v>2.42340436613882</v>
+        <v>2.42338881711394</v>
       </c>
       <c r="J30">
-        <v>17.0837084229902</v>
+        <v>17.0837220417665</v>
       </c>
       <c r="K30">
-        <v>8.394371458580199</v>
+        <v>8.394376739707321</v>
       </c>
       <c r="L30">
-        <v>40.4476700068172</v>
+        <v>40.4477320797347</v>
       </c>
       <c r="M30">
-        <v>10.964656171805</v>
+        <v>10.9646608112063</v>
       </c>
       <c r="N30">
-        <v>13.1769897141784</v>
+        <v>13.1769909593047</v>
       </c>
       <c r="O30">
-        <v>559.327110939385</v>
+        <v>559.327237300403</v>
       </c>
       <c r="P30">
-        <v>10.4941455653999</v>
+        <v>10.4941539907864</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1841.17781011664</v>
+        <v>1841.17824226681</v>
       </c>
       <c r="C31">
-        <v>55.4554502810284</v>
+        <v>55.4554484718529</v>
       </c>
       <c r="D31">
-        <v>25.3812589767397</v>
+        <v>25.3812507317202</v>
       </c>
       <c r="E31">
-        <v>49.8583423953295</v>
+        <v>49.8582355396592</v>
       </c>
       <c r="F31">
-        <v>10.8116331437169</v>
+        <v>10.8110893564371</v>
       </c>
       <c r="G31">
-        <v>105.859531335814</v>
+        <v>105.859408548533</v>
       </c>
       <c r="H31">
-        <v>11.0420012440069</v>
+        <v>11.0418979583126</v>
       </c>
       <c r="I31">
-        <v>33.1044966782294</v>
+        <v>33.1044577824223</v>
       </c>
       <c r="J31">
-        <v>38.1512969758256</v>
+        <v>38.1512594924739</v>
       </c>
       <c r="K31">
-        <v>11.9538914625984</v>
+        <v>11.9538390528591</v>
       </c>
       <c r="L31">
-        <v>73.77564289050901</v>
+        <v>73.77545177150211</v>
       </c>
       <c r="M31">
-        <v>17.0324435327254</v>
+        <v>17.0324430093595</v>
       </c>
       <c r="N31">
-        <v>53.4509743948387</v>
+        <v>53.4508859040288</v>
       </c>
       <c r="O31">
-        <v>3544.50972212462</v>
+        <v>3544.51043557102</v>
       </c>
       <c r="P31">
-        <v>8.583767534767929</v>
+        <v>8.583787120468401</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>483.254515778521</v>
+        <v>483.253877582677</v>
       </c>
       <c r="C32">
-        <v>4.58924361994507</v>
+        <v>4.58921182593612</v>
       </c>
       <c r="D32">
-        <v>0.540601211537892</v>
+        <v>0.540591546800864</v>
       </c>
       <c r="E32">
-        <v>3.50217326120586</v>
+        <v>3.50200636584158</v>
       </c>
       <c r="F32">
-        <v>23.8180717829048</v>
+        <v>23.8178433326743</v>
       </c>
       <c r="G32">
-        <v>3.25329619598102</v>
+        <v>3.25314612870837</v>
       </c>
       <c r="H32">
-        <v>1.18661658329883</v>
+        <v>1.19497011187279</v>
       </c>
       <c r="I32">
-        <v>3.96508753201829</v>
+        <v>3.96502172451664</v>
       </c>
       <c r="J32">
-        <v>4.26232444739557</v>
+        <v>4.26223103197444</v>
       </c>
       <c r="K32">
-        <v>1.33008494463989</v>
+        <v>1.33005015982439</v>
       </c>
       <c r="L32">
-        <v>16.66888036575</v>
+        <v>16.6684337212841</v>
       </c>
       <c r="M32">
-        <v>2.47246250177935</v>
+        <v>2.47243386824097</v>
       </c>
       <c r="N32">
-        <v>9.15607113645126</v>
+        <v>9.155935022631491</v>
       </c>
       <c r="O32">
-        <v>751.631941602803</v>
+        <v>751.6261212093471</v>
       </c>
       <c r="P32">
-        <v>21.8156334090458</v>
+        <v>21.8154663656927</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4727.93218398531</v>
+        <v>4727.93370791348</v>
       </c>
       <c r="C33">
-        <v>88.0429166926222</v>
+        <v>88.0429472129974</v>
       </c>
       <c r="D33">
-        <v>58.5345835580947</v>
+        <v>58.5345317542897</v>
       </c>
       <c r="E33">
-        <v>89.59363091418339</v>
+        <v>89.5934602298955</v>
       </c>
       <c r="F33">
-        <v>8.20724455860158</v>
+        <v>8.20659247882841</v>
       </c>
       <c r="G33">
-        <v>77.700776326509</v>
+        <v>77.7006671501248</v>
       </c>
       <c r="H33">
-        <v>35.2203486749939</v>
+        <v>35.2199984557475</v>
       </c>
       <c r="I33">
-        <v>28.0517654033774</v>
+        <v>28.0515133754567</v>
       </c>
       <c r="J33">
-        <v>103.812822645531</v>
+        <v>103.812763078899</v>
       </c>
       <c r="K33">
-        <v>75.8252159024172</v>
+        <v>75.8250550439803</v>
       </c>
       <c r="L33">
-        <v>119.008169813705</v>
+        <v>119.007902597827</v>
       </c>
       <c r="M33">
-        <v>64.3577383865334</v>
+        <v>64.35772267728029</v>
       </c>
       <c r="N33">
-        <v>146.777385623494</v>
+        <v>146.777186121264</v>
       </c>
       <c r="O33">
-        <v>7354.94040722337</v>
+        <v>7354.94301093643</v>
       </c>
       <c r="P33">
-        <v>62.8692226165291</v>
+        <v>62.8692651633171</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1964.56463511157</v>
+        <v>1964.56607170699</v>
       </c>
       <c r="C34">
-        <v>72.78332547460759</v>
+        <v>72.78337509021959</v>
       </c>
       <c r="D34">
-        <v>145.990374936199</v>
+        <v>145.990340160338</v>
       </c>
       <c r="E34">
-        <v>41.5292235141589</v>
+        <v>41.5291410624196</v>
       </c>
       <c r="F34">
-        <v>3.73087684845511</v>
+        <v>3.72965756038147</v>
       </c>
       <c r="G34">
-        <v>45.4955157628334</v>
+        <v>45.4954624390299</v>
       </c>
       <c r="H34">
-        <v>46.0886356783589</v>
+        <v>46.0885535926349</v>
       </c>
       <c r="I34">
-        <v>18.8489766770327</v>
+        <v>18.8489325757544</v>
       </c>
       <c r="J34">
-        <v>48.3903621060122</v>
+        <v>48.3902723988304</v>
       </c>
       <c r="K34">
-        <v>30.6994077423152</v>
+        <v>30.6988978545999</v>
       </c>
       <c r="L34">
-        <v>99.24530918192529</v>
+        <v>99.24484611020441</v>
       </c>
       <c r="M34">
-        <v>32.829390239878</v>
+        <v>32.8293503401013</v>
       </c>
       <c r="N34">
-        <v>125.184991242337</v>
+        <v>125.184658922657</v>
       </c>
       <c r="O34">
-        <v>2937.10699923655</v>
+        <v>2937.10892873082</v>
       </c>
       <c r="P34">
-        <v>67.8368261603171</v>
+        <v>67.8368779002784</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>134.620268903363</v>
+        <v>134.620332593826</v>
       </c>
       <c r="C35">
-        <v>8.85251738165589</v>
+        <v>8.85247452264159</v>
       </c>
       <c r="D35">
-        <v>0.64929303825865</v>
+        <v>0.649291494413057</v>
       </c>
       <c r="E35">
-        <v>2.4731636087822</v>
+        <v>2.47312428370358</v>
       </c>
       <c r="F35">
-        <v>4.19865940543619</v>
+        <v>4.19865345590412</v>
       </c>
       <c r="G35">
-        <v>1.85003308045199</v>
+        <v>1.85001079668734</v>
       </c>
       <c r="H35">
-        <v>0.175654637005</v>
+        <v>0.175653612635962</v>
       </c>
       <c r="I35">
-        <v>1.69415467230304</v>
+        <v>1.69412957936471</v>
       </c>
       <c r="J35">
-        <v>3.29128579590963</v>
+        <v>3.29118314343201</v>
       </c>
       <c r="K35">
-        <v>6.11419036690594</v>
+        <v>6.1141482952276</v>
       </c>
       <c r="L35">
-        <v>2.77655348151969</v>
+        <v>2.77653692176616</v>
       </c>
       <c r="M35">
-        <v>2.04064439992247</v>
+        <v>2.04063261290098</v>
       </c>
       <c r="N35">
-        <v>3.61708500429537</v>
+        <v>3.61704154346822</v>
       </c>
       <c r="O35">
-        <v>297.320398829641</v>
+        <v>297.320472592562</v>
       </c>
       <c r="P35">
-        <v>48.1645748883114</v>
+        <v>48.1646140171408</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2640.67763290966</v>
+        <v>2640.67828039707</v>
       </c>
       <c r="C36">
-        <v>44.3445053925295</v>
+        <v>44.3445144658299</v>
       </c>
       <c r="D36">
-        <v>17.0145413068861</v>
+        <v>17.0145321810544</v>
       </c>
       <c r="E36">
-        <v>122.126872332715</v>
+        <v>122.126899348405</v>
       </c>
       <c r="F36">
-        <v>29.6338846287609</v>
+        <v>29.6334930927896</v>
       </c>
       <c r="G36">
-        <v>93.1556616453716</v>
+        <v>93.1555911443824</v>
       </c>
       <c r="H36">
-        <v>87.1471712474771</v>
+        <v>87.1469353387633</v>
       </c>
       <c r="I36">
-        <v>38.6120003693094</v>
+        <v>38.6119537996703</v>
       </c>
       <c r="J36">
-        <v>195.198963427115</v>
+        <v>195.198870460975</v>
       </c>
       <c r="K36">
-        <v>72.96150048725789</v>
+        <v>72.9614085308463</v>
       </c>
       <c r="L36">
-        <v>73.88537194236641</v>
+        <v>73.8852298042203</v>
       </c>
       <c r="M36">
-        <v>216.870445443877</v>
+        <v>216.870325326927</v>
       </c>
       <c r="N36">
-        <v>95.1927317563551</v>
+        <v>95.1926174953353</v>
       </c>
       <c r="O36">
-        <v>4174.99315832101</v>
+        <v>4174.99416306979</v>
       </c>
       <c r="P36">
-        <v>45.2127955515515</v>
+        <v>45.2128307971502</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>831.412688357848</v>
+        <v>831.413248205533</v>
       </c>
       <c r="C37">
-        <v>19.9588169769331</v>
+        <v>19.9588330533962</v>
       </c>
       <c r="D37">
-        <v>3.11104964977343</v>
+        <v>3.11105240603618</v>
       </c>
       <c r="E37">
-        <v>20.5629221960264</v>
+        <v>20.5628482936004</v>
       </c>
       <c r="F37">
-        <v>27.6045795819004</v>
+        <v>27.6045438969161</v>
       </c>
       <c r="G37">
-        <v>7.031539956076</v>
+        <v>7.03153966352699</v>
       </c>
       <c r="H37">
-        <v>25.6551923666787</v>
+        <v>25.6548718416144</v>
       </c>
       <c r="I37">
-        <v>11.3206347420071</v>
+        <v>11.3206120075529</v>
       </c>
       <c r="J37">
-        <v>38.9014525244056</v>
+        <v>38.9014470821919</v>
       </c>
       <c r="K37">
-        <v>29.1807140950846</v>
+        <v>29.1806778188139</v>
       </c>
       <c r="L37">
-        <v>23.218734555325</v>
+        <v>23.2186003529937</v>
       </c>
       <c r="M37">
-        <v>42.4403657948585</v>
+        <v>42.4403387800956</v>
       </c>
       <c r="N37">
-        <v>20.9647623446516</v>
+        <v>20.9646956488437</v>
       </c>
       <c r="O37">
-        <v>1228.08177343568</v>
+        <v>1228.08252057282</v>
       </c>
       <c r="P37">
-        <v>57.9720676057931</v>
+        <v>57.9721033464646</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>835.509426451924</v>
+        <v>835.510117097996</v>
       </c>
       <c r="C38">
-        <v>22.6004958115812</v>
+        <v>22.6005378840406</v>
       </c>
       <c r="D38">
-        <v>10.6996107191804</v>
+        <v>10.699615176782</v>
       </c>
       <c r="E38">
-        <v>51.8761474209448</v>
+        <v>51.8763545244789</v>
       </c>
       <c r="F38">
-        <v>2.08354345893774</v>
+        <v>2.08352969054515</v>
       </c>
       <c r="G38">
-        <v>7.48435892812794</v>
+        <v>7.48396010848305</v>
       </c>
       <c r="H38">
-        <v>3.39965659568806</v>
+        <v>3.39887140149203</v>
       </c>
       <c r="I38">
-        <v>2.74665212665678</v>
+        <v>2.74656936296167</v>
       </c>
       <c r="J38">
-        <v>40.0078448086366</v>
+        <v>40.007612814362</v>
       </c>
       <c r="K38">
-        <v>4.46020801185924</v>
+        <v>4.46014804744098</v>
       </c>
       <c r="L38">
-        <v>58.9723587485923</v>
+        <v>58.9717860426859</v>
       </c>
       <c r="M38">
-        <v>16.574791719598</v>
+        <v>16.574778931895</v>
       </c>
       <c r="N38">
-        <v>33.7428061857279</v>
+        <v>33.7425574026556</v>
       </c>
       <c r="O38">
-        <v>1326.35946164705</v>
+        <v>1326.36178498932</v>
       </c>
       <c r="P38">
-        <v>64.1273859014009</v>
+        <v>64.1275197373029</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2993.9916120964</v>
+        <v>2993.99230559722</v>
       </c>
       <c r="C39">
-        <v>91.5556714295488</v>
+        <v>91.55568927639899</v>
       </c>
       <c r="D39">
-        <v>43.3574923733829</v>
+        <v>43.3574975405497</v>
       </c>
       <c r="E39">
-        <v>127.760355921252</v>
+        <v>127.760390733533</v>
       </c>
       <c r="F39">
-        <v>23.8113802310332</v>
+        <v>23.8111435330189</v>
       </c>
       <c r="G39">
-        <v>122.070719633283</v>
+        <v>122.070596961317</v>
       </c>
       <c r="H39">
-        <v>57.0044480337977</v>
+        <v>57.0040833012211</v>
       </c>
       <c r="I39">
-        <v>38.4967232228753</v>
+        <v>38.4966563043397</v>
       </c>
       <c r="J39">
-        <v>154.41162070749</v>
+        <v>154.411477245216</v>
       </c>
       <c r="K39">
-        <v>90.6033978687435</v>
+        <v>90.60320572389681</v>
       </c>
       <c r="L39">
-        <v>98.0218441817284</v>
+        <v>98.0216144643404</v>
       </c>
       <c r="M39">
-        <v>68.03097848581061</v>
+        <v>68.0309445847314</v>
       </c>
       <c r="N39">
-        <v>111.877833002726</v>
+        <v>111.877712900891</v>
       </c>
       <c r="O39">
-        <v>4614.56049093855</v>
+        <v>4614.56154461675</v>
       </c>
       <c r="P39">
-        <v>53.559968660377</v>
+        <v>53.5600253510025</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>262.42070628389</v>
+        <v>262.420770957623</v>
       </c>
       <c r="C40">
-        <v>4.27086689280957</v>
+        <v>4.27086648466812</v>
       </c>
       <c r="D40">
-        <v>8.91760680898685</v>
+        <v>8.91761063177403</v>
       </c>
       <c r="E40">
-        <v>5.34477429263367</v>
+        <v>5.3447697732417</v>
       </c>
       <c r="F40">
-        <v>0.507730421254325</v>
+        <v>0.507541107619199</v>
       </c>
       <c r="G40">
-        <v>5.08311257504409</v>
+        <v>5.08313459821906</v>
       </c>
       <c r="H40">
-        <v>4.2069605071983</v>
+        <v>4.20703073141239</v>
       </c>
       <c r="I40">
-        <v>1.54778501378663</v>
+        <v>1.54778302903525</v>
       </c>
       <c r="J40">
-        <v>10.2823772508886</v>
+        <v>10.282416585254</v>
       </c>
       <c r="K40">
-        <v>3.62607227427771</v>
+        <v>3.62607345288268</v>
       </c>
       <c r="L40">
-        <v>16.4388548360206</v>
+        <v>16.4388648683923</v>
       </c>
       <c r="M40">
-        <v>5.12857140698317</v>
+        <v>5.12857918524374</v>
       </c>
       <c r="N40">
-        <v>23.3164249837937</v>
+        <v>23.3165081246143</v>
       </c>
       <c r="O40">
-        <v>484.757500824108</v>
+        <v>484.757606619911</v>
       </c>
       <c r="P40">
-        <v>2.68312378240917</v>
+        <v>2.68310800229786</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1030.18674564529</v>
+        <v>1030.18466752002</v>
       </c>
       <c r="C41">
-        <v>12.2273819672851</v>
+        <v>12.2273548454452</v>
       </c>
       <c r="D41">
-        <v>73.53597524991051</v>
+        <v>73.5357657316856</v>
       </c>
       <c r="E41">
-        <v>30.0648674027725</v>
+        <v>30.0647353959821</v>
       </c>
       <c r="F41">
-        <v>0.9897608551484161</v>
+        <v>0.997250240847217</v>
       </c>
       <c r="G41">
-        <v>25.5056147313946</v>
+        <v>25.5054651770149</v>
       </c>
       <c r="H41">
-        <v>35.8537676881042</v>
+        <v>35.853341017012</v>
       </c>
       <c r="I41">
-        <v>18.5792960051571</v>
+        <v>18.579111816437</v>
       </c>
       <c r="J41">
-        <v>40.1186616945561</v>
+        <v>40.1184458789315</v>
       </c>
       <c r="K41">
-        <v>11.6694189684368</v>
+        <v>11.6693338749303</v>
       </c>
       <c r="L41">
-        <v>30.743664760864</v>
+        <v>30.7433787303276</v>
       </c>
       <c r="M41">
-        <v>22.6732646576178</v>
+        <v>22.673138363382</v>
       </c>
       <c r="N41">
-        <v>19.8335473523799</v>
+        <v>19.833385023106</v>
       </c>
       <c r="O41">
-        <v>1449.60095513696</v>
+        <v>1449.59793145655</v>
       </c>
       <c r="P41">
-        <v>35.39315671313</v>
+        <v>35.3931364390056</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>146.541503684585</v>
+        <v>146.541573419176</v>
       </c>
       <c r="C42">
-        <v>6.80394778888065</v>
+        <v>6.80395013816407</v>
       </c>
       <c r="D42">
-        <v>2.08414732116968</v>
+        <v>2.08414955438641</v>
       </c>
       <c r="E42">
-        <v>7.32478159509105</v>
+        <v>7.32489799347641</v>
       </c>
       <c r="F42">
-        <v>2.93013229140491</v>
+        <v>2.93016593156724</v>
       </c>
       <c r="G42">
-        <v>1.67257939224212</v>
+        <v>1.67258984324964</v>
       </c>
       <c r="H42">
-        <v>0.688006798825235</v>
+        <v>0.68805175144939</v>
       </c>
       <c r="I42">
-        <v>1.05153877231491</v>
+        <v>1.05149283867003</v>
       </c>
       <c r="J42">
-        <v>4.00606050786329</v>
+        <v>4.00609430009679</v>
       </c>
       <c r="K42">
-        <v>5.13458565921309</v>
+        <v>5.13456358382532</v>
       </c>
       <c r="L42">
-        <v>8.9811233769871</v>
+        <v>8.981203975909789</v>
       </c>
       <c r="M42">
-        <v>4.20550583961886</v>
+        <v>4.20550220185095</v>
       </c>
       <c r="N42">
-        <v>9.880445072093771</v>
+        <v>9.88050643517593</v>
       </c>
       <c r="O42">
-        <v>381.688493208822</v>
+        <v>381.68856720705</v>
       </c>
       <c r="P42">
-        <v>57.5922037723128</v>
+        <v>57.5922402132582</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1480.96139689324</v>
+        <v>1480.96193300766</v>
       </c>
       <c r="C43">
-        <v>43.8315481673611</v>
+        <v>43.8315661596263</v>
       </c>
       <c r="D43">
-        <v>31.5426066321651</v>
+        <v>31.5425784736422</v>
       </c>
       <c r="E43">
-        <v>82.173320784878</v>
+        <v>82.1733970800604</v>
       </c>
       <c r="F43">
-        <v>6.35686871474468</v>
+        <v>6.35673201138464</v>
       </c>
       <c r="G43">
-        <v>21.7419761077662</v>
+        <v>21.7419704423922</v>
       </c>
       <c r="H43">
-        <v>43.3453133364153</v>
+        <v>43.3446867443252</v>
       </c>
       <c r="I43">
-        <v>25.9983818081666</v>
+        <v>25.9982187673721</v>
       </c>
       <c r="J43">
-        <v>51.2057548437187</v>
+        <v>51.2056992610385</v>
       </c>
       <c r="K43">
-        <v>32.0816931129943</v>
+        <v>32.0816157783953</v>
       </c>
       <c r="L43">
-        <v>43.6625507654152</v>
+        <v>43.6624393972866</v>
       </c>
       <c r="M43">
-        <v>127.015799551522</v>
+        <v>127.015636433119</v>
       </c>
       <c r="N43">
-        <v>51.485332164654</v>
+        <v>51.4852420720363</v>
       </c>
       <c r="O43">
-        <v>1989.24593420873</v>
+        <v>1989.24665542694</v>
       </c>
       <c r="P43">
-        <v>42.3600742121956</v>
+        <v>42.3601089365195</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4660.26394385825</v>
+        <v>4660.26660841639</v>
       </c>
       <c r="C44">
-        <v>147.709909187203</v>
+        <v>147.710012884182</v>
       </c>
       <c r="D44">
-        <v>31.1555301302719</v>
+        <v>31.1554088048205</v>
       </c>
       <c r="E44">
-        <v>99.4743397317783</v>
+        <v>99.47356923535961</v>
       </c>
       <c r="F44">
-        <v>217.906865454404</v>
+        <v>217.906292182652</v>
       </c>
       <c r="G44">
-        <v>112.436958779163</v>
+        <v>112.436607331272</v>
       </c>
       <c r="H44">
-        <v>42.1802787339272</v>
+        <v>42.1780448560692</v>
       </c>
       <c r="I44">
-        <v>42.9720324901709</v>
+        <v>42.9717146162862</v>
       </c>
       <c r="J44">
-        <v>95.4803225548077</v>
+        <v>95.4800387330294</v>
       </c>
       <c r="K44">
-        <v>58.368280630242</v>
+        <v>58.3680740505381</v>
       </c>
       <c r="L44">
-        <v>159.407090183509</v>
+        <v>159.406086285309</v>
       </c>
       <c r="M44">
-        <v>88.0509545796639</v>
+        <v>88.05072385882021</v>
       </c>
       <c r="N44">
-        <v>99.30843492219771</v>
+        <v>99.3079169670399</v>
       </c>
       <c r="O44">
-        <v>7836.40832986152</v>
+        <v>7836.4121833499</v>
       </c>
       <c r="P44">
-        <v>214.220791393893</v>
+        <v>214.221032180295</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>454.529598755144</v>
+        <v>454.530303348237</v>
       </c>
       <c r="C45">
-        <v>20.5191099153667</v>
+        <v>20.5191473054508</v>
       </c>
       <c r="D45">
-        <v>2.62764041640244</v>
+        <v>2.6276355312736</v>
       </c>
       <c r="E45">
-        <v>25.0532400056903</v>
+        <v>25.0527820667331</v>
       </c>
       <c r="F45">
-        <v>22.7019070434682</v>
+        <v>22.7017265640401</v>
       </c>
       <c r="G45">
-        <v>5.93567136529683</v>
+        <v>5.9355874434861</v>
       </c>
       <c r="H45">
-        <v>4.24284937362798</v>
+        <v>4.24273108821699</v>
       </c>
       <c r="I45">
-        <v>3.76915711831613</v>
+        <v>3.76871763259585</v>
       </c>
       <c r="J45">
-        <v>19.3046313501012</v>
+        <v>19.3045638919381</v>
       </c>
       <c r="K45">
-        <v>5.13662844632552</v>
+        <v>5.13658712511973</v>
       </c>
       <c r="L45">
-        <v>14.8531555440815</v>
+        <v>14.8530122235984</v>
       </c>
       <c r="M45">
-        <v>16.4787351700273</v>
+        <v>16.4786740715671</v>
       </c>
       <c r="N45">
-        <v>25.9374615969368</v>
+        <v>25.937224421094</v>
       </c>
       <c r="O45">
-        <v>845.119349670485</v>
+        <v>845.1200818322141</v>
       </c>
       <c r="P45">
-        <v>20.5644211054667</v>
+        <v>20.564515362349</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>136.919630714002</v>
+        <v>136.919636793831</v>
       </c>
       <c r="C46">
-        <v>4.70611352410776</v>
+        <v>4.70611291226616</v>
       </c>
       <c r="D46">
-        <v>1.01830996989063</v>
+        <v>1.01830891232998</v>
       </c>
       <c r="E46">
-        <v>5.83884846478237</v>
+        <v>5.83880964259001</v>
       </c>
       <c r="F46">
-        <v>0.841364146990022</v>
+        <v>0.8414209796001541</v>
       </c>
       <c r="G46">
-        <v>3.36542434896846</v>
+        <v>3.36541117844791</v>
       </c>
       <c r="H46">
-        <v>1.41342679109091</v>
+        <v>1.41347215948141</v>
       </c>
       <c r="I46">
-        <v>1.81376544122558</v>
+        <v>1.81378045087805</v>
       </c>
       <c r="J46">
-        <v>5.65366605979966</v>
+        <v>5.65367753600265</v>
       </c>
       <c r="K46">
-        <v>2.718531416115</v>
+        <v>2.71852277930767</v>
       </c>
       <c r="L46">
-        <v>13.1054044475633</v>
+        <v>13.1054155925288</v>
       </c>
       <c r="M46">
-        <v>3.78663828954818</v>
+        <v>3.78664041893045</v>
       </c>
       <c r="N46">
-        <v>10.5844224464809</v>
+        <v>10.5844107524045</v>
       </c>
       <c r="O46">
-        <v>323.687102176913</v>
+        <v>323.687072922175</v>
       </c>
       <c r="P46">
-        <v>12.5419201357279</v>
+        <v>12.5418950709592</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1599.87584316066</v>
+        <v>1599.8764907904</v>
       </c>
       <c r="C47">
-        <v>50.8318966506264</v>
+        <v>50.8319268779134</v>
       </c>
       <c r="D47">
-        <v>25.7213025052882</v>
+        <v>25.7213079196289</v>
       </c>
       <c r="E47">
-        <v>57.8586327926934</v>
+        <v>57.8586667233006</v>
       </c>
       <c r="F47">
-        <v>9.914388725820009</v>
+        <v>9.91403273524476</v>
       </c>
       <c r="G47">
-        <v>22.4558516961741</v>
+        <v>22.4557530527045</v>
       </c>
       <c r="H47">
-        <v>9.871847040592691</v>
+        <v>9.871626557155761</v>
       </c>
       <c r="I47">
-        <v>4.29601646827001</v>
+        <v>4.29599540106167</v>
       </c>
       <c r="J47">
-        <v>39.2654139988879</v>
+        <v>39.2653624440184</v>
       </c>
       <c r="K47">
-        <v>12.8089288239959</v>
+        <v>12.8088726006019</v>
       </c>
       <c r="L47">
-        <v>31.2301972349993</v>
+        <v>31.2299370416794</v>
       </c>
       <c r="M47">
-        <v>71.7646616644695</v>
+        <v>71.76463544816519</v>
       </c>
       <c r="N47">
-        <v>40.8550646936241</v>
+        <v>40.8548894740295</v>
       </c>
       <c r="O47">
-        <v>2866.34100430796</v>
+        <v>2866.34185228212</v>
       </c>
       <c r="P47">
-        <v>36.2825825358237</v>
+        <v>36.2826363093554</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1395.05416019186</v>
+        <v>1395.05762797543</v>
       </c>
       <c r="C48">
-        <v>27.7565021773695</v>
+        <v>27.7565509821034</v>
       </c>
       <c r="D48">
-        <v>3.87697323252389</v>
+        <v>3.87697672521267</v>
       </c>
       <c r="E48">
-        <v>72.13010695761641</v>
+        <v>72.13019542871589</v>
       </c>
       <c r="F48">
-        <v>6.46342346421416</v>
+        <v>6.46340139330702</v>
       </c>
       <c r="G48">
-        <v>5.15029318921574</v>
+        <v>5.15026037688195</v>
       </c>
       <c r="H48">
-        <v>3.55507071295852</v>
+        <v>3.55430507440481</v>
       </c>
       <c r="I48">
-        <v>10.3164266072743</v>
+        <v>10.3159724974009</v>
       </c>
       <c r="J48">
-        <v>35.8998547734744</v>
+        <v>35.8996433977717</v>
       </c>
       <c r="K48">
-        <v>10.7403623150286</v>
+        <v>10.7395219068181</v>
       </c>
       <c r="L48">
-        <v>48.204842997447</v>
+        <v>48.203834410824</v>
       </c>
       <c r="M48">
-        <v>111.238666927121</v>
+        <v>111.238488645128</v>
       </c>
       <c r="N48">
-        <v>35.187977549088</v>
+        <v>35.1876416535071</v>
       </c>
       <c r="O48">
-        <v>2262.26554287916</v>
+        <v>2262.2697066523</v>
       </c>
       <c r="P48">
-        <v>95.8287029062915</v>
+        <v>95.82898920308649</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>700.088150336622</v>
+        <v>700.088140902488</v>
       </c>
       <c r="C49">
-        <v>6.0529095737023</v>
+        <v>6.05290939478798</v>
       </c>
       <c r="D49">
-        <v>3.67497254817637</v>
+        <v>3.67496401986182</v>
       </c>
       <c r="E49">
-        <v>24.423891503927</v>
+        <v>24.4238759424187</v>
       </c>
       <c r="F49">
-        <v>27.2695908671034</v>
+        <v>27.2694008575235</v>
       </c>
       <c r="G49">
-        <v>14.5659201889083</v>
+        <v>14.5659058723887</v>
       </c>
       <c r="H49">
-        <v>7.53234679301699</v>
+        <v>7.5323267817473</v>
       </c>
       <c r="I49">
-        <v>4.32119821035727</v>
+        <v>4.32112197854992</v>
       </c>
       <c r="J49">
-        <v>21.7687061385635</v>
+        <v>21.7686691874687</v>
       </c>
       <c r="K49">
-        <v>3.25276001657593</v>
+        <v>3.2527575775672</v>
       </c>
       <c r="L49">
-        <v>0.877621957422955</v>
+        <v>0.877616290123461</v>
       </c>
       <c r="M49">
-        <v>6.87873770156503</v>
+        <v>6.87873605863935</v>
       </c>
       <c r="N49">
-        <v>3.62480197899015</v>
+        <v>3.62479080868835</v>
       </c>
       <c r="O49">
-        <v>638.186357398817</v>
+        <v>638.1863801632001</v>
       </c>
       <c r="P49">
-        <v>6.93702959109266</v>
+        <v>6.93703190546423</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>995.6195176334149</v>
+        <v>995.619878446541</v>
       </c>
       <c r="C50">
-        <v>78.35071424195969</v>
+        <v>78.35072569447929</v>
       </c>
       <c r="D50">
-        <v>14.9592356757807</v>
+        <v>14.9592397303064</v>
       </c>
       <c r="E50">
-        <v>153.841694195185</v>
+        <v>153.841595828767</v>
       </c>
       <c r="F50">
-        <v>3.73661940554654</v>
+        <v>3.73658761335377</v>
       </c>
       <c r="G50">
-        <v>28.29380375891</v>
+        <v>28.293768498189</v>
       </c>
       <c r="H50">
-        <v>36.5292715816399</v>
+        <v>36.5292222864265</v>
       </c>
       <c r="I50">
-        <v>16.1336831265899</v>
+        <v>16.133608575403</v>
       </c>
       <c r="J50">
-        <v>108.216468786507</v>
+        <v>108.216482393179</v>
       </c>
       <c r="K50">
-        <v>63.8124028865151</v>
+        <v>63.8123815323031</v>
       </c>
       <c r="L50">
-        <v>53.21427652965</v>
+        <v>53.2142474475065</v>
       </c>
       <c r="M50">
-        <v>34.6183823782387</v>
+        <v>34.6183801620303</v>
       </c>
       <c r="N50">
-        <v>56.2725677620057</v>
+        <v>56.272567546149</v>
       </c>
       <c r="O50">
-        <v>2077.27122688975</v>
+        <v>2077.27194852281</v>
       </c>
       <c r="P50">
-        <v>86.82645235259911</v>
+        <v>86.8264860370882</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>140.30878111795</v>
+        <v>140.309060565662</v>
       </c>
       <c r="C51">
-        <v>4.48609484004768</v>
+        <v>4.48610141721036</v>
       </c>
       <c r="D51">
-        <v>0.0728015490286263</v>
+        <v>0.0728020192133067</v>
       </c>
       <c r="E51">
-        <v>2.27435168560037</v>
+        <v>2.27444009604704</v>
       </c>
       <c r="F51">
-        <v>33.8136995618925</v>
+        <v>33.8147971993553</v>
       </c>
       <c r="G51">
-        <v>2.31891419790721</v>
+        <v>2.31893115613477</v>
       </c>
       <c r="H51">
-        <v>0.0229291938717871</v>
+        <v>0.0229360928342971</v>
       </c>
       <c r="I51">
-        <v>1.23322382253034</v>
+        <v>1.23303071559648</v>
       </c>
       <c r="J51">
-        <v>1.26495746994704</v>
+        <v>1.26493417834044</v>
       </c>
       <c r="K51">
-        <v>0.86970739288032</v>
+        <v>0.869683157149486</v>
       </c>
       <c r="L51">
-        <v>0.233653428456663</v>
+        <v>0.233634494177735</v>
       </c>
       <c r="M51">
-        <v>0.5043448237759</v>
+        <v>0.50433792399844</v>
       </c>
       <c r="N51">
-        <v>1.18443127291423</v>
+        <v>1.18441766834058</v>
       </c>
       <c r="O51">
-        <v>289.038360425694</v>
+        <v>289.038711322791</v>
       </c>
       <c r="P51">
-        <v>26.1456397427972</v>
+        <v>26.1457079777796</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1359.33720181439</v>
+        <v>1335.19503324677</v>
       </c>
       <c r="C2">
-        <v>25.8484148781348</v>
+        <v>27.3965090141449</v>
       </c>
       <c r="D2">
-        <v>40.2521044938461</v>
+        <v>39.8781946769274</v>
       </c>
       <c r="E2">
-        <v>60.4739730640627</v>
+        <v>62.1580796311111</v>
       </c>
       <c r="F2">
-        <v>20.2813373653989</v>
+        <v>18.9930561655855</v>
       </c>
       <c r="G2">
-        <v>12.6034930526946</v>
+        <v>13.8313998843467</v>
       </c>
       <c r="H2">
-        <v>22.1012234818072</v>
+        <v>24.8071736728415</v>
       </c>
       <c r="I2">
-        <v>15.6047962060559</v>
+        <v>14.3261388243131</v>
       </c>
       <c r="J2">
-        <v>73.784045112005</v>
+        <v>72.8400083007563</v>
       </c>
       <c r="K2">
-        <v>17.8235486711071</v>
+        <v>16.6317794916403</v>
       </c>
       <c r="L2">
-        <v>48.5667311759241</v>
+        <v>44.5141528632091</v>
       </c>
       <c r="M2">
-        <v>41.4720993377625</v>
+        <v>40.6332484569557</v>
       </c>
       <c r="N2">
-        <v>25.0272766659894</v>
+        <v>23.7294738741473</v>
       </c>
       <c r="O2">
-        <v>1370.15233964818</v>
+        <v>1408.57112225498</v>
       </c>
       <c r="P2">
-        <v>21.1375432105899</v>
+        <v>20.4298741404398</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>164.241175357494</v>
+        <v>154.727937722138</v>
       </c>
       <c r="C3">
-        <v>5.20454900486866</v>
+        <v>4.51601141368387</v>
       </c>
       <c r="D3">
-        <v>0.534109314486097</v>
+        <v>0.417725294625128</v>
       </c>
       <c r="E3">
-        <v>1.35867437271796</v>
+        <v>1.28542443193201</v>
       </c>
       <c r="F3">
-        <v>9.43353816800799</v>
+        <v>9.99821239598826</v>
       </c>
       <c r="G3">
-        <v>0.411017825676852</v>
+        <v>0.40303886011907</v>
       </c>
       <c r="H3">
-        <v>0.147394934943478</v>
+        <v>0.0863155918591078</v>
       </c>
       <c r="I3">
-        <v>0.9844037857508931</v>
+        <v>1.01969082226758</v>
       </c>
       <c r="J3">
-        <v>0.52270039959889</v>
+        <v>0.437081120546913</v>
       </c>
       <c r="K3">
-        <v>0.07978730083154551</v>
+        <v>0.205430303184139</v>
       </c>
       <c r="L3">
-        <v>0.024083374123457</v>
+        <v>0.252482261722613</v>
       </c>
       <c r="M3">
-        <v>0.816696539687126</v>
+        <v>0.877947103846313</v>
       </c>
       <c r="N3">
-        <v>0.698089295078325</v>
+        <v>1.17271159125865</v>
       </c>
       <c r="O3">
-        <v>346.370948802642</v>
+        <v>326.921012137288</v>
       </c>
       <c r="P3">
-        <v>14.892203918466</v>
+        <v>14.4852236342706</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1313.88062275765</v>
+        <v>1341.06233316936</v>
       </c>
       <c r="C4">
-        <v>6.56906323892565</v>
+        <v>7.52873331865125</v>
       </c>
       <c r="D4">
-        <v>2.64672840643604</v>
+        <v>2.61261721306641</v>
       </c>
       <c r="E4">
-        <v>25.7308511022615</v>
+        <v>23.1770575566091</v>
       </c>
       <c r="F4">
-        <v>6.92000533768779</v>
+        <v>10.1080366775525</v>
       </c>
       <c r="G4">
-        <v>5.33063638750498</v>
+        <v>7.19460538875655</v>
       </c>
       <c r="H4">
-        <v>14.3962713351801</v>
+        <v>11.7365082283757</v>
       </c>
       <c r="I4">
-        <v>11.6439650678811</v>
+        <v>9.814236479080201</v>
       </c>
       <c r="J4">
-        <v>19.4811803357509</v>
+        <v>23.445936854947</v>
       </c>
       <c r="K4">
-        <v>3.99661698322818</v>
+        <v>4.9812752149911</v>
       </c>
       <c r="L4">
-        <v>63.4094331013953</v>
+        <v>65.9088202871784</v>
       </c>
       <c r="M4">
-        <v>42.7395299547992</v>
+        <v>43.5235933985015</v>
       </c>
       <c r="N4">
-        <v>29.637514204974</v>
+        <v>32.5162817851677</v>
       </c>
       <c r="O4">
-        <v>2070.18695077665</v>
+        <v>2093.83618943839</v>
       </c>
       <c r="P4">
-        <v>17.6949445907494</v>
+        <v>17.7744124042265</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>715.854992893954</v>
+        <v>714.848452079264</v>
       </c>
       <c r="C5">
-        <v>47.3240699489485</v>
+        <v>48.6118104278699</v>
       </c>
       <c r="D5">
-        <v>10.1289011134513</v>
+        <v>11.4222769862597</v>
       </c>
       <c r="E5">
-        <v>34.8531229900436</v>
+        <v>34.3683537559592</v>
       </c>
       <c r="F5">
-        <v>6.93452971405994</v>
+        <v>5.91746492810291</v>
       </c>
       <c r="G5">
-        <v>4.3253317776119</v>
+        <v>4.73921300800816</v>
       </c>
       <c r="H5">
-        <v>11.1927059184193</v>
+        <v>11.4507858562088</v>
       </c>
       <c r="I5">
-        <v>8.01893211876788</v>
+        <v>6.87800364872755</v>
       </c>
       <c r="J5">
-        <v>30.5380348999135</v>
+        <v>29.5037716535446</v>
       </c>
       <c r="K5">
-        <v>9.94731742867444</v>
+        <v>12.9988415436645</v>
       </c>
       <c r="L5">
-        <v>20.5580344149796</v>
+        <v>21.2070495524756</v>
       </c>
       <c r="M5">
-        <v>21.2874605043661</v>
+        <v>21.6658979186805</v>
       </c>
       <c r="N5">
-        <v>19.99815948763</v>
+        <v>22.5088685297403</v>
       </c>
       <c r="O5">
-        <v>905.175708953716</v>
+        <v>909.006967140739</v>
       </c>
       <c r="P5">
-        <v>62.3487852941477</v>
+        <v>55.9386032128664</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7975.8914092885</v>
+        <v>7907.86535053452</v>
       </c>
       <c r="C6">
-        <v>195.497613198487</v>
+        <v>195.097899150831</v>
       </c>
       <c r="D6">
-        <v>114.015425369496</v>
+        <v>126.19554807013</v>
       </c>
       <c r="E6">
-        <v>176.9511888833</v>
+        <v>166.207492235072</v>
       </c>
       <c r="F6">
-        <v>36.305114629792</v>
+        <v>43.9693924233895</v>
       </c>
       <c r="G6">
-        <v>119.321279281203</v>
+        <v>110.31072958354</v>
       </c>
       <c r="H6">
-        <v>68.6892767077842</v>
+        <v>65.55610333425351</v>
       </c>
       <c r="I6">
-        <v>42.1454174513491</v>
+        <v>41.3653474819313</v>
       </c>
       <c r="J6">
-        <v>191.388169579622</v>
+        <v>186.355349991578</v>
       </c>
       <c r="K6">
-        <v>78.7187954138272</v>
+        <v>85.0499373921139</v>
       </c>
       <c r="L6">
-        <v>478.582485375099</v>
+        <v>474.713661412774</v>
       </c>
       <c r="M6">
-        <v>288.864837671045</v>
+        <v>272.041923819673</v>
       </c>
       <c r="N6">
-        <v>268.705109386628</v>
+        <v>285.921574056243</v>
       </c>
       <c r="O6">
-        <v>12515.8367765611</v>
+        <v>12593.1272026831</v>
       </c>
       <c r="P6">
-        <v>290.837007481052</v>
+        <v>292.090264852201</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>799.325972328454</v>
+        <v>806.398146254571</v>
       </c>
       <c r="C7">
-        <v>36.5295521097891</v>
+        <v>35.4576261231556</v>
       </c>
       <c r="D7">
-        <v>2.92713322308687</v>
+        <v>3.5534318518252</v>
       </c>
       <c r="E7">
-        <v>17.5322052824209</v>
+        <v>19.9010014517269</v>
       </c>
       <c r="F7">
-        <v>11.0415131269418</v>
+        <v>12.8832958529424</v>
       </c>
       <c r="G7">
-        <v>6.40240510732691</v>
+        <v>6.85281261299159</v>
       </c>
       <c r="H7">
-        <v>4.22649077748242</v>
+        <v>4.31149497451279</v>
       </c>
       <c r="I7">
-        <v>9.712847508855219</v>
+        <v>9.420868130947911</v>
       </c>
       <c r="J7">
-        <v>13.1858118489292</v>
+        <v>17.0767478713809</v>
       </c>
       <c r="K7">
-        <v>7.46655259508515</v>
+        <v>8.662624316623321</v>
       </c>
       <c r="L7">
-        <v>52.727210419947</v>
+        <v>56.5476285050751</v>
       </c>
       <c r="M7">
-        <v>16.3345692713511</v>
+        <v>16.3877017348907</v>
       </c>
       <c r="N7">
-        <v>29.7243111311447</v>
+        <v>26.8286108483574</v>
       </c>
       <c r="O7">
-        <v>1886.92904391692</v>
+        <v>1890.67981398427</v>
       </c>
       <c r="P7">
-        <v>24.8712660086181</v>
+        <v>28.8678885199001</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>677.395080078363</v>
+        <v>681.182906369729</v>
       </c>
       <c r="C8">
-        <v>14.9536836421309</v>
+        <v>13.4164916214754</v>
       </c>
       <c r="D8">
-        <v>5.27082663635247</v>
+        <v>4.36200508135484</v>
       </c>
       <c r="E8">
-        <v>21.9443640959252</v>
+        <v>20.9359143316304</v>
       </c>
       <c r="F8">
-        <v>1.10360382718432</v>
+        <v>3.29440586640007</v>
       </c>
       <c r="G8">
-        <v>27.0428431732694</v>
+        <v>26.6888879315607</v>
       </c>
       <c r="H8">
-        <v>10.8476475077967</v>
+        <v>11.0728123278296</v>
       </c>
       <c r="I8">
-        <v>8.463758115971601</v>
+        <v>7.04514036340501</v>
       </c>
       <c r="J8">
-        <v>38.01866264324</v>
+        <v>38.0562039689746</v>
       </c>
       <c r="K8">
-        <v>16.3619804943315</v>
+        <v>17.4464725763135</v>
       </c>
       <c r="L8">
-        <v>49.1504858279885</v>
+        <v>46.7142647156599</v>
       </c>
       <c r="M8">
-        <v>48.63000181755</v>
+        <v>50.3655014655717</v>
       </c>
       <c r="N8">
-        <v>23.5568082123488</v>
+        <v>26.5793541784888</v>
       </c>
       <c r="O8">
-        <v>1404.08696402272</v>
+        <v>1402.69884748306</v>
       </c>
       <c r="P8">
-        <v>4.61004858302752</v>
+        <v>5.43930549399172</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>223.40149388661</v>
+        <v>213.34424785939</v>
       </c>
       <c r="C9">
-        <v>9.331529084519021</v>
+        <v>8.801135288851141</v>
       </c>
       <c r="D9">
-        <v>2.96179294827127</v>
+        <v>2.28608557722381</v>
       </c>
       <c r="E9">
-        <v>4.52414578711983</v>
+        <v>4.68292151066554</v>
       </c>
       <c r="F9">
-        <v>1.34275346051964</v>
+        <v>1.16538974303786</v>
       </c>
       <c r="G9">
-        <v>25.1100176050993</v>
+        <v>23.1136775850368</v>
       </c>
       <c r="H9">
-        <v>4.63297057686103</v>
+        <v>4.21727850324548</v>
       </c>
       <c r="I9">
-        <v>1.09624670529921</v>
+        <v>1.13509269144079</v>
       </c>
       <c r="J9">
-        <v>6.16967048893784</v>
+        <v>5.0288303583237</v>
       </c>
       <c r="K9">
-        <v>2.24132955731909</v>
+        <v>2.11348655856622</v>
       </c>
       <c r="L9">
-        <v>3.77914623970094</v>
+        <v>2.9089855856137</v>
       </c>
       <c r="M9">
-        <v>9.47569416758134</v>
+        <v>8.55915765628191</v>
       </c>
       <c r="N9">
-        <v>5.57206043690006</v>
+        <v>5.18348788575513</v>
       </c>
       <c r="O9">
-        <v>388.932680400639</v>
+        <v>384.64739062577</v>
       </c>
       <c r="P9">
-        <v>6.03147227899913</v>
+        <v>6.33927862846901</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4316.91713227196</v>
+        <v>4309.3335618287</v>
       </c>
       <c r="C10">
-        <v>67.5140909857257</v>
+        <v>69.09745702265251</v>
       </c>
       <c r="D10">
-        <v>19.9369494143254</v>
+        <v>22.8941599115835</v>
       </c>
       <c r="E10">
-        <v>51.6967693669047</v>
+        <v>52.6243204575957</v>
       </c>
       <c r="F10">
-        <v>11.9912218941482</v>
+        <v>10.4008146544336</v>
       </c>
       <c r="G10">
-        <v>40.9756465132683</v>
+        <v>36.0259189682008</v>
       </c>
       <c r="H10">
-        <v>15.8927534671761</v>
+        <v>13.2781322090611</v>
       </c>
       <c r="I10">
-        <v>40.5852362906314</v>
+        <v>40.6741064141354</v>
       </c>
       <c r="J10">
-        <v>58.5842087761556</v>
+        <v>57.6553770551736</v>
       </c>
       <c r="K10">
-        <v>21.9802667479554</v>
+        <v>23.8721447360274</v>
       </c>
       <c r="L10">
-        <v>78.47829578362</v>
+        <v>83.0186979036678</v>
       </c>
       <c r="M10">
-        <v>70.8010444643932</v>
+        <v>73.9589758577779</v>
       </c>
       <c r="N10">
-        <v>81.0777560666328</v>
+        <v>90.4431492908416</v>
       </c>
       <c r="O10">
-        <v>7011.30846729917</v>
+        <v>7073.04065072819</v>
       </c>
       <c r="P10">
-        <v>90.8908934813106</v>
+        <v>90.1220182666291</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1916.19038719647</v>
+        <v>1910.50097701648</v>
       </c>
       <c r="C11">
-        <v>65.28325886888339</v>
+        <v>68.52024307154819</v>
       </c>
       <c r="D11">
-        <v>174.361450894116</v>
+        <v>164.001278673368</v>
       </c>
       <c r="E11">
-        <v>65.3658314133087</v>
+        <v>70.6671983803128</v>
       </c>
       <c r="F11">
-        <v>0.869617627157706</v>
+        <v>5.50410131429424</v>
       </c>
       <c r="G11">
-        <v>29.0239377322733</v>
+        <v>27.6381038599698</v>
       </c>
       <c r="H11">
-        <v>16.748250635898</v>
+        <v>18.7375032253412</v>
       </c>
       <c r="I11">
-        <v>14.6177579689111</v>
+        <v>12.7718884588646</v>
       </c>
       <c r="J11">
-        <v>43.9997927999387</v>
+        <v>44.295112914293</v>
       </c>
       <c r="K11">
-        <v>16.261609392541</v>
+        <v>20.0198071628041</v>
       </c>
       <c r="L11">
-        <v>56.6378063321236</v>
+        <v>53.3486278394779</v>
       </c>
       <c r="M11">
-        <v>35.1930107703046</v>
+        <v>41.9465431810999</v>
       </c>
       <c r="N11">
-        <v>51.9070381338583</v>
+        <v>51.4976257908107</v>
       </c>
       <c r="O11">
-        <v>3124.43504743225</v>
+        <v>3158.74436942523</v>
       </c>
       <c r="P11">
-        <v>60.0975128109143</v>
+        <v>52.4544161381791</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>316.309568755361</v>
+        <v>302.495751480088</v>
       </c>
       <c r="C12">
-        <v>7.29169241469298</v>
+        <v>6.82015646923082</v>
       </c>
       <c r="D12">
-        <v>0.6479263213838951</v>
+        <v>0.8037358609695811</v>
       </c>
       <c r="E12">
-        <v>3.14115300966902</v>
+        <v>3.04400943669883</v>
       </c>
       <c r="F12">
-        <v>0.845728681816305</v>
+        <v>1.04221882544639</v>
       </c>
       <c r="G12">
-        <v>0.611464954247984</v>
+        <v>0.478277850136057</v>
       </c>
       <c r="H12">
-        <v>0.339417200081361</v>
+        <v>0.236189769739776</v>
       </c>
       <c r="I12">
-        <v>1.09230728722984</v>
+        <v>1.10888466050503</v>
       </c>
       <c r="J12">
-        <v>2.92783441686991</v>
+        <v>2.25015265338745</v>
       </c>
       <c r="K12">
-        <v>0.0359050919258687</v>
+        <v>0.048931931317336</v>
       </c>
       <c r="L12">
-        <v>0.572686180998669</v>
+        <v>0.508475658131084</v>
       </c>
       <c r="M12">
-        <v>3.9951164341009</v>
+        <v>3.67536122017043</v>
       </c>
       <c r="N12">
-        <v>2.27087505308467</v>
+        <v>3.65270443706647</v>
       </c>
       <c r="O12">
-        <v>615.664602712863</v>
+        <v>602.639123760119</v>
       </c>
       <c r="P12">
-        <v>22.7612268623495</v>
+        <v>22.2468338115411</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>274.061371024921</v>
+        <v>271.211212809768</v>
       </c>
       <c r="C13">
-        <v>17.8766406305236</v>
+        <v>18.4075187146842</v>
       </c>
       <c r="D13">
-        <v>0.37935434337862</v>
+        <v>0.495057820243883</v>
       </c>
       <c r="E13">
-        <v>13.4228793545659</v>
+        <v>13.1482044881365</v>
       </c>
       <c r="F13">
-        <v>3.28144761189497</v>
+        <v>2.76390829819058</v>
       </c>
       <c r="G13">
-        <v>4.76567891623177</v>
+        <v>5.71953393131023</v>
       </c>
       <c r="H13">
-        <v>2.61180463724437</v>
+        <v>2.07343769867755</v>
       </c>
       <c r="I13">
-        <v>2.08594777242326</v>
+        <v>1.66320480255321</v>
       </c>
       <c r="J13">
-        <v>5.67114263461036</v>
+        <v>5.99033615916995</v>
       </c>
       <c r="K13">
-        <v>4.17298512532238</v>
+        <v>5.19773263625957</v>
       </c>
       <c r="L13">
-        <v>17.1360715425182</v>
+        <v>18.6360904106899</v>
       </c>
       <c r="M13">
-        <v>1.53501064224355</v>
+        <v>1.3473549538885</v>
       </c>
       <c r="N13">
-        <v>5.17825586609318</v>
+        <v>5.45629137612095</v>
       </c>
       <c r="O13">
-        <v>559.2840513490201</v>
+        <v>552.077209372863</v>
       </c>
       <c r="P13">
-        <v>53.7372153617556</v>
+        <v>54.545873981158</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2666.97717129119</v>
+        <v>2670.09857966389</v>
       </c>
       <c r="C14">
-        <v>117.915736799685</v>
+        <v>113.528367159779</v>
       </c>
       <c r="D14">
-        <v>14.4181739507157</v>
+        <v>12.0897611113369</v>
       </c>
       <c r="E14">
-        <v>83.9621067328229</v>
+        <v>86.17126164729901</v>
       </c>
       <c r="F14">
-        <v>15.9704871353206</v>
+        <v>19.0657669945871</v>
       </c>
       <c r="G14">
-        <v>85.0039488105208</v>
+        <v>87.29506878706</v>
       </c>
       <c r="H14">
-        <v>36.2281541516823</v>
+        <v>40.107803308941</v>
       </c>
       <c r="I14">
-        <v>22.8162155221543</v>
+        <v>23.5465432537405</v>
       </c>
       <c r="J14">
-        <v>144.571471743824</v>
+        <v>141.402577184378</v>
       </c>
       <c r="K14">
-        <v>136.543240214737</v>
+        <v>136.739165183728</v>
       </c>
       <c r="L14">
-        <v>119.410340518705</v>
+        <v>119.274246665768</v>
       </c>
       <c r="M14">
-        <v>70.21099363821951</v>
+        <v>77.8571227133278</v>
       </c>
       <c r="N14">
-        <v>99.15882421327029</v>
+        <v>94.002574229426</v>
       </c>
       <c r="O14">
-        <v>4815.8149964754</v>
+        <v>4820.01853117271</v>
       </c>
       <c r="P14">
-        <v>59.6790208307411</v>
+        <v>57.3214593571603</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1317.22687694629</v>
+        <v>1319.9968903644</v>
       </c>
       <c r="C15">
-        <v>38.6286939924331</v>
+        <v>39.2572393610805</v>
       </c>
       <c r="D15">
-        <v>14.780279165179</v>
+        <v>12.324108596131</v>
       </c>
       <c r="E15">
-        <v>78.2712432073494</v>
+        <v>78.12304614812361</v>
       </c>
       <c r="F15">
-        <v>22.1762861853319</v>
+        <v>20.8400576108091</v>
       </c>
       <c r="G15">
-        <v>46.7053146230129</v>
+        <v>45.8192574167435</v>
       </c>
       <c r="H15">
-        <v>47.7963102797049</v>
+        <v>49.1680712094666</v>
       </c>
       <c r="I15">
-        <v>26.4079189132737</v>
+        <v>25.8909368754695</v>
       </c>
       <c r="J15">
-        <v>159.710026391236</v>
+        <v>159.694321528602</v>
       </c>
       <c r="K15">
-        <v>33.3755238020412</v>
+        <v>36.7408728124497</v>
       </c>
       <c r="L15">
-        <v>37.9103253109035</v>
+        <v>39.7945179800005</v>
       </c>
       <c r="M15">
-        <v>178.836547401213</v>
+        <v>174.679141749219</v>
       </c>
       <c r="N15">
-        <v>82.6747043058823</v>
+        <v>89.9569027166354</v>
       </c>
       <c r="O15">
-        <v>2140.15355405538</v>
+        <v>2130.93890161871</v>
       </c>
       <c r="P15">
-        <v>45.2300358155938</v>
+        <v>46.3657544971149</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>539.788878527654</v>
+        <v>535.003930023251</v>
       </c>
       <c r="C16">
-        <v>61.959245615592</v>
+        <v>63.8306414474905</v>
       </c>
       <c r="D16">
-        <v>5.54701418153013</v>
+        <v>6.43324243472379</v>
       </c>
       <c r="E16">
-        <v>29.584618464723</v>
+        <v>25.7342297828438</v>
       </c>
       <c r="F16">
-        <v>2.98211531918327</v>
+        <v>3.03048532340408</v>
       </c>
       <c r="G16">
-        <v>23.5742693522946</v>
+        <v>21.3010271168583</v>
       </c>
       <c r="H16">
-        <v>12.964315255042</v>
+        <v>14.2442239296784</v>
       </c>
       <c r="I16">
-        <v>9.94708519241644</v>
+        <v>8.3432854307535</v>
       </c>
       <c r="J16">
-        <v>49.5197733174979</v>
+        <v>49.5095187746523</v>
       </c>
       <c r="K16">
-        <v>42.5179247433785</v>
+        <v>43.0687243033894</v>
       </c>
       <c r="L16">
-        <v>25.2639776842699</v>
+        <v>27.6792233080941</v>
       </c>
       <c r="M16">
-        <v>28.2004795314689</v>
+        <v>25.9916635921899</v>
       </c>
       <c r="N16">
-        <v>28.8849860136969</v>
+        <v>27.9486047897017</v>
       </c>
       <c r="O16">
-        <v>1199.06962478854</v>
+        <v>1186.0249949723</v>
       </c>
       <c r="P16">
-        <v>83.8250163860653</v>
+        <v>86.53277334267089</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>543.259721552298</v>
+        <v>535.140753172682</v>
       </c>
       <c r="C17">
-        <v>17.6801613595659</v>
+        <v>21.0148708302385</v>
       </c>
       <c r="D17">
-        <v>3.4342907634402</v>
+        <v>3.64447277739693</v>
       </c>
       <c r="E17">
-        <v>23.2076857532571</v>
+        <v>23.6965268657286</v>
       </c>
       <c r="F17">
-        <v>11.0766776256452</v>
+        <v>11.3161523565507</v>
       </c>
       <c r="G17">
-        <v>6.88379712894265</v>
+        <v>6.44181397158909</v>
       </c>
       <c r="H17">
-        <v>7.24483873320232</v>
+        <v>8.046280039253761</v>
       </c>
       <c r="I17">
-        <v>9.812306401198249</v>
+        <v>9.461135557711049</v>
       </c>
       <c r="J17">
-        <v>15.1952102744823</v>
+        <v>18.1143870578637</v>
       </c>
       <c r="K17">
-        <v>10.0686133965466</v>
+        <v>10.8241036647088</v>
       </c>
       <c r="L17">
-        <v>8.885545089456199</v>
+        <v>10.1698015400582</v>
       </c>
       <c r="M17">
-        <v>61.7116834238806</v>
+        <v>63.6667105147435</v>
       </c>
       <c r="N17">
-        <v>15.3969061436815</v>
+        <v>14.469858585309</v>
       </c>
       <c r="O17">
-        <v>1124.97073171636</v>
+        <v>1105.53778518085</v>
       </c>
       <c r="P17">
-        <v>55.4781219861456</v>
+        <v>55.733568769243</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1190.21768618768</v>
+        <v>1177.77678836469</v>
       </c>
       <c r="C18">
-        <v>37.397552221181</v>
+        <v>33.7491993598856</v>
       </c>
       <c r="D18">
-        <v>5.1769180040321</v>
+        <v>5.39720602763068</v>
       </c>
       <c r="E18">
-        <v>34.0874369870699</v>
+        <v>33.8235405009081</v>
       </c>
       <c r="F18">
-        <v>27.9175904623116</v>
+        <v>29.7285515067866</v>
       </c>
       <c r="G18">
-        <v>24.2642598925152</v>
+        <v>22.6357657880896</v>
       </c>
       <c r="H18">
-        <v>18.7617035357671</v>
+        <v>19.0147877952738</v>
       </c>
       <c r="I18">
-        <v>2.95296393845786</v>
+        <v>3.65254470470112</v>
       </c>
       <c r="J18">
-        <v>44.4685356336568</v>
+        <v>44.4477601957442</v>
       </c>
       <c r="K18">
-        <v>14.1212108604857</v>
+        <v>15.6944313732669</v>
       </c>
       <c r="L18">
-        <v>39.4737674430217</v>
+        <v>34.0672039210248</v>
       </c>
       <c r="M18">
-        <v>65.1326171804397</v>
+        <v>66.2749874860895</v>
       </c>
       <c r="N18">
-        <v>22.9432229276256</v>
+        <v>21.8181316551038</v>
       </c>
       <c r="O18">
-        <v>1451.00636538314</v>
+        <v>1451.19079194983</v>
       </c>
       <c r="P18">
-        <v>58.9567937918854</v>
+        <v>59.082113639313</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1222.40491059496</v>
+        <v>1211.03285783118</v>
       </c>
       <c r="C19">
-        <v>29.9485814166054</v>
+        <v>28.5397394507609</v>
       </c>
       <c r="D19">
-        <v>10.0633873265629</v>
+        <v>7.60497788959472</v>
       </c>
       <c r="E19">
-        <v>45.6695710058215</v>
+        <v>41.2168550665868</v>
       </c>
       <c r="F19">
-        <v>93.62330069511719</v>
+        <v>90.7498400224485</v>
       </c>
       <c r="G19">
-        <v>42.9130790701761</v>
+        <v>42.4566731636096</v>
       </c>
       <c r="H19">
-        <v>7.47821107083068</v>
+        <v>7.9373075610522</v>
       </c>
       <c r="I19">
-        <v>1.41333258047355</v>
+        <v>3.04534314748735</v>
       </c>
       <c r="J19">
-        <v>16.9597885412288</v>
+        <v>13.9132444836922</v>
       </c>
       <c r="K19">
-        <v>10.912272121145</v>
+        <v>10.7827677424907</v>
       </c>
       <c r="L19">
-        <v>3.86719002559237</v>
+        <v>3.59726139384213</v>
       </c>
       <c r="M19">
-        <v>31.8928092168331</v>
+        <v>33.0586193624539</v>
       </c>
       <c r="N19">
-        <v>13.0765787629742</v>
+        <v>11.3790265331877</v>
       </c>
       <c r="O19">
-        <v>1566.73948788641</v>
+        <v>1565.82839032781</v>
       </c>
       <c r="P19">
-        <v>45.9916237791197</v>
+        <v>42.3066632349047</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>307.352683300737</v>
+        <v>299.477801733753</v>
       </c>
       <c r="C20">
-        <v>9.52362955560859</v>
+        <v>9.638432580359099</v>
       </c>
       <c r="D20">
-        <v>7.71989748195301</v>
+        <v>8.483771442607059</v>
       </c>
       <c r="E20">
-        <v>36.0591919130683</v>
+        <v>36.7796249897496</v>
       </c>
       <c r="F20">
-        <v>1.36061365478648</v>
+        <v>1.3132830214747</v>
       </c>
       <c r="G20">
-        <v>2.43405136675206</v>
+        <v>2.18061542906894</v>
       </c>
       <c r="H20">
-        <v>1.12710402749451</v>
+        <v>1.1554838925776</v>
       </c>
       <c r="I20">
-        <v>1.9648106181511</v>
+        <v>1.54774362462887</v>
       </c>
       <c r="J20">
-        <v>5.24224668405129</v>
+        <v>4.74423102559155</v>
       </c>
       <c r="K20">
-        <v>2.38427035748025</v>
+        <v>2.31727397381761</v>
       </c>
       <c r="L20">
-        <v>7.24133580322833</v>
+        <v>7.91734328965444</v>
       </c>
       <c r="M20">
-        <v>18.2399875082463</v>
+        <v>18.3258129473131</v>
       </c>
       <c r="N20">
-        <v>7.31037051416728</v>
+        <v>5.96443824716543</v>
       </c>
       <c r="O20">
-        <v>555.5183656169641</v>
+        <v>550.098516674965</v>
       </c>
       <c r="P20">
-        <v>25.4816119226441</v>
+        <v>24.7922145364253</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1108.10299766173</v>
+        <v>1115.81260617085</v>
       </c>
       <c r="C21">
-        <v>28.689679484533</v>
+        <v>23.9692982333128</v>
       </c>
       <c r="D21">
-        <v>3.41258273564596</v>
+        <v>3.50457734972728</v>
       </c>
       <c r="E21">
-        <v>17.8246285014086</v>
+        <v>22.1845275194321</v>
       </c>
       <c r="F21">
-        <v>4.72737970052201</v>
+        <v>4.2103581667624</v>
       </c>
       <c r="G21">
-        <v>16.0192603096091</v>
+        <v>18.850930130167</v>
       </c>
       <c r="H21">
-        <v>6.77168636871763</v>
+        <v>6.649166456496</v>
       </c>
       <c r="I21">
-        <v>15.4535688062067</v>
+        <v>13.7063353481056</v>
       </c>
       <c r="J21">
-        <v>24.42869253735</v>
+        <v>23.1504212785358</v>
       </c>
       <c r="K21">
-        <v>2.88142005818552</v>
+        <v>2.39771787611364</v>
       </c>
       <c r="L21">
-        <v>24.9842428263235</v>
+        <v>25.991253967995</v>
       </c>
       <c r="M21">
-        <v>21.7418133117987</v>
+        <v>23.1604831716711</v>
       </c>
       <c r="N21">
-        <v>21.7980834800065</v>
+        <v>21.0676910350089</v>
       </c>
       <c r="O21">
-        <v>2350.42618705549</v>
+        <v>2336.27151419301</v>
       </c>
       <c r="P21">
-        <v>22.2189407662688</v>
+        <v>21.3901944447295</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1290.3149426195</v>
+        <v>1291.33365027919</v>
       </c>
       <c r="C22">
-        <v>17.1310772871532</v>
+        <v>18.1191406552591</v>
       </c>
       <c r="D22">
-        <v>21.0107641732769</v>
+        <v>19.3693796802861</v>
       </c>
       <c r="E22">
-        <v>47.5182087398231</v>
+        <v>42.9593173134192</v>
       </c>
       <c r="F22">
-        <v>3.83961077379373</v>
+        <v>3.11814740255565</v>
       </c>
       <c r="G22">
-        <v>31.4340154381899</v>
+        <v>31.7792967603058</v>
       </c>
       <c r="H22">
-        <v>13.8358065106118</v>
+        <v>17.3792450433548</v>
       </c>
       <c r="I22">
-        <v>9.633823918276169</v>
+        <v>10.7282604106094</v>
       </c>
       <c r="J22">
-        <v>39.4544041232772</v>
+        <v>41.4699757212872</v>
       </c>
       <c r="K22">
-        <v>19.7068690961223</v>
+        <v>18.3552085163803</v>
       </c>
       <c r="L22">
-        <v>128.790565823683</v>
+        <v>120.106135661697</v>
       </c>
       <c r="M22">
-        <v>14.6142749841</v>
+        <v>14.4928783122991</v>
       </c>
       <c r="N22">
-        <v>75.5405694237254</v>
+        <v>76.07507361050931</v>
       </c>
       <c r="O22">
-        <v>2609.84918110807</v>
+        <v>2631.95277536495</v>
       </c>
       <c r="P22">
-        <v>10.5591928475382</v>
+        <v>10.572238685953</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2474.40069902533</v>
+        <v>2408.50963456786</v>
       </c>
       <c r="C23">
-        <v>37.5105238810542</v>
+        <v>36.4706765358178</v>
       </c>
       <c r="D23">
-        <v>7.87594948081531</v>
+        <v>8.67664372887643</v>
       </c>
       <c r="E23">
-        <v>40.6077583897211</v>
+        <v>43.6403983421907</v>
       </c>
       <c r="F23">
-        <v>5.9500596507063</v>
+        <v>5.2762702594291</v>
       </c>
       <c r="G23">
-        <v>60.761196372793</v>
+        <v>56.7114864854332</v>
       </c>
       <c r="H23">
-        <v>56.7782880532317</v>
+        <v>57.4550385602376</v>
       </c>
       <c r="I23">
-        <v>9.494005178421549</v>
+        <v>13.1706640920695</v>
       </c>
       <c r="J23">
-        <v>126.477384308421</v>
+        <v>129.14046984789</v>
       </c>
       <c r="K23">
-        <v>76.8133534207292</v>
+        <v>83.8492184330789</v>
       </c>
       <c r="L23">
-        <v>37.9039392713464</v>
+        <v>38.0073579562353</v>
       </c>
       <c r="M23">
-        <v>533.908280855944</v>
+        <v>542.434294342332</v>
       </c>
       <c r="N23">
-        <v>83.7678657465225</v>
+        <v>81.69112507651821</v>
       </c>
       <c r="O23">
-        <v>3361.65517156494</v>
+        <v>3393.82447763897</v>
       </c>
       <c r="P23">
-        <v>47.4386151343093</v>
+        <v>49.2495178272797</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>850.368888771602</v>
+        <v>849.093722357434</v>
       </c>
       <c r="C24">
-        <v>56.9411623164353</v>
+        <v>51.6136896056312</v>
       </c>
       <c r="D24">
-        <v>5.47819929032873</v>
+        <v>6.28350335679573</v>
       </c>
       <c r="E24">
-        <v>58.1058493561855</v>
+        <v>55.1060708620553</v>
       </c>
       <c r="F24">
-        <v>12.3010714260887</v>
+        <v>12.419154552248</v>
       </c>
       <c r="G24">
-        <v>28.4701369401628</v>
+        <v>27.8192842382725</v>
       </c>
       <c r="H24">
-        <v>13.6052946287082</v>
+        <v>14.2065719538974</v>
       </c>
       <c r="I24">
-        <v>18.703262811201</v>
+        <v>18.2297213488001</v>
       </c>
       <c r="J24">
-        <v>56.8158004632364</v>
+        <v>55.2807849489226</v>
       </c>
       <c r="K24">
-        <v>33.8904732950944</v>
+        <v>41.6880603904418</v>
       </c>
       <c r="L24">
-        <v>70.1499697016728</v>
+        <v>65.17897248826679</v>
       </c>
       <c r="M24">
-        <v>33.1068929099114</v>
+        <v>31.2601890648778</v>
       </c>
       <c r="N24">
-        <v>71.94792911281451</v>
+        <v>72.0660319912279</v>
       </c>
       <c r="O24">
-        <v>1979.53477553584</v>
+        <v>1987.29585643236</v>
       </c>
       <c r="P24">
-        <v>104.283631397185</v>
+        <v>105.1306376785</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>823.930342734449</v>
+        <v>807.928272319682</v>
       </c>
       <c r="C25">
-        <v>42.364039794342</v>
+        <v>43.9720776673916</v>
       </c>
       <c r="D25">
-        <v>13.8561937899581</v>
+        <v>14.2319457204823</v>
       </c>
       <c r="E25">
-        <v>41.8118732870124</v>
+        <v>43.9918637728994</v>
       </c>
       <c r="F25">
-        <v>15.9073978881847</v>
+        <v>15.9682402998914</v>
       </c>
       <c r="G25">
-        <v>9.46267012144477</v>
+        <v>10.7882503375856</v>
       </c>
       <c r="H25">
-        <v>9.764843240120261</v>
+        <v>9.415321344845561</v>
       </c>
       <c r="I25">
-        <v>5.76732023910729</v>
+        <v>6.0517715437324</v>
       </c>
       <c r="J25">
-        <v>16.0722002806207</v>
+        <v>14.5743638821793</v>
       </c>
       <c r="K25">
-        <v>10.0059682238573</v>
+        <v>12.3092672723965</v>
       </c>
       <c r="L25">
-        <v>17.2714411876047</v>
+        <v>15.4868219030237</v>
       </c>
       <c r="M25">
-        <v>41.6906643953961</v>
+        <v>38.5555515110632</v>
       </c>
       <c r="N25">
-        <v>36.4614658884348</v>
+        <v>37.849507074786</v>
       </c>
       <c r="O25">
-        <v>966.638933406481</v>
+        <v>950.735457252576</v>
       </c>
       <c r="P25">
-        <v>43.7219762831425</v>
+        <v>42.2629711546479</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1180.251662126</v>
+        <v>1182.68701091418</v>
       </c>
       <c r="C26">
-        <v>59.0606191969134</v>
+        <v>61.1664979511112</v>
       </c>
       <c r="D26">
-        <v>8.98257242356595</v>
+        <v>10.9996011723317</v>
       </c>
       <c r="E26">
-        <v>50.110977966754</v>
+        <v>46.955308356059</v>
       </c>
       <c r="F26">
-        <v>9.29727365047345</v>
+        <v>9.47833906929516</v>
       </c>
       <c r="G26">
-        <v>33.3116420851796</v>
+        <v>33.3468309514201</v>
       </c>
       <c r="H26">
-        <v>16.5812496122681</v>
+        <v>16.758615420474</v>
       </c>
       <c r="I26">
-        <v>18.281122137887</v>
+        <v>16.6453934661112</v>
       </c>
       <c r="J26">
-        <v>44.5938620125339</v>
+        <v>48.8178105518472</v>
       </c>
       <c r="K26">
-        <v>16.3982237715514</v>
+        <v>20.4804848125146</v>
       </c>
       <c r="L26">
-        <v>24.8013232777454</v>
+        <v>28.3284475633328</v>
       </c>
       <c r="M26">
-        <v>88.930033471597</v>
+        <v>79.5036670218237</v>
       </c>
       <c r="N26">
-        <v>18.9492195818502</v>
+        <v>23.8175414441102</v>
       </c>
       <c r="O26">
-        <v>2225.76231932005</v>
+        <v>2233.42872737017</v>
       </c>
       <c r="P26">
-        <v>70.47001643888279</v>
+        <v>70.8416724075923</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>236.687066915061</v>
+        <v>228.870187370469</v>
       </c>
       <c r="C27">
-        <v>2.50973757037773</v>
+        <v>2.97394991878385</v>
       </c>
       <c r="D27">
-        <v>1.84780926934051</v>
+        <v>1.55356231002409</v>
       </c>
       <c r="E27">
-        <v>12.7753498160631</v>
+        <v>11.629318571233</v>
       </c>
       <c r="F27">
-        <v>5.86391401954472</v>
+        <v>6.1710502414913</v>
       </c>
       <c r="G27">
-        <v>0.953489889038646</v>
+        <v>0.87762351532432</v>
       </c>
       <c r="H27">
-        <v>0.269669568580639</v>
+        <v>0.360861658275805</v>
       </c>
       <c r="I27">
-        <v>2.69752362772676</v>
+        <v>2.66673729574836</v>
       </c>
       <c r="J27">
-        <v>3.17218914424169</v>
+        <v>2.94301717165654</v>
       </c>
       <c r="K27">
-        <v>1.57091837199755</v>
+        <v>1.8506025401385</v>
       </c>
       <c r="L27">
-        <v>1.97432486874861</v>
+        <v>2.11379347108324</v>
       </c>
       <c r="M27">
-        <v>0.73399516606709</v>
+        <v>0.7049688771409181</v>
       </c>
       <c r="N27">
-        <v>3.76615819840353</v>
+        <v>3.88869152170109</v>
       </c>
       <c r="O27">
-        <v>420.829665157435</v>
+        <v>409.881438145308</v>
       </c>
       <c r="P27">
-        <v>52.300431334931</v>
+        <v>50.3048882594817</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>306.177933530888</v>
+        <v>294.716820501894</v>
       </c>
       <c r="C28">
-        <v>35.6883202408113</v>
+        <v>36.6635736656775</v>
       </c>
       <c r="D28">
-        <v>4.44500708173269</v>
+        <v>4.31201150729307</v>
       </c>
       <c r="E28">
-        <v>6.72204254393034</v>
+        <v>7.9317988597355</v>
       </c>
       <c r="F28">
-        <v>2.26944007793815</v>
+        <v>2.03706891244103</v>
       </c>
       <c r="G28">
-        <v>4.40960159263698</v>
+        <v>4.42093596425507</v>
       </c>
       <c r="H28">
-        <v>9.437497080298311</v>
+        <v>8.696872228033129</v>
       </c>
       <c r="I28">
-        <v>2.14133893793912</v>
+        <v>2.70234841284032</v>
       </c>
       <c r="J28">
-        <v>19.6801636933399</v>
+        <v>19.3871553302462</v>
       </c>
       <c r="K28">
-        <v>11.6019394438847</v>
+        <v>11.5486380912184</v>
       </c>
       <c r="L28">
-        <v>13.4640742434432</v>
+        <v>14.6740261782642</v>
       </c>
       <c r="M28">
-        <v>9.11760439648323</v>
+        <v>10.0521046278944</v>
       </c>
       <c r="N28">
-        <v>11.0273858532053</v>
+        <v>10.262230727384</v>
       </c>
       <c r="O28">
-        <v>751.5695622516</v>
+        <v>737.970655168264</v>
       </c>
       <c r="P28">
-        <v>82.2304221126999</v>
+        <v>84.620037137079</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>472.011264918024</v>
+        <v>469.919696764727</v>
       </c>
       <c r="C29">
-        <v>4.49271251676577</v>
+        <v>4.08663609435642</v>
       </c>
       <c r="D29">
-        <v>3.63755320431465</v>
+        <v>3.04520470895979</v>
       </c>
       <c r="E29">
-        <v>5.1188104041906</v>
+        <v>5.06107421685614</v>
       </c>
       <c r="F29">
-        <v>24.7217871646585</v>
+        <v>23.4411712740761</v>
       </c>
       <c r="G29">
-        <v>3.81810339403195</v>
+        <v>4.04396544846302</v>
       </c>
       <c r="H29">
-        <v>3.14964100098983</v>
+        <v>2.45663778112446</v>
       </c>
       <c r="I29">
-        <v>1.71209625294373</v>
+        <v>2.08870811992499</v>
       </c>
       <c r="J29">
-        <v>6.08506576405505</v>
+        <v>5.38296628773114</v>
       </c>
       <c r="K29">
-        <v>1.44616006194343</v>
+        <v>2.00276745957509</v>
       </c>
       <c r="L29">
-        <v>3.50804796386491</v>
+        <v>3.7130284142723</v>
       </c>
       <c r="M29">
-        <v>2.75363598666611</v>
+        <v>3.1746008243331</v>
       </c>
       <c r="N29">
-        <v>13.2087328531468</v>
+        <v>12.1701204233793</v>
       </c>
       <c r="O29">
-        <v>995.876751247249</v>
+        <v>1003.80732928057</v>
       </c>
       <c r="P29">
-        <v>6.57055848100859</v>
+        <v>5.81514989445076</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>257.693748242023</v>
+        <v>243.12394518502</v>
       </c>
       <c r="C30">
-        <v>3.4836089821364</v>
+        <v>3.60167035506933</v>
       </c>
       <c r="D30">
-        <v>7.12383679243673</v>
+        <v>6.41475614059547</v>
       </c>
       <c r="E30">
-        <v>15.6754572555995</v>
+        <v>15.576719665522</v>
       </c>
       <c r="F30">
-        <v>1.13968685878512</v>
+        <v>0.717034921419127</v>
       </c>
       <c r="G30">
-        <v>4.95984167903702</v>
+        <v>4.45531667665757</v>
       </c>
       <c r="H30">
-        <v>5.95884828371844</v>
+        <v>5.53132697833637</v>
       </c>
       <c r="I30">
-        <v>2.42338881711394</v>
+        <v>2.60478136004242</v>
       </c>
       <c r="J30">
-        <v>17.0837220417665</v>
+        <v>16.6448643793916</v>
       </c>
       <c r="K30">
-        <v>8.394376739707321</v>
+        <v>8.80330257606435</v>
       </c>
       <c r="L30">
-        <v>40.4477320797347</v>
+        <v>41.9372063035004</v>
       </c>
       <c r="M30">
-        <v>10.9646608112063</v>
+        <v>10.4055298046382</v>
       </c>
       <c r="N30">
-        <v>13.1769909593047</v>
+        <v>13.4029533021119</v>
       </c>
       <c r="O30">
-        <v>559.327237300403</v>
+        <v>556.73166342318</v>
       </c>
       <c r="P30">
-        <v>10.4941539907864</v>
+        <v>9.21792852374746</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1841.17824226681</v>
+        <v>1802.11332634136</v>
       </c>
       <c r="C31">
-        <v>55.4554484718529</v>
+        <v>55.041854810422</v>
       </c>
       <c r="D31">
-        <v>25.3812507317202</v>
+        <v>29.6006632816985</v>
       </c>
       <c r="E31">
-        <v>49.8582355396592</v>
+        <v>47.894126116855</v>
       </c>
       <c r="F31">
-        <v>10.8110893564371</v>
+        <v>7.30971901685126</v>
       </c>
       <c r="G31">
-        <v>105.859408548533</v>
+        <v>106.265282138399</v>
       </c>
       <c r="H31">
-        <v>11.0418979583126</v>
+        <v>11.2953882078297</v>
       </c>
       <c r="I31">
-        <v>33.1044577824223</v>
+        <v>25.6109184581028</v>
       </c>
       <c r="J31">
-        <v>38.1512594924739</v>
+        <v>41.5877924666965</v>
       </c>
       <c r="K31">
-        <v>11.9538390528591</v>
+        <v>16.2855172926081</v>
       </c>
       <c r="L31">
-        <v>73.77545177150211</v>
+        <v>71.3947237568017</v>
       </c>
       <c r="M31">
-        <v>17.0324430093595</v>
+        <v>17.8320719780094</v>
       </c>
       <c r="N31">
-        <v>53.4508859040288</v>
+        <v>54.0748505328759</v>
       </c>
       <c r="O31">
-        <v>3544.51043557102</v>
+        <v>3574.08802543341</v>
       </c>
       <c r="P31">
-        <v>8.583787120468401</v>
+        <v>11.0570372897505</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>483.253877582677</v>
+        <v>474.354707589102</v>
       </c>
       <c r="C32">
-        <v>4.58921182593612</v>
+        <v>5.29041333015612</v>
       </c>
       <c r="D32">
-        <v>0.540591546800864</v>
+        <v>0.587455843916622</v>
       </c>
       <c r="E32">
-        <v>3.50200636584158</v>
+        <v>3.31283910683181</v>
       </c>
       <c r="F32">
-        <v>23.8178433326743</v>
+        <v>24.3041613516768</v>
       </c>
       <c r="G32">
-        <v>3.25314612870837</v>
+        <v>2.72358541644861</v>
       </c>
       <c r="H32">
-        <v>1.19497011187279</v>
+        <v>1.84036092339361</v>
       </c>
       <c r="I32">
-        <v>3.96502172451664</v>
+        <v>3.28595339836745</v>
       </c>
       <c r="J32">
-        <v>4.26223103197444</v>
+        <v>5.06062684018984</v>
       </c>
       <c r="K32">
-        <v>1.33005015982439</v>
+        <v>2.02506723696776</v>
       </c>
       <c r="L32">
-        <v>16.6684337212841</v>
+        <v>15.8432347821854</v>
       </c>
       <c r="M32">
-        <v>2.47243386824097</v>
+        <v>2.8333463663936</v>
       </c>
       <c r="N32">
-        <v>9.155935022631491</v>
+        <v>9.477305772638371</v>
       </c>
       <c r="O32">
-        <v>751.6261212093471</v>
+        <v>747.0177163382519</v>
       </c>
       <c r="P32">
-        <v>21.8154663656927</v>
+        <v>20.7183931030031</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4727.93370791348</v>
+        <v>4697.40425097018</v>
       </c>
       <c r="C33">
-        <v>88.0429472129974</v>
+        <v>85.8098421467663</v>
       </c>
       <c r="D33">
-        <v>58.5345317542897</v>
+        <v>66.6843864201455</v>
       </c>
       <c r="E33">
-        <v>89.5934602298955</v>
+        <v>79.563265283658</v>
       </c>
       <c r="F33">
-        <v>8.20659247882841</v>
+        <v>8.471716093840451</v>
       </c>
       <c r="G33">
-        <v>77.7006671501248</v>
+        <v>73.62520025312929</v>
       </c>
       <c r="H33">
-        <v>35.2199984557475</v>
+        <v>36.140158615851</v>
       </c>
       <c r="I33">
-        <v>28.0515133754567</v>
+        <v>28.0831314367097</v>
       </c>
       <c r="J33">
-        <v>103.812763078899</v>
+        <v>100.617194822102</v>
       </c>
       <c r="K33">
-        <v>75.8250550439803</v>
+        <v>81.999425367325</v>
       </c>
       <c r="L33">
-        <v>119.007902597827</v>
+        <v>119.157057956264</v>
       </c>
       <c r="M33">
-        <v>64.35772267728029</v>
+        <v>64.05801454537961</v>
       </c>
       <c r="N33">
-        <v>146.777186121264</v>
+        <v>149.598024889061</v>
       </c>
       <c r="O33">
-        <v>7354.94301093643</v>
+        <v>7379.18332935656</v>
       </c>
       <c r="P33">
-        <v>62.8692651633171</v>
+        <v>62.9338731569425</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1964.56607170699</v>
+        <v>1938.69901284585</v>
       </c>
       <c r="C34">
-        <v>72.78337509021959</v>
+        <v>70.8584296064673</v>
       </c>
       <c r="D34">
-        <v>145.990340160338</v>
+        <v>149.954217799717</v>
       </c>
       <c r="E34">
-        <v>41.5291410624196</v>
+        <v>48.6958717457071</v>
       </c>
       <c r="F34">
-        <v>3.72965756038147</v>
+        <v>5.22583961862807</v>
       </c>
       <c r="G34">
-        <v>45.4954624390299</v>
+        <v>44.701050228844</v>
       </c>
       <c r="H34">
-        <v>46.0885535926349</v>
+        <v>44.0980513984287</v>
       </c>
       <c r="I34">
-        <v>18.8489325757544</v>
+        <v>16.1541269887404</v>
       </c>
       <c r="J34">
-        <v>48.3902723988304</v>
+        <v>51.4735767235938</v>
       </c>
       <c r="K34">
-        <v>30.6988978545999</v>
+        <v>33.7462720144677</v>
       </c>
       <c r="L34">
-        <v>99.24484611020441</v>
+        <v>105.05574610737</v>
       </c>
       <c r="M34">
-        <v>32.8293503401013</v>
+        <v>32.7787841483246</v>
       </c>
       <c r="N34">
-        <v>125.184658922657</v>
+        <v>125.359865717255</v>
       </c>
       <c r="O34">
-        <v>2937.10892873082</v>
+        <v>2962.29316395478</v>
       </c>
       <c r="P34">
-        <v>67.8368779002784</v>
+        <v>70.7648157794217</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>134.620332593826</v>
+        <v>128.841060180336</v>
       </c>
       <c r="C35">
-        <v>8.85247452264159</v>
+        <v>7.94628622468564</v>
       </c>
       <c r="D35">
-        <v>0.649291494413057</v>
+        <v>0.439558929040657</v>
       </c>
       <c r="E35">
-        <v>2.47312428370358</v>
+        <v>2.75915535963088</v>
       </c>
       <c r="F35">
-        <v>4.19865345590412</v>
+        <v>4.68478604341047</v>
       </c>
       <c r="G35">
-        <v>1.85001079668734</v>
+        <v>1.25918357922322</v>
       </c>
       <c r="H35">
-        <v>0.175653612635962</v>
+        <v>0.219740512628157</v>
       </c>
       <c r="I35">
-        <v>1.69412957936471</v>
+        <v>1.20485402418917</v>
       </c>
       <c r="J35">
-        <v>3.29118314343201</v>
+        <v>3.36053183075024</v>
       </c>
       <c r="K35">
-        <v>6.1141482952276</v>
+        <v>6.10456292517405</v>
       </c>
       <c r="L35">
-        <v>2.77653692176616</v>
+        <v>2.75252027003034</v>
       </c>
       <c r="M35">
-        <v>2.04063261290098</v>
+        <v>1.99363582942008</v>
       </c>
       <c r="N35">
-        <v>3.61704154346822</v>
+        <v>3.8334089510308</v>
       </c>
       <c r="O35">
-        <v>297.320472592562</v>
+        <v>291.715269914759</v>
       </c>
       <c r="P35">
-        <v>48.1646140171408</v>
+        <v>48.2504577311</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2640.67828039707</v>
+        <v>2628.83938575297</v>
       </c>
       <c r="C36">
-        <v>44.3445144658299</v>
+        <v>55.3225454798649</v>
       </c>
       <c r="D36">
-        <v>17.0145321810544</v>
+        <v>13.0852416710807</v>
       </c>
       <c r="E36">
-        <v>122.126899348405</v>
+        <v>115.559922273314</v>
       </c>
       <c r="F36">
-        <v>29.6334930927896</v>
+        <v>29.8399194413706</v>
       </c>
       <c r="G36">
-        <v>93.1555911443824</v>
+        <v>90.5803901308072</v>
       </c>
       <c r="H36">
-        <v>87.1469353387633</v>
+        <v>85.7046540967997</v>
       </c>
       <c r="I36">
-        <v>38.6119537996703</v>
+        <v>39.3723374668153</v>
       </c>
       <c r="J36">
-        <v>195.198870460975</v>
+        <v>195.931688416538</v>
       </c>
       <c r="K36">
-        <v>72.9614085308463</v>
+        <v>88.2677924898333</v>
       </c>
       <c r="L36">
-        <v>73.8852298042203</v>
+        <v>73.4839002935414</v>
       </c>
       <c r="M36">
-        <v>216.870325326927</v>
+        <v>216.864686233675</v>
       </c>
       <c r="N36">
-        <v>95.1926174953353</v>
+        <v>105.730890020108</v>
       </c>
       <c r="O36">
-        <v>4174.99416306979</v>
+        <v>4169.36011746013</v>
       </c>
       <c r="P36">
-        <v>45.2128307971502</v>
+        <v>42.9749643692232</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>831.413248205533</v>
+        <v>828.525791880825</v>
       </c>
       <c r="C37">
-        <v>19.9588330533962</v>
+        <v>22.105353069482</v>
       </c>
       <c r="D37">
-        <v>3.11105240603618</v>
+        <v>4.01517345901036</v>
       </c>
       <c r="E37">
-        <v>20.5628482936004</v>
+        <v>19.4054239139865</v>
       </c>
       <c r="F37">
-        <v>27.6045438969161</v>
+        <v>32.8695936059693</v>
       </c>
       <c r="G37">
-        <v>7.03153966352699</v>
+        <v>8.912549635332329</v>
       </c>
       <c r="H37">
-        <v>25.6548718416144</v>
+        <v>23.689770228031</v>
       </c>
       <c r="I37">
-        <v>11.3206120075529</v>
+        <v>12.0427566119014</v>
       </c>
       <c r="J37">
-        <v>38.9014470821919</v>
+        <v>36.55542228177</v>
       </c>
       <c r="K37">
-        <v>29.1806778188139</v>
+        <v>27.9007405595598</v>
       </c>
       <c r="L37">
-        <v>23.2186003529937</v>
+        <v>20.8542128606362</v>
       </c>
       <c r="M37">
-        <v>42.4403387800956</v>
+        <v>41.0160044575372</v>
       </c>
       <c r="N37">
-        <v>20.9646956488437</v>
+        <v>18.4132734103891</v>
       </c>
       <c r="O37">
-        <v>1228.08252057282</v>
+        <v>1237.53830752028</v>
       </c>
       <c r="P37">
-        <v>57.9721033464646</v>
+        <v>55.6707083421928</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>835.510117097996</v>
+        <v>823.97172482355</v>
       </c>
       <c r="C38">
-        <v>22.6005378840406</v>
+        <v>23.4647205041735</v>
       </c>
       <c r="D38">
-        <v>10.699615176782</v>
+        <v>8.5700680766308</v>
       </c>
       <c r="E38">
-        <v>51.8763545244789</v>
+        <v>50.4056076661122</v>
       </c>
       <c r="F38">
-        <v>2.08352969054515</v>
+        <v>2.18328952216993</v>
       </c>
       <c r="G38">
-        <v>7.48396010848305</v>
+        <v>7.91234341088203</v>
       </c>
       <c r="H38">
-        <v>3.39887140149203</v>
+        <v>3.46656549159215</v>
       </c>
       <c r="I38">
-        <v>2.74656936296167</v>
+        <v>2.66828472733267</v>
       </c>
       <c r="J38">
-        <v>40.007612814362</v>
+        <v>40.1632169297436</v>
       </c>
       <c r="K38">
-        <v>4.46014804744098</v>
+        <v>5.31521269602078</v>
       </c>
       <c r="L38">
-        <v>58.9717860426859</v>
+        <v>62.4846398022279</v>
       </c>
       <c r="M38">
-        <v>16.574778931895</v>
+        <v>18.4803954300816</v>
       </c>
       <c r="N38">
-        <v>33.7425574026556</v>
+        <v>33.6775661650658</v>
       </c>
       <c r="O38">
-        <v>1326.36178498932</v>
+        <v>1340.78957775981</v>
       </c>
       <c r="P38">
-        <v>64.1275197373029</v>
+        <v>65.8663341116539</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2993.99230559722</v>
+        <v>2952.82330236986</v>
       </c>
       <c r="C39">
-        <v>91.55568927639899</v>
+        <v>91.54070562877099</v>
       </c>
       <c r="D39">
-        <v>43.3574975405497</v>
+        <v>47.3933792015588</v>
       </c>
       <c r="E39">
-        <v>127.760390733533</v>
+        <v>130.722760073009</v>
       </c>
       <c r="F39">
-        <v>23.8111435330189</v>
+        <v>23.7674090082648</v>
       </c>
       <c r="G39">
-        <v>122.070596961317</v>
+        <v>118.833699393399</v>
       </c>
       <c r="H39">
-        <v>57.0040833012211</v>
+        <v>54.4612852190787</v>
       </c>
       <c r="I39">
-        <v>38.4966563043397</v>
+        <v>36.9437596055749</v>
       </c>
       <c r="J39">
-        <v>154.411477245216</v>
+        <v>165.239634115759</v>
       </c>
       <c r="K39">
-        <v>90.60320572389681</v>
+        <v>90.602514578358</v>
       </c>
       <c r="L39">
-        <v>98.0216144643404</v>
+        <v>102.189278269161</v>
       </c>
       <c r="M39">
-        <v>68.0309445847314</v>
+        <v>66.5823143016752</v>
       </c>
       <c r="N39">
-        <v>111.877712900891</v>
+        <v>114.241309938321</v>
       </c>
       <c r="O39">
-        <v>4614.56154461675</v>
+        <v>4637.48577005069</v>
       </c>
       <c r="P39">
-        <v>53.5600253510025</v>
+        <v>59.1527394398866</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>262.420770957623</v>
+        <v>251.60690495394</v>
       </c>
       <c r="C40">
-        <v>4.27086648466812</v>
+        <v>4.13327472818554</v>
       </c>
       <c r="D40">
-        <v>8.91761063177403</v>
+        <v>7.95011412350271</v>
       </c>
       <c r="E40">
-        <v>5.3447697732417</v>
+        <v>5.1503903635916</v>
       </c>
       <c r="F40">
-        <v>0.507541107619199</v>
+        <v>0.436763192750012</v>
       </c>
       <c r="G40">
-        <v>5.08313459821906</v>
+        <v>4.76923243360051</v>
       </c>
       <c r="H40">
-        <v>4.20703073141239</v>
+        <v>4.34046522418828</v>
       </c>
       <c r="I40">
-        <v>1.54778302903525</v>
+        <v>1.60092600006344</v>
       </c>
       <c r="J40">
-        <v>10.282416585254</v>
+        <v>10.3704233948996</v>
       </c>
       <c r="K40">
-        <v>3.62607345288268</v>
+        <v>3.49575143944606</v>
       </c>
       <c r="L40">
-        <v>16.4388648683923</v>
+        <v>14.9072138170009</v>
       </c>
       <c r="M40">
-        <v>5.12857918524374</v>
+        <v>5.37760029739937</v>
       </c>
       <c r="N40">
-        <v>23.3165081246143</v>
+        <v>22.7309685562521</v>
       </c>
       <c r="O40">
-        <v>484.757606619911</v>
+        <v>475.754208148643</v>
       </c>
       <c r="P40">
-        <v>2.68310800229786</v>
+        <v>3.03341518284025</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1030.18466752002</v>
+        <v>1021.14960321385</v>
       </c>
       <c r="C41">
-        <v>12.2273548454452</v>
+        <v>13.5511991007649</v>
       </c>
       <c r="D41">
-        <v>73.5357657316856</v>
+        <v>78.1443670959363</v>
       </c>
       <c r="E41">
-        <v>30.0647353959821</v>
+        <v>31.379959363815</v>
       </c>
       <c r="F41">
-        <v>0.997250240847217</v>
+        <v>0.948470787802946</v>
       </c>
       <c r="G41">
-        <v>25.5054651770149</v>
+        <v>27.3129706140614</v>
       </c>
       <c r="H41">
-        <v>35.853341017012</v>
+        <v>34.7235280215369</v>
       </c>
       <c r="I41">
-        <v>18.579111816437</v>
+        <v>15.6990308836435</v>
       </c>
       <c r="J41">
-        <v>40.1184458789315</v>
+        <v>41.7486024023209</v>
       </c>
       <c r="K41">
-        <v>11.6693338749303</v>
+        <v>13.9645853550122</v>
       </c>
       <c r="L41">
-        <v>30.7433787303276</v>
+        <v>29.9270623079459</v>
       </c>
       <c r="M41">
-        <v>22.673138363382</v>
+        <v>25.8244559379919</v>
       </c>
       <c r="N41">
-        <v>19.833385023106</v>
+        <v>19.0355072650923</v>
       </c>
       <c r="O41">
-        <v>1449.59793145655</v>
+        <v>1464.78885356058</v>
       </c>
       <c r="P41">
-        <v>35.3931364390056</v>
+        <v>33.389436778599</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>146.541573419176</v>
+        <v>141.153929098159</v>
       </c>
       <c r="C42">
-        <v>6.80395013816407</v>
+        <v>7.03607945272404</v>
       </c>
       <c r="D42">
-        <v>2.08414955438641</v>
+        <v>1.55836942281864</v>
       </c>
       <c r="E42">
-        <v>7.32489799347641</v>
+        <v>7.09693532521488</v>
       </c>
       <c r="F42">
-        <v>2.93016593156724</v>
+        <v>2.53985970787462</v>
       </c>
       <c r="G42">
-        <v>1.67258984324964</v>
+        <v>1.59110858705009</v>
       </c>
       <c r="H42">
-        <v>0.68805175144939</v>
+        <v>0.727828625092345</v>
       </c>
       <c r="I42">
-        <v>1.05149283867003</v>
+        <v>1.10781199612476</v>
       </c>
       <c r="J42">
-        <v>4.00609430009679</v>
+        <v>4.32979271987027</v>
       </c>
       <c r="K42">
-        <v>5.13456358382532</v>
+        <v>5.32502777073272</v>
       </c>
       <c r="L42">
-        <v>8.981203975909789</v>
+        <v>8.45562931648764</v>
       </c>
       <c r="M42">
-        <v>4.20550220185095</v>
+        <v>4.63032211933029</v>
       </c>
       <c r="N42">
-        <v>9.88050643517593</v>
+        <v>9.843460558144191</v>
       </c>
       <c r="O42">
-        <v>381.68856720705</v>
+        <v>367.38626536346</v>
       </c>
       <c r="P42">
-        <v>57.5922402132582</v>
+        <v>55.8974599791919</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1480.96193300766</v>
+        <v>1490.39779520172</v>
       </c>
       <c r="C43">
-        <v>43.8315661596263</v>
+        <v>40.5184894517765</v>
       </c>
       <c r="D43">
-        <v>31.5425784736422</v>
+        <v>37.2690331572008</v>
       </c>
       <c r="E43">
-        <v>82.1733970800604</v>
+        <v>71.4139253120175</v>
       </c>
       <c r="F43">
-        <v>6.35673201138464</v>
+        <v>6.05184823584128</v>
       </c>
       <c r="G43">
-        <v>21.7419704423922</v>
+        <v>24.3674008199586</v>
       </c>
       <c r="H43">
-        <v>43.3446867443252</v>
+        <v>35.7319690755138</v>
       </c>
       <c r="I43">
-        <v>25.9982187673721</v>
+        <v>25.419206041036</v>
       </c>
       <c r="J43">
-        <v>51.2056992610385</v>
+        <v>49.6658459063675</v>
       </c>
       <c r="K43">
-        <v>32.0816157783953</v>
+        <v>38.533285386272</v>
       </c>
       <c r="L43">
-        <v>43.6624393972866</v>
+        <v>45.9130753554871</v>
       </c>
       <c r="M43">
-        <v>127.015636433119</v>
+        <v>109.746562874833</v>
       </c>
       <c r="N43">
-        <v>51.4852420720363</v>
+        <v>62.2519628174654</v>
       </c>
       <c r="O43">
-        <v>1989.24665542694</v>
+        <v>2016.08356673112</v>
       </c>
       <c r="P43">
-        <v>42.3601089365195</v>
+        <v>40.596888625977</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4660.26660841639</v>
+        <v>4641.98118641184</v>
       </c>
       <c r="C44">
-        <v>147.710012884182</v>
+        <v>141.755086915659</v>
       </c>
       <c r="D44">
-        <v>31.1554088048205</v>
+        <v>37.5279513763999</v>
       </c>
       <c r="E44">
-        <v>99.47356923535961</v>
+        <v>97.428526714059</v>
       </c>
       <c r="F44">
-        <v>217.906292182652</v>
+        <v>236.249652717448</v>
       </c>
       <c r="G44">
-        <v>112.436607331272</v>
+        <v>122.733532238962</v>
       </c>
       <c r="H44">
-        <v>42.1780448560692</v>
+        <v>40.8377682494227</v>
       </c>
       <c r="I44">
-        <v>42.9717146162862</v>
+        <v>41.4668679116541</v>
       </c>
       <c r="J44">
-        <v>95.4800387330294</v>
+        <v>112.107787083666</v>
       </c>
       <c r="K44">
-        <v>58.3680740505381</v>
+        <v>59.3292452966611</v>
       </c>
       <c r="L44">
-        <v>159.406086285309</v>
+        <v>175.27648705091</v>
       </c>
       <c r="M44">
-        <v>88.05072385882021</v>
+        <v>90.6362886172397</v>
       </c>
       <c r="N44">
-        <v>99.3079169670399</v>
+        <v>92.0680987063347</v>
       </c>
       <c r="O44">
-        <v>7836.4121833499</v>
+        <v>7902.34153425233</v>
       </c>
       <c r="P44">
-        <v>214.221032180295</v>
+        <v>220.133541821028</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>454.530303348237</v>
+        <v>445.527138027615</v>
       </c>
       <c r="C45">
-        <v>20.5191473054508</v>
+        <v>17.8153598857647</v>
       </c>
       <c r="D45">
-        <v>2.6276355312736</v>
+        <v>2.76059689616853</v>
       </c>
       <c r="E45">
-        <v>25.0527820667331</v>
+        <v>20.6753034353445</v>
       </c>
       <c r="F45">
-        <v>22.7017265640401</v>
+        <v>23.3732573956793</v>
       </c>
       <c r="G45">
-        <v>5.9355874434861</v>
+        <v>7.5174269191032</v>
       </c>
       <c r="H45">
-        <v>4.24273108821699</v>
+        <v>2.91954661509443</v>
       </c>
       <c r="I45">
-        <v>3.76871763259585</v>
+        <v>3.97613903628336</v>
       </c>
       <c r="J45">
-        <v>19.3045638919381</v>
+        <v>22.2912254681197</v>
       </c>
       <c r="K45">
-        <v>5.13658712511973</v>
+        <v>4.86186243803054</v>
       </c>
       <c r="L45">
-        <v>14.8530122235984</v>
+        <v>15.3885612962195</v>
       </c>
       <c r="M45">
-        <v>16.4786740715671</v>
+        <v>15.7033678039929</v>
       </c>
       <c r="N45">
-        <v>25.937224421094</v>
+        <v>28.6281772537358</v>
       </c>
       <c r="O45">
-        <v>845.1200818322141</v>
+        <v>853.526253875775</v>
       </c>
       <c r="P45">
-        <v>20.564515362349</v>
+        <v>21.5981032978581</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>136.919636793831</v>
+        <v>129.681058579299</v>
       </c>
       <c r="C46">
-        <v>4.70611291226616</v>
+        <v>4.85736762947043</v>
       </c>
       <c r="D46">
-        <v>1.01830891232998</v>
+        <v>1.19370140724157</v>
       </c>
       <c r="E46">
-        <v>5.83880964259001</v>
+        <v>5.9876838561384</v>
       </c>
       <c r="F46">
-        <v>0.8414209796001541</v>
+        <v>0.992855378714898</v>
       </c>
       <c r="G46">
-        <v>3.36541117844791</v>
+        <v>3.13480660540044</v>
       </c>
       <c r="H46">
-        <v>1.41347215948141</v>
+        <v>1.44477423626967</v>
       </c>
       <c r="I46">
-        <v>1.81378045087805</v>
+        <v>1.80926449959201</v>
       </c>
       <c r="J46">
-        <v>5.65367753600265</v>
+        <v>5.02360438141401</v>
       </c>
       <c r="K46">
-        <v>2.71852277930767</v>
+        <v>3.25018594610247</v>
       </c>
       <c r="L46">
-        <v>13.1054155925288</v>
+        <v>13.2810857699549</v>
       </c>
       <c r="M46">
-        <v>3.78664041893045</v>
+        <v>3.75876032005537</v>
       </c>
       <c r="N46">
-        <v>10.5844107524045</v>
+        <v>10.81405482717</v>
       </c>
       <c r="O46">
-        <v>323.687072922175</v>
+        <v>314.607652610329</v>
       </c>
       <c r="P46">
-        <v>12.5418950709592</v>
+        <v>11.5783156580237</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1599.8764907904</v>
+        <v>1584.46870964274</v>
       </c>
       <c r="C47">
-        <v>50.8319268779134</v>
+        <v>50.6622529668051</v>
       </c>
       <c r="D47">
-        <v>25.7213079196289</v>
+        <v>28.6178050217166</v>
       </c>
       <c r="E47">
-        <v>57.8586667233006</v>
+        <v>53.1183975393752</v>
       </c>
       <c r="F47">
-        <v>9.91403273524476</v>
+        <v>10.9266574996928</v>
       </c>
       <c r="G47">
-        <v>22.4557530527045</v>
+        <v>24.8685893067555</v>
       </c>
       <c r="H47">
-        <v>9.871626557155761</v>
+        <v>12.7612233260968</v>
       </c>
       <c r="I47">
-        <v>4.29599540106167</v>
+        <v>5.1288373208687</v>
       </c>
       <c r="J47">
-        <v>39.2653624440184</v>
+        <v>38.3285791822204</v>
       </c>
       <c r="K47">
-        <v>12.8088726006019</v>
+        <v>11.4464630769477</v>
       </c>
       <c r="L47">
-        <v>31.2299370416794</v>
+        <v>33.6173551054445</v>
       </c>
       <c r="M47">
-        <v>71.76463544816519</v>
+        <v>68.3867075432911</v>
       </c>
       <c r="N47">
-        <v>40.8548894740295</v>
+        <v>38.0987800207436</v>
       </c>
       <c r="O47">
-        <v>2866.34185228212</v>
+        <v>2889.20345469058</v>
       </c>
       <c r="P47">
-        <v>36.2826363093554</v>
+        <v>36.7956464648226</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1395.05762797543</v>
+        <v>1366.18774621917</v>
       </c>
       <c r="C48">
-        <v>27.7565509821034</v>
+        <v>27.9159866833685</v>
       </c>
       <c r="D48">
-        <v>3.87697672521267</v>
+        <v>5.41495136594051</v>
       </c>
       <c r="E48">
-        <v>72.13019542871589</v>
+        <v>72.0490934911667</v>
       </c>
       <c r="F48">
-        <v>6.46340139330702</v>
+        <v>7.35983896320237</v>
       </c>
       <c r="G48">
-        <v>5.15026037688195</v>
+        <v>5.62499142550637</v>
       </c>
       <c r="H48">
-        <v>3.55430507440481</v>
+        <v>3.62140899600506</v>
       </c>
       <c r="I48">
-        <v>10.3159724974009</v>
+        <v>9.01665603329969</v>
       </c>
       <c r="J48">
-        <v>35.8996433977717</v>
+        <v>35.729748794343</v>
       </c>
       <c r="K48">
-        <v>10.7395219068181</v>
+        <v>11.1449808139592</v>
       </c>
       <c r="L48">
-        <v>48.203834410824</v>
+        <v>47.964785585514</v>
       </c>
       <c r="M48">
-        <v>111.238488645128</v>
+        <v>124.126434435359</v>
       </c>
       <c r="N48">
-        <v>35.1876416535071</v>
+        <v>30.5206666505996</v>
       </c>
       <c r="O48">
-        <v>2262.2697066523</v>
+        <v>2313.90796319011</v>
       </c>
       <c r="P48">
-        <v>95.82898920308649</v>
+        <v>89.33720295038501</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>700.088140902488</v>
+        <v>685.5038358995161</v>
       </c>
       <c r="C49">
-        <v>6.05290939478798</v>
+        <v>5.84931956384428</v>
       </c>
       <c r="D49">
-        <v>3.67496401986182</v>
+        <v>2.85196054453213</v>
       </c>
       <c r="E49">
-        <v>24.4238759424187</v>
+        <v>23.6456391185777</v>
       </c>
       <c r="F49">
-        <v>27.2694008575235</v>
+        <v>27.9985101960839</v>
       </c>
       <c r="G49">
-        <v>14.5659058723887</v>
+        <v>15.0625109036109</v>
       </c>
       <c r="H49">
-        <v>7.5323267817473</v>
+        <v>7.17459793572791</v>
       </c>
       <c r="I49">
-        <v>4.32112197854992</v>
+        <v>5.02929910668959</v>
       </c>
       <c r="J49">
-        <v>21.7686691874687</v>
+        <v>21.7312095275261</v>
       </c>
       <c r="K49">
-        <v>3.2527575775672</v>
+        <v>2.83170376638686</v>
       </c>
       <c r="L49">
-        <v>0.877616290123461</v>
+        <v>1.61462773699359</v>
       </c>
       <c r="M49">
-        <v>6.87873605863935</v>
+        <v>6.20400846794503</v>
       </c>
       <c r="N49">
-        <v>3.62479080868835</v>
+        <v>4.50541915892978</v>
       </c>
       <c r="O49">
-        <v>638.1863801632001</v>
+        <v>626.978672552881</v>
       </c>
       <c r="P49">
-        <v>6.93703190546423</v>
+        <v>7.53051243135266</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>995.619878446541</v>
+        <v>995.912364355377</v>
       </c>
       <c r="C50">
-        <v>78.35072569447929</v>
+        <v>77.8932786725558</v>
       </c>
       <c r="D50">
-        <v>14.9592397303064</v>
+        <v>15.9946570910902</v>
       </c>
       <c r="E50">
-        <v>153.841595828767</v>
+        <v>145.823155782286</v>
       </c>
       <c r="F50">
-        <v>3.73658761335377</v>
+        <v>3.97024377430069</v>
       </c>
       <c r="G50">
-        <v>28.293768498189</v>
+        <v>31.1914669120175</v>
       </c>
       <c r="H50">
-        <v>36.5292222864265</v>
+        <v>35.7675949625043</v>
       </c>
       <c r="I50">
-        <v>16.133608575403</v>
+        <v>15.2809089756562</v>
       </c>
       <c r="J50">
-        <v>108.216482393179</v>
+        <v>105.709183265311</v>
       </c>
       <c r="K50">
-        <v>63.8123815323031</v>
+        <v>67.3160338096117</v>
       </c>
       <c r="L50">
-        <v>53.2142474475065</v>
+        <v>56.070530861554</v>
       </c>
       <c r="M50">
-        <v>34.6183801620303</v>
+        <v>39.9987040917246</v>
       </c>
       <c r="N50">
-        <v>56.272567546149</v>
+        <v>54.3649714635047</v>
       </c>
       <c r="O50">
-        <v>2077.27194852281</v>
+        <v>2063.5079794991</v>
       </c>
       <c r="P50">
-        <v>86.8264860370882</v>
+        <v>89.7115892780254</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>140.309060565662</v>
+        <v>130.351033608473</v>
       </c>
       <c r="C51">
-        <v>4.48610141721036</v>
+        <v>3.68799229921578</v>
       </c>
       <c r="D51">
-        <v>0.0728020192133067</v>
+        <v>0.025219230352665</v>
       </c>
       <c r="E51">
-        <v>2.27444009604704</v>
+        <v>2.38703978901473</v>
       </c>
       <c r="F51">
-        <v>33.8147971993553</v>
+        <v>31.4263495617956</v>
       </c>
       <c r="G51">
-        <v>2.31893115613477</v>
+        <v>2.20945817796365</v>
       </c>
       <c r="H51">
-        <v>0.0229360928342971</v>
+        <v>0.00741497063416445</v>
       </c>
       <c r="I51">
-        <v>1.23303071559648</v>
+        <v>1.28907335418315</v>
       </c>
       <c r="J51">
-        <v>1.26493417834044</v>
+        <v>1.06795681869823</v>
       </c>
       <c r="K51">
-        <v>0.869683157149486</v>
+        <v>0.936944679899082</v>
       </c>
       <c r="L51">
-        <v>0.233634494177735</v>
+        <v>0.444567210625832</v>
       </c>
       <c r="M51">
-        <v>0.50433792399844</v>
+        <v>0.548928167452895</v>
       </c>
       <c r="N51">
-        <v>1.18441766834058</v>
+        <v>1.39415991259629</v>
       </c>
       <c r="O51">
-        <v>289.038711322791</v>
+        <v>274.051604366699</v>
       </c>
       <c r="P51">
-        <v>26.1457079777796</v>
+        <v>26.0495645352615</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1335.19503324677</v>
+        <v>1332.10612285793</v>
       </c>
       <c r="C2">
-        <v>27.3965090141449</v>
+        <v>24.2457438887025</v>
       </c>
       <c r="D2">
-        <v>39.8781946769274</v>
+        <v>42.2264320964959</v>
       </c>
       <c r="E2">
-        <v>62.1580796311111</v>
+        <v>61.4562041411068</v>
       </c>
       <c r="F2">
-        <v>18.9930561655855</v>
+        <v>22.58333287807</v>
       </c>
       <c r="G2">
-        <v>13.8313998843467</v>
+        <v>11.7642068694778</v>
       </c>
       <c r="H2">
-        <v>24.8071736728415</v>
+        <v>21.1450655530444</v>
       </c>
       <c r="I2">
-        <v>14.3261388243131</v>
+        <v>16.9058445208996</v>
       </c>
       <c r="J2">
-        <v>72.8400083007563</v>
+        <v>74.4695583751314</v>
       </c>
       <c r="K2">
-        <v>16.6317794916403</v>
+        <v>16.8985115258354</v>
       </c>
       <c r="L2">
-        <v>44.5141528632091</v>
+        <v>52.0732032086785</v>
       </c>
       <c r="M2">
-        <v>40.6332484569557</v>
+        <v>41.2129655320648</v>
       </c>
       <c r="N2">
-        <v>23.7294738741473</v>
+        <v>22.7378675587097</v>
       </c>
       <c r="O2">
-        <v>1408.57112225498</v>
+        <v>1400.68658928041</v>
       </c>
       <c r="P2">
-        <v>20.4298741404398</v>
+        <v>22.6379294534166</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>154.727937722138</v>
+        <v>106.833918534655</v>
       </c>
       <c r="C3">
-        <v>4.51601141368387</v>
+        <v>3.35244752492898</v>
       </c>
       <c r="D3">
-        <v>0.417725294625128</v>
+        <v>0.224846209541132</v>
       </c>
       <c r="E3">
-        <v>1.28542443193201</v>
+        <v>1.05247365643938</v>
       </c>
       <c r="F3">
-        <v>9.99821239598826</v>
+        <v>6.9908885746052</v>
       </c>
       <c r="G3">
-        <v>0.40303886011907</v>
+        <v>0.123816931253048</v>
       </c>
       <c r="H3">
-        <v>0.0863155918591078</v>
+        <v>0.102675161874069</v>
       </c>
       <c r="I3">
-        <v>1.01969082226758</v>
+        <v>0.504276538845862</v>
       </c>
       <c r="J3">
-        <v>0.437081120546913</v>
+        <v>0.319349667821878</v>
       </c>
       <c r="K3">
-        <v>0.205430303184139</v>
+        <v>0.077725365561468</v>
       </c>
       <c r="L3">
-        <v>0.252482261722613</v>
+        <v>0.0629392847507612</v>
       </c>
       <c r="M3">
-        <v>0.877947103846313</v>
+        <v>0.481526059817752</v>
       </c>
       <c r="N3">
-        <v>1.17271159125865</v>
+        <v>0.957900422555143</v>
       </c>
       <c r="O3">
-        <v>326.921012137288</v>
+        <v>232.26617307408</v>
       </c>
       <c r="P3">
-        <v>14.4852236342706</v>
+        <v>10.4616140996062</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1341.06233316936</v>
+        <v>1347.61613364115</v>
       </c>
       <c r="C4">
-        <v>7.52873331865125</v>
+        <v>8.522925180899589</v>
       </c>
       <c r="D4">
-        <v>2.61261721306641</v>
+        <v>2.08222179089496</v>
       </c>
       <c r="E4">
-        <v>23.1770575566091</v>
+        <v>24.4125435526844</v>
       </c>
       <c r="F4">
-        <v>10.1080366775525</v>
+        <v>9.149468526275481</v>
       </c>
       <c r="G4">
-        <v>7.19460538875655</v>
+        <v>7.04656975250117</v>
       </c>
       <c r="H4">
-        <v>11.7365082283757</v>
+        <v>15.4871452795986</v>
       </c>
       <c r="I4">
-        <v>9.814236479080201</v>
+        <v>12.0017297248316</v>
       </c>
       <c r="J4">
-        <v>23.445936854947</v>
+        <v>19.4041272376292</v>
       </c>
       <c r="K4">
-        <v>4.9812752149911</v>
+        <v>4.49042785873396</v>
       </c>
       <c r="L4">
-        <v>65.9088202871784</v>
+        <v>66.8944034107579</v>
       </c>
       <c r="M4">
-        <v>43.5235933985015</v>
+        <v>42.9740610347146</v>
       </c>
       <c r="N4">
-        <v>32.5162817851677</v>
+        <v>31.1774719441761</v>
       </c>
       <c r="O4">
-        <v>2093.83618943839</v>
+        <v>2136.05184630448</v>
       </c>
       <c r="P4">
-        <v>17.7744124042265</v>
+        <v>17.6607116508971</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>714.848452079264</v>
+        <v>712.0466886818421</v>
       </c>
       <c r="C5">
-        <v>48.6118104278699</v>
+        <v>49.6023070087126</v>
       </c>
       <c r="D5">
-        <v>11.4222769862597</v>
+        <v>9.85714227678656</v>
       </c>
       <c r="E5">
-        <v>34.3683537559592</v>
+        <v>34.8944178865401</v>
       </c>
       <c r="F5">
-        <v>5.91746492810291</v>
+        <v>7.56073447654961</v>
       </c>
       <c r="G5">
-        <v>4.73921300800816</v>
+        <v>4.50784988303149</v>
       </c>
       <c r="H5">
-        <v>11.4507858562088</v>
+        <v>11.3162809685841</v>
       </c>
       <c r="I5">
-        <v>6.87800364872755</v>
+        <v>8.536743133334561</v>
       </c>
       <c r="J5">
-        <v>29.5037716535446</v>
+        <v>31.0448704634353</v>
       </c>
       <c r="K5">
-        <v>12.9988415436645</v>
+        <v>10.0042074009348</v>
       </c>
       <c r="L5">
-        <v>21.2070495524756</v>
+        <v>21.4257493212305</v>
       </c>
       <c r="M5">
-        <v>21.6658979186805</v>
+        <v>26.4201038928124</v>
       </c>
       <c r="N5">
-        <v>22.5088685297403</v>
+        <v>21.099107446878</v>
       </c>
       <c r="O5">
-        <v>909.006967140739</v>
+        <v>937.077480226277</v>
       </c>
       <c r="P5">
-        <v>55.9386032128664</v>
+        <v>61.2747362241587</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7907.86535053452</v>
+        <v>8046.89142884652</v>
       </c>
       <c r="C6">
-        <v>195.097899150831</v>
+        <v>208.17084783289</v>
       </c>
       <c r="D6">
-        <v>126.19554807013</v>
+        <v>107.705950021916</v>
       </c>
       <c r="E6">
-        <v>166.207492235072</v>
+        <v>167.543296495194</v>
       </c>
       <c r="F6">
-        <v>43.9693924233895</v>
+        <v>39.6516917891098</v>
       </c>
       <c r="G6">
-        <v>110.31072958354</v>
+        <v>128.932392313143</v>
       </c>
       <c r="H6">
-        <v>65.55610333425351</v>
+        <v>70.6359023616065</v>
       </c>
       <c r="I6">
-        <v>41.3653474819313</v>
+        <v>40.2444586952108</v>
       </c>
       <c r="J6">
-        <v>186.355349991578</v>
+        <v>185.45207657223</v>
       </c>
       <c r="K6">
-        <v>85.0499373921139</v>
+        <v>80.6339548214236</v>
       </c>
       <c r="L6">
-        <v>474.713661412774</v>
+        <v>526.516374598776</v>
       </c>
       <c r="M6">
-        <v>272.041923819673</v>
+        <v>276.309545418366</v>
       </c>
       <c r="N6">
-        <v>285.921574056243</v>
+        <v>261.72228729436</v>
       </c>
       <c r="O6">
-        <v>12593.1272026831</v>
+        <v>12755.5708188691</v>
       </c>
       <c r="P6">
-        <v>292.090264852201</v>
+        <v>347.801082822374</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>806.398146254571</v>
+        <v>825.21069648224</v>
       </c>
       <c r="C7">
-        <v>35.4576261231556</v>
+        <v>40.6949324052213</v>
       </c>
       <c r="D7">
-        <v>3.5534318518252</v>
+        <v>3.48938273220654</v>
       </c>
       <c r="E7">
-        <v>19.9010014517269</v>
+        <v>20.0036959135855</v>
       </c>
       <c r="F7">
-        <v>12.8832958529424</v>
+        <v>10.4796922841815</v>
       </c>
       <c r="G7">
-        <v>6.85281261299159</v>
+        <v>6.50569801816194</v>
       </c>
       <c r="H7">
-        <v>4.31149497451279</v>
+        <v>4.60715402107702</v>
       </c>
       <c r="I7">
-        <v>9.420868130947911</v>
+        <v>9.602316518067489</v>
       </c>
       <c r="J7">
-        <v>17.0767478713809</v>
+        <v>14.6009194878811</v>
       </c>
       <c r="K7">
-        <v>8.662624316623321</v>
+        <v>9.229452122491489</v>
       </c>
       <c r="L7">
-        <v>56.5476285050751</v>
+        <v>54.1179706806692</v>
       </c>
       <c r="M7">
-        <v>16.3877017348907</v>
+        <v>17.3865514879024</v>
       </c>
       <c r="N7">
-        <v>26.8286108483574</v>
+        <v>29.606555727624</v>
       </c>
       <c r="O7">
-        <v>1890.67981398427</v>
+        <v>1953.55280734104</v>
       </c>
       <c r="P7">
-        <v>28.8678885199001</v>
+        <v>25.0277739010488</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>681.182906369729</v>
+        <v>673.125451124115</v>
       </c>
       <c r="C8">
-        <v>13.4164916214754</v>
+        <v>12.7781696823411</v>
       </c>
       <c r="D8">
-        <v>4.36200508135484</v>
+        <v>6.89704137867336</v>
       </c>
       <c r="E8">
-        <v>20.9359143316304</v>
+        <v>19.9854817718549</v>
       </c>
       <c r="F8">
-        <v>3.29440586640007</v>
+        <v>4.19188169629303</v>
       </c>
       <c r="G8">
-        <v>26.6888879315607</v>
+        <v>26.6605958383317</v>
       </c>
       <c r="H8">
-        <v>11.0728123278296</v>
+        <v>11.3356921220618</v>
       </c>
       <c r="I8">
-        <v>7.04514036340501</v>
+        <v>8.279383097834231</v>
       </c>
       <c r="J8">
-        <v>38.0562039689746</v>
+        <v>38.601210617456</v>
       </c>
       <c r="K8">
-        <v>17.4464725763135</v>
+        <v>18.205152735932</v>
       </c>
       <c r="L8">
-        <v>46.7142647156599</v>
+        <v>47.3135855560265</v>
       </c>
       <c r="M8">
-        <v>50.3655014655717</v>
+        <v>52.5204744825094</v>
       </c>
       <c r="N8">
-        <v>26.5793541784888</v>
+        <v>25.5852846687052</v>
       </c>
       <c r="O8">
-        <v>1402.69884748306</v>
+        <v>1426.19535519023</v>
       </c>
       <c r="P8">
-        <v>5.43930549399172</v>
+        <v>5.74289117892537</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>213.34424785939</v>
+        <v>180.115735405967</v>
       </c>
       <c r="C9">
-        <v>8.801135288851141</v>
+        <v>7.85178879385322</v>
       </c>
       <c r="D9">
-        <v>2.28608557722381</v>
+        <v>2.17840084793961</v>
       </c>
       <c r="E9">
-        <v>4.68292151066554</v>
+        <v>3.61479683596081</v>
       </c>
       <c r="F9">
-        <v>1.16538974303786</v>
+        <v>1.10058066285184</v>
       </c>
       <c r="G9">
-        <v>23.1136775850368</v>
+        <v>21.2368361163519</v>
       </c>
       <c r="H9">
-        <v>4.21727850324548</v>
+        <v>4.1012994267101</v>
       </c>
       <c r="I9">
-        <v>1.13509269144079</v>
+        <v>0.8251135240611111</v>
       </c>
       <c r="J9">
-        <v>5.0288303583237</v>
+        <v>4.82093261449319</v>
       </c>
       <c r="K9">
-        <v>2.11348655856622</v>
+        <v>2.00018747430713</v>
       </c>
       <c r="L9">
-        <v>2.9089855856137</v>
+        <v>2.72534771146723</v>
       </c>
       <c r="M9">
-        <v>8.55915765628191</v>
+        <v>9.13452295518924</v>
       </c>
       <c r="N9">
-        <v>5.18348788575513</v>
+        <v>4.99866622257336</v>
       </c>
       <c r="O9">
-        <v>384.64739062577</v>
+        <v>317.665019785679</v>
       </c>
       <c r="P9">
-        <v>6.33927862846901</v>
+        <v>5.0231320847181</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4309.3335618287</v>
+        <v>4321.86007870595</v>
       </c>
       <c r="C10">
-        <v>69.09745702265251</v>
+        <v>71.47103724728851</v>
       </c>
       <c r="D10">
-        <v>22.8941599115835</v>
+        <v>17.7789444449872</v>
       </c>
       <c r="E10">
-        <v>52.6243204575957</v>
+        <v>54.7575379156619</v>
       </c>
       <c r="F10">
-        <v>10.4008146544336</v>
+        <v>16.2128346768797</v>
       </c>
       <c r="G10">
-        <v>36.0259189682008</v>
+        <v>43.4132941371484</v>
       </c>
       <c r="H10">
-        <v>13.2781322090611</v>
+        <v>17.4327207878296</v>
       </c>
       <c r="I10">
-        <v>40.6741064141354</v>
+        <v>42.9167774390351</v>
       </c>
       <c r="J10">
-        <v>57.6553770551736</v>
+        <v>62.6493054929973</v>
       </c>
       <c r="K10">
-        <v>23.8721447360274</v>
+        <v>22.8858070816665</v>
       </c>
       <c r="L10">
-        <v>83.0186979036678</v>
+        <v>80.39408769820101</v>
       </c>
       <c r="M10">
-        <v>73.9589758577779</v>
+        <v>75.45466644713081</v>
       </c>
       <c r="N10">
-        <v>90.4431492908416</v>
+        <v>83.9362203089097</v>
       </c>
       <c r="O10">
-        <v>7073.04065072819</v>
+        <v>7169.87055932892</v>
       </c>
       <c r="P10">
-        <v>90.1220182666291</v>
+        <v>98.5727758665538</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1910.50097701648</v>
+        <v>1923.10452168118</v>
       </c>
       <c r="C11">
-        <v>68.52024307154819</v>
+        <v>62.6781659085051</v>
       </c>
       <c r="D11">
-        <v>164.001278673368</v>
+        <v>174.207701934481</v>
       </c>
       <c r="E11">
-        <v>70.6671983803128</v>
+        <v>64.95563348877001</v>
       </c>
       <c r="F11">
-        <v>5.50410131429424</v>
+        <v>0.958486178460644</v>
       </c>
       <c r="G11">
-        <v>27.6381038599698</v>
+        <v>32.2608198776622</v>
       </c>
       <c r="H11">
-        <v>18.7375032253412</v>
+        <v>16.4307670446114</v>
       </c>
       <c r="I11">
-        <v>12.7718884588646</v>
+        <v>15.1273668055314</v>
       </c>
       <c r="J11">
-        <v>44.295112914293</v>
+        <v>49.4640246681449</v>
       </c>
       <c r="K11">
-        <v>20.0198071628041</v>
+        <v>18.6720245195348</v>
       </c>
       <c r="L11">
-        <v>53.3486278394779</v>
+        <v>55.1758912089009</v>
       </c>
       <c r="M11">
-        <v>41.9465431810999</v>
+        <v>37.9258621882428</v>
       </c>
       <c r="N11">
-        <v>51.4976257908107</v>
+        <v>45.6703772633355</v>
       </c>
       <c r="O11">
-        <v>3158.74436942523</v>
+        <v>3184.62482996107</v>
       </c>
       <c r="P11">
-        <v>52.4544161381791</v>
+        <v>64.2680437355034</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>302.495751480088</v>
+        <v>269.590570044463</v>
       </c>
       <c r="C12">
-        <v>6.82015646923082</v>
+        <v>6.40696627048365</v>
       </c>
       <c r="D12">
-        <v>0.8037358609695811</v>
+        <v>0.667322495576525</v>
       </c>
       <c r="E12">
-        <v>3.04400943669883</v>
+        <v>3.24743605806198</v>
       </c>
       <c r="F12">
-        <v>1.04221882544639</v>
+        <v>1.03661689260683</v>
       </c>
       <c r="G12">
-        <v>0.478277850136057</v>
+        <v>0.568727953112357</v>
       </c>
       <c r="H12">
-        <v>0.236189769739776</v>
+        <v>0.254848143024645</v>
       </c>
       <c r="I12">
-        <v>1.10888466050503</v>
+        <v>0.940665840627549</v>
       </c>
       <c r="J12">
-        <v>2.25015265338745</v>
+        <v>2.1654925673187</v>
       </c>
       <c r="K12">
-        <v>0.048931931317336</v>
+        <v>0.016081051839229</v>
       </c>
       <c r="L12">
-        <v>0.508475658131084</v>
+        <v>0.502343151897538</v>
       </c>
       <c r="M12">
-        <v>3.67536122017043</v>
+        <v>3.21853260171796</v>
       </c>
       <c r="N12">
-        <v>3.65270443706647</v>
+        <v>1.31688379105352</v>
       </c>
       <c r="O12">
-        <v>602.639123760119</v>
+        <v>519.599780819501</v>
       </c>
       <c r="P12">
-        <v>22.2468338115411</v>
+        <v>21.5130809171992</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>271.211212809768</v>
+        <v>236.106995279648</v>
       </c>
       <c r="C13">
-        <v>18.4075187146842</v>
+        <v>17.9485963867398</v>
       </c>
       <c r="D13">
-        <v>0.495057820243883</v>
+        <v>0.370206230339688</v>
       </c>
       <c r="E13">
-        <v>13.1482044881365</v>
+        <v>11.2393538164189</v>
       </c>
       <c r="F13">
-        <v>2.76390829819058</v>
+        <v>2.5386553892777</v>
       </c>
       <c r="G13">
-        <v>5.71953393131023</v>
+        <v>5.08101744887521</v>
       </c>
       <c r="H13">
-        <v>2.07343769867755</v>
+        <v>2.69325948976659</v>
       </c>
       <c r="I13">
-        <v>1.66320480255321</v>
+        <v>2.01341754183448</v>
       </c>
       <c r="J13">
-        <v>5.99033615916995</v>
+        <v>5.37226407166803</v>
       </c>
       <c r="K13">
-        <v>5.19773263625957</v>
+        <v>2.9787958017386</v>
       </c>
       <c r="L13">
-        <v>18.6360904106899</v>
+        <v>15.8849690658512</v>
       </c>
       <c r="M13">
-        <v>1.3473549538885</v>
+        <v>1.50163514318641</v>
       </c>
       <c r="N13">
-        <v>5.45629137612095</v>
+        <v>4.7138229980565</v>
       </c>
       <c r="O13">
-        <v>552.077209372863</v>
+        <v>515.646016688572</v>
       </c>
       <c r="P13">
-        <v>54.545873981158</v>
+        <v>50.6453051089392</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2670.09857966389</v>
+        <v>2648.73179869245</v>
       </c>
       <c r="C14">
-        <v>113.528367159779</v>
+        <v>132.393031331308</v>
       </c>
       <c r="D14">
-        <v>12.0897611113369</v>
+        <v>16.1045979574282</v>
       </c>
       <c r="E14">
-        <v>86.17126164729901</v>
+        <v>90.4632886583037</v>
       </c>
       <c r="F14">
-        <v>19.0657669945871</v>
+        <v>16.5176237694984</v>
       </c>
       <c r="G14">
-        <v>87.29506878706</v>
+        <v>83.1621641279696</v>
       </c>
       <c r="H14">
-        <v>40.107803308941</v>
+        <v>38.635126436053</v>
       </c>
       <c r="I14">
-        <v>23.5465432537405</v>
+        <v>26.7150923100078</v>
       </c>
       <c r="J14">
-        <v>141.402577184378</v>
+        <v>144.368056834453</v>
       </c>
       <c r="K14">
-        <v>136.739165183728</v>
+        <v>144.893915912222</v>
       </c>
       <c r="L14">
-        <v>119.274246665768</v>
+        <v>124.003607582189</v>
       </c>
       <c r="M14">
-        <v>77.8571227133278</v>
+        <v>78.8810039324481</v>
       </c>
       <c r="N14">
-        <v>94.002574229426</v>
+        <v>94.7469626311532</v>
       </c>
       <c r="O14">
-        <v>4820.01853117271</v>
+        <v>4834.77275900814</v>
       </c>
       <c r="P14">
-        <v>57.3214593571603</v>
+        <v>76.43616569889031</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1319.9968903644</v>
+        <v>1305.48235128656</v>
       </c>
       <c r="C15">
-        <v>39.2572393610805</v>
+        <v>36.4028618736088</v>
       </c>
       <c r="D15">
-        <v>12.324108596131</v>
+        <v>17.9676059589889</v>
       </c>
       <c r="E15">
-        <v>78.12304614812361</v>
+        <v>73.9683284175628</v>
       </c>
       <c r="F15">
-        <v>20.8400576108091</v>
+        <v>23.2135342783295</v>
       </c>
       <c r="G15">
-        <v>45.8192574167435</v>
+        <v>46.7478869640545</v>
       </c>
       <c r="H15">
-        <v>49.1680712094666</v>
+        <v>48.7420577461122</v>
       </c>
       <c r="I15">
-        <v>25.8909368754695</v>
+        <v>27.3834057291329</v>
       </c>
       <c r="J15">
-        <v>159.694321528602</v>
+        <v>161.466656012682</v>
       </c>
       <c r="K15">
-        <v>36.7408728124497</v>
+        <v>32.8733570795435</v>
       </c>
       <c r="L15">
-        <v>39.7945179800005</v>
+        <v>38.5402420672703</v>
       </c>
       <c r="M15">
-        <v>174.679141749219</v>
+        <v>184.573518526871</v>
       </c>
       <c r="N15">
-        <v>89.9569027166354</v>
+        <v>88.6927860394766</v>
       </c>
       <c r="O15">
-        <v>2130.93890161871</v>
+        <v>2152.05023479603</v>
       </c>
       <c r="P15">
-        <v>46.3657544971149</v>
+        <v>43.702386647597</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>535.003930023251</v>
+        <v>497.664536543452</v>
       </c>
       <c r="C16">
-        <v>63.8306414474905</v>
+        <v>60.6357239031115</v>
       </c>
       <c r="D16">
-        <v>6.43324243472379</v>
+        <v>5.93360309296431</v>
       </c>
       <c r="E16">
-        <v>25.7342297828438</v>
+        <v>28.7816023360788</v>
       </c>
       <c r="F16">
-        <v>3.03048532340408</v>
+        <v>2.90706828713785</v>
       </c>
       <c r="G16">
-        <v>21.3010271168583</v>
+        <v>23.6064378541866</v>
       </c>
       <c r="H16">
-        <v>14.2442239296784</v>
+        <v>12.1405748648113</v>
       </c>
       <c r="I16">
-        <v>8.3432854307535</v>
+        <v>8.193459844443281</v>
       </c>
       <c r="J16">
-        <v>49.5095187746523</v>
+        <v>45.4014618706846</v>
       </c>
       <c r="K16">
-        <v>43.0687243033894</v>
+        <v>41.5457016306134</v>
       </c>
       <c r="L16">
-        <v>27.6792233080941</v>
+        <v>24.7625886398737</v>
       </c>
       <c r="M16">
-        <v>25.9916635921899</v>
+        <v>27.390279475627</v>
       </c>
       <c r="N16">
-        <v>27.9486047897017</v>
+        <v>26.3835728748963</v>
       </c>
       <c r="O16">
-        <v>1186.0249949723</v>
+        <v>1162.78197896958</v>
       </c>
       <c r="P16">
-        <v>86.53277334267089</v>
+        <v>81.0264208367185</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>535.140753172682</v>
+        <v>517.004479421756</v>
       </c>
       <c r="C17">
-        <v>21.0148708302385</v>
+        <v>17.4810670414459</v>
       </c>
       <c r="D17">
-        <v>3.64447277739693</v>
+        <v>2.14880823490552</v>
       </c>
       <c r="E17">
-        <v>23.6965268657286</v>
+        <v>20.1489542571585</v>
       </c>
       <c r="F17">
-        <v>11.3161523565507</v>
+        <v>10.5979664489721</v>
       </c>
       <c r="G17">
-        <v>6.44181397158909</v>
+        <v>5.68946394249693</v>
       </c>
       <c r="H17">
-        <v>8.046280039253761</v>
+        <v>6.46594688697462</v>
       </c>
       <c r="I17">
-        <v>9.461135557711049</v>
+        <v>10.2486813746469</v>
       </c>
       <c r="J17">
-        <v>18.1143870578637</v>
+        <v>13.6163556775696</v>
       </c>
       <c r="K17">
-        <v>10.8241036647088</v>
+        <v>11.2906640598469</v>
       </c>
       <c r="L17">
-        <v>10.1698015400582</v>
+        <v>7.63019839944195</v>
       </c>
       <c r="M17">
-        <v>63.6667105147435</v>
+        <v>59.6273535557797</v>
       </c>
       <c r="N17">
-        <v>14.469858585309</v>
+        <v>14.2967632211046</v>
       </c>
       <c r="O17">
-        <v>1105.53778518085</v>
+        <v>1077.09534654938</v>
       </c>
       <c r="P17">
-        <v>55.733568769243</v>
+        <v>55.1545972373308</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1177.77678836469</v>
+        <v>1135.19125808676</v>
       </c>
       <c r="C18">
-        <v>33.7491993598856</v>
+        <v>36.9068032195726</v>
       </c>
       <c r="D18">
-        <v>5.39720602763068</v>
+        <v>3.37056553966177</v>
       </c>
       <c r="E18">
-        <v>33.8235405009081</v>
+        <v>30.4013701114012</v>
       </c>
       <c r="F18">
-        <v>29.7285515067866</v>
+        <v>25.2076688195938</v>
       </c>
       <c r="G18">
-        <v>22.6357657880896</v>
+        <v>21.8652562788977</v>
       </c>
       <c r="H18">
-        <v>19.0147877952738</v>
+        <v>17.6459879851631</v>
       </c>
       <c r="I18">
-        <v>3.65254470470112</v>
+        <v>2.38074993985307</v>
       </c>
       <c r="J18">
-        <v>44.4477601957442</v>
+        <v>42.3472847408432</v>
       </c>
       <c r="K18">
-        <v>15.6944313732669</v>
+        <v>13.7302893882639</v>
       </c>
       <c r="L18">
-        <v>34.0672039210248</v>
+        <v>39.4215427667218</v>
       </c>
       <c r="M18">
-        <v>66.2749874860895</v>
+        <v>65.20515311213219</v>
       </c>
       <c r="N18">
-        <v>21.8181316551038</v>
+        <v>22.3329470683934</v>
       </c>
       <c r="O18">
-        <v>1451.19079194983</v>
+        <v>1383.07787448799</v>
       </c>
       <c r="P18">
-        <v>59.082113639313</v>
+        <v>59.9809342012112</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1211.03285783118</v>
+        <v>1173.10786005548</v>
       </c>
       <c r="C19">
-        <v>28.5397394507609</v>
+        <v>27.3280521487235</v>
       </c>
       <c r="D19">
-        <v>7.60497788959472</v>
+        <v>10.4422357700327</v>
       </c>
       <c r="E19">
-        <v>41.2168550665868</v>
+        <v>46.9593177634781</v>
       </c>
       <c r="F19">
-        <v>90.7498400224485</v>
+        <v>93.8575160966214</v>
       </c>
       <c r="G19">
-        <v>42.4566731636096</v>
+        <v>42.4043313782035</v>
       </c>
       <c r="H19">
-        <v>7.9373075610522</v>
+        <v>7.28324657837857</v>
       </c>
       <c r="I19">
-        <v>3.04534314748735</v>
+        <v>2.25032149328749</v>
       </c>
       <c r="J19">
-        <v>13.9132444836922</v>
+        <v>16.009676304028</v>
       </c>
       <c r="K19">
-        <v>10.7827677424907</v>
+        <v>9.78803684720215</v>
       </c>
       <c r="L19">
-        <v>3.59726139384213</v>
+        <v>5.80920711570895</v>
       </c>
       <c r="M19">
-        <v>33.0586193624539</v>
+        <v>31.2262491356068</v>
       </c>
       <c r="N19">
-        <v>11.3790265331877</v>
+        <v>13.7895697358783</v>
       </c>
       <c r="O19">
-        <v>1565.82839032781</v>
+        <v>1553.80278526807</v>
       </c>
       <c r="P19">
-        <v>42.3066632349047</v>
+        <v>46.2334756594047</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>299.477801733753</v>
+        <v>288.816632812726</v>
       </c>
       <c r="C20">
-        <v>9.638432580359099</v>
+        <v>9.049583642311809</v>
       </c>
       <c r="D20">
-        <v>8.483771442607059</v>
+        <v>6.70695340327149</v>
       </c>
       <c r="E20">
-        <v>36.7796249897496</v>
+        <v>35.0263986145823</v>
       </c>
       <c r="F20">
-        <v>1.3132830214747</v>
+        <v>1.52648709128827</v>
       </c>
       <c r="G20">
-        <v>2.18061542906894</v>
+        <v>2.4673122430783</v>
       </c>
       <c r="H20">
-        <v>1.1554838925776</v>
+        <v>0.8869554225009491</v>
       </c>
       <c r="I20">
-        <v>1.54774362462887</v>
+        <v>1.61810865902256</v>
       </c>
       <c r="J20">
-        <v>4.74423102559155</v>
+        <v>5.17443346819439</v>
       </c>
       <c r="K20">
-        <v>2.31727397381761</v>
+        <v>3.03663893339118</v>
       </c>
       <c r="L20">
-        <v>7.91734328965444</v>
+        <v>6.76391253171924</v>
       </c>
       <c r="M20">
-        <v>18.3258129473131</v>
+        <v>17.3576332272812</v>
       </c>
       <c r="N20">
-        <v>5.96443824716543</v>
+        <v>6.9262792189406</v>
       </c>
       <c r="O20">
-        <v>550.098516674965</v>
+        <v>532.996403577908</v>
       </c>
       <c r="P20">
-        <v>24.7922145364253</v>
+        <v>28.4029377407732</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1115.81260617085</v>
+        <v>1070.1581920217</v>
       </c>
       <c r="C21">
-        <v>23.9692982333128</v>
+        <v>28.4676299336139</v>
       </c>
       <c r="D21">
-        <v>3.50457734972728</v>
+        <v>3.41493490074088</v>
       </c>
       <c r="E21">
-        <v>22.1845275194321</v>
+        <v>18.6023337872975</v>
       </c>
       <c r="F21">
-        <v>4.2103581667624</v>
+        <v>5.60983524581722</v>
       </c>
       <c r="G21">
-        <v>18.850930130167</v>
+        <v>17.6896110353016</v>
       </c>
       <c r="H21">
-        <v>6.649166456496</v>
+        <v>7.14858022310024</v>
       </c>
       <c r="I21">
-        <v>13.7063353481056</v>
+        <v>14.5461298118204</v>
       </c>
       <c r="J21">
-        <v>23.1504212785358</v>
+        <v>25.7809172506213</v>
       </c>
       <c r="K21">
-        <v>2.39771787611364</v>
+        <v>2.28651912602584</v>
       </c>
       <c r="L21">
-        <v>25.991253967995</v>
+        <v>23.7270687523454</v>
       </c>
       <c r="M21">
-        <v>23.1604831716711</v>
+        <v>17.8383975856902</v>
       </c>
       <c r="N21">
-        <v>21.0676910350089</v>
+        <v>24.0355072389875</v>
       </c>
       <c r="O21">
-        <v>2336.27151419301</v>
+        <v>2380.7156504798</v>
       </c>
       <c r="P21">
-        <v>21.3901944447295</v>
+        <v>17.4406511637146</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1291.33365027919</v>
+        <v>1298.1142744597</v>
       </c>
       <c r="C22">
-        <v>18.1191406552591</v>
+        <v>17.3907047218018</v>
       </c>
       <c r="D22">
-        <v>19.3693796802861</v>
+        <v>21.1365625991411</v>
       </c>
       <c r="E22">
-        <v>42.9593173134192</v>
+        <v>46.8273384041687</v>
       </c>
       <c r="F22">
-        <v>3.11814740255565</v>
+        <v>4.62714701685384</v>
       </c>
       <c r="G22">
-        <v>31.7792967603058</v>
+        <v>32.2805074060051</v>
       </c>
       <c r="H22">
-        <v>17.3792450433548</v>
+        <v>13.0373878836172</v>
       </c>
       <c r="I22">
-        <v>10.7282604106094</v>
+        <v>9.436664113204881</v>
       </c>
       <c r="J22">
-        <v>41.4699757212872</v>
+        <v>42.8167217704376</v>
       </c>
       <c r="K22">
-        <v>18.3552085163803</v>
+        <v>19.4772349886346</v>
       </c>
       <c r="L22">
-        <v>120.106135661697</v>
+        <v>133.61067276057</v>
       </c>
       <c r="M22">
-        <v>14.4928783122991</v>
+        <v>15.2821055500927</v>
       </c>
       <c r="N22">
-        <v>76.07507361050931</v>
+        <v>79.9706846883019</v>
       </c>
       <c r="O22">
-        <v>2631.95277536495</v>
+        <v>2660.70236112645</v>
       </c>
       <c r="P22">
-        <v>10.572238685953</v>
+        <v>10.8981704224068</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2408.50963456786</v>
+        <v>2441.52589286289</v>
       </c>
       <c r="C23">
-        <v>36.4706765358178</v>
+        <v>40.894085144124</v>
       </c>
       <c r="D23">
-        <v>8.67664372887643</v>
+        <v>9.46348958924666</v>
       </c>
       <c r="E23">
-        <v>43.6403983421907</v>
+        <v>42.9820371790204</v>
       </c>
       <c r="F23">
-        <v>5.2762702594291</v>
+        <v>6.86916688551244</v>
       </c>
       <c r="G23">
-        <v>56.7114864854332</v>
+        <v>64.17809626072</v>
       </c>
       <c r="H23">
-        <v>57.4550385602376</v>
+        <v>63.6252762117973</v>
       </c>
       <c r="I23">
-        <v>13.1706640920695</v>
+        <v>13.3960806574349</v>
       </c>
       <c r="J23">
-        <v>129.14046984789</v>
+        <v>131.489832304739</v>
       </c>
       <c r="K23">
-        <v>83.8492184330789</v>
+        <v>79.4481422214505</v>
       </c>
       <c r="L23">
-        <v>38.0073579562353</v>
+        <v>35.7536764161874</v>
       </c>
       <c r="M23">
-        <v>542.434294342332</v>
+        <v>546.354014084142</v>
       </c>
       <c r="N23">
-        <v>81.69112507651821</v>
+        <v>80.6191702236607</v>
       </c>
       <c r="O23">
-        <v>3393.82447763897</v>
+        <v>3369.92256265377</v>
       </c>
       <c r="P23">
-        <v>49.2495178272797</v>
+        <v>55.9741608873376</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>849.093722357434</v>
+        <v>853.60593676585</v>
       </c>
       <c r="C24">
-        <v>51.6136896056312</v>
+        <v>57.5278675737554</v>
       </c>
       <c r="D24">
-        <v>6.28350335679573</v>
+        <v>6.03652616146828</v>
       </c>
       <c r="E24">
-        <v>55.1060708620553</v>
+        <v>57.2568443417602</v>
       </c>
       <c r="F24">
-        <v>12.419154552248</v>
+        <v>12.6570671810336</v>
       </c>
       <c r="G24">
-        <v>27.8192842382725</v>
+        <v>28.3710839209291</v>
       </c>
       <c r="H24">
-        <v>14.2065719538974</v>
+        <v>12.0316542900628</v>
       </c>
       <c r="I24">
-        <v>18.2297213488001</v>
+        <v>18.9449099040083</v>
       </c>
       <c r="J24">
-        <v>55.2807849489226</v>
+        <v>54.4223958997316</v>
       </c>
       <c r="K24">
-        <v>41.6880603904418</v>
+        <v>34.744967265896</v>
       </c>
       <c r="L24">
-        <v>65.17897248826679</v>
+        <v>68.7617142408094</v>
       </c>
       <c r="M24">
-        <v>31.2601890648778</v>
+        <v>35.5540554102218</v>
       </c>
       <c r="N24">
-        <v>72.0660319912279</v>
+        <v>72.007828040588</v>
       </c>
       <c r="O24">
-        <v>1987.29585643236</v>
+        <v>2034.7825042978</v>
       </c>
       <c r="P24">
-        <v>105.1306376785</v>
+        <v>104.215071092223</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>807.928272319682</v>
+        <v>757.0843063378981</v>
       </c>
       <c r="C25">
-        <v>43.9720776673916</v>
+        <v>42.9430983665408</v>
       </c>
       <c r="D25">
-        <v>14.2319457204823</v>
+        <v>12.3992333940071</v>
       </c>
       <c r="E25">
-        <v>43.9918637728994</v>
+        <v>39.4155868879153</v>
       </c>
       <c r="F25">
-        <v>15.9682402998914</v>
+        <v>12.8612746106315</v>
       </c>
       <c r="G25">
-        <v>10.7882503375856</v>
+        <v>7.23760281149229</v>
       </c>
       <c r="H25">
-        <v>9.415321344845561</v>
+        <v>9.460998345965191</v>
       </c>
       <c r="I25">
-        <v>6.0517715437324</v>
+        <v>4.59013921509426</v>
       </c>
       <c r="J25">
-        <v>14.5743638821793</v>
+        <v>15.1243118131632</v>
       </c>
       <c r="K25">
-        <v>12.3092672723965</v>
+        <v>8.32817331469202</v>
       </c>
       <c r="L25">
-        <v>15.4868219030237</v>
+        <v>16.0803608493212</v>
       </c>
       <c r="M25">
-        <v>38.5555515110632</v>
+        <v>38.8997490083816</v>
       </c>
       <c r="N25">
-        <v>37.849507074786</v>
+        <v>37.3692968861624</v>
       </c>
       <c r="O25">
-        <v>950.735457252576</v>
+        <v>909.9272994168811</v>
       </c>
       <c r="P25">
-        <v>42.2629711546479</v>
+        <v>39.3306843290589</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1182.68701091418</v>
+        <v>1167.3847511506</v>
       </c>
       <c r="C26">
-        <v>61.1664979511112</v>
+        <v>66.15186088934951</v>
       </c>
       <c r="D26">
-        <v>10.9996011723317</v>
+        <v>10.2982009298429</v>
       </c>
       <c r="E26">
-        <v>46.955308356059</v>
+        <v>47.7142484821076</v>
       </c>
       <c r="F26">
-        <v>9.47833906929516</v>
+        <v>9.345732848128479</v>
       </c>
       <c r="G26">
-        <v>33.3468309514201</v>
+        <v>36.3629257064043</v>
       </c>
       <c r="H26">
-        <v>16.758615420474</v>
+        <v>15.9130015153226</v>
       </c>
       <c r="I26">
-        <v>16.6453934661112</v>
+        <v>20.040894907993</v>
       </c>
       <c r="J26">
-        <v>48.8178105518472</v>
+        <v>48.2907388490857</v>
       </c>
       <c r="K26">
-        <v>20.4804848125146</v>
+        <v>18.4889773720453</v>
       </c>
       <c r="L26">
-        <v>28.3284475633328</v>
+        <v>26.7316442755119</v>
       </c>
       <c r="M26">
-        <v>79.5036670218237</v>
+        <v>88.002923533079</v>
       </c>
       <c r="N26">
-        <v>23.8175414441102</v>
+        <v>18.1731521008485</v>
       </c>
       <c r="O26">
-        <v>2233.42872737017</v>
+        <v>2272.96356081031</v>
       </c>
       <c r="P26">
-        <v>70.8416724075923</v>
+        <v>71.7911594134806</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>228.870187370469</v>
+        <v>198.200583587238</v>
       </c>
       <c r="C27">
-        <v>2.97394991878385</v>
+        <v>2.16701928733569</v>
       </c>
       <c r="D27">
-        <v>1.55356231002409</v>
+        <v>1.74166696383703</v>
       </c>
       <c r="E27">
-        <v>11.629318571233</v>
+        <v>10.3951342501993</v>
       </c>
       <c r="F27">
-        <v>6.1710502414913</v>
+        <v>5.23956970103705</v>
       </c>
       <c r="G27">
-        <v>0.87762351532432</v>
+        <v>0.996923264172772</v>
       </c>
       <c r="H27">
-        <v>0.360861658275805</v>
+        <v>0.301067839897967</v>
       </c>
       <c r="I27">
-        <v>2.66673729574836</v>
+        <v>2.43849225493182</v>
       </c>
       <c r="J27">
-        <v>2.94301717165654</v>
+        <v>2.95716315525913</v>
       </c>
       <c r="K27">
-        <v>1.8506025401385</v>
+        <v>1.63105421951118</v>
       </c>
       <c r="L27">
-        <v>2.11379347108324</v>
+        <v>1.46517884222539</v>
       </c>
       <c r="M27">
-        <v>0.7049688771409181</v>
+        <v>0.538382830923778</v>
       </c>
       <c r="N27">
-        <v>3.88869152170109</v>
+        <v>3.26794108116628</v>
       </c>
       <c r="O27">
-        <v>409.881438145308</v>
+        <v>362.098979608266</v>
       </c>
       <c r="P27">
-        <v>50.3048882594817</v>
+        <v>47.212956746358</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>294.716820501894</v>
+        <v>289.201692403412</v>
       </c>
       <c r="C28">
-        <v>36.6635736656775</v>
+        <v>34.240380495868</v>
       </c>
       <c r="D28">
-        <v>4.31201150729307</v>
+        <v>4.83259129627079</v>
       </c>
       <c r="E28">
-        <v>7.9317988597355</v>
+        <v>5.57134470270679</v>
       </c>
       <c r="F28">
-        <v>2.03706891244103</v>
+        <v>2.27273898832081</v>
       </c>
       <c r="G28">
-        <v>4.42093596425507</v>
+        <v>4.12493419819074</v>
       </c>
       <c r="H28">
-        <v>8.696872228033129</v>
+        <v>9.227741439744831</v>
       </c>
       <c r="I28">
-        <v>2.70234841284032</v>
+        <v>2.03582245447596</v>
       </c>
       <c r="J28">
-        <v>19.3871553302462</v>
+        <v>16.7779772187891</v>
       </c>
       <c r="K28">
-        <v>11.5486380912184</v>
+        <v>12.0332902712534</v>
       </c>
       <c r="L28">
-        <v>14.6740261782642</v>
+        <v>12.8304097842906</v>
       </c>
       <c r="M28">
-        <v>10.0521046278944</v>
+        <v>8.062407505342319</v>
       </c>
       <c r="N28">
-        <v>10.262230727384</v>
+        <v>10.4356615956621</v>
       </c>
       <c r="O28">
-        <v>737.970655168264</v>
+        <v>706.5717830718301</v>
       </c>
       <c r="P28">
-        <v>84.620037137079</v>
+        <v>75.7311555952854</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>469.919696764727</v>
+        <v>454.990771745039</v>
       </c>
       <c r="C29">
-        <v>4.08663609435642</v>
+        <v>3.72063032983365</v>
       </c>
       <c r="D29">
-        <v>3.04520470895979</v>
+        <v>3.42289990194773</v>
       </c>
       <c r="E29">
-        <v>5.06107421685614</v>
+        <v>4.26264600208806</v>
       </c>
       <c r="F29">
-        <v>23.4411712740761</v>
+        <v>25.4547858182024</v>
       </c>
       <c r="G29">
-        <v>4.04396544846302</v>
+        <v>3.1921091336663</v>
       </c>
       <c r="H29">
-        <v>2.45663778112446</v>
+        <v>3.31350117857995</v>
       </c>
       <c r="I29">
-        <v>2.08870811992499</v>
+        <v>2.09905802907326</v>
       </c>
       <c r="J29">
-        <v>5.38296628773114</v>
+        <v>5.57918532770907</v>
       </c>
       <c r="K29">
-        <v>2.00276745957509</v>
+        <v>1.44825555891735</v>
       </c>
       <c r="L29">
-        <v>3.7130284142723</v>
+        <v>2.97969211527648</v>
       </c>
       <c r="M29">
-        <v>3.1746008243331</v>
+        <v>2.50291860319706</v>
       </c>
       <c r="N29">
-        <v>12.1701204233793</v>
+        <v>11.3125291334468</v>
       </c>
       <c r="O29">
-        <v>1003.80732928057</v>
+        <v>967.164581451162</v>
       </c>
       <c r="P29">
-        <v>5.81514989445076</v>
+        <v>7.49964255058093</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>243.12394518502</v>
+        <v>231.028153328544</v>
       </c>
       <c r="C30">
-        <v>3.60167035506933</v>
+        <v>3.65043065108875</v>
       </c>
       <c r="D30">
-        <v>6.41475614059547</v>
+        <v>7.55136372968043</v>
       </c>
       <c r="E30">
-        <v>15.576719665522</v>
+        <v>13.8000361555442</v>
       </c>
       <c r="F30">
-        <v>0.717034921419127</v>
+        <v>1.16366282312333</v>
       </c>
       <c r="G30">
-        <v>4.45531667665757</v>
+        <v>4.38782572291599</v>
       </c>
       <c r="H30">
-        <v>5.53132697833637</v>
+        <v>5.1050773250056</v>
       </c>
       <c r="I30">
-        <v>2.60478136004242</v>
+        <v>2.05272032045128</v>
       </c>
       <c r="J30">
-        <v>16.6448643793916</v>
+        <v>14.4760192028033</v>
       </c>
       <c r="K30">
-        <v>8.80330257606435</v>
+        <v>8.36532269015772</v>
       </c>
       <c r="L30">
-        <v>41.9372063035004</v>
+        <v>38.0073621434143</v>
       </c>
       <c r="M30">
-        <v>10.4055298046382</v>
+        <v>10.4733257559567</v>
       </c>
       <c r="N30">
-        <v>13.4029533021119</v>
+        <v>12.0135253181425</v>
       </c>
       <c r="O30">
-        <v>556.73166342318</v>
+        <v>502.615133790668</v>
       </c>
       <c r="P30">
-        <v>9.21792852374746</v>
+        <v>10.6356124561998</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1802.11332634136</v>
+        <v>1811.41747848514</v>
       </c>
       <c r="C31">
-        <v>55.041854810422</v>
+        <v>58.2455749509465</v>
       </c>
       <c r="D31">
-        <v>29.6006632816985</v>
+        <v>24.5062087141271</v>
       </c>
       <c r="E31">
-        <v>47.894126116855</v>
+        <v>49.313799447949</v>
       </c>
       <c r="F31">
-        <v>7.30971901685126</v>
+        <v>12.5679427025709</v>
       </c>
       <c r="G31">
-        <v>106.265282138399</v>
+        <v>113.825444124764</v>
       </c>
       <c r="H31">
-        <v>11.2953882078297</v>
+        <v>11.8218819844239</v>
       </c>
       <c r="I31">
-        <v>25.6109184581028</v>
+        <v>33.9429130339026</v>
       </c>
       <c r="J31">
-        <v>41.5877924666965</v>
+        <v>41.634808279925</v>
       </c>
       <c r="K31">
-        <v>16.2855172926081</v>
+        <v>11.6966862005489</v>
       </c>
       <c r="L31">
-        <v>71.3947237568017</v>
+        <v>78.61052256493841</v>
       </c>
       <c r="M31">
-        <v>17.8320719780094</v>
+        <v>17.3515810261792</v>
       </c>
       <c r="N31">
-        <v>54.0748505328759</v>
+        <v>55.2344377676764</v>
       </c>
       <c r="O31">
-        <v>3574.08802543341</v>
+        <v>3584.44218174559</v>
       </c>
       <c r="P31">
-        <v>11.0570372897505</v>
+        <v>7.04566471641822</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>474.354707589102</v>
+        <v>468.481190492627</v>
       </c>
       <c r="C32">
-        <v>5.29041333015612</v>
+        <v>4.89252545483548</v>
       </c>
       <c r="D32">
-        <v>0.587455843916622</v>
+        <v>0.463264315530575</v>
       </c>
       <c r="E32">
-        <v>3.31283910683181</v>
+        <v>3.01363010961258</v>
       </c>
       <c r="F32">
-        <v>24.3041613516768</v>
+        <v>22.6924364641827</v>
       </c>
       <c r="G32">
-        <v>2.72358541644861</v>
+        <v>2.97314898407574</v>
       </c>
       <c r="H32">
-        <v>1.84036092339361</v>
+        <v>2.13269333527649</v>
       </c>
       <c r="I32">
-        <v>3.28595339836745</v>
+        <v>3.69780558748885</v>
       </c>
       <c r="J32">
-        <v>5.06062684018984</v>
+        <v>4.8236030050238</v>
       </c>
       <c r="K32">
-        <v>2.02506723696776</v>
+        <v>1.18502538860068</v>
       </c>
       <c r="L32">
-        <v>15.8432347821854</v>
+        <v>15.1793904368384</v>
       </c>
       <c r="M32">
-        <v>2.8333463663936</v>
+        <v>2.45368254339394</v>
       </c>
       <c r="N32">
-        <v>9.477305772638371</v>
+        <v>8.771957191947321</v>
       </c>
       <c r="O32">
-        <v>747.0177163382519</v>
+        <v>713.847127493587</v>
       </c>
       <c r="P32">
-        <v>20.7183931030031</v>
+        <v>19.5436569669253</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4697.40425097018</v>
+        <v>4694.98550155298</v>
       </c>
       <c r="C33">
-        <v>85.8098421467663</v>
+        <v>85.5829414029911</v>
       </c>
       <c r="D33">
-        <v>66.6843864201455</v>
+        <v>62.4961765388321</v>
       </c>
       <c r="E33">
-        <v>79.563265283658</v>
+        <v>93.9503906806179</v>
       </c>
       <c r="F33">
-        <v>8.471716093840451</v>
+        <v>8.967173127295229</v>
       </c>
       <c r="G33">
-        <v>73.62520025312929</v>
+        <v>80.36746128690641</v>
       </c>
       <c r="H33">
-        <v>36.140158615851</v>
+        <v>37.2060772013669</v>
       </c>
       <c r="I33">
-        <v>28.0831314367097</v>
+        <v>28.9230916446369</v>
       </c>
       <c r="J33">
-        <v>100.617194822102</v>
+        <v>104.227261238456</v>
       </c>
       <c r="K33">
-        <v>81.999425367325</v>
+        <v>81.9438658798489</v>
       </c>
       <c r="L33">
-        <v>119.157057956264</v>
+        <v>122.062647418206</v>
       </c>
       <c r="M33">
-        <v>64.05801454537961</v>
+        <v>64.87137041604591</v>
       </c>
       <c r="N33">
-        <v>149.598024889061</v>
+        <v>151.681175184485</v>
       </c>
       <c r="O33">
-        <v>7379.18332935656</v>
+        <v>7447.75230219972</v>
       </c>
       <c r="P33">
-        <v>62.9338731569425</v>
+        <v>61.3957717043398</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1938.69901284585</v>
+        <v>1957.8184536216</v>
       </c>
       <c r="C34">
-        <v>70.8584296064673</v>
+        <v>74.6513152907591</v>
       </c>
       <c r="D34">
-        <v>149.954217799717</v>
+        <v>152.146830313311</v>
       </c>
       <c r="E34">
-        <v>48.6958717457071</v>
+        <v>41.910683272817</v>
       </c>
       <c r="F34">
-        <v>5.22583961862807</v>
+        <v>3.85078317453662</v>
       </c>
       <c r="G34">
-        <v>44.701050228844</v>
+        <v>51.5832092441824</v>
       </c>
       <c r="H34">
-        <v>44.0980513984287</v>
+        <v>47.2957647479137</v>
       </c>
       <c r="I34">
-        <v>16.1541269887404</v>
+        <v>21.8726840730345</v>
       </c>
       <c r="J34">
-        <v>51.4735767235938</v>
+        <v>50.2076231278466</v>
       </c>
       <c r="K34">
-        <v>33.7462720144677</v>
+        <v>32.0850698636605</v>
       </c>
       <c r="L34">
-        <v>105.05574610737</v>
+        <v>102.599409374699</v>
       </c>
       <c r="M34">
-        <v>32.7787841483246</v>
+        <v>30.7105983784008</v>
       </c>
       <c r="N34">
-        <v>125.359865717255</v>
+        <v>125.27546006609</v>
       </c>
       <c r="O34">
-        <v>2962.29316395478</v>
+        <v>2981.2641184596</v>
       </c>
       <c r="P34">
-        <v>70.7648157794217</v>
+        <v>77.5911165586583</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>128.841060180336</v>
+        <v>112.75560793019</v>
       </c>
       <c r="C35">
-        <v>7.94628622468564</v>
+        <v>7.55042034591432</v>
       </c>
       <c r="D35">
-        <v>0.439558929040657</v>
+        <v>0.509017001915447</v>
       </c>
       <c r="E35">
-        <v>2.75915535963088</v>
+        <v>2.33177997358947</v>
       </c>
       <c r="F35">
-        <v>4.68478604341047</v>
+        <v>3.7924440552208</v>
       </c>
       <c r="G35">
-        <v>1.25918357922322</v>
+        <v>1.21560662635794</v>
       </c>
       <c r="H35">
-        <v>0.219740512628157</v>
+        <v>0.129184010630783</v>
       </c>
       <c r="I35">
-        <v>1.20485402418917</v>
+        <v>1.31907102163965</v>
       </c>
       <c r="J35">
-        <v>3.36053183075024</v>
+        <v>2.79730201088592</v>
       </c>
       <c r="K35">
-        <v>6.10456292517405</v>
+        <v>4.9102638244555</v>
       </c>
       <c r="L35">
-        <v>2.75252027003034</v>
+        <v>2.23330485224154</v>
       </c>
       <c r="M35">
-        <v>1.99363582942008</v>
+        <v>1.65801043229287</v>
       </c>
       <c r="N35">
-        <v>3.8334089510308</v>
+        <v>3.00227964119422</v>
       </c>
       <c r="O35">
-        <v>291.715269914759</v>
+        <v>258.152835055552</v>
       </c>
       <c r="P35">
-        <v>48.2504577311</v>
+        <v>43.328289396829</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2628.83938575297</v>
+        <v>2622.35388992489</v>
       </c>
       <c r="C36">
-        <v>55.3225454798649</v>
+        <v>47.739704030897</v>
       </c>
       <c r="D36">
-        <v>13.0852416710807</v>
+        <v>17.5852002112202</v>
       </c>
       <c r="E36">
-        <v>115.559922273314</v>
+        <v>117.864970588007</v>
       </c>
       <c r="F36">
-        <v>29.8399194413706</v>
+        <v>40.2399725616019</v>
       </c>
       <c r="G36">
-        <v>90.5803901308072</v>
+        <v>99.2255192020035</v>
       </c>
       <c r="H36">
-        <v>85.7046540967997</v>
+        <v>96.76121357976881</v>
       </c>
       <c r="I36">
-        <v>39.3723374668153</v>
+        <v>41.3757296964218</v>
       </c>
       <c r="J36">
-        <v>195.931688416538</v>
+        <v>202.543987888203</v>
       </c>
       <c r="K36">
-        <v>88.2677924898333</v>
+        <v>71.2072115522692</v>
       </c>
       <c r="L36">
-        <v>73.4839002935414</v>
+        <v>75.01190471121061</v>
       </c>
       <c r="M36">
-        <v>216.864686233675</v>
+        <v>216.820169863488</v>
       </c>
       <c r="N36">
-        <v>105.730890020108</v>
+        <v>96.7967245654666</v>
       </c>
       <c r="O36">
-        <v>4169.36011746013</v>
+        <v>4194.1467397219</v>
       </c>
       <c r="P36">
-        <v>42.9749643692232</v>
+        <v>56.2004460914316</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>828.525791880825</v>
+        <v>829.944381908475</v>
       </c>
       <c r="C37">
-        <v>22.105353069482</v>
+        <v>19.2625631006246</v>
       </c>
       <c r="D37">
-        <v>4.01517345901036</v>
+        <v>3.40784006446712</v>
       </c>
       <c r="E37">
-        <v>19.4054239139865</v>
+        <v>21.3835265212236</v>
       </c>
       <c r="F37">
-        <v>32.8695936059693</v>
+        <v>29.0114441382448</v>
       </c>
       <c r="G37">
-        <v>8.912549635332329</v>
+        <v>8.531641405276449</v>
       </c>
       <c r="H37">
-        <v>23.689770228031</v>
+        <v>26.2244777225389</v>
       </c>
       <c r="I37">
-        <v>12.0427566119014</v>
+        <v>12.1675568306676</v>
       </c>
       <c r="J37">
-        <v>36.55542228177</v>
+        <v>41.1907761724148</v>
       </c>
       <c r="K37">
-        <v>27.9007405595598</v>
+        <v>30.6741165291361</v>
       </c>
       <c r="L37">
-        <v>20.8542128606362</v>
+        <v>22.7355692051625</v>
       </c>
       <c r="M37">
-        <v>41.0160044575372</v>
+        <v>41.3626899661494</v>
       </c>
       <c r="N37">
-        <v>18.4132734103891</v>
+        <v>20.5588633305693</v>
       </c>
       <c r="O37">
-        <v>1237.53830752028</v>
+        <v>1252.18415698385</v>
       </c>
       <c r="P37">
-        <v>55.6707083421928</v>
+        <v>60.2596066613994</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>823.97172482355</v>
+        <v>858.700760425446</v>
       </c>
       <c r="C38">
-        <v>23.4647205041735</v>
+        <v>24.6259119346616</v>
       </c>
       <c r="D38">
-        <v>8.5700680766308</v>
+        <v>12.0251448573313</v>
       </c>
       <c r="E38">
-        <v>50.4056076661122</v>
+        <v>53.8223928421419</v>
       </c>
       <c r="F38">
-        <v>2.18328952216993</v>
+        <v>1.63538006482416</v>
       </c>
       <c r="G38">
-        <v>7.91234341088203</v>
+        <v>7.87852203375873</v>
       </c>
       <c r="H38">
-        <v>3.46656549159215</v>
+        <v>4.20823079083207</v>
       </c>
       <c r="I38">
-        <v>2.66828472733267</v>
+        <v>2.86521485035113</v>
       </c>
       <c r="J38">
-        <v>40.1632169297436</v>
+        <v>45.7931674908901</v>
       </c>
       <c r="K38">
-        <v>5.31521269602078</v>
+        <v>5.3332314949633</v>
       </c>
       <c r="L38">
-        <v>62.4846398022279</v>
+        <v>58.1948834858648</v>
       </c>
       <c r="M38">
-        <v>18.4803954300816</v>
+        <v>17.3490492876976</v>
       </c>
       <c r="N38">
-        <v>33.6775661650658</v>
+        <v>32.3647068976084</v>
       </c>
       <c r="O38">
-        <v>1340.78957775981</v>
+        <v>1337.04338373423</v>
       </c>
       <c r="P38">
-        <v>65.8663341116539</v>
+        <v>73.0241446372106</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2952.82330236986</v>
+        <v>2999.10961326214</v>
       </c>
       <c r="C39">
-        <v>91.54070562877099</v>
+        <v>92.2535687455733</v>
       </c>
       <c r="D39">
-        <v>47.3933792015588</v>
+        <v>38.9441610101301</v>
       </c>
       <c r="E39">
-        <v>130.722760073009</v>
+        <v>133.365865551505</v>
       </c>
       <c r="F39">
-        <v>23.7674090082648</v>
+        <v>29.9820129814863</v>
       </c>
       <c r="G39">
-        <v>118.833699393399</v>
+        <v>121.931235662528</v>
       </c>
       <c r="H39">
-        <v>54.4612852190787</v>
+        <v>58.109169804859</v>
       </c>
       <c r="I39">
-        <v>36.9437596055749</v>
+        <v>43.1568426104881</v>
       </c>
       <c r="J39">
-        <v>165.239634115759</v>
+        <v>159.820633937661</v>
       </c>
       <c r="K39">
-        <v>90.602514578358</v>
+        <v>92.60267067498749</v>
       </c>
       <c r="L39">
-        <v>102.189278269161</v>
+        <v>98.1721955817923</v>
       </c>
       <c r="M39">
-        <v>66.5823143016752</v>
+        <v>69.5428202762259</v>
       </c>
       <c r="N39">
-        <v>114.241309938321</v>
+        <v>112.261810722802</v>
       </c>
       <c r="O39">
-        <v>4637.48577005069</v>
+        <v>4642.25437461516</v>
       </c>
       <c r="P39">
-        <v>59.1527394398866</v>
+        <v>53.1138438350389</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>251.60690495394</v>
+        <v>227.968617032642</v>
       </c>
       <c r="C40">
-        <v>4.13327472818554</v>
+        <v>4.04030028499007</v>
       </c>
       <c r="D40">
-        <v>7.95011412350271</v>
+        <v>7.45302475192756</v>
       </c>
       <c r="E40">
-        <v>5.1503903635916</v>
+        <v>4.54880428330277</v>
       </c>
       <c r="F40">
-        <v>0.436763192750012</v>
+        <v>0.372292322528407</v>
       </c>
       <c r="G40">
-        <v>4.76923243360051</v>
+        <v>5.01847981163991</v>
       </c>
       <c r="H40">
-        <v>4.34046522418828</v>
+        <v>3.53233556545231</v>
       </c>
       <c r="I40">
-        <v>1.60092600006344</v>
+        <v>1.12227639145129</v>
       </c>
       <c r="J40">
-        <v>10.3704233948996</v>
+        <v>7.98367100027589</v>
       </c>
       <c r="K40">
-        <v>3.49575143944606</v>
+        <v>3.29873836918249</v>
       </c>
       <c r="L40">
-        <v>14.9072138170009</v>
+        <v>15.3992065576973</v>
       </c>
       <c r="M40">
-        <v>5.37760029739937</v>
+        <v>4.90004349832853</v>
       </c>
       <c r="N40">
-        <v>22.7309685562521</v>
+        <v>20.5397776748367</v>
       </c>
       <c r="O40">
-        <v>475.754208148643</v>
+        <v>430.124429713513</v>
       </c>
       <c r="P40">
-        <v>3.03341518284025</v>
+        <v>2.25197382515185</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1021.14960321385</v>
+        <v>1024.20084090684</v>
       </c>
       <c r="C41">
-        <v>13.5511991007649</v>
+        <v>12.5549763349616</v>
       </c>
       <c r="D41">
-        <v>78.1443670959363</v>
+        <v>68.9857317662224</v>
       </c>
       <c r="E41">
-        <v>31.379959363815</v>
+        <v>31.2527975853746</v>
       </c>
       <c r="F41">
-        <v>0.948470787802946</v>
+        <v>1.80098203774296</v>
       </c>
       <c r="G41">
-        <v>27.3129706140614</v>
+        <v>23.0824835065438</v>
       </c>
       <c r="H41">
-        <v>34.7235280215369</v>
+        <v>34.7909674256338</v>
       </c>
       <c r="I41">
-        <v>15.6990308836435</v>
+        <v>25.0580520170405</v>
       </c>
       <c r="J41">
-        <v>41.7486024023209</v>
+        <v>43.2232864216933</v>
       </c>
       <c r="K41">
-        <v>13.9645853550122</v>
+        <v>13.8402074258456</v>
       </c>
       <c r="L41">
-        <v>29.9270623079459</v>
+        <v>28.9578965857454</v>
       </c>
       <c r="M41">
-        <v>25.8244559379919</v>
+        <v>23.1061010643166</v>
       </c>
       <c r="N41">
-        <v>19.0355072650923</v>
+        <v>20.8192804575006</v>
       </c>
       <c r="O41">
-        <v>1464.78885356058</v>
+        <v>1464.63273966511</v>
       </c>
       <c r="P41">
-        <v>33.389436778599</v>
+        <v>43.4538728761635</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>141.153929098159</v>
+        <v>111.255970553861</v>
       </c>
       <c r="C42">
-        <v>7.03607945272404</v>
+        <v>5.2282275407085</v>
       </c>
       <c r="D42">
-        <v>1.55836942281864</v>
+        <v>1.7591511497568</v>
       </c>
       <c r="E42">
-        <v>7.09693532521488</v>
+        <v>5.32444117085484</v>
       </c>
       <c r="F42">
-        <v>2.53985970787462</v>
+        <v>2.38360224305354</v>
       </c>
       <c r="G42">
-        <v>1.59110858705009</v>
+        <v>1.45450270926551</v>
       </c>
       <c r="H42">
-        <v>0.727828625092345</v>
+        <v>0.509783168977369</v>
       </c>
       <c r="I42">
-        <v>1.10781199612476</v>
+        <v>0.579778976625593</v>
       </c>
       <c r="J42">
-        <v>4.32979271987027</v>
+        <v>3.19897447271742</v>
       </c>
       <c r="K42">
-        <v>5.32502777073272</v>
+        <v>3.69569758443429</v>
       </c>
       <c r="L42">
-        <v>8.45562931648764</v>
+        <v>7.05733218523369</v>
       </c>
       <c r="M42">
-        <v>4.63032211933029</v>
+        <v>3.27072256487142</v>
       </c>
       <c r="N42">
-        <v>9.843460558144191</v>
+        <v>7.65332997343639</v>
       </c>
       <c r="O42">
-        <v>367.38626536346</v>
+        <v>299.856761272126</v>
       </c>
       <c r="P42">
-        <v>55.8974599791919</v>
+        <v>46.6841925140575</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1490.39779520172</v>
+        <v>1485.09742823164</v>
       </c>
       <c r="C43">
-        <v>40.5184894517765</v>
+        <v>45.9797893829329</v>
       </c>
       <c r="D43">
-        <v>37.2690331572008</v>
+        <v>33.8572516227861</v>
       </c>
       <c r="E43">
-        <v>71.4139253120175</v>
+        <v>88.8757323463995</v>
       </c>
       <c r="F43">
-        <v>6.05184823584128</v>
+        <v>6.26981225982505</v>
       </c>
       <c r="G43">
-        <v>24.3674008199586</v>
+        <v>22.014697111719</v>
       </c>
       <c r="H43">
-        <v>35.7319690755138</v>
+        <v>41.96399748807</v>
       </c>
       <c r="I43">
-        <v>25.419206041036</v>
+        <v>27.1959269429903</v>
       </c>
       <c r="J43">
-        <v>49.6658459063675</v>
+        <v>51.1034703381923</v>
       </c>
       <c r="K43">
-        <v>38.533285386272</v>
+        <v>34.1726419675263</v>
       </c>
       <c r="L43">
-        <v>45.9130753554871</v>
+        <v>47.3117645408299</v>
       </c>
       <c r="M43">
-        <v>109.746562874833</v>
+        <v>124.986600741791</v>
       </c>
       <c r="N43">
-        <v>62.2519628174654</v>
+        <v>55.2035410804947</v>
       </c>
       <c r="O43">
-        <v>2016.08356673112</v>
+        <v>2038.38346833843</v>
       </c>
       <c r="P43">
-        <v>40.596888625977</v>
+        <v>37.3738743731887</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4641.98118641184</v>
+        <v>4741.29477240692</v>
       </c>
       <c r="C44">
-        <v>141.755086915659</v>
+        <v>155.230201089036</v>
       </c>
       <c r="D44">
-        <v>37.5279513763999</v>
+        <v>30.8955338864772</v>
       </c>
       <c r="E44">
-        <v>97.428526714059</v>
+        <v>100.80013107608</v>
       </c>
       <c r="F44">
-        <v>236.249652717448</v>
+        <v>228.413604963874</v>
       </c>
       <c r="G44">
-        <v>122.733532238962</v>
+        <v>112.015130245413</v>
       </c>
       <c r="H44">
-        <v>40.8377682494227</v>
+        <v>43.8447571622767</v>
       </c>
       <c r="I44">
-        <v>41.4668679116541</v>
+        <v>39.7166519975796</v>
       </c>
       <c r="J44">
-        <v>112.107787083666</v>
+        <v>99.4675385725305</v>
       </c>
       <c r="K44">
-        <v>59.3292452966611</v>
+        <v>56.848889244506</v>
       </c>
       <c r="L44">
-        <v>175.27648705091</v>
+        <v>162.993745177784</v>
       </c>
       <c r="M44">
-        <v>90.6362886172397</v>
+        <v>88.4574048929405</v>
       </c>
       <c r="N44">
-        <v>92.0680987063347</v>
+        <v>102.869992776634</v>
       </c>
       <c r="O44">
-        <v>7902.34153425233</v>
+        <v>8093.82889004012</v>
       </c>
       <c r="P44">
-        <v>220.133541821028</v>
+        <v>229.213518496784</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>445.527138027615</v>
+        <v>436.566901832521</v>
       </c>
       <c r="C45">
-        <v>17.8153598857647</v>
+        <v>19.963761428865</v>
       </c>
       <c r="D45">
-        <v>2.76059689616853</v>
+        <v>2.76703770690336</v>
       </c>
       <c r="E45">
-        <v>20.6753034353445</v>
+        <v>21.8826709952349</v>
       </c>
       <c r="F45">
-        <v>23.3732573956793</v>
+        <v>22.68711035833</v>
       </c>
       <c r="G45">
-        <v>7.5174269191032</v>
+        <v>5.23478559506389</v>
       </c>
       <c r="H45">
-        <v>2.91954661509443</v>
+        <v>5.00922749284172</v>
       </c>
       <c r="I45">
-        <v>3.97613903628336</v>
+        <v>4.19361546758556</v>
       </c>
       <c r="J45">
-        <v>22.2912254681197</v>
+        <v>19.0589092633486</v>
       </c>
       <c r="K45">
-        <v>4.86186243803054</v>
+        <v>4.77291404551409</v>
       </c>
       <c r="L45">
-        <v>15.3885612962195</v>
+        <v>13.0911597799383</v>
       </c>
       <c r="M45">
-        <v>15.7033678039929</v>
+        <v>17.2416017212544</v>
       </c>
       <c r="N45">
-        <v>28.6281772537358</v>
+        <v>24.047862065972</v>
       </c>
       <c r="O45">
-        <v>853.526253875775</v>
+        <v>819.206505150475</v>
       </c>
       <c r="P45">
-        <v>21.5981032978581</v>
+        <v>18.986203040479</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>129.681058579299</v>
+        <v>110.971629263191</v>
       </c>
       <c r="C46">
-        <v>4.85736762947043</v>
+        <v>3.56406322048033</v>
       </c>
       <c r="D46">
-        <v>1.19370140724157</v>
+        <v>0.7830302492640821</v>
       </c>
       <c r="E46">
-        <v>5.9876838561384</v>
+        <v>4.64329555770761</v>
       </c>
       <c r="F46">
-        <v>0.992855378714898</v>
+        <v>0.717050277042784</v>
       </c>
       <c r="G46">
-        <v>3.13480660540044</v>
+        <v>3.09515843142521</v>
       </c>
       <c r="H46">
-        <v>1.44477423626967</v>
+        <v>1.14146814797725</v>
       </c>
       <c r="I46">
-        <v>1.80926449959201</v>
+        <v>1.36200145607088</v>
       </c>
       <c r="J46">
-        <v>5.02360438141401</v>
+        <v>4.09174242868262</v>
       </c>
       <c r="K46">
-        <v>3.25018594610247</v>
+        <v>2.04553258264109</v>
       </c>
       <c r="L46">
-        <v>13.2810857699549</v>
+        <v>10.2889904937135</v>
       </c>
       <c r="M46">
-        <v>3.75876032005537</v>
+        <v>2.76552784226734</v>
       </c>
       <c r="N46">
-        <v>10.81405482717</v>
+        <v>8.692499446065719</v>
       </c>
       <c r="O46">
-        <v>314.607652610329</v>
+        <v>258.816220974314</v>
       </c>
       <c r="P46">
-        <v>11.5783156580237</v>
+        <v>10.3609604750849</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1584.46870964274</v>
+        <v>1620.49315775067</v>
       </c>
       <c r="C47">
-        <v>50.6622529668051</v>
+        <v>50.9464527025783</v>
       </c>
       <c r="D47">
-        <v>28.6178050217166</v>
+        <v>31.4103947601796</v>
       </c>
       <c r="E47">
-        <v>53.1183975393752</v>
+        <v>62.6901674003668</v>
       </c>
       <c r="F47">
-        <v>10.9266574996928</v>
+        <v>12.5004250905512</v>
       </c>
       <c r="G47">
-        <v>24.8685893067555</v>
+        <v>20.6257699767693</v>
       </c>
       <c r="H47">
-        <v>12.7612233260968</v>
+        <v>10.8692956161179</v>
       </c>
       <c r="I47">
-        <v>5.1288373208687</v>
+        <v>3.63388780012877</v>
       </c>
       <c r="J47">
-        <v>38.3285791822204</v>
+        <v>45.5189162940652</v>
       </c>
       <c r="K47">
-        <v>11.4464630769477</v>
+        <v>13.5705358839098</v>
       </c>
       <c r="L47">
-        <v>33.6173551054445</v>
+        <v>31.4459296110365</v>
       </c>
       <c r="M47">
-        <v>68.3867075432911</v>
+        <v>75.5340112420372</v>
       </c>
       <c r="N47">
-        <v>38.0987800207436</v>
+        <v>42.7632322609951</v>
       </c>
       <c r="O47">
-        <v>2889.20345469058</v>
+        <v>2889.16406318949</v>
       </c>
       <c r="P47">
-        <v>36.7956464648226</v>
+        <v>37.333388230266</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1366.18774621917</v>
+        <v>1367.89650976357</v>
       </c>
       <c r="C48">
-        <v>27.9159866833685</v>
+        <v>26.013128847086</v>
       </c>
       <c r="D48">
-        <v>5.41495136594051</v>
+        <v>5.42071131499853</v>
       </c>
       <c r="E48">
-        <v>72.0490934911667</v>
+        <v>71.3993851381051</v>
       </c>
       <c r="F48">
-        <v>7.35983896320237</v>
+        <v>5.43487261466845</v>
       </c>
       <c r="G48">
-        <v>5.62499142550637</v>
+        <v>3.35573091464607</v>
       </c>
       <c r="H48">
-        <v>3.62140899600506</v>
+        <v>3.25885108502916</v>
       </c>
       <c r="I48">
-        <v>9.01665603329969</v>
+        <v>10.3387822435598</v>
       </c>
       <c r="J48">
-        <v>35.729748794343</v>
+        <v>38.7873644186256</v>
       </c>
       <c r="K48">
-        <v>11.1449808139592</v>
+        <v>11.1629651881531</v>
       </c>
       <c r="L48">
-        <v>47.964785585514</v>
+        <v>48.2399921390507</v>
       </c>
       <c r="M48">
-        <v>124.126434435359</v>
+        <v>116.331405722101</v>
       </c>
       <c r="N48">
-        <v>30.5206666505996</v>
+        <v>37.2484108722861</v>
       </c>
       <c r="O48">
-        <v>2313.90796319011</v>
+        <v>2339.98037534247</v>
       </c>
       <c r="P48">
-        <v>89.33720295038501</v>
+        <v>110.727449531324</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>685.5038358995161</v>
+        <v>629.311743346211</v>
       </c>
       <c r="C49">
-        <v>5.84931956384428</v>
+        <v>6.28376269719104</v>
       </c>
       <c r="D49">
-        <v>2.85196054453213</v>
+        <v>3.86585077336005</v>
       </c>
       <c r="E49">
-        <v>23.6456391185777</v>
+        <v>21.3100971662606</v>
       </c>
       <c r="F49">
-        <v>27.9985101960839</v>
+        <v>26.5565496290839</v>
       </c>
       <c r="G49">
-        <v>15.0625109036109</v>
+        <v>12.8836714923684</v>
       </c>
       <c r="H49">
-        <v>7.17459793572791</v>
+        <v>8.034386061883881</v>
       </c>
       <c r="I49">
-        <v>5.02929910668959</v>
+        <v>4.4807171731246</v>
       </c>
       <c r="J49">
-        <v>21.7312095275261</v>
+        <v>18.9333094387412</v>
       </c>
       <c r="K49">
-        <v>2.83170376638686</v>
+        <v>3.1115072719854</v>
       </c>
       <c r="L49">
-        <v>1.61462773699359</v>
+        <v>0.729148927622618</v>
       </c>
       <c r="M49">
-        <v>6.20400846794503</v>
+        <v>6.47510241534346</v>
       </c>
       <c r="N49">
-        <v>4.50541915892978</v>
+        <v>3.72280884772971</v>
       </c>
       <c r="O49">
-        <v>626.978672552881</v>
+        <v>586.419316995424</v>
       </c>
       <c r="P49">
-        <v>7.53051243135266</v>
+        <v>6.95547206778844</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>995.912364355377</v>
+        <v>981.916186832351</v>
       </c>
       <c r="C50">
-        <v>77.8932786725558</v>
+        <v>75.0815004700537</v>
       </c>
       <c r="D50">
-        <v>15.9946570910902</v>
+        <v>14.0094438868544</v>
       </c>
       <c r="E50">
-        <v>145.823155782286</v>
+        <v>157.26377297673</v>
       </c>
       <c r="F50">
-        <v>3.97024377430069</v>
+        <v>4.57654602862575</v>
       </c>
       <c r="G50">
-        <v>31.1914669120175</v>
+        <v>28.9585045628745</v>
       </c>
       <c r="H50">
-        <v>35.7675949625043</v>
+        <v>40.7626303504615</v>
       </c>
       <c r="I50">
-        <v>15.2809089756562</v>
+        <v>17.6979610662347</v>
       </c>
       <c r="J50">
-        <v>105.709183265311</v>
+        <v>109.358300594324</v>
       </c>
       <c r="K50">
-        <v>67.3160338096117</v>
+        <v>71.75933359771069</v>
       </c>
       <c r="L50">
-        <v>56.070530861554</v>
+        <v>49.3274159380346</v>
       </c>
       <c r="M50">
-        <v>39.9987040917246</v>
+        <v>33.6565393489894</v>
       </c>
       <c r="N50">
-        <v>54.3649714635047</v>
+        <v>55.5302018946147</v>
       </c>
       <c r="O50">
-        <v>2063.5079794991</v>
+        <v>2114.34535937658</v>
       </c>
       <c r="P50">
-        <v>89.7115892780254</v>
+        <v>82.82428107451361</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>130.351033608473</v>
+        <v>97.5245794518724</v>
       </c>
       <c r="C51">
-        <v>3.68799229921578</v>
+        <v>2.83050481360989</v>
       </c>
       <c r="D51">
-        <v>0.025219230352665</v>
+        <v>0.0860619619881005</v>
       </c>
       <c r="E51">
-        <v>2.38703978901473</v>
+        <v>1.37378917138365</v>
       </c>
       <c r="F51">
-        <v>31.4263495617956</v>
+        <v>24.8157829451826</v>
       </c>
       <c r="G51">
-        <v>2.20945817796365</v>
+        <v>1.63536931791549</v>
       </c>
       <c r="H51">
-        <v>0.00741497063416445</v>
+        <v>0.0025613013604418</v>
       </c>
       <c r="I51">
-        <v>1.28907335418315</v>
+        <v>0.772530359265315</v>
       </c>
       <c r="J51">
-        <v>1.06795681869823</v>
+        <v>0.694065069279464</v>
       </c>
       <c r="K51">
-        <v>0.936944679899082</v>
+        <v>0.525324362615337</v>
       </c>
       <c r="L51">
-        <v>0.444567210625832</v>
+        <v>0.0908837482775411</v>
       </c>
       <c r="M51">
-        <v>0.548928167452895</v>
+        <v>0.205174343886209</v>
       </c>
       <c r="N51">
-        <v>1.39415991259629</v>
+        <v>0.928398421135764</v>
       </c>
       <c r="O51">
-        <v>274.051604366699</v>
+        <v>200.468519068548</v>
       </c>
       <c r="P51">
-        <v>26.0495645352615</v>
+        <v>19.1209819337883</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1332.10612285793</v>
+        <v>1450.68021834987</v>
       </c>
       <c r="C2">
-        <v>24.2457438887025</v>
+        <v>25.641552090656</v>
       </c>
       <c r="D2">
-        <v>42.2264320964959</v>
+        <v>37.8221196677712</v>
       </c>
       <c r="E2">
-        <v>61.4562041411068</v>
+        <v>47.4155664523813</v>
       </c>
       <c r="F2">
-        <v>22.58333287807</v>
+        <v>21.5559831812126</v>
       </c>
       <c r="G2">
-        <v>11.7642068694778</v>
+        <v>6.70427288609697</v>
       </c>
       <c r="H2">
-        <v>21.1450655530444</v>
+        <v>18.7681538582158</v>
       </c>
       <c r="I2">
-        <v>16.9058445208996</v>
+        <v>13.8545307888034</v>
       </c>
       <c r="J2">
-        <v>74.4695583751314</v>
+        <v>75.5110759793447</v>
       </c>
       <c r="K2">
-        <v>16.8985115258354</v>
+        <v>13.5368358309169</v>
       </c>
       <c r="L2">
-        <v>52.0732032086785</v>
+        <v>44.9450797424563</v>
       </c>
       <c r="M2">
-        <v>41.2129655320648</v>
+        <v>36.7513762107726</v>
       </c>
       <c r="N2">
-        <v>22.7378675587097</v>
+        <v>24.7058982423596</v>
       </c>
       <c r="O2">
-        <v>1400.68658928041</v>
+        <v>1313.61039772838</v>
       </c>
       <c r="P2">
-        <v>22.6379294534166</v>
+        <v>27.967945177549</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>106.833918534655</v>
+        <v>123.374605955377</v>
       </c>
       <c r="C3">
-        <v>3.35244752492898</v>
+        <v>3.7247839605088</v>
       </c>
       <c r="D3">
-        <v>0.224846209541132</v>
+        <v>0.285088816700532</v>
       </c>
       <c r="E3">
-        <v>1.05247365643938</v>
+        <v>2.82856645004199</v>
       </c>
       <c r="F3">
-        <v>6.9908885746052</v>
+        <v>6.83284043904588</v>
       </c>
       <c r="G3">
-        <v>0.123816931253048</v>
+        <v>0.181871504208749</v>
       </c>
       <c r="H3">
-        <v>0.102675161874069</v>
+        <v>0.190897856902935</v>
       </c>
       <c r="I3">
-        <v>0.504276538845862</v>
+        <v>0.8420261144583709</v>
       </c>
       <c r="J3">
-        <v>0.319349667821878</v>
+        <v>0.524640698755128</v>
       </c>
       <c r="K3">
-        <v>0.077725365561468</v>
+        <v>0.023566838723705</v>
       </c>
       <c r="L3">
-        <v>0.0629392847507612</v>
+        <v>0.0853162008595804</v>
       </c>
       <c r="M3">
-        <v>0.481526059817752</v>
+        <v>0.473070454770105</v>
       </c>
       <c r="N3">
-        <v>0.957900422555143</v>
+        <v>1.64940068486563</v>
       </c>
       <c r="O3">
-        <v>232.26617307408</v>
+        <v>222.597587853192</v>
       </c>
       <c r="P3">
-        <v>10.4616140996062</v>
+        <v>8.403820874762371</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1347.61613364115</v>
+        <v>1546.03070268678</v>
       </c>
       <c r="C4">
-        <v>8.522925180899589</v>
+        <v>8.14139871497628</v>
       </c>
       <c r="D4">
-        <v>2.08222179089496</v>
+        <v>1.58683387475231</v>
       </c>
       <c r="E4">
-        <v>24.4125435526844</v>
+        <v>28.3822350899425</v>
       </c>
       <c r="F4">
-        <v>9.149468526275481</v>
+        <v>4.85144679682137</v>
       </c>
       <c r="G4">
-        <v>7.04656975250117</v>
+        <v>5.29218575709602</v>
       </c>
       <c r="H4">
-        <v>15.4871452795986</v>
+        <v>13.9715800986642</v>
       </c>
       <c r="I4">
-        <v>12.0017297248316</v>
+        <v>13.4295263823755</v>
       </c>
       <c r="J4">
-        <v>19.4041272376292</v>
+        <v>12.0401389199757</v>
       </c>
       <c r="K4">
-        <v>4.49042785873396</v>
+        <v>2.59448993495612</v>
       </c>
       <c r="L4">
-        <v>66.8944034107579</v>
+        <v>52.2680607574168</v>
       </c>
       <c r="M4">
-        <v>42.9740610347146</v>
+        <v>40.6528288493732</v>
       </c>
       <c r="N4">
-        <v>31.1774719441761</v>
+        <v>21.0392760123668</v>
       </c>
       <c r="O4">
-        <v>2136.05184630448</v>
+        <v>1973.15617206626</v>
       </c>
       <c r="P4">
-        <v>17.6607116508971</v>
+        <v>24.1826203172129</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>712.0466886818421</v>
+        <v>847.3124500263</v>
       </c>
       <c r="C5">
-        <v>49.6023070087126</v>
+        <v>42.1830952574362</v>
       </c>
       <c r="D5">
-        <v>9.85714227678656</v>
+        <v>8.167602048971</v>
       </c>
       <c r="E5">
-        <v>34.8944178865401</v>
+        <v>36.5717543970338</v>
       </c>
       <c r="F5">
-        <v>7.56073447654961</v>
+        <v>6.4639029451256</v>
       </c>
       <c r="G5">
-        <v>4.50784988303149</v>
+        <v>2.31560979442009</v>
       </c>
       <c r="H5">
-        <v>11.3162809685841</v>
+        <v>10.9068952903022</v>
       </c>
       <c r="I5">
-        <v>8.536743133334561</v>
+        <v>10.8766143981147</v>
       </c>
       <c r="J5">
-        <v>31.0448704634353</v>
+        <v>28.8878631226372</v>
       </c>
       <c r="K5">
-        <v>10.0042074009348</v>
+        <v>5.96170460428112</v>
       </c>
       <c r="L5">
-        <v>21.4257493212305</v>
+        <v>17.3409234644767</v>
       </c>
       <c r="M5">
-        <v>26.4201038928124</v>
+        <v>22.3339963150101</v>
       </c>
       <c r="N5">
-        <v>21.099107446878</v>
+        <v>20.6465444125835</v>
       </c>
       <c r="O5">
-        <v>937.077480226277</v>
+        <v>826.164579428908</v>
       </c>
       <c r="P5">
-        <v>61.2747362241587</v>
+        <v>54.6654036626057</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8046.89142884652</v>
+        <v>9433.85138225548</v>
       </c>
       <c r="C6">
-        <v>208.17084783289</v>
+        <v>157.895307772868</v>
       </c>
       <c r="D6">
-        <v>107.705950021916</v>
+        <v>45.3367196136222</v>
       </c>
       <c r="E6">
-        <v>167.543296495194</v>
+        <v>181.522641531242</v>
       </c>
       <c r="F6">
-        <v>39.6516917891098</v>
+        <v>34.615988236749</v>
       </c>
       <c r="G6">
-        <v>128.932392313143</v>
+        <v>102.502814183828</v>
       </c>
       <c r="H6">
-        <v>70.6359023616065</v>
+        <v>48.9083979017028</v>
       </c>
       <c r="I6">
-        <v>40.2444586952108</v>
+        <v>37.364423014464</v>
       </c>
       <c r="J6">
-        <v>185.45207657223</v>
+        <v>188.051414223824</v>
       </c>
       <c r="K6">
-        <v>80.6339548214236</v>
+        <v>58.030240441425</v>
       </c>
       <c r="L6">
-        <v>526.516374598776</v>
+        <v>464.246768942552</v>
       </c>
       <c r="M6">
-        <v>276.309545418366</v>
+        <v>247.670599703825</v>
       </c>
       <c r="N6">
-        <v>261.72228729436</v>
+        <v>213.290963963073</v>
       </c>
       <c r="O6">
-        <v>12755.5708188691</v>
+        <v>11734.1154076117</v>
       </c>
       <c r="P6">
-        <v>347.801082822374</v>
+        <v>319.64302070674</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>825.21069648224</v>
+        <v>1003.81240884166</v>
       </c>
       <c r="C7">
-        <v>40.6949324052213</v>
+        <v>37.2211180627477</v>
       </c>
       <c r="D7">
-        <v>3.48938273220654</v>
+        <v>1.12955106785974</v>
       </c>
       <c r="E7">
-        <v>20.0036959135855</v>
+        <v>27.164768352674</v>
       </c>
       <c r="F7">
-        <v>10.4796922841815</v>
+        <v>10.2034694915634</v>
       </c>
       <c r="G7">
-        <v>6.50569801816194</v>
+        <v>10.3070988445462</v>
       </c>
       <c r="H7">
-        <v>4.60715402107702</v>
+        <v>4.17998818469794</v>
       </c>
       <c r="I7">
-        <v>9.602316518067489</v>
+        <v>8.062945187339849</v>
       </c>
       <c r="J7">
-        <v>14.6009194878811</v>
+        <v>13.5856991485396</v>
       </c>
       <c r="K7">
-        <v>9.229452122491489</v>
+        <v>7.86114855665376</v>
       </c>
       <c r="L7">
-        <v>54.1179706806692</v>
+        <v>45.3519657689455</v>
       </c>
       <c r="M7">
-        <v>17.3865514879024</v>
+        <v>15.1496117840569</v>
       </c>
       <c r="N7">
-        <v>29.606555727624</v>
+        <v>28.8500751831701</v>
       </c>
       <c r="O7">
-        <v>1953.55280734104</v>
+        <v>1807.0696877587</v>
       </c>
       <c r="P7">
-        <v>25.0277739010488</v>
+        <v>22.8240198460147</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>673.125451124115</v>
+        <v>846.845063557118</v>
       </c>
       <c r="C8">
-        <v>12.7781696823411</v>
+        <v>14.7981376828314</v>
       </c>
       <c r="D8">
-        <v>6.89704137867336</v>
+        <v>3.97504592447867</v>
       </c>
       <c r="E8">
-        <v>19.9854817718549</v>
+        <v>19.9195402190997</v>
       </c>
       <c r="F8">
-        <v>4.19188169629303</v>
+        <v>2.49643783498627</v>
       </c>
       <c r="G8">
-        <v>26.6605958383317</v>
+        <v>21.6608089522227</v>
       </c>
       <c r="H8">
-        <v>11.3356921220618</v>
+        <v>12.1013265351399</v>
       </c>
       <c r="I8">
-        <v>8.279383097834231</v>
+        <v>10.8970678411194</v>
       </c>
       <c r="J8">
-        <v>38.601210617456</v>
+        <v>31.2937450187439</v>
       </c>
       <c r="K8">
-        <v>18.205152735932</v>
+        <v>12.0868666755684</v>
       </c>
       <c r="L8">
-        <v>47.3135855560265</v>
+        <v>44.9914464748401</v>
       </c>
       <c r="M8">
-        <v>52.5204744825094</v>
+        <v>55.1371684117741</v>
       </c>
       <c r="N8">
-        <v>25.5852846687052</v>
+        <v>19.9008178259689</v>
       </c>
       <c r="O8">
-        <v>1426.19535519023</v>
+        <v>1283.09107685044</v>
       </c>
       <c r="P8">
-        <v>5.74289117892537</v>
+        <v>8.105369018992061</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>180.115735405967</v>
+        <v>217.912093618068</v>
       </c>
       <c r="C9">
-        <v>7.85178879385322</v>
+        <v>6.23343374770817</v>
       </c>
       <c r="D9">
-        <v>2.17840084793961</v>
+        <v>1.58777865568735</v>
       </c>
       <c r="E9">
-        <v>3.61479683596081</v>
+        <v>3.59104927871284</v>
       </c>
       <c r="F9">
-        <v>1.10058066285184</v>
+        <v>1.74110367563571</v>
       </c>
       <c r="G9">
-        <v>21.2368361163519</v>
+        <v>17.2677395375602</v>
       </c>
       <c r="H9">
-        <v>4.1012994267101</v>
+        <v>5.23056757143698</v>
       </c>
       <c r="I9">
-        <v>0.8251135240611111</v>
+        <v>1.29400141519813</v>
       </c>
       <c r="J9">
-        <v>4.82093261449319</v>
+        <v>5.62417267419238</v>
       </c>
       <c r="K9">
-        <v>2.00018747430713</v>
+        <v>1.29384264823496</v>
       </c>
       <c r="L9">
-        <v>2.72534771146723</v>
+        <v>3.15794684436129</v>
       </c>
       <c r="M9">
-        <v>9.13452295518924</v>
+        <v>6.68925038570693</v>
       </c>
       <c r="N9">
-        <v>4.99866622257336</v>
+        <v>4.24020724883417</v>
       </c>
       <c r="O9">
-        <v>317.665019785679</v>
+        <v>283.249358219575</v>
       </c>
       <c r="P9">
-        <v>5.0231320847181</v>
+        <v>4.07575603442034</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4321.86007870595</v>
+        <v>5361.62123388783</v>
       </c>
       <c r="C10">
-        <v>71.47103724728851</v>
+        <v>58.2687743340992</v>
       </c>
       <c r="D10">
-        <v>17.7789444449872</v>
+        <v>13.6831346631513</v>
       </c>
       <c r="E10">
-        <v>54.7575379156619</v>
+        <v>49.2682647380104</v>
       </c>
       <c r="F10">
-        <v>16.2128346768797</v>
+        <v>12.0703373014215</v>
       </c>
       <c r="G10">
-        <v>43.4132941371484</v>
+        <v>37.5989204505363</v>
       </c>
       <c r="H10">
-        <v>17.4327207878296</v>
+        <v>9.77489033947705</v>
       </c>
       <c r="I10">
-        <v>42.9167774390351</v>
+        <v>38.2258712833825</v>
       </c>
       <c r="J10">
-        <v>62.6493054929973</v>
+        <v>57.4561203741596</v>
       </c>
       <c r="K10">
-        <v>22.8858070816665</v>
+        <v>14.3980937201771</v>
       </c>
       <c r="L10">
-        <v>80.39408769820101</v>
+        <v>78.754543591051</v>
       </c>
       <c r="M10">
-        <v>75.45466644713081</v>
+        <v>71.8698346936221</v>
       </c>
       <c r="N10">
-        <v>83.9362203089097</v>
+        <v>53.42937796278</v>
       </c>
       <c r="O10">
-        <v>7169.87055932892</v>
+        <v>6235.07749775963</v>
       </c>
       <c r="P10">
-        <v>98.5727758665538</v>
+        <v>95.1157282983954</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1923.10452168118</v>
+        <v>2227.44281428703</v>
       </c>
       <c r="C11">
-        <v>62.6781659085051</v>
+        <v>51.3242200215705</v>
       </c>
       <c r="D11">
-        <v>174.207701934481</v>
+        <v>150.404069740641</v>
       </c>
       <c r="E11">
-        <v>64.95563348877001</v>
+        <v>60.6564398841616</v>
       </c>
       <c r="F11">
-        <v>0.958486178460644</v>
+        <v>4.55402518588815</v>
       </c>
       <c r="G11">
-        <v>32.2608198776622</v>
+        <v>33.848501674585</v>
       </c>
       <c r="H11">
-        <v>16.4307670446114</v>
+        <v>9.17464842777586</v>
       </c>
       <c r="I11">
-        <v>15.1273668055314</v>
+        <v>11.2409818189536</v>
       </c>
       <c r="J11">
-        <v>49.4640246681449</v>
+        <v>54.9239533349162</v>
       </c>
       <c r="K11">
-        <v>18.6720245195348</v>
+        <v>11.6771664898869</v>
       </c>
       <c r="L11">
-        <v>55.1758912089009</v>
+        <v>51.8500760695255</v>
       </c>
       <c r="M11">
-        <v>37.9258621882428</v>
+        <v>28.4531978082846</v>
       </c>
       <c r="N11">
-        <v>45.6703772633355</v>
+        <v>47.8951656433666</v>
       </c>
       <c r="O11">
-        <v>3184.62482996107</v>
+        <v>2917.62894029</v>
       </c>
       <c r="P11">
-        <v>64.2680437355034</v>
+        <v>42.6856063108809</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>269.590570044463</v>
+        <v>333.462242525832</v>
       </c>
       <c r="C12">
-        <v>6.40696627048365</v>
+        <v>5.98726667874029</v>
       </c>
       <c r="D12">
-        <v>0.667322495576525</v>
+        <v>0.431968379512901</v>
       </c>
       <c r="E12">
-        <v>3.24743605806198</v>
+        <v>4.48566934316992</v>
       </c>
       <c r="F12">
-        <v>1.03661689260683</v>
+        <v>0.882427723430165</v>
       </c>
       <c r="G12">
-        <v>0.568727953112357</v>
+        <v>0.880934345867727</v>
       </c>
       <c r="H12">
-        <v>0.254848143024645</v>
+        <v>0.451652936808814</v>
       </c>
       <c r="I12">
-        <v>0.940665840627549</v>
+        <v>2.08125216489532</v>
       </c>
       <c r="J12">
-        <v>2.1654925673187</v>
+        <v>2.98868432326379</v>
       </c>
       <c r="K12">
-        <v>0.016081051839229</v>
+        <v>0.043213045409397</v>
       </c>
       <c r="L12">
-        <v>0.502343151897538</v>
+        <v>1.00119716054284</v>
       </c>
       <c r="M12">
-        <v>3.21853260171796</v>
+        <v>2.99990508570905</v>
       </c>
       <c r="N12">
-        <v>1.31688379105352</v>
+        <v>2.07459266272678</v>
       </c>
       <c r="O12">
-        <v>519.599780819501</v>
+        <v>469.74711188031</v>
       </c>
       <c r="P12">
-        <v>21.5130809171992</v>
+        <v>12.2469978159181</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>236.106995279648</v>
+        <v>308.821423615402</v>
       </c>
       <c r="C13">
-        <v>17.9485963867398</v>
+        <v>17.3585909953052</v>
       </c>
       <c r="D13">
-        <v>0.370206230339688</v>
+        <v>0.525698998394013</v>
       </c>
       <c r="E13">
-        <v>11.2393538164189</v>
+        <v>7.99133596613868</v>
       </c>
       <c r="F13">
-        <v>2.5386553892777</v>
+        <v>4.0225746252583</v>
       </c>
       <c r="G13">
-        <v>5.08101744887521</v>
+        <v>2.14614760909694</v>
       </c>
       <c r="H13">
-        <v>2.69325948976659</v>
+        <v>3.97345537873537</v>
       </c>
       <c r="I13">
-        <v>2.01341754183448</v>
+        <v>2.29889241939494</v>
       </c>
       <c r="J13">
-        <v>5.37226407166803</v>
+        <v>6.85916407489434</v>
       </c>
       <c r="K13">
-        <v>2.9787958017386</v>
+        <v>3.67522218737867</v>
       </c>
       <c r="L13">
-        <v>15.8849690658512</v>
+        <v>12.4517496295302</v>
       </c>
       <c r="M13">
-        <v>1.50163514318641</v>
+        <v>2.75544155837812</v>
       </c>
       <c r="N13">
-        <v>4.7138229980565</v>
+        <v>3.74370231816726</v>
       </c>
       <c r="O13">
-        <v>515.646016688572</v>
+        <v>464.132825310518</v>
       </c>
       <c r="P13">
-        <v>50.6453051089392</v>
+        <v>47.3528609299871</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2648.73179869245</v>
+        <v>3340.51833605467</v>
       </c>
       <c r="C14">
-        <v>132.393031331308</v>
+        <v>126.848296452375</v>
       </c>
       <c r="D14">
-        <v>16.1045979574282</v>
+        <v>12.2861115037655</v>
       </c>
       <c r="E14">
-        <v>90.4632886583037</v>
+        <v>80.5686861602088</v>
       </c>
       <c r="F14">
-        <v>16.5176237694984</v>
+        <v>10.7432130354552</v>
       </c>
       <c r="G14">
-        <v>83.1621641279696</v>
+        <v>72.139765678405</v>
       </c>
       <c r="H14">
-        <v>38.635126436053</v>
+        <v>39.7282837215701</v>
       </c>
       <c r="I14">
-        <v>26.7150923100078</v>
+        <v>22.0244060424861</v>
       </c>
       <c r="J14">
-        <v>144.368056834453</v>
+        <v>132.253862030753</v>
       </c>
       <c r="K14">
-        <v>144.893915912222</v>
+        <v>108.55977425421</v>
       </c>
       <c r="L14">
-        <v>124.003607582189</v>
+        <v>112.836292331851</v>
       </c>
       <c r="M14">
-        <v>78.8810039324481</v>
+        <v>67.4814949134</v>
       </c>
       <c r="N14">
-        <v>94.7469626311532</v>
+        <v>83.317254705229</v>
       </c>
       <c r="O14">
-        <v>4834.77275900814</v>
+        <v>4286.9435399682</v>
       </c>
       <c r="P14">
-        <v>76.43616569889031</v>
+        <v>80.0524136265494</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1305.48235128656</v>
+        <v>1550.94812286217</v>
       </c>
       <c r="C15">
-        <v>36.4028618736088</v>
+        <v>37.2108896033659</v>
       </c>
       <c r="D15">
-        <v>17.9676059589889</v>
+        <v>14.4982111759857</v>
       </c>
       <c r="E15">
-        <v>73.9683284175628</v>
+        <v>66.4117561178949</v>
       </c>
       <c r="F15">
-        <v>23.2135342783295</v>
+        <v>18.8989960952874</v>
       </c>
       <c r="G15">
-        <v>46.7478869640545</v>
+        <v>41.6217300709829</v>
       </c>
       <c r="H15">
-        <v>48.7420577461122</v>
+        <v>49.5188964074542</v>
       </c>
       <c r="I15">
-        <v>27.3834057291329</v>
+        <v>18.8206326188187</v>
       </c>
       <c r="J15">
-        <v>161.466656012682</v>
+        <v>149.701376749412</v>
       </c>
       <c r="K15">
-        <v>32.8733570795435</v>
+        <v>8.994248644618979</v>
       </c>
       <c r="L15">
-        <v>38.5402420672703</v>
+        <v>37.0877966096638</v>
       </c>
       <c r="M15">
-        <v>184.573518526871</v>
+        <v>170.257751955079</v>
       </c>
       <c r="N15">
-        <v>88.6927860394766</v>
+        <v>75.83589542730491</v>
       </c>
       <c r="O15">
-        <v>2152.05023479603</v>
+        <v>1980.26769185835</v>
       </c>
       <c r="P15">
-        <v>43.702386647597</v>
+        <v>47.9671472795207</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>497.664536543452</v>
+        <v>655.295523920621</v>
       </c>
       <c r="C16">
-        <v>60.6357239031115</v>
+        <v>61.7072561761838</v>
       </c>
       <c r="D16">
-        <v>5.93360309296431</v>
+        <v>5.42113891974532</v>
       </c>
       <c r="E16">
-        <v>28.7816023360788</v>
+        <v>34.6316048138266</v>
       </c>
       <c r="F16">
-        <v>2.90706828713785</v>
+        <v>4.12469033645652</v>
       </c>
       <c r="G16">
-        <v>23.6064378541866</v>
+        <v>17.4457451454896</v>
       </c>
       <c r="H16">
-        <v>12.1405748648113</v>
+        <v>13.497537857362</v>
       </c>
       <c r="I16">
-        <v>8.193459844443281</v>
+        <v>6.21220644671598</v>
       </c>
       <c r="J16">
-        <v>45.4014618706846</v>
+        <v>45.5051001587154</v>
       </c>
       <c r="K16">
-        <v>41.5457016306134</v>
+        <v>28.0890096562475</v>
       </c>
       <c r="L16">
-        <v>24.7625886398737</v>
+        <v>22.8446653213457</v>
       </c>
       <c r="M16">
-        <v>27.390279475627</v>
+        <v>31.909518386515</v>
       </c>
       <c r="N16">
-        <v>26.3835728748963</v>
+        <v>21.2686410543928</v>
       </c>
       <c r="O16">
-        <v>1162.78197896958</v>
+        <v>1027.37940931253</v>
       </c>
       <c r="P16">
-        <v>81.0264208367185</v>
+        <v>67.1468911286272</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>517.004479421756</v>
+        <v>651.531682160089</v>
       </c>
       <c r="C17">
-        <v>17.4810670414459</v>
+        <v>15.0966781953128</v>
       </c>
       <c r="D17">
-        <v>2.14880823490552</v>
+        <v>3.55331244871749</v>
       </c>
       <c r="E17">
-        <v>20.1489542571585</v>
+        <v>18.1331463103163</v>
       </c>
       <c r="F17">
-        <v>10.5979664489721</v>
+        <v>9.501879967290289</v>
       </c>
       <c r="G17">
-        <v>5.68946394249693</v>
+        <v>3.95271945507495</v>
       </c>
       <c r="H17">
-        <v>6.46594688697462</v>
+        <v>4.58792597039417</v>
       </c>
       <c r="I17">
-        <v>10.2486813746469</v>
+        <v>8.36761545153564</v>
       </c>
       <c r="J17">
-        <v>13.6163556775696</v>
+        <v>12.0168781700475</v>
       </c>
       <c r="K17">
-        <v>11.2906640598469</v>
+        <v>5.87773215286162</v>
       </c>
       <c r="L17">
-        <v>7.63019839944195</v>
+        <v>9.79966987418644</v>
       </c>
       <c r="M17">
-        <v>59.6273535557797</v>
+        <v>56.7735398619129</v>
       </c>
       <c r="N17">
-        <v>14.2967632211046</v>
+        <v>14.0215320726648</v>
       </c>
       <c r="O17">
-        <v>1077.09534654938</v>
+        <v>973.527791206395</v>
       </c>
       <c r="P17">
-        <v>55.1545972373308</v>
+        <v>53.347829403818</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1135.19125808676</v>
+        <v>1270.81734661353</v>
       </c>
       <c r="C18">
-        <v>36.9068032195726</v>
+        <v>34.1306060034943</v>
       </c>
       <c r="D18">
-        <v>3.37056553966177</v>
+        <v>10.1014384182242</v>
       </c>
       <c r="E18">
-        <v>30.4013701114012</v>
+        <v>30.8353039272418</v>
       </c>
       <c r="F18">
-        <v>25.2076688195938</v>
+        <v>26.1979496133933</v>
       </c>
       <c r="G18">
-        <v>21.8652562788977</v>
+        <v>20.4005331888505</v>
       </c>
       <c r="H18">
-        <v>17.6459879851631</v>
+        <v>20.5425803540436</v>
       </c>
       <c r="I18">
-        <v>2.38074993985307</v>
+        <v>4.88598862520198</v>
       </c>
       <c r="J18">
-        <v>42.3472847408432</v>
+        <v>36.8414329116392</v>
       </c>
       <c r="K18">
-        <v>13.7302893882639</v>
+        <v>7.6804950871384</v>
       </c>
       <c r="L18">
-        <v>39.4215427667218</v>
+        <v>40.5899101234882</v>
       </c>
       <c r="M18">
-        <v>65.20515311213219</v>
+        <v>64.6362773356712</v>
       </c>
       <c r="N18">
-        <v>22.3329470683934</v>
+        <v>29.1519108962706</v>
       </c>
       <c r="O18">
-        <v>1383.07787448799</v>
+        <v>1249.54035817683</v>
       </c>
       <c r="P18">
-        <v>59.9809342012112</v>
+        <v>39.5880111507784</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1173.10786005548</v>
+        <v>1346.56976773633</v>
       </c>
       <c r="C19">
-        <v>27.3280521487235</v>
+        <v>30.5745371467101</v>
       </c>
       <c r="D19">
-        <v>10.4422357700327</v>
+        <v>13.0202032468903</v>
       </c>
       <c r="E19">
-        <v>46.9593177634781</v>
+        <v>44.4693005201214</v>
       </c>
       <c r="F19">
-        <v>93.8575160966214</v>
+        <v>79.0973533692684</v>
       </c>
       <c r="G19">
-        <v>42.4043313782035</v>
+        <v>34.4025535853322</v>
       </c>
       <c r="H19">
-        <v>7.28324657837857</v>
+        <v>5.74840922440874</v>
       </c>
       <c r="I19">
-        <v>2.25032149328749</v>
+        <v>1.29924662447005</v>
       </c>
       <c r="J19">
-        <v>16.009676304028</v>
+        <v>10.6746397999052</v>
       </c>
       <c r="K19">
-        <v>9.78803684720215</v>
+        <v>10.0274935429525</v>
       </c>
       <c r="L19">
-        <v>5.80920711570895</v>
+        <v>5.54129662960872</v>
       </c>
       <c r="M19">
-        <v>31.2262491356068</v>
+        <v>23.9081168292789</v>
       </c>
       <c r="N19">
-        <v>13.7895697358783</v>
+        <v>5.11785799481706</v>
       </c>
       <c r="O19">
-        <v>1553.80278526807</v>
+        <v>1424.64600482301</v>
       </c>
       <c r="P19">
-        <v>46.2334756594047</v>
+        <v>36.6243846042095</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>288.816632812726</v>
+        <v>355.706900980641</v>
       </c>
       <c r="C20">
-        <v>9.049583642311809</v>
+        <v>6.47730522199498</v>
       </c>
       <c r="D20">
-        <v>6.70695340327149</v>
+        <v>6.441704705045</v>
       </c>
       <c r="E20">
-        <v>35.0263986145823</v>
+        <v>30.9341109689264</v>
       </c>
       <c r="F20">
-        <v>1.52648709128827</v>
+        <v>1.22751302863085</v>
       </c>
       <c r="G20">
-        <v>2.4673122430783</v>
+        <v>1.87699520593096</v>
       </c>
       <c r="H20">
-        <v>0.8869554225009491</v>
+        <v>1.36738709311257</v>
       </c>
       <c r="I20">
-        <v>1.61810865902256</v>
+        <v>2.42331977238354</v>
       </c>
       <c r="J20">
-        <v>5.17443346819439</v>
+        <v>5.11886987394341</v>
       </c>
       <c r="K20">
-        <v>3.03663893339118</v>
+        <v>1.96767436764235</v>
       </c>
       <c r="L20">
-        <v>6.76391253171924</v>
+        <v>5.03182359686381</v>
       </c>
       <c r="M20">
-        <v>17.3576332272812</v>
+        <v>11.8611264492256</v>
       </c>
       <c r="N20">
-        <v>6.9262792189406</v>
+        <v>7.68203556216988</v>
       </c>
       <c r="O20">
-        <v>532.996403577908</v>
+        <v>478.707755551519</v>
       </c>
       <c r="P20">
-        <v>28.4029377407732</v>
+        <v>24.1077097721418</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1070.1581920217</v>
+        <v>1349.85714571612</v>
       </c>
       <c r="C21">
-        <v>28.4676299336139</v>
+        <v>30.8557337912939</v>
       </c>
       <c r="D21">
-        <v>3.41493490074088</v>
+        <v>4.14038436220561</v>
       </c>
       <c r="E21">
-        <v>18.6023337872975</v>
+        <v>29.7963584165309</v>
       </c>
       <c r="F21">
-        <v>5.60983524581722</v>
+        <v>4.72659797513155</v>
       </c>
       <c r="G21">
-        <v>17.6896110353016</v>
+        <v>16.6637230447926</v>
       </c>
       <c r="H21">
-        <v>7.14858022310024</v>
+        <v>5.01067062620554</v>
       </c>
       <c r="I21">
-        <v>14.5461298118204</v>
+        <v>18.0248118733329</v>
       </c>
       <c r="J21">
-        <v>25.7809172506213</v>
+        <v>28.6844317377209</v>
       </c>
       <c r="K21">
-        <v>2.28651912602584</v>
+        <v>0.165091702887355</v>
       </c>
       <c r="L21">
-        <v>23.7270687523454</v>
+        <v>26.4133009103547</v>
       </c>
       <c r="M21">
-        <v>17.8383975856902</v>
+        <v>19.3559963534153</v>
       </c>
       <c r="N21">
-        <v>24.0355072389875</v>
+        <v>14.6411923355252</v>
       </c>
       <c r="O21">
-        <v>2380.7156504798</v>
+        <v>2145.60677951608</v>
       </c>
       <c r="P21">
-        <v>17.4406511637146</v>
+        <v>18.4962783914792</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1298.1142744597</v>
+        <v>1639.29010839723</v>
       </c>
       <c r="C22">
-        <v>17.3907047218018</v>
+        <v>14.9384801055316</v>
       </c>
       <c r="D22">
-        <v>21.1365625991411</v>
+        <v>15.2136872844317</v>
       </c>
       <c r="E22">
-        <v>46.8273384041687</v>
+        <v>46.0714820390602</v>
       </c>
       <c r="F22">
-        <v>4.62714701685384</v>
+        <v>5.01769585943953</v>
       </c>
       <c r="G22">
-        <v>32.2805074060051</v>
+        <v>32.0039809019343</v>
       </c>
       <c r="H22">
-        <v>13.0373878836172</v>
+        <v>7.95752744638112</v>
       </c>
       <c r="I22">
-        <v>9.436664113204881</v>
+        <v>8.33791907696668</v>
       </c>
       <c r="J22">
-        <v>42.8167217704376</v>
+        <v>45.8218638185875</v>
       </c>
       <c r="K22">
-        <v>19.4772349886346</v>
+        <v>9.35254843850066</v>
       </c>
       <c r="L22">
-        <v>133.61067276057</v>
+        <v>113.035260997062</v>
       </c>
       <c r="M22">
-        <v>15.2821055500927</v>
+        <v>13.720044480308</v>
       </c>
       <c r="N22">
-        <v>79.9706846883019</v>
+        <v>64.1193658693838</v>
       </c>
       <c r="O22">
-        <v>2660.70236112645</v>
+        <v>2393.96839916798</v>
       </c>
       <c r="P22">
-        <v>10.8981704224068</v>
+        <v>11.960820252039</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2441.52589286289</v>
+        <v>2729.39277894621</v>
       </c>
       <c r="C23">
-        <v>40.894085144124</v>
+        <v>42.7187842298133</v>
       </c>
       <c r="D23">
-        <v>9.46348958924666</v>
+        <v>7.61989213795404</v>
       </c>
       <c r="E23">
-        <v>42.9820371790204</v>
+        <v>33.7412759028143</v>
       </c>
       <c r="F23">
-        <v>6.86916688551244</v>
+        <v>14.7825272066942</v>
       </c>
       <c r="G23">
-        <v>64.17809626072</v>
+        <v>72.61836206451871</v>
       </c>
       <c r="H23">
-        <v>63.6252762117973</v>
+        <v>43.2384088333556</v>
       </c>
       <c r="I23">
-        <v>13.3960806574349</v>
+        <v>11.6169872205962</v>
       </c>
       <c r="J23">
-        <v>131.489832304739</v>
+        <v>108.583082946936</v>
       </c>
       <c r="K23">
-        <v>79.4481422214505</v>
+        <v>80.25270972822091</v>
       </c>
       <c r="L23">
-        <v>35.7536764161874</v>
+        <v>36.2034405769816</v>
       </c>
       <c r="M23">
-        <v>546.354014084142</v>
+        <v>514.156062343728</v>
       </c>
       <c r="N23">
-        <v>80.6191702236607</v>
+        <v>93.88416153398229</v>
       </c>
       <c r="O23">
-        <v>3369.92256265377</v>
+        <v>3126.65224227326</v>
       </c>
       <c r="P23">
-        <v>55.9741608873376</v>
+        <v>49.4057795623589</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>853.60593676585</v>
+        <v>1045.28517468288</v>
       </c>
       <c r="C24">
-        <v>57.5278675737554</v>
+        <v>60.2338150622778</v>
       </c>
       <c r="D24">
-        <v>6.03652616146828</v>
+        <v>4.42510534960161</v>
       </c>
       <c r="E24">
-        <v>57.2568443417602</v>
+        <v>68.029522702618</v>
       </c>
       <c r="F24">
-        <v>12.6570671810336</v>
+        <v>14.9402722942321</v>
       </c>
       <c r="G24">
-        <v>28.3710839209291</v>
+        <v>25.8294735491749</v>
       </c>
       <c r="H24">
-        <v>12.0316542900628</v>
+        <v>13.5640704891235</v>
       </c>
       <c r="I24">
-        <v>18.9449099040083</v>
+        <v>16.1128641451791</v>
       </c>
       <c r="J24">
-        <v>54.4223958997316</v>
+        <v>50.9468217669777</v>
       </c>
       <c r="K24">
-        <v>34.744967265896</v>
+        <v>21.2913811541055</v>
       </c>
       <c r="L24">
-        <v>68.7617142408094</v>
+        <v>64.3381866141066</v>
       </c>
       <c r="M24">
-        <v>35.5540554102218</v>
+        <v>34.8169072975434</v>
       </c>
       <c r="N24">
-        <v>72.007828040588</v>
+        <v>60.3101210470139</v>
       </c>
       <c r="O24">
-        <v>2034.7825042978</v>
+        <v>1890.69736164083</v>
       </c>
       <c r="P24">
-        <v>104.215071092223</v>
+        <v>96.6463290473088</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>757.0843063378981</v>
+        <v>865.65501970326</v>
       </c>
       <c r="C25">
-        <v>42.9430983665408</v>
+        <v>36.1397124198244</v>
       </c>
       <c r="D25">
-        <v>12.3992333940071</v>
+        <v>8.58611563046113</v>
       </c>
       <c r="E25">
-        <v>39.4155868879153</v>
+        <v>34.147612913083</v>
       </c>
       <c r="F25">
-        <v>12.8612746106315</v>
+        <v>13.1072700147698</v>
       </c>
       <c r="G25">
-        <v>7.23760281149229</v>
+        <v>7.41435916720816</v>
       </c>
       <c r="H25">
-        <v>9.460998345965191</v>
+        <v>8.07523456878131</v>
       </c>
       <c r="I25">
-        <v>4.59013921509426</v>
+        <v>4.59564305722571</v>
       </c>
       <c r="J25">
-        <v>15.1243118131632</v>
+        <v>15.7785277267744</v>
       </c>
       <c r="K25">
-        <v>8.32817331469202</v>
+        <v>6.28783513582388</v>
       </c>
       <c r="L25">
-        <v>16.0803608493212</v>
+        <v>15.6607117344924</v>
       </c>
       <c r="M25">
-        <v>38.8997490083816</v>
+        <v>33.04155115086</v>
       </c>
       <c r="N25">
-        <v>37.3692968861624</v>
+        <v>39.6713808084425</v>
       </c>
       <c r="O25">
-        <v>909.9272994168811</v>
+        <v>810.380400974908</v>
       </c>
       <c r="P25">
-        <v>39.3306843290589</v>
+        <v>33.9783875425246</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1167.3847511506</v>
+        <v>1396.80711668198</v>
       </c>
       <c r="C26">
-        <v>66.15186088934951</v>
+        <v>61.9574248192111</v>
       </c>
       <c r="D26">
-        <v>10.2982009298429</v>
+        <v>17.4571115311546</v>
       </c>
       <c r="E26">
-        <v>47.7142484821076</v>
+        <v>43.1745400785023</v>
       </c>
       <c r="F26">
-        <v>9.345732848128479</v>
+        <v>10.3230041812213</v>
       </c>
       <c r="G26">
-        <v>36.3629257064043</v>
+        <v>36.5755169239516</v>
       </c>
       <c r="H26">
-        <v>15.9130015153226</v>
+        <v>21.4521787435137</v>
       </c>
       <c r="I26">
-        <v>20.040894907993</v>
+        <v>14.048348103363</v>
       </c>
       <c r="J26">
-        <v>48.2907388490857</v>
+        <v>29.5243542649149</v>
       </c>
       <c r="K26">
-        <v>18.4889773720453</v>
+        <v>8.76841417478407</v>
       </c>
       <c r="L26">
-        <v>26.7316442755119</v>
+        <v>24.219977342123</v>
       </c>
       <c r="M26">
-        <v>88.002923533079</v>
+        <v>87.2332897932437</v>
       </c>
       <c r="N26">
-        <v>18.1731521008485</v>
+        <v>12.1278591400716</v>
       </c>
       <c r="O26">
-        <v>2272.96356081031</v>
+        <v>2112.87564927677</v>
       </c>
       <c r="P26">
-        <v>71.7911594134806</v>
+        <v>64.5989404072572</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>198.200583587238</v>
+        <v>249.259114201767</v>
       </c>
       <c r="C27">
-        <v>2.16701928733569</v>
+        <v>3.55071846522026</v>
       </c>
       <c r="D27">
-        <v>1.74166696383703</v>
+        <v>1.64100080672689</v>
       </c>
       <c r="E27">
-        <v>10.3951342501993</v>
+        <v>9.395735081981339</v>
       </c>
       <c r="F27">
-        <v>5.23956970103705</v>
+        <v>3.41042961860592</v>
       </c>
       <c r="G27">
-        <v>0.996923264172772</v>
+        <v>1.40938929883387</v>
       </c>
       <c r="H27">
-        <v>0.301067839897967</v>
+        <v>0.142080865915157</v>
       </c>
       <c r="I27">
-        <v>2.43849225493182</v>
+        <v>1.26891244368607</v>
       </c>
       <c r="J27">
-        <v>2.95716315525913</v>
+        <v>3.23714715822419</v>
       </c>
       <c r="K27">
-        <v>1.63105421951118</v>
+        <v>0.565140537760457</v>
       </c>
       <c r="L27">
-        <v>1.46517884222539</v>
+        <v>1.45342073442981</v>
       </c>
       <c r="M27">
-        <v>0.538382830923778</v>
+        <v>0.242376682031459</v>
       </c>
       <c r="N27">
-        <v>3.26794108116628</v>
+        <v>3.29435944194268</v>
       </c>
       <c r="O27">
-        <v>362.098979608266</v>
+        <v>319.607232164061</v>
       </c>
       <c r="P27">
-        <v>47.212956746358</v>
+        <v>42.6948976532583</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>289.201692403412</v>
+        <v>374.537927146441</v>
       </c>
       <c r="C28">
-        <v>34.240380495868</v>
+        <v>33.7809925825694</v>
       </c>
       <c r="D28">
-        <v>4.83259129627079</v>
+        <v>4.77008103370545</v>
       </c>
       <c r="E28">
-        <v>5.57134470270679</v>
+        <v>2.93272454425659</v>
       </c>
       <c r="F28">
-        <v>2.27273898832081</v>
+        <v>2.92709095973573</v>
       </c>
       <c r="G28">
-        <v>4.12493419819074</v>
+        <v>4.41278132331944</v>
       </c>
       <c r="H28">
-        <v>9.227741439744831</v>
+        <v>7.32946633768619</v>
       </c>
       <c r="I28">
-        <v>2.03582245447596</v>
+        <v>0.689263731647579</v>
       </c>
       <c r="J28">
-        <v>16.7779772187891</v>
+        <v>18.5961289669856</v>
       </c>
       <c r="K28">
-        <v>12.0332902712534</v>
+        <v>11.9552442487542</v>
       </c>
       <c r="L28">
-        <v>12.8304097842906</v>
+        <v>13.6114936425765</v>
       </c>
       <c r="M28">
-        <v>8.062407505342319</v>
+        <v>8.283438833422739</v>
       </c>
       <c r="N28">
-        <v>10.4356615956621</v>
+        <v>7.1315609094074</v>
       </c>
       <c r="O28">
-        <v>706.5717830718301</v>
+        <v>646.190921728633</v>
       </c>
       <c r="P28">
-        <v>75.7311555952854</v>
+        <v>68.5922935979175</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>454.990771745039</v>
+        <v>548.341779044649</v>
       </c>
       <c r="C29">
-        <v>3.72063032983365</v>
+        <v>3.91826863613475</v>
       </c>
       <c r="D29">
-        <v>3.42289990194773</v>
+        <v>3.55558458765439</v>
       </c>
       <c r="E29">
-        <v>4.26264600208806</v>
+        <v>4.7486490525318</v>
       </c>
       <c r="F29">
-        <v>25.4547858182024</v>
+        <v>20.9817536659849</v>
       </c>
       <c r="G29">
-        <v>3.1921091336663</v>
+        <v>2.5178765781235</v>
       </c>
       <c r="H29">
-        <v>3.31350117857995</v>
+        <v>2.79991469703213</v>
       </c>
       <c r="I29">
-        <v>2.09905802907326</v>
+        <v>1.47101663051654</v>
       </c>
       <c r="J29">
-        <v>5.57918532770907</v>
+        <v>4.37604316714307</v>
       </c>
       <c r="K29">
-        <v>1.44825555891735</v>
+        <v>0.93679636903425</v>
       </c>
       <c r="L29">
-        <v>2.97969211527648</v>
+        <v>2.95358570029312</v>
       </c>
       <c r="M29">
-        <v>2.50291860319706</v>
+        <v>2.085483556552</v>
       </c>
       <c r="N29">
-        <v>11.3125291334468</v>
+        <v>13.993382907212</v>
       </c>
       <c r="O29">
-        <v>967.164581451162</v>
+        <v>854.590592434383</v>
       </c>
       <c r="P29">
-        <v>7.49964255058093</v>
+        <v>7.46411164009995</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>231.028153328544</v>
+        <v>297.119393759558</v>
       </c>
       <c r="C30">
-        <v>3.65043065108875</v>
+        <v>3.30765123177308</v>
       </c>
       <c r="D30">
-        <v>7.55136372968043</v>
+        <v>5.31158279197071</v>
       </c>
       <c r="E30">
-        <v>13.8000361555442</v>
+        <v>14.6362827487655</v>
       </c>
       <c r="F30">
-        <v>1.16366282312333</v>
+        <v>0.238504649555089</v>
       </c>
       <c r="G30">
-        <v>4.38782572291599</v>
+        <v>5.66790498271697</v>
       </c>
       <c r="H30">
-        <v>5.1050773250056</v>
+        <v>4.42008246919404</v>
       </c>
       <c r="I30">
-        <v>2.05272032045128</v>
+        <v>1.86138382948909</v>
       </c>
       <c r="J30">
-        <v>14.4760192028033</v>
+        <v>14.3178311596934</v>
       </c>
       <c r="K30">
-        <v>8.36532269015772</v>
+        <v>4.82222622716505</v>
       </c>
       <c r="L30">
-        <v>38.0073621434143</v>
+        <v>31.3066093414978</v>
       </c>
       <c r="M30">
-        <v>10.4733257559567</v>
+        <v>10.6842596608408</v>
       </c>
       <c r="N30">
-        <v>12.0135253181425</v>
+        <v>9.49220088099068</v>
       </c>
       <c r="O30">
-        <v>502.615133790668</v>
+        <v>464.081358300133</v>
       </c>
       <c r="P30">
-        <v>10.6356124561998</v>
+        <v>8.3535800373428</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1811.41747848514</v>
+        <v>2331.96310253242</v>
       </c>
       <c r="C31">
-        <v>58.2455749509465</v>
+        <v>52.2466364903016</v>
       </c>
       <c r="D31">
-        <v>24.5062087141271</v>
+        <v>7.28641853515411</v>
       </c>
       <c r="E31">
-        <v>49.313799447949</v>
+        <v>46.512743781239</v>
       </c>
       <c r="F31">
-        <v>12.5679427025709</v>
+        <v>7.93558811397123</v>
       </c>
       <c r="G31">
-        <v>113.825444124764</v>
+        <v>104.4958587678</v>
       </c>
       <c r="H31">
-        <v>11.8218819844239</v>
+        <v>9.45270674765217</v>
       </c>
       <c r="I31">
-        <v>33.9429130339026</v>
+        <v>23.3843301819945</v>
       </c>
       <c r="J31">
-        <v>41.634808279925</v>
+        <v>38.7606843375521</v>
       </c>
       <c r="K31">
-        <v>11.6966862005489</v>
+        <v>5.87946547199457</v>
       </c>
       <c r="L31">
-        <v>78.61052256493841</v>
+        <v>62.0689253165376</v>
       </c>
       <c r="M31">
-        <v>17.3515810261792</v>
+        <v>20.1922772411169</v>
       </c>
       <c r="N31">
-        <v>55.2344377676764</v>
+        <v>36.1007746395078</v>
       </c>
       <c r="O31">
-        <v>3584.44218174559</v>
+        <v>3164.66101012179</v>
       </c>
       <c r="P31">
-        <v>7.04566471641822</v>
+        <v>6.07553348965301</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>468.481190492627</v>
+        <v>528.830766924625</v>
       </c>
       <c r="C32">
-        <v>4.89252545483548</v>
+        <v>4.65983220153214</v>
       </c>
       <c r="D32">
-        <v>0.463264315530575</v>
+        <v>0.931891043922374</v>
       </c>
       <c r="E32">
-        <v>3.01363010961258</v>
+        <v>5.25354855890715</v>
       </c>
       <c r="F32">
-        <v>22.6924364641827</v>
+        <v>20.4020368871555</v>
       </c>
       <c r="G32">
-        <v>2.97314898407574</v>
+        <v>1.38657454410163</v>
       </c>
       <c r="H32">
-        <v>2.13269333527649</v>
+        <v>2.24621081090705</v>
       </c>
       <c r="I32">
-        <v>3.69780558748885</v>
+        <v>2.45445440359852</v>
       </c>
       <c r="J32">
-        <v>4.8236030050238</v>
+        <v>4.77675176962425</v>
       </c>
       <c r="K32">
-        <v>1.18502538860068</v>
+        <v>0.522614089211722</v>
       </c>
       <c r="L32">
-        <v>15.1793904368384</v>
+        <v>17.7467209114579</v>
       </c>
       <c r="M32">
-        <v>2.45368254339394</v>
+        <v>0.853421541712534</v>
       </c>
       <c r="N32">
-        <v>8.771957191947321</v>
+        <v>6.06027616290911</v>
       </c>
       <c r="O32">
-        <v>713.847127493587</v>
+        <v>646.3729569564661</v>
       </c>
       <c r="P32">
-        <v>19.5436569669253</v>
+        <v>19.694757645971</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4694.98550155298</v>
+        <v>5603.57100116111</v>
       </c>
       <c r="C33">
-        <v>85.5829414029911</v>
+        <v>75.27513116453631</v>
       </c>
       <c r="D33">
-        <v>62.4961765388321</v>
+        <v>44.660443711297</v>
       </c>
       <c r="E33">
-        <v>93.9503906806179</v>
+        <v>90.2152506433541</v>
       </c>
       <c r="F33">
-        <v>8.967173127295229</v>
+        <v>8.669277903136029</v>
       </c>
       <c r="G33">
-        <v>80.36746128690641</v>
+        <v>82.13843222998411</v>
       </c>
       <c r="H33">
-        <v>37.2060772013669</v>
+        <v>35.7864335753847</v>
       </c>
       <c r="I33">
-        <v>28.9230916446369</v>
+        <v>24.6713615680891</v>
       </c>
       <c r="J33">
-        <v>104.227261238456</v>
+        <v>93.6129386328618</v>
       </c>
       <c r="K33">
-        <v>81.9438658798489</v>
+        <v>56.2267270586098</v>
       </c>
       <c r="L33">
-        <v>122.062647418206</v>
+        <v>113.811029197825</v>
       </c>
       <c r="M33">
-        <v>64.87137041604591</v>
+        <v>62.2681225913646</v>
       </c>
       <c r="N33">
-        <v>151.681175184485</v>
+        <v>100.62140130022</v>
       </c>
       <c r="O33">
-        <v>7447.75230219972</v>
+        <v>6677.432219231</v>
       </c>
       <c r="P33">
-        <v>61.3957717043398</v>
+        <v>63.3233925765238</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1957.8184536216</v>
+        <v>2291.6128563574</v>
       </c>
       <c r="C34">
-        <v>74.6513152907591</v>
+        <v>68.8923382337405</v>
       </c>
       <c r="D34">
-        <v>152.146830313311</v>
+        <v>129.586461721603</v>
       </c>
       <c r="E34">
-        <v>41.910683272817</v>
+        <v>47.502077834777</v>
       </c>
       <c r="F34">
-        <v>3.85078317453662</v>
+        <v>2.98992985433505</v>
       </c>
       <c r="G34">
-        <v>51.5832092441824</v>
+        <v>37.2734672371204</v>
       </c>
       <c r="H34">
-        <v>47.2957647479137</v>
+        <v>43.1838083323076</v>
       </c>
       <c r="I34">
-        <v>21.8726840730345</v>
+        <v>15.0915636756929</v>
       </c>
       <c r="J34">
-        <v>50.2076231278466</v>
+        <v>43.2671935673034</v>
       </c>
       <c r="K34">
-        <v>32.0850698636605</v>
+        <v>15.7973789616895</v>
       </c>
       <c r="L34">
-        <v>102.599409374699</v>
+        <v>79.1992442188748</v>
       </c>
       <c r="M34">
-        <v>30.7105983784008</v>
+        <v>23.8719640363345</v>
       </c>
       <c r="N34">
-        <v>125.27546006609</v>
+        <v>104.577091994134</v>
       </c>
       <c r="O34">
-        <v>2981.2641184596</v>
+        <v>2775.19232047902</v>
       </c>
       <c r="P34">
-        <v>77.5911165586583</v>
+        <v>69.592060492771</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>112.75560793019</v>
+        <v>153.607571617096</v>
       </c>
       <c r="C35">
-        <v>7.55042034591432</v>
+        <v>7.27494869225564</v>
       </c>
       <c r="D35">
-        <v>0.509017001915447</v>
+        <v>0.543381453027733</v>
       </c>
       <c r="E35">
-        <v>2.33177997358947</v>
+        <v>0.789315314576675</v>
       </c>
       <c r="F35">
-        <v>3.7924440552208</v>
+        <v>3.05991098611665</v>
       </c>
       <c r="G35">
-        <v>1.21560662635794</v>
+        <v>1.82476332549964</v>
       </c>
       <c r="H35">
-        <v>0.129184010630783</v>
+        <v>0.463871547339897</v>
       </c>
       <c r="I35">
-        <v>1.31907102163965</v>
+        <v>0.851877800119363</v>
       </c>
       <c r="J35">
-        <v>2.79730201088592</v>
+        <v>2.45430568222136</v>
       </c>
       <c r="K35">
-        <v>4.9102638244555</v>
+        <v>3.74615740167743</v>
       </c>
       <c r="L35">
-        <v>2.23330485224154</v>
+        <v>2.29979812134972</v>
       </c>
       <c r="M35">
-        <v>1.65801043229287</v>
+        <v>0.788641596380787</v>
       </c>
       <c r="N35">
-        <v>3.00227964119422</v>
+        <v>2.82924675012239</v>
       </c>
       <c r="O35">
-        <v>258.152835055552</v>
+        <v>226.339814472705</v>
       </c>
       <c r="P35">
-        <v>43.328289396829</v>
+        <v>38.6493131004614</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2622.35388992489</v>
+        <v>3053.71921904458</v>
       </c>
       <c r="C36">
-        <v>47.739704030897</v>
+        <v>37.9669086143102</v>
       </c>
       <c r="D36">
-        <v>17.5852002112202</v>
+        <v>20.0636345384238</v>
       </c>
       <c r="E36">
-        <v>117.864970588007</v>
+        <v>121.342191082676</v>
       </c>
       <c r="F36">
-        <v>40.2399725616019</v>
+        <v>27.841279484205</v>
       </c>
       <c r="G36">
-        <v>99.2255192020035</v>
+        <v>87.5597930584387</v>
       </c>
       <c r="H36">
-        <v>96.76121357976881</v>
+        <v>83.81171740187359</v>
       </c>
       <c r="I36">
-        <v>41.3757296964218</v>
+        <v>42.1119797690529</v>
       </c>
       <c r="J36">
-        <v>202.543987888203</v>
+        <v>185.903301981315</v>
       </c>
       <c r="K36">
-        <v>71.2072115522692</v>
+        <v>51.5951546619394</v>
       </c>
       <c r="L36">
-        <v>75.01190471121061</v>
+        <v>65.7076497255033</v>
       </c>
       <c r="M36">
-        <v>216.820169863488</v>
+        <v>218.724131316246</v>
       </c>
       <c r="N36">
-        <v>96.7967245654666</v>
+        <v>101.550308580521</v>
       </c>
       <c r="O36">
-        <v>4194.1467397219</v>
+        <v>3858.06144436083</v>
       </c>
       <c r="P36">
-        <v>56.2004460914316</v>
+        <v>45.1556621549045</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>829.944381908475</v>
+        <v>978.985008737557</v>
       </c>
       <c r="C37">
-        <v>19.2625631006246</v>
+        <v>17.9886982608778</v>
       </c>
       <c r="D37">
-        <v>3.40784006446712</v>
+        <v>6.21744833961127</v>
       </c>
       <c r="E37">
-        <v>21.3835265212236</v>
+        <v>22.6760446484222</v>
       </c>
       <c r="F37">
-        <v>29.0114441382448</v>
+        <v>30.4091368379658</v>
       </c>
       <c r="G37">
-        <v>8.531641405276449</v>
+        <v>7.29293885185844</v>
       </c>
       <c r="H37">
-        <v>26.2244777225389</v>
+        <v>17.7737024072976</v>
       </c>
       <c r="I37">
-        <v>12.1675568306676</v>
+        <v>7.68740112284803</v>
       </c>
       <c r="J37">
-        <v>41.1907761724148</v>
+        <v>49.0476954843259</v>
       </c>
       <c r="K37">
-        <v>30.6741165291361</v>
+        <v>20.1185014479593</v>
       </c>
       <c r="L37">
-        <v>22.7355692051625</v>
+        <v>15.033166967886</v>
       </c>
       <c r="M37">
-        <v>41.3626899661494</v>
+        <v>29.3953037194855</v>
       </c>
       <c r="N37">
-        <v>20.5588633305693</v>
+        <v>28.3883831699869</v>
       </c>
       <c r="O37">
-        <v>1252.18415698385</v>
+        <v>1117.57267951229</v>
       </c>
       <c r="P37">
-        <v>60.2596066613994</v>
+        <v>59.1515867408833</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>858.700760425446</v>
+        <v>1022.05650935354</v>
       </c>
       <c r="C38">
-        <v>24.6259119346616</v>
+        <v>22.2536774835166</v>
       </c>
       <c r="D38">
-        <v>12.0251448573313</v>
+        <v>8.802364310846119</v>
       </c>
       <c r="E38">
-        <v>53.8223928421419</v>
+        <v>41.8122673536253</v>
       </c>
       <c r="F38">
-        <v>1.63538006482416</v>
+        <v>2.70825369864648</v>
       </c>
       <c r="G38">
-        <v>7.87852203375873</v>
+        <v>5.46339143774664</v>
       </c>
       <c r="H38">
-        <v>4.20823079083207</v>
+        <v>5.03464021626915</v>
       </c>
       <c r="I38">
-        <v>2.86521485035113</v>
+        <v>3.25287683833961</v>
       </c>
       <c r="J38">
-        <v>45.7931674908901</v>
+        <v>37.3487131257804</v>
       </c>
       <c r="K38">
-        <v>5.3332314949633</v>
+        <v>0.75849814825798</v>
       </c>
       <c r="L38">
-        <v>58.1948834858648</v>
+        <v>57.1983492920589</v>
       </c>
       <c r="M38">
-        <v>17.3490492876976</v>
+        <v>16.2384014006296</v>
       </c>
       <c r="N38">
-        <v>32.3647068976084</v>
+        <v>23.8927866902775</v>
       </c>
       <c r="O38">
-        <v>1337.04338373423</v>
+        <v>1223.01541854589</v>
       </c>
       <c r="P38">
-        <v>73.0241446372106</v>
+        <v>59.5497114535266</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2999.10961326214</v>
+        <v>3640.46091329391</v>
       </c>
       <c r="C39">
-        <v>92.2535687455733</v>
+        <v>72.72254834123579</v>
       </c>
       <c r="D39">
-        <v>38.9441610101301</v>
+        <v>28.7326382794295</v>
       </c>
       <c r="E39">
-        <v>133.365865551505</v>
+        <v>126.408673987059</v>
       </c>
       <c r="F39">
-        <v>29.9820129814863</v>
+        <v>17.0097845768655</v>
       </c>
       <c r="G39">
-        <v>121.931235662528</v>
+        <v>96.47732956378751</v>
       </c>
       <c r="H39">
-        <v>58.109169804859</v>
+        <v>52.7509671188872</v>
       </c>
       <c r="I39">
-        <v>43.1568426104881</v>
+        <v>41.2313085709519</v>
       </c>
       <c r="J39">
-        <v>159.820633937661</v>
+        <v>158.842444418369</v>
       </c>
       <c r="K39">
-        <v>92.60267067498749</v>
+        <v>42.3298280727773</v>
       </c>
       <c r="L39">
-        <v>98.1721955817923</v>
+        <v>83.7916730714506</v>
       </c>
       <c r="M39">
-        <v>69.5428202762259</v>
+        <v>58.6033540926141</v>
       </c>
       <c r="N39">
-        <v>112.261810722802</v>
+        <v>108.372542656243</v>
       </c>
       <c r="O39">
-        <v>4642.25437461516</v>
+        <v>4186.81071508499</v>
       </c>
       <c r="P39">
-        <v>53.1138438350389</v>
+        <v>38.6861918123728</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>227.968617032642</v>
+        <v>277.178491329948</v>
       </c>
       <c r="C40">
-        <v>4.04030028499007</v>
+        <v>2.11712635956896</v>
       </c>
       <c r="D40">
-        <v>7.45302475192756</v>
+        <v>5.47869671443326</v>
       </c>
       <c r="E40">
-        <v>4.54880428330277</v>
+        <v>5.05607726047633</v>
       </c>
       <c r="F40">
-        <v>0.372292322528407</v>
+        <v>0.343964243396702</v>
       </c>
       <c r="G40">
-        <v>5.01847981163991</v>
+        <v>2.80630226099363</v>
       </c>
       <c r="H40">
-        <v>3.53233556545231</v>
+        <v>3.72211705251067</v>
       </c>
       <c r="I40">
-        <v>1.12227639145129</v>
+        <v>2.57509464935951</v>
       </c>
       <c r="J40">
-        <v>7.98367100027589</v>
+        <v>8.29428536801476</v>
       </c>
       <c r="K40">
-        <v>3.29873836918249</v>
+        <v>2.7883317699692</v>
       </c>
       <c r="L40">
-        <v>15.3992065576973</v>
+        <v>14.9321787776233</v>
       </c>
       <c r="M40">
-        <v>4.90004349832853</v>
+        <v>5.50110861328811</v>
       </c>
       <c r="N40">
-        <v>20.5397776748367</v>
+        <v>17.3006822427341</v>
       </c>
       <c r="O40">
-        <v>430.124429713513</v>
+        <v>397.802528210656</v>
       </c>
       <c r="P40">
-        <v>2.25197382515185</v>
+        <v>1.85747252108012</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1024.20084090684</v>
+        <v>1207.22389720198</v>
       </c>
       <c r="C41">
-        <v>12.5549763349616</v>
+        <v>7.17847008879576</v>
       </c>
       <c r="D41">
-        <v>68.9857317662224</v>
+        <v>65.7153624262958</v>
       </c>
       <c r="E41">
-        <v>31.2527975853746</v>
+        <v>24.8485148277146</v>
       </c>
       <c r="F41">
-        <v>1.80098203774296</v>
+        <v>1.30622497383847</v>
       </c>
       <c r="G41">
-        <v>23.0824835065438</v>
+        <v>23.5806444152095</v>
       </c>
       <c r="H41">
-        <v>34.7909674256338</v>
+        <v>24.6452310550957</v>
       </c>
       <c r="I41">
-        <v>25.0580520170405</v>
+        <v>21.9012062828022</v>
       </c>
       <c r="J41">
-        <v>43.2232864216933</v>
+        <v>34.8500260074151</v>
       </c>
       <c r="K41">
-        <v>13.8402074258456</v>
+        <v>2.98017804268915</v>
       </c>
       <c r="L41">
-        <v>28.9578965857454</v>
+        <v>25.6219171690658</v>
       </c>
       <c r="M41">
-        <v>23.1061010643166</v>
+        <v>19.0340063456154</v>
       </c>
       <c r="N41">
-        <v>20.8192804575006</v>
+        <v>18.7466355281964</v>
       </c>
       <c r="O41">
-        <v>1464.63273966511</v>
+        <v>1341.23777675382</v>
       </c>
       <c r="P41">
-        <v>43.4538728761635</v>
+        <v>27.274890404708</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>111.255970553861</v>
+        <v>157.592273434965</v>
       </c>
       <c r="C42">
-        <v>5.2282275407085</v>
+        <v>4.83778386741178</v>
       </c>
       <c r="D42">
-        <v>1.7591511497568</v>
+        <v>1.22809890836767</v>
       </c>
       <c r="E42">
-        <v>5.32444117085484</v>
+        <v>4.61794848725222</v>
       </c>
       <c r="F42">
-        <v>2.38360224305354</v>
+        <v>2.26902367397202</v>
       </c>
       <c r="G42">
-        <v>1.45450270926551</v>
+        <v>0.822293198096632</v>
       </c>
       <c r="H42">
-        <v>0.509783168977369</v>
+        <v>0.658595103178049</v>
       </c>
       <c r="I42">
-        <v>0.579778976625593</v>
+        <v>1.24303941419744</v>
       </c>
       <c r="J42">
-        <v>3.19897447271742</v>
+        <v>2.06672756737216</v>
       </c>
       <c r="K42">
-        <v>3.69569758443429</v>
+        <v>2.07613102891486</v>
       </c>
       <c r="L42">
-        <v>7.05733218523369</v>
+        <v>7.37229139144342</v>
       </c>
       <c r="M42">
-        <v>3.27072256487142</v>
+        <v>2.66587522443363</v>
       </c>
       <c r="N42">
-        <v>7.65332997343639</v>
+        <v>6.69470044851935</v>
       </c>
       <c r="O42">
-        <v>299.856761272126</v>
+        <v>261.524607259421</v>
       </c>
       <c r="P42">
-        <v>46.6841925140575</v>
+        <v>41.4986117010442</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1485.09742823164</v>
+        <v>1629.12023506366</v>
       </c>
       <c r="C43">
-        <v>45.9797893829329</v>
+        <v>43.6186511578614</v>
       </c>
       <c r="D43">
-        <v>33.8572516227861</v>
+        <v>28.4005006757348</v>
       </c>
       <c r="E43">
-        <v>88.8757323463995</v>
+        <v>77.43625781385281</v>
       </c>
       <c r="F43">
-        <v>6.26981225982505</v>
+        <v>7.84281572716145</v>
       </c>
       <c r="G43">
-        <v>22.014697111719</v>
+        <v>14.8602916830913</v>
       </c>
       <c r="H43">
-        <v>41.96399748807</v>
+        <v>30.2653039529915</v>
       </c>
       <c r="I43">
-        <v>27.1959269429903</v>
+        <v>18.847035760093</v>
       </c>
       <c r="J43">
-        <v>51.1034703381923</v>
+        <v>58.964683517544</v>
       </c>
       <c r="K43">
-        <v>34.1726419675263</v>
+        <v>16.5859791602303</v>
       </c>
       <c r="L43">
-        <v>47.3117645408299</v>
+        <v>60.3568139605684</v>
       </c>
       <c r="M43">
-        <v>124.986600741791</v>
+        <v>112.391322146149</v>
       </c>
       <c r="N43">
-        <v>55.2035410804947</v>
+        <v>55.5078191754465</v>
       </c>
       <c r="O43">
-        <v>2038.38346833843</v>
+        <v>1929.52036709419</v>
       </c>
       <c r="P43">
-        <v>37.3738743731887</v>
+        <v>42.1976846906454</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4741.29477240692</v>
+        <v>5539.47468479495</v>
       </c>
       <c r="C44">
-        <v>155.230201089036</v>
+        <v>141.516476251844</v>
       </c>
       <c r="D44">
-        <v>30.8955338864772</v>
+        <v>17.7836443970739</v>
       </c>
       <c r="E44">
-        <v>100.80013107608</v>
+        <v>118.152547627191</v>
       </c>
       <c r="F44">
-        <v>228.413604963874</v>
+        <v>202.078166373637</v>
       </c>
       <c r="G44">
-        <v>112.015130245413</v>
+        <v>96.61402224012269</v>
       </c>
       <c r="H44">
-        <v>43.8447571622767</v>
+        <v>39.3003198721539</v>
       </c>
       <c r="I44">
-        <v>39.7166519975796</v>
+        <v>43.2498156348993</v>
       </c>
       <c r="J44">
-        <v>99.4675385725305</v>
+        <v>90.8541827451551</v>
       </c>
       <c r="K44">
-        <v>56.848889244506</v>
+        <v>39.5313757304703</v>
       </c>
       <c r="L44">
-        <v>162.993745177784</v>
+        <v>142.442682649688</v>
       </c>
       <c r="M44">
-        <v>88.4574048929405</v>
+        <v>77.96476897359131</v>
       </c>
       <c r="N44">
-        <v>102.869992776634</v>
+        <v>102.646021790351</v>
       </c>
       <c r="O44">
-        <v>8093.82889004012</v>
+        <v>7374.44032072137</v>
       </c>
       <c r="P44">
-        <v>229.213518496784</v>
+        <v>224.924532705893</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>436.566901832521</v>
+        <v>495.191701081278</v>
       </c>
       <c r="C45">
-        <v>19.963761428865</v>
+        <v>20.7865394771119</v>
       </c>
       <c r="D45">
-        <v>2.76703770690336</v>
+        <v>1.5246597509873</v>
       </c>
       <c r="E45">
-        <v>21.8826709952349</v>
+        <v>19.3965809132121</v>
       </c>
       <c r="F45">
-        <v>22.68711035833</v>
+        <v>21.4789833100635</v>
       </c>
       <c r="G45">
-        <v>5.23478559506389</v>
+        <v>5.74772200450276</v>
       </c>
       <c r="H45">
-        <v>5.00922749284172</v>
+        <v>1.97517710955039</v>
       </c>
       <c r="I45">
-        <v>4.19361546758556</v>
+        <v>4.13977623108769</v>
       </c>
       <c r="J45">
-        <v>19.0589092633486</v>
+        <v>16.4341027450706</v>
       </c>
       <c r="K45">
-        <v>4.77291404551409</v>
+        <v>4.82768050661447</v>
       </c>
       <c r="L45">
-        <v>13.0911597799383</v>
+        <v>15.076518067476</v>
       </c>
       <c r="M45">
-        <v>17.2416017212544</v>
+        <v>14.3116181126763</v>
       </c>
       <c r="N45">
-        <v>24.047862065972</v>
+        <v>19.2996331676176</v>
       </c>
       <c r="O45">
-        <v>819.206505150475</v>
+        <v>787.624988270022</v>
       </c>
       <c r="P45">
-        <v>18.986203040479</v>
+        <v>21.3458708630027</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>110.971629263191</v>
+        <v>141.079196176302</v>
       </c>
       <c r="C46">
-        <v>3.56406322048033</v>
+        <v>2.89964621865126</v>
       </c>
       <c r="D46">
-        <v>0.7830302492640821</v>
+        <v>0.732958980236776</v>
       </c>
       <c r="E46">
-        <v>4.64329555770761</v>
+        <v>5.29509177947825</v>
       </c>
       <c r="F46">
-        <v>0.717050277042784</v>
+        <v>0.526584422175979</v>
       </c>
       <c r="G46">
-        <v>3.09515843142521</v>
+        <v>2.23629253959994</v>
       </c>
       <c r="H46">
-        <v>1.14146814797725</v>
+        <v>1.57456845306508</v>
       </c>
       <c r="I46">
-        <v>1.36200145607088</v>
+        <v>0.960809592811906</v>
       </c>
       <c r="J46">
-        <v>4.09174242868262</v>
+        <v>3.62602630600561</v>
       </c>
       <c r="K46">
-        <v>2.04553258264109</v>
+        <v>2.64456943957408</v>
       </c>
       <c r="L46">
-        <v>10.2889904937135</v>
+        <v>10.2873205649098</v>
       </c>
       <c r="M46">
-        <v>2.76552784226734</v>
+        <v>2.90863549742683</v>
       </c>
       <c r="N46">
-        <v>8.692499446065719</v>
+        <v>7.81872927800459</v>
       </c>
       <c r="O46">
-        <v>258.816220974314</v>
+        <v>231.199710274906</v>
       </c>
       <c r="P46">
-        <v>10.3609604750849</v>
+        <v>10.4181719078798</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1620.49315775067</v>
+        <v>1856.15395070692</v>
       </c>
       <c r="C47">
-        <v>50.9464527025783</v>
+        <v>54.2977570298068</v>
       </c>
       <c r="D47">
-        <v>31.4103947601796</v>
+        <v>22.0889850694566</v>
       </c>
       <c r="E47">
-        <v>62.6901674003668</v>
+        <v>61.8054583955944</v>
       </c>
       <c r="F47">
-        <v>12.5004250905512</v>
+        <v>8.31836914682488</v>
       </c>
       <c r="G47">
-        <v>20.6257699767693</v>
+        <v>18.3908145711568</v>
       </c>
       <c r="H47">
-        <v>10.8692956161179</v>
+        <v>9.73855673674823</v>
       </c>
       <c r="I47">
-        <v>3.63388780012877</v>
+        <v>3.5188891273672</v>
       </c>
       <c r="J47">
-        <v>45.5189162940652</v>
+        <v>44.8309582400021</v>
       </c>
       <c r="K47">
-        <v>13.5705358839098</v>
+        <v>4.16544537092116</v>
       </c>
       <c r="L47">
-        <v>31.4459296110365</v>
+        <v>28.3509445479279</v>
       </c>
       <c r="M47">
-        <v>75.5340112420372</v>
+        <v>75.31684230574059</v>
       </c>
       <c r="N47">
-        <v>42.7632322609951</v>
+        <v>37.14918033294</v>
       </c>
       <c r="O47">
-        <v>2889.16406318949</v>
+        <v>2660.75763780725</v>
       </c>
       <c r="P47">
-        <v>37.333388230266</v>
+        <v>41.5160888086331</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1367.89650976357</v>
+        <v>1687.09689736427</v>
       </c>
       <c r="C48">
-        <v>26.013128847086</v>
+        <v>24.9470383469072</v>
       </c>
       <c r="D48">
-        <v>5.42071131499853</v>
+        <v>11.5421395418255</v>
       </c>
       <c r="E48">
-        <v>71.3993851381051</v>
+        <v>61.2387648601191</v>
       </c>
       <c r="F48">
-        <v>5.43487261466845</v>
+        <v>4.26809560435611</v>
       </c>
       <c r="G48">
-        <v>3.35573091464607</v>
+        <v>3.07912933517377</v>
       </c>
       <c r="H48">
-        <v>3.25885108502916</v>
+        <v>8.800083329578181</v>
       </c>
       <c r="I48">
-        <v>10.3387822435598</v>
+        <v>3.87786012102578</v>
       </c>
       <c r="J48">
-        <v>38.7873644186256</v>
+        <v>31.1827678740163</v>
       </c>
       <c r="K48">
-        <v>11.1629651881531</v>
+        <v>9.623202747863751</v>
       </c>
       <c r="L48">
-        <v>48.2399921390507</v>
+        <v>40.0857048014423</v>
       </c>
       <c r="M48">
-        <v>116.331405722101</v>
+        <v>98.9922527076083</v>
       </c>
       <c r="N48">
-        <v>37.2484108722861</v>
+        <v>25.5418749796166</v>
       </c>
       <c r="O48">
-        <v>2339.98037534247</v>
+        <v>2081.07598449924</v>
       </c>
       <c r="P48">
-        <v>110.727449531324</v>
+        <v>80.54125002894121</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>629.311743346211</v>
+        <v>679.370245317491</v>
       </c>
       <c r="C49">
-        <v>6.28376269719104</v>
+        <v>6.43302631429877</v>
       </c>
       <c r="D49">
-        <v>3.86585077336005</v>
+        <v>2.18177452023876</v>
       </c>
       <c r="E49">
-        <v>21.3100971662606</v>
+        <v>21.1560474485581</v>
       </c>
       <c r="F49">
-        <v>26.5565496290839</v>
+        <v>23.2743387445807</v>
       </c>
       <c r="G49">
-        <v>12.8836714923684</v>
+        <v>12.8941407912898</v>
       </c>
       <c r="H49">
-        <v>8.034386061883881</v>
+        <v>6.48558182593704</v>
       </c>
       <c r="I49">
-        <v>4.4807171731246</v>
+        <v>4.01469795105568</v>
       </c>
       <c r="J49">
-        <v>18.9333094387412</v>
+        <v>16.5374122803599</v>
       </c>
       <c r="K49">
-        <v>3.1115072719854</v>
+        <v>1.84186248546927</v>
       </c>
       <c r="L49">
-        <v>0.729148927622618</v>
+        <v>1.58367498576307</v>
       </c>
       <c r="M49">
-        <v>6.47510241534346</v>
+        <v>4.54734725925786</v>
       </c>
       <c r="N49">
-        <v>3.72280884772971</v>
+        <v>3.89118767336786</v>
       </c>
       <c r="O49">
-        <v>586.419316995424</v>
+        <v>537.664745800871</v>
       </c>
       <c r="P49">
-        <v>6.95547206778844</v>
+        <v>7.66355635756161</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>981.916186832351</v>
+        <v>1232.29603888009</v>
       </c>
       <c r="C50">
-        <v>75.0815004700537</v>
+        <v>64.16068828114631</v>
       </c>
       <c r="D50">
-        <v>14.0094438868544</v>
+        <v>13.9407144485063</v>
       </c>
       <c r="E50">
-        <v>157.26377297673</v>
+        <v>151.604164273403</v>
       </c>
       <c r="F50">
-        <v>4.57654602862575</v>
+        <v>3.17161779953705</v>
       </c>
       <c r="G50">
-        <v>28.9585045628745</v>
+        <v>27.0485350674189</v>
       </c>
       <c r="H50">
-        <v>40.7626303504615</v>
+        <v>24.5253066735144</v>
       </c>
       <c r="I50">
-        <v>17.6979610662347</v>
+        <v>13.3325481177448</v>
       </c>
       <c r="J50">
-        <v>109.358300594324</v>
+        <v>98.2721053639409</v>
       </c>
       <c r="K50">
-        <v>71.75933359771069</v>
+        <v>43.9037460093646</v>
       </c>
       <c r="L50">
-        <v>49.3274159380346</v>
+        <v>43.9257146872475</v>
       </c>
       <c r="M50">
-        <v>33.6565393489894</v>
+        <v>42.4486742064697</v>
       </c>
       <c r="N50">
-        <v>55.5302018946147</v>
+        <v>46.4986376445983</v>
       </c>
       <c r="O50">
-        <v>2114.34535937658</v>
+        <v>1954.53187101022</v>
       </c>
       <c r="P50">
-        <v>82.82428107451361</v>
+        <v>84.6530812025824</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>97.5245794518724</v>
+        <v>119.187759245135</v>
       </c>
       <c r="C51">
-        <v>2.83050481360989</v>
+        <v>3.10217850480703</v>
       </c>
       <c r="D51">
-        <v>0.0860619619881005</v>
+        <v>0.335809319256461</v>
       </c>
       <c r="E51">
-        <v>1.37378917138365</v>
+        <v>3.75362201766514</v>
       </c>
       <c r="F51">
-        <v>24.8157829451826</v>
+        <v>24.0812979258325</v>
       </c>
       <c r="G51">
-        <v>1.63536931791549</v>
+        <v>2.03122106783048</v>
       </c>
       <c r="H51">
-        <v>0.0025613013604418</v>
+        <v>0.019043903785016</v>
       </c>
       <c r="I51">
-        <v>0.772530359265315</v>
+        <v>0.513501087137164</v>
       </c>
       <c r="J51">
-        <v>0.694065069279464</v>
+        <v>1.05029346287449</v>
       </c>
       <c r="K51">
-        <v>0.525324362615337</v>
+        <v>0.329249703127347</v>
       </c>
       <c r="L51">
-        <v>0.0908837482775411</v>
+        <v>0.201959323242823</v>
       </c>
       <c r="M51">
-        <v>0.205174343886209</v>
+        <v>0.1648421832003</v>
       </c>
       <c r="N51">
-        <v>0.928398421135764</v>
+        <v>1.00871770839089</v>
       </c>
       <c r="O51">
-        <v>200.468519068548</v>
+        <v>177.641579964291</v>
       </c>
       <c r="P51">
-        <v>19.1209819337883</v>
+        <v>15.4897275214984</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1450.68021834987</v>
+        <v>1400.53638767849</v>
       </c>
       <c r="C2">
-        <v>25.641552090656</v>
+        <v>37.5180790784607</v>
       </c>
       <c r="D2">
-        <v>37.8221196677712</v>
+        <v>64.7916840254144</v>
       </c>
       <c r="E2">
-        <v>47.4155664523813</v>
+        <v>54.6523040519734</v>
       </c>
       <c r="F2">
-        <v>21.5559831812126</v>
+        <v>14.6739127107805</v>
       </c>
       <c r="G2">
-        <v>6.70427288609697</v>
+        <v>15.5515080120048</v>
       </c>
       <c r="H2">
-        <v>18.7681538582158</v>
+        <v>16.2584632599863</v>
       </c>
       <c r="I2">
-        <v>13.8545307888034</v>
+        <v>14.277284103661</v>
       </c>
       <c r="J2">
-        <v>75.5110759793447</v>
+        <v>62.3121329990586</v>
       </c>
       <c r="K2">
-        <v>13.5368358309169</v>
+        <v>18.1131493276282</v>
       </c>
       <c r="L2">
-        <v>44.9450797424563</v>
+        <v>32.3478673155463</v>
       </c>
       <c r="M2">
-        <v>36.7513762107726</v>
+        <v>43.5870397425562</v>
       </c>
       <c r="N2">
-        <v>24.7058982423596</v>
+        <v>36.1010339498455</v>
       </c>
       <c r="O2">
-        <v>1313.61039772838</v>
+        <v>1314.58780352777</v>
       </c>
       <c r="P2">
-        <v>27.967945177549</v>
+        <v>34.8851635819183</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>123.374605955377</v>
+        <v>131.987221415705</v>
       </c>
       <c r="C3">
-        <v>3.7247839605088</v>
+        <v>3.06704925663259</v>
       </c>
       <c r="D3">
-        <v>0.285088816700532</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>2.82856645004199</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>6.83284043904588</v>
+        <v>7.49564005229976</v>
       </c>
       <c r="G3">
-        <v>0.181871504208749</v>
+        <v>0.244667363683344</v>
       </c>
       <c r="H3">
-        <v>0.190897856902935</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.8420261144583709</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.524640698755128</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.023566838723705</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.0853162008595804</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.473070454770105</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>1.64940068486563</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>222.597587853192</v>
+        <v>206.30689486324</v>
       </c>
       <c r="P3">
-        <v>8.403820874762371</v>
+        <v>6.46970811208928</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1546.03070268678</v>
+        <v>1664.46633538987</v>
       </c>
       <c r="C4">
-        <v>8.14139871497628</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>1.58683387475231</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>28.3822350899425</v>
+        <v>23.8388895446348</v>
       </c>
       <c r="F4">
-        <v>4.85144679682137</v>
+        <v>20.0304476782957</v>
       </c>
       <c r="G4">
-        <v>5.29218575709602</v>
+        <v>8.96638381647012</v>
       </c>
       <c r="H4">
-        <v>13.9715800986642</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>13.4295263823755</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>12.0401389199757</v>
+        <v>24.9707627858835</v>
       </c>
       <c r="K4">
-        <v>2.59448993495612</v>
+        <v>10.4340196750847</v>
       </c>
       <c r="L4">
-        <v>52.2680607574168</v>
+        <v>68.38804104068611</v>
       </c>
       <c r="M4">
-        <v>40.6528288493732</v>
+        <v>47.7881057138114</v>
       </c>
       <c r="N4">
-        <v>21.0392760123668</v>
+        <v>25.4266213365135</v>
       </c>
       <c r="O4">
-        <v>1973.15617206626</v>
+        <v>1813.72033518175</v>
       </c>
       <c r="P4">
-        <v>24.1826203172129</v>
+        <v>24.7447561344643</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>847.3124500263</v>
+        <v>840.900911304003</v>
       </c>
       <c r="C5">
-        <v>42.1830952574362</v>
+        <v>59.3551716009964</v>
       </c>
       <c r="D5">
-        <v>8.167602048971</v>
+        <v>11.5173139506464</v>
       </c>
       <c r="E5">
-        <v>36.5717543970338</v>
+        <v>45.5312872412716</v>
       </c>
       <c r="F5">
-        <v>6.4639029451256</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>2.31560979442009</v>
+        <v>9.964069844139139</v>
       </c>
       <c r="H5">
-        <v>10.9068952903022</v>
+        <v>15.5127069837914</v>
       </c>
       <c r="I5">
-        <v>10.8766143981147</v>
+        <v>6.67994143536038</v>
       </c>
       <c r="J5">
-        <v>28.8878631226372</v>
+        <v>30.9686892790052</v>
       </c>
       <c r="K5">
-        <v>5.96170460428112</v>
+        <v>17.4145697957503</v>
       </c>
       <c r="L5">
-        <v>17.3409234644767</v>
+        <v>19.6314477953205</v>
       </c>
       <c r="M5">
-        <v>22.3339963150101</v>
+        <v>25.1785011590574</v>
       </c>
       <c r="N5">
-        <v>20.6465444125835</v>
+        <v>21.5853239260759</v>
       </c>
       <c r="O5">
-        <v>826.164579428908</v>
+        <v>773.038639440637</v>
       </c>
       <c r="P5">
-        <v>54.6654036626057</v>
+        <v>50.1025839735484</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9433.85138225548</v>
+        <v>9783.46028445806</v>
       </c>
       <c r="C6">
-        <v>157.895307772868</v>
+        <v>189.464747879442</v>
       </c>
       <c r="D6">
-        <v>45.3367196136222</v>
+        <v>162.656396636028</v>
       </c>
       <c r="E6">
-        <v>181.522641531242</v>
+        <v>191.470782588211</v>
       </c>
       <c r="F6">
-        <v>34.615988236749</v>
+        <v>47.2848611981873</v>
       </c>
       <c r="G6">
-        <v>102.502814183828</v>
+        <v>89.0405480249226</v>
       </c>
       <c r="H6">
-        <v>48.9083979017028</v>
+        <v>55.696783896833</v>
       </c>
       <c r="I6">
-        <v>37.364423014464</v>
+        <v>48.3560778559113</v>
       </c>
       <c r="J6">
-        <v>188.051414223824</v>
+        <v>162.237562102341</v>
       </c>
       <c r="K6">
-        <v>58.030240441425</v>
+        <v>87.1178186008605</v>
       </c>
       <c r="L6">
-        <v>464.246768942552</v>
+        <v>542.3769473447001</v>
       </c>
       <c r="M6">
-        <v>247.670599703825</v>
+        <v>249.465167457156</v>
       </c>
       <c r="N6">
-        <v>213.290963963073</v>
+        <v>241.560115858386</v>
       </c>
       <c r="O6">
-        <v>11734.1154076117</v>
+        <v>11054.1938055258</v>
       </c>
       <c r="P6">
-        <v>319.64302070674</v>
+        <v>291.154178218174</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1003.81240884166</v>
+        <v>1043.02038876945</v>
       </c>
       <c r="C7">
-        <v>37.2211180627477</v>
+        <v>24.3229315996833</v>
       </c>
       <c r="D7">
-        <v>1.12955106785974</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>27.164768352674</v>
+        <v>22.2521127186562</v>
       </c>
       <c r="F7">
-        <v>10.2034694915634</v>
+        <v>23.0091405232875</v>
       </c>
       <c r="G7">
-        <v>10.3070988445462</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>4.17998818469794</v>
+        <v>6.59014767067625</v>
       </c>
       <c r="I7">
-        <v>8.062945187339849</v>
+        <v>10.6870664734349</v>
       </c>
       <c r="J7">
-        <v>13.5856991485396</v>
+        <v>20.5136066077298</v>
       </c>
       <c r="K7">
-        <v>7.86114855665376</v>
+        <v>11.3751713626532</v>
       </c>
       <c r="L7">
-        <v>45.3519657689455</v>
+        <v>63.6424945573835</v>
       </c>
       <c r="M7">
-        <v>15.1496117840569</v>
+        <v>16.6614620296731</v>
       </c>
       <c r="N7">
-        <v>28.8500751831701</v>
+        <v>24.2232168999422</v>
       </c>
       <c r="O7">
-        <v>1807.0696877587</v>
+        <v>1705.79252229878</v>
       </c>
       <c r="P7">
-        <v>22.8240198460147</v>
+        <v>51.0989352078158</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>846.845063557118</v>
+        <v>890.914742916142</v>
       </c>
       <c r="C8">
-        <v>14.7981376828314</v>
+        <v>12.2163105347928</v>
       </c>
       <c r="D8">
-        <v>3.97504592447867</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>19.9195402190997</v>
+        <v>22.6490975499148</v>
       </c>
       <c r="F8">
-        <v>2.49643783498627</v>
+        <v>1.65300834284282</v>
       </c>
       <c r="G8">
-        <v>21.6608089522227</v>
+        <v>24.4139777796939</v>
       </c>
       <c r="H8">
-        <v>12.1013265351399</v>
+        <v>7.41440699937644</v>
       </c>
       <c r="I8">
-        <v>10.8970678411194</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>31.2937450187439</v>
+        <v>43.0527975698369</v>
       </c>
       <c r="K8">
-        <v>12.0868666755684</v>
+        <v>21.3172505245489</v>
       </c>
       <c r="L8">
-        <v>44.9914464748401</v>
+        <v>43.6054069959205</v>
       </c>
       <c r="M8">
-        <v>55.1371684117741</v>
+        <v>53.8550624534514</v>
       </c>
       <c r="N8">
-        <v>19.9008178259689</v>
+        <v>24.4405792348771</v>
       </c>
       <c r="O8">
-        <v>1283.09107685044</v>
+        <v>1218.81227580845</v>
       </c>
       <c r="P8">
-        <v>8.105369018992061</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>217.912093618068</v>
+        <v>221.842235877497</v>
       </c>
       <c r="C9">
-        <v>6.23343374770817</v>
+        <v>9.170361475385951</v>
       </c>
       <c r="D9">
-        <v>1.58777865568735</v>
+        <v>2.05211143648243</v>
       </c>
       <c r="E9">
-        <v>3.59104927871284</v>
+        <v>5.0572200984804</v>
       </c>
       <c r="F9">
-        <v>1.74110367563571</v>
+        <v>1.88172981145336</v>
       </c>
       <c r="G9">
-        <v>17.2677395375602</v>
+        <v>16.5120401686837</v>
       </c>
       <c r="H9">
-        <v>5.23056757143698</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>1.29400141519813</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>5.62417267419238</v>
+        <v>3.47718882292856</v>
       </c>
       <c r="K9">
-        <v>1.29384264823496</v>
+        <v>2.0060927019809</v>
       </c>
       <c r="L9">
-        <v>3.15794684436129</v>
+        <v>2.50450716741505</v>
       </c>
       <c r="M9">
-        <v>6.68925038570693</v>
+        <v>6.45813979083739</v>
       </c>
       <c r="N9">
-        <v>4.24020724883417</v>
+        <v>4.60174999929474</v>
       </c>
       <c r="O9">
-        <v>283.249358219575</v>
+        <v>284.165777989745</v>
       </c>
       <c r="P9">
-        <v>4.07575603442034</v>
+        <v>3.7975175024398</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5361.62123388783</v>
+        <v>5537.28694969583</v>
       </c>
       <c r="C10">
-        <v>58.2687743340992</v>
+        <v>59.2331138830426</v>
       </c>
       <c r="D10">
-        <v>13.6831346631513</v>
+        <v>22.9258182487135</v>
       </c>
       <c r="E10">
-        <v>49.2682647380104</v>
+        <v>76.8840340956254</v>
       </c>
       <c r="F10">
-        <v>12.0703373014215</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>37.5989204505363</v>
+        <v>35.6791430288701</v>
       </c>
       <c r="H10">
-        <v>9.77489033947705</v>
+        <v>19.8926658939604</v>
       </c>
       <c r="I10">
-        <v>38.2258712833825</v>
+        <v>24.3276757876934</v>
       </c>
       <c r="J10">
-        <v>57.4561203741596</v>
+        <v>43.4651988415979</v>
       </c>
       <c r="K10">
-        <v>14.3980937201771</v>
+        <v>32.0710403824982</v>
       </c>
       <c r="L10">
-        <v>78.754543591051</v>
+        <v>87.10128482695249</v>
       </c>
       <c r="M10">
-        <v>71.8698346936221</v>
+        <v>79.3010566894657</v>
       </c>
       <c r="N10">
-        <v>53.42937796278</v>
+        <v>80.2616469698574</v>
       </c>
       <c r="O10">
-        <v>6235.07749775963</v>
+        <v>5991.56159999146</v>
       </c>
       <c r="P10">
-        <v>95.1157282983954</v>
+        <v>94.1051859234053</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2227.44281428703</v>
+        <v>2234.41194974962</v>
       </c>
       <c r="C11">
-        <v>51.3242200215705</v>
+        <v>84.2810074234428</v>
       </c>
       <c r="D11">
-        <v>150.404069740641</v>
+        <v>118.812278482818</v>
       </c>
       <c r="E11">
-        <v>60.6564398841616</v>
+        <v>87.61462426330959</v>
       </c>
       <c r="F11">
-        <v>4.55402518588815</v>
+        <v>12.2585757868648</v>
       </c>
       <c r="G11">
-        <v>33.848501674585</v>
+        <v>30.9187974556489</v>
       </c>
       <c r="H11">
-        <v>9.17464842777586</v>
+        <v>30.289966297858</v>
       </c>
       <c r="I11">
-        <v>11.2409818189536</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>54.9239533349162</v>
+        <v>38.9839080628143</v>
       </c>
       <c r="K11">
-        <v>11.6771664898869</v>
+        <v>35.6847193812506</v>
       </c>
       <c r="L11">
-        <v>51.8500760695255</v>
+        <v>64.5057471584043</v>
       </c>
       <c r="M11">
-        <v>28.4531978082846</v>
+        <v>71.3305029701297</v>
       </c>
       <c r="N11">
-        <v>47.8951656433666</v>
+        <v>55.2785823504331</v>
       </c>
       <c r="O11">
-        <v>2917.62894029</v>
+        <v>2784.89320890413</v>
       </c>
       <c r="P11">
-        <v>42.6856063108809</v>
+        <v>58.9772537206978</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>333.462242525832</v>
+        <v>348.697148413902</v>
       </c>
       <c r="C12">
-        <v>5.98726667874029</v>
+        <v>4.92203873967824</v>
       </c>
       <c r="D12">
-        <v>0.431968379512901</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>4.48566934316992</v>
+        <v>2.92341890635848</v>
       </c>
       <c r="F12">
-        <v>0.882427723430165</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>0.880934345867727</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.451652936808814</v>
+        <v>0.08915203263845251</v>
       </c>
       <c r="I12">
-        <v>2.08125216489532</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>2.98868432326379</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.043213045409397</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>1.00119716054284</v>
+        <v>0.24753155950496</v>
       </c>
       <c r="M12">
-        <v>2.99990508570905</v>
+        <v>3.92798411944512</v>
       </c>
       <c r="N12">
-        <v>2.07459266272678</v>
+        <v>2.25327605565252</v>
       </c>
       <c r="O12">
-        <v>469.74711188031</v>
+        <v>452.966233198328</v>
       </c>
       <c r="P12">
-        <v>12.2469978159181</v>
+        <v>14.0208217250702</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>308.821423615402</v>
+        <v>362.879400555917</v>
       </c>
       <c r="C13">
-        <v>17.3585909953052</v>
+        <v>19.455917470547</v>
       </c>
       <c r="D13">
-        <v>0.525698998394013</v>
+        <v>1.21967752553177</v>
       </c>
       <c r="E13">
-        <v>7.99133596613868</v>
+        <v>17.698905424577</v>
       </c>
       <c r="F13">
-        <v>4.0225746252583</v>
+        <v>1.79556341149092</v>
       </c>
       <c r="G13">
-        <v>2.14614760909694</v>
+        <v>5.10296837867146</v>
       </c>
       <c r="H13">
-        <v>3.97345537873537</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>2.29889241939494</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>6.85916407489434</v>
+        <v>5.22580373092508</v>
       </c>
       <c r="K13">
-        <v>3.67522218737867</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>12.4517496295302</v>
+        <v>21.5034088602805</v>
       </c>
       <c r="M13">
-        <v>2.75544155837812</v>
+        <v>2.63798214045751</v>
       </c>
       <c r="N13">
-        <v>3.74370231816726</v>
+        <v>5.97822703998485</v>
       </c>
       <c r="O13">
-        <v>464.132825310518</v>
+        <v>409.947403178331</v>
       </c>
       <c r="P13">
-        <v>47.3528609299871</v>
+        <v>38.701181956363</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3340.51833605467</v>
+        <v>3421.14818465339</v>
       </c>
       <c r="C14">
-        <v>126.848296452375</v>
+        <v>106.266658373916</v>
       </c>
       <c r="D14">
-        <v>12.2861115037655</v>
+        <v>17.8574139128877</v>
       </c>
       <c r="E14">
-        <v>80.5686861602088</v>
+        <v>133.001070580758</v>
       </c>
       <c r="F14">
-        <v>10.7432130354552</v>
+        <v>30.1531461573612</v>
       </c>
       <c r="G14">
-        <v>72.139765678405</v>
+        <v>71.1709701114528</v>
       </c>
       <c r="H14">
-        <v>39.7282837215701</v>
+        <v>62.821693326607</v>
       </c>
       <c r="I14">
-        <v>22.0244060424861</v>
+        <v>18.5858145639837</v>
       </c>
       <c r="J14">
-        <v>132.253862030753</v>
+        <v>176.578045109443</v>
       </c>
       <c r="K14">
-        <v>108.55977425421</v>
+        <v>132.473375025017</v>
       </c>
       <c r="L14">
-        <v>112.836292331851</v>
+        <v>119.566990582027</v>
       </c>
       <c r="M14">
-        <v>67.4814949134</v>
+        <v>84.3406055112425</v>
       </c>
       <c r="N14">
-        <v>83.317254705229</v>
+        <v>72.1521361944299</v>
       </c>
       <c r="O14">
-        <v>4286.9435399682</v>
+        <v>4047.46864287849</v>
       </c>
       <c r="P14">
-        <v>80.0524136265494</v>
+        <v>73.21498522654601</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1550.94812286217</v>
+        <v>1621.1502136626</v>
       </c>
       <c r="C15">
-        <v>37.2108896033659</v>
+        <v>40.0243492540514</v>
       </c>
       <c r="D15">
-        <v>14.4982111759857</v>
+        <v>12.136488404904</v>
       </c>
       <c r="E15">
-        <v>66.4117561178949</v>
+        <v>70.16140104423199</v>
       </c>
       <c r="F15">
-        <v>18.8989960952874</v>
+        <v>11.7350070428283</v>
       </c>
       <c r="G15">
-        <v>41.6217300709829</v>
+        <v>40.572870548158</v>
       </c>
       <c r="H15">
-        <v>49.5188964074542</v>
+        <v>54.3772797715529</v>
       </c>
       <c r="I15">
-        <v>18.8206326188187</v>
+        <v>18.6480118379814</v>
       </c>
       <c r="J15">
-        <v>149.701376749412</v>
+        <v>140.640591610453</v>
       </c>
       <c r="K15">
-        <v>8.994248644618979</v>
+        <v>47.0985306226506</v>
       </c>
       <c r="L15">
-        <v>37.0877966096638</v>
+        <v>58.7320149722143</v>
       </c>
       <c r="M15">
-        <v>170.257751955079</v>
+        <v>208.473600981807</v>
       </c>
       <c r="N15">
-        <v>75.83589542730491</v>
+        <v>79.4842036842675</v>
       </c>
       <c r="O15">
-        <v>1980.26769185835</v>
+        <v>1824.60996912592</v>
       </c>
       <c r="P15">
-        <v>47.9671472795207</v>
+        <v>42.2764455485474</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>655.295523920621</v>
+        <v>733.985670638014</v>
       </c>
       <c r="C16">
-        <v>61.7072561761838</v>
+        <v>58.1052562423862</v>
       </c>
       <c r="D16">
-        <v>5.42113891974532</v>
+        <v>6.48689760272808</v>
       </c>
       <c r="E16">
-        <v>34.6316048138266</v>
+        <v>25.4399683564877</v>
       </c>
       <c r="F16">
-        <v>4.12469033645652</v>
+        <v>3.37219540502357</v>
       </c>
       <c r="G16">
-        <v>17.4457451454896</v>
+        <v>10.2924565022381</v>
       </c>
       <c r="H16">
-        <v>13.497537857362</v>
+        <v>17.0474590359257</v>
       </c>
       <c r="I16">
-        <v>6.21220644671598</v>
+        <v>9.665711564890341</v>
       </c>
       <c r="J16">
-        <v>45.5051001587154</v>
+        <v>47.5314139912795</v>
       </c>
       <c r="K16">
-        <v>28.0890096562475</v>
+        <v>45.8949632606857</v>
       </c>
       <c r="L16">
-        <v>22.8446653213457</v>
+        <v>34.3742469088447</v>
       </c>
       <c r="M16">
-        <v>31.909518386515</v>
+        <v>28.0327114415311</v>
       </c>
       <c r="N16">
-        <v>21.2686410543928</v>
+        <v>15.9839451137008</v>
       </c>
       <c r="O16">
-        <v>1027.37940931253</v>
+        <v>944.60985470463</v>
       </c>
       <c r="P16">
-        <v>67.1468911286272</v>
+        <v>67.0888829352803</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>651.531682160089</v>
+        <v>676.3862624794961</v>
       </c>
       <c r="C17">
-        <v>15.0966781953128</v>
+        <v>31.1525123786611</v>
       </c>
       <c r="D17">
-        <v>3.55331244871749</v>
+        <v>4.40078566430918</v>
       </c>
       <c r="E17">
-        <v>18.1331463103163</v>
+        <v>23.7659938346424</v>
       </c>
       <c r="F17">
-        <v>9.501879967290289</v>
+        <v>16.6289982802863</v>
       </c>
       <c r="G17">
-        <v>3.95271945507495</v>
+        <v>8.63834924110262</v>
       </c>
       <c r="H17">
-        <v>4.58792597039417</v>
+        <v>13.8056303779406</v>
       </c>
       <c r="I17">
-        <v>8.36761545153564</v>
+        <v>8.84775662780986</v>
       </c>
       <c r="J17">
-        <v>12.0168781700475</v>
+        <v>17.2972578985747</v>
       </c>
       <c r="K17">
-        <v>5.87773215286162</v>
+        <v>17.9588500553802</v>
       </c>
       <c r="L17">
-        <v>9.79966987418644</v>
+        <v>9.95977557514955</v>
       </c>
       <c r="M17">
-        <v>56.7735398619129</v>
+        <v>63.2397284747335</v>
       </c>
       <c r="N17">
-        <v>14.0215320726648</v>
+        <v>14.2606710030644</v>
       </c>
       <c r="O17">
-        <v>973.527791206395</v>
+        <v>878.138693604828</v>
       </c>
       <c r="P17">
-        <v>53.347829403818</v>
+        <v>60.782573211039</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1270.81734661353</v>
+        <v>1299.1857266151</v>
       </c>
       <c r="C18">
-        <v>34.1306060034943</v>
+        <v>33.9433249978859</v>
       </c>
       <c r="D18">
-        <v>10.1014384182242</v>
+        <v>21.1032208862493</v>
       </c>
       <c r="E18">
-        <v>30.8353039272418</v>
+        <v>51.3021391668983</v>
       </c>
       <c r="F18">
-        <v>26.1979496133933</v>
+        <v>25.2121399995655</v>
       </c>
       <c r="G18">
-        <v>20.4005331888505</v>
+        <v>15.9754976015824</v>
       </c>
       <c r="H18">
-        <v>20.5425803540436</v>
+        <v>18.6300000321563</v>
       </c>
       <c r="I18">
-        <v>4.88598862520198</v>
+        <v>10.8348386317659</v>
       </c>
       <c r="J18">
-        <v>36.8414329116392</v>
+        <v>50.9975180793898</v>
       </c>
       <c r="K18">
-        <v>7.6804950871384</v>
+        <v>32.8442862507837</v>
       </c>
       <c r="L18">
-        <v>40.5899101234882</v>
+        <v>25.8720985804475</v>
       </c>
       <c r="M18">
-        <v>64.6362773356712</v>
+        <v>71.8099416672648</v>
       </c>
       <c r="N18">
-        <v>29.1519108962706</v>
+        <v>21.6590614532567</v>
       </c>
       <c r="O18">
-        <v>1249.54035817683</v>
+        <v>1175.52726429517</v>
       </c>
       <c r="P18">
-        <v>39.5880111507784</v>
+        <v>37.1128842740956</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1346.56976773633</v>
+        <v>1363.71301568746</v>
       </c>
       <c r="C19">
-        <v>30.5745371467101</v>
+        <v>20.6583854631171</v>
       </c>
       <c r="D19">
-        <v>13.0202032468903</v>
+        <v>9.822512186369529</v>
       </c>
       <c r="E19">
-        <v>44.4693005201214</v>
+        <v>34.0946645405968</v>
       </c>
       <c r="F19">
-        <v>79.0973533692684</v>
+        <v>78.1050365657308</v>
       </c>
       <c r="G19">
-        <v>34.4025535853322</v>
+        <v>39.7973241043556</v>
       </c>
       <c r="H19">
-        <v>5.74840922440874</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>1.29924662447005</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>10.6746397999052</v>
+        <v>25.3803352725006</v>
       </c>
       <c r="K19">
-        <v>10.0274935429525</v>
+        <v>11.2814632753466</v>
       </c>
       <c r="L19">
-        <v>5.54129662960872</v>
+        <v>5.83039622968898</v>
       </c>
       <c r="M19">
-        <v>23.9081168292789</v>
+        <v>26.4849020350501</v>
       </c>
       <c r="N19">
-        <v>5.11785799481706</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1424.64600482301</v>
+        <v>1384.24121387822</v>
       </c>
       <c r="P19">
-        <v>36.6243846042095</v>
+        <v>31.169347068302</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>355.706900980641</v>
+        <v>360.773576745497</v>
       </c>
       <c r="C20">
-        <v>6.47730522199498</v>
+        <v>8.65124032754332</v>
       </c>
       <c r="D20">
-        <v>6.441704705045</v>
+        <v>11.8595301445371</v>
       </c>
       <c r="E20">
-        <v>30.9341109689264</v>
+        <v>37.1460777863934</v>
       </c>
       <c r="F20">
-        <v>1.22751302863085</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.87699520593096</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>1.36738709311257</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>2.42331977238354</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>5.11886987394341</v>
+        <v>6.11143946304024</v>
       </c>
       <c r="K20">
-        <v>1.96767436764235</v>
+        <v>4.12827617392038</v>
       </c>
       <c r="L20">
-        <v>5.03182359686381</v>
+        <v>8.15633187272285</v>
       </c>
       <c r="M20">
-        <v>11.8611264492256</v>
+        <v>15.2654155248914</v>
       </c>
       <c r="N20">
-        <v>7.68203556216988</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>478.707755551519</v>
+        <v>452.361719097316</v>
       </c>
       <c r="P20">
-        <v>24.1077097721418</v>
+        <v>20.3600408021612</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1349.85714571612</v>
+        <v>1408.49460751377</v>
       </c>
       <c r="C21">
-        <v>30.8557337912939</v>
+        <v>25.0084639563874</v>
       </c>
       <c r="D21">
-        <v>4.14038436220561</v>
+        <v>11.1147297993737</v>
       </c>
       <c r="E21">
-        <v>29.7963584165309</v>
+        <v>41.9914922308946</v>
       </c>
       <c r="F21">
-        <v>4.72659797513155</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>16.6637230447926</v>
+        <v>20.9076635707244</v>
       </c>
       <c r="H21">
-        <v>5.01067062620554</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>18.0248118733329</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>28.6844317377209</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>0.165091702887355</v>
+        <v>10.264108926757</v>
       </c>
       <c r="L21">
-        <v>26.4133009103547</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>19.3559963534153</v>
+        <v>26.5750414812983</v>
       </c>
       <c r="N21">
-        <v>14.6411923355252</v>
+        <v>19.2905042012765</v>
       </c>
       <c r="O21">
-        <v>2145.60677951608</v>
+        <v>2029.88719155856</v>
       </c>
       <c r="P21">
-        <v>18.4962783914792</v>
+        <v>17.4069818413237</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1639.29010839723</v>
+        <v>1645.56525144424</v>
       </c>
       <c r="C22">
-        <v>14.9384801055316</v>
+        <v>29.0026936043417</v>
       </c>
       <c r="D22">
-        <v>15.2136872844317</v>
+        <v>25.1228154000132</v>
       </c>
       <c r="E22">
-        <v>46.0714820390602</v>
+        <v>53.5460148975614</v>
       </c>
       <c r="F22">
-        <v>5.01769585943953</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>32.0039809019343</v>
+        <v>28.4856263337751</v>
       </c>
       <c r="H22">
-        <v>7.95752744638112</v>
+        <v>17.8507185950621</v>
       </c>
       <c r="I22">
-        <v>8.33791907696668</v>
+        <v>9.24946724424403</v>
       </c>
       <c r="J22">
-        <v>45.8218638185875</v>
+        <v>48.8248153455776</v>
       </c>
       <c r="K22">
-        <v>9.35254843850066</v>
+        <v>24.7352210883521</v>
       </c>
       <c r="L22">
-        <v>113.035260997062</v>
+        <v>126.49263261053</v>
       </c>
       <c r="M22">
-        <v>13.720044480308</v>
+        <v>18.2951107174941</v>
       </c>
       <c r="N22">
-        <v>64.1193658693838</v>
+        <v>46.9448706816563</v>
       </c>
       <c r="O22">
-        <v>2393.96839916798</v>
+        <v>2325.56473496136</v>
       </c>
       <c r="P22">
-        <v>11.960820252039</v>
+        <v>12.6347793577469</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2729.39277894621</v>
+        <v>2824.24741835402</v>
       </c>
       <c r="C23">
-        <v>42.7187842298133</v>
+        <v>41.3098932584316</v>
       </c>
       <c r="D23">
-        <v>7.61989213795404</v>
+        <v>9.323749033258011</v>
       </c>
       <c r="E23">
-        <v>33.7412759028143</v>
+        <v>70.5816333267171</v>
       </c>
       <c r="F23">
-        <v>14.7825272066942</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>72.61836206451871</v>
+        <v>46.4371835969436</v>
       </c>
       <c r="H23">
-        <v>43.2384088333556</v>
+        <v>65.54440474664</v>
       </c>
       <c r="I23">
-        <v>11.6169872205962</v>
+        <v>15.2819677537014</v>
       </c>
       <c r="J23">
-        <v>108.583082946936</v>
+        <v>144.777492210505</v>
       </c>
       <c r="K23">
-        <v>80.25270972822091</v>
+        <v>91.9954282877828</v>
       </c>
       <c r="L23">
-        <v>36.2034405769816</v>
+        <v>44.0969142841979</v>
       </c>
       <c r="M23">
-        <v>514.156062343728</v>
+        <v>480.135357625171</v>
       </c>
       <c r="N23">
-        <v>93.88416153398229</v>
+        <v>73.3174864340951</v>
       </c>
       <c r="O23">
-        <v>3126.65224227326</v>
+        <v>2992.72968019238</v>
       </c>
       <c r="P23">
-        <v>49.4057795623589</v>
+        <v>49.2877805081108</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1045.28517468288</v>
+        <v>1146.21219817837</v>
       </c>
       <c r="C24">
-        <v>60.2338150622778</v>
+        <v>67.2727260804391</v>
       </c>
       <c r="D24">
-        <v>4.42510534960161</v>
+        <v>5.54091891577594</v>
       </c>
       <c r="E24">
-        <v>68.029522702618</v>
+        <v>79.29103387496259</v>
       </c>
       <c r="F24">
-        <v>14.9402722942321</v>
+        <v>11.7494477685482</v>
       </c>
       <c r="G24">
-        <v>25.8294735491749</v>
+        <v>16.1824268564465</v>
       </c>
       <c r="H24">
-        <v>13.5640704891235</v>
+        <v>18.9892447292065</v>
       </c>
       <c r="I24">
-        <v>16.1128641451791</v>
+        <v>14.396079989396</v>
       </c>
       <c r="J24">
-        <v>50.9468217669777</v>
+        <v>63.2298992987586</v>
       </c>
       <c r="K24">
-        <v>21.2913811541055</v>
+        <v>46.7650521583401</v>
       </c>
       <c r="L24">
-        <v>64.3381866141066</v>
+        <v>71.8775844464717</v>
       </c>
       <c r="M24">
-        <v>34.8169072975434</v>
+        <v>31.8600931997989</v>
       </c>
       <c r="N24">
-        <v>60.3101210470139</v>
+        <v>52.9767942061946</v>
       </c>
       <c r="O24">
-        <v>1890.69736164083</v>
+        <v>1744.0864894529</v>
       </c>
       <c r="P24">
-        <v>96.6463290473088</v>
+        <v>99.0781697982037</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>865.65501970326</v>
+        <v>885.639576060088</v>
       </c>
       <c r="C25">
-        <v>36.1397124198244</v>
+        <v>27.4435168980776</v>
       </c>
       <c r="D25">
-        <v>8.58611563046113</v>
+        <v>18.7602504978323</v>
       </c>
       <c r="E25">
-        <v>34.147612913083</v>
+        <v>34.74037184108</v>
       </c>
       <c r="F25">
-        <v>13.1072700147698</v>
+        <v>7.56093634387682</v>
       </c>
       <c r="G25">
-        <v>7.41435916720816</v>
+        <v>9.86024289842852</v>
       </c>
       <c r="H25">
-        <v>8.07523456878131</v>
+        <v>12.008387502338</v>
       </c>
       <c r="I25">
-        <v>4.59564305722571</v>
+        <v>5.97238834420366</v>
       </c>
       <c r="J25">
-        <v>15.7785277267744</v>
+        <v>17.0599308000624</v>
       </c>
       <c r="K25">
-        <v>6.28783513582388</v>
+        <v>15.1934397219421</v>
       </c>
       <c r="L25">
-        <v>15.6607117344924</v>
+        <v>22.0594957073131</v>
       </c>
       <c r="M25">
-        <v>33.04155115086</v>
+        <v>25.9658310478032</v>
       </c>
       <c r="N25">
-        <v>39.6713808084425</v>
+        <v>51.6792348210007</v>
       </c>
       <c r="O25">
-        <v>810.380400974908</v>
+        <v>775.611980419674</v>
       </c>
       <c r="P25">
-        <v>33.9783875425246</v>
+        <v>31.9416433333284</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1396.80711668198</v>
+        <v>1562.33544567402</v>
       </c>
       <c r="C26">
-        <v>61.9574248192111</v>
+        <v>60.1967772497188</v>
       </c>
       <c r="D26">
-        <v>17.4571115311546</v>
+        <v>22.7016898283933</v>
       </c>
       <c r="E26">
-        <v>43.1745400785023</v>
+        <v>60.209352211676</v>
       </c>
       <c r="F26">
-        <v>10.3230041812213</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>36.5755169239516</v>
+        <v>24.7664523074145</v>
       </c>
       <c r="H26">
-        <v>21.4521787435137</v>
+        <v>21.2400072475378</v>
       </c>
       <c r="I26">
-        <v>14.048348103363</v>
+        <v>15.2332526870355</v>
       </c>
       <c r="J26">
-        <v>29.5243542649149</v>
+        <v>64.6702286845598</v>
       </c>
       <c r="K26">
-        <v>8.76841417478407</v>
+        <v>35.9088875290032</v>
       </c>
       <c r="L26">
-        <v>24.219977342123</v>
+        <v>41.9717570904303</v>
       </c>
       <c r="M26">
-        <v>87.2332897932437</v>
+        <v>73.5057662646329</v>
       </c>
       <c r="N26">
-        <v>12.1278591400716</v>
+        <v>43.5012585574054</v>
       </c>
       <c r="O26">
-        <v>2112.87564927677</v>
+        <v>1840.01733112243</v>
       </c>
       <c r="P26">
-        <v>64.5989404072572</v>
+        <v>69.6805512926578</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>249.259114201767</v>
+        <v>253.929256953469</v>
       </c>
       <c r="C27">
-        <v>3.55071846522026</v>
+        <v>3.01444849709317</v>
       </c>
       <c r="D27">
-        <v>1.64100080672689</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>9.395735081981339</v>
+        <v>9.151139695956729</v>
       </c>
       <c r="F27">
-        <v>3.41042961860592</v>
+        <v>5.6265761324184</v>
       </c>
       <c r="G27">
-        <v>1.40938929883387</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.142080865915157</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.26891244368607</v>
+        <v>1.36810288599881</v>
       </c>
       <c r="J27">
-        <v>3.23714715822419</v>
+        <v>3.06546670642907</v>
       </c>
       <c r="K27">
-        <v>0.565140537760457</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>1.45342073442981</v>
+        <v>1.6545239115909</v>
       </c>
       <c r="M27">
-        <v>0.242376682031459</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>3.29435944194268</v>
+        <v>3.97301301380934</v>
       </c>
       <c r="O27">
-        <v>319.607232164061</v>
+        <v>316.402814318436</v>
       </c>
       <c r="P27">
-        <v>42.6948976532583</v>
+        <v>37.4653775617484</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>374.537927146441</v>
+        <v>406.084338928302</v>
       </c>
       <c r="C28">
-        <v>33.7809925825694</v>
+        <v>34.1575731720154</v>
       </c>
       <c r="D28">
-        <v>4.77008103370545</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>2.93272454425659</v>
+        <v>9.70938150085197</v>
       </c>
       <c r="F28">
-        <v>2.92709095973573</v>
+        <v>1.98081337823618</v>
       </c>
       <c r="G28">
-        <v>4.41278132331944</v>
+        <v>4.63737465771237</v>
       </c>
       <c r="H28">
-        <v>7.32946633768619</v>
+        <v>6.51684669582733</v>
       </c>
       <c r="I28">
-        <v>0.689263731647579</v>
+        <v>3.77059457374088</v>
       </c>
       <c r="J28">
-        <v>18.5961289669856</v>
+        <v>12.4010039991297</v>
       </c>
       <c r="K28">
-        <v>11.9552442487542</v>
+        <v>15.455282964957</v>
       </c>
       <c r="L28">
-        <v>13.6114936425765</v>
+        <v>12.0607204745176</v>
       </c>
       <c r="M28">
-        <v>8.283438833422739</v>
+        <v>10.8685354520637</v>
       </c>
       <c r="N28">
-        <v>7.1315609094074</v>
+        <v>10.1963504356135</v>
       </c>
       <c r="O28">
-        <v>646.190921728633</v>
+        <v>594.963608247967</v>
       </c>
       <c r="P28">
-        <v>68.5922935979175</v>
+        <v>78.61249661852121</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>548.341779044649</v>
+        <v>583.314612511416</v>
       </c>
       <c r="C29">
-        <v>3.91826863613475</v>
+        <v>5.11782323214008</v>
       </c>
       <c r="D29">
-        <v>3.55558458765439</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>4.7486490525318</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>20.9817536659849</v>
+        <v>16.5359962790931</v>
       </c>
       <c r="G29">
-        <v>2.5178765781235</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>2.79991469703213</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>1.47101663051654</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>4.37604316714307</v>
+        <v>7.4563832285231</v>
       </c>
       <c r="K29">
-        <v>0.93679636903425</v>
+        <v>2.2664471703045</v>
       </c>
       <c r="L29">
-        <v>2.95358570029312</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>2.085483556552</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>13.993382907212</v>
+        <v>9.232591739390029</v>
       </c>
       <c r="O29">
-        <v>854.590592434383</v>
+        <v>829.2969400744699</v>
       </c>
       <c r="P29">
-        <v>7.46411164009995</v>
+        <v>6.45324472956028</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>297.119393759558</v>
+        <v>290.318821045162</v>
       </c>
       <c r="C30">
-        <v>3.30765123177308</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>5.31158279197071</v>
+        <v>5.51159169203272</v>
       </c>
       <c r="E30">
-        <v>14.6362827487655</v>
+        <v>15.4574572721962</v>
       </c>
       <c r="F30">
-        <v>0.238504649555089</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>5.66790498271697</v>
+        <v>3.49364876856401</v>
       </c>
       <c r="H30">
-        <v>4.42008246919404</v>
+        <v>4.74916687280408</v>
       </c>
       <c r="I30">
-        <v>1.86138382948909</v>
+        <v>2.74130952183063</v>
       </c>
       <c r="J30">
-        <v>14.3178311596934</v>
+        <v>20.9571563920741</v>
       </c>
       <c r="K30">
-        <v>4.82222622716505</v>
+        <v>8.03998872440982</v>
       </c>
       <c r="L30">
-        <v>31.3066093414978</v>
+        <v>29.3980265463357</v>
       </c>
       <c r="M30">
-        <v>10.6842596608408</v>
+        <v>7.00706583520233</v>
       </c>
       <c r="N30">
-        <v>9.49220088099068</v>
+        <v>12.5940125638166</v>
       </c>
       <c r="O30">
-        <v>464.081358300133</v>
+        <v>462.135572770741</v>
       </c>
       <c r="P30">
-        <v>8.3535800373428</v>
+        <v>4.86255642173042</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2331.96310253242</v>
+        <v>2458.61440726363</v>
       </c>
       <c r="C31">
-        <v>52.2466364903016</v>
+        <v>39.0052239107069</v>
       </c>
       <c r="D31">
-        <v>7.28641853515411</v>
+        <v>29.4971866418493</v>
       </c>
       <c r="E31">
-        <v>46.512743781239</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>7.93558811397123</v>
+        <v>9.59071043699279</v>
       </c>
       <c r="G31">
-        <v>104.4958587678</v>
+        <v>117.055500137654</v>
       </c>
       <c r="H31">
-        <v>9.45270674765217</v>
+        <v>23.6003616099668</v>
       </c>
       <c r="I31">
-        <v>23.3843301819945</v>
+        <v>19.2687823489916</v>
       </c>
       <c r="J31">
-        <v>38.7606843375521</v>
+        <v>42.2754708551331</v>
       </c>
       <c r="K31">
-        <v>5.87946547199457</v>
+        <v>21.542799976288</v>
       </c>
       <c r="L31">
-        <v>62.0689253165376</v>
+        <v>74.5036459911305</v>
       </c>
       <c r="M31">
-        <v>20.1922772411169</v>
+        <v>22.7872772493905</v>
       </c>
       <c r="N31">
-        <v>36.1007746395078</v>
+        <v>49.9794067734318</v>
       </c>
       <c r="O31">
-        <v>3164.66101012179</v>
+        <v>2928.20707245625</v>
       </c>
       <c r="P31">
-        <v>6.07553348965301</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>528.830766924625</v>
+        <v>566.385364694628</v>
       </c>
       <c r="C32">
-        <v>4.65983220153214</v>
+        <v>6.217262030872</v>
       </c>
       <c r="D32">
-        <v>0.931891043922374</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>5.25354855890715</v>
+        <v>5.53011629199474</v>
       </c>
       <c r="F32">
-        <v>20.4020368871555</v>
+        <v>21.4446193940431</v>
       </c>
       <c r="G32">
-        <v>1.38657454410163</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>2.24621081090705</v>
+        <v>0.55936377796707</v>
       </c>
       <c r="I32">
-        <v>2.45445440359852</v>
+        <v>3.40185646791486</v>
       </c>
       <c r="J32">
-        <v>4.77675176962425</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>0.522614089211722</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>17.7467209114579</v>
+        <v>13.9461353028716</v>
       </c>
       <c r="M32">
-        <v>0.853421541712534</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>6.06027616290911</v>
+        <v>8.0049091615245</v>
       </c>
       <c r="O32">
-        <v>646.3729569564661</v>
+        <v>605.239024881294</v>
       </c>
       <c r="P32">
-        <v>19.694757645971</v>
+        <v>20.9999448616577</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5603.57100116111</v>
+        <v>5670.90127347638</v>
       </c>
       <c r="C33">
-        <v>75.27513116453631</v>
+        <v>82.9631087646051</v>
       </c>
       <c r="D33">
-        <v>44.660443711297</v>
+        <v>91.3088811668411</v>
       </c>
       <c r="E33">
-        <v>90.2152506433541</v>
+        <v>112.913620510791</v>
       </c>
       <c r="F33">
-        <v>8.669277903136029</v>
+        <v>9.37024158414847</v>
       </c>
       <c r="G33">
-        <v>82.13843222998411</v>
+        <v>70.4279416342771</v>
       </c>
       <c r="H33">
-        <v>35.7864335753847</v>
+        <v>31.147210400275</v>
       </c>
       <c r="I33">
-        <v>24.6713615680891</v>
+        <v>28.7087840683154</v>
       </c>
       <c r="J33">
-        <v>93.6129386328618</v>
+        <v>96.3909255143632</v>
       </c>
       <c r="K33">
-        <v>56.2267270586098</v>
+        <v>105.100281778246</v>
       </c>
       <c r="L33">
-        <v>113.811029197825</v>
+        <v>117.657134485752</v>
       </c>
       <c r="M33">
-        <v>62.2681225913646</v>
+        <v>70.76515441296161</v>
       </c>
       <c r="N33">
-        <v>100.62140130022</v>
+        <v>102.189779939438</v>
       </c>
       <c r="O33">
-        <v>6677.432219231</v>
+        <v>6429.3474450997</v>
       </c>
       <c r="P33">
-        <v>63.3233925765238</v>
+        <v>78.024186479823</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2291.6128563574</v>
+        <v>2252.98536292141</v>
       </c>
       <c r="C34">
-        <v>68.8923382337405</v>
+        <v>59.3418697098242</v>
       </c>
       <c r="D34">
-        <v>129.586461721603</v>
+        <v>182.257262040843</v>
       </c>
       <c r="E34">
-        <v>47.502077834777</v>
+        <v>82.2737162782847</v>
       </c>
       <c r="F34">
-        <v>2.98992985433505</v>
+        <v>6.67895516984937</v>
       </c>
       <c r="G34">
-        <v>37.2734672371204</v>
+        <v>52.680349894261</v>
       </c>
       <c r="H34">
-        <v>43.1838083323076</v>
+        <v>36.013410593301</v>
       </c>
       <c r="I34">
-        <v>15.0915636756929</v>
+        <v>19.6452059605821</v>
       </c>
       <c r="J34">
-        <v>43.2671935673034</v>
+        <v>59.6071553738118</v>
       </c>
       <c r="K34">
-        <v>15.7973789616895</v>
+        <v>33.6735375538986</v>
       </c>
       <c r="L34">
-        <v>79.1992442188748</v>
+        <v>85.905909611404</v>
       </c>
       <c r="M34">
-        <v>23.8719640363345</v>
+        <v>45.3988004640419</v>
       </c>
       <c r="N34">
-        <v>104.577091994134</v>
+        <v>125.405618966058</v>
       </c>
       <c r="O34">
-        <v>2775.19232047902</v>
+        <v>2633.01685353567</v>
       </c>
       <c r="P34">
-        <v>69.592060492771</v>
+        <v>52.5479071286388</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>153.607571617096</v>
+        <v>164.488530951373</v>
       </c>
       <c r="C35">
-        <v>7.27494869225564</v>
+        <v>6.36231967267556</v>
       </c>
       <c r="D35">
-        <v>0.543381453027733</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>0.789315314576675</v>
+        <v>2.08855886688422</v>
       </c>
       <c r="F35">
-        <v>3.05991098611665</v>
+        <v>5.68317846540996</v>
       </c>
       <c r="G35">
-        <v>1.82476332549964</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.463871547339897</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>0.851877800119363</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>2.45430568222136</v>
+        <v>2.38391571673098</v>
       </c>
       <c r="K35">
-        <v>3.74615740167743</v>
+        <v>5.31309680714413</v>
       </c>
       <c r="L35">
-        <v>2.29979812134972</v>
+        <v>1.85938481523197</v>
       </c>
       <c r="M35">
-        <v>0.788641596380787</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>2.82924675012239</v>
+        <v>2.14941744834492</v>
       </c>
       <c r="O35">
-        <v>226.339814472705</v>
+        <v>216.651189684809</v>
       </c>
       <c r="P35">
-        <v>38.6493131004614</v>
+        <v>37.1468433860035</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3053.71921904458</v>
+        <v>3168.18246040623</v>
       </c>
       <c r="C36">
-        <v>37.9669086143102</v>
+        <v>72.6193667884241</v>
       </c>
       <c r="D36">
-        <v>20.0636345384238</v>
+        <v>20.5817309012614</v>
       </c>
       <c r="E36">
-        <v>121.342191082676</v>
+        <v>119.938271011361</v>
       </c>
       <c r="F36">
-        <v>27.841279484205</v>
+        <v>19.189648307632</v>
       </c>
       <c r="G36">
-        <v>87.5597930584387</v>
+        <v>73.3069704758518</v>
       </c>
       <c r="H36">
-        <v>83.81171740187359</v>
+        <v>103.307965840942</v>
       </c>
       <c r="I36">
-        <v>42.1119797690529</v>
+        <v>44.5457026112156</v>
       </c>
       <c r="J36">
-        <v>185.903301981315</v>
+        <v>247.00302276578</v>
       </c>
       <c r="K36">
-        <v>51.5951546619394</v>
+        <v>117.650199404278</v>
       </c>
       <c r="L36">
-        <v>65.7076497255033</v>
+        <v>86.2748934856459</v>
       </c>
       <c r="M36">
-        <v>218.724131316246</v>
+        <v>233.524365362975</v>
       </c>
       <c r="N36">
-        <v>101.550308580521</v>
+        <v>85.47828331988509</v>
       </c>
       <c r="O36">
-        <v>3858.06144436083</v>
+        <v>3566.18998613665</v>
       </c>
       <c r="P36">
-        <v>45.1556621549045</v>
+        <v>47.315807205227</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>978.985008737557</v>
+        <v>1025.81021677378</v>
       </c>
       <c r="C37">
-        <v>17.9886982608778</v>
+        <v>25.6668099671704</v>
       </c>
       <c r="D37">
-        <v>6.21744833961127</v>
+        <v>8.25304535995118</v>
       </c>
       <c r="E37">
-        <v>22.6760446484222</v>
+        <v>17.3010235656517</v>
       </c>
       <c r="F37">
-        <v>30.4091368379658</v>
+        <v>41.9561521335555</v>
       </c>
       <c r="G37">
-        <v>7.29293885185844</v>
+        <v>7.08053010914616</v>
       </c>
       <c r="H37">
-        <v>17.7737024072976</v>
+        <v>15.685144255637</v>
       </c>
       <c r="I37">
-        <v>7.68740112284803</v>
+        <v>10.0332364641744</v>
       </c>
       <c r="J37">
-        <v>49.0476954843259</v>
+        <v>33.3338700843812</v>
       </c>
       <c r="K37">
-        <v>20.1185014479593</v>
+        <v>27.7697219908047</v>
       </c>
       <c r="L37">
-        <v>15.033166967886</v>
+        <v>20.7252681881694</v>
       </c>
       <c r="M37">
-        <v>29.3953037194855</v>
+        <v>32.8313643184854</v>
       </c>
       <c r="N37">
-        <v>28.3883831699869</v>
+        <v>14.5911725119611</v>
       </c>
       <c r="O37">
-        <v>1117.57267951229</v>
+        <v>1092.4612993916</v>
       </c>
       <c r="P37">
-        <v>59.1515867408833</v>
+        <v>37.2815220447737</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1022.05650935354</v>
+        <v>1017.25461963077</v>
       </c>
       <c r="C38">
-        <v>22.2536774835166</v>
+        <v>19.1549360726387</v>
       </c>
       <c r="D38">
-        <v>8.802364310846119</v>
+        <v>8.61029186746528</v>
       </c>
       <c r="E38">
-        <v>41.8122673536253</v>
+        <v>73.1009711333849</v>
       </c>
       <c r="F38">
-        <v>2.70825369864648</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>5.46339143774664</v>
+        <v>5.40272113600374</v>
       </c>
       <c r="H38">
-        <v>5.03464021626915</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>3.25287683833961</v>
+        <v>6.39864069224959</v>
       </c>
       <c r="J38">
-        <v>37.3487131257804</v>
+        <v>28.2670180123969</v>
       </c>
       <c r="K38">
-        <v>0.75849814825798</v>
+        <v>12.5472430937636</v>
       </c>
       <c r="L38">
-        <v>57.1983492920589</v>
+        <v>63.5841310008354</v>
       </c>
       <c r="M38">
-        <v>16.2384014006296</v>
+        <v>19.6113440240113</v>
       </c>
       <c r="N38">
-        <v>23.8927866902775</v>
+        <v>23.3032909969461</v>
       </c>
       <c r="O38">
-        <v>1223.01541854589</v>
+        <v>1171.67507055215</v>
       </c>
       <c r="P38">
-        <v>59.5497114535266</v>
+        <v>59.6636230305927</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3640.46091329391</v>
+        <v>3728.35356513055</v>
       </c>
       <c r="C39">
-        <v>72.72254834123579</v>
+        <v>89.9351222847786</v>
       </c>
       <c r="D39">
-        <v>28.7326382794295</v>
+        <v>58.8330992860112</v>
       </c>
       <c r="E39">
-        <v>126.408673987059</v>
+        <v>137.198611588082</v>
       </c>
       <c r="F39">
-        <v>17.0097845768655</v>
+        <v>37.7007938906909</v>
       </c>
       <c r="G39">
-        <v>96.47732956378751</v>
+        <v>92.4871019962759</v>
       </c>
       <c r="H39">
-        <v>52.7509671188872</v>
+        <v>53.1103597006257</v>
       </c>
       <c r="I39">
-        <v>41.2313085709519</v>
+        <v>50.463172353242</v>
       </c>
       <c r="J39">
-        <v>158.842444418369</v>
+        <v>221.87217112374</v>
       </c>
       <c r="K39">
-        <v>42.3298280727773</v>
+        <v>72.81299162327881</v>
       </c>
       <c r="L39">
-        <v>83.7916730714506</v>
+        <v>102.001777468952</v>
       </c>
       <c r="M39">
-        <v>58.6033540926141</v>
+        <v>64.1111976798345</v>
       </c>
       <c r="N39">
-        <v>108.372542656243</v>
+        <v>92.3831344358079</v>
       </c>
       <c r="O39">
-        <v>4186.81071508499</v>
+        <v>3887.59531986572</v>
       </c>
       <c r="P39">
-        <v>38.6861918123728</v>
+        <v>73.9883185055091</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>277.178491329948</v>
+        <v>297.525474469755</v>
       </c>
       <c r="C40">
-        <v>2.11712635956896</v>
+        <v>3.60215969273655</v>
       </c>
       <c r="D40">
-        <v>5.47869671443326</v>
+        <v>7.50846903296629</v>
       </c>
       <c r="E40">
-        <v>5.05607726047633</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>0.343964243396702</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>2.80630226099363</v>
+        <v>3.43711765411222</v>
       </c>
       <c r="H40">
-        <v>3.72211705251067</v>
+        <v>4.0410433689492</v>
       </c>
       <c r="I40">
-        <v>2.57509464935951</v>
+        <v>1.02998476039037</v>
       </c>
       <c r="J40">
-        <v>8.29428536801476</v>
+        <v>12.3244038605248</v>
       </c>
       <c r="K40">
-        <v>2.7883317699692</v>
+        <v>3.72506614298094</v>
       </c>
       <c r="L40">
-        <v>14.9321787776233</v>
+        <v>12.1268185336677</v>
       </c>
       <c r="M40">
-        <v>5.50110861328811</v>
+        <v>5.13066634161254</v>
       </c>
       <c r="N40">
-        <v>17.3006822427341</v>
+        <v>19.9065107474256</v>
       </c>
       <c r="O40">
-        <v>397.802528210656</v>
+        <v>352.677217811341</v>
       </c>
       <c r="P40">
-        <v>1.85747252108012</v>
+        <v>2.36794764256903</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1207.22389720198</v>
+        <v>1202.88179023351</v>
       </c>
       <c r="C41">
-        <v>7.17847008879576</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>65.7153624262958</v>
+        <v>89.3296897838153</v>
       </c>
       <c r="E41">
-        <v>24.8485148277146</v>
+        <v>41.668359442022</v>
       </c>
       <c r="F41">
-        <v>1.30622497383847</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>23.5806444152095</v>
+        <v>23.168893164274</v>
       </c>
       <c r="H41">
-        <v>24.6452310550957</v>
+        <v>32.4491067167636</v>
       </c>
       <c r="I41">
-        <v>21.9012062828022</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>34.8500260074151</v>
+        <v>36.2472701218755</v>
       </c>
       <c r="K41">
-        <v>2.98017804268915</v>
+        <v>24.9096126312099</v>
       </c>
       <c r="L41">
-        <v>25.6219171690658</v>
+        <v>27.3295759548912</v>
       </c>
       <c r="M41">
-        <v>19.0340063456154</v>
+        <v>37.6912551110008</v>
       </c>
       <c r="N41">
-        <v>18.7466355281964</v>
+        <v>20.4570024308971</v>
       </c>
       <c r="O41">
-        <v>1341.23777675382</v>
+        <v>1267.66732731221</v>
       </c>
       <c r="P41">
-        <v>27.274890404708</v>
+        <v>20.8691688205168</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>157.592273434965</v>
+        <v>179.044293811979</v>
       </c>
       <c r="C42">
-        <v>4.83778386741178</v>
+        <v>5.9216606224096</v>
       </c>
       <c r="D42">
-        <v>1.22809890836767</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>4.61794848725222</v>
+        <v>5.22521915616051</v>
       </c>
       <c r="F42">
-        <v>2.26902367397202</v>
+        <v>1.77465055527572</v>
       </c>
       <c r="G42">
-        <v>0.822293198096632</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>0.658595103178049</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>1.24303941419744</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>2.06672756737216</v>
+        <v>4.22441508644282</v>
       </c>
       <c r="K42">
-        <v>2.07613102891486</v>
+        <v>5.32247392923723</v>
       </c>
       <c r="L42">
-        <v>7.37229139144342</v>
+        <v>7.14435431375454</v>
       </c>
       <c r="M42">
-        <v>2.66587522443363</v>
+        <v>2.95059603503272</v>
       </c>
       <c r="N42">
-        <v>6.69470044851935</v>
+        <v>6.16723503293198</v>
       </c>
       <c r="O42">
-        <v>261.524607259421</v>
+        <v>241.675663876061</v>
       </c>
       <c r="P42">
-        <v>41.4986117010442</v>
+        <v>39.6057285371916</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1629.12023506366</v>
+        <v>1661.18540415457</v>
       </c>
       <c r="C43">
-        <v>43.6186511578614</v>
+        <v>45.7103728876248</v>
       </c>
       <c r="D43">
-        <v>28.4005006757348</v>
+        <v>42.9354032583136</v>
       </c>
       <c r="E43">
-        <v>77.43625781385281</v>
+        <v>68.5994162339889</v>
       </c>
       <c r="F43">
-        <v>7.84281572716145</v>
+        <v>7.30116797929785</v>
       </c>
       <c r="G43">
-        <v>14.8602916830913</v>
+        <v>29.2432598748527</v>
       </c>
       <c r="H43">
-        <v>30.2653039529915</v>
+        <v>33.899351675859</v>
       </c>
       <c r="I43">
-        <v>18.847035760093</v>
+        <v>15.7706291511623</v>
       </c>
       <c r="J43">
-        <v>58.964683517544</v>
+        <v>68.74045465569461</v>
       </c>
       <c r="K43">
-        <v>16.5859791602303</v>
+        <v>47.5149391999655</v>
       </c>
       <c r="L43">
-        <v>60.3568139605684</v>
+        <v>52.5586754678124</v>
       </c>
       <c r="M43">
-        <v>112.391322146149</v>
+        <v>113.734524333115</v>
       </c>
       <c r="N43">
-        <v>55.5078191754465</v>
+        <v>59.439201416788</v>
       </c>
       <c r="O43">
-        <v>1929.52036709419</v>
+        <v>1855.64669387495</v>
       </c>
       <c r="P43">
-        <v>42.1976846906454</v>
+        <v>27.8348146369279</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5539.47468479495</v>
+        <v>5838.62735693225</v>
       </c>
       <c r="C44">
-        <v>141.516476251844</v>
+        <v>105.815963162387</v>
       </c>
       <c r="D44">
-        <v>17.7836443970739</v>
+        <v>35.7358714374802</v>
       </c>
       <c r="E44">
-        <v>118.152547627191</v>
+        <v>104.438006855151</v>
       </c>
       <c r="F44">
-        <v>202.078166373637</v>
+        <v>224.725427615106</v>
       </c>
       <c r="G44">
-        <v>96.61402224012269</v>
+        <v>109.689100601906</v>
       </c>
       <c r="H44">
-        <v>39.3003198721539</v>
+        <v>60.01638276521</v>
       </c>
       <c r="I44">
-        <v>43.2498156348993</v>
+        <v>43.5009625835165</v>
       </c>
       <c r="J44">
-        <v>90.8541827451551</v>
+        <v>154.236700156349</v>
       </c>
       <c r="K44">
-        <v>39.5313757304703</v>
+        <v>87.66345775593901</v>
       </c>
       <c r="L44">
-        <v>142.442682649688</v>
+        <v>205.515466129889</v>
       </c>
       <c r="M44">
-        <v>77.96476897359131</v>
+        <v>115.024547089061</v>
       </c>
       <c r="N44">
-        <v>102.646021790351</v>
+        <v>91.643223426056</v>
       </c>
       <c r="O44">
-        <v>7374.44032072137</v>
+        <v>6985.62535242582</v>
       </c>
       <c r="P44">
-        <v>224.924532705893</v>
+        <v>135.904162057513</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>495.191701081278</v>
+        <v>536.9258931134031</v>
       </c>
       <c r="C45">
-        <v>20.7865394771119</v>
+        <v>14.1730316909815</v>
       </c>
       <c r="D45">
-        <v>1.5246597509873</v>
+        <v>3.13188918275531</v>
       </c>
       <c r="E45">
-        <v>19.3965809132121</v>
+        <v>16.2847608291121</v>
       </c>
       <c r="F45">
-        <v>21.4789833100635</v>
+        <v>14.6400979692686</v>
       </c>
       <c r="G45">
-        <v>5.74772200450276</v>
+        <v>9.15245831491502</v>
       </c>
       <c r="H45">
-        <v>1.97517710955039</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>4.13977623108769</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>16.4341027450706</v>
+        <v>19.3288273137885</v>
       </c>
       <c r="K45">
-        <v>4.82768050661447</v>
+        <v>5.88369143158459</v>
       </c>
       <c r="L45">
-        <v>15.076518067476</v>
+        <v>16.1959482775663</v>
       </c>
       <c r="M45">
-        <v>14.3116181126763</v>
+        <v>23.5752205284314</v>
       </c>
       <c r="N45">
-        <v>19.2996331676176</v>
+        <v>30.3581719421278</v>
       </c>
       <c r="O45">
-        <v>787.624988270022</v>
+        <v>762.2125135996851</v>
       </c>
       <c r="P45">
-        <v>21.3458708630027</v>
+        <v>9.30736745578696</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>141.079196176302</v>
+        <v>146.529173935653</v>
       </c>
       <c r="C46">
-        <v>2.89964621865126</v>
+        <v>3.98179908720255</v>
       </c>
       <c r="D46">
-        <v>0.732958980236776</v>
+        <v>2.05945982938654</v>
       </c>
       <c r="E46">
-        <v>5.29509177947825</v>
+        <v>8.025431624641151</v>
       </c>
       <c r="F46">
-        <v>0.526584422175979</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>2.23629253959994</v>
+        <v>1.52590902234436</v>
       </c>
       <c r="H46">
-        <v>1.57456845306508</v>
+        <v>1.67588124513074</v>
       </c>
       <c r="I46">
-        <v>0.960809592811906</v>
+        <v>2.20740226897569</v>
       </c>
       <c r="J46">
-        <v>3.62602630600561</v>
+        <v>4.50856151250922</v>
       </c>
       <c r="K46">
-        <v>2.64456943957408</v>
+        <v>3.0660049817712</v>
       </c>
       <c r="L46">
-        <v>10.2873205649098</v>
+        <v>10.7727095238764</v>
       </c>
       <c r="M46">
-        <v>2.90863549742683</v>
+        <v>4.05746803627907</v>
       </c>
       <c r="N46">
-        <v>7.81872927800459</v>
+        <v>6.3645909507877</v>
       </c>
       <c r="O46">
-        <v>231.199710274906</v>
+        <v>218.636516538536</v>
       </c>
       <c r="P46">
-        <v>10.4181719078798</v>
+        <v>10.3803039406696</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1856.15395070692</v>
+        <v>1850.182755102</v>
       </c>
       <c r="C47">
-        <v>54.2977570298068</v>
+        <v>48.8977677069834</v>
       </c>
       <c r="D47">
-        <v>22.0889850694566</v>
+        <v>47.0721364386269</v>
       </c>
       <c r="E47">
-        <v>61.8054583955944</v>
+        <v>67.9628798578885</v>
       </c>
       <c r="F47">
-        <v>8.31836914682488</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>18.3908145711568</v>
+        <v>27.7609550913396</v>
       </c>
       <c r="H47">
-        <v>9.73855673674823</v>
+        <v>20.6878826824745</v>
       </c>
       <c r="I47">
-        <v>3.5188891273672</v>
+        <v>13.738579072002</v>
       </c>
       <c r="J47">
-        <v>44.8309582400021</v>
+        <v>32.0128617616241</v>
       </c>
       <c r="K47">
-        <v>4.16544537092116</v>
+        <v>25.7441366512335</v>
       </c>
       <c r="L47">
-        <v>28.3509445479279</v>
+        <v>41.7208691742236</v>
       </c>
       <c r="M47">
-        <v>75.31684230574059</v>
+        <v>71.0055013307731</v>
       </c>
       <c r="N47">
-        <v>37.14918033294</v>
+        <v>47.8893268726819</v>
       </c>
       <c r="O47">
-        <v>2660.75763780725</v>
+        <v>2607.13465645697</v>
       </c>
       <c r="P47">
-        <v>41.5160888086331</v>
+        <v>32.5515223670176</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1687.09689736427</v>
+        <v>1693.02655591692</v>
       </c>
       <c r="C48">
-        <v>24.9470383469072</v>
+        <v>37.1962671813783</v>
       </c>
       <c r="D48">
-        <v>11.5421395418255</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>61.2387648601191</v>
+        <v>51.450145380213</v>
       </c>
       <c r="F48">
-        <v>4.26809560435611</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>3.07912933517377</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>8.800083329578181</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>3.87786012102578</v>
+        <v>8.66510561906682</v>
       </c>
       <c r="J48">
-        <v>31.1827678740163</v>
+        <v>30.1456218336193</v>
       </c>
       <c r="K48">
-        <v>9.623202747863751</v>
+        <v>12.8646758870934</v>
       </c>
       <c r="L48">
-        <v>40.0857048014423</v>
+        <v>42.2136860214541</v>
       </c>
       <c r="M48">
-        <v>98.9922527076083</v>
+        <v>124.04694340711</v>
       </c>
       <c r="N48">
-        <v>25.5418749796166</v>
+        <v>34.9259282702562</v>
       </c>
       <c r="O48">
-        <v>2081.07598449924</v>
+        <v>2058.97511006157</v>
       </c>
       <c r="P48">
-        <v>80.54125002894121</v>
+        <v>60.1295737975222</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>679.370245317491</v>
+        <v>684.436704755222</v>
       </c>
       <c r="C49">
-        <v>6.43302631429877</v>
+        <v>6.04985070162541</v>
       </c>
       <c r="D49">
-        <v>2.18177452023876</v>
+        <v>2.36588034091456</v>
       </c>
       <c r="E49">
-        <v>21.1560474485581</v>
+        <v>14.4187495301916</v>
       </c>
       <c r="F49">
-        <v>23.2743387445807</v>
+        <v>24.6716626861328</v>
       </c>
       <c r="G49">
-        <v>12.8941407912898</v>
+        <v>17.0525491428626</v>
       </c>
       <c r="H49">
-        <v>6.48558182593704</v>
+        <v>5.75560116438759</v>
       </c>
       <c r="I49">
-        <v>4.01469795105568</v>
+        <v>4.46492512220734</v>
       </c>
       <c r="J49">
-        <v>16.5374122803599</v>
+        <v>18.4570412065585</v>
       </c>
       <c r="K49">
-        <v>1.84186248546927</v>
+        <v>5.57351385268846</v>
       </c>
       <c r="L49">
-        <v>1.58367498576307</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>4.54734725925786</v>
+        <v>6.60174030150031</v>
       </c>
       <c r="N49">
-        <v>3.89118767336786</v>
+        <v>5.26881860853985</v>
       </c>
       <c r="O49">
-        <v>537.664745800871</v>
+        <v>518.463293784675</v>
       </c>
       <c r="P49">
-        <v>7.66355635756161</v>
+        <v>8.75414244160425</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1232.29603888009</v>
+        <v>1376.81545701747</v>
       </c>
       <c r="C50">
-        <v>64.16068828114631</v>
+        <v>76.89699597765331</v>
       </c>
       <c r="D50">
-        <v>13.9407144485063</v>
+        <v>15.0323139749546</v>
       </c>
       <c r="E50">
-        <v>151.604164273403</v>
+        <v>141.21701376389</v>
       </c>
       <c r="F50">
-        <v>3.17161779953705</v>
+        <v>4.20492452019271</v>
       </c>
       <c r="G50">
-        <v>27.0485350674189</v>
+        <v>14.517913858879</v>
       </c>
       <c r="H50">
-        <v>24.5253066735144</v>
+        <v>38.6168752459087</v>
       </c>
       <c r="I50">
-        <v>13.3325481177448</v>
+        <v>13.4091073637814</v>
       </c>
       <c r="J50">
-        <v>98.2721053639409</v>
+        <v>98.8433575405378</v>
       </c>
       <c r="K50">
-        <v>43.9037460093646</v>
+        <v>77.528199228848</v>
       </c>
       <c r="L50">
-        <v>43.9257146872475</v>
+        <v>52.1578593684458</v>
       </c>
       <c r="M50">
-        <v>42.4486742064697</v>
+        <v>59.3026892537966</v>
       </c>
       <c r="N50">
-        <v>46.4986376445983</v>
+        <v>61.7382137252168</v>
       </c>
       <c r="O50">
-        <v>1954.53187101022</v>
+        <v>1687.46838663774</v>
       </c>
       <c r="P50">
-        <v>84.6530812025824</v>
+        <v>110.891677417231</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.187759245135</v>
+        <v>124.144387437654</v>
       </c>
       <c r="C51">
-        <v>3.10217850480703</v>
+        <v>0.97444446064946</v>
       </c>
       <c r="D51">
-        <v>0.335809319256461</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>3.75362201766514</v>
+        <v>2.52665045793152</v>
       </c>
       <c r="F51">
-        <v>24.0812979258325</v>
+        <v>24.6325974194893</v>
       </c>
       <c r="G51">
-        <v>2.03122106783048</v>
+        <v>2.74053506660959</v>
       </c>
       <c r="H51">
-        <v>0.019043903785016</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>0.513501087137164</v>
+        <v>0.885829516479869</v>
       </c>
       <c r="J51">
-        <v>1.05029346287449</v>
+        <v>1.62581048007666</v>
       </c>
       <c r="K51">
-        <v>0.329249703127347</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="L51">
-        <v>0.201959323242823</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.1648421832003</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>1.00871770839089</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>177.641579964291</v>
+        <v>176.943913441521</v>
       </c>
       <c r="P51">
-        <v>15.4897275214984</v>
+        <v>12.3541103561787</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4900.65757275372</v>
       </c>
       <c r="C52">
-        <v>163.094390927586</v>
+        <v>164.20107610736</v>
       </c>
       <c r="D52">
-        <v>61.6762295244256</v>
+        <v>62.0947366770678</v>
       </c>
       <c r="E52">
-        <v>179.711780127077</v>
+        <v>180.931223435742</v>
       </c>
       <c r="F52">
-        <v>98.4278056950448</v>
+        <v>99.09569251335201</v>
       </c>
       <c r="G52">
-        <v>52.3643158629733</v>
+        <v>52.719636557848</v>
       </c>
       <c r="H52">
-        <v>36.2624591965228</v>
+        <v>36.508519934398</v>
       </c>
       <c r="I52">
-        <v>41.9120511045734</v>
+        <v>42.1964474320471</v>
       </c>
       <c r="J52">
-        <v>153.300836753486</v>
+        <v>154.341067279607</v>
       </c>
       <c r="K52">
-        <v>62.7536434357588</v>
+        <v>63.179461434601</v>
       </c>
       <c r="L52">
-        <v>50.4489470186347</v>
+        <v>50.7912708820317</v>
       </c>
       <c r="M52">
-        <v>100.297111783217</v>
+        <v>100.977682871857</v>
       </c>
       <c r="N52">
-        <v>106.897186998115</v>
+        <v>107.622543228562</v>
       </c>
       <c r="O52">
-        <v>7115.8640730326</v>
+        <v>7164.14912603854</v>
       </c>
       <c r="P52">
-        <v>355.847141516987</v>
+        <v>358.261760165378</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2563.7746420636</v>
       </c>
       <c r="C53">
-        <v>79.08119482932371</v>
+        <v>79.4055773307834</v>
       </c>
       <c r="D53">
-        <v>33.3136694580786</v>
+        <v>33.4503185243318</v>
       </c>
       <c r="E53">
-        <v>88.48282875869541</v>
+        <v>88.8457757449027</v>
       </c>
       <c r="F53">
-        <v>8.65882780257121</v>
+        <v>8.694345376987849</v>
       </c>
       <c r="G53">
-        <v>27.3504771874737</v>
+        <v>27.4626658844874</v>
       </c>
       <c r="H53">
-        <v>27.9085695566789</v>
+        <v>28.0230474881833</v>
       </c>
       <c r="I53">
-        <v>36.3965124391218</v>
+        <v>36.545806993597</v>
       </c>
       <c r="J53">
-        <v>102.651460517774</v>
+        <v>103.072525697847</v>
       </c>
       <c r="K53">
-        <v>80.8414082840558</v>
+        <v>81.1730109905818</v>
       </c>
       <c r="L53">
-        <v>74.60954145694861</v>
+        <v>74.9155817202856</v>
       </c>
       <c r="M53">
-        <v>39.2294485716536</v>
+        <v>39.3903635235081</v>
       </c>
       <c r="N53">
-        <v>48.7891263577915</v>
+        <v>48.9892540731874</v>
       </c>
       <c r="O53">
-        <v>2692.55960340402</v>
+        <v>2703.60419145516</v>
       </c>
       <c r="P53">
-        <v>296.647331375814</v>
+        <v>297.864146620079</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3463.79296407628</v>
       </c>
       <c r="C54">
-        <v>96.56209456788081</v>
+        <v>94.4347659489023</v>
       </c>
       <c r="D54">
-        <v>47.6006698663681</v>
+        <v>46.5519947341392</v>
       </c>
       <c r="E54">
-        <v>61.9579208453282</v>
+        <v>60.5929457091062</v>
       </c>
       <c r="F54">
-        <v>8.97365324690332</v>
+        <v>8.775957562542351</v>
       </c>
       <c r="G54">
-        <v>70.244264153665</v>
+        <v>68.696735238495</v>
       </c>
       <c r="H54">
-        <v>25.249231820969</v>
+        <v>24.6929740709654</v>
       </c>
       <c r="I54">
-        <v>32.4976777004619</v>
+        <v>31.7817317577822</v>
       </c>
       <c r="J54">
-        <v>102.558725227852</v>
+        <v>100.299286756892</v>
       </c>
       <c r="K54">
-        <v>40.5651514174109</v>
+        <v>39.6714735417431</v>
       </c>
       <c r="L54">
-        <v>48.1285318220683</v>
+        <v>47.0682275319358</v>
       </c>
       <c r="M54">
-        <v>58.2054462671893</v>
+        <v>56.9231406981281</v>
       </c>
       <c r="N54">
-        <v>29.4216190993272</v>
+        <v>28.7734408197779</v>
       </c>
       <c r="O54">
-        <v>2988.28199138676</v>
+        <v>2922.44810666933</v>
       </c>
       <c r="P54">
-        <v>83.5220225778161</v>
+        <v>81.68197561384051</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2921.88665848956</v>
       </c>
       <c r="C55">
-        <v>116.29607817158</v>
+        <v>117.205368439691</v>
       </c>
       <c r="D55">
-        <v>196.868486253726</v>
+        <v>198.407752250161</v>
       </c>
       <c r="E55">
-        <v>48.3434448492878</v>
+        <v>48.7214302862822</v>
       </c>
       <c r="F55">
-        <v>39.994978469692</v>
+        <v>40.3076893131491</v>
       </c>
       <c r="G55">
-        <v>25.822000662471</v>
+        <v>26.0238964982953</v>
       </c>
       <c r="H55">
-        <v>18.7355117588606</v>
+        <v>18.8820000908684</v>
       </c>
       <c r="I55">
-        <v>24.2687976151043</v>
+        <v>24.4585493405031</v>
       </c>
       <c r="J55">
-        <v>57.1772871811858</v>
+        <v>57.6243422462253</v>
       </c>
       <c r="K55">
-        <v>67.27310698906921</v>
+        <v>67.7990987718746</v>
       </c>
       <c r="L55">
-        <v>33.2967903279231</v>
+        <v>33.5571296951702</v>
       </c>
       <c r="M55">
-        <v>12.328549188473</v>
+        <v>12.4249430649756</v>
       </c>
       <c r="N55">
-        <v>29.1225571381252</v>
+        <v>29.3502592086037</v>
       </c>
       <c r="O55">
-        <v>1518.06182842001</v>
+        <v>1529.93117834715</v>
       </c>
       <c r="P55">
-        <v>743.110582974495</v>
+        <v>748.920780806205</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>40750.461898538</v>
       </c>
       <c r="C56">
-        <v>1749.14678394135</v>
+        <v>1775.07030181185</v>
       </c>
       <c r="D56">
-        <v>2886.69162025774</v>
+        <v>2929.47430864698</v>
       </c>
       <c r="E56">
-        <v>900.7597199941511</v>
+        <v>914.109577714888</v>
       </c>
       <c r="F56">
-        <v>304.343061606973</v>
+        <v>308.853628055008</v>
       </c>
       <c r="G56">
-        <v>424.8034700253</v>
+        <v>431.099339787494</v>
       </c>
       <c r="H56">
-        <v>292.322474130513</v>
+        <v>296.654887482924</v>
       </c>
       <c r="I56">
-        <v>463.605711459784</v>
+        <v>470.476656229106</v>
       </c>
       <c r="J56">
-        <v>747.1373473644341</v>
+        <v>758.210419421018</v>
       </c>
       <c r="K56">
-        <v>399.990209656082</v>
+        <v>405.918330408008</v>
       </c>
       <c r="L56">
-        <v>339.182119781239</v>
+        <v>344.209024226441</v>
       </c>
       <c r="M56">
-        <v>394.558272942148</v>
+        <v>400.405888781755</v>
       </c>
       <c r="N56">
-        <v>748.3345982541759</v>
+        <v>759.425414364673</v>
       </c>
       <c r="O56">
-        <v>48438.5556134702</v>
+        <v>49156.4472012979</v>
       </c>
       <c r="P56">
-        <v>16648.9029971159</v>
+        <v>16895.6508048657</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>6711.49177633163</v>
       </c>
       <c r="C57">
-        <v>243.294558915128</v>
+        <v>249.966805072748</v>
       </c>
       <c r="D57">
-        <v>133.310532509534</v>
+        <v>136.966515168058</v>
       </c>
       <c r="E57">
-        <v>384.421575376753</v>
+        <v>394.964167823747</v>
       </c>
       <c r="F57">
-        <v>162.046631582752</v>
+        <v>166.490689106087</v>
       </c>
       <c r="G57">
-        <v>94.2375709721605</v>
+        <v>96.8219948640311</v>
       </c>
       <c r="H57">
-        <v>123.522195325973</v>
+        <v>126.909737146964</v>
       </c>
       <c r="I57">
-        <v>54.5025963852312</v>
+        <v>55.9973060940434</v>
       </c>
       <c r="J57">
-        <v>271.406474393715</v>
+        <v>278.849677455886</v>
       </c>
       <c r="K57">
-        <v>139.476712099477</v>
+        <v>143.301799518336</v>
       </c>
       <c r="L57">
-        <v>114.268197295519</v>
+        <v>117.401952294985</v>
       </c>
       <c r="M57">
-        <v>209.654833957328</v>
+        <v>215.404525469279</v>
       </c>
       <c r="N57">
-        <v>169.432806871305</v>
+        <v>174.079426999855</v>
       </c>
       <c r="O57">
-        <v>10795.4814413161</v>
+        <v>11091.5427666809</v>
       </c>
       <c r="P57">
-        <v>403.638871230297</v>
+        <v>414.708489554855</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>227776.163463334</v>
       </c>
       <c r="C58">
-        <v>10197.6950615997</v>
+        <v>9886.63695496201</v>
       </c>
       <c r="D58">
-        <v>20240.3928584762</v>
+        <v>19623.0044935438</v>
       </c>
       <c r="E58">
-        <v>10712.2403482985</v>
+        <v>10385.4871770709</v>
       </c>
       <c r="F58">
-        <v>8879.993374728319</v>
+        <v>8609.128840202309</v>
       </c>
       <c r="G58">
-        <v>6312.18356512786</v>
+        <v>6119.64438282657</v>
       </c>
       <c r="H58">
-        <v>7536.29724065172</v>
+        <v>7306.41918128873</v>
       </c>
       <c r="I58">
-        <v>8843.03506507541</v>
+        <v>8573.29786194691</v>
       </c>
       <c r="J58">
-        <v>7774.02265848243</v>
+        <v>7536.893311654631</v>
       </c>
       <c r="K58">
-        <v>7826.19370828222</v>
+        <v>7587.47299910499</v>
       </c>
       <c r="L58">
-        <v>8644.997037257381</v>
+        <v>8381.300545642929</v>
       </c>
       <c r="M58">
-        <v>4133.46950965024</v>
+        <v>4007.38717518643</v>
       </c>
       <c r="N58">
-        <v>7195.06933036163</v>
+        <v>6975.59967280568</v>
       </c>
       <c r="O58">
-        <v>243037.005832061</v>
+        <v>235623.700136964</v>
       </c>
       <c r="P58">
-        <v>353871.242052157</v>
+        <v>343077.183406417</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>171.262829124227</v>
       </c>
       <c r="C59">
-        <v>10.0777632010495</v>
+        <v>10.447270065862</v>
       </c>
       <c r="D59">
-        <v>3.23597900951132</v>
+        <v>3.35462800279972</v>
       </c>
       <c r="E59">
-        <v>5.45493604460479</v>
+        <v>5.65494434757667</v>
       </c>
       <c r="F59">
-        <v>0.647195801902263</v>
+        <v>0.670925600559944</v>
       </c>
       <c r="G59">
-        <v>1.47930469006232</v>
+        <v>1.5335442298513</v>
       </c>
       <c r="H59">
-        <v>1.20193506067563</v>
+        <v>1.24600468675418</v>
       </c>
       <c r="I59">
-        <v>2.77369629386684</v>
+        <v>2.87539543097119</v>
       </c>
       <c r="J59">
-        <v>3.69826172515579</v>
+        <v>3.83386057462825</v>
       </c>
       <c r="K59">
-        <v>0.924565431288947</v>
+        <v>0.958465143657063</v>
       </c>
       <c r="L59">
-        <v>0.5547392587733681</v>
+        <v>0.575079086194238</v>
       </c>
       <c r="M59">
-        <v>0.462282715644474</v>
+        <v>0.479232571828532</v>
       </c>
       <c r="N59">
-        <v>3.05106592325353</v>
+        <v>3.16293497406831</v>
       </c>
       <c r="O59">
-        <v>230.956444735979</v>
+        <v>239.424592885534</v>
       </c>
       <c r="P59">
-        <v>17.3818301082322</v>
+        <v>18.0191447007528</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3095.60330766184</v>
       </c>
       <c r="C60">
-        <v>150.292065761126</v>
+        <v>148.392476711219</v>
       </c>
       <c r="D60">
-        <v>121.720037759759</v>
+        <v>120.181579626844</v>
       </c>
       <c r="E60">
-        <v>142.211392935309</v>
+        <v>140.413938070185</v>
       </c>
       <c r="F60">
-        <v>52.7647618175707</v>
+        <v>52.0978512706831</v>
       </c>
       <c r="G60">
-        <v>43.10597402241</v>
+        <v>42.5611439555407</v>
       </c>
       <c r="H60">
-        <v>65.94388255900471</v>
+        <v>65.1103969283225</v>
       </c>
       <c r="I60">
-        <v>81.31767944008681</v>
+        <v>80.28987951834139</v>
       </c>
       <c r="J60">
-        <v>224.312597908295</v>
+        <v>221.477439893899</v>
       </c>
       <c r="K60">
-        <v>151.683100179611</v>
+        <v>149.76592940484</v>
       </c>
       <c r="L60">
-        <v>181.068827996274</v>
+        <v>178.780241694666</v>
       </c>
       <c r="M60">
-        <v>111.319968427054</v>
+        <v>109.912960066439</v>
       </c>
       <c r="N60">
-        <v>81.7340845371603</v>
+        <v>80.7010215394253</v>
       </c>
       <c r="O60">
-        <v>2966.58557963392</v>
+        <v>2929.08996431886</v>
       </c>
       <c r="P60">
-        <v>207.250047022415</v>
+        <v>204.630547996151</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>26096.7776297402</v>
       </c>
       <c r="C61">
-        <v>987.478209691432</v>
+        <v>984.756949756434</v>
       </c>
       <c r="D61">
-        <v>226.948516016928</v>
+        <v>226.323098769354</v>
       </c>
       <c r="E61">
-        <v>817.01465766094</v>
+        <v>814.763155569675</v>
       </c>
       <c r="F61">
-        <v>122.047868613548</v>
+        <v>121.711533115964</v>
       </c>
       <c r="G61">
-        <v>499.286735237241</v>
+        <v>497.910817292579</v>
       </c>
       <c r="H61">
-        <v>406.490008688097</v>
+        <v>405.369816906888</v>
       </c>
       <c r="I61">
-        <v>268.303578935568</v>
+        <v>267.564196767325</v>
       </c>
       <c r="J61">
-        <v>1117.59535887447</v>
+        <v>1114.5155263842</v>
       </c>
       <c r="K61">
-        <v>1109.52607830498</v>
+        <v>1106.4684828724</v>
       </c>
       <c r="L61">
-        <v>1054.04977438973</v>
+        <v>1051.14505872878</v>
       </c>
       <c r="M61">
-        <v>1016.72935175584</v>
+        <v>1013.92748248671</v>
       </c>
       <c r="N61">
-        <v>291.502760572854</v>
+        <v>290.699446863748</v>
       </c>
       <c r="O61">
-        <v>27185.4062386144</v>
+        <v>27110.4895912517</v>
       </c>
       <c r="P61">
-        <v>887.620862643984</v>
+        <v>885.174786297918</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1328.06683433285</v>
       </c>
       <c r="C62">
-        <v>75.6011330248583</v>
+        <v>75.3137636433503</v>
       </c>
       <c r="D62">
-        <v>11.1710134536777</v>
+        <v>11.1285510315082</v>
       </c>
       <c r="E62">
-        <v>57.8544162869803</v>
+        <v>57.6345043999398</v>
       </c>
       <c r="F62">
-        <v>3.6764476714122</v>
+        <v>3.66247303305417</v>
       </c>
       <c r="G62">
-        <v>28.6553405748443</v>
+        <v>28.5464180340249</v>
       </c>
       <c r="H62">
-        <v>21.1757399798437</v>
+        <v>21.0952483382835</v>
       </c>
       <c r="I62">
-        <v>15.6745371412638</v>
+        <v>15.6149562611436</v>
       </c>
       <c r="J62">
-        <v>48.8363944411472</v>
+        <v>48.6507611853465</v>
       </c>
       <c r="K62">
-        <v>63.5920690843457</v>
+        <v>63.3503476599384</v>
       </c>
       <c r="L62">
-        <v>47.0505487608683</v>
+        <v>46.8717037283134</v>
       </c>
       <c r="M62">
-        <v>13.2162557132151</v>
+        <v>13.1660190688924</v>
       </c>
       <c r="N62">
-        <v>27.4750861392186</v>
+        <v>27.3706498934271</v>
       </c>
       <c r="O62">
-        <v>2030.94950802018</v>
+        <v>2023.22961440692</v>
       </c>
       <c r="P62">
-        <v>88.33550970814331</v>
+        <v>87.9997353648981</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>12880.1569304356</v>
       </c>
       <c r="C63">
-        <v>399.41165927434</v>
+        <v>414.756193315654</v>
       </c>
       <c r="D63">
-        <v>295.880794493323</v>
+        <v>307.247896123561</v>
       </c>
       <c r="E63">
-        <v>320.095868780145</v>
+        <v>332.393261309708</v>
       </c>
       <c r="F63">
-        <v>49.1611696841901</v>
+        <v>51.0498357364039</v>
       </c>
       <c r="G63">
-        <v>155.524741268572</v>
+        <v>161.499666214423</v>
       </c>
       <c r="H63">
-        <v>118.425419908384</v>
+        <v>122.975068985836</v>
       </c>
       <c r="I63">
-        <v>196.736056375579</v>
+        <v>204.29423111613</v>
       </c>
       <c r="J63">
-        <v>440.531596742529</v>
+        <v>457.455870046847</v>
       </c>
       <c r="K63">
-        <v>197.923965680215</v>
+        <v>205.527777332808</v>
       </c>
       <c r="L63">
-        <v>164.022861678664</v>
+        <v>170.324266072203</v>
       </c>
       <c r="M63">
-        <v>270.477810901864</v>
+        <v>280.868984720736</v>
       </c>
       <c r="N63">
-        <v>231.916447320585</v>
+        <v>240.826176763928</v>
       </c>
       <c r="O63">
-        <v>11314.1964831915</v>
+        <v>11748.863496673</v>
       </c>
       <c r="P63">
-        <v>926.295124700065</v>
+        <v>961.881384498005</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>365.347320702458</v>
       </c>
       <c r="C64">
-        <v>20.4979974513017</v>
+        <v>20.4424097137168</v>
       </c>
       <c r="D64">
-        <v>23.358183142181</v>
+        <v>23.2948389760959</v>
       </c>
       <c r="E64">
-        <v>25.6463316948844</v>
+        <v>25.5767823859991</v>
       </c>
       <c r="F64">
-        <v>6.12937793555434</v>
+        <v>6.11275590927838</v>
       </c>
       <c r="G64">
-        <v>1.68846295284908</v>
+        <v>1.68388407455779</v>
       </c>
       <c r="H64">
-        <v>2.38348807573275</v>
+        <v>2.3770243853159</v>
       </c>
       <c r="I64">
-        <v>4.67163662843619</v>
+        <v>4.65896779521917</v>
       </c>
       <c r="J64">
-        <v>14.6822865465137</v>
+        <v>14.642470213546</v>
       </c>
       <c r="K64">
-        <v>2.57416712179137</v>
+        <v>2.56718633614118</v>
       </c>
       <c r="L64">
-        <v>10.2966684871655</v>
+        <v>10.2687453445647</v>
       </c>
       <c r="M64">
-        <v>5.81571090478791</v>
+        <v>5.7999395001708</v>
       </c>
       <c r="N64">
-        <v>15.3496632077189</v>
+        <v>15.3080370414344</v>
       </c>
       <c r="O64">
-        <v>355.616420899326</v>
+        <v>354.652038289133</v>
       </c>
       <c r="P64">
-        <v>34.9896049517568</v>
+        <v>34.8947179764375</v>
       </c>
     </row>
     <row r="65">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1347.8908277851</v>
       </c>
       <c r="C65">
         <v>41.2250730621144</v>
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17355.1384812655</v>
       </c>
       <c r="C66">
-        <v>562.365273443952</v>
+        <v>567.949322485346</v>
       </c>
       <c r="D66">
-        <v>208.914705842964</v>
+        <v>210.989140410646</v>
       </c>
       <c r="E66">
-        <v>370.689683188029</v>
+        <v>374.370474779915</v>
       </c>
       <c r="F66">
-        <v>54.9314191587095</v>
+        <v>55.4768648911907</v>
       </c>
       <c r="G66">
-        <v>142.29575069304</v>
+        <v>143.708687244733</v>
       </c>
       <c r="H66">
-        <v>207.161575444282</v>
+        <v>209.218602169437</v>
       </c>
       <c r="I66">
-        <v>134.11447549919</v>
+        <v>135.446175452428</v>
       </c>
       <c r="J66">
-        <v>558.079843580507</v>
+        <v>563.621340117948</v>
       </c>
       <c r="K66">
-        <v>311.083249632834</v>
+        <v>314.172174578835</v>
       </c>
       <c r="L66">
-        <v>390.168909840054</v>
+        <v>394.043121904451</v>
       </c>
       <c r="M66">
-        <v>333.581756415922</v>
+        <v>336.894082007674</v>
       </c>
       <c r="N66">
-        <v>180.962015597309</v>
+        <v>182.758891786937</v>
       </c>
       <c r="O66">
-        <v>17474.6194372648</v>
+        <v>17648.1350089498</v>
       </c>
       <c r="P66">
-        <v>889.031904398406</v>
+        <v>897.85961476381</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17226.8358219342</v>
       </c>
       <c r="C67">
-        <v>470.39486941274</v>
+        <v>469.858940043035</v>
       </c>
       <c r="D67">
-        <v>126.48151960996</v>
+        <v>126.337416930506</v>
       </c>
       <c r="E67">
-        <v>512.053329322164</v>
+        <v>511.469937716764</v>
       </c>
       <c r="F67">
-        <v>142.192765865571</v>
+        <v>142.030763079525</v>
       </c>
       <c r="G67">
-        <v>342.064905402526</v>
+        <v>341.675184678362</v>
       </c>
       <c r="H67">
-        <v>195.113575582347</v>
+        <v>194.89127916208</v>
       </c>
       <c r="I67">
-        <v>127.782276780509</v>
+        <v>127.63669212492</v>
       </c>
       <c r="J67">
-        <v>421.411092806014</v>
+        <v>420.930971537608</v>
       </c>
       <c r="K67">
-        <v>308.382140775679</v>
+        <v>308.03079543354</v>
       </c>
       <c r="L67">
-        <v>399.469373165964</v>
+        <v>399.014250494995</v>
       </c>
       <c r="M67">
-        <v>435.993265296905</v>
+        <v>435.496530296037</v>
       </c>
       <c r="N67">
-        <v>142.809445145536</v>
+        <v>142.646739765649</v>
       </c>
       <c r="O67">
-        <v>23322.118773202</v>
+        <v>23295.5474621036</v>
       </c>
       <c r="P67">
-        <v>452.56103890113</v>
+        <v>452.045427936593</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3390.90131702426</v>
       </c>
       <c r="C68">
-        <v>111.959921652134</v>
+        <v>111.372538438719</v>
       </c>
       <c r="D68">
-        <v>89.90747228447751</v>
+        <v>89.4357843875833</v>
       </c>
       <c r="E68">
-        <v>55.47085086205</v>
+        <v>55.1798302347627</v>
       </c>
       <c r="F68">
-        <v>18.055599309881</v>
+        <v>17.9608729489986</v>
       </c>
       <c r="G68">
-        <v>21.295040026104</v>
+        <v>21.1833183594954</v>
       </c>
       <c r="H68">
-        <v>16.4358789517695</v>
+        <v>16.3496502437502</v>
       </c>
       <c r="I68">
-        <v>30.1558631616551</v>
+        <v>29.9976543352658</v>
       </c>
       <c r="J68">
-        <v>54.7692607604082</v>
+        <v>54.4819209346283</v>
       </c>
       <c r="K68">
-        <v>22.8753019560024</v>
+        <v>22.7552896500585</v>
       </c>
       <c r="L68">
-        <v>20.9158541549834</v>
+        <v>20.8061218378864</v>
       </c>
       <c r="M68">
-        <v>18.1143057518565</v>
+        <v>18.0192713952376</v>
       </c>
       <c r="N68">
-        <v>40.8866308342297</v>
+        <v>40.6721244264835</v>
       </c>
       <c r="O68">
-        <v>2738.4072187805</v>
+        <v>2724.04052033991</v>
       </c>
       <c r="P68">
-        <v>618.614801513951</v>
+        <v>615.369319160822</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>3971.77548070961</v>
       </c>
       <c r="C69">
-        <v>162.613185238894</v>
+        <v>164.704343761064</v>
       </c>
       <c r="D69">
-        <v>144.304253984343</v>
+        <v>146.159964946903</v>
       </c>
       <c r="E69">
-        <v>86.1734727456636</v>
+        <v>87.2816386773026</v>
       </c>
       <c r="F69">
-        <v>19.5037578749895</v>
+        <v>19.7545705593035</v>
       </c>
       <c r="G69">
-        <v>49.0734518952048</v>
+        <v>49.7045222908322</v>
       </c>
       <c r="H69">
-        <v>42.5275736199645</v>
+        <v>43.0744659145342</v>
       </c>
       <c r="I69">
-        <v>37.8308078146021</v>
+        <v>38.3173010595739</v>
       </c>
       <c r="J69">
-        <v>111.162159226187</v>
+        <v>112.591672437352</v>
       </c>
       <c r="K69">
-        <v>65.68627290928551</v>
+        <v>66.5309793774727</v>
       </c>
       <c r="L69">
-        <v>172.49894112712</v>
+        <v>174.717227610306</v>
       </c>
       <c r="M69">
-        <v>63.0187998308006</v>
+        <v>63.829203366833</v>
       </c>
       <c r="N69">
-        <v>47.6430823689682</v>
+        <v>48.2557586262591</v>
       </c>
       <c r="O69">
-        <v>2458.53746169923</v>
+        <v>2490.15354226215</v>
       </c>
       <c r="P69">
-        <v>401.61977966475</v>
+        <v>406.784493852496</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>44383.2373603872</v>
       </c>
       <c r="C70">
-        <v>2166.88125893155</v>
+        <v>2086.96072920329</v>
       </c>
       <c r="D70">
-        <v>2579.93888362558</v>
+        <v>2484.78365470105</v>
       </c>
       <c r="E70">
-        <v>2786.59577643217</v>
+        <v>2683.81847395054</v>
       </c>
       <c r="F70">
-        <v>871.984379551604</v>
+        <v>839.823201710739</v>
       </c>
       <c r="G70">
-        <v>291.900486466763</v>
+        <v>281.134395149944</v>
       </c>
       <c r="H70">
-        <v>977.410169289194</v>
+        <v>941.360598889614</v>
       </c>
       <c r="I70">
-        <v>776.5417996989499</v>
+        <v>747.900806228601</v>
       </c>
       <c r="J70">
-        <v>414.175023378277</v>
+        <v>398.89911145086</v>
       </c>
       <c r="K70">
-        <v>95.5246139949064</v>
+        <v>92.0014039800091</v>
       </c>
       <c r="L70">
-        <v>211.655276387791</v>
+        <v>203.848848721776</v>
       </c>
       <c r="M70">
-        <v>468.582932283697</v>
+        <v>451.300307305805</v>
       </c>
       <c r="N70">
-        <v>570.179453054207</v>
+        <v>549.14966946988</v>
       </c>
       <c r="O70">
-        <v>30230.5691010632</v>
+        <v>29115.582718406</v>
       </c>
       <c r="P70">
-        <v>42243.8998458421</v>
+        <v>40685.8288442348</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.7635742</v>
+        <v>287046.157716923</v>
       </c>
       <c r="C71">
-        <v>10749.3361748956</v>
+        <v>10814.7211445614</v>
       </c>
       <c r="D71">
-        <v>14083.7430511902</v>
+        <v>14169.4102121387</v>
       </c>
       <c r="E71">
-        <v>6845.84054112381</v>
+        <v>6887.48172424768</v>
       </c>
       <c r="F71">
-        <v>2100.74382254412</v>
+        <v>2113.52201357638</v>
       </c>
       <c r="G71">
-        <v>2119.50192715113</v>
+        <v>2132.39421807578</v>
       </c>
       <c r="H71">
-        <v>884.777109542717</v>
+        <v>890.15894182773</v>
       </c>
       <c r="I71">
-        <v>4356.43676039103</v>
+        <v>4382.93565118717</v>
       </c>
       <c r="J71">
-        <v>3795.10652646504</v>
+        <v>3818.19101476035</v>
       </c>
       <c r="K71">
-        <v>1389.96071603558</v>
+        <v>1398.41542782206</v>
       </c>
       <c r="L71">
-        <v>1242.63519256755</v>
+        <v>1250.19376763208</v>
       </c>
       <c r="M71">
-        <v>1017.84122501912</v>
+        <v>1024.03244618289</v>
       </c>
       <c r="N71">
-        <v>4465.56739494007</v>
+        <v>4492.73009446947</v>
       </c>
       <c r="O71">
-        <v>103346.692245079</v>
+        <v>103975.319001892</v>
       </c>
       <c r="P71">
-        <v>235827.795462103</v>
+        <v>237262.264809956</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>955.2324069817701</v>
       </c>
       <c r="C72">
-        <v>54.4661958524415</v>
+        <v>54.6926683897131</v>
       </c>
       <c r="D72">
-        <v>9.452492564554341</v>
+        <v>9.491796392206179</v>
       </c>
       <c r="E72">
-        <v>34.1493955266196</v>
+        <v>34.2913900266974</v>
       </c>
       <c r="F72">
-        <v>16.0741797019195</v>
+        <v>16.1410167593765</v>
       </c>
       <c r="G72">
-        <v>26.1960759853216</v>
+        <v>26.3050002768405</v>
       </c>
       <c r="H72">
-        <v>10.7910399067475</v>
+        <v>10.8359094657323</v>
       </c>
       <c r="I72">
-        <v>11.0596887066544</v>
+        <v>11.1056753176822</v>
       </c>
       <c r="J72">
-        <v>20.3844321915327</v>
+        <v>20.4691914446255</v>
       </c>
       <c r="K72">
-        <v>13.7987792679423</v>
+        <v>13.8561551228767</v>
       </c>
       <c r="L72">
-        <v>58.413266681842</v>
+        <v>58.6561512914373</v>
       </c>
       <c r="M72">
-        <v>11.008025475903</v>
+        <v>11.0537972692303</v>
       </c>
       <c r="N72">
-        <v>6.14382751555078</v>
+        <v>6.16937378666865</v>
       </c>
       <c r="O72">
-        <v>1220.80965730533</v>
+        <v>1225.88583081605</v>
       </c>
       <c r="P72">
-        <v>112.484943317637</v>
+        <v>112.952660038427</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>22900.7590540879</v>
       </c>
       <c r="C73">
-        <v>446.739698327928</v>
+        <v>456.382224155494</v>
       </c>
       <c r="D73">
-        <v>820.359382673988</v>
+        <v>838.066196205284</v>
       </c>
       <c r="E73">
-        <v>436.644418978173</v>
+        <v>446.069046122836</v>
       </c>
       <c r="F73">
-        <v>63.0247346321132</v>
+        <v>64.3850740730454</v>
       </c>
       <c r="G73">
-        <v>197.848605574164</v>
+        <v>202.119012471821</v>
       </c>
       <c r="H73">
-        <v>206.339962036574</v>
+        <v>210.793648200225</v>
       </c>
       <c r="I73">
-        <v>248.608047538351</v>
+        <v>253.974057159393</v>
       </c>
       <c r="J73">
-        <v>822.718092802435</v>
+        <v>840.475817240952</v>
       </c>
       <c r="K73">
-        <v>580.808782028875</v>
+        <v>593.3450838228561</v>
       </c>
       <c r="L73">
-        <v>438.531387080931</v>
+        <v>447.99674295137</v>
       </c>
       <c r="M73">
-        <v>256.533313569934</v>
+        <v>262.070383839237</v>
       </c>
       <c r="N73">
-        <v>307.198407128983</v>
+        <v>313.829043685383</v>
       </c>
       <c r="O73">
-        <v>15545.7867145708</v>
+        <v>15881.3303218798</v>
       </c>
       <c r="P73">
-        <v>952.258453056764</v>
+        <v>972.812204519831</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>38222.2670069476</v>
       </c>
       <c r="C74">
-        <v>1525.3854803677</v>
+        <v>1490.77850805272</v>
       </c>
       <c r="D74">
-        <v>759.811386816723</v>
+        <v>742.573270965619</v>
       </c>
       <c r="E74">
-        <v>1311.86926140507</v>
+        <v>1282.1064088051</v>
       </c>
       <c r="F74">
-        <v>89.62185113925879</v>
+        <v>87.5885677750789</v>
       </c>
       <c r="G74">
-        <v>455.059158027053</v>
+        <v>444.735066257331</v>
       </c>
       <c r="H74">
-        <v>710.738255076112</v>
+        <v>694.61347912067</v>
       </c>
       <c r="I74">
-        <v>396.285637455269</v>
+        <v>387.29496181246</v>
       </c>
       <c r="J74">
-        <v>1868.53212158046</v>
+        <v>1826.14005725742</v>
       </c>
       <c r="K74">
-        <v>1157.38688693336</v>
+        <v>1131.12883185854</v>
       </c>
       <c r="L74">
-        <v>1815.35025350896</v>
+        <v>1774.16474546936</v>
       </c>
       <c r="M74">
-        <v>1217.51102005635</v>
+        <v>1189.88890701898</v>
       </c>
       <c r="N74">
-        <v>286.885257922354</v>
+        <v>280.376588273748</v>
       </c>
       <c r="O74">
-        <v>46460.4356232449</v>
+        <v>45406.3709097354</v>
       </c>
       <c r="P74">
-        <v>3555.52144414785</v>
+        <v>3474.85604266961</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>12136.1531937646</v>
       </c>
       <c r="C75">
-        <v>265.598830721833</v>
+        <v>266.85840371849</v>
       </c>
       <c r="D75">
-        <v>524.120396930145</v>
+        <v>526.605979781456</v>
       </c>
       <c r="E75">
-        <v>273.204700818816</v>
+        <v>274.500343810828</v>
       </c>
       <c r="F75">
-        <v>75.4294938113981</v>
+        <v>75.7872098197786</v>
       </c>
       <c r="G75">
-        <v>216.81120245316</v>
+        <v>217.839405533876</v>
       </c>
       <c r="H75">
-        <v>248.07842156395</v>
+        <v>249.254905963396</v>
       </c>
       <c r="I75">
-        <v>135.289593470961</v>
+        <v>135.931189362786</v>
       </c>
       <c r="J75">
-        <v>445.525344470988</v>
+        <v>447.638199003129</v>
       </c>
       <c r="K75">
-        <v>441.831474128722</v>
+        <v>443.926810890459</v>
       </c>
       <c r="L75">
-        <v>779.622689355845</v>
+        <v>783.3199634907691</v>
       </c>
       <c r="M75">
-        <v>487.321328175171</v>
+        <v>489.632395524362</v>
       </c>
       <c r="N75">
-        <v>129.771078554456</v>
+        <v>130.386503501358</v>
       </c>
       <c r="O75">
-        <v>13365.4895049505</v>
+        <v>13428.8738565374</v>
       </c>
       <c r="P75">
-        <v>1857.90594059406</v>
+        <v>1866.71685345366</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>853.076329735224</v>
       </c>
       <c r="C76">
-        <v>50.085798816568</v>
+        <v>50.1107938966465</v>
       </c>
       <c r="D76">
-        <v>72.9319526627219</v>
+        <v>72.96834900739761</v>
       </c>
       <c r="E76">
-        <v>42.1775147928994</v>
+        <v>42.1985632813866</v>
       </c>
       <c r="F76">
-        <v>7.61538461538466</v>
+        <v>7.61918503691706</v>
       </c>
       <c r="G76">
-        <v>8.98224852071006</v>
+        <v>8.98673106918417</v>
       </c>
       <c r="H76">
-        <v>5.85798816568047</v>
+        <v>5.86091156685924</v>
       </c>
       <c r="I76">
-        <v>8.98224852071006</v>
+        <v>8.98673106918417</v>
       </c>
       <c r="J76">
-        <v>10.1538461538462</v>
+        <v>10.158913382556</v>
       </c>
       <c r="K76">
-        <v>10.3491124260355</v>
+        <v>10.3542771014513</v>
       </c>
       <c r="L76">
-        <v>16.6952662721894</v>
+        <v>16.7035979655488</v>
       </c>
       <c r="M76">
-        <v>6.34615384615385</v>
+        <v>6.34932086409751</v>
       </c>
       <c r="N76">
-        <v>20.3076923076923</v>
+        <v>20.317826765112</v>
       </c>
       <c r="O76">
-        <v>778.42899408284</v>
+        <v>778.817465376146</v>
       </c>
       <c r="P76">
-        <v>248.085798816568</v>
+        <v>248.209604856489</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>24180.652275247</v>
       </c>
       <c r="C77">
-        <v>1337.20824887864</v>
+        <v>1321.13761671377</v>
       </c>
       <c r="D77">
-        <v>1097.06618794352</v>
+        <v>1083.881594458</v>
       </c>
       <c r="E77">
-        <v>411.962595259264</v>
+        <v>407.011609248186</v>
       </c>
       <c r="F77">
-        <v>255.31122474598</v>
+        <v>252.242882336414</v>
       </c>
       <c r="G77">
-        <v>287.499152976919</v>
+        <v>284.043974519055</v>
       </c>
       <c r="H77">
-        <v>320.923869877447</v>
+        <v>317.066991586387</v>
       </c>
       <c r="I77">
-        <v>278.044154799641</v>
+        <v>274.702606958365</v>
       </c>
       <c r="J77">
-        <v>401.417370111222</v>
+        <v>396.593117116181</v>
       </c>
       <c r="K77">
-        <v>279.993579908486</v>
+        <v>276.628603783782</v>
       </c>
       <c r="L77">
-        <v>946.655280307856</v>
+        <v>935.2783322449681</v>
       </c>
       <c r="M77">
-        <v>873.835055695028</v>
+        <v>863.333264545729</v>
       </c>
       <c r="N77">
-        <v>422.473134065072</v>
+        <v>417.395831900063</v>
       </c>
       <c r="O77">
-        <v>21958.4531079571</v>
+        <v>21694.5553769168</v>
       </c>
       <c r="P77">
-        <v>6626.89841338765</v>
+        <v>6547.25603391175</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4342.65231581289</v>
       </c>
       <c r="C78">
-        <v>145.312287722502</v>
+        <v>148.179688748447</v>
       </c>
       <c r="D78">
-        <v>26.3694188718869</v>
+        <v>26.8897582039002</v>
       </c>
       <c r="E78">
-        <v>135.362230931232</v>
+        <v>138.033290660109</v>
       </c>
       <c r="F78">
-        <v>15.5784015145304</v>
+        <v>15.8858051428503</v>
       </c>
       <c r="G78">
-        <v>70.5139540080356</v>
+        <v>71.9053833718913</v>
       </c>
       <c r="H78">
-        <v>34.4420508479793</v>
+        <v>35.1216848519926</v>
       </c>
       <c r="I78">
-        <v>31.8238733846367</v>
+        <v>32.4518437278394</v>
       </c>
       <c r="J78">
-        <v>124.469040794818</v>
+        <v>126.925148677141</v>
       </c>
       <c r="K78">
-        <v>88.2507554801509</v>
+        <v>89.992179490263</v>
       </c>
       <c r="L78">
-        <v>89.7656634157885</v>
+        <v>91.5369806210112</v>
       </c>
       <c r="M78">
-        <v>54.0926270662827</v>
+        <v>55.1600196232161</v>
       </c>
       <c r="N78">
-        <v>151.179363073752</v>
+        <v>154.162537226287</v>
       </c>
       <c r="O78">
-        <v>6356.57727626912</v>
+        <v>6482.00958821707</v>
       </c>
       <c r="P78">
-        <v>273.487056619282</v>
+        <v>278.883689478236</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11405.1196077426</v>
       </c>
       <c r="C79">
-        <v>589.600802936637</v>
+        <v>575.876999987737</v>
       </c>
       <c r="D79">
-        <v>417.918898601259</v>
+        <v>408.191237810333</v>
       </c>
       <c r="E79">
-        <v>372.661451044058</v>
+        <v>363.987222150022</v>
       </c>
       <c r="F79">
-        <v>298.448356938924</v>
+        <v>291.501544077319</v>
       </c>
       <c r="G79">
-        <v>125.170472085156</v>
+        <v>122.256950113406</v>
       </c>
       <c r="H79">
-        <v>134.29036076167</v>
+        <v>131.164560322033</v>
       </c>
       <c r="I79">
-        <v>190.491674730688</v>
+        <v>186.057708232697</v>
       </c>
       <c r="J79">
-        <v>347.239761358275</v>
+        <v>339.157258693474</v>
       </c>
       <c r="K79">
-        <v>192.201653857535</v>
+        <v>187.727885146815</v>
       </c>
       <c r="L79">
-        <v>173.163886245312</v>
+        <v>169.133248836306</v>
       </c>
       <c r="M79">
-        <v>191.06166777297</v>
+        <v>186.614433870736</v>
       </c>
       <c r="N79">
-        <v>205.311493830024</v>
+        <v>200.532574821716</v>
       </c>
       <c r="O79">
-        <v>8160.59038635328</v>
+        <v>7970.64095980707</v>
       </c>
       <c r="P79">
-        <v>2856.34913348422</v>
+        <v>2789.86351734198</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2921.09673656925</v>
       </c>
       <c r="C80">
-        <v>116.190932096162</v>
+        <v>118.446324967618</v>
       </c>
       <c r="D80">
-        <v>308.20137072965</v>
+        <v>314.183895888681</v>
       </c>
       <c r="E80">
-        <v>110.282918599747</v>
+        <v>112.423630477739</v>
       </c>
       <c r="F80">
-        <v>17.724040489245</v>
+        <v>18.0680834696366</v>
       </c>
       <c r="G80">
-        <v>22.6473850695909</v>
+        <v>23.0869955445356</v>
       </c>
       <c r="H80">
-        <v>25.6013918177984</v>
+        <v>26.0983427894751</v>
       </c>
       <c r="I80">
-        <v>67.9421552087727</v>
+        <v>69.26098663360691</v>
       </c>
       <c r="J80">
-        <v>98.4668916069169</v>
+        <v>100.378241497981</v>
       </c>
       <c r="K80">
-        <v>45.2947701391818</v>
+        <v>46.1739910890713</v>
       </c>
       <c r="L80">
-        <v>49.2334458034585</v>
+        <v>50.1891207489905</v>
       </c>
       <c r="M80">
-        <v>39.3867566427668</v>
+        <v>40.1512965991924</v>
       </c>
       <c r="N80">
-        <v>72.8654997891185</v>
+        <v>74.279898708506</v>
       </c>
       <c r="O80">
-        <v>3064.28966680725</v>
+        <v>3123.77087541717</v>
       </c>
       <c r="P80">
-        <v>631.172775200337</v>
+        <v>643.424528002058</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>7036.97636767679</v>
       </c>
       <c r="C81">
-        <v>218.664585046106</v>
+        <v>188.630480846503</v>
       </c>
       <c r="D81">
-        <v>680.767445839351</v>
+        <v>587.262407519014</v>
       </c>
       <c r="E81">
-        <v>212.329760026664</v>
+        <v>183.165759207908</v>
       </c>
       <c r="F81">
-        <v>216.175903788468</v>
+        <v>186.483625917055</v>
       </c>
       <c r="G81">
-        <v>76.0179002333074</v>
+        <v>65.57665966314011</v>
       </c>
       <c r="H81">
-        <v>38.6876813687368</v>
+        <v>33.3738357214195</v>
       </c>
       <c r="I81">
-        <v>88.687550272192</v>
+        <v>76.50610294033019</v>
       </c>
       <c r="J81">
-        <v>258.25724141762</v>
+        <v>222.784991087722</v>
       </c>
       <c r="K81">
-        <v>250.338710143317</v>
+        <v>215.954089039478</v>
       </c>
       <c r="L81">
-        <v>117.759872236418</v>
+        <v>101.585271888882</v>
       </c>
       <c r="M81">
-        <v>120.701040995445</v>
+        <v>104.12246407823</v>
       </c>
       <c r="N81">
-        <v>150.112728585713</v>
+        <v>129.494385971707</v>
       </c>
       <c r="O81">
-        <v>3678.27089878902</v>
+        <v>3173.0515857242</v>
       </c>
       <c r="P81">
-        <v>4075.32868125764</v>
+        <v>3515.57253128614</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41614.1558284625</v>
+        <v>70073.7801236626</v>
       </c>
       <c r="C82">
-        <v>3654.57509892275</v>
+        <v>3651.67043702009</v>
       </c>
       <c r="D82">
-        <v>1625.96941326574</v>
+        <v>1624.67709027832</v>
       </c>
       <c r="E82">
-        <v>1693.72780043006</v>
+        <v>1692.38162297243</v>
       </c>
       <c r="F82">
-        <v>1727.04762996169</v>
+        <v>1725.67496985237</v>
       </c>
       <c r="G82">
-        <v>734.615629523734</v>
+        <v>734.031755892897</v>
       </c>
       <c r="H82">
-        <v>889.788249622653</v>
+        <v>889.081044554991</v>
       </c>
       <c r="I82">
-        <v>665.942607843415</v>
+        <v>665.413315635703</v>
       </c>
       <c r="J82">
-        <v>2345.33801767228</v>
+        <v>2343.473939413</v>
       </c>
       <c r="K82">
-        <v>937.448785190243</v>
+        <v>936.703699455696</v>
       </c>
       <c r="L82">
-        <v>1733.07141053519</v>
+        <v>1731.69396271581</v>
       </c>
       <c r="M82">
-        <v>1028.81996166943</v>
+        <v>1028.00225398345</v>
       </c>
       <c r="N82">
-        <v>937.236855060358</v>
+        <v>936.491937768204</v>
       </c>
       <c r="O82">
-        <v>66638.2789364721</v>
+        <v>66585.31473000591</v>
       </c>
       <c r="P82">
-        <v>13616.586333791</v>
+        <v>13605.7638500556</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>42209.1530223361</v>
       </c>
       <c r="C83">
-        <v>1784.13323477653</v>
+        <v>1753.2164956535</v>
       </c>
       <c r="D83">
-        <v>949.461403962812</v>
+        <v>933.008456412973</v>
       </c>
       <c r="E83">
-        <v>938.00006683323</v>
+        <v>921.745729545858</v>
       </c>
       <c r="F83">
-        <v>1155.74956436647</v>
+        <v>1135.7219077562</v>
       </c>
       <c r="G83">
-        <v>599.337365950517</v>
+        <v>588.951618614727</v>
       </c>
       <c r="H83">
-        <v>218.523164727448</v>
+        <v>214.736438745034</v>
       </c>
       <c r="I83">
-        <v>694.612355608713</v>
+        <v>682.575614982289</v>
       </c>
       <c r="J83">
-        <v>1202.45348563525</v>
+        <v>1181.61651001128</v>
       </c>
       <c r="K83">
-        <v>1846.3627695257</v>
+        <v>1814.36767243361</v>
       </c>
       <c r="L83">
-        <v>878.452970056115</v>
+        <v>863.230507530508</v>
       </c>
       <c r="M83">
-        <v>1167.88870757838</v>
+        <v>1147.65069519616</v>
       </c>
       <c r="N83">
-        <v>407.743869959033</v>
+        <v>400.678192009193</v>
       </c>
       <c r="O83">
-        <v>35472.8424663733</v>
+        <v>34858.1436338488</v>
       </c>
       <c r="P83">
-        <v>17410.7823354041</v>
+        <v>17109.075823301</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1233.44975769767</v>
       </c>
       <c r="C84">
-        <v>57.8845137377129</v>
+        <v>58.3495269589217</v>
       </c>
       <c r="D84">
-        <v>81.78460832291751</v>
+        <v>82.4416221199733</v>
       </c>
       <c r="E84">
-        <v>51.9065457630709</v>
+        <v>52.323535187159</v>
       </c>
       <c r="F84">
-        <v>15.1338476718075</v>
+        <v>15.2554249089773</v>
       </c>
       <c r="G84">
-        <v>16.1113646809592</v>
+        <v>16.2407947669113</v>
       </c>
       <c r="H84">
-        <v>21.2688464912931</v>
+        <v>21.4397090273961</v>
       </c>
       <c r="I84">
-        <v>26.5578416341835</v>
+        <v>26.7711931282053</v>
       </c>
       <c r="J84">
-        <v>76.0412051727608</v>
+        <v>76.6520795410281</v>
       </c>
       <c r="K84">
-        <v>48.4587372759724</v>
+        <v>48.848028850892</v>
       </c>
       <c r="L84">
-        <v>68.4988174063639</v>
+        <v>69.0491002657044</v>
       </c>
       <c r="M84">
-        <v>31.386540113126</v>
+        <v>31.638682787879</v>
       </c>
       <c r="N84">
-        <v>25.5911204956148</v>
+        <v>25.796705869104</v>
       </c>
       <c r="O84">
-        <v>1241.54867167189</v>
+        <v>1251.52260960143</v>
       </c>
       <c r="P84">
-        <v>90.9483395623252</v>
+        <v>91.6789698745207</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>644.215900743828</v>
       </c>
       <c r="C85">
-        <v>21.4662784559091</v>
+        <v>21.1258408502857</v>
       </c>
       <c r="D85">
-        <v>35.0714713299442</v>
+        <v>34.5152665015303</v>
       </c>
       <c r="E85">
-        <v>28.3598001976202</v>
+        <v>27.9100369796938</v>
       </c>
       <c r="F85">
-        <v>5.03054131402289</v>
+        <v>4.95076104640673</v>
       </c>
       <c r="G85">
-        <v>13.8611673731181</v>
+        <v>13.6413406042936</v>
       </c>
       <c r="H85">
-        <v>13.1821925435044</v>
+        <v>12.9731337597197</v>
       </c>
       <c r="I85">
-        <v>9.81696795131421</v>
+        <v>9.66127887504088</v>
       </c>
       <c r="J85">
-        <v>40.9746979053192</v>
+        <v>40.3248727353589</v>
       </c>
       <c r="K85">
-        <v>24.4510004143273</v>
+        <v>24.0632275615133</v>
       </c>
       <c r="L85">
-        <v>29.3421888157221</v>
+        <v>28.8768457184223</v>
       </c>
       <c r="M85">
-        <v>9.991900330996341</v>
+        <v>9.833436970367799</v>
       </c>
       <c r="N85">
-        <v>16.8992585321174</v>
+        <v>16.631250124265</v>
       </c>
       <c r="O85">
-        <v>505.031756779373</v>
+        <v>497.022366498013</v>
       </c>
       <c r="P85">
-        <v>95.7077780567116</v>
+        <v>94.1899310359493</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2402.23744506791</v>
       </c>
       <c r="C86">
-        <v>64.78600387292001</v>
+        <v>64.9522015814272</v>
       </c>
       <c r="D86">
-        <v>12.1535014829683</v>
+        <v>12.1846792679228</v>
       </c>
       <c r="E86">
-        <v>126.435620266364</v>
+        <v>126.759969803391</v>
       </c>
       <c r="F86">
-        <v>10.8793440694313</v>
+        <v>10.9072532156406</v>
       </c>
       <c r="G86">
-        <v>40.6750251244505</v>
+        <v>40.7793701305481</v>
       </c>
       <c r="H86">
-        <v>26.0712209231418</v>
+        <v>26.1381023005441</v>
       </c>
       <c r="I86">
-        <v>17.6421795720508</v>
+        <v>17.6874376469847</v>
       </c>
       <c r="J86">
-        <v>111.831816065056</v>
+        <v>112.118701973387</v>
       </c>
       <c r="K86">
-        <v>101.736568865493</v>
+        <v>101.997557097612</v>
       </c>
       <c r="L86">
-        <v>88.4069220777214</v>
+        <v>88.6337153198901</v>
       </c>
       <c r="M86">
-        <v>99.7763266908208</v>
+        <v>100.032286247947</v>
       </c>
       <c r="N86">
-        <v>50.5742481065457</v>
+        <v>50.7039879213562</v>
       </c>
       <c r="O86">
-        <v>3141.97416967352</v>
+        <v>3150.0343813855</v>
       </c>
       <c r="P86">
-        <v>105.657053214838</v>
+        <v>105.928098796942</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>20890.8208903262</v>
       </c>
       <c r="C87">
-        <v>512.375934471195</v>
+        <v>492.846845014067</v>
       </c>
       <c r="D87">
-        <v>1356.30168046357</v>
+        <v>1304.60655767065</v>
       </c>
       <c r="E87">
-        <v>217.996309702318</v>
+        <v>209.68743110931</v>
       </c>
       <c r="F87">
-        <v>95.7320998902665</v>
+        <v>92.0832931901524</v>
       </c>
       <c r="G87">
-        <v>135.620022124458</v>
+        <v>130.450896554617</v>
       </c>
       <c r="H87">
-        <v>162.745746197129</v>
+        <v>156.542729969345</v>
       </c>
       <c r="I87">
-        <v>201.019946823821</v>
+        <v>193.358118349693</v>
       </c>
       <c r="J87">
-        <v>352.782302653754</v>
+        <v>339.336087318666</v>
       </c>
       <c r="K87">
-        <v>244.867525903634</v>
+        <v>235.534457160948</v>
       </c>
       <c r="L87">
-        <v>143.344679949641</v>
+        <v>137.881130845156</v>
       </c>
       <c r="M87">
-        <v>182.055671112308</v>
+        <v>175.116661591888</v>
       </c>
       <c r="N87">
-        <v>231.956410375701</v>
+        <v>223.115445795551</v>
       </c>
       <c r="O87">
-        <v>8038.1009488013</v>
+        <v>7731.73060247233</v>
       </c>
       <c r="P87">
-        <v>7338.67059051515</v>
+        <v>7058.95886945924</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1400.53638767849</v>
+        <v>1495.93155403537</v>
       </c>
       <c r="C2">
-        <v>37.5180790784607</v>
+        <v>24.9838924867426</v>
       </c>
       <c r="D2">
-        <v>64.7916840254144</v>
+        <v>37.7230301547926</v>
       </c>
       <c r="E2">
-        <v>54.6523040519734</v>
+        <v>49.2083477341661</v>
       </c>
       <c r="F2">
-        <v>14.6739127107805</v>
+        <v>18.9293120986733</v>
       </c>
       <c r="G2">
-        <v>15.5515080120048</v>
+        <v>9.63915951676068</v>
       </c>
       <c r="H2">
-        <v>16.2584632599863</v>
+        <v>18.4710214814099</v>
       </c>
       <c r="I2">
-        <v>14.277284103661</v>
+        <v>14.9205047074195</v>
       </c>
       <c r="J2">
-        <v>62.3121329990586</v>
+        <v>68.2338461283661</v>
       </c>
       <c r="K2">
-        <v>18.1131493276282</v>
+        <v>17.5142289979538</v>
       </c>
       <c r="L2">
-        <v>32.3478673155463</v>
+        <v>35.5782834774051</v>
       </c>
       <c r="M2">
-        <v>43.5870397425562</v>
+        <v>36.1554102268759</v>
       </c>
       <c r="N2">
-        <v>36.1010339498455</v>
+        <v>30.0992354223827</v>
       </c>
       <c r="O2">
-        <v>1314.58780352777</v>
+        <v>1280.81952218944</v>
       </c>
       <c r="P2">
-        <v>34.8851635819183</v>
+        <v>21.2723715470885</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>131.987221415705</v>
+        <v>124.024484473416</v>
       </c>
       <c r="C3">
-        <v>3.06704925663259</v>
+        <v>3.90820839590368</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.203120892120154</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.44626732622411</v>
       </c>
       <c r="F3">
-        <v>7.49564005229976</v>
+        <v>6.49988729779055</v>
       </c>
       <c r="G3">
-        <v>0.244667363683344</v>
+        <v>0.0849447223063617</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.0163156611852801</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.427772045448796</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.386968390554175</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.0663889531968751</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.0557568062476137</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.583575878577286</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.435591675413389</v>
       </c>
       <c r="O3">
-        <v>206.30689486324</v>
+        <v>216.444793640736</v>
       </c>
       <c r="P3">
-        <v>6.46970811208928</v>
+        <v>9.70565146474936</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1664.46633538987</v>
+        <v>1596.36594114508</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>3.47205832216549</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>2.77720255989471</v>
       </c>
       <c r="E4">
-        <v>23.8388895446348</v>
+        <v>22.9516097126232</v>
       </c>
       <c r="F4">
-        <v>20.0304476782957</v>
+        <v>8.897818470089611</v>
       </c>
       <c r="G4">
-        <v>8.96638381647012</v>
+        <v>5.72550902306292</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>14.4113930471142</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>12.8025422663109</v>
       </c>
       <c r="J4">
-        <v>24.9707627858835</v>
+        <v>20.0835095380119</v>
       </c>
       <c r="K4">
-        <v>10.4340196750847</v>
+        <v>1.80894719157654</v>
       </c>
       <c r="L4">
-        <v>68.38804104068611</v>
+        <v>65.285294398015</v>
       </c>
       <c r="M4">
-        <v>47.7881057138114</v>
+        <v>40.8617772379681</v>
       </c>
       <c r="N4">
-        <v>25.4266213365135</v>
+        <v>22.2420638416635</v>
       </c>
       <c r="O4">
-        <v>1813.72033518175</v>
+        <v>1915.18104093896</v>
       </c>
       <c r="P4">
-        <v>24.7447561344643</v>
+        <v>28.7162126487729</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>840.900911304003</v>
+        <v>863.162626234723</v>
       </c>
       <c r="C5">
-        <v>59.3551716009964</v>
+        <v>39.0044338702915</v>
       </c>
       <c r="D5">
-        <v>11.5173139506464</v>
+        <v>11.3667715445995</v>
       </c>
       <c r="E5">
-        <v>45.5312872412716</v>
+        <v>32.3236516401933</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>5.1744308585398</v>
       </c>
       <c r="G5">
-        <v>9.964069844139139</v>
+        <v>3.29444341956319</v>
       </c>
       <c r="H5">
-        <v>15.5127069837914</v>
+        <v>9.995717613955391</v>
       </c>
       <c r="I5">
-        <v>6.67994143536038</v>
+        <v>6.49706269303771</v>
       </c>
       <c r="J5">
-        <v>30.9686892790052</v>
+        <v>31.9874442047568</v>
       </c>
       <c r="K5">
-        <v>17.4145697957503</v>
+        <v>12.0045226010418</v>
       </c>
       <c r="L5">
-        <v>19.6314477953205</v>
+        <v>12.2342767527296</v>
       </c>
       <c r="M5">
-        <v>25.1785011590574</v>
+        <v>15.8236383734718</v>
       </c>
       <c r="N5">
-        <v>21.5853239260759</v>
+        <v>18.6150600654779</v>
       </c>
       <c r="O5">
-        <v>773.038639440637</v>
+        <v>824.896435605761</v>
       </c>
       <c r="P5">
-        <v>50.1025839735484</v>
+        <v>47.9559864478189</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9783.46028445806</v>
+        <v>9563.36666479859</v>
       </c>
       <c r="C6">
-        <v>189.464747879442</v>
+        <v>165.917840245078</v>
       </c>
       <c r="D6">
-        <v>162.656396636028</v>
+        <v>62.7068689961671</v>
       </c>
       <c r="E6">
-        <v>191.470782588211</v>
+        <v>131.512082428043</v>
       </c>
       <c r="F6">
-        <v>47.2848611981873</v>
+        <v>36.0543213532706</v>
       </c>
       <c r="G6">
-        <v>89.0405480249226</v>
+        <v>107.077030128805</v>
       </c>
       <c r="H6">
-        <v>55.696783896833</v>
+        <v>48.0139608367423</v>
       </c>
       <c r="I6">
-        <v>48.3560778559113</v>
+        <v>43.7250543431471</v>
       </c>
       <c r="J6">
-        <v>162.237562102341</v>
+        <v>148.994921012</v>
       </c>
       <c r="K6">
-        <v>87.1178186008605</v>
+        <v>51.7126897501415</v>
       </c>
       <c r="L6">
-        <v>542.3769473447001</v>
+        <v>446.592676662301</v>
       </c>
       <c r="M6">
-        <v>249.465167457156</v>
+        <v>211.580705446809</v>
       </c>
       <c r="N6">
-        <v>241.560115858386</v>
+        <v>212.504077076646</v>
       </c>
       <c r="O6">
-        <v>11054.1938055258</v>
+        <v>11724.2028137528</v>
       </c>
       <c r="P6">
-        <v>291.154178218174</v>
+        <v>281.077085788592</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1043.02038876945</v>
+        <v>1051.0853375662</v>
       </c>
       <c r="C7">
-        <v>24.3229315996833</v>
+        <v>39.6229771027228</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>2.74076597524723</v>
       </c>
       <c r="E7">
-        <v>22.2521127186562</v>
+        <v>16.6896196707602</v>
       </c>
       <c r="F7">
-        <v>23.0091405232875</v>
+        <v>16.2549697180106</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>7.36647962771877</v>
       </c>
       <c r="H7">
-        <v>6.59014767067625</v>
+        <v>3.24927963578464</v>
       </c>
       <c r="I7">
-        <v>10.6870664734349</v>
+        <v>7.09490327179992</v>
       </c>
       <c r="J7">
-        <v>20.5136066077298</v>
+        <v>14.4445343358229</v>
       </c>
       <c r="K7">
-        <v>11.3751713626532</v>
+        <v>4.80621530928169</v>
       </c>
       <c r="L7">
-        <v>63.6424945573835</v>
+        <v>54.1229852102265</v>
       </c>
       <c r="M7">
-        <v>16.6614620296731</v>
+        <v>10.4755341935603</v>
       </c>
       <c r="N7">
-        <v>24.2232168999422</v>
+        <v>25.4984408997633</v>
       </c>
       <c r="O7">
-        <v>1705.79252229878</v>
+        <v>1757.77869317276</v>
       </c>
       <c r="P7">
-        <v>51.0989352078158</v>
+        <v>23.9063418575398</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>890.914742916142</v>
+        <v>834.867694425574</v>
       </c>
       <c r="C8">
-        <v>12.2163105347928</v>
+        <v>14.3196036425588</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>3.50898343726708</v>
       </c>
       <c r="E8">
-        <v>22.6490975499148</v>
+        <v>19.4778931603994</v>
       </c>
       <c r="F8">
-        <v>1.65300834284282</v>
+        <v>0.214922513413547</v>
       </c>
       <c r="G8">
-        <v>24.4139777796939</v>
+        <v>23.6828755459556</v>
       </c>
       <c r="H8">
-        <v>7.41440699937644</v>
+        <v>8.413748080867711</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>7.12514801910201</v>
       </c>
       <c r="J8">
-        <v>43.0527975698369</v>
+        <v>32.9733717916783</v>
       </c>
       <c r="K8">
-        <v>21.3172505245489</v>
+        <v>17.9296291727026</v>
       </c>
       <c r="L8">
-        <v>43.6054069959205</v>
+        <v>49.0232708505504</v>
       </c>
       <c r="M8">
-        <v>53.8550624534514</v>
+        <v>40.9468646632222</v>
       </c>
       <c r="N8">
-        <v>24.4405792348771</v>
+        <v>20.5684179143616</v>
       </c>
       <c r="O8">
-        <v>1218.81227580845</v>
+        <v>1307.66584798011</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>1.36441096345535</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>221.842235877497</v>
+        <v>214.973371813016</v>
       </c>
       <c r="C9">
-        <v>9.170361475385951</v>
+        <v>6.03572559808028</v>
       </c>
       <c r="D9">
-        <v>2.05211143648243</v>
+        <v>2.79357886834984</v>
       </c>
       <c r="E9">
-        <v>5.0572200984804</v>
+        <v>2.93073060741545</v>
       </c>
       <c r="F9">
-        <v>1.88172981145336</v>
+        <v>1.2398085147111</v>
       </c>
       <c r="G9">
-        <v>16.5120401686837</v>
+        <v>16.5560088309758</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>2.96774110198019</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.65526102092159</v>
       </c>
       <c r="J9">
-        <v>3.47718882292856</v>
+        <v>5.24681543750549</v>
       </c>
       <c r="K9">
-        <v>2.0060927019809</v>
+        <v>1.63254195795778</v>
       </c>
       <c r="L9">
-        <v>2.50450716741505</v>
+        <v>3.737727870528</v>
       </c>
       <c r="M9">
-        <v>6.45813979083739</v>
+        <v>6.03919339656422</v>
       </c>
       <c r="N9">
-        <v>4.60174999929474</v>
+        <v>3.67375780726051</v>
       </c>
       <c r="O9">
-        <v>284.165777989745</v>
+        <v>292.920733265616</v>
       </c>
       <c r="P9">
-        <v>3.7975175024398</v>
+        <v>4.46874787876983</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5537.28694969583</v>
+        <v>5555.17090135783</v>
       </c>
       <c r="C10">
-        <v>59.2331138830426</v>
+        <v>63.7545347209934</v>
       </c>
       <c r="D10">
-        <v>22.9258182487135</v>
+        <v>18.0014226388081</v>
       </c>
       <c r="E10">
-        <v>76.8840340956254</v>
+        <v>35.528692353644</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>6.46722086339982</v>
       </c>
       <c r="G10">
-        <v>35.6791430288701</v>
+        <v>29.962852144228</v>
       </c>
       <c r="H10">
-        <v>19.8926658939604</v>
+        <v>19.6175050326052</v>
       </c>
       <c r="I10">
-        <v>24.3276757876934</v>
+        <v>36.5486677901179</v>
       </c>
       <c r="J10">
-        <v>43.4651988415979</v>
+        <v>49.7275884676341</v>
       </c>
       <c r="K10">
-        <v>32.0710403824982</v>
+        <v>21.3542629206891</v>
       </c>
       <c r="L10">
-        <v>87.10128482695249</v>
+        <v>62.8145414781973</v>
       </c>
       <c r="M10">
-        <v>79.3010566894657</v>
+        <v>64.1914525861053</v>
       </c>
       <c r="N10">
-        <v>80.2616469698574</v>
+        <v>67.5867423267362</v>
       </c>
       <c r="O10">
-        <v>5991.56159999146</v>
+        <v>6114.55061069129</v>
       </c>
       <c r="P10">
-        <v>94.1051859234053</v>
+        <v>70.8744545995369</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2234.41194974962</v>
+        <v>2316.88433768107</v>
       </c>
       <c r="C11">
-        <v>84.2810074234428</v>
+        <v>68.1587874825903</v>
       </c>
       <c r="D11">
-        <v>118.812278482818</v>
+        <v>138.872650360141</v>
       </c>
       <c r="E11">
-        <v>87.61462426330959</v>
+        <v>58.1810165652034</v>
       </c>
       <c r="F11">
-        <v>12.2585757868648</v>
+        <v>1.7762712292297</v>
       </c>
       <c r="G11">
-        <v>30.9187974556489</v>
+        <v>27.8039442405112</v>
       </c>
       <c r="H11">
-        <v>30.289966297858</v>
+        <v>12.3913504060387</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>14.9542447382069</v>
       </c>
       <c r="J11">
-        <v>38.9839080628143</v>
+        <v>42.6502473336528</v>
       </c>
       <c r="K11">
-        <v>35.6847193812506</v>
+        <v>13.356214825637</v>
       </c>
       <c r="L11">
-        <v>64.5057471584043</v>
+        <v>55.7471553386803</v>
       </c>
       <c r="M11">
-        <v>71.3305029701297</v>
+        <v>39.1343888736275</v>
       </c>
       <c r="N11">
-        <v>55.2785823504331</v>
+        <v>47.9418946599373</v>
       </c>
       <c r="O11">
-        <v>2784.89320890413</v>
+        <v>2822.46881995923</v>
       </c>
       <c r="P11">
-        <v>58.9772537206978</v>
+        <v>49.326000267145</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>348.697148413902</v>
+        <v>331.403366873523</v>
       </c>
       <c r="C12">
-        <v>4.92203873967824</v>
+        <v>5.6870699123048</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>0.55705297000599</v>
       </c>
       <c r="E12">
-        <v>2.92341890635848</v>
+        <v>1.5902446384125</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.836791942645333</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.631968568811032</v>
       </c>
       <c r="H12">
-        <v>0.08915203263845251</v>
+        <v>0.0349015989666441</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>0.789493069849</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>2.85280495541597</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.150796721560552</v>
       </c>
       <c r="L12">
-        <v>0.24753155950496</v>
+        <v>0.55092745984539</v>
       </c>
       <c r="M12">
-        <v>3.92798411944512</v>
+        <v>2.81869441703083</v>
       </c>
       <c r="N12">
-        <v>2.25327605565252</v>
+        <v>1.53593447329157</v>
       </c>
       <c r="O12">
-        <v>452.966233198328</v>
+        <v>476.327057885773</v>
       </c>
       <c r="P12">
-        <v>14.0208217250702</v>
+        <v>11.7616522972269</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>362.879400555917</v>
+        <v>323.003856589205</v>
       </c>
       <c r="C13">
-        <v>19.455917470547</v>
+        <v>14.457068491831</v>
       </c>
       <c r="D13">
-        <v>1.21967752553177</v>
+        <v>0.165524363471403</v>
       </c>
       <c r="E13">
-        <v>17.698905424577</v>
+        <v>10.5700156749332</v>
       </c>
       <c r="F13">
-        <v>1.79556341149092</v>
+        <v>3.70030495368283</v>
       </c>
       <c r="G13">
-        <v>5.10296837867146</v>
+        <v>4.31931161912353</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>0.952604055428934</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.6193945041195</v>
       </c>
       <c r="J13">
-        <v>5.22580373092508</v>
+        <v>3.78639683234619</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>1.05651921559454</v>
       </c>
       <c r="L13">
-        <v>21.5034088602805</v>
+        <v>16.7777008040203</v>
       </c>
       <c r="M13">
-        <v>2.63798214045751</v>
+        <v>0.864357828075034</v>
       </c>
       <c r="N13">
-        <v>5.97822703998485</v>
+        <v>3.74184087184941</v>
       </c>
       <c r="O13">
-        <v>409.947403178331</v>
+        <v>465.828720285162</v>
       </c>
       <c r="P13">
-        <v>38.701181956363</v>
+        <v>42.4956278141776</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3421.14818465339</v>
+        <v>3456.33501376972</v>
       </c>
       <c r="C14">
-        <v>106.266658373916</v>
+        <v>121.008166649047</v>
       </c>
       <c r="D14">
-        <v>17.8574139128877</v>
+        <v>11.3388005573545</v>
       </c>
       <c r="E14">
-        <v>133.001070580758</v>
+        <v>71.93692990683751</v>
       </c>
       <c r="F14">
-        <v>30.1531461573612</v>
+        <v>16.210400102424</v>
       </c>
       <c r="G14">
-        <v>71.1709701114528</v>
+        <v>68.8431150636104</v>
       </c>
       <c r="H14">
-        <v>62.821693326607</v>
+        <v>32.3075207738378</v>
       </c>
       <c r="I14">
-        <v>18.5858145639837</v>
+        <v>25.5447627577001</v>
       </c>
       <c r="J14">
-        <v>176.578045109443</v>
+        <v>128.686852431134</v>
       </c>
       <c r="K14">
-        <v>132.473375025017</v>
+        <v>115.732410466992</v>
       </c>
       <c r="L14">
-        <v>119.566990582027</v>
+        <v>97.59505986896281</v>
       </c>
       <c r="M14">
-        <v>84.3406055112425</v>
+        <v>65.5813518248675</v>
       </c>
       <c r="N14">
-        <v>72.1521361944299</v>
+        <v>95.85980754085691</v>
       </c>
       <c r="O14">
-        <v>4047.46864287849</v>
+        <v>4191.28897091066</v>
       </c>
       <c r="P14">
-        <v>73.21498522654601</v>
+        <v>62.1973290077501</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1621.1502136626</v>
+        <v>1585.13935759133</v>
       </c>
       <c r="C15">
-        <v>40.0243492540514</v>
+        <v>36.200043225632</v>
       </c>
       <c r="D15">
-        <v>12.136488404904</v>
+        <v>12.4497033898084</v>
       </c>
       <c r="E15">
-        <v>70.16140104423199</v>
+        <v>67.59955045633539</v>
       </c>
       <c r="F15">
-        <v>11.7350070428283</v>
+        <v>19.2997812145471</v>
       </c>
       <c r="G15">
-        <v>40.572870548158</v>
+        <v>42.9981537813675</v>
       </c>
       <c r="H15">
-        <v>54.3772797715529</v>
+        <v>40.6682863870338</v>
       </c>
       <c r="I15">
-        <v>18.6480118379814</v>
+        <v>20.8320914752617</v>
       </c>
       <c r="J15">
-        <v>140.640591610453</v>
+        <v>130.238112367897</v>
       </c>
       <c r="K15">
-        <v>47.0985306226506</v>
+        <v>38.6305065781636</v>
       </c>
       <c r="L15">
-        <v>58.7320149722143</v>
+        <v>31.4396964698458</v>
       </c>
       <c r="M15">
-        <v>208.473600981807</v>
+        <v>161.92041643487</v>
       </c>
       <c r="N15">
-        <v>79.4842036842675</v>
+        <v>79.1931282191766</v>
       </c>
       <c r="O15">
-        <v>1824.60996912592</v>
+        <v>1965.17956762666</v>
       </c>
       <c r="P15">
-        <v>42.2764455485474</v>
+        <v>42.239542425289</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>733.985670638014</v>
+        <v>688.847607996005</v>
       </c>
       <c r="C16">
-        <v>58.1052562423862</v>
+        <v>55.2376877198436</v>
       </c>
       <c r="D16">
-        <v>6.48689760272808</v>
+        <v>3.84267707826467</v>
       </c>
       <c r="E16">
-        <v>25.4399683564877</v>
+        <v>24.830206182765</v>
       </c>
       <c r="F16">
-        <v>3.37219540502357</v>
+        <v>3.01447452371251</v>
       </c>
       <c r="G16">
-        <v>10.2924565022381</v>
+        <v>16.9218477223435</v>
       </c>
       <c r="H16">
-        <v>17.0474590359257</v>
+        <v>10.7266735632826</v>
       </c>
       <c r="I16">
-        <v>9.665711564890341</v>
+        <v>8.78620122544292</v>
       </c>
       <c r="J16">
-        <v>47.5314139912795</v>
+        <v>46.9802805533212</v>
       </c>
       <c r="K16">
-        <v>45.8949632606857</v>
+        <v>41.4093051502751</v>
       </c>
       <c r="L16">
-        <v>34.3742469088447</v>
+        <v>20.6539791801391</v>
       </c>
       <c r="M16">
-        <v>28.0327114415311</v>
+        <v>23.9654034105252</v>
       </c>
       <c r="N16">
-        <v>15.9839451137008</v>
+        <v>26.492940135478</v>
       </c>
       <c r="O16">
-        <v>944.60985470463</v>
+        <v>1004.47291622488</v>
       </c>
       <c r="P16">
-        <v>67.0888829352803</v>
+        <v>67.39434802173</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>676.3862624794961</v>
+        <v>635.77146932695</v>
       </c>
       <c r="C17">
-        <v>31.1525123786611</v>
+        <v>13.57319405455</v>
       </c>
       <c r="D17">
-        <v>4.40078566430918</v>
+        <v>3.86720345565161</v>
       </c>
       <c r="E17">
-        <v>23.7659938346424</v>
+        <v>18.4101101246516</v>
       </c>
       <c r="F17">
-        <v>16.6289982802863</v>
+        <v>10.5968702399547</v>
       </c>
       <c r="G17">
-        <v>8.63834924110262</v>
+        <v>6.16950131495529</v>
       </c>
       <c r="H17">
-        <v>13.8056303779406</v>
+        <v>5.75825888861959</v>
       </c>
       <c r="I17">
-        <v>8.84775662780986</v>
+        <v>6.59469158976123</v>
       </c>
       <c r="J17">
-        <v>17.2972578985747</v>
+        <v>15.5678490659229</v>
       </c>
       <c r="K17">
-        <v>17.9588500553802</v>
+        <v>6.55876460425494</v>
       </c>
       <c r="L17">
-        <v>9.95977557514955</v>
+        <v>8.60442974898743</v>
       </c>
       <c r="M17">
-        <v>63.2397284747335</v>
+        <v>57.4553142237101</v>
       </c>
       <c r="N17">
-        <v>14.2606710030644</v>
+        <v>12.3971188564334</v>
       </c>
       <c r="O17">
-        <v>878.138693604828</v>
+        <v>996.774229922101</v>
       </c>
       <c r="P17">
-        <v>60.782573211039</v>
+        <v>45.122553591535</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1299.1857266151</v>
+        <v>1242.75089369806</v>
       </c>
       <c r="C18">
-        <v>33.9433249978859</v>
+        <v>27.7456052891719</v>
       </c>
       <c r="D18">
-        <v>21.1032208862493</v>
+        <v>5.3848731074174</v>
       </c>
       <c r="E18">
-        <v>51.3021391668983</v>
+        <v>35.5611834537672</v>
       </c>
       <c r="F18">
-        <v>25.2121399995655</v>
+        <v>30.0538667094454</v>
       </c>
       <c r="G18">
-        <v>15.9754976015824</v>
+        <v>28.391979441359</v>
       </c>
       <c r="H18">
-        <v>18.6300000321563</v>
+        <v>15.3965417024822</v>
       </c>
       <c r="I18">
-        <v>10.8348386317659</v>
+        <v>5.25728528047864</v>
       </c>
       <c r="J18">
-        <v>50.9975180793898</v>
+        <v>33.8239981980376</v>
       </c>
       <c r="K18">
-        <v>32.8442862507837</v>
+        <v>16.2659060147528</v>
       </c>
       <c r="L18">
-        <v>25.8720985804475</v>
+        <v>28.4203678593995</v>
       </c>
       <c r="M18">
-        <v>71.8099416672648</v>
+        <v>57.1331967714178</v>
       </c>
       <c r="N18">
-        <v>21.6590614532567</v>
+        <v>21.3241883088421</v>
       </c>
       <c r="O18">
-        <v>1175.52726429517</v>
+        <v>1293.78954344217</v>
       </c>
       <c r="P18">
-        <v>37.1128842740956</v>
+        <v>49.5411171817097</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1363.71301568746</v>
+        <v>1397.5113491283</v>
       </c>
       <c r="C19">
-        <v>20.6583854631171</v>
+        <v>28.273223217343</v>
       </c>
       <c r="D19">
-        <v>9.822512186369529</v>
+        <v>15.505471020987</v>
       </c>
       <c r="E19">
-        <v>34.0946645405968</v>
+        <v>36.2350660188411</v>
       </c>
       <c r="F19">
-        <v>78.1050365657308</v>
+        <v>88.3771944251567</v>
       </c>
       <c r="G19">
-        <v>39.7973241043556</v>
+        <v>33.0934993312052</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>4.66928420099792</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>1.202088616824</v>
       </c>
       <c r="J19">
-        <v>25.3803352725006</v>
+        <v>20.2045515092308</v>
       </c>
       <c r="K19">
-        <v>11.2814632753466</v>
+        <v>8.98921806678862</v>
       </c>
       <c r="L19">
-        <v>5.83039622968898</v>
+        <v>0.940360013702213</v>
       </c>
       <c r="M19">
-        <v>26.4849020350501</v>
+        <v>24.7478202106648</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>14.2069496437331</v>
       </c>
       <c r="O19">
-        <v>1384.24121387822</v>
+        <v>1361.43854410933</v>
       </c>
       <c r="P19">
-        <v>31.169347068302</v>
+        <v>39.3852277951226</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>360.773576745497</v>
+        <v>361.735225389969</v>
       </c>
       <c r="C20">
-        <v>8.65124032754332</v>
+        <v>7.82559644371286</v>
       </c>
       <c r="D20">
-        <v>11.8595301445371</v>
+        <v>6.10334024124244</v>
       </c>
       <c r="E20">
-        <v>37.1460777863934</v>
+        <v>29.3104465948659</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.619054227136698</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>2.30807676481545</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>1.21257308799534</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>1.97102734213661</v>
       </c>
       <c r="J20">
-        <v>6.11143946304024</v>
+        <v>3.98073010042705</v>
       </c>
       <c r="K20">
-        <v>4.12827617392038</v>
+        <v>2.34737045958979</v>
       </c>
       <c r="L20">
-        <v>8.15633187272285</v>
+        <v>6.51925537012122</v>
       </c>
       <c r="M20">
-        <v>15.2654155248914</v>
+        <v>15.6052851284267</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>5.3039575244393</v>
       </c>
       <c r="O20">
-        <v>452.361719097316</v>
+        <v>479.533469016894</v>
       </c>
       <c r="P20">
-        <v>20.3600408021612</v>
+        <v>16.6396179491727</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1408.49460751377</v>
+        <v>1420.37642103081</v>
       </c>
       <c r="C21">
-        <v>25.0084639563874</v>
+        <v>22.5792414435249</v>
       </c>
       <c r="D21">
-        <v>11.1147297993737</v>
+        <v>4.4527692369053</v>
       </c>
       <c r="E21">
-        <v>41.9914922308946</v>
+        <v>13.8772496070428</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>6.19453495284586</v>
       </c>
       <c r="G21">
-        <v>20.9076635707244</v>
+        <v>14.1874011492822</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>4.0177463694352</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>10.8764572051392</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>27.089014679855</v>
       </c>
       <c r="K21">
-        <v>10.264108926757</v>
+        <v>3.56809600878158</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>24.0893737096736</v>
       </c>
       <c r="M21">
-        <v>26.5750414812983</v>
+        <v>25.353571666956</v>
       </c>
       <c r="N21">
-        <v>19.2905042012765</v>
+        <v>19.6341059196791</v>
       </c>
       <c r="O21">
-        <v>2029.88719155856</v>
+        <v>2085.3819492394</v>
       </c>
       <c r="P21">
-        <v>17.4069818413237</v>
+        <v>20.2805880583857</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1645.56525144424</v>
+        <v>1690.20524594844</v>
       </c>
       <c r="C22">
-        <v>29.0026936043417</v>
+        <v>13.1125186579942</v>
       </c>
       <c r="D22">
-        <v>25.1228154000132</v>
+        <v>15.4313042985169</v>
       </c>
       <c r="E22">
-        <v>53.5460148975614</v>
+        <v>40.7357585979145</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.68080617656759</v>
       </c>
       <c r="G22">
-        <v>28.4856263337751</v>
+        <v>24.2504964178412</v>
       </c>
       <c r="H22">
-        <v>17.8507185950621</v>
+        <v>13.867051187976</v>
       </c>
       <c r="I22">
-        <v>9.24946724424403</v>
+        <v>10.8848674047727</v>
       </c>
       <c r="J22">
-        <v>48.8248153455776</v>
+        <v>35.1805614817119</v>
       </c>
       <c r="K22">
-        <v>24.7352210883521</v>
+        <v>12.3490101826178</v>
       </c>
       <c r="L22">
-        <v>126.49263261053</v>
+        <v>103.749283824318</v>
       </c>
       <c r="M22">
-        <v>18.2951107174941</v>
+        <v>12.9380871267971</v>
       </c>
       <c r="N22">
-        <v>46.9448706816563</v>
+        <v>56.8812881598796</v>
       </c>
       <c r="O22">
-        <v>2325.56473496136</v>
+        <v>2364.69763218623</v>
       </c>
       <c r="P22">
-        <v>12.6347793577469</v>
+        <v>11.5477534348447</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2824.24741835402</v>
+        <v>2839.25693524651</v>
       </c>
       <c r="C23">
-        <v>41.3098932584316</v>
+        <v>28.7842728494897</v>
       </c>
       <c r="D23">
-        <v>9.323749033258011</v>
+        <v>9.02680788014065</v>
       </c>
       <c r="E23">
-        <v>70.5816333267171</v>
+        <v>32.8337895847928</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>4.80838774719517</v>
       </c>
       <c r="G23">
-        <v>46.4371835969436</v>
+        <v>55.590142633094</v>
       </c>
       <c r="H23">
-        <v>65.54440474664</v>
+        <v>52.6967865813005</v>
       </c>
       <c r="I23">
-        <v>15.2819677537014</v>
+        <v>6.60014076193836</v>
       </c>
       <c r="J23">
-        <v>144.777492210505</v>
+        <v>116.943420129419</v>
       </c>
       <c r="K23">
-        <v>91.9954282877828</v>
+        <v>78.65796115594689</v>
       </c>
       <c r="L23">
-        <v>44.0969142841979</v>
+        <v>32.6737836452698</v>
       </c>
       <c r="M23">
-        <v>480.135357625171</v>
+        <v>467.878274784625</v>
       </c>
       <c r="N23">
-        <v>73.3174864340951</v>
+        <v>75.14397852281429</v>
       </c>
       <c r="O23">
-        <v>2992.72968019238</v>
+        <v>3130.15652262657</v>
       </c>
       <c r="P23">
-        <v>49.2877805081108</v>
+        <v>36.2882161986465</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1146.21219817837</v>
+        <v>1100.45174462928</v>
       </c>
       <c r="C24">
-        <v>67.2727260804391</v>
+        <v>51.4840344974904</v>
       </c>
       <c r="D24">
-        <v>5.54091891577594</v>
+        <v>5.0809823415386</v>
       </c>
       <c r="E24">
-        <v>79.29103387496259</v>
+        <v>48.8663802333077</v>
       </c>
       <c r="F24">
-        <v>11.7494477685482</v>
+        <v>10.3900121210708</v>
       </c>
       <c r="G24">
-        <v>16.1824268564465</v>
+        <v>26.6022449920532</v>
       </c>
       <c r="H24">
-        <v>18.9892447292065</v>
+        <v>15.5621402159816</v>
       </c>
       <c r="I24">
-        <v>14.396079989396</v>
+        <v>14.0587861211135</v>
       </c>
       <c r="J24">
-        <v>63.2298992987586</v>
+        <v>47.7738724860086</v>
       </c>
       <c r="K24">
-        <v>46.7650521583401</v>
+        <v>31.894887674399</v>
       </c>
       <c r="L24">
-        <v>71.8775844464717</v>
+        <v>66.3597302819925</v>
       </c>
       <c r="M24">
-        <v>31.8600931997989</v>
+        <v>23.7592184795888</v>
       </c>
       <c r="N24">
-        <v>52.9767942061946</v>
+        <v>61.1117060929636</v>
       </c>
       <c r="O24">
-        <v>1744.0864894529</v>
+        <v>1865.76887059879</v>
       </c>
       <c r="P24">
-        <v>99.0781697982037</v>
+        <v>94.7845004791408</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>885.639576060088</v>
+        <v>900.894054989309</v>
       </c>
       <c r="C25">
-        <v>27.4435168980776</v>
+        <v>38.246051105998</v>
       </c>
       <c r="D25">
-        <v>18.7602504978323</v>
+        <v>11.5943522119247</v>
       </c>
       <c r="E25">
-        <v>34.74037184108</v>
+        <v>38.7099064633261</v>
       </c>
       <c r="F25">
-        <v>7.56093634387682</v>
+        <v>13.6752133054098</v>
       </c>
       <c r="G25">
-        <v>9.86024289842852</v>
+        <v>8.685912211094459</v>
       </c>
       <c r="H25">
-        <v>12.008387502338</v>
+        <v>16.7512868787529</v>
       </c>
       <c r="I25">
-        <v>5.97238834420366</v>
+        <v>7.6282459295679</v>
       </c>
       <c r="J25">
-        <v>17.0599308000624</v>
+        <v>12.7927388645918</v>
       </c>
       <c r="K25">
-        <v>15.1934397219421</v>
+        <v>7.02428156085166</v>
       </c>
       <c r="L25">
-        <v>22.0594957073131</v>
+        <v>17.2999704442085</v>
       </c>
       <c r="M25">
-        <v>25.9658310478032</v>
+        <v>36.5928490380054</v>
       </c>
       <c r="N25">
-        <v>51.6792348210007</v>
+        <v>39.2733227857207</v>
       </c>
       <c r="O25">
-        <v>775.611980419674</v>
+        <v>762.073578195623</v>
       </c>
       <c r="P25">
-        <v>31.9416433333284</v>
+        <v>28.7025011395554</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1562.33544567402</v>
+        <v>1426.86566278203</v>
       </c>
       <c r="C26">
-        <v>60.1967772497188</v>
+        <v>46.4391109138175</v>
       </c>
       <c r="D26">
-        <v>22.7016898283933</v>
+        <v>7.12828521468952</v>
       </c>
       <c r="E26">
-        <v>60.209352211676</v>
+        <v>39.9985658342381</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>7.6284373337895</v>
       </c>
       <c r="G26">
-        <v>24.7664523074145</v>
+        <v>21.5706679165148</v>
       </c>
       <c r="H26">
-        <v>21.2400072475378</v>
+        <v>16.3052884462941</v>
       </c>
       <c r="I26">
-        <v>15.2332526870355</v>
+        <v>15.1898625209337</v>
       </c>
       <c r="J26">
-        <v>64.6702286845598</v>
+        <v>41.8670543117715</v>
       </c>
       <c r="K26">
-        <v>35.9088875290032</v>
+        <v>20.2633406778301</v>
       </c>
       <c r="L26">
-        <v>41.9717570904303</v>
+        <v>25.3305878564155</v>
       </c>
       <c r="M26">
-        <v>73.5057662646329</v>
+        <v>78.88371345063079</v>
       </c>
       <c r="N26">
-        <v>43.5012585574054</v>
+        <v>20.5619342671976</v>
       </c>
       <c r="O26">
-        <v>1840.01733112243</v>
+        <v>2107.88943675146</v>
       </c>
       <c r="P26">
-        <v>69.6805512926578</v>
+        <v>61.3891244762321</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>253.929256953469</v>
+        <v>248.699537724964</v>
       </c>
       <c r="C27">
-        <v>3.01444849709317</v>
+        <v>1.12539229369657</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>1.96933265089238</v>
       </c>
       <c r="E27">
-        <v>9.151139695956729</v>
+        <v>9.298573413408841</v>
       </c>
       <c r="F27">
-        <v>5.6265761324184</v>
+        <v>4.57751177463244</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.478642788378614</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.212910471493339</v>
       </c>
       <c r="I27">
-        <v>1.36810288599881</v>
+        <v>2.07308242140831</v>
       </c>
       <c r="J27">
-        <v>3.06546670642907</v>
+        <v>2.4185853071166</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>0.289936149380222</v>
       </c>
       <c r="L27">
-        <v>1.6545239115909</v>
+        <v>1.15976102502987</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.5816048361163621</v>
       </c>
       <c r="N27">
-        <v>3.97301301380934</v>
+        <v>3.60749130203733</v>
       </c>
       <c r="O27">
-        <v>316.402814318436</v>
+        <v>324.716486472607</v>
       </c>
       <c r="P27">
-        <v>37.4653775617484</v>
+        <v>41.2360631284293</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>406.084338928302</v>
+        <v>378.561978991177</v>
       </c>
       <c r="C28">
-        <v>34.1575731720154</v>
+        <v>26.0662531470514</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>2.55782056711219</v>
       </c>
       <c r="E28">
-        <v>9.70938150085197</v>
+        <v>5.27219376377557</v>
       </c>
       <c r="F28">
-        <v>1.98081337823618</v>
+        <v>1.63205834687862</v>
       </c>
       <c r="G28">
-        <v>4.63737465771237</v>
+        <v>2.61828497097259</v>
       </c>
       <c r="H28">
-        <v>6.51684669582733</v>
+        <v>9.30866334385609</v>
       </c>
       <c r="I28">
-        <v>3.77059457374088</v>
+        <v>1.73933263942522</v>
       </c>
       <c r="J28">
-        <v>12.4010039991297</v>
+        <v>19.4537751486958</v>
       </c>
       <c r="K28">
-        <v>15.455282964957</v>
+        <v>8.471910559058051</v>
       </c>
       <c r="L28">
-        <v>12.0607204745176</v>
+        <v>11.4298115465356</v>
       </c>
       <c r="M28">
-        <v>10.8685354520637</v>
+        <v>7.01541308528344</v>
       </c>
       <c r="N28">
-        <v>10.1963504356135</v>
+        <v>9.37839887416418</v>
       </c>
       <c r="O28">
-        <v>594.963608247967</v>
+        <v>639.64702340683</v>
       </c>
       <c r="P28">
-        <v>78.61249661852121</v>
+        <v>79.64831951112281</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>583.314612511416</v>
+        <v>540.609045952058</v>
       </c>
       <c r="C29">
-        <v>5.11782323214008</v>
+        <v>4.84292035564733</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>2.30768785605682</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>3.08295938435415</v>
       </c>
       <c r="F29">
-        <v>16.5359962790931</v>
+        <v>23.8725549478147</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>4.05344781183987</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>1.00732883560886</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>0.785408631000793</v>
       </c>
       <c r="J29">
-        <v>7.4563832285231</v>
+        <v>5.20647608566627</v>
       </c>
       <c r="K29">
-        <v>2.2664471703045</v>
+        <v>1.2293642109212</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>3.03358943501616</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>2.77439454949688</v>
       </c>
       <c r="N29">
-        <v>9.232591739390029</v>
+        <v>8.56974023731058</v>
       </c>
       <c r="O29">
-        <v>829.2969400744699</v>
+        <v>872.913518408348</v>
       </c>
       <c r="P29">
-        <v>6.45324472956028</v>
+        <v>5.05925070945134</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>290.318821045162</v>
+        <v>280.632295383325</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>2.79531725182947</v>
       </c>
       <c r="D30">
-        <v>5.51159169203272</v>
+        <v>5.1273685048843</v>
       </c>
       <c r="E30">
-        <v>15.4574572721962</v>
+        <v>11.1560282721563</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.977500183762919</v>
       </c>
       <c r="G30">
-        <v>3.49364876856401</v>
+        <v>4.15616006059829</v>
       </c>
       <c r="H30">
-        <v>4.74916687280408</v>
+        <v>4.5939478197059</v>
       </c>
       <c r="I30">
-        <v>2.74130952183063</v>
+        <v>1.2600597364171</v>
       </c>
       <c r="J30">
-        <v>20.9571563920741</v>
+        <v>15.1542691299637</v>
       </c>
       <c r="K30">
-        <v>8.03998872440982</v>
+        <v>6.71281701691597</v>
       </c>
       <c r="L30">
-        <v>29.3980265463357</v>
+        <v>32.0671361648386</v>
       </c>
       <c r="M30">
-        <v>7.00706583520233</v>
+        <v>8.81782738240571</v>
       </c>
       <c r="N30">
-        <v>12.5940125638166</v>
+        <v>11.4285812153453</v>
       </c>
       <c r="O30">
-        <v>462.135572770741</v>
+        <v>479.45062310477</v>
       </c>
       <c r="P30">
-        <v>4.86255642173042</v>
+        <v>7.18923708556453</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2458.61440726363</v>
+        <v>2404.89170627633</v>
       </c>
       <c r="C31">
-        <v>39.0052239107069</v>
+        <v>46.8103850942223</v>
       </c>
       <c r="D31">
-        <v>29.4971866418493</v>
+        <v>28.8464151116827</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>46.2881698775936</v>
       </c>
       <c r="F31">
-        <v>9.59071043699279</v>
+        <v>8.70717879573488</v>
       </c>
       <c r="G31">
-        <v>117.055500137654</v>
+        <v>78.6723631692783</v>
       </c>
       <c r="H31">
-        <v>23.6003616099668</v>
+        <v>7.66897744184705</v>
       </c>
       <c r="I31">
-        <v>19.2687823489916</v>
+        <v>18.6750400741247</v>
       </c>
       <c r="J31">
-        <v>42.2754708551331</v>
+        <v>23.2290794643655</v>
       </c>
       <c r="K31">
-        <v>21.542799976288</v>
+        <v>9.05574149650815</v>
       </c>
       <c r="L31">
-        <v>74.5036459911305</v>
+        <v>53.6628264285405</v>
       </c>
       <c r="M31">
-        <v>22.7872772493905</v>
+        <v>17.3852705742356</v>
       </c>
       <c r="N31">
-        <v>49.9794067734318</v>
+        <v>44.1982030545019</v>
       </c>
       <c r="O31">
-        <v>2928.20707245625</v>
+        <v>3111.28230877682</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>9.83984315995181</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>566.385364694628</v>
+        <v>540.9668880926901</v>
       </c>
       <c r="C32">
-        <v>6.217262030872</v>
+        <v>3.4361634903932</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>0.273558408582923</v>
       </c>
       <c r="E32">
-        <v>5.53011629199474</v>
+        <v>4.48150533571194</v>
       </c>
       <c r="F32">
-        <v>21.4446193940431</v>
+        <v>18.2999519049939</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>1.33888863677008</v>
       </c>
       <c r="H32">
-        <v>0.55936377796707</v>
+        <v>1.53928850031397</v>
       </c>
       <c r="I32">
-        <v>3.40185646791486</v>
+        <v>2.45418516373005</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>2.23034500240772</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>1.49913647791243</v>
       </c>
       <c r="L32">
-        <v>13.9461353028716</v>
+        <v>14.3886159955245</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>1.43432524338764</v>
       </c>
       <c r="N32">
-        <v>8.0049091615245</v>
+        <v>6.87611382113574</v>
       </c>
       <c r="O32">
-        <v>605.239024881294</v>
+        <v>646.184868973393</v>
       </c>
       <c r="P32">
-        <v>20.9999448616577</v>
+        <v>21.5506757373658</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5670.90127347638</v>
+        <v>5752.51490739472</v>
       </c>
       <c r="C33">
-        <v>82.9631087646051</v>
+        <v>65.90413695990389</v>
       </c>
       <c r="D33">
-        <v>91.3088811668411</v>
+        <v>38.4098434737179</v>
       </c>
       <c r="E33">
-        <v>112.913620510791</v>
+        <v>70.4164215309972</v>
       </c>
       <c r="F33">
-        <v>9.37024158414847</v>
+        <v>6.91027598727033</v>
       </c>
       <c r="G33">
-        <v>70.4279416342771</v>
+        <v>63.4263390951819</v>
       </c>
       <c r="H33">
-        <v>31.147210400275</v>
+        <v>21.7876916895883</v>
       </c>
       <c r="I33">
-        <v>28.7087840683154</v>
+        <v>22.3264219232653</v>
       </c>
       <c r="J33">
-        <v>96.3909255143632</v>
+        <v>85.8936920390006</v>
       </c>
       <c r="K33">
-        <v>105.100281778246</v>
+        <v>68.12213824382231</v>
       </c>
       <c r="L33">
-        <v>117.657134485752</v>
+        <v>106.768385733917</v>
       </c>
       <c r="M33">
-        <v>70.76515441296161</v>
+        <v>54.9667578672741</v>
       </c>
       <c r="N33">
-        <v>102.189779939438</v>
+        <v>125.120706795701</v>
       </c>
       <c r="O33">
-        <v>6429.3474450997</v>
+        <v>6547.8501973312</v>
       </c>
       <c r="P33">
-        <v>78.024186479823</v>
+        <v>80.34603251464171</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2252.98536292141</v>
+        <v>2345.68521968188</v>
       </c>
       <c r="C34">
-        <v>59.3418697098242</v>
+        <v>60.7627880672955</v>
       </c>
       <c r="D34">
-        <v>182.257262040843</v>
+        <v>117.809864192798</v>
       </c>
       <c r="E34">
-        <v>82.2737162782847</v>
+        <v>34.7765057505523</v>
       </c>
       <c r="F34">
-        <v>6.67895516984937</v>
+        <v>6.67197936642306</v>
       </c>
       <c r="G34">
-        <v>52.680349894261</v>
+        <v>32.1268590899809</v>
       </c>
       <c r="H34">
-        <v>36.013410593301</v>
+        <v>44.9187401475531</v>
       </c>
       <c r="I34">
-        <v>19.6452059605821</v>
+        <v>11.5119252875374</v>
       </c>
       <c r="J34">
-        <v>59.6071553738118</v>
+        <v>45.0836576289128</v>
       </c>
       <c r="K34">
-        <v>33.6735375538986</v>
+        <v>27.1275886455218</v>
       </c>
       <c r="L34">
-        <v>85.905909611404</v>
+        <v>84.5465193592629</v>
       </c>
       <c r="M34">
-        <v>45.3988004640419</v>
+        <v>32.2927189539461</v>
       </c>
       <c r="N34">
-        <v>125.405618966058</v>
+        <v>116.864808539653</v>
       </c>
       <c r="O34">
-        <v>2633.01685353567</v>
+        <v>2719.4762368111</v>
       </c>
       <c r="P34">
-        <v>52.5479071286388</v>
+        <v>47.6322988220202</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>164.488530951373</v>
+        <v>159.280017967069</v>
       </c>
       <c r="C35">
-        <v>6.36231967267556</v>
+        <v>6.56421985932207</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.562712785317022</v>
       </c>
       <c r="E35">
-        <v>2.08855886688422</v>
+        <v>1.67301082783593</v>
       </c>
       <c r="F35">
-        <v>5.68317846540996</v>
+        <v>3.50775930129939</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>1.03437967959824</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.228864585573838</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>1.05021320814536</v>
       </c>
       <c r="J35">
-        <v>2.38391571673098</v>
+        <v>2.55891734245117</v>
       </c>
       <c r="K35">
-        <v>5.31309680714413</v>
+        <v>5.06716956161234</v>
       </c>
       <c r="L35">
-        <v>1.85938481523197</v>
+        <v>1.74977822604529</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>1.78922009335969</v>
       </c>
       <c r="N35">
-        <v>2.14941744834492</v>
+        <v>2.50524180252652</v>
       </c>
       <c r="O35">
-        <v>216.651189684809</v>
+        <v>223.986581768628</v>
       </c>
       <c r="P35">
-        <v>37.1468433860035</v>
+        <v>36.6140192839631</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3168.18246040623</v>
+        <v>3141.89153228544</v>
       </c>
       <c r="C36">
-        <v>72.6193667884241</v>
+        <v>36.9676175880211</v>
       </c>
       <c r="D36">
-        <v>20.5817309012614</v>
+        <v>15.0071522968417</v>
       </c>
       <c r="E36">
-        <v>119.938271011361</v>
+        <v>98.215234846096</v>
       </c>
       <c r="F36">
-        <v>19.189648307632</v>
+        <v>28.1739365654192</v>
       </c>
       <c r="G36">
-        <v>73.3069704758518</v>
+        <v>82.3081948538081</v>
       </c>
       <c r="H36">
-        <v>103.307965840942</v>
+        <v>86.1199367325471</v>
       </c>
       <c r="I36">
-        <v>44.5457026112156</v>
+        <v>34.7741594554268</v>
       </c>
       <c r="J36">
-        <v>247.00302276578</v>
+        <v>180.617079686323</v>
       </c>
       <c r="K36">
-        <v>117.650199404278</v>
+        <v>67.0517123379127</v>
       </c>
       <c r="L36">
-        <v>86.2748934856459</v>
+        <v>61.3407214981116</v>
       </c>
       <c r="M36">
-        <v>233.524365362975</v>
+        <v>195.967816771177</v>
       </c>
       <c r="N36">
-        <v>85.47828331988509</v>
+        <v>71.86886697428351</v>
       </c>
       <c r="O36">
-        <v>3566.18998613665</v>
+        <v>3864.84238442458</v>
       </c>
       <c r="P36">
-        <v>47.315807205227</v>
+        <v>41.2846512570808</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1025.81021677378</v>
+        <v>1015.78777688303</v>
       </c>
       <c r="C37">
-        <v>25.6668099671704</v>
+        <v>19.70245976468</v>
       </c>
       <c r="D37">
-        <v>8.25304535995118</v>
+        <v>3.3787397249075</v>
       </c>
       <c r="E37">
-        <v>17.3010235656517</v>
+        <v>20.1057495726221</v>
       </c>
       <c r="F37">
-        <v>41.9561521335555</v>
+        <v>24.7821525959338</v>
       </c>
       <c r="G37">
-        <v>7.08053010914616</v>
+        <v>5.16016539734268</v>
       </c>
       <c r="H37">
-        <v>15.685144255637</v>
+        <v>21.7090975406399</v>
       </c>
       <c r="I37">
-        <v>10.0332364641744</v>
+        <v>10.8399581932278</v>
       </c>
       <c r="J37">
-        <v>33.3338700843812</v>
+        <v>34.6469216337545</v>
       </c>
       <c r="K37">
-        <v>27.7697219908047</v>
+        <v>19.4675405370372</v>
       </c>
       <c r="L37">
-        <v>20.7252681881694</v>
+        <v>19.058705802479</v>
       </c>
       <c r="M37">
-        <v>32.8313643184854</v>
+        <v>32.7594448782613</v>
       </c>
       <c r="N37">
-        <v>14.5911725119611</v>
+        <v>23.1928509467579</v>
       </c>
       <c r="O37">
-        <v>1092.4612993916</v>
+        <v>1120.14237495395</v>
       </c>
       <c r="P37">
-        <v>37.2815220447737</v>
+        <v>40.4382674669612</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1017.25461963077</v>
+        <v>1018.04013098387</v>
       </c>
       <c r="C38">
-        <v>19.1549360726387</v>
+        <v>24.9202123998259</v>
       </c>
       <c r="D38">
-        <v>8.61029186746528</v>
+        <v>8.659813235139371</v>
       </c>
       <c r="E38">
-        <v>73.1009711333849</v>
+        <v>43.363283972725</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>1.24639174873127</v>
       </c>
       <c r="G38">
-        <v>5.40272113600374</v>
+        <v>4.39340250458337</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>2.05285044495829</v>
       </c>
       <c r="I38">
-        <v>6.39864069224959</v>
+        <v>1.3521153978391</v>
       </c>
       <c r="J38">
-        <v>28.2670180123969</v>
+        <v>32.2506732348033</v>
       </c>
       <c r="K38">
-        <v>12.5472430937636</v>
+        <v>1.78718237177116</v>
       </c>
       <c r="L38">
-        <v>63.5841310008354</v>
+        <v>65.7623209080414</v>
       </c>
       <c r="M38">
-        <v>19.6113440240113</v>
+        <v>17.9647757731501</v>
       </c>
       <c r="N38">
-        <v>23.3032909969461</v>
+        <v>40.5012779234035</v>
       </c>
       <c r="O38">
-        <v>1171.67507055215</v>
+        <v>1214.19173006112</v>
       </c>
       <c r="P38">
-        <v>59.6636230305927</v>
+        <v>47.9454508815507</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3728.35356513055</v>
+        <v>3619.61757555252</v>
       </c>
       <c r="C39">
-        <v>89.9351222847786</v>
+        <v>80.48780848515629</v>
       </c>
       <c r="D39">
-        <v>58.8330992860112</v>
+        <v>42.9379382901546</v>
       </c>
       <c r="E39">
-        <v>137.198611588082</v>
+        <v>131.109507180018</v>
       </c>
       <c r="F39">
-        <v>37.7007938906909</v>
+        <v>22.5009516325015</v>
       </c>
       <c r="G39">
-        <v>92.4871019962759</v>
+        <v>107.069763711055</v>
       </c>
       <c r="H39">
-        <v>53.1103597006257</v>
+        <v>43.5654205734102</v>
       </c>
       <c r="I39">
-        <v>50.463172353242</v>
+        <v>31.9913765075144</v>
       </c>
       <c r="J39">
-        <v>221.87217112374</v>
+        <v>144.133915631714</v>
       </c>
       <c r="K39">
-        <v>72.81299162327881</v>
+        <v>69.4691267104844</v>
       </c>
       <c r="L39">
-        <v>102.001777468952</v>
+        <v>78.39718330846181</v>
       </c>
       <c r="M39">
-        <v>64.1111976798345</v>
+        <v>55.139162212747</v>
       </c>
       <c r="N39">
-        <v>92.3831344358079</v>
+        <v>96.5520392458335</v>
       </c>
       <c r="O39">
-        <v>3887.59531986572</v>
+        <v>4174.68193438699</v>
       </c>
       <c r="P39">
-        <v>73.9883185055091</v>
+        <v>60.0935301119592</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>297.525474469755</v>
+        <v>290.830540002345</v>
       </c>
       <c r="C40">
-        <v>3.60215969273655</v>
+        <v>2.42119740816517</v>
       </c>
       <c r="D40">
-        <v>7.50846903296629</v>
+        <v>6.91312973224913</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>5.30788970238765</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.255451910703347</v>
       </c>
       <c r="G40">
-        <v>3.43711765411222</v>
+        <v>3.72979579458997</v>
       </c>
       <c r="H40">
-        <v>4.0410433689492</v>
+        <v>4.18380897176046</v>
       </c>
       <c r="I40">
-        <v>1.02998476039037</v>
+        <v>1.89244286608644</v>
       </c>
       <c r="J40">
-        <v>12.3244038605248</v>
+        <v>8.696586985804309</v>
       </c>
       <c r="K40">
-        <v>3.72506614298094</v>
+        <v>2.38476007730586</v>
       </c>
       <c r="L40">
-        <v>12.1268185336677</v>
+        <v>13.0208897134969</v>
       </c>
       <c r="M40">
-        <v>5.13066634161254</v>
+        <v>3.9492136991521</v>
       </c>
       <c r="N40">
-        <v>19.9065107474256</v>
+        <v>16.9660237155227</v>
       </c>
       <c r="O40">
-        <v>352.677217811341</v>
+        <v>378.987819581562</v>
       </c>
       <c r="P40">
-        <v>2.36794764256903</v>
+        <v>3.1142654037915</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1202.88179023351</v>
+        <v>1233.12404195324</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>10.2046479243036</v>
       </c>
       <c r="D41">
-        <v>89.3296897838153</v>
+        <v>64.1846359109305</v>
       </c>
       <c r="E41">
-        <v>41.668359442022</v>
+        <v>27.7965213038489</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>0.993151894422472</v>
       </c>
       <c r="G41">
-        <v>23.168893164274</v>
+        <v>21.061130322686</v>
       </c>
       <c r="H41">
-        <v>32.4491067167636</v>
+        <v>31.8282936800088</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>13.2384727524097</v>
       </c>
       <c r="J41">
-        <v>36.2472701218755</v>
+        <v>35.2139853349592</v>
       </c>
       <c r="K41">
-        <v>24.9096126312099</v>
+        <v>12.2302285788922</v>
       </c>
       <c r="L41">
-        <v>27.3295759548912</v>
+        <v>29.0634373810387</v>
       </c>
       <c r="M41">
-        <v>37.6912551110008</v>
+        <v>23.2686000577299</v>
       </c>
       <c r="N41">
-        <v>20.4570024308971</v>
+        <v>19.2632798245914</v>
       </c>
       <c r="O41">
-        <v>1267.66732731221</v>
+        <v>1311.82213200956</v>
       </c>
       <c r="P41">
-        <v>20.8691688205168</v>
+        <v>24.3844962378223</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>179.044293811979</v>
+        <v>160.5249844265</v>
       </c>
       <c r="C42">
-        <v>5.9216606224096</v>
+        <v>4.11374193794883</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.29223661161715</v>
       </c>
       <c r="E42">
-        <v>5.22521915616051</v>
+        <v>4.55976434769741</v>
       </c>
       <c r="F42">
-        <v>1.77465055527572</v>
+        <v>1.94093005741637</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>1.0139294120656</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>0.460004937021624</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>1.22797016793309</v>
       </c>
       <c r="J42">
-        <v>4.22441508644282</v>
+        <v>2.69742331720642</v>
       </c>
       <c r="K42">
-        <v>5.32247392923723</v>
+        <v>3.81066272532249</v>
       </c>
       <c r="L42">
-        <v>7.14435431375454</v>
+        <v>6.62575469522052</v>
       </c>
       <c r="M42">
-        <v>2.95059603503272</v>
+        <v>2.46409322282971</v>
       </c>
       <c r="N42">
-        <v>6.16723503293198</v>
+        <v>5.88825028971076</v>
       </c>
       <c r="O42">
-        <v>241.675663876061</v>
+        <v>258.218888674881</v>
       </c>
       <c r="P42">
-        <v>39.6057285371916</v>
+        <v>44.5104017184431</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1661.18540415457</v>
+        <v>1680.18647262015</v>
       </c>
       <c r="C43">
-        <v>45.7103728876248</v>
+        <v>33.2482702005759</v>
       </c>
       <c r="D43">
-        <v>42.9354032583136</v>
+        <v>34.4925877794732</v>
       </c>
       <c r="E43">
-        <v>68.5994162339889</v>
+        <v>57.5884803867591</v>
       </c>
       <c r="F43">
-        <v>7.30116797929785</v>
+        <v>9.731839779990519</v>
       </c>
       <c r="G43">
-        <v>29.2432598748527</v>
+        <v>24.8024982618222</v>
       </c>
       <c r="H43">
-        <v>33.899351675859</v>
+        <v>46.5463391646361</v>
       </c>
       <c r="I43">
-        <v>15.7706291511623</v>
+        <v>25.5984098734604</v>
       </c>
       <c r="J43">
-        <v>68.74045465569461</v>
+        <v>54.0427655745802</v>
       </c>
       <c r="K43">
-        <v>47.5149391999655</v>
+        <v>31.8030597452816</v>
       </c>
       <c r="L43">
-        <v>52.5586754678124</v>
+        <v>38.3325751102979</v>
       </c>
       <c r="M43">
-        <v>113.734524333115</v>
+        <v>127.369898100276</v>
       </c>
       <c r="N43">
-        <v>59.439201416788</v>
+        <v>37.1735381067027</v>
       </c>
       <c r="O43">
-        <v>1855.64669387495</v>
+        <v>1879.16651406424</v>
       </c>
       <c r="P43">
-        <v>27.8348146369279</v>
+        <v>49.8175212053593</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5838.62735693225</v>
+        <v>5603.53455865898</v>
       </c>
       <c r="C44">
-        <v>105.815963162387</v>
+        <v>115.54381390111</v>
       </c>
       <c r="D44">
-        <v>35.7358714374802</v>
+        <v>25.6573140351804</v>
       </c>
       <c r="E44">
-        <v>104.438006855151</v>
+        <v>75.162546137341</v>
       </c>
       <c r="F44">
-        <v>224.725427615106</v>
+        <v>193.523289646205</v>
       </c>
       <c r="G44">
-        <v>109.689100601906</v>
+        <v>102.78997240179</v>
       </c>
       <c r="H44">
-        <v>60.01638276521</v>
+        <v>31.1054826384351</v>
       </c>
       <c r="I44">
-        <v>43.5009625835165</v>
+        <v>41.3385767919965</v>
       </c>
       <c r="J44">
-        <v>154.236700156349</v>
+        <v>97.42458738961631</v>
       </c>
       <c r="K44">
-        <v>87.66345775593901</v>
+        <v>51.6186946711929</v>
       </c>
       <c r="L44">
-        <v>205.515466129889</v>
+        <v>143.192228390988</v>
       </c>
       <c r="M44">
-        <v>115.024547089061</v>
+        <v>77.4307613506778</v>
       </c>
       <c r="N44">
-        <v>91.643223426056</v>
+        <v>87.8515842984099</v>
       </c>
       <c r="O44">
-        <v>6985.62535242582</v>
+        <v>7418.63834912163</v>
       </c>
       <c r="P44">
-        <v>135.904162057513</v>
+        <v>201.403507391457</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>536.9258931134031</v>
+        <v>522.270310229983</v>
       </c>
       <c r="C45">
-        <v>14.1730316909815</v>
+        <v>20.5766766736596</v>
       </c>
       <c r="D45">
-        <v>3.13188918275531</v>
+        <v>1.65167908417446</v>
       </c>
       <c r="E45">
-        <v>16.2847608291121</v>
+        <v>18.2961425496934</v>
       </c>
       <c r="F45">
-        <v>14.6400979692686</v>
+        <v>20.106305411887</v>
       </c>
       <c r="G45">
-        <v>9.15245831491502</v>
+        <v>5.6910622338829</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>3.51137796176899</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>3.17798187850843</v>
       </c>
       <c r="J45">
-        <v>19.3288273137885</v>
+        <v>19.0632226292879</v>
       </c>
       <c r="K45">
-        <v>5.88369143158459</v>
+        <v>3.1891833005468</v>
       </c>
       <c r="L45">
-        <v>16.1959482775663</v>
+        <v>15.1969774564928</v>
       </c>
       <c r="M45">
-        <v>23.5752205284314</v>
+        <v>14.9008569546169</v>
       </c>
       <c r="N45">
-        <v>30.3581719421278</v>
+        <v>27.2125175666151</v>
       </c>
       <c r="O45">
-        <v>762.2125135996851</v>
+        <v>766.588480976877</v>
       </c>
       <c r="P45">
-        <v>9.30736745578696</v>
+        <v>19.5759153137452</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>146.529173935653</v>
+        <v>138.879656743512</v>
       </c>
       <c r="C46">
-        <v>3.98179908720255</v>
+        <v>3.1068089084261</v>
       </c>
       <c r="D46">
-        <v>2.05945982938654</v>
+        <v>0.604423587404784</v>
       </c>
       <c r="E46">
-        <v>8.025431624641151</v>
+        <v>4.68710967245976</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.477558835857353</v>
       </c>
       <c r="G46">
-        <v>1.52590902234436</v>
+        <v>1.74782301375367</v>
       </c>
       <c r="H46">
-        <v>1.67588124513074</v>
+        <v>1.67243774564077</v>
       </c>
       <c r="I46">
-        <v>2.20740226897569</v>
+        <v>1.97798598022164</v>
       </c>
       <c r="J46">
-        <v>4.50856151250922</v>
+        <v>4.62077851831705</v>
       </c>
       <c r="K46">
-        <v>3.0660049817712</v>
+        <v>2.77755639724026</v>
       </c>
       <c r="L46">
-        <v>10.7727095238764</v>
+        <v>10.0802689410422</v>
       </c>
       <c r="M46">
-        <v>4.05746803627907</v>
+        <v>2.42841127743339</v>
       </c>
       <c r="N46">
-        <v>6.3645909507877</v>
+        <v>7.4258272171459</v>
       </c>
       <c r="O46">
-        <v>218.636516538536</v>
+        <v>232.326921948549</v>
       </c>
       <c r="P46">
-        <v>10.3803039406696</v>
+        <v>10.7537897418323</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1850.182755102</v>
+        <v>1940.33828751267</v>
       </c>
       <c r="C47">
-        <v>48.8977677069834</v>
+        <v>37.9440461485822</v>
       </c>
       <c r="D47">
-        <v>47.0721364386269</v>
+        <v>22.3456479728646</v>
       </c>
       <c r="E47">
-        <v>67.9628798578885</v>
+        <v>48.45177472809</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>4.03877983381985</v>
       </c>
       <c r="G47">
-        <v>27.7609550913396</v>
+        <v>24.5577223130048</v>
       </c>
       <c r="H47">
-        <v>20.6878826824745</v>
+        <v>5.97424012956509</v>
       </c>
       <c r="I47">
-        <v>13.738579072002</v>
+        <v>2.47154210648716</v>
       </c>
       <c r="J47">
-        <v>32.0128617616241</v>
+        <v>38.0863962670382</v>
       </c>
       <c r="K47">
-        <v>25.7441366512335</v>
+        <v>11.2882616756248</v>
       </c>
       <c r="L47">
-        <v>41.7208691742236</v>
+        <v>32.3373051872107</v>
       </c>
       <c r="M47">
-        <v>71.0055013307731</v>
+        <v>60.1166423263902</v>
       </c>
       <c r="N47">
-        <v>47.8893268726819</v>
+        <v>37.7229376944504</v>
       </c>
       <c r="O47">
-        <v>2607.13465645697</v>
+        <v>2655.14479246538</v>
       </c>
       <c r="P47">
-        <v>32.5515223670176</v>
+        <v>21.6670661227737</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1693.02655591692</v>
+        <v>1707.9629293992</v>
       </c>
       <c r="C48">
-        <v>37.1962671813783</v>
+        <v>24.8510802080953</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>3.90556836921829</v>
       </c>
       <c r="E48">
-        <v>51.450145380213</v>
+        <v>62.8362329863539</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>6.18653529998535</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>6.44187910512618</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>3.28233750551332</v>
       </c>
       <c r="I48">
-        <v>8.66510561906682</v>
+        <v>8.68326098135625</v>
       </c>
       <c r="J48">
-        <v>30.1456218336193</v>
+        <v>40.9785628033168</v>
       </c>
       <c r="K48">
-        <v>12.8646758870934</v>
+        <v>11.9892022336574</v>
       </c>
       <c r="L48">
-        <v>42.2136860214541</v>
+        <v>47.4587103697935</v>
       </c>
       <c r="M48">
-        <v>124.04694340711</v>
+        <v>104.978361193456</v>
       </c>
       <c r="N48">
-        <v>34.9259282702562</v>
+        <v>31.8163263317948</v>
       </c>
       <c r="O48">
-        <v>2058.97511006157</v>
+        <v>2055.13584285911</v>
       </c>
       <c r="P48">
-        <v>60.1295737975222</v>
+        <v>68.0854614080979</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>684.436704755222</v>
+        <v>701.471704327232</v>
       </c>
       <c r="C49">
-        <v>6.04985070162541</v>
+        <v>6.15879742803203</v>
       </c>
       <c r="D49">
-        <v>2.36588034091456</v>
+        <v>2.01141403082738</v>
       </c>
       <c r="E49">
-        <v>14.4187495301916</v>
+        <v>20.3108316702393</v>
       </c>
       <c r="F49">
-        <v>24.6716626861328</v>
+        <v>23.4604033364356</v>
       </c>
       <c r="G49">
-        <v>17.0525491428626</v>
+        <v>14.3897784815817</v>
       </c>
       <c r="H49">
-        <v>5.75560116438759</v>
+        <v>7.14394735845821</v>
       </c>
       <c r="I49">
-        <v>4.46492512220734</v>
+        <v>4.09308856715827</v>
       </c>
       <c r="J49">
-        <v>18.4570412065585</v>
+        <v>17.2931214029639</v>
       </c>
       <c r="K49">
-        <v>5.57351385268846</v>
+        <v>4.24277169453046</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>0.517258604252084</v>
       </c>
       <c r="M49">
-        <v>6.60174030150031</v>
+        <v>3.57276158409559</v>
       </c>
       <c r="N49">
-        <v>5.26881860853985</v>
+        <v>3.05275604706333</v>
       </c>
       <c r="O49">
-        <v>518.463293784675</v>
+        <v>516.842215999218</v>
       </c>
       <c r="P49">
-        <v>8.75414244160425</v>
+        <v>5.060025200294</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1376.81545701747</v>
+        <v>1277.29438657157</v>
       </c>
       <c r="C50">
-        <v>76.89699597765331</v>
+        <v>67.8644037038279</v>
       </c>
       <c r="D50">
-        <v>15.0323139749546</v>
+        <v>13.8810056009851</v>
       </c>
       <c r="E50">
-        <v>141.21701376389</v>
+        <v>143.357294912855</v>
       </c>
       <c r="F50">
-        <v>4.20492452019271</v>
+        <v>2.90362578372509</v>
       </c>
       <c r="G50">
-        <v>14.517913858879</v>
+        <v>26.0174067147112</v>
       </c>
       <c r="H50">
-        <v>38.6168752459087</v>
+        <v>32.0710725750362</v>
       </c>
       <c r="I50">
-        <v>13.4091073637814</v>
+        <v>7.12426087152595</v>
       </c>
       <c r="J50">
-        <v>98.8433575405378</v>
+        <v>91.3190388716188</v>
       </c>
       <c r="K50">
-        <v>77.528199228848</v>
+        <v>69.55143601904319</v>
       </c>
       <c r="L50">
-        <v>52.1578593684458</v>
+        <v>53.0469827688891</v>
       </c>
       <c r="M50">
-        <v>59.3026892537966</v>
+        <v>35.4727919654065</v>
       </c>
       <c r="N50">
-        <v>61.7382137252168</v>
+        <v>56.0682274481635</v>
       </c>
       <c r="O50">
-        <v>1687.46838663774</v>
+        <v>1875.71324779612</v>
       </c>
       <c r="P50">
-        <v>110.891677417231</v>
+        <v>82.6491791890687</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.144387437654</v>
+        <v>120.108424107532</v>
       </c>
       <c r="C51">
-        <v>0.97444446064946</v>
+        <v>3.25878577302065</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.06412236031923239</v>
       </c>
       <c r="E51">
-        <v>2.52665045793152</v>
+        <v>1.59629729824002</v>
       </c>
       <c r="F51">
-        <v>24.6325974194893</v>
+        <v>21.4257965503861</v>
       </c>
       <c r="G51">
-        <v>2.74053506660959</v>
+        <v>1.9545272886136</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.0121288103874703</v>
       </c>
       <c r="I51">
-        <v>0.885829516479869</v>
+        <v>0.662015666682285</v>
       </c>
       <c r="J51">
-        <v>1.62581048007666</v>
+        <v>1.15952538934466</v>
       </c>
       <c r="K51">
-        <v>0.60900779257991</v>
+        <v>0.375665404079259</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.203925346395137</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.401391997819846</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.342622919469952</v>
       </c>
       <c r="O51">
-        <v>176.943913441521</v>
+        <v>180.066840807194</v>
       </c>
       <c r="P51">
-        <v>12.3541103561787</v>
+        <v>16.2266017361054</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1495.93155403537</v>
+        <v>1463.76420632335</v>
       </c>
       <c r="C2">
-        <v>24.9838924867426</v>
+        <v>27.2234114707102</v>
       </c>
       <c r="D2">
-        <v>37.7230301547926</v>
+        <v>36.3533709334548</v>
       </c>
       <c r="E2">
-        <v>49.2083477341661</v>
+        <v>52.3080073909905</v>
       </c>
       <c r="F2">
-        <v>18.9293120986733</v>
+        <v>19.5908665615104</v>
       </c>
       <c r="G2">
-        <v>9.63915951676068</v>
+        <v>11.2057466206817</v>
       </c>
       <c r="H2">
-        <v>18.4710214814099</v>
+        <v>20.8485502074218</v>
       </c>
       <c r="I2">
-        <v>14.9205047074195</v>
+        <v>13.2792848858071</v>
       </c>
       <c r="J2">
-        <v>68.2338461283661</v>
+        <v>68.409856473623</v>
       </c>
       <c r="K2">
-        <v>17.5142289979538</v>
+        <v>15.4696355842599</v>
       </c>
       <c r="L2">
-        <v>35.5782834774051</v>
+        <v>36.2557034541836</v>
       </c>
       <c r="M2">
-        <v>36.1554102268759</v>
+        <v>35.8421384260785</v>
       </c>
       <c r="N2">
-        <v>30.0992354223827</v>
+        <v>26.3760590846886</v>
       </c>
       <c r="O2">
-        <v>1280.81952218944</v>
+        <v>1313.1608484096</v>
       </c>
       <c r="P2">
-        <v>21.2723715470885</v>
+        <v>22.6152467931311</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>124.024484473416</v>
+        <v>123.290694202488</v>
       </c>
       <c r="C3">
-        <v>3.90820839590368</v>
+        <v>3.59578599230322</v>
       </c>
       <c r="D3">
-        <v>0.203120892120154</v>
+        <v>0.12919870380141</v>
       </c>
       <c r="E3">
-        <v>1.44626732622411</v>
+        <v>1.21470925192221</v>
       </c>
       <c r="F3">
-        <v>6.49988729779055</v>
+        <v>6.8811079470356</v>
       </c>
       <c r="G3">
-        <v>0.0849447223063617</v>
+        <v>0.14372029622317</v>
       </c>
       <c r="H3">
-        <v>0.0163156611852801</v>
+        <v>0.00684087588091132</v>
       </c>
       <c r="I3">
-        <v>0.427772045448796</v>
+        <v>0.404338681828063</v>
       </c>
       <c r="J3">
-        <v>0.386968390554175</v>
+        <v>0.236570896672353</v>
       </c>
       <c r="K3">
-        <v>0.0663889531968751</v>
+        <v>0.239905893271654</v>
       </c>
       <c r="L3">
-        <v>0.0557568062476137</v>
+        <v>0.240372420266818</v>
       </c>
       <c r="M3">
-        <v>0.583575878577286</v>
+        <v>0.465823435335752</v>
       </c>
       <c r="N3">
-        <v>0.435591675413389</v>
+        <v>0.427398251198917</v>
       </c>
       <c r="O3">
-        <v>216.444793640736</v>
+        <v>214.071401289648</v>
       </c>
       <c r="P3">
-        <v>9.70565146474936</v>
+        <v>9.508019129167719</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1596.36594114508</v>
+        <v>1600.90525959491</v>
       </c>
       <c r="C4">
-        <v>3.47205832216549</v>
+        <v>4.73578977967746</v>
       </c>
       <c r="D4">
-        <v>2.77720255989471</v>
+        <v>3.05556424733143</v>
       </c>
       <c r="E4">
-        <v>22.9516097126232</v>
+        <v>21.2406139692642</v>
       </c>
       <c r="F4">
-        <v>8.897818470089611</v>
+        <v>11.886564512502</v>
       </c>
       <c r="G4">
-        <v>5.72550902306292</v>
+        <v>6.44564646436925</v>
       </c>
       <c r="H4">
-        <v>14.4113930471142</v>
+        <v>11.0587920757135</v>
       </c>
       <c r="I4">
-        <v>12.8025422663109</v>
+        <v>11.8504839165813</v>
       </c>
       <c r="J4">
-        <v>20.0835095380119</v>
+        <v>20.3405621505747</v>
       </c>
       <c r="K4">
-        <v>1.80894719157654</v>
+        <v>3.92814646625151</v>
       </c>
       <c r="L4">
-        <v>65.285294398015</v>
+        <v>64.48500883304909</v>
       </c>
       <c r="M4">
-        <v>40.8617772379681</v>
+        <v>41.1640247599628</v>
       </c>
       <c r="N4">
-        <v>22.2420638416635</v>
+        <v>23.9255136545716</v>
       </c>
       <c r="O4">
-        <v>1915.18104093896</v>
+        <v>1927.35180240384</v>
       </c>
       <c r="P4">
-        <v>28.7162126487729</v>
+        <v>28.0435102903174</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>863.162626234723</v>
+        <v>869.119124297537</v>
       </c>
       <c r="C5">
-        <v>39.0044338702915</v>
+        <v>40.5674109231342</v>
       </c>
       <c r="D5">
-        <v>11.3667715445995</v>
+        <v>11.7473771108562</v>
       </c>
       <c r="E5">
-        <v>32.3236516401933</v>
+        <v>32.055840463035</v>
       </c>
       <c r="F5">
-        <v>5.1744308585398</v>
+        <v>5.2353294146486</v>
       </c>
       <c r="G5">
-        <v>3.29444341956319</v>
+        <v>3.53003660489651</v>
       </c>
       <c r="H5">
-        <v>9.995717613955391</v>
+        <v>11.1718211434075</v>
       </c>
       <c r="I5">
-        <v>6.49706269303771</v>
+        <v>5.48108572759722</v>
       </c>
       <c r="J5">
-        <v>31.9874442047568</v>
+        <v>30.4098137880274</v>
       </c>
       <c r="K5">
-        <v>12.0045226010418</v>
+        <v>12.919687643186</v>
       </c>
       <c r="L5">
-        <v>12.2342767527296</v>
+        <v>13.1284657849799</v>
       </c>
       <c r="M5">
-        <v>15.8236383734718</v>
+        <v>15.5442917755442</v>
       </c>
       <c r="N5">
-        <v>18.6150600654779</v>
+        <v>20.4934702793726</v>
       </c>
       <c r="O5">
-        <v>824.896435605761</v>
+        <v>819.8919469686811</v>
       </c>
       <c r="P5">
-        <v>47.9559864478189</v>
+        <v>42.0947702285067</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9563.36666479859</v>
+        <v>9534.70285997332</v>
       </c>
       <c r="C6">
-        <v>165.917840245078</v>
+        <v>170.505648100427</v>
       </c>
       <c r="D6">
-        <v>62.7068689961671</v>
+        <v>73.8708044626957</v>
       </c>
       <c r="E6">
-        <v>131.512082428043</v>
+        <v>123.593688028229</v>
       </c>
       <c r="F6">
-        <v>36.0543213532706</v>
+        <v>40.4099016094237</v>
       </c>
       <c r="G6">
-        <v>107.077030128805</v>
+        <v>93.2971450537345</v>
       </c>
       <c r="H6">
-        <v>48.0139608367423</v>
+        <v>43.1609907781781</v>
       </c>
       <c r="I6">
-        <v>43.7250543431471</v>
+        <v>41.4540440518445</v>
       </c>
       <c r="J6">
-        <v>148.994921012</v>
+        <v>141.126032820861</v>
       </c>
       <c r="K6">
-        <v>51.7126897501415</v>
+        <v>61.8148982968841</v>
       </c>
       <c r="L6">
-        <v>446.592676662301</v>
+        <v>433.981113406053</v>
       </c>
       <c r="M6">
-        <v>211.580705446809</v>
+        <v>212.107091538196</v>
       </c>
       <c r="N6">
-        <v>212.504077076646</v>
+        <v>223.025166466925</v>
       </c>
       <c r="O6">
-        <v>11724.2028137528</v>
+        <v>11713.9857731432</v>
       </c>
       <c r="P6">
-        <v>281.077085788592</v>
+        <v>283.655523764434</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1051.0853375662</v>
+        <v>1037.75082917385</v>
       </c>
       <c r="C7">
-        <v>39.6229771027228</v>
+        <v>36.8367298312587</v>
       </c>
       <c r="D7">
-        <v>2.74076597524723</v>
+        <v>3.32984657645516</v>
       </c>
       <c r="E7">
-        <v>16.6896196707602</v>
+        <v>18.4204340891576</v>
       </c>
       <c r="F7">
-        <v>16.2549697180106</v>
+        <v>17.0748015541912</v>
       </c>
       <c r="G7">
-        <v>7.36647962771877</v>
+        <v>8.11083143502851</v>
       </c>
       <c r="H7">
-        <v>3.24927963578464</v>
+        <v>4.39382879649552</v>
       </c>
       <c r="I7">
-        <v>7.09490327179992</v>
+        <v>6.84316126940885</v>
       </c>
       <c r="J7">
-        <v>14.4445343358229</v>
+        <v>18.1024365769002</v>
       </c>
       <c r="K7">
-        <v>4.80621530928169</v>
+        <v>6.4457639374216</v>
       </c>
       <c r="L7">
-        <v>54.1229852102265</v>
+        <v>54.9465180883631</v>
       </c>
       <c r="M7">
-        <v>10.4755341935603</v>
+        <v>11.2552825512106</v>
       </c>
       <c r="N7">
-        <v>25.4984408997633</v>
+        <v>23.3588349988981</v>
       </c>
       <c r="O7">
-        <v>1757.77869317276</v>
+        <v>1761.84483874719</v>
       </c>
       <c r="P7">
-        <v>23.9063418575398</v>
+        <v>25.2605560546113</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>834.867694425574</v>
+        <v>831.354668477349</v>
       </c>
       <c r="C8">
-        <v>14.3196036425588</v>
+        <v>11.6673146418907</v>
       </c>
       <c r="D8">
-        <v>3.50898343726708</v>
+        <v>3.42500576471783</v>
       </c>
       <c r="E8">
-        <v>19.4778931603994</v>
+        <v>17.1382389651527</v>
       </c>
       <c r="F8">
-        <v>0.214922513413547</v>
+        <v>1.18859786635417</v>
       </c>
       <c r="G8">
-        <v>23.6828755459556</v>
+        <v>24.0286167310046</v>
       </c>
       <c r="H8">
-        <v>8.413748080867711</v>
+        <v>7.89800879060069</v>
       </c>
       <c r="I8">
-        <v>7.12514801910201</v>
+        <v>6.23598463578177</v>
       </c>
       <c r="J8">
-        <v>32.9733717916783</v>
+        <v>32.4492708428672</v>
       </c>
       <c r="K8">
-        <v>17.9296291727026</v>
+        <v>19.7699011708864</v>
       </c>
       <c r="L8">
-        <v>49.0232708505504</v>
+        <v>41.5742789365114</v>
       </c>
       <c r="M8">
-        <v>40.9468646632222</v>
+        <v>41.4745162565716</v>
       </c>
       <c r="N8">
-        <v>20.5684179143616</v>
+        <v>24.0265502792098</v>
       </c>
       <c r="O8">
-        <v>1307.66584798011</v>
+        <v>1315.32612451678</v>
       </c>
       <c r="P8">
-        <v>1.36441096345535</v>
+        <v>2.45835345995013</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>214.973371813016</v>
+        <v>217.300351314262</v>
       </c>
       <c r="C9">
-        <v>6.03572559808028</v>
+        <v>6.1393597626604</v>
       </c>
       <c r="D9">
-        <v>2.79357886834984</v>
+        <v>2.05667084975247</v>
       </c>
       <c r="E9">
-        <v>2.93073060741545</v>
+        <v>3.23821263222367</v>
       </c>
       <c r="F9">
-        <v>1.2398085147111</v>
+        <v>1.20391886123041</v>
       </c>
       <c r="G9">
-        <v>16.5560088309758</v>
+        <v>16.0396508164929</v>
       </c>
       <c r="H9">
-        <v>2.96774110198019</v>
+        <v>2.90986438004692</v>
       </c>
       <c r="I9">
-        <v>0.65526102092159</v>
+        <v>0.525139828580761</v>
       </c>
       <c r="J9">
-        <v>5.24681543750549</v>
+        <v>4.1586565201552</v>
       </c>
       <c r="K9">
-        <v>1.63254195795778</v>
+        <v>1.73879331357755</v>
       </c>
       <c r="L9">
-        <v>3.737727870528</v>
+        <v>2.91941918873658</v>
       </c>
       <c r="M9">
-        <v>6.03919339656422</v>
+        <v>5.66162315506026</v>
       </c>
       <c r="N9">
-        <v>3.67375780726051</v>
+        <v>3.54675282675859</v>
       </c>
       <c r="O9">
-        <v>292.920733265616</v>
+        <v>295.456463053695</v>
       </c>
       <c r="P9">
-        <v>4.46874787876983</v>
+        <v>4.81619400689598</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5555.17090135783</v>
+        <v>5563.60703260572</v>
       </c>
       <c r="C10">
-        <v>63.7545347209934</v>
+        <v>64.31596119859491</v>
       </c>
       <c r="D10">
-        <v>18.0014226388081</v>
+        <v>16.347798208444</v>
       </c>
       <c r="E10">
-        <v>35.528692353644</v>
+        <v>38.7461454044111</v>
       </c>
       <c r="F10">
-        <v>6.46722086339982</v>
+        <v>6.57404841586292</v>
       </c>
       <c r="G10">
-        <v>29.962852144228</v>
+        <v>26.8808950051767</v>
       </c>
       <c r="H10">
-        <v>19.6175050326052</v>
+        <v>15.6556363099106</v>
       </c>
       <c r="I10">
-        <v>36.5486677901179</v>
+        <v>34.0006264411111</v>
       </c>
       <c r="J10">
-        <v>49.7275884676341</v>
+        <v>47.2592164622133</v>
       </c>
       <c r="K10">
-        <v>21.3542629206891</v>
+        <v>21.5434393747651</v>
       </c>
       <c r="L10">
-        <v>62.8145414781973</v>
+        <v>65.21804529768291</v>
       </c>
       <c r="M10">
-        <v>64.1914525861053</v>
+        <v>70.0313557377492</v>
       </c>
       <c r="N10">
-        <v>67.5867423267362</v>
+        <v>74.6988743792094</v>
       </c>
       <c r="O10">
-        <v>6114.55061069129</v>
+        <v>6120.67021027894</v>
       </c>
       <c r="P10">
-        <v>70.8744545995369</v>
+        <v>62.8773011275978</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2316.88433768107</v>
+        <v>2280.01278579602</v>
       </c>
       <c r="C11">
-        <v>68.1587874825903</v>
+        <v>78.5713614784941</v>
       </c>
       <c r="D11">
-        <v>138.872650360141</v>
+        <v>135.612750214606</v>
       </c>
       <c r="E11">
-        <v>58.1810165652034</v>
+        <v>63.6861742109466</v>
       </c>
       <c r="F11">
-        <v>1.7762712292297</v>
+        <v>5.13874603069992</v>
       </c>
       <c r="G11">
-        <v>27.8039442405112</v>
+        <v>25.6834571257594</v>
       </c>
       <c r="H11">
-        <v>12.3913504060387</v>
+        <v>14.4792462438514</v>
       </c>
       <c r="I11">
-        <v>14.9542447382069</v>
+        <v>13.4117528758322</v>
       </c>
       <c r="J11">
-        <v>42.6502473336528</v>
+        <v>43.5578108476967</v>
       </c>
       <c r="K11">
-        <v>13.356214825637</v>
+        <v>15.0951113963114</v>
       </c>
       <c r="L11">
-        <v>55.7471553386803</v>
+        <v>52.1297933821518</v>
       </c>
       <c r="M11">
-        <v>39.1343888736275</v>
+        <v>44.3983993629807</v>
       </c>
       <c r="N11">
-        <v>47.9418946599373</v>
+        <v>49.1766503480025</v>
       </c>
       <c r="O11">
-        <v>2822.46881995923</v>
+        <v>2862.53005450068</v>
       </c>
       <c r="P11">
-        <v>49.326000267145</v>
+        <v>43.6743513179736</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>331.403366873523</v>
+        <v>336.418777800446</v>
       </c>
       <c r="C12">
-        <v>5.6870699123048</v>
+        <v>6.07628310966273</v>
       </c>
       <c r="D12">
-        <v>0.55705297000599</v>
+        <v>0.602739712655695</v>
       </c>
       <c r="E12">
-        <v>1.5902446384125</v>
+        <v>1.19115153820903</v>
       </c>
       <c r="F12">
-        <v>0.836791942645333</v>
+        <v>0.830669364486479</v>
       </c>
       <c r="G12">
-        <v>0.631968568811032</v>
+        <v>0.428071517538213</v>
       </c>
       <c r="H12">
-        <v>0.0349015989666441</v>
+        <v>0.007917601590025891</v>
       </c>
       <c r="I12">
-        <v>0.789493069849</v>
+        <v>0.743932248402888</v>
       </c>
       <c r="J12">
-        <v>2.85280495541597</v>
+        <v>2.39902559060219</v>
       </c>
       <c r="K12">
-        <v>0.150796721560552</v>
+        <v>0.338215088399698</v>
       </c>
       <c r="L12">
-        <v>0.55092745984539</v>
+        <v>0.337041093545087</v>
       </c>
       <c r="M12">
-        <v>2.81869441703083</v>
+        <v>2.98225848738241</v>
       </c>
       <c r="N12">
-        <v>1.53593447329157</v>
+        <v>2.30728067743447</v>
       </c>
       <c r="O12">
-        <v>476.327057885773</v>
+        <v>469.054724773943</v>
       </c>
       <c r="P12">
-        <v>11.7616522972269</v>
+        <v>12.5823484831075</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>323.003856589205</v>
+        <v>330.462056451248</v>
       </c>
       <c r="C13">
-        <v>14.457068491831</v>
+        <v>14.7149343384056</v>
       </c>
       <c r="D13">
-        <v>0.165524363471403</v>
+        <v>0.45409898004962</v>
       </c>
       <c r="E13">
-        <v>10.5700156749332</v>
+        <v>9.98359475560229</v>
       </c>
       <c r="F13">
-        <v>3.70030495368283</v>
+        <v>3.34648931670242</v>
       </c>
       <c r="G13">
-        <v>4.31931161912353</v>
+        <v>5.67279576360938</v>
       </c>
       <c r="H13">
-        <v>0.952604055428934</v>
+        <v>0.793565767254133</v>
       </c>
       <c r="I13">
-        <v>1.6193945041195</v>
+        <v>1.26446721954348</v>
       </c>
       <c r="J13">
-        <v>3.78639683234619</v>
+        <v>4.29725256794551</v>
       </c>
       <c r="K13">
-        <v>1.05651921559454</v>
+        <v>2.23043296068361</v>
       </c>
       <c r="L13">
-        <v>16.7777008040203</v>
+        <v>18.4326864714732</v>
       </c>
       <c r="M13">
-        <v>0.864357828075034</v>
+        <v>0.928189599582377</v>
       </c>
       <c r="N13">
-        <v>3.74184087184941</v>
+        <v>4.19983792524177</v>
       </c>
       <c r="O13">
-        <v>465.828720285162</v>
+        <v>461.220626032468</v>
       </c>
       <c r="P13">
-        <v>42.4956278141776</v>
+        <v>42.0447435851759</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3456.33501376972</v>
+        <v>3436.28519287146</v>
       </c>
       <c r="C14">
-        <v>121.008166649047</v>
+        <v>113.610612141775</v>
       </c>
       <c r="D14">
-        <v>11.3388005573545</v>
+        <v>10.0764700372785</v>
       </c>
       <c r="E14">
-        <v>71.93692990683751</v>
+        <v>72.90769836943301</v>
       </c>
       <c r="F14">
-        <v>16.210400102424</v>
+        <v>18.4870354687608</v>
       </c>
       <c r="G14">
-        <v>68.8431150636104</v>
+        <v>67.9813462952896</v>
       </c>
       <c r="H14">
-        <v>32.3075207738378</v>
+        <v>40.6267565079639</v>
       </c>
       <c r="I14">
-        <v>25.5447627577001</v>
+        <v>24.3165256516564</v>
       </c>
       <c r="J14">
-        <v>128.686852431134</v>
+        <v>123.383927500397</v>
       </c>
       <c r="K14">
-        <v>115.732410466992</v>
+        <v>116.438467551438</v>
       </c>
       <c r="L14">
-        <v>97.59505986896281</v>
+        <v>99.5735586935096</v>
       </c>
       <c r="M14">
-        <v>65.5813518248675</v>
+        <v>72.5224041645574</v>
       </c>
       <c r="N14">
-        <v>95.85980754085691</v>
+        <v>89.5155200040864</v>
       </c>
       <c r="O14">
-        <v>4191.28897091066</v>
+        <v>4214.06803536083</v>
       </c>
       <c r="P14">
-        <v>62.1973290077501</v>
+        <v>57.0204327751555</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1585.13935759133</v>
+        <v>1609.36357215</v>
       </c>
       <c r="C15">
-        <v>36.200043225632</v>
+        <v>35.2697927630496</v>
       </c>
       <c r="D15">
-        <v>12.4497033898084</v>
+        <v>8.843239168889911</v>
       </c>
       <c r="E15">
-        <v>67.59955045633539</v>
+        <v>67.5580374774007</v>
       </c>
       <c r="F15">
-        <v>19.2997812145471</v>
+        <v>17.7372262151771</v>
       </c>
       <c r="G15">
-        <v>42.9981537813675</v>
+        <v>38.853260137135</v>
       </c>
       <c r="H15">
-        <v>40.6682863870338</v>
+        <v>43.9291969044056</v>
       </c>
       <c r="I15">
-        <v>20.8320914752617</v>
+        <v>19.1550412500792</v>
       </c>
       <c r="J15">
-        <v>130.238112367897</v>
+        <v>129.180815482451</v>
       </c>
       <c r="K15">
-        <v>38.6305065781636</v>
+        <v>40.0234693321222</v>
       </c>
       <c r="L15">
-        <v>31.4396964698458</v>
+        <v>33.102665230698</v>
       </c>
       <c r="M15">
-        <v>161.92041643487</v>
+        <v>158.892054539197</v>
       </c>
       <c r="N15">
-        <v>79.1931282191766</v>
+        <v>82.6908822482622</v>
       </c>
       <c r="O15">
-        <v>1965.17956762666</v>
+        <v>1943.06485691858</v>
       </c>
       <c r="P15">
-        <v>42.239542425289</v>
+        <v>41.3918254763213</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>688.847607996005</v>
+        <v>687.510106263038</v>
       </c>
       <c r="C16">
-        <v>55.2376877198436</v>
+        <v>59.2134854455026</v>
       </c>
       <c r="D16">
-        <v>3.84267707826467</v>
+        <v>5.30932480526486</v>
       </c>
       <c r="E16">
-        <v>24.830206182765</v>
+        <v>22.1922759290201</v>
       </c>
       <c r="F16">
-        <v>3.01447452371251</v>
+        <v>2.8351339333702</v>
       </c>
       <c r="G16">
-        <v>16.9218477223435</v>
+        <v>15.5007200293517</v>
       </c>
       <c r="H16">
-        <v>10.7266735632826</v>
+        <v>10.6456779176269</v>
       </c>
       <c r="I16">
-        <v>8.78620122544292</v>
+        <v>6.52202268558078</v>
       </c>
       <c r="J16">
-        <v>46.9802805533212</v>
+        <v>44.0149502005154</v>
       </c>
       <c r="K16">
-        <v>41.4093051502751</v>
+        <v>44.4977788060353</v>
       </c>
       <c r="L16">
-        <v>20.6539791801391</v>
+        <v>22.1012182044376</v>
       </c>
       <c r="M16">
-        <v>23.9654034105252</v>
+        <v>22.6648795787873</v>
       </c>
       <c r="N16">
-        <v>26.492940135478</v>
+        <v>25.0362514293619</v>
       </c>
       <c r="O16">
-        <v>1004.47291622488</v>
+        <v>1006.5689122488</v>
       </c>
       <c r="P16">
-        <v>67.39434802173</v>
+        <v>69.75453215663571</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>635.77146932695</v>
+        <v>639.980706219676</v>
       </c>
       <c r="C17">
-        <v>13.57319405455</v>
+        <v>17.7232327885808</v>
       </c>
       <c r="D17">
-        <v>3.86720345565161</v>
+        <v>3.36815586504983</v>
       </c>
       <c r="E17">
-        <v>18.4101101246516</v>
+        <v>19.6329450040111</v>
       </c>
       <c r="F17">
-        <v>10.5968702399547</v>
+        <v>10.5732728428275</v>
       </c>
       <c r="G17">
-        <v>6.16950131495529</v>
+        <v>5.28292466235811</v>
       </c>
       <c r="H17">
-        <v>5.75825888861959</v>
+        <v>6.07899537423594</v>
       </c>
       <c r="I17">
-        <v>6.59469158976123</v>
+        <v>6.66482696122113</v>
       </c>
       <c r="J17">
-        <v>15.5678490659229</v>
+        <v>16.9983228751337</v>
       </c>
       <c r="K17">
-        <v>6.55876460425494</v>
+        <v>8.118983888225619</v>
       </c>
       <c r="L17">
-        <v>8.60442974898743</v>
+        <v>10.0610205415411</v>
       </c>
       <c r="M17">
-        <v>57.4553142237101</v>
+        <v>60.8264745348076</v>
       </c>
       <c r="N17">
-        <v>12.3971188564334</v>
+        <v>10.5249114030365</v>
       </c>
       <c r="O17">
-        <v>996.774229922101</v>
+        <v>983.860063623377</v>
       </c>
       <c r="P17">
-        <v>45.122553591535</v>
+        <v>45.6139077230271</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1242.75089369806</v>
+        <v>1248.38103207676</v>
       </c>
       <c r="C18">
-        <v>27.7456052891719</v>
+        <v>24.4243531034453</v>
       </c>
       <c r="D18">
-        <v>5.3848731074174</v>
+        <v>5.00166953125406</v>
       </c>
       <c r="E18">
-        <v>35.5611834537672</v>
+        <v>34.762267466653</v>
       </c>
       <c r="F18">
-        <v>30.0538667094454</v>
+        <v>30.5284241680978</v>
       </c>
       <c r="G18">
-        <v>28.391979441359</v>
+        <v>24.4938054633821</v>
       </c>
       <c r="H18">
-        <v>15.3965417024822</v>
+        <v>15.9955396990512</v>
       </c>
       <c r="I18">
-        <v>5.25728528047864</v>
+        <v>4.10687269303126</v>
       </c>
       <c r="J18">
-        <v>33.8239981980376</v>
+        <v>34.7860105099507</v>
       </c>
       <c r="K18">
-        <v>16.2659060147528</v>
+        <v>16.6996108807229</v>
       </c>
       <c r="L18">
-        <v>28.4203678593995</v>
+        <v>24.3748930729788</v>
       </c>
       <c r="M18">
-        <v>57.1331967714178</v>
+        <v>60.1146570618651</v>
       </c>
       <c r="N18">
-        <v>21.3241883088421</v>
+        <v>20.2169878180186</v>
       </c>
       <c r="O18">
-        <v>1293.78954344217</v>
+        <v>1300.28588603458</v>
       </c>
       <c r="P18">
-        <v>49.5411171817097</v>
+        <v>49.7974201906475</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1397.5113491283</v>
+        <v>1379.16490276178</v>
       </c>
       <c r="C19">
-        <v>28.273223217343</v>
+        <v>26.9753869347754</v>
       </c>
       <c r="D19">
-        <v>15.505471020987</v>
+        <v>11.0990505781748</v>
       </c>
       <c r="E19">
-        <v>36.2350660188411</v>
+        <v>32.9975620876019</v>
       </c>
       <c r="F19">
-        <v>88.3771944251567</v>
+        <v>83.18432654108619</v>
       </c>
       <c r="G19">
-        <v>33.0934993312052</v>
+        <v>35.3950662607345</v>
       </c>
       <c r="H19">
-        <v>4.66928420099792</v>
+        <v>6.3174739414526</v>
       </c>
       <c r="I19">
-        <v>1.202088616824</v>
+        <v>2.35146859932032</v>
       </c>
       <c r="J19">
-        <v>20.2045515092308</v>
+        <v>16.8853845871048</v>
       </c>
       <c r="K19">
-        <v>8.98921806678862</v>
+        <v>9.445615923351591</v>
       </c>
       <c r="L19">
-        <v>0.940360013702213</v>
+        <v>2.08130331030903</v>
       </c>
       <c r="M19">
-        <v>24.7478202106648</v>
+        <v>25.1598145175177</v>
       </c>
       <c r="N19">
-        <v>14.2069496437331</v>
+        <v>12.5014934350028</v>
       </c>
       <c r="O19">
-        <v>1361.43854410933</v>
+        <v>1379.71140206317</v>
       </c>
       <c r="P19">
-        <v>39.3852277951226</v>
+        <v>36.4593459961179</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>361.735225389969</v>
+        <v>358.138233001173</v>
       </c>
       <c r="C20">
-        <v>7.82559644371286</v>
+        <v>7.58777190276534</v>
       </c>
       <c r="D20">
-        <v>6.10334024124244</v>
+        <v>7.22183865115336</v>
       </c>
       <c r="E20">
-        <v>29.3104465948659</v>
+        <v>30.4217707890606</v>
       </c>
       <c r="F20">
-        <v>0.619054227136698</v>
+        <v>0.773080332449605</v>
       </c>
       <c r="G20">
-        <v>2.30807676481545</v>
+        <v>1.7489705713472</v>
       </c>
       <c r="H20">
-        <v>1.21257308799534</v>
+        <v>1.20370526309395</v>
       </c>
       <c r="I20">
-        <v>1.97102734213661</v>
+        <v>1.74738660294965</v>
       </c>
       <c r="J20">
-        <v>3.98073010042705</v>
+        <v>3.70085551989866</v>
       </c>
       <c r="K20">
-        <v>2.34737045958979</v>
+        <v>2.28612595019224</v>
       </c>
       <c r="L20">
-        <v>6.51925537012122</v>
+        <v>7.10078459607293</v>
       </c>
       <c r="M20">
-        <v>15.6052851284267</v>
+        <v>15.6195958783753</v>
       </c>
       <c r="N20">
-        <v>5.3039575244393</v>
+        <v>4.3673396265142</v>
       </c>
       <c r="O20">
-        <v>479.533469016894</v>
+        <v>479.135652272152</v>
       </c>
       <c r="P20">
-        <v>16.6396179491727</v>
+        <v>17.5179800602351</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1420.37642103081</v>
+        <v>1444.1139439021</v>
       </c>
       <c r="C21">
-        <v>22.5792414435249</v>
+        <v>18.939053987864</v>
       </c>
       <c r="D21">
-        <v>4.4527692369053</v>
+        <v>3.70528006973057</v>
       </c>
       <c r="E21">
-        <v>13.8772496070428</v>
+        <v>17.8211568762392</v>
       </c>
       <c r="F21">
-        <v>6.19453495284586</v>
+        <v>4.2268969228855</v>
       </c>
       <c r="G21">
-        <v>14.1874011492822</v>
+        <v>18.9287673564564</v>
       </c>
       <c r="H21">
-        <v>4.0177463694352</v>
+        <v>4.59715398671773</v>
       </c>
       <c r="I21">
-        <v>10.8764572051392</v>
+        <v>8.734674011300321</v>
       </c>
       <c r="J21">
-        <v>27.089014679855</v>
+        <v>25.7602648930817</v>
       </c>
       <c r="K21">
-        <v>3.56809600878158</v>
+        <v>2.53077198015658</v>
       </c>
       <c r="L21">
-        <v>24.0893737096736</v>
+        <v>24.5861149039327</v>
       </c>
       <c r="M21">
-        <v>25.353571666956</v>
+        <v>25.6211307087312</v>
       </c>
       <c r="N21">
-        <v>19.6341059196791</v>
+        <v>18.3032859968965</v>
       </c>
       <c r="O21">
-        <v>2085.3819492394</v>
+        <v>2054.15388530838</v>
       </c>
       <c r="P21">
-        <v>20.2805880583857</v>
+        <v>19.1095123655774</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1690.20524594844</v>
+        <v>1695.73943387245</v>
       </c>
       <c r="C22">
-        <v>13.1125186579942</v>
+        <v>13.6438151041533</v>
       </c>
       <c r="D22">
-        <v>15.4313042985169</v>
+        <v>15.1445813972733</v>
       </c>
       <c r="E22">
-        <v>40.7357585979145</v>
+        <v>36.3930141825704</v>
       </c>
       <c r="F22">
-        <v>2.68080617656759</v>
+        <v>2.10056005719634</v>
       </c>
       <c r="G22">
-        <v>24.2504964178412</v>
+        <v>23.7913090930498</v>
       </c>
       <c r="H22">
-        <v>13.867051187976</v>
+        <v>15.6826294633314</v>
       </c>
       <c r="I22">
-        <v>10.8848674047727</v>
+        <v>11.2061404410228</v>
       </c>
       <c r="J22">
-        <v>35.1805614817119</v>
+        <v>40.0936773505311</v>
       </c>
       <c r="K22">
-        <v>12.3490101826178</v>
+        <v>12.3103667677049</v>
       </c>
       <c r="L22">
-        <v>103.749283824318</v>
+        <v>96.694186598377</v>
       </c>
       <c r="M22">
-        <v>12.9380871267971</v>
+        <v>14.2055491310503</v>
       </c>
       <c r="N22">
-        <v>56.8812881598796</v>
+        <v>59.3814516427072</v>
       </c>
       <c r="O22">
-        <v>2364.69763218623</v>
+        <v>2360.67225847543</v>
       </c>
       <c r="P22">
-        <v>11.5477534348447</v>
+        <v>12.1404754168401</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2839.25693524651</v>
+        <v>2790.38574680521</v>
       </c>
       <c r="C23">
-        <v>28.7842728494897</v>
+        <v>27.6036503995651</v>
       </c>
       <c r="D23">
-        <v>9.02680788014065</v>
+        <v>9.937807511874819</v>
       </c>
       <c r="E23">
-        <v>32.8337895847928</v>
+        <v>36.3439660269397</v>
       </c>
       <c r="F23">
-        <v>4.80838774719517</v>
+        <v>3.92883896360935</v>
       </c>
       <c r="G23">
-        <v>55.590142633094</v>
+        <v>49.0967557266292</v>
       </c>
       <c r="H23">
-        <v>52.6967865813005</v>
+        <v>52.1082020074954</v>
       </c>
       <c r="I23">
-        <v>6.60014076193836</v>
+        <v>10.4291917703946</v>
       </c>
       <c r="J23">
-        <v>116.943420129419</v>
+        <v>113.426673271847</v>
       </c>
       <c r="K23">
-        <v>78.65796115594689</v>
+        <v>81.6986199802203</v>
       </c>
       <c r="L23">
-        <v>32.6737836452698</v>
+        <v>34.5213196015879</v>
       </c>
       <c r="M23">
-        <v>467.878274784625</v>
+        <v>477.731781678539</v>
       </c>
       <c r="N23">
-        <v>75.14397852281429</v>
+        <v>74.384733096529</v>
       </c>
       <c r="O23">
-        <v>3130.15652262657</v>
+        <v>3156.10667675837</v>
       </c>
       <c r="P23">
-        <v>36.2882161986465</v>
+        <v>42.4111476165838</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1100.45174462928</v>
+        <v>1100.23655716785</v>
       </c>
       <c r="C24">
-        <v>51.4840344974904</v>
+        <v>48.164098662378</v>
       </c>
       <c r="D24">
-        <v>5.0809823415386</v>
+        <v>5.9578207115663</v>
       </c>
       <c r="E24">
-        <v>48.8663802333077</v>
+        <v>46.9579562536054</v>
       </c>
       <c r="F24">
-        <v>10.3900121210708</v>
+        <v>9.53828776185699</v>
       </c>
       <c r="G24">
-        <v>26.6022449920532</v>
+        <v>27.439670236466</v>
       </c>
       <c r="H24">
-        <v>15.5621402159816</v>
+        <v>14.964897876587</v>
       </c>
       <c r="I24">
-        <v>14.0587861211135</v>
+        <v>14.0207772269137</v>
       </c>
       <c r="J24">
-        <v>47.7738724860086</v>
+        <v>46.7302999500815</v>
       </c>
       <c r="K24">
-        <v>31.894887674399</v>
+        <v>38.7466970908004</v>
       </c>
       <c r="L24">
-        <v>66.3597302819925</v>
+        <v>63.0284991123053</v>
       </c>
       <c r="M24">
-        <v>23.7592184795888</v>
+        <v>23.7345532215294</v>
       </c>
       <c r="N24">
-        <v>61.1117060929636</v>
+        <v>62.0692144701557</v>
       </c>
       <c r="O24">
-        <v>1865.76887059879</v>
+        <v>1865.3695391749</v>
       </c>
       <c r="P24">
-        <v>94.7845004791408</v>
+        <v>92.5875598461724</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>900.894054989309</v>
+        <v>892.080940516486</v>
       </c>
       <c r="C25">
-        <v>38.246051105998</v>
+        <v>38.9284497973088</v>
       </c>
       <c r="D25">
-        <v>11.5943522119247</v>
+        <v>12.3923508500863</v>
       </c>
       <c r="E25">
-        <v>38.7099064633261</v>
+        <v>39.7941674044787</v>
       </c>
       <c r="F25">
-        <v>13.6752133054098</v>
+        <v>14.3533552735568</v>
       </c>
       <c r="G25">
-        <v>8.685912211094459</v>
+        <v>8.96155271975182</v>
       </c>
       <c r="H25">
-        <v>16.7512868787529</v>
+        <v>13.3759535365075</v>
       </c>
       <c r="I25">
-        <v>7.6282459295679</v>
+        <v>6.47402975270702</v>
       </c>
       <c r="J25">
-        <v>12.7927388645918</v>
+        <v>11.819059166296</v>
       </c>
       <c r="K25">
-        <v>7.02428156085166</v>
+        <v>9.13963835791194</v>
       </c>
       <c r="L25">
-        <v>17.2999704442085</v>
+        <v>14.8829327653595</v>
       </c>
       <c r="M25">
-        <v>36.5928490380054</v>
+        <v>32.3993647758625</v>
       </c>
       <c r="N25">
-        <v>39.2733227857207</v>
+        <v>40.0620419212682</v>
       </c>
       <c r="O25">
-        <v>762.073578195623</v>
+        <v>776.688306511567</v>
       </c>
       <c r="P25">
-        <v>28.7025011395554</v>
+        <v>31.6864889949314</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1426.86566278203</v>
+        <v>1448.94190634139</v>
       </c>
       <c r="C26">
-        <v>46.4391109138175</v>
+        <v>49.4912236655351</v>
       </c>
       <c r="D26">
-        <v>7.12828521468952</v>
+        <v>9.2019606514384</v>
       </c>
       <c r="E26">
-        <v>39.9985658342381</v>
+        <v>37.0202755878266</v>
       </c>
       <c r="F26">
-        <v>7.6284373337895</v>
+        <v>9.770172410334061</v>
       </c>
       <c r="G26">
-        <v>21.5706679165148</v>
+        <v>21.8150328639379</v>
       </c>
       <c r="H26">
-        <v>16.3052884462941</v>
+        <v>16.0499774526371</v>
       </c>
       <c r="I26">
-        <v>15.1898625209337</v>
+        <v>14.8529090226683</v>
       </c>
       <c r="J26">
-        <v>41.8670543117715</v>
+        <v>43.8929531919355</v>
       </c>
       <c r="K26">
-        <v>20.2633406778301</v>
+        <v>25.9534705333275</v>
       </c>
       <c r="L26">
-        <v>25.3305878564155</v>
+        <v>30.6667546033676</v>
       </c>
       <c r="M26">
-        <v>78.88371345063079</v>
+        <v>68.9968034731012</v>
       </c>
       <c r="N26">
-        <v>20.5619342671976</v>
+        <v>22.9390411217548</v>
       </c>
       <c r="O26">
-        <v>2107.88943675146</v>
+        <v>2077.25111637842</v>
       </c>
       <c r="P26">
-        <v>61.3891244762321</v>
+        <v>61.8533197418089</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>248.699537724964</v>
+        <v>248.257789064766</v>
       </c>
       <c r="C27">
-        <v>1.12539229369657</v>
+        <v>1.9322001855845</v>
       </c>
       <c r="D27">
-        <v>1.96933265089238</v>
+        <v>1.47098028995198</v>
       </c>
       <c r="E27">
-        <v>9.298573413408841</v>
+        <v>9.220158566338689</v>
       </c>
       <c r="F27">
-        <v>4.57751177463244</v>
+        <v>4.85350912375922</v>
       </c>
       <c r="G27">
-        <v>0.478642788378614</v>
+        <v>0.478658737743134</v>
       </c>
       <c r="H27">
-        <v>0.212910471493339</v>
+        <v>0.146747162410139</v>
       </c>
       <c r="I27">
-        <v>2.07308242140831</v>
+        <v>2.27328095338221</v>
       </c>
       <c r="J27">
-        <v>2.4185853071166</v>
+        <v>2.75620555217572</v>
       </c>
       <c r="K27">
-        <v>0.289936149380222</v>
+        <v>1.06085952536432</v>
       </c>
       <c r="L27">
-        <v>1.15976102502987</v>
+        <v>1.30734531442594</v>
       </c>
       <c r="M27">
-        <v>0.5816048361163621</v>
+        <v>0.581927442883058</v>
       </c>
       <c r="N27">
-        <v>3.60749130203733</v>
+        <v>3.40451298839196</v>
       </c>
       <c r="O27">
-        <v>324.716486472607</v>
+        <v>325.59700898865</v>
       </c>
       <c r="P27">
-        <v>41.2360631284293</v>
+        <v>38.54357963751</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>378.561978991177</v>
+        <v>383.137664549756</v>
       </c>
       <c r="C28">
-        <v>26.0662531470514</v>
+        <v>27.1126701121915</v>
       </c>
       <c r="D28">
-        <v>2.55782056711219</v>
+        <v>3.18290681771135</v>
       </c>
       <c r="E28">
-        <v>5.27219376377557</v>
+        <v>6.38896649011461</v>
       </c>
       <c r="F28">
-        <v>1.63205834687862</v>
+        <v>1.62712722552484</v>
       </c>
       <c r="G28">
-        <v>2.61828497097259</v>
+        <v>3.11307821801588</v>
       </c>
       <c r="H28">
-        <v>9.30866334385609</v>
+        <v>8.66763917026848</v>
       </c>
       <c r="I28">
-        <v>1.73933263942522</v>
+        <v>2.4789489555797</v>
       </c>
       <c r="J28">
-        <v>19.4537751486958</v>
+        <v>18.3578663608429</v>
       </c>
       <c r="K28">
-        <v>8.471910559058051</v>
+        <v>8.88585523103594</v>
       </c>
       <c r="L28">
-        <v>11.4298115465356</v>
+        <v>13.0726290264422</v>
       </c>
       <c r="M28">
-        <v>7.01541308528344</v>
+        <v>7.510669729096</v>
       </c>
       <c r="N28">
-        <v>9.37839887416418</v>
+        <v>8.72276199049694</v>
       </c>
       <c r="O28">
-        <v>639.64702340683</v>
+        <v>627.819305392593</v>
       </c>
       <c r="P28">
-        <v>79.64831951112281</v>
+        <v>81.0900923228501</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>540.609045952058</v>
+        <v>553.724324458039</v>
       </c>
       <c r="C29">
-        <v>4.84292035564733</v>
+        <v>4.55703139024197</v>
       </c>
       <c r="D29">
-        <v>2.30768785605682</v>
+        <v>1.78884423200656</v>
       </c>
       <c r="E29">
-        <v>3.08295938435415</v>
+        <v>2.7615336021706</v>
       </c>
       <c r="F29">
-        <v>23.8725549478147</v>
+        <v>22.2690810082979</v>
       </c>
       <c r="G29">
-        <v>4.05344781183987</v>
+        <v>4.01136336945214</v>
       </c>
       <c r="H29">
-        <v>1.00732883560886</v>
+        <v>0.8963451415391111</v>
       </c>
       <c r="I29">
-        <v>0.785408631000793</v>
+        <v>1.30145127665797</v>
       </c>
       <c r="J29">
-        <v>5.20647608566627</v>
+        <v>4.59546069757415</v>
       </c>
       <c r="K29">
-        <v>1.2293642109212</v>
+        <v>1.71868244638023</v>
       </c>
       <c r="L29">
-        <v>3.03358943501616</v>
+        <v>2.65867505215201</v>
       </c>
       <c r="M29">
-        <v>2.77439454949688</v>
+        <v>2.7184569121041</v>
       </c>
       <c r="N29">
-        <v>8.56974023731058</v>
+        <v>8.553554237429131</v>
       </c>
       <c r="O29">
-        <v>872.913518408348</v>
+        <v>874.6105456790961</v>
       </c>
       <c r="P29">
-        <v>5.05925070945134</v>
+        <v>4.08990831784616</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>280.632295383325</v>
+        <v>274.39929756311</v>
       </c>
       <c r="C30">
-        <v>2.79531725182947</v>
+        <v>3.02492464876488</v>
       </c>
       <c r="D30">
-        <v>5.1273685048843</v>
+        <v>4.4334354451214</v>
       </c>
       <c r="E30">
-        <v>11.1560282721563</v>
+        <v>11.9135508562886</v>
       </c>
       <c r="F30">
-        <v>0.977500183762919</v>
+        <v>0.72061628276582</v>
       </c>
       <c r="G30">
-        <v>4.15616006059829</v>
+        <v>4.01094557643239</v>
       </c>
       <c r="H30">
-        <v>4.5939478197059</v>
+        <v>4.63384886304154</v>
       </c>
       <c r="I30">
-        <v>1.2600597364171</v>
+        <v>1.59382924335688</v>
       </c>
       <c r="J30">
-        <v>15.1542691299637</v>
+        <v>14.7863899389152</v>
       </c>
       <c r="K30">
-        <v>6.71281701691597</v>
+        <v>7.74855180868499</v>
       </c>
       <c r="L30">
-        <v>32.0671361648386</v>
+        <v>33.6685807237166</v>
       </c>
       <c r="M30">
-        <v>8.81782738240571</v>
+        <v>8.999521327138019</v>
       </c>
       <c r="N30">
-        <v>11.4285812153453</v>
+        <v>11.4702435800719</v>
       </c>
       <c r="O30">
-        <v>479.45062310477</v>
+        <v>481.669199646455</v>
       </c>
       <c r="P30">
-        <v>7.18923708556453</v>
+        <v>6.21280165634253</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2404.89170627633</v>
+        <v>2393.1958141799</v>
       </c>
       <c r="C31">
-        <v>46.8103850942223</v>
+        <v>50.1752652244911</v>
       </c>
       <c r="D31">
-        <v>28.8464151116827</v>
+        <v>27.8767029910501</v>
       </c>
       <c r="E31">
-        <v>46.2881698775936</v>
+        <v>41.5639609162601</v>
       </c>
       <c r="F31">
-        <v>8.70717879573488</v>
+        <v>6.93022924415402</v>
       </c>
       <c r="G31">
-        <v>78.6723631692783</v>
+        <v>83.86935898363321</v>
       </c>
       <c r="H31">
-        <v>7.66897744184705</v>
+        <v>6.62272028186275</v>
       </c>
       <c r="I31">
-        <v>18.6750400741247</v>
+        <v>17.1133022343064</v>
       </c>
       <c r="J31">
-        <v>23.2290794643655</v>
+        <v>25.8457544914247</v>
       </c>
       <c r="K31">
-        <v>9.05574149650815</v>
+        <v>12.1023268175214</v>
       </c>
       <c r="L31">
-        <v>53.6628264285405</v>
+        <v>54.394541993861</v>
       </c>
       <c r="M31">
-        <v>17.3852705742356</v>
+        <v>17.6906088328417</v>
       </c>
       <c r="N31">
-        <v>44.1982030545019</v>
+        <v>44.5223882225121</v>
       </c>
       <c r="O31">
-        <v>3111.28230877682</v>
+        <v>3108.33971437725</v>
       </c>
       <c r="P31">
-        <v>9.83984315995181</v>
+        <v>10.3214968515714</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>540.9668880926901</v>
+        <v>547.47484420034</v>
       </c>
       <c r="C32">
-        <v>3.4361634903932</v>
+        <v>4.15792963152247</v>
       </c>
       <c r="D32">
-        <v>0.273558408582923</v>
+        <v>0.474165222456681</v>
       </c>
       <c r="E32">
-        <v>4.48150533571194</v>
+        <v>3.63366899066093</v>
       </c>
       <c r="F32">
-        <v>18.2999519049939</v>
+        <v>19.1614401127868</v>
       </c>
       <c r="G32">
-        <v>1.33888863677008</v>
+        <v>2.00959798756146</v>
       </c>
       <c r="H32">
-        <v>1.53928850031397</v>
+        <v>2.09262095485667</v>
       </c>
       <c r="I32">
-        <v>2.45418516373005</v>
+        <v>2.67955354034993</v>
       </c>
       <c r="J32">
-        <v>2.23034500240772</v>
+        <v>2.84846308190519</v>
       </c>
       <c r="K32">
-        <v>1.49913647791243</v>
+        <v>2.16622512345893</v>
       </c>
       <c r="L32">
-        <v>14.3886159955245</v>
+        <v>11.6532093463852</v>
       </c>
       <c r="M32">
-        <v>1.43432524338764</v>
+        <v>1.93909882471748</v>
       </c>
       <c r="N32">
-        <v>6.87611382113574</v>
+        <v>7.15768680675728</v>
       </c>
       <c r="O32">
-        <v>646.184868973393</v>
+        <v>640.588105678358</v>
       </c>
       <c r="P32">
-        <v>21.5506757373658</v>
+        <v>20.3594365878922</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5752.51490739472</v>
+        <v>5738.88584365958</v>
       </c>
       <c r="C33">
-        <v>65.90413695990389</v>
+        <v>70.1628792565612</v>
       </c>
       <c r="D33">
-        <v>38.4098434737179</v>
+        <v>41.9623790216105</v>
       </c>
       <c r="E33">
-        <v>70.4164215309972</v>
+        <v>61.135302791994</v>
       </c>
       <c r="F33">
-        <v>6.91027598727033</v>
+        <v>6.24607765712269</v>
       </c>
       <c r="G33">
-        <v>63.4263390951819</v>
+        <v>62.479169561985</v>
       </c>
       <c r="H33">
-        <v>21.7876916895883</v>
+        <v>23.5404847277586</v>
       </c>
       <c r="I33">
-        <v>22.3264219232653</v>
+        <v>23.6947332878082</v>
       </c>
       <c r="J33">
-        <v>85.8936920390006</v>
+        <v>82.90364270311051</v>
       </c>
       <c r="K33">
-        <v>68.12213824382231</v>
+        <v>70.12091624226871</v>
       </c>
       <c r="L33">
-        <v>106.768385733917</v>
+        <v>107.005726593841</v>
       </c>
       <c r="M33">
-        <v>54.9667578672741</v>
+        <v>56.2516812816481</v>
       </c>
       <c r="N33">
-        <v>125.120706795701</v>
+        <v>128.88348473417</v>
       </c>
       <c r="O33">
-        <v>6547.8501973312</v>
+        <v>6537.80444194361</v>
       </c>
       <c r="P33">
-        <v>80.34603251464171</v>
+        <v>77.6607214632059</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2345.68521968188</v>
+        <v>2307.36099228053</v>
       </c>
       <c r="C34">
-        <v>60.7627880672955</v>
+        <v>61.1633134397274</v>
       </c>
       <c r="D34">
-        <v>117.809864192798</v>
+        <v>124.004167121267</v>
       </c>
       <c r="E34">
-        <v>34.7765057505523</v>
+        <v>42.6668082463415</v>
       </c>
       <c r="F34">
-        <v>6.67197936642306</v>
+        <v>7.45432836658685</v>
       </c>
       <c r="G34">
-        <v>32.1268590899809</v>
+        <v>34.4454031250702</v>
       </c>
       <c r="H34">
-        <v>44.9187401475531</v>
+        <v>40.9530585967995</v>
       </c>
       <c r="I34">
-        <v>11.5119252875374</v>
+        <v>11.049717942365</v>
       </c>
       <c r="J34">
-        <v>45.0836576289128</v>
+        <v>51.5524378072794</v>
       </c>
       <c r="K34">
-        <v>27.1275886455218</v>
+        <v>29.2465900437151</v>
       </c>
       <c r="L34">
-        <v>84.5465193592629</v>
+        <v>88.203597660044</v>
       </c>
       <c r="M34">
-        <v>32.2927189539461</v>
+        <v>32.2071324094719</v>
       </c>
       <c r="N34">
-        <v>116.864808539653</v>
+        <v>112.806983736366</v>
       </c>
       <c r="O34">
-        <v>2719.4762368111</v>
+        <v>2732.88696870411</v>
       </c>
       <c r="P34">
-        <v>47.6322988220202</v>
+        <v>51.9327915583912</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>159.280017967069</v>
+        <v>156.45479303303</v>
       </c>
       <c r="C35">
-        <v>6.56421985932207</v>
+        <v>6.37027033732863</v>
       </c>
       <c r="D35">
-        <v>0.562712785317022</v>
+        <v>0.394994005862082</v>
       </c>
       <c r="E35">
-        <v>1.67301082783593</v>
+        <v>2.33826915542028</v>
       </c>
       <c r="F35">
-        <v>3.50775930129939</v>
+        <v>3.83073793657097</v>
       </c>
       <c r="G35">
-        <v>1.03437967959824</v>
+        <v>0.652044379241712</v>
       </c>
       <c r="H35">
-        <v>0.228864585573838</v>
+        <v>0.202540316789903</v>
       </c>
       <c r="I35">
-        <v>1.05021320814536</v>
+        <v>0.660216350306237</v>
       </c>
       <c r="J35">
-        <v>2.55891734245117</v>
+        <v>2.4424925609024</v>
       </c>
       <c r="K35">
-        <v>5.06716956161234</v>
+        <v>4.76529782319211</v>
       </c>
       <c r="L35">
-        <v>1.74977822604529</v>
+        <v>2.10073153681482</v>
       </c>
       <c r="M35">
-        <v>1.78922009335969</v>
+        <v>1.95540538846394</v>
       </c>
       <c r="N35">
-        <v>2.50524180252652</v>
+        <v>2.70559498070968</v>
       </c>
       <c r="O35">
-        <v>223.986581768628</v>
+        <v>226.762105493692</v>
       </c>
       <c r="P35">
-        <v>36.6140192839631</v>
+        <v>36.8760290201915</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3141.89153228544</v>
+        <v>3145.88565716568</v>
       </c>
       <c r="C36">
-        <v>36.9676175880211</v>
+        <v>47.113648348535</v>
       </c>
       <c r="D36">
-        <v>15.0071522968417</v>
+        <v>10.9904216503411</v>
       </c>
       <c r="E36">
-        <v>98.215234846096</v>
+        <v>91.8245281416349</v>
       </c>
       <c r="F36">
-        <v>28.1739365654192</v>
+        <v>27.9209058207775</v>
       </c>
       <c r="G36">
-        <v>82.3081948538081</v>
+        <v>79.0228057110233</v>
       </c>
       <c r="H36">
-        <v>86.1199367325471</v>
+        <v>87.68771095400921</v>
       </c>
       <c r="I36">
-        <v>34.7741594554268</v>
+        <v>34.5042667319155</v>
       </c>
       <c r="J36">
-        <v>180.617079686323</v>
+        <v>182.762615017352</v>
       </c>
       <c r="K36">
-        <v>67.0517123379127</v>
+        <v>79.8813920353211</v>
       </c>
       <c r="L36">
-        <v>61.3407214981116</v>
+        <v>64.24490364341951</v>
       </c>
       <c r="M36">
-        <v>195.967816771177</v>
+        <v>195.015909793423</v>
       </c>
       <c r="N36">
-        <v>71.86886697428351</v>
+        <v>81.3886430417255</v>
       </c>
       <c r="O36">
-        <v>3864.84238442458</v>
+        <v>3830.40590995587</v>
       </c>
       <c r="P36">
-        <v>41.2846512570808</v>
+        <v>43.3678608935053</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1015.78777688303</v>
+        <v>1016.99015750098</v>
       </c>
       <c r="C37">
-        <v>19.70245976468</v>
+        <v>21.0952025246139</v>
       </c>
       <c r="D37">
-        <v>3.3787397249075</v>
+        <v>4.47595571813653</v>
       </c>
       <c r="E37">
-        <v>20.1057495726221</v>
+        <v>18.4268664437735</v>
       </c>
       <c r="F37">
-        <v>24.7821525959338</v>
+        <v>29.6337984895462</v>
       </c>
       <c r="G37">
-        <v>5.16016539734268</v>
+        <v>8.5076392775164</v>
       </c>
       <c r="H37">
-        <v>21.7090975406399</v>
+        <v>21.7766352907997</v>
       </c>
       <c r="I37">
-        <v>10.8399581932278</v>
+        <v>11.1530526524624</v>
       </c>
       <c r="J37">
-        <v>34.6469216337545</v>
+        <v>34.7416522558646</v>
       </c>
       <c r="K37">
-        <v>19.4675405370372</v>
+        <v>19.1710152960154</v>
       </c>
       <c r="L37">
-        <v>19.058705802479</v>
+        <v>15.8968269308011</v>
       </c>
       <c r="M37">
-        <v>32.7594448782613</v>
+        <v>32.818855805531</v>
       </c>
       <c r="N37">
-        <v>23.1928509467579</v>
+        <v>21.4003758504703</v>
       </c>
       <c r="O37">
-        <v>1120.14237495395</v>
+        <v>1117.91702429269</v>
       </c>
       <c r="P37">
-        <v>40.4382674669612</v>
+        <v>39.5066600807072</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1018.04013098387</v>
+        <v>1004.50929440081</v>
       </c>
       <c r="C38">
-        <v>24.9202123998259</v>
+        <v>23.9283215299879</v>
       </c>
       <c r="D38">
-        <v>8.659813235139371</v>
+        <v>7.71837985097928</v>
       </c>
       <c r="E38">
-        <v>43.363283972725</v>
+        <v>44.6126095085552</v>
       </c>
       <c r="F38">
-        <v>1.24639174873127</v>
+        <v>1.17231442178279</v>
       </c>
       <c r="G38">
-        <v>4.39340250458337</v>
+        <v>5.1619818816107</v>
       </c>
       <c r="H38">
-        <v>2.05285044495829</v>
+        <v>1.84535234087766</v>
       </c>
       <c r="I38">
-        <v>1.3521153978391</v>
+        <v>1.34737141845382</v>
       </c>
       <c r="J38">
-        <v>32.2506732348033</v>
+        <v>33.2029120931701</v>
       </c>
       <c r="K38">
-        <v>1.78718237177116</v>
+        <v>3.17330316284836</v>
       </c>
       <c r="L38">
-        <v>65.7623209080414</v>
+        <v>66.2359445527177</v>
       </c>
       <c r="M38">
-        <v>17.9647757731501</v>
+        <v>17.0622942005468</v>
       </c>
       <c r="N38">
-        <v>40.5012779234035</v>
+        <v>38.73331903104</v>
       </c>
       <c r="O38">
-        <v>1214.19173006112</v>
+        <v>1221.33689207675</v>
       </c>
       <c r="P38">
-        <v>47.9454508815507</v>
+        <v>48.846809903726</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3619.61757555252</v>
+        <v>3622.35436294865</v>
       </c>
       <c r="C39">
-        <v>80.48780848515629</v>
+        <v>80.70768012274679</v>
       </c>
       <c r="D39">
-        <v>42.9379382901546</v>
+        <v>41.7457938030976</v>
       </c>
       <c r="E39">
-        <v>131.109507180018</v>
+        <v>134.792096238264</v>
       </c>
       <c r="F39">
-        <v>22.5009516325015</v>
+        <v>24.6534358014962</v>
       </c>
       <c r="G39">
-        <v>107.069763711055</v>
+        <v>104.457167931341</v>
       </c>
       <c r="H39">
-        <v>43.5654205734102</v>
+        <v>44.8733417725619</v>
       </c>
       <c r="I39">
-        <v>31.9913765075144</v>
+        <v>31.6406066527032</v>
       </c>
       <c r="J39">
-        <v>144.133915631714</v>
+        <v>146.229527861813</v>
       </c>
       <c r="K39">
-        <v>69.4691267104844</v>
+        <v>71.1514494943972</v>
       </c>
       <c r="L39">
-        <v>78.39718330846181</v>
+        <v>84.0295557067647</v>
       </c>
       <c r="M39">
-        <v>55.139162212747</v>
+        <v>55.9866713976606</v>
       </c>
       <c r="N39">
-        <v>96.5520392458335</v>
+        <v>102.377766098382</v>
       </c>
       <c r="O39">
-        <v>4174.68193438699</v>
+        <v>4152.1219910464</v>
       </c>
       <c r="P39">
-        <v>60.0935301119592</v>
+        <v>62.8878705534521</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>290.830540002345</v>
+        <v>284.005779648878</v>
       </c>
       <c r="C40">
-        <v>2.42119740816517</v>
+        <v>2.5534490026403</v>
       </c>
       <c r="D40">
-        <v>6.91312973224913</v>
+        <v>6.20676300445364</v>
       </c>
       <c r="E40">
-        <v>5.30788970238765</v>
+        <v>5.05237082873115</v>
       </c>
       <c r="F40">
-        <v>0.255451910703347</v>
+        <v>0.161899281838667</v>
       </c>
       <c r="G40">
-        <v>3.72979579458997</v>
+        <v>3.92975507705712</v>
       </c>
       <c r="H40">
-        <v>4.18380897176046</v>
+        <v>4.21763346348787</v>
       </c>
       <c r="I40">
-        <v>1.89244286608644</v>
+        <v>1.76564717695195</v>
       </c>
       <c r="J40">
-        <v>8.696586985804309</v>
+        <v>8.334154754913341</v>
       </c>
       <c r="K40">
-        <v>2.38476007730586</v>
+        <v>2.75062287644349</v>
       </c>
       <c r="L40">
-        <v>13.0208897134969</v>
+        <v>12.0247668457149</v>
       </c>
       <c r="M40">
-        <v>3.9492136991521</v>
+        <v>4.46311765830377</v>
       </c>
       <c r="N40">
-        <v>16.9660237155227</v>
+        <v>16.9696288914951</v>
       </c>
       <c r="O40">
-        <v>378.987819581562</v>
+        <v>379.507909996354</v>
       </c>
       <c r="P40">
-        <v>3.1142654037915</v>
+        <v>3.19698132138707</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1233.12404195324</v>
+        <v>1239.30153889385</v>
       </c>
       <c r="C41">
-        <v>10.2046479243036</v>
+        <v>11.5310403410281</v>
       </c>
       <c r="D41">
-        <v>64.1846359109305</v>
+        <v>70.5582342494462</v>
       </c>
       <c r="E41">
-        <v>27.7965213038489</v>
+        <v>28.698319101289</v>
       </c>
       <c r="F41">
-        <v>0.993151894422472</v>
+        <v>1.04662744613607</v>
       </c>
       <c r="G41">
-        <v>21.061130322686</v>
+        <v>22.9642503308509</v>
       </c>
       <c r="H41">
-        <v>31.8282936800088</v>
+        <v>28.7366756524434</v>
       </c>
       <c r="I41">
-        <v>13.2384727524097</v>
+        <v>14.1329665340141</v>
       </c>
       <c r="J41">
-        <v>35.2139853349592</v>
+        <v>37.4053823992556</v>
       </c>
       <c r="K41">
-        <v>12.2302285788922</v>
+        <v>12.6383072571254</v>
       </c>
       <c r="L41">
-        <v>29.0634373810387</v>
+        <v>30.414996259702</v>
       </c>
       <c r="M41">
-        <v>23.2686000577299</v>
+        <v>25.5989783682512</v>
       </c>
       <c r="N41">
-        <v>19.2632798245914</v>
+        <v>17.9916283954549</v>
       </c>
       <c r="O41">
-        <v>1311.82213200956</v>
+        <v>1301.12288586659</v>
       </c>
       <c r="P41">
-        <v>24.3844962378223</v>
+        <v>23.0723821179143</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>160.5249844265</v>
+        <v>162.15293696257</v>
       </c>
       <c r="C42">
-        <v>4.11374193794883</v>
+        <v>4.64898221698776</v>
       </c>
       <c r="D42">
-        <v>1.29223661161715</v>
+        <v>1.13771545342259</v>
       </c>
       <c r="E42">
-        <v>4.55976434769741</v>
+        <v>4.76879636173437</v>
       </c>
       <c r="F42">
-        <v>1.94093005741637</v>
+        <v>1.87562690509161</v>
       </c>
       <c r="G42">
-        <v>1.0139294120656</v>
+        <v>1.23825673859559</v>
       </c>
       <c r="H42">
-        <v>0.460004937021624</v>
+        <v>0.49220903783052</v>
       </c>
       <c r="I42">
-        <v>1.22797016793309</v>
+        <v>1.23023442098653</v>
       </c>
       <c r="J42">
-        <v>2.69742331720642</v>
+        <v>3.05405427142966</v>
       </c>
       <c r="K42">
-        <v>3.81066272532249</v>
+        <v>4.19295390984199</v>
       </c>
       <c r="L42">
-        <v>6.62575469522052</v>
+        <v>6.52242256660985</v>
       </c>
       <c r="M42">
-        <v>2.46409322282971</v>
+        <v>3.02070128661802</v>
       </c>
       <c r="N42">
-        <v>5.88825028971076</v>
+        <v>6.10138779777871</v>
       </c>
       <c r="O42">
-        <v>258.218888674881</v>
+        <v>258.685252541423</v>
       </c>
       <c r="P42">
-        <v>44.5104017184431</v>
+        <v>44.5147420756966</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1680.18647262015</v>
+        <v>1710.43310439904</v>
       </c>
       <c r="C43">
-        <v>33.2482702005759</v>
+        <v>30.6658936874567</v>
       </c>
       <c r="D43">
-        <v>34.4925877794732</v>
+        <v>35.4670081668407</v>
       </c>
       <c r="E43">
-        <v>57.5884803867591</v>
+        <v>54.8471640425005</v>
       </c>
       <c r="F43">
-        <v>9.731839779990519</v>
+        <v>9.412884868354571</v>
       </c>
       <c r="G43">
-        <v>24.8024982618222</v>
+        <v>27.2250590051005</v>
       </c>
       <c r="H43">
-        <v>46.5463391646361</v>
+        <v>37.273134792677</v>
       </c>
       <c r="I43">
-        <v>25.5984098734604</v>
+        <v>22.533973599228</v>
       </c>
       <c r="J43">
-        <v>54.0427655745802</v>
+        <v>51.3193275011875</v>
       </c>
       <c r="K43">
-        <v>31.8030597452816</v>
+        <v>37.5632883192773</v>
       </c>
       <c r="L43">
-        <v>38.3325751102979</v>
+        <v>38.5489354939386</v>
       </c>
       <c r="M43">
-        <v>127.369898100276</v>
+        <v>105.577497288166</v>
       </c>
       <c r="N43">
-        <v>37.1735381067027</v>
+        <v>46.8995520154482</v>
       </c>
       <c r="O43">
-        <v>1879.16651406424</v>
+        <v>1881.10240052332</v>
       </c>
       <c r="P43">
-        <v>49.8175212053593</v>
+        <v>43.8813774989228</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5603.53455865898</v>
+        <v>5596.35366260737</v>
       </c>
       <c r="C44">
-        <v>115.54381390111</v>
+        <v>118.91591026294</v>
       </c>
       <c r="D44">
-        <v>25.6573140351804</v>
+        <v>30.2050322252219</v>
       </c>
       <c r="E44">
-        <v>75.162546137341</v>
+        <v>71.809328052911</v>
       </c>
       <c r="F44">
-        <v>193.523289646205</v>
+        <v>204.671323415496</v>
       </c>
       <c r="G44">
-        <v>102.78997240179</v>
+        <v>115.200166762095</v>
       </c>
       <c r="H44">
-        <v>31.1054826384351</v>
+        <v>32.737407662325</v>
       </c>
       <c r="I44">
-        <v>41.3385767919965</v>
+        <v>38.9629377820414</v>
       </c>
       <c r="J44">
-        <v>97.42458738961631</v>
+        <v>109.844709278556</v>
       </c>
       <c r="K44">
-        <v>51.6186946711929</v>
+        <v>52.1115835123072</v>
       </c>
       <c r="L44">
-        <v>143.192228390988</v>
+        <v>152.279077007783</v>
       </c>
       <c r="M44">
-        <v>77.4307613506778</v>
+        <v>81.2539229275925</v>
       </c>
       <c r="N44">
-        <v>87.8515842984099</v>
+        <v>84.25035796235061</v>
       </c>
       <c r="O44">
-        <v>7418.63834912163</v>
+        <v>7413.52811874892</v>
       </c>
       <c r="P44">
-        <v>201.403507391457</v>
+        <v>197.724403171216</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>522.270310229983</v>
+        <v>515.637655706783</v>
       </c>
       <c r="C45">
-        <v>20.5766766736596</v>
+        <v>18.5392378163069</v>
       </c>
       <c r="D45">
-        <v>1.65167908417446</v>
+        <v>2.27857254894928</v>
       </c>
       <c r="E45">
-        <v>18.2961425496934</v>
+        <v>14.8670089310157</v>
       </c>
       <c r="F45">
-        <v>20.106305411887</v>
+        <v>20.3857379346853</v>
       </c>
       <c r="G45">
-        <v>5.6910622338829</v>
+        <v>5.66668297686754</v>
       </c>
       <c r="H45">
-        <v>3.51137796176899</v>
+        <v>2.35203369618405</v>
       </c>
       <c r="I45">
-        <v>3.17798187850843</v>
+        <v>3.50384433220618</v>
       </c>
       <c r="J45">
-        <v>19.0632226292879</v>
+        <v>23.4266632518245</v>
       </c>
       <c r="K45">
-        <v>3.1891833005468</v>
+        <v>3.60299102976136</v>
       </c>
       <c r="L45">
-        <v>15.1969774564928</v>
+        <v>14.7769661856727</v>
       </c>
       <c r="M45">
-        <v>14.9008569546169</v>
+        <v>15.2432538913844</v>
       </c>
       <c r="N45">
-        <v>27.2125175666151</v>
+        <v>28.8183932271673</v>
       </c>
       <c r="O45">
-        <v>766.588480976877</v>
+        <v>781.916604446707</v>
       </c>
       <c r="P45">
-        <v>19.5759153137452</v>
+        <v>17.1374292109935</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>138.879656743512</v>
+        <v>138.875703520033</v>
       </c>
       <c r="C46">
-        <v>3.1068089084261</v>
+        <v>3.44216179209715</v>
       </c>
       <c r="D46">
-        <v>0.604423587404784</v>
+        <v>0.69073691932684</v>
       </c>
       <c r="E46">
-        <v>4.68710967245976</v>
+        <v>4.46877025420451</v>
       </c>
       <c r="F46">
-        <v>0.477558835857353</v>
+        <v>0.618016603629274</v>
       </c>
       <c r="G46">
-        <v>1.74782301375367</v>
+        <v>1.8467569574079</v>
       </c>
       <c r="H46">
-        <v>1.67243774564077</v>
+        <v>1.7716080428507</v>
       </c>
       <c r="I46">
-        <v>1.97798598022164</v>
+        <v>2.00720754783685</v>
       </c>
       <c r="J46">
-        <v>4.62077851831705</v>
+        <v>3.82709373392531</v>
       </c>
       <c r="K46">
-        <v>2.77755639724026</v>
+        <v>2.88131271101308</v>
       </c>
       <c r="L46">
-        <v>10.0802689410422</v>
+        <v>10.097738842588</v>
       </c>
       <c r="M46">
-        <v>2.42841127743339</v>
+        <v>2.56336921022944</v>
       </c>
       <c r="N46">
-        <v>7.4258272171459</v>
+        <v>7.71119352593762</v>
       </c>
       <c r="O46">
-        <v>232.326921948549</v>
+        <v>233.716384211241</v>
       </c>
       <c r="P46">
-        <v>10.7537897418323</v>
+        <v>9.908246628165831</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1940.33828751267</v>
+        <v>1910.36466583161</v>
       </c>
       <c r="C47">
-        <v>37.9440461485822</v>
+        <v>40.5775294887154</v>
       </c>
       <c r="D47">
-        <v>22.3456479728646</v>
+        <v>25.0365672085172</v>
       </c>
       <c r="E47">
-        <v>48.45177472809</v>
+        <v>46.2175100949324</v>
       </c>
       <c r="F47">
-        <v>4.03877983381985</v>
+        <v>7.13684042102946</v>
       </c>
       <c r="G47">
-        <v>24.5577223130048</v>
+        <v>26.678174794158</v>
       </c>
       <c r="H47">
-        <v>5.97424012956509</v>
+        <v>9.72434476994958</v>
       </c>
       <c r="I47">
-        <v>2.47154210648716</v>
+        <v>2.72236753458905</v>
       </c>
       <c r="J47">
-        <v>38.0863962670382</v>
+        <v>37.4171112428607</v>
       </c>
       <c r="K47">
-        <v>11.2882616756248</v>
+        <v>10.1059821432141</v>
       </c>
       <c r="L47">
-        <v>32.3373051872107</v>
+        <v>34.9510774775955</v>
       </c>
       <c r="M47">
-        <v>60.1166423263902</v>
+        <v>58.3975572066621</v>
       </c>
       <c r="N47">
-        <v>37.7229376944504</v>
+        <v>35.1966643682373</v>
       </c>
       <c r="O47">
-        <v>2655.14479246538</v>
+        <v>2680.4083340446</v>
       </c>
       <c r="P47">
-        <v>21.6670661227737</v>
+        <v>22.7365515872655</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1707.9629293992</v>
+        <v>1657.41155858604</v>
       </c>
       <c r="C48">
-        <v>24.8510802080953</v>
+        <v>24.4489771150797</v>
       </c>
       <c r="D48">
-        <v>3.90556836921829</v>
+        <v>6.14962081241589</v>
       </c>
       <c r="E48">
-        <v>62.8362329863539</v>
+        <v>61.2282468833683</v>
       </c>
       <c r="F48">
-        <v>6.18653529998535</v>
+        <v>5.57876462618207</v>
       </c>
       <c r="G48">
-        <v>6.44187910512618</v>
+        <v>6.4732477347405</v>
       </c>
       <c r="H48">
-        <v>3.28233750551332</v>
+        <v>5.56859291453798</v>
       </c>
       <c r="I48">
-        <v>8.68326098135625</v>
+        <v>6.97631984833234</v>
       </c>
       <c r="J48">
-        <v>40.9785628033168</v>
+        <v>40.5470767576977</v>
       </c>
       <c r="K48">
-        <v>11.9892022336574</v>
+        <v>12.8688711788103</v>
       </c>
       <c r="L48">
-        <v>47.4587103697935</v>
+        <v>42.2444258536966</v>
       </c>
       <c r="M48">
-        <v>104.978361193456</v>
+        <v>114.033710452275</v>
       </c>
       <c r="N48">
-        <v>31.8163263317948</v>
+        <v>25.817445426112</v>
       </c>
       <c r="O48">
-        <v>2055.13584285911</v>
+        <v>2114.05263574092</v>
       </c>
       <c r="P48">
-        <v>68.0854614080979</v>
+        <v>71.8471095391987</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>701.471704327232</v>
+        <v>697.462388854061</v>
       </c>
       <c r="C49">
-        <v>6.15879742803203</v>
+        <v>5.42088784162751</v>
       </c>
       <c r="D49">
-        <v>2.01141403082738</v>
+        <v>1.81433083366547</v>
       </c>
       <c r="E49">
-        <v>20.3108316702393</v>
+        <v>19.3812519035294</v>
       </c>
       <c r="F49">
-        <v>23.4604033364356</v>
+        <v>24.2763990148944</v>
       </c>
       <c r="G49">
-        <v>14.3897784815817</v>
+        <v>14.3405439385713</v>
       </c>
       <c r="H49">
-        <v>7.14394735845821</v>
+        <v>6.44601936022748</v>
       </c>
       <c r="I49">
-        <v>4.09308856715827</v>
+        <v>5.19904751714101</v>
       </c>
       <c r="J49">
-        <v>17.2931214029639</v>
+        <v>17.5681714053724</v>
       </c>
       <c r="K49">
-        <v>4.24277169453046</v>
+        <v>4.11519521129315</v>
       </c>
       <c r="L49">
-        <v>0.517258604252084</v>
+        <v>1.23063352151978</v>
       </c>
       <c r="M49">
-        <v>3.57276158409559</v>
+        <v>3.80812382530808</v>
       </c>
       <c r="N49">
-        <v>3.05275604706333</v>
+        <v>4.81616873474434</v>
       </c>
       <c r="O49">
-        <v>516.842215999218</v>
+        <v>517.834899119882</v>
       </c>
       <c r="P49">
-        <v>5.060025200294</v>
+        <v>6.28745915015628</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1277.29438657157</v>
+        <v>1268.9182362565</v>
       </c>
       <c r="C50">
-        <v>67.8644037038279</v>
+        <v>66.50527366928721</v>
       </c>
       <c r="D50">
-        <v>13.8810056009851</v>
+        <v>12.0290630124063</v>
       </c>
       <c r="E50">
-        <v>143.357294912855</v>
+        <v>132.81042921002</v>
       </c>
       <c r="F50">
-        <v>2.90362578372509</v>
+        <v>2.63280394394556</v>
       </c>
       <c r="G50">
-        <v>26.0174067147112</v>
+        <v>30.1775022595891</v>
       </c>
       <c r="H50">
-        <v>32.0710725750362</v>
+        <v>32.4981379603149</v>
       </c>
       <c r="I50">
-        <v>7.12426087152595</v>
+        <v>7.11645689819601</v>
       </c>
       <c r="J50">
-        <v>91.3190388716188</v>
+        <v>91.5911879818775</v>
       </c>
       <c r="K50">
-        <v>69.55143601904319</v>
+        <v>69.9154992528793</v>
       </c>
       <c r="L50">
-        <v>53.0469827688891</v>
+        <v>55.8752038446469</v>
       </c>
       <c r="M50">
-        <v>35.4727919654065</v>
+        <v>40.7605755514589</v>
       </c>
       <c r="N50">
-        <v>56.0682274481635</v>
+        <v>53.6253216789698</v>
       </c>
       <c r="O50">
-        <v>1875.71324779612</v>
+        <v>1875.80956342215</v>
       </c>
       <c r="P50">
-        <v>82.6491791890687</v>
+        <v>85.1008209422278</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>120.108424107532</v>
+        <v>121.151773106884</v>
       </c>
       <c r="C51">
-        <v>3.25878577302065</v>
+        <v>2.80099666172784</v>
       </c>
       <c r="D51">
-        <v>0.06412236031923239</v>
+        <v>0.0156042428850587</v>
       </c>
       <c r="E51">
-        <v>1.59629729824002</v>
+        <v>1.85839493243738</v>
       </c>
       <c r="F51">
-        <v>21.4257965503861</v>
+        <v>21.0879074461254</v>
       </c>
       <c r="G51">
-        <v>1.9545272886136</v>
+        <v>1.70999139128925</v>
       </c>
       <c r="H51">
-        <v>0.0121288103874703</v>
+        <v>0.00480446479457034</v>
       </c>
       <c r="I51">
-        <v>0.662015666682285</v>
+        <v>0.834243183022815</v>
       </c>
       <c r="J51">
-        <v>1.15952538934466</v>
+        <v>0.946518442385857</v>
       </c>
       <c r="K51">
-        <v>0.375665404079259</v>
+        <v>0.465034573097818</v>
       </c>
       <c r="L51">
-        <v>0.203925346395137</v>
+        <v>0.285668800335961</v>
       </c>
       <c r="M51">
-        <v>0.401391997819846</v>
+        <v>0.432436075158956</v>
       </c>
       <c r="N51">
-        <v>0.342622919469952</v>
+        <v>0.573319219124361</v>
       </c>
       <c r="O51">
-        <v>180.066840807194</v>
+        <v>180.49684018874</v>
       </c>
       <c r="P51">
-        <v>16.2266017361054</v>
+        <v>16.4635720115377</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1463.76420632335</v>
+        <v>1369.0875320732</v>
       </c>
       <c r="C2">
-        <v>27.2234114707102</v>
+        <v>23.1165670891294</v>
       </c>
       <c r="D2">
-        <v>36.3533709334548</v>
+        <v>40.5912876594861</v>
       </c>
       <c r="E2">
-        <v>52.3080073909905</v>
+        <v>57.1879194045746</v>
       </c>
       <c r="F2">
-        <v>19.5908665615104</v>
+        <v>22.0229311914256</v>
       </c>
       <c r="G2">
-        <v>11.2057466206817</v>
+        <v>11.272915722662</v>
       </c>
       <c r="H2">
-        <v>20.8485502074218</v>
+        <v>23.5996349071352</v>
       </c>
       <c r="I2">
-        <v>13.2792848858071</v>
+        <v>11.8028037780865</v>
       </c>
       <c r="J2">
-        <v>68.409856473623</v>
+        <v>71.1398252562316</v>
       </c>
       <c r="K2">
-        <v>15.4696355842599</v>
+        <v>17.2536335921442</v>
       </c>
       <c r="L2">
-        <v>36.2557034541836</v>
+        <v>40.5841177519074</v>
       </c>
       <c r="M2">
-        <v>35.8421384260785</v>
+        <v>39.105329650887</v>
       </c>
       <c r="N2">
-        <v>26.3760590846886</v>
+        <v>25.9509330063067</v>
       </c>
       <c r="O2">
-        <v>1313.1608484096</v>
+        <v>1394.59243405442</v>
       </c>
       <c r="P2">
-        <v>22.6152467931311</v>
+        <v>20.8414946209896</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>123.290694202488</v>
+        <v>104.070199295354</v>
       </c>
       <c r="C3">
-        <v>3.59578599230322</v>
+        <v>3.65967603513904</v>
       </c>
       <c r="D3">
-        <v>0.12919870380141</v>
+        <v>0.157817230111161</v>
       </c>
       <c r="E3">
-        <v>1.21470925192221</v>
+        <v>0.877574609382227</v>
       </c>
       <c r="F3">
-        <v>6.8811079470356</v>
+        <v>7.20282041210477</v>
       </c>
       <c r="G3">
-        <v>0.14372029622317</v>
+        <v>0.173322173126298</v>
       </c>
       <c r="H3">
-        <v>0.00684087588091132</v>
+        <v>0.00928386819652246</v>
       </c>
       <c r="I3">
-        <v>0.404338681828063</v>
+        <v>0.559939065302783</v>
       </c>
       <c r="J3">
-        <v>0.236570896672353</v>
+        <v>0.249109207748292</v>
       </c>
       <c r="K3">
-        <v>0.239905893271654</v>
+        <v>0.115184508866591</v>
       </c>
       <c r="L3">
-        <v>0.240372420266818</v>
+        <v>0.0930241961083636</v>
       </c>
       <c r="M3">
-        <v>0.465823435335752</v>
+        <v>0.610744082220265</v>
       </c>
       <c r="N3">
-        <v>0.427398251198917</v>
+        <v>0.499682296432076</v>
       </c>
       <c r="O3">
-        <v>214.071401289648</v>
+        <v>235.941908889199</v>
       </c>
       <c r="P3">
-        <v>9.508019129167719</v>
+        <v>8.69237074828555</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1600.90525959491</v>
+        <v>1343.99248370712</v>
       </c>
       <c r="C4">
-        <v>4.73578977967746</v>
+        <v>4.75339257059886</v>
       </c>
       <c r="D4">
-        <v>3.05556424733143</v>
+        <v>3.05250619874607</v>
       </c>
       <c r="E4">
-        <v>21.2406139692642</v>
+        <v>23.6923742889633</v>
       </c>
       <c r="F4">
-        <v>11.886564512502</v>
+        <v>11.3447288420316</v>
       </c>
       <c r="G4">
-        <v>6.44564646436925</v>
+        <v>7.34154405122755</v>
       </c>
       <c r="H4">
-        <v>11.0587920757135</v>
+        <v>12.0155217660882</v>
       </c>
       <c r="I4">
-        <v>11.8504839165813</v>
+        <v>11.0749707002274</v>
       </c>
       <c r="J4">
-        <v>20.3405621505747</v>
+        <v>26.0724610711022</v>
       </c>
       <c r="K4">
-        <v>3.92814646625151</v>
+        <v>4.0443286412985</v>
       </c>
       <c r="L4">
-        <v>64.48500883304909</v>
+        <v>73.4648660696769</v>
       </c>
       <c r="M4">
-        <v>41.1640247599628</v>
+        <v>44.65564422816</v>
       </c>
       <c r="N4">
-        <v>23.9255136545716</v>
+        <v>34.5765345991028</v>
       </c>
       <c r="O4">
-        <v>1927.35180240384</v>
+        <v>2143.43794719188</v>
       </c>
       <c r="P4">
-        <v>28.0435102903174</v>
+        <v>27.5053928697464</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>869.119124297537</v>
+        <v>740.056528966407</v>
       </c>
       <c r="C5">
-        <v>40.5674109231342</v>
+        <v>44.2414641603009</v>
       </c>
       <c r="D5">
-        <v>11.7473771108562</v>
+        <v>13.6604807167665</v>
       </c>
       <c r="E5">
-        <v>32.055840463035</v>
+        <v>34.5766767300049</v>
       </c>
       <c r="F5">
-        <v>5.2353294146486</v>
+        <v>5.72332710666799</v>
       </c>
       <c r="G5">
-        <v>3.53003660489651</v>
+        <v>4.54184341307051</v>
       </c>
       <c r="H5">
-        <v>11.1718211434075</v>
+        <v>13.123413346174</v>
       </c>
       <c r="I5">
-        <v>5.48108572759722</v>
+        <v>6.66984828468893</v>
       </c>
       <c r="J5">
-        <v>30.4098137880274</v>
+        <v>31.809235182387</v>
       </c>
       <c r="K5">
-        <v>12.919687643186</v>
+        <v>13.6553975555114</v>
       </c>
       <c r="L5">
-        <v>13.1284657849799</v>
+        <v>16.6825908052061</v>
       </c>
       <c r="M5">
-        <v>15.5442917755442</v>
+        <v>18.5274440239551</v>
       </c>
       <c r="N5">
-        <v>20.4934702793726</v>
+        <v>21.435618334893</v>
       </c>
       <c r="O5">
-        <v>819.8919469686811</v>
+        <v>931.028371520756</v>
       </c>
       <c r="P5">
-        <v>42.0947702285067</v>
+        <v>50.8260973994775</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9534.70285997332</v>
+        <v>8085.53680544286</v>
       </c>
       <c r="C6">
-        <v>170.505648100427</v>
+        <v>218.398552078558</v>
       </c>
       <c r="D6">
-        <v>73.8708044626957</v>
+        <v>98.7568983764167</v>
       </c>
       <c r="E6">
-        <v>123.593688028229</v>
+        <v>146.866937617966</v>
       </c>
       <c r="F6">
-        <v>40.4099016094237</v>
+        <v>49.1823761287126</v>
       </c>
       <c r="G6">
-        <v>93.2971450537345</v>
+        <v>109.62179591832</v>
       </c>
       <c r="H6">
-        <v>43.1609907781781</v>
+        <v>55.3155637314285</v>
       </c>
       <c r="I6">
-        <v>41.4540440518445</v>
+        <v>46.8634448292679</v>
       </c>
       <c r="J6">
-        <v>141.126032820861</v>
+        <v>171.150499988307</v>
       </c>
       <c r="K6">
-        <v>61.8148982968841</v>
+        <v>80.3975275098077</v>
       </c>
       <c r="L6">
-        <v>433.981113406053</v>
+        <v>517.480043238775</v>
       </c>
       <c r="M6">
-        <v>212.107091538196</v>
+        <v>250.825787576777</v>
       </c>
       <c r="N6">
-        <v>223.025166466925</v>
+        <v>261.537636987243</v>
       </c>
       <c r="O6">
-        <v>11713.9857731432</v>
+        <v>12798.5940490468</v>
       </c>
       <c r="P6">
-        <v>283.655523764434</v>
+        <v>312.119560995516</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1037.75082917385</v>
+        <v>859.851910481065</v>
       </c>
       <c r="C7">
-        <v>36.8367298312587</v>
+        <v>38.5312198294471</v>
       </c>
       <c r="D7">
-        <v>3.32984657645516</v>
+        <v>4.04294214291082</v>
       </c>
       <c r="E7">
-        <v>18.4204340891576</v>
+        <v>19.2883239026468</v>
       </c>
       <c r="F7">
-        <v>17.0748015541912</v>
+        <v>17.5284941428667</v>
       </c>
       <c r="G7">
-        <v>8.11083143502851</v>
+        <v>9.077283845663359</v>
       </c>
       <c r="H7">
-        <v>4.39382879649552</v>
+        <v>5.81184307443189</v>
       </c>
       <c r="I7">
-        <v>6.84316126940885</v>
+        <v>6.96272659064824</v>
       </c>
       <c r="J7">
-        <v>18.1024365769002</v>
+        <v>19.1549910847436</v>
       </c>
       <c r="K7">
-        <v>6.4457639374216</v>
+        <v>7.76166489839069</v>
       </c>
       <c r="L7">
-        <v>54.9465180883631</v>
+        <v>63.6786301573877</v>
       </c>
       <c r="M7">
-        <v>11.2552825512106</v>
+        <v>13.2143724112814</v>
       </c>
       <c r="N7">
-        <v>23.3588349988981</v>
+        <v>24.6247156761428</v>
       </c>
       <c r="O7">
-        <v>1761.84483874719</v>
+        <v>1915.03439815448</v>
       </c>
       <c r="P7">
-        <v>25.2605560546113</v>
+        <v>22.5572090607479</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>831.354668477349</v>
+        <v>676.092123992816</v>
       </c>
       <c r="C8">
-        <v>11.6673146418907</v>
+        <v>10.5483127697415</v>
       </c>
       <c r="D8">
-        <v>3.42500576471783</v>
+        <v>3.29692749311018</v>
       </c>
       <c r="E8">
-        <v>17.1382389651527</v>
+        <v>20.2462188284326</v>
       </c>
       <c r="F8">
-        <v>1.18859786635417</v>
+        <v>0.686828833116187</v>
       </c>
       <c r="G8">
-        <v>24.0286167310046</v>
+        <v>28.1199446258848</v>
       </c>
       <c r="H8">
-        <v>7.89800879060069</v>
+        <v>8.409130810796411</v>
       </c>
       <c r="I8">
-        <v>6.23598463578177</v>
+        <v>6.45595301127285</v>
       </c>
       <c r="J8">
-        <v>32.4492708428672</v>
+        <v>37.5521372657588</v>
       </c>
       <c r="K8">
-        <v>19.7699011708864</v>
+        <v>22.2415740818107</v>
       </c>
       <c r="L8">
-        <v>41.5742789365114</v>
+        <v>47.077592554294</v>
       </c>
       <c r="M8">
-        <v>41.4745162565716</v>
+        <v>44.4174175807303</v>
       </c>
       <c r="N8">
-        <v>24.0265502792098</v>
+        <v>28.1039799720124</v>
       </c>
       <c r="O8">
-        <v>1315.32612451678</v>
+        <v>1439.66230247273</v>
       </c>
       <c r="P8">
-        <v>2.45835345995013</v>
+        <v>2.53552223284216</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>217.300351314262</v>
+        <v>174.584724280262</v>
       </c>
       <c r="C9">
-        <v>6.1393597626604</v>
+        <v>7.90549268499507</v>
       </c>
       <c r="D9">
-        <v>2.05667084975247</v>
+        <v>2.84271475212739</v>
       </c>
       <c r="E9">
-        <v>3.23821263222367</v>
+        <v>3.59779645177368</v>
       </c>
       <c r="F9">
-        <v>1.20391886123041</v>
+        <v>0.8040564193827771</v>
       </c>
       <c r="G9">
-        <v>16.0396508164929</v>
+        <v>18.2694036693602</v>
       </c>
       <c r="H9">
-        <v>2.90986438004692</v>
+        <v>3.49282176372937</v>
       </c>
       <c r="I9">
-        <v>0.525139828580761</v>
+        <v>0.660371620945963</v>
       </c>
       <c r="J9">
-        <v>4.1586565201552</v>
+        <v>4.88780540983681</v>
       </c>
       <c r="K9">
-        <v>1.73879331357755</v>
+        <v>2.22611586756351</v>
       </c>
       <c r="L9">
-        <v>2.91941918873658</v>
+        <v>3.34438074615065</v>
       </c>
       <c r="M9">
-        <v>5.66162315506026</v>
+        <v>5.89678953600628</v>
       </c>
       <c r="N9">
-        <v>3.54675282675859</v>
+        <v>4.29898125081648</v>
       </c>
       <c r="O9">
-        <v>295.456463053695</v>
+        <v>331.054661630268</v>
       </c>
       <c r="P9">
-        <v>4.81619400689598</v>
+        <v>5.45666103865195</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5563.60703260572</v>
+        <v>4471.36097419045</v>
       </c>
       <c r="C10">
-        <v>64.31596119859491</v>
+        <v>84.4491625636429</v>
       </c>
       <c r="D10">
-        <v>16.347798208444</v>
+        <v>22.8890865420881</v>
       </c>
       <c r="E10">
-        <v>38.7461454044111</v>
+        <v>48.479983030378</v>
       </c>
       <c r="F10">
-        <v>6.57404841586292</v>
+        <v>8.71582388971073</v>
       </c>
       <c r="G10">
-        <v>26.8808950051767</v>
+        <v>38.1285268338074</v>
       </c>
       <c r="H10">
-        <v>15.6556363099106</v>
+        <v>14.3747599026918</v>
       </c>
       <c r="I10">
-        <v>34.0006264411111</v>
+        <v>40.2172520775281</v>
       </c>
       <c r="J10">
-        <v>47.2592164622133</v>
+        <v>60.8709447770499</v>
       </c>
       <c r="K10">
-        <v>21.5434393747651</v>
+        <v>20.7760539340529</v>
       </c>
       <c r="L10">
-        <v>65.21804529768291</v>
+        <v>77.3343305382427</v>
       </c>
       <c r="M10">
-        <v>70.0313557377492</v>
+        <v>73.4902420610341</v>
       </c>
       <c r="N10">
-        <v>74.6988743792094</v>
+        <v>85.5520638702518</v>
       </c>
       <c r="O10">
-        <v>6120.67021027894</v>
+        <v>7085.75807984183</v>
       </c>
       <c r="P10">
-        <v>62.8773011275978</v>
+        <v>67.6680141975155</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2280.01278579602</v>
+        <v>1908.24638675786</v>
       </c>
       <c r="C11">
-        <v>78.5713614784941</v>
+        <v>82.0881031373751</v>
       </c>
       <c r="D11">
-        <v>135.612750214606</v>
+        <v>140.279676955368</v>
       </c>
       <c r="E11">
-        <v>63.6861742109466</v>
+        <v>71.1848111267082</v>
       </c>
       <c r="F11">
-        <v>5.13874603069992</v>
+        <v>4.42649159952596</v>
       </c>
       <c r="G11">
-        <v>25.6834571257594</v>
+        <v>27.3064083089545</v>
       </c>
       <c r="H11">
-        <v>14.4792462438514</v>
+        <v>16.4922528170449</v>
       </c>
       <c r="I11">
-        <v>13.4117528758322</v>
+        <v>15.9748547920103</v>
       </c>
       <c r="J11">
-        <v>43.5578108476967</v>
+        <v>41.0239336341314</v>
       </c>
       <c r="K11">
-        <v>15.0951113963114</v>
+        <v>17.2517701808232</v>
       </c>
       <c r="L11">
-        <v>52.1297933821518</v>
+        <v>57.4237543490056</v>
       </c>
       <c r="M11">
-        <v>44.3983993629807</v>
+        <v>42.9651587961988</v>
       </c>
       <c r="N11">
-        <v>49.1766503480025</v>
+        <v>54.8012684875879</v>
       </c>
       <c r="O11">
-        <v>2862.53005450068</v>
+        <v>3229.62624377697</v>
       </c>
       <c r="P11">
-        <v>43.6743513179736</v>
+        <v>47.7120887733009</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>336.418777800446</v>
+        <v>257.947160045256</v>
       </c>
       <c r="C12">
-        <v>6.07628310966273</v>
+        <v>6.56086396346075</v>
       </c>
       <c r="D12">
-        <v>0.602739712655695</v>
+        <v>0.799919477204596</v>
       </c>
       <c r="E12">
-        <v>1.19115153820903</v>
+        <v>1.53367111510227</v>
       </c>
       <c r="F12">
-        <v>0.830669364486479</v>
+        <v>1.17849771736856</v>
       </c>
       <c r="G12">
-        <v>0.428071517538213</v>
+        <v>0.268777528946742</v>
       </c>
       <c r="H12">
-        <v>0.007917601590025891</v>
+        <v>0.008196636214215951</v>
       </c>
       <c r="I12">
-        <v>0.743932248402888</v>
+        <v>0.959629038208684</v>
       </c>
       <c r="J12">
-        <v>2.39902559060219</v>
+        <v>2.8553335535673</v>
       </c>
       <c r="K12">
-        <v>0.338215088399698</v>
+        <v>0.0597264242559205</v>
       </c>
       <c r="L12">
-        <v>0.337041093545087</v>
+        <v>0.21914993792849</v>
       </c>
       <c r="M12">
-        <v>2.98225848738241</v>
+        <v>3.63948365344157</v>
       </c>
       <c r="N12">
-        <v>2.30728067743447</v>
+        <v>3.7408605467708</v>
       </c>
       <c r="O12">
-        <v>469.054724773943</v>
+        <v>533.84738239952</v>
       </c>
       <c r="P12">
-        <v>12.5823484831075</v>
+        <v>17.5089136738207</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>330.462056451248</v>
+        <v>246.478510081864</v>
       </c>
       <c r="C13">
-        <v>14.7149343384056</v>
+        <v>16.0227737370123</v>
       </c>
       <c r="D13">
-        <v>0.45409898004962</v>
+        <v>0.41414679122136</v>
       </c>
       <c r="E13">
-        <v>9.98359475560229</v>
+        <v>9.96031878048934</v>
       </c>
       <c r="F13">
-        <v>3.34648931670242</v>
+        <v>2.60688320147112</v>
       </c>
       <c r="G13">
-        <v>5.67279576360938</v>
+        <v>5.14989929427875</v>
       </c>
       <c r="H13">
-        <v>0.793565767254133</v>
+        <v>0.995344359462725</v>
       </c>
       <c r="I13">
-        <v>1.26446721954348</v>
+        <v>1.4344263702156</v>
       </c>
       <c r="J13">
-        <v>4.29725256794551</v>
+        <v>5.36162337692334</v>
       </c>
       <c r="K13">
-        <v>2.23043296068361</v>
+        <v>2.71267877112222</v>
       </c>
       <c r="L13">
-        <v>18.4326864714732</v>
+        <v>21.2439657796956</v>
       </c>
       <c r="M13">
-        <v>0.928189599582377</v>
+        <v>0.554689447156636</v>
       </c>
       <c r="N13">
-        <v>4.19983792524177</v>
+        <v>5.24968737692465</v>
       </c>
       <c r="O13">
-        <v>461.220626032468</v>
+        <v>520.837626290878</v>
       </c>
       <c r="P13">
-        <v>42.0447435851759</v>
+        <v>42.7597860710557</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3436.28519287146</v>
+        <v>2809.89538662841</v>
       </c>
       <c r="C14">
-        <v>113.610612141775</v>
+        <v>127.30346458909</v>
       </c>
       <c r="D14">
-        <v>10.0764700372785</v>
+        <v>11.2060356425901</v>
       </c>
       <c r="E14">
-        <v>72.90769836943301</v>
+        <v>81.1026307342038</v>
       </c>
       <c r="F14">
-        <v>18.4870354687608</v>
+        <v>18.4365472914591</v>
       </c>
       <c r="G14">
-        <v>67.9813462952896</v>
+        <v>78.6394231897423</v>
       </c>
       <c r="H14">
-        <v>40.6267565079639</v>
+        <v>40.8141249931452</v>
       </c>
       <c r="I14">
-        <v>24.3165256516564</v>
+        <v>27.3942268195784</v>
       </c>
       <c r="J14">
-        <v>123.383927500397</v>
+        <v>132.296532526517</v>
       </c>
       <c r="K14">
-        <v>116.438467551438</v>
+        <v>139.000505066999</v>
       </c>
       <c r="L14">
-        <v>99.5735586935096</v>
+        <v>112.552528506719</v>
       </c>
       <c r="M14">
-        <v>72.5224041645574</v>
+        <v>74.9027518391016</v>
       </c>
       <c r="N14">
-        <v>89.5155200040864</v>
+        <v>100.722104630843</v>
       </c>
       <c r="O14">
-        <v>4214.06803536083</v>
+        <v>4740.9067405382</v>
       </c>
       <c r="P14">
-        <v>57.0204327751555</v>
+        <v>52.8046107441206</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1609.36357215</v>
+        <v>1333.8814149371</v>
       </c>
       <c r="C15">
-        <v>35.2697927630496</v>
+        <v>39.3303408866006</v>
       </c>
       <c r="D15">
-        <v>8.843239168889911</v>
+        <v>10.6805531105911</v>
       </c>
       <c r="E15">
-        <v>67.5580374774007</v>
+        <v>75.684253401402</v>
       </c>
       <c r="F15">
-        <v>17.7372262151771</v>
+        <v>22.7854858430932</v>
       </c>
       <c r="G15">
-        <v>38.853260137135</v>
+        <v>42.8384668091142</v>
       </c>
       <c r="H15">
-        <v>43.9291969044056</v>
+        <v>44.8625767550903</v>
       </c>
       <c r="I15">
-        <v>19.1550412500792</v>
+        <v>21.1062857704205</v>
       </c>
       <c r="J15">
-        <v>129.180815482451</v>
+        <v>143.021315245176</v>
       </c>
       <c r="K15">
-        <v>40.0234693321222</v>
+        <v>42.6567454878234</v>
       </c>
       <c r="L15">
-        <v>33.102665230698</v>
+        <v>37.7387576837886</v>
       </c>
       <c r="M15">
-        <v>158.892054539197</v>
+        <v>168.16742494562</v>
       </c>
       <c r="N15">
-        <v>82.6908822482622</v>
+        <v>90.9507982297762</v>
       </c>
       <c r="O15">
-        <v>1943.06485691858</v>
+        <v>2152.18412564384</v>
       </c>
       <c r="P15">
-        <v>41.3918254763213</v>
+        <v>50.1561135090758</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>687.510106263038</v>
+        <v>526.08696369567</v>
       </c>
       <c r="C16">
-        <v>59.2134854455026</v>
+        <v>64.7431599720494</v>
       </c>
       <c r="D16">
-        <v>5.30932480526486</v>
+        <v>4.97852479686226</v>
       </c>
       <c r="E16">
-        <v>22.1922759290201</v>
+        <v>22.5863953396785</v>
       </c>
       <c r="F16">
-        <v>2.8351339333702</v>
+        <v>2.68717314850425</v>
       </c>
       <c r="G16">
-        <v>15.5007200293517</v>
+        <v>18.9024752652705</v>
       </c>
       <c r="H16">
-        <v>10.6456779176269</v>
+        <v>11.0165130741928</v>
       </c>
       <c r="I16">
-        <v>6.52202268558078</v>
+        <v>6.3030653318214</v>
       </c>
       <c r="J16">
-        <v>44.0149502005154</v>
+        <v>46.8543092299725</v>
       </c>
       <c r="K16">
-        <v>44.4977788060353</v>
+        <v>50.6791323542217</v>
       </c>
       <c r="L16">
-        <v>22.1012182044376</v>
+        <v>23.1152538359946</v>
       </c>
       <c r="M16">
-        <v>22.6648795787873</v>
+        <v>22.2216073176215</v>
       </c>
       <c r="N16">
-        <v>25.0362514293619</v>
+        <v>29.440124379642</v>
       </c>
       <c r="O16">
-        <v>1006.5689122488</v>
+        <v>1142.34185798316</v>
       </c>
       <c r="P16">
-        <v>69.75453215663571</v>
+        <v>77.0868428580021</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>639.980706219676</v>
+        <v>505.218812228966</v>
       </c>
       <c r="C17">
-        <v>17.7232327885808</v>
+        <v>18.2863322659844</v>
       </c>
       <c r="D17">
-        <v>3.36815586504983</v>
+        <v>2.22760559234324</v>
       </c>
       <c r="E17">
-        <v>19.6329450040111</v>
+        <v>23.7015314459399</v>
       </c>
       <c r="F17">
-        <v>10.5732728428275</v>
+        <v>10.5101903541171</v>
       </c>
       <c r="G17">
-        <v>5.28292466235811</v>
+        <v>6.11928515839685</v>
       </c>
       <c r="H17">
-        <v>6.07899537423594</v>
+        <v>7.82549803462215</v>
       </c>
       <c r="I17">
-        <v>6.66482696122113</v>
+        <v>7.31092322180797</v>
       </c>
       <c r="J17">
-        <v>16.9983228751337</v>
+        <v>17.7528855559831</v>
       </c>
       <c r="K17">
-        <v>8.118983888225619</v>
+        <v>10.2354491050462</v>
       </c>
       <c r="L17">
-        <v>10.0610205415411</v>
+        <v>11.8316066285459</v>
       </c>
       <c r="M17">
-        <v>60.8264745348076</v>
+        <v>69.4987139900779</v>
       </c>
       <c r="N17">
-        <v>10.5249114030365</v>
+        <v>11.9523972108366</v>
       </c>
       <c r="O17">
-        <v>983.860063623377</v>
+        <v>1087.80310532456</v>
       </c>
       <c r="P17">
-        <v>45.6139077230271</v>
+        <v>37.6410813675475</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1248.38103207676</v>
+        <v>1091.20923567569</v>
       </c>
       <c r="C18">
-        <v>24.4243531034453</v>
+        <v>29.7379326858045</v>
       </c>
       <c r="D18">
-        <v>5.00166953125406</v>
+        <v>6.67856537745221</v>
       </c>
       <c r="E18">
-        <v>34.762267466653</v>
+        <v>38.5880652015672</v>
       </c>
       <c r="F18">
-        <v>30.5284241680978</v>
+        <v>33.2771354096803</v>
       </c>
       <c r="G18">
-        <v>24.4938054633821</v>
+        <v>25.2698932190364</v>
       </c>
       <c r="H18">
-        <v>15.9955396990512</v>
+        <v>15.4914204997101</v>
       </c>
       <c r="I18">
-        <v>4.10687269303126</v>
+        <v>3.7400330660159</v>
       </c>
       <c r="J18">
-        <v>34.7860105099507</v>
+        <v>37.6741289309537</v>
       </c>
       <c r="K18">
-        <v>16.6996108807229</v>
+        <v>15.8937928192333</v>
       </c>
       <c r="L18">
-        <v>24.3748930729788</v>
+        <v>31.4705224298622</v>
       </c>
       <c r="M18">
-        <v>60.1146570618651</v>
+        <v>65.1905479193976</v>
       </c>
       <c r="N18">
-        <v>20.2169878180186</v>
+        <v>20.4308161829501</v>
       </c>
       <c r="O18">
-        <v>1300.28588603458</v>
+        <v>1433.42603094241</v>
       </c>
       <c r="P18">
-        <v>49.7974201906475</v>
+        <v>59.1207680792442</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1379.16490276178</v>
+        <v>1234.62133859841</v>
       </c>
       <c r="C19">
-        <v>26.9753869347754</v>
+        <v>32.1348974734778</v>
       </c>
       <c r="D19">
-        <v>11.0990505781748</v>
+        <v>11.8484518061119</v>
       </c>
       <c r="E19">
-        <v>32.9975620876019</v>
+        <v>33.7682363885777</v>
       </c>
       <c r="F19">
-        <v>83.18432654108619</v>
+        <v>92.7896365203007</v>
       </c>
       <c r="G19">
-        <v>35.3950662607345</v>
+        <v>39.5839139748782</v>
       </c>
       <c r="H19">
-        <v>6.3174739414526</v>
+        <v>6.64487461400219</v>
       </c>
       <c r="I19">
-        <v>2.35146859932032</v>
+        <v>3.51114613022038</v>
       </c>
       <c r="J19">
-        <v>16.8853845871048</v>
+        <v>13.6731801359846</v>
       </c>
       <c r="K19">
-        <v>9.445615923351591</v>
+        <v>10.6176761867733</v>
       </c>
       <c r="L19">
-        <v>2.08130331030903</v>
+        <v>2.6146889868294</v>
       </c>
       <c r="M19">
-        <v>25.1598145175177</v>
+        <v>31.3683572917455</v>
       </c>
       <c r="N19">
-        <v>12.5014934350028</v>
+        <v>12.3188169345632</v>
       </c>
       <c r="O19">
-        <v>1379.71140206317</v>
+        <v>1500.08673010886</v>
       </c>
       <c r="P19">
-        <v>36.4593459961179</v>
+        <v>41.0080021905195</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>358.138233001173</v>
+        <v>289.466916028967</v>
       </c>
       <c r="C20">
-        <v>7.58777190276534</v>
+        <v>8.61377796833836</v>
       </c>
       <c r="D20">
-        <v>7.22183865115336</v>
+        <v>7.35358443323567</v>
       </c>
       <c r="E20">
-        <v>30.4217707890606</v>
+        <v>32.0246710006122</v>
       </c>
       <c r="F20">
-        <v>0.773080332449605</v>
+        <v>0.7503406651854611</v>
       </c>
       <c r="G20">
-        <v>1.7489705713472</v>
+        <v>2.12323831479267</v>
       </c>
       <c r="H20">
-        <v>1.20370526309395</v>
+        <v>1.16417957956357</v>
       </c>
       <c r="I20">
-        <v>1.74738660294965</v>
+        <v>2.23099058789361</v>
       </c>
       <c r="J20">
-        <v>3.70085551989866</v>
+        <v>3.76405381349981</v>
       </c>
       <c r="K20">
-        <v>2.28612595019224</v>
+        <v>2.31661774571099</v>
       </c>
       <c r="L20">
-        <v>7.10078459607293</v>
+        <v>8.643688248456311</v>
       </c>
       <c r="M20">
-        <v>15.6195958783753</v>
+        <v>20.817751241498</v>
       </c>
       <c r="N20">
-        <v>4.3673396265142</v>
+        <v>4.80882650176587</v>
       </c>
       <c r="O20">
-        <v>479.135652272152</v>
+        <v>538.696498647407</v>
       </c>
       <c r="P20">
-        <v>17.5179800602351</v>
+        <v>19.5391296830717</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1444.1139439021</v>
+        <v>1113.53304550572</v>
       </c>
       <c r="C21">
-        <v>18.939053987864</v>
+        <v>18.441061901129</v>
       </c>
       <c r="D21">
-        <v>3.70528006973057</v>
+        <v>2.69554350506638</v>
       </c>
       <c r="E21">
-        <v>17.8211568762392</v>
+        <v>18.7398101055198</v>
       </c>
       <c r="F21">
-        <v>4.2268969228855</v>
+        <v>4.7423425944044</v>
       </c>
       <c r="G21">
-        <v>18.9287673564564</v>
+        <v>24.8900566222512</v>
       </c>
       <c r="H21">
-        <v>4.59715398671773</v>
+        <v>3.42804888941306</v>
       </c>
       <c r="I21">
-        <v>8.734674011300321</v>
+        <v>10.4622913628797</v>
       </c>
       <c r="J21">
-        <v>25.7602648930817</v>
+        <v>28.0581909122425</v>
       </c>
       <c r="K21">
-        <v>2.53077198015658</v>
+        <v>3.03492990020436</v>
       </c>
       <c r="L21">
-        <v>24.5861149039327</v>
+        <v>29.384672055107</v>
       </c>
       <c r="M21">
-        <v>25.6211307087312</v>
+        <v>29.177461055123</v>
       </c>
       <c r="N21">
-        <v>18.3032859968965</v>
+        <v>16.9239097393124</v>
       </c>
       <c r="O21">
-        <v>2054.15388530838</v>
+        <v>2331.6083002259</v>
       </c>
       <c r="P21">
-        <v>19.1095123655774</v>
+        <v>20.8450785557819</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1695.73943387245</v>
+        <v>1323.91893603629</v>
       </c>
       <c r="C22">
-        <v>13.6438151041533</v>
+        <v>16.2218740142411</v>
       </c>
       <c r="D22">
-        <v>15.1445813972733</v>
+        <v>20.5082128217166</v>
       </c>
       <c r="E22">
-        <v>36.3930141825704</v>
+        <v>40.5585739884931</v>
       </c>
       <c r="F22">
-        <v>2.10056005719634</v>
+        <v>2.26680858404613</v>
       </c>
       <c r="G22">
-        <v>23.7913090930498</v>
+        <v>28.8033905354685</v>
       </c>
       <c r="H22">
-        <v>15.6826294633314</v>
+        <v>16.8918463073166</v>
       </c>
       <c r="I22">
-        <v>11.2061404410228</v>
+        <v>12.4541925251882</v>
       </c>
       <c r="J22">
-        <v>40.0936773505311</v>
+        <v>41.6412230207681</v>
       </c>
       <c r="K22">
-        <v>12.3103667677049</v>
+        <v>13.7297275197639</v>
       </c>
       <c r="L22">
-        <v>96.694186598377</v>
+        <v>117.9606303423</v>
       </c>
       <c r="M22">
-        <v>14.2055491310503</v>
+        <v>13.7180015636697</v>
       </c>
       <c r="N22">
-        <v>59.3814516427072</v>
+        <v>68.9856381124406</v>
       </c>
       <c r="O22">
-        <v>2360.67225847543</v>
+        <v>2675.70903902328</v>
       </c>
       <c r="P22">
-        <v>12.1404754168401</v>
+        <v>10.3231113935145</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2790.38574680521</v>
+        <v>2423.47587263291</v>
       </c>
       <c r="C23">
-        <v>27.6036503995651</v>
+        <v>34.9843434235498</v>
       </c>
       <c r="D23">
-        <v>9.937807511874819</v>
+        <v>9.619415320929241</v>
       </c>
       <c r="E23">
-        <v>36.3439660269397</v>
+        <v>39.3814240058184</v>
       </c>
       <c r="F23">
-        <v>3.92883896360935</v>
+        <v>6.24660244461908</v>
       </c>
       <c r="G23">
-        <v>49.0967557266292</v>
+        <v>50.9634846683613</v>
       </c>
       <c r="H23">
-        <v>52.1082020074954</v>
+        <v>59.3929324737119</v>
       </c>
       <c r="I23">
-        <v>10.4291917703946</v>
+        <v>11.8888860885218</v>
       </c>
       <c r="J23">
-        <v>113.426673271847</v>
+        <v>133.321031057918</v>
       </c>
       <c r="K23">
-        <v>81.6986199802203</v>
+        <v>86.7769134354146</v>
       </c>
       <c r="L23">
-        <v>34.5213196015879</v>
+        <v>37.492928278379</v>
       </c>
       <c r="M23">
-        <v>477.731781678539</v>
+        <v>562.764526884267</v>
       </c>
       <c r="N23">
-        <v>74.384733096529</v>
+        <v>78.6746348127742</v>
       </c>
       <c r="O23">
-        <v>3156.10667675837</v>
+        <v>3400.5352977752</v>
       </c>
       <c r="P23">
-        <v>42.4111476165838</v>
+        <v>41.2778719170096</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1100.23655716785</v>
+        <v>877.385517155249</v>
       </c>
       <c r="C24">
-        <v>48.164098662378</v>
+        <v>46.4543256836205</v>
       </c>
       <c r="D24">
-        <v>5.9578207115663</v>
+        <v>6.41846953235883</v>
       </c>
       <c r="E24">
-        <v>46.9579562536054</v>
+        <v>51.4934654053682</v>
       </c>
       <c r="F24">
-        <v>9.53828776185699</v>
+        <v>9.63847706563045</v>
       </c>
       <c r="G24">
-        <v>27.439670236466</v>
+        <v>31.026943755523</v>
       </c>
       <c r="H24">
-        <v>14.964897876587</v>
+        <v>16.5794147442027</v>
       </c>
       <c r="I24">
-        <v>14.0207772269137</v>
+        <v>15.8745761530451</v>
       </c>
       <c r="J24">
-        <v>46.7302999500815</v>
+        <v>53.2345257180636</v>
       </c>
       <c r="K24">
-        <v>38.7466970908004</v>
+        <v>41.7193277453549</v>
       </c>
       <c r="L24">
-        <v>63.0284991123053</v>
+        <v>70.57257397791599</v>
       </c>
       <c r="M24">
-        <v>23.7345532215294</v>
+        <v>26.1288994364368</v>
       </c>
       <c r="N24">
-        <v>62.0692144701557</v>
+        <v>76.94988734186831</v>
       </c>
       <c r="O24">
-        <v>1865.3695391749</v>
+        <v>2049.14568781684</v>
       </c>
       <c r="P24">
-        <v>92.5875598461724</v>
+        <v>75.4055263017548</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>892.080940516486</v>
+        <v>773.496227136738</v>
       </c>
       <c r="C25">
-        <v>38.9284497973088</v>
+        <v>45.4353811024935</v>
       </c>
       <c r="D25">
-        <v>12.3923508500863</v>
+        <v>13.1185908652875</v>
       </c>
       <c r="E25">
-        <v>39.7941674044787</v>
+        <v>44.4187095115716</v>
       </c>
       <c r="F25">
-        <v>14.3533552735568</v>
+        <v>16.7720345046288</v>
       </c>
       <c r="G25">
-        <v>8.96155271975182</v>
+        <v>11.6277726064519</v>
       </c>
       <c r="H25">
-        <v>13.3759535365075</v>
+        <v>12.9774924891386</v>
       </c>
       <c r="I25">
-        <v>6.47402975270702</v>
+        <v>5.80855105171358</v>
       </c>
       <c r="J25">
-        <v>11.819059166296</v>
+        <v>13.0738232850732</v>
       </c>
       <c r="K25">
-        <v>9.13963835791194</v>
+        <v>10.0364656796509</v>
       </c>
       <c r="L25">
-        <v>14.8829327653595</v>
+        <v>15.6709445896306</v>
       </c>
       <c r="M25">
-        <v>32.3993647758625</v>
+        <v>39.8858345399521</v>
       </c>
       <c r="N25">
-        <v>40.0620419212682</v>
+        <v>35.1799315872425</v>
       </c>
       <c r="O25">
-        <v>776.688306511567</v>
+        <v>875.404022243657</v>
       </c>
       <c r="P25">
-        <v>31.6864889949314</v>
+        <v>38.5239965281446</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1448.94190634139</v>
+        <v>1190.22598067557</v>
       </c>
       <c r="C26">
-        <v>49.4912236655351</v>
+        <v>54.6943473386057</v>
       </c>
       <c r="D26">
-        <v>9.2019606514384</v>
+        <v>7.4362862876218</v>
       </c>
       <c r="E26">
-        <v>37.0202755878266</v>
+        <v>37.4411941066785</v>
       </c>
       <c r="F26">
-        <v>9.770172410334061</v>
+        <v>9.29102344604088</v>
       </c>
       <c r="G26">
-        <v>21.8150328639379</v>
+        <v>27.4999786139296</v>
       </c>
       <c r="H26">
-        <v>16.0499774526371</v>
+        <v>15.5743921015844</v>
       </c>
       <c r="I26">
-        <v>14.8529090226683</v>
+        <v>16.1332638716964</v>
       </c>
       <c r="J26">
-        <v>43.8929531919355</v>
+        <v>49.4738899720565</v>
       </c>
       <c r="K26">
-        <v>25.9534705333275</v>
+        <v>23.1171936433457</v>
       </c>
       <c r="L26">
-        <v>30.6667546033676</v>
+        <v>31.7355693059531</v>
       </c>
       <c r="M26">
-        <v>68.9968034731012</v>
+        <v>74.0259713759005</v>
       </c>
       <c r="N26">
-        <v>22.9390411217548</v>
+        <v>22.446460069285</v>
       </c>
       <c r="O26">
-        <v>2077.25111637842</v>
+        <v>2302.08552292637</v>
       </c>
       <c r="P26">
-        <v>61.8533197418089</v>
+        <v>62.0900964607667</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>248.257789064766</v>
+        <v>198.536769907818</v>
       </c>
       <c r="C27">
-        <v>1.9322001855845</v>
+        <v>1.84990649260675</v>
       </c>
       <c r="D27">
-        <v>1.47098028995198</v>
+        <v>2.28476867744067</v>
       </c>
       <c r="E27">
-        <v>9.220158566338689</v>
+        <v>9.998156884879281</v>
       </c>
       <c r="F27">
-        <v>4.85350912375922</v>
+        <v>5.67797771123788</v>
       </c>
       <c r="G27">
-        <v>0.478658737743134</v>
+        <v>0.564612925060462</v>
       </c>
       <c r="H27">
-        <v>0.146747162410139</v>
+        <v>0.199232500267316</v>
       </c>
       <c r="I27">
-        <v>2.27328095338221</v>
+        <v>2.45691194633262</v>
       </c>
       <c r="J27">
-        <v>2.75620555217572</v>
+        <v>3.48167938483634</v>
       </c>
       <c r="K27">
-        <v>1.06085952536432</v>
+        <v>1.17195995187538</v>
       </c>
       <c r="L27">
-        <v>1.30734531442594</v>
+        <v>1.54634973806073</v>
       </c>
       <c r="M27">
-        <v>0.581927442883058</v>
+        <v>0.526408525522307</v>
       </c>
       <c r="N27">
-        <v>3.40451298839196</v>
+        <v>3.41343840956593</v>
       </c>
       <c r="O27">
-        <v>325.59700898865</v>
+        <v>371.939278640293</v>
       </c>
       <c r="P27">
-        <v>38.54357963751</v>
+        <v>35.9188987557578</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>383.137664549756</v>
+        <v>278.421366473153</v>
       </c>
       <c r="C28">
-        <v>27.1126701121915</v>
+        <v>30.1553882975905</v>
       </c>
       <c r="D28">
-        <v>3.18290681771135</v>
+        <v>3.66178037583382</v>
       </c>
       <c r="E28">
-        <v>6.38896649011461</v>
+        <v>7.66173184143561</v>
       </c>
       <c r="F28">
-        <v>1.62712722552484</v>
+        <v>1.29563973451377</v>
       </c>
       <c r="G28">
-        <v>3.11307821801588</v>
+        <v>4.09116267874002</v>
       </c>
       <c r="H28">
-        <v>8.66763917026848</v>
+        <v>8.827198507339571</v>
       </c>
       <c r="I28">
-        <v>2.4789489555797</v>
+        <v>2.9517473766707</v>
       </c>
       <c r="J28">
-        <v>18.3578663608429</v>
+        <v>18.2844250053625</v>
       </c>
       <c r="K28">
-        <v>8.88585523103594</v>
+        <v>9.72275226815357</v>
       </c>
       <c r="L28">
-        <v>13.0726290264422</v>
+        <v>15.1455382026172</v>
       </c>
       <c r="M28">
-        <v>7.510669729096</v>
+        <v>9.182684147989059</v>
       </c>
       <c r="N28">
-        <v>8.72276199049694</v>
+        <v>10.6391532582587</v>
       </c>
       <c r="O28">
-        <v>627.819305392593</v>
+        <v>725.6538604099291</v>
       </c>
       <c r="P28">
-        <v>81.0900923228501</v>
+        <v>62.9920013025204</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>553.724324458039</v>
+        <v>450.158563775747</v>
       </c>
       <c r="C29">
-        <v>4.55703139024197</v>
+        <v>4.55330050241607</v>
       </c>
       <c r="D29">
-        <v>1.78884423200656</v>
+        <v>2.13149898000881</v>
       </c>
       <c r="E29">
-        <v>2.7615336021706</v>
+        <v>3.33032067186283</v>
       </c>
       <c r="F29">
-        <v>22.2690810082979</v>
+        <v>21.4561250572672</v>
       </c>
       <c r="G29">
-        <v>4.01136336945214</v>
+        <v>4.52699629443959</v>
       </c>
       <c r="H29">
-        <v>0.8963451415391111</v>
+        <v>1.30089988844156</v>
       </c>
       <c r="I29">
-        <v>1.30145127665797</v>
+        <v>1.42907597208386</v>
       </c>
       <c r="J29">
-        <v>4.59546069757415</v>
+        <v>4.00311569206101</v>
       </c>
       <c r="K29">
-        <v>1.71868244638023</v>
+        <v>1.99441538083525</v>
       </c>
       <c r="L29">
-        <v>2.65867505215201</v>
+        <v>2.85204015382906</v>
       </c>
       <c r="M29">
-        <v>2.7184569121041</v>
+        <v>3.56146487475494</v>
       </c>
       <c r="N29">
-        <v>8.553554237429131</v>
+        <v>8.92700135452837</v>
       </c>
       <c r="O29">
-        <v>874.6105456790961</v>
+        <v>993.290819104549</v>
       </c>
       <c r="P29">
-        <v>4.08990831784616</v>
+        <v>5.2819605872704</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>274.39929756311</v>
+        <v>221.503182273878</v>
       </c>
       <c r="C30">
-        <v>3.02492464876488</v>
+        <v>3.33287479404886</v>
       </c>
       <c r="D30">
-        <v>4.4334354451214</v>
+        <v>4.74370768603411</v>
       </c>
       <c r="E30">
-        <v>11.9135508562886</v>
+        <v>11.8535508271012</v>
       </c>
       <c r="F30">
-        <v>0.72061628276582</v>
+        <v>1.02118916504401</v>
       </c>
       <c r="G30">
-        <v>4.01094557643239</v>
+        <v>4.72109112220945</v>
       </c>
       <c r="H30">
-        <v>4.63384886304154</v>
+        <v>5.30390262769562</v>
       </c>
       <c r="I30">
-        <v>1.59382924335688</v>
+        <v>1.63977404180624</v>
       </c>
       <c r="J30">
-        <v>14.7863899389152</v>
+        <v>16.1912461265184</v>
       </c>
       <c r="K30">
-        <v>7.74855180868499</v>
+        <v>9.399626907996471</v>
       </c>
       <c r="L30">
-        <v>33.6685807237166</v>
+        <v>40.6862156678689</v>
       </c>
       <c r="M30">
-        <v>8.999521327138019</v>
+        <v>10.5471165812082</v>
       </c>
       <c r="N30">
-        <v>11.4702435800719</v>
+        <v>13.8729093997472</v>
       </c>
       <c r="O30">
-        <v>481.669199646455</v>
+        <v>513.425948147537</v>
       </c>
       <c r="P30">
-        <v>6.21280165634253</v>
+        <v>5.76470867086095</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2393.1958141799</v>
+        <v>1917.39325875015</v>
       </c>
       <c r="C31">
-        <v>50.1752652244911</v>
+        <v>60.1135765235666</v>
       </c>
       <c r="D31">
-        <v>27.8767029910501</v>
+        <v>27.0080298013459</v>
       </c>
       <c r="E31">
-        <v>41.5639609162601</v>
+        <v>46.8950775052318</v>
       </c>
       <c r="F31">
-        <v>6.93022924415402</v>
+        <v>4.27009468977246</v>
       </c>
       <c r="G31">
-        <v>83.86935898363321</v>
+        <v>94.75076882200381</v>
       </c>
       <c r="H31">
-        <v>6.62272028186275</v>
+        <v>7.94751606689665</v>
       </c>
       <c r="I31">
-        <v>17.1133022343064</v>
+        <v>19.673092910796</v>
       </c>
       <c r="J31">
-        <v>25.8457544914247</v>
+        <v>32.5910700340411</v>
       </c>
       <c r="K31">
-        <v>12.1023268175214</v>
+        <v>15.1672461066833</v>
       </c>
       <c r="L31">
-        <v>54.394541993861</v>
+        <v>67.41671254840981</v>
       </c>
       <c r="M31">
-        <v>17.6906088328417</v>
+        <v>20.7701775247843</v>
       </c>
       <c r="N31">
-        <v>44.5223882225121</v>
+        <v>45.7766823965491</v>
       </c>
       <c r="O31">
-        <v>3108.33971437725</v>
+        <v>3521.62448957753</v>
       </c>
       <c r="P31">
-        <v>10.3214968515714</v>
+        <v>13.6458891701029</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>547.47484420034</v>
+        <v>457.705884025336</v>
       </c>
       <c r="C32">
-        <v>4.15792963152247</v>
+        <v>4.24598640394043</v>
       </c>
       <c r="D32">
-        <v>0.474165222456681</v>
+        <v>0.664689285263157</v>
       </c>
       <c r="E32">
-        <v>3.63366899066093</v>
+        <v>4.29631028410303</v>
       </c>
       <c r="F32">
-        <v>19.1614401127868</v>
+        <v>22.6762276246379</v>
       </c>
       <c r="G32">
-        <v>2.00959798756146</v>
+        <v>2.71997376113704</v>
       </c>
       <c r="H32">
-        <v>2.09262095485667</v>
+        <v>2.34973228861371</v>
       </c>
       <c r="I32">
-        <v>2.67955354034993</v>
+        <v>4.11608603465899</v>
       </c>
       <c r="J32">
-        <v>2.84846308190519</v>
+        <v>3.64150359242705</v>
       </c>
       <c r="K32">
-        <v>2.16622512345893</v>
+        <v>2.98134750657585</v>
       </c>
       <c r="L32">
-        <v>11.6532093463852</v>
+        <v>13.1600977798593</v>
       </c>
       <c r="M32">
-        <v>1.93909882471748</v>
+        <v>2.69695197374261</v>
       </c>
       <c r="N32">
-        <v>7.15768680675728</v>
+        <v>9.105308698029131</v>
       </c>
       <c r="O32">
-        <v>640.588105678358</v>
+        <v>722.755872183094</v>
       </c>
       <c r="P32">
-        <v>20.3594365878922</v>
+        <v>19.4692127191542</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5738.88584365958</v>
+        <v>4786.20852224882</v>
       </c>
       <c r="C33">
-        <v>70.1628792565612</v>
+        <v>81.7980292613085</v>
       </c>
       <c r="D33">
-        <v>41.9623790216105</v>
+        <v>49.5601583780199</v>
       </c>
       <c r="E33">
-        <v>61.135302791994</v>
+        <v>68.3462216579555</v>
       </c>
       <c r="F33">
-        <v>6.24607765712269</v>
+        <v>7.35287549936353</v>
       </c>
       <c r="G33">
-        <v>62.479169561985</v>
+        <v>68.1421922873519</v>
       </c>
       <c r="H33">
-        <v>23.5404847277586</v>
+        <v>26.0469098144218</v>
       </c>
       <c r="I33">
-        <v>23.6947332878082</v>
+        <v>27.7238267800382</v>
       </c>
       <c r="J33">
-        <v>82.90364270311051</v>
+        <v>96.2402664030036</v>
       </c>
       <c r="K33">
-        <v>70.12091624226871</v>
+        <v>73.0906331280318</v>
       </c>
       <c r="L33">
-        <v>107.005726593841</v>
+        <v>113.834495321023</v>
       </c>
       <c r="M33">
-        <v>56.2516812816481</v>
+        <v>59.5723828694971</v>
       </c>
       <c r="N33">
-        <v>128.88348473417</v>
+        <v>141.427255493957</v>
       </c>
       <c r="O33">
-        <v>6537.80444194361</v>
+        <v>7443.1279555082</v>
       </c>
       <c r="P33">
-        <v>77.6607214632059</v>
+        <v>59.4898480159773</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2307.36099228053</v>
+        <v>1970.14881923268</v>
       </c>
       <c r="C34">
-        <v>61.1633134397274</v>
+        <v>77.1657618572053</v>
       </c>
       <c r="D34">
-        <v>124.004167121267</v>
+        <v>144.776363635435</v>
       </c>
       <c r="E34">
-        <v>42.6668082463415</v>
+        <v>45.0837431236977</v>
       </c>
       <c r="F34">
-        <v>7.45432836658685</v>
+        <v>7.48050063320593</v>
       </c>
       <c r="G34">
-        <v>34.4454031250702</v>
+        <v>40.9133923537725</v>
       </c>
       <c r="H34">
-        <v>40.9530585967995</v>
+        <v>48.2448391846528</v>
       </c>
       <c r="I34">
-        <v>11.049717942365</v>
+        <v>13.4410401264052</v>
       </c>
       <c r="J34">
-        <v>51.5524378072794</v>
+        <v>52.3186910451313</v>
       </c>
       <c r="K34">
-        <v>29.2465900437151</v>
+        <v>32.9322458620192</v>
       </c>
       <c r="L34">
-        <v>88.203597660044</v>
+        <v>100.011867232374</v>
       </c>
       <c r="M34">
-        <v>32.2071324094719</v>
+        <v>37.055747951486</v>
       </c>
       <c r="N34">
-        <v>112.806983736366</v>
+        <v>126.748741404724</v>
       </c>
       <c r="O34">
-        <v>2732.88696870411</v>
+        <v>2991.54607617382</v>
       </c>
       <c r="P34">
-        <v>51.9327915583912</v>
+        <v>55.637576349863</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>156.45479303303</v>
+        <v>117.451224513335</v>
       </c>
       <c r="C35">
-        <v>6.37027033732863</v>
+        <v>6.71858512999927</v>
       </c>
       <c r="D35">
-        <v>0.394994005862082</v>
+        <v>0.3719518758575</v>
       </c>
       <c r="E35">
-        <v>2.33826915542028</v>
+        <v>2.67503056665954</v>
       </c>
       <c r="F35">
-        <v>3.83073793657097</v>
+        <v>3.9728623299059</v>
       </c>
       <c r="G35">
-        <v>0.652044379241712</v>
+        <v>0.913482534772303</v>
       </c>
       <c r="H35">
-        <v>0.202540316789903</v>
+        <v>0.184368018296155</v>
       </c>
       <c r="I35">
-        <v>0.660216350306237</v>
+        <v>0.901888851102474</v>
       </c>
       <c r="J35">
-        <v>2.4424925609024</v>
+        <v>2.81024156919084</v>
       </c>
       <c r="K35">
-        <v>4.76529782319211</v>
+        <v>5.42743791654005</v>
       </c>
       <c r="L35">
-        <v>2.10073153681482</v>
+        <v>2.44331364042461</v>
       </c>
       <c r="M35">
-        <v>1.95540538846394</v>
+        <v>2.22729754531402</v>
       </c>
       <c r="N35">
-        <v>2.70559498070968</v>
+        <v>3.58342544477596</v>
       </c>
       <c r="O35">
-        <v>226.762105493692</v>
+        <v>263.006651003987</v>
       </c>
       <c r="P35">
-        <v>36.8760290201915</v>
+        <v>33.5415786887873</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3145.88565716568</v>
+        <v>2677.57288766653</v>
       </c>
       <c r="C36">
-        <v>47.113648348535</v>
+        <v>51.2524220070052</v>
       </c>
       <c r="D36">
-        <v>10.9904216503411</v>
+        <v>10.9912248912925</v>
       </c>
       <c r="E36">
-        <v>91.8245281416349</v>
+        <v>99.3312720784959</v>
       </c>
       <c r="F36">
-        <v>27.9209058207775</v>
+        <v>33.6815355291422</v>
       </c>
       <c r="G36">
-        <v>79.0228057110233</v>
+        <v>90.24305439232531</v>
       </c>
       <c r="H36">
-        <v>87.68771095400921</v>
+        <v>90.585998318197</v>
       </c>
       <c r="I36">
-        <v>34.5042667319155</v>
+        <v>41.9949643292264</v>
       </c>
       <c r="J36">
-        <v>182.762615017352</v>
+        <v>205.046744729752</v>
       </c>
       <c r="K36">
-        <v>79.8813920353211</v>
+        <v>82.1883246288257</v>
       </c>
       <c r="L36">
-        <v>64.24490364341951</v>
+        <v>72.7635086346981</v>
       </c>
       <c r="M36">
-        <v>195.015909793423</v>
+        <v>209.411149327522</v>
       </c>
       <c r="N36">
-        <v>81.3886430417255</v>
+        <v>88.8127059657695</v>
       </c>
       <c r="O36">
-        <v>3830.40590995587</v>
+        <v>4196.55272949906</v>
       </c>
       <c r="P36">
-        <v>43.3678608935053</v>
+        <v>45.7227104747655</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1016.99015750098</v>
+        <v>841.195166596147</v>
       </c>
       <c r="C37">
-        <v>21.0952025246139</v>
+        <v>23.8297016357888</v>
       </c>
       <c r="D37">
-        <v>4.47595571813653</v>
+        <v>3.56215566914343</v>
       </c>
       <c r="E37">
-        <v>18.4268664437735</v>
+        <v>19.0060157137851</v>
       </c>
       <c r="F37">
-        <v>29.6337984895462</v>
+        <v>30.3411971428602</v>
       </c>
       <c r="G37">
-        <v>8.5076392775164</v>
+        <v>10.1800570359396</v>
       </c>
       <c r="H37">
-        <v>21.7766352907997</v>
+        <v>25.4814323753203</v>
       </c>
       <c r="I37">
-        <v>11.1530526524624</v>
+        <v>11.5480367005985</v>
       </c>
       <c r="J37">
-        <v>34.7416522558646</v>
+        <v>38.7464301964868</v>
       </c>
       <c r="K37">
-        <v>19.1710152960154</v>
+        <v>22.7913502541892</v>
       </c>
       <c r="L37">
-        <v>15.8968269308011</v>
+        <v>18.6804458702608</v>
       </c>
       <c r="M37">
-        <v>32.818855805531</v>
+        <v>42.2929211119255</v>
       </c>
       <c r="N37">
-        <v>21.4003758504703</v>
+        <v>21.6269058386235</v>
       </c>
       <c r="O37">
-        <v>1117.91702429269</v>
+        <v>1265.26563908921</v>
       </c>
       <c r="P37">
-        <v>39.5066600807072</v>
+        <v>42.9114759560378</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1004.50929440081</v>
+        <v>814.019106912717</v>
       </c>
       <c r="C38">
-        <v>23.9283215299879</v>
+        <v>24.7789710941362</v>
       </c>
       <c r="D38">
-        <v>7.71837985097928</v>
+        <v>9.08651843044429</v>
       </c>
       <c r="E38">
-        <v>44.6126095085552</v>
+        <v>50.656294104101</v>
       </c>
       <c r="F38">
-        <v>1.17231442178279</v>
+        <v>1.42399472952853</v>
       </c>
       <c r="G38">
-        <v>5.1619818816107</v>
+        <v>6.56653179524288</v>
       </c>
       <c r="H38">
-        <v>1.84535234087766</v>
+        <v>2.20545761942333</v>
       </c>
       <c r="I38">
-        <v>1.34737141845382</v>
+        <v>1.41389733083618</v>
       </c>
       <c r="J38">
-        <v>33.2029120931701</v>
+        <v>41.8362387494009</v>
       </c>
       <c r="K38">
-        <v>3.17330316284836</v>
+        <v>4.49857681091145</v>
       </c>
       <c r="L38">
-        <v>66.2359445527177</v>
+        <v>76.881535691094</v>
       </c>
       <c r="M38">
-        <v>17.0622942005468</v>
+        <v>18.8101914976859</v>
       </c>
       <c r="N38">
-        <v>38.73331903104</v>
+        <v>39.6943706853238</v>
       </c>
       <c r="O38">
-        <v>1221.33689207675</v>
+        <v>1379.85554970327</v>
       </c>
       <c r="P38">
-        <v>48.846809903726</v>
+        <v>54.664154090917</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3622.35436294865</v>
+        <v>2979.32694433687</v>
       </c>
       <c r="C39">
-        <v>80.70768012274679</v>
+        <v>93.9204281725051</v>
       </c>
       <c r="D39">
-        <v>41.7457938030976</v>
+        <v>44.063615221662</v>
       </c>
       <c r="E39">
-        <v>134.792096238264</v>
+        <v>135.92679000972</v>
       </c>
       <c r="F39">
-        <v>24.6534358014962</v>
+        <v>29.3949679024115</v>
       </c>
       <c r="G39">
-        <v>104.457167931341</v>
+        <v>122.951473685228</v>
       </c>
       <c r="H39">
-        <v>44.8733417725619</v>
+        <v>50.4987670038362</v>
       </c>
       <c r="I39">
-        <v>31.6406066527032</v>
+        <v>32.7493394283122</v>
       </c>
       <c r="J39">
-        <v>146.229527861813</v>
+        <v>156.797366331932</v>
       </c>
       <c r="K39">
-        <v>71.1514494943972</v>
+        <v>82.5067861769946</v>
       </c>
       <c r="L39">
-        <v>84.0295557067647</v>
+        <v>98.063512417057</v>
       </c>
       <c r="M39">
-        <v>55.9866713976606</v>
+        <v>65.711016338777</v>
       </c>
       <c r="N39">
-        <v>102.377766098382</v>
+        <v>114.134356072415</v>
       </c>
       <c r="O39">
-        <v>4152.1219910464</v>
+        <v>4688.0459966804</v>
       </c>
       <c r="P39">
-        <v>62.8878705534521</v>
+        <v>56.0157317107979</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>284.005779648878</v>
+        <v>229.040526473046</v>
       </c>
       <c r="C40">
-        <v>2.5534490026403</v>
+        <v>2.71712821169161</v>
       </c>
       <c r="D40">
-        <v>6.20676300445364</v>
+        <v>7.16734122528125</v>
       </c>
       <c r="E40">
-        <v>5.05237082873115</v>
+        <v>5.02863886265737</v>
       </c>
       <c r="F40">
-        <v>0.161899281838667</v>
+        <v>0.431459501159608</v>
       </c>
       <c r="G40">
-        <v>3.92975507705712</v>
+        <v>4.09929157750931</v>
       </c>
       <c r="H40">
-        <v>4.21763346348787</v>
+        <v>4.65626090240781</v>
       </c>
       <c r="I40">
-        <v>1.76564717695195</v>
+        <v>1.94374528707447</v>
       </c>
       <c r="J40">
-        <v>8.334154754913341</v>
+        <v>9.25316420574271</v>
       </c>
       <c r="K40">
-        <v>2.75062287644349</v>
+        <v>3.34748162962831</v>
       </c>
       <c r="L40">
-        <v>12.0247668457149</v>
+        <v>14.1969750736786</v>
       </c>
       <c r="M40">
-        <v>4.46311765830377</v>
+        <v>4.53951932270994</v>
       </c>
       <c r="N40">
-        <v>16.9696288914951</v>
+        <v>20.1175130445909</v>
       </c>
       <c r="O40">
-        <v>379.507909996354</v>
+        <v>420.273653780955</v>
       </c>
       <c r="P40">
-        <v>3.19698132138707</v>
+        <v>4.28003447959304</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1239.30153889385</v>
+        <v>1071.2670735398</v>
       </c>
       <c r="C41">
-        <v>11.5310403410281</v>
+        <v>14.0653031560619</v>
       </c>
       <c r="D41">
-        <v>70.5582342494462</v>
+        <v>77.18192521829479</v>
       </c>
       <c r="E41">
-        <v>28.698319101289</v>
+        <v>29.0590190317674</v>
       </c>
       <c r="F41">
-        <v>1.04662744613607</v>
+        <v>1.30868134905973</v>
       </c>
       <c r="G41">
-        <v>22.9642503308509</v>
+        <v>22.8103652766566</v>
       </c>
       <c r="H41">
-        <v>28.7366756524434</v>
+        <v>30.9274474621139</v>
       </c>
       <c r="I41">
-        <v>14.1329665340141</v>
+        <v>12.6655938117738</v>
       </c>
       <c r="J41">
-        <v>37.4053823992556</v>
+        <v>38.6252390495695</v>
       </c>
       <c r="K41">
-        <v>12.6383072571254</v>
+        <v>13.4849318686478</v>
       </c>
       <c r="L41">
-        <v>30.414996259702</v>
+        <v>33.9674580216467</v>
       </c>
       <c r="M41">
-        <v>25.5989783682512</v>
+        <v>28.5241524291632</v>
       </c>
       <c r="N41">
-        <v>17.9916283954549</v>
+        <v>18.4488989150822</v>
       </c>
       <c r="O41">
-        <v>1301.12288586659</v>
+        <v>1448.5813855346</v>
       </c>
       <c r="P41">
-        <v>23.0723821179143</v>
+        <v>21.8125289001576</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>162.15293696257</v>
+        <v>113.229811319537</v>
       </c>
       <c r="C42">
-        <v>4.64898221698776</v>
+        <v>5.25862109369111</v>
       </c>
       <c r="D42">
-        <v>1.13771545342259</v>
+        <v>1.75289577887138</v>
       </c>
       <c r="E42">
-        <v>4.76879636173437</v>
+        <v>5.56369670408339</v>
       </c>
       <c r="F42">
-        <v>1.87562690509161</v>
+        <v>2.35786810274122</v>
       </c>
       <c r="G42">
-        <v>1.23825673859559</v>
+        <v>1.5297156003137</v>
       </c>
       <c r="H42">
-        <v>0.49220903783052</v>
+        <v>0.564542060856962</v>
       </c>
       <c r="I42">
-        <v>1.23023442098653</v>
+        <v>1.13396698751523</v>
       </c>
       <c r="J42">
-        <v>3.05405427142966</v>
+        <v>3.63383485156134</v>
       </c>
       <c r="K42">
-        <v>4.19295390984199</v>
+        <v>4.83832963238897</v>
       </c>
       <c r="L42">
-        <v>6.52242256660985</v>
+        <v>7.44691133075037</v>
       </c>
       <c r="M42">
-        <v>3.02070128661802</v>
+        <v>3.63350481332304</v>
       </c>
       <c r="N42">
-        <v>6.10138779777871</v>
+        <v>7.09319726389495</v>
       </c>
       <c r="O42">
-        <v>258.685252541423</v>
+        <v>304.669550394997</v>
       </c>
       <c r="P42">
-        <v>44.5147420756966</v>
+        <v>40.6394652053274</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1710.43310439904</v>
+        <v>1554.93639583194</v>
       </c>
       <c r="C43">
-        <v>30.6658936874567</v>
+        <v>38.7578656004053</v>
       </c>
       <c r="D43">
-        <v>35.4670081668407</v>
+        <v>31.7874893550786</v>
       </c>
       <c r="E43">
-        <v>54.8471640425005</v>
+        <v>69.38367085115959</v>
       </c>
       <c r="F43">
-        <v>9.412884868354571</v>
+        <v>7.24471524437933</v>
       </c>
       <c r="G43">
-        <v>27.2250590051005</v>
+        <v>32.006025996095</v>
       </c>
       <c r="H43">
-        <v>37.273134792677</v>
+        <v>36.8829713546876</v>
       </c>
       <c r="I43">
-        <v>22.533973599228</v>
+        <v>27.1606241397452</v>
       </c>
       <c r="J43">
-        <v>51.3193275011875</v>
+        <v>54.8975648735027</v>
       </c>
       <c r="K43">
-        <v>37.5632883192773</v>
+        <v>36.5225379448546</v>
       </c>
       <c r="L43">
-        <v>38.5489354939386</v>
+        <v>39.5991365576867</v>
       </c>
       <c r="M43">
-        <v>105.577497288166</v>
+        <v>110.623602353408</v>
       </c>
       <c r="N43">
-        <v>46.8995520154482</v>
+        <v>51.0731186451007</v>
       </c>
       <c r="O43">
-        <v>1881.10240052332</v>
+        <v>2011.06332001282</v>
       </c>
       <c r="P43">
-        <v>43.8813774989228</v>
+        <v>50.5794675338807</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5596.35366260737</v>
+        <v>4816.53025061609</v>
       </c>
       <c r="C44">
-        <v>118.91591026294</v>
+        <v>131.760570813571</v>
       </c>
       <c r="D44">
-        <v>30.2050322252219</v>
+        <v>34.1419895600282</v>
       </c>
       <c r="E44">
-        <v>71.809328052911</v>
+        <v>84.6151380655257</v>
       </c>
       <c r="F44">
-        <v>204.671323415496</v>
+        <v>222.683877329384</v>
       </c>
       <c r="G44">
-        <v>115.200166762095</v>
+        <v>129.907131144766</v>
       </c>
       <c r="H44">
-        <v>32.737407662325</v>
+        <v>38.1499714584241</v>
       </c>
       <c r="I44">
-        <v>38.9629377820414</v>
+        <v>45.5442244431255</v>
       </c>
       <c r="J44">
-        <v>109.844709278556</v>
+        <v>119.116606496258</v>
       </c>
       <c r="K44">
-        <v>52.1115835123072</v>
+        <v>55.5590194403182</v>
       </c>
       <c r="L44">
-        <v>152.279077007783</v>
+        <v>183.166879398203</v>
       </c>
       <c r="M44">
-        <v>81.2539229275925</v>
+        <v>91.95742344887169</v>
       </c>
       <c r="N44">
-        <v>84.25035796235061</v>
+        <v>99.8352847334338</v>
       </c>
       <c r="O44">
-        <v>7413.52811874892</v>
+        <v>8097.77875592527</v>
       </c>
       <c r="P44">
-        <v>197.724403171216</v>
+        <v>167.419065915417</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>515.637655706783</v>
+        <v>427.376011959421</v>
       </c>
       <c r="C45">
-        <v>18.5392378163069</v>
+        <v>17.56308173708</v>
       </c>
       <c r="D45">
-        <v>2.27857254894928</v>
+        <v>3.53667115802617</v>
       </c>
       <c r="E45">
-        <v>14.8670089310157</v>
+        <v>17.3785095500433</v>
       </c>
       <c r="F45">
-        <v>20.3857379346853</v>
+        <v>18.2098498593399</v>
       </c>
       <c r="G45">
-        <v>5.66668297686754</v>
+        <v>6.43768716877394</v>
       </c>
       <c r="H45">
-        <v>2.35203369618405</v>
+        <v>2.80166179631467</v>
       </c>
       <c r="I45">
-        <v>3.50384433220618</v>
+        <v>3.66900936626644</v>
       </c>
       <c r="J45">
-        <v>23.4266632518245</v>
+        <v>23.3300107712802</v>
       </c>
       <c r="K45">
-        <v>3.60299102976136</v>
+        <v>3.94161333281676</v>
       </c>
       <c r="L45">
-        <v>14.7769661856727</v>
+        <v>18.4050060763179</v>
       </c>
       <c r="M45">
-        <v>15.2432538913844</v>
+        <v>16.8474582425412</v>
       </c>
       <c r="N45">
-        <v>28.8183932271673</v>
+        <v>31.9134774056317</v>
       </c>
       <c r="O45">
-        <v>781.916604446707</v>
+        <v>837.106835206838</v>
       </c>
       <c r="P45">
-        <v>17.1374292109935</v>
+        <v>17.5597855500238</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>138.875703520033</v>
+        <v>104.883817023049</v>
       </c>
       <c r="C46">
-        <v>3.44216179209715</v>
+        <v>3.46251621137908</v>
       </c>
       <c r="D46">
-        <v>0.69073691932684</v>
+        <v>0.748741011198532</v>
       </c>
       <c r="E46">
-        <v>4.46877025420451</v>
+        <v>4.30544322911686</v>
       </c>
       <c r="F46">
-        <v>0.618016603629274</v>
+        <v>0.763581223532641</v>
       </c>
       <c r="G46">
-        <v>1.8467569574079</v>
+        <v>2.36775938335646</v>
       </c>
       <c r="H46">
-        <v>1.7716080428507</v>
+        <v>1.67291790405055</v>
       </c>
       <c r="I46">
-        <v>2.00720754783685</v>
+        <v>2.02872868982574</v>
       </c>
       <c r="J46">
-        <v>3.82709373392531</v>
+        <v>4.87111386911671</v>
       </c>
       <c r="K46">
-        <v>2.88131271101308</v>
+        <v>3.82960936777176</v>
       </c>
       <c r="L46">
-        <v>10.097738842588</v>
+        <v>13.1411027865547</v>
       </c>
       <c r="M46">
-        <v>2.56336921022944</v>
+        <v>2.985469910543</v>
       </c>
       <c r="N46">
-        <v>7.71119352593762</v>
+        <v>10.0828807364842</v>
       </c>
       <c r="O46">
-        <v>233.716384211241</v>
+        <v>259.940032390937</v>
       </c>
       <c r="P46">
-        <v>9.908246628165831</v>
+        <v>9.1462624184574</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1910.36466583161</v>
+        <v>1637.14834269506</v>
       </c>
       <c r="C47">
-        <v>40.5775294887154</v>
+        <v>39.8332714290278</v>
       </c>
       <c r="D47">
-        <v>25.0365672085172</v>
+        <v>23.1652577862216</v>
       </c>
       <c r="E47">
-        <v>46.2175100949324</v>
+        <v>53.2055701470754</v>
       </c>
       <c r="F47">
-        <v>7.13684042102946</v>
+        <v>7.16027432527689</v>
       </c>
       <c r="G47">
-        <v>26.678174794158</v>
+        <v>24.6884847221731</v>
       </c>
       <c r="H47">
-        <v>9.72434476994958</v>
+        <v>10.3433539287981</v>
       </c>
       <c r="I47">
-        <v>2.72236753458905</v>
+        <v>2.9826395761693</v>
       </c>
       <c r="J47">
-        <v>37.4171112428607</v>
+        <v>35.9534310116829</v>
       </c>
       <c r="K47">
-        <v>10.1059821432141</v>
+        <v>12.1182053205797</v>
       </c>
       <c r="L47">
-        <v>34.9510774775955</v>
+        <v>40.1250889025529</v>
       </c>
       <c r="M47">
-        <v>58.3975572066621</v>
+        <v>68.4696767832033</v>
       </c>
       <c r="N47">
-        <v>35.1966643682373</v>
+        <v>38.1933407517959</v>
       </c>
       <c r="O47">
-        <v>2680.4083340446</v>
+        <v>2933.24038483809</v>
       </c>
       <c r="P47">
-        <v>22.7365515872655</v>
+        <v>21.4036881525536</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1657.41155858604</v>
+        <v>1352.99875231176</v>
       </c>
       <c r="C48">
-        <v>24.4489771150797</v>
+        <v>25.6783064479569</v>
       </c>
       <c r="D48">
-        <v>6.14962081241589</v>
+        <v>7.60148561289295</v>
       </c>
       <c r="E48">
-        <v>61.2282468833683</v>
+        <v>69.01648706052001</v>
       </c>
       <c r="F48">
-        <v>5.57876462618207</v>
+        <v>7.86333501478447</v>
       </c>
       <c r="G48">
-        <v>6.4732477347405</v>
+        <v>6.37594796102925</v>
       </c>
       <c r="H48">
-        <v>5.56859291453798</v>
+        <v>5.03811389209261</v>
       </c>
       <c r="I48">
-        <v>6.97631984833234</v>
+        <v>8.804751705424801</v>
       </c>
       <c r="J48">
-        <v>40.5470767576977</v>
+        <v>45.371223740246</v>
       </c>
       <c r="K48">
-        <v>12.8688711788103</v>
+        <v>14.3252813151384</v>
       </c>
       <c r="L48">
-        <v>42.2444258536966</v>
+        <v>50.9639956060086</v>
       </c>
       <c r="M48">
-        <v>114.033710452275</v>
+        <v>134.211533873649</v>
       </c>
       <c r="N48">
-        <v>25.817445426112</v>
+        <v>31.0977950092389</v>
       </c>
       <c r="O48">
-        <v>2114.05263574092</v>
+        <v>2361.58848979768</v>
       </c>
       <c r="P48">
-        <v>71.8471095391987</v>
+        <v>81.4042434374702</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>697.462388854061</v>
+        <v>647.31268688484</v>
       </c>
       <c r="C49">
-        <v>5.42088784162751</v>
+        <v>5.43270930416355</v>
       </c>
       <c r="D49">
-        <v>1.81433083366547</v>
+        <v>1.99515105136041</v>
       </c>
       <c r="E49">
-        <v>19.3812519035294</v>
+        <v>23.1068987887975</v>
       </c>
       <c r="F49">
-        <v>24.2763990148944</v>
+        <v>24.9177819169349</v>
       </c>
       <c r="G49">
-        <v>14.3405439385713</v>
+        <v>16.6227663591156</v>
       </c>
       <c r="H49">
-        <v>6.44601936022748</v>
+        <v>7.01604489537777</v>
       </c>
       <c r="I49">
-        <v>5.19904751714101</v>
+        <v>6.13317913535568</v>
       </c>
       <c r="J49">
-        <v>17.5681714053724</v>
+        <v>20.4661919181242</v>
       </c>
       <c r="K49">
-        <v>4.11519521129315</v>
+        <v>2.64285684646336</v>
       </c>
       <c r="L49">
-        <v>1.23063352151978</v>
+        <v>1.3416646442395</v>
       </c>
       <c r="M49">
-        <v>3.80812382530808</v>
+        <v>4.82229701262546</v>
       </c>
       <c r="N49">
-        <v>4.81616873474434</v>
+        <v>5.38167497540091</v>
       </c>
       <c r="O49">
-        <v>517.834899119882</v>
+        <v>563.901391297357</v>
       </c>
       <c r="P49">
-        <v>6.28745915015628</v>
+        <v>6.97061669718577</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1268.9182362565</v>
+        <v>976.183561794081</v>
       </c>
       <c r="C50">
-        <v>66.50527366928721</v>
+        <v>71.00956922820821</v>
       </c>
       <c r="D50">
-        <v>12.0290630124063</v>
+        <v>17.651457917769</v>
       </c>
       <c r="E50">
-        <v>132.81042921002</v>
+        <v>149.422538933298</v>
       </c>
       <c r="F50">
-        <v>2.63280394394556</v>
+        <v>3.05987913715587</v>
       </c>
       <c r="G50">
-        <v>30.1775022595891</v>
+        <v>39.1608001262734</v>
       </c>
       <c r="H50">
-        <v>32.4981379603149</v>
+        <v>35.8562726889763</v>
       </c>
       <c r="I50">
-        <v>7.11645689819601</v>
+        <v>8.559138706779709</v>
       </c>
       <c r="J50">
-        <v>91.5911879818775</v>
+        <v>104.901426836071</v>
       </c>
       <c r="K50">
-        <v>69.9154992528793</v>
+        <v>75.715834154847</v>
       </c>
       <c r="L50">
-        <v>55.8752038446469</v>
+        <v>63.9699771528198</v>
       </c>
       <c r="M50">
-        <v>40.7605755514589</v>
+        <v>46.5564233045468</v>
       </c>
       <c r="N50">
-        <v>53.6253216789698</v>
+        <v>59.8562894450269</v>
       </c>
       <c r="O50">
-        <v>1875.80956342215</v>
+        <v>2099.44981142816</v>
       </c>
       <c r="P50">
-        <v>85.1008209422278</v>
+        <v>71.3413847224016</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>121.151773106884</v>
+        <v>96.9992512409124</v>
       </c>
       <c r="C51">
-        <v>2.80099666172784</v>
+        <v>3.88215766812934</v>
       </c>
       <c r="D51">
-        <v>0.0156042428850587</v>
+        <v>0.0189036279440849</v>
       </c>
       <c r="E51">
-        <v>1.85839493243738</v>
+        <v>1.68018224969936</v>
       </c>
       <c r="F51">
-        <v>21.0879074461254</v>
+        <v>21.1603575264835</v>
       </c>
       <c r="G51">
-        <v>1.70999139128925</v>
+        <v>1.74437605189566</v>
       </c>
       <c r="H51">
-        <v>0.00480446479457034</v>
+        <v>0.00709388481466893</v>
       </c>
       <c r="I51">
-        <v>0.834243183022815</v>
+        <v>0.891468363881744</v>
       </c>
       <c r="J51">
-        <v>0.946518442385857</v>
+        <v>0.800009789785161</v>
       </c>
       <c r="K51">
-        <v>0.465034573097818</v>
+        <v>0.53219268937266</v>
       </c>
       <c r="L51">
-        <v>0.285668800335961</v>
+        <v>0.253225714454176</v>
       </c>
       <c r="M51">
-        <v>0.432436075158956</v>
+        <v>0.376960103238594</v>
       </c>
       <c r="N51">
-        <v>0.573319219124361</v>
+        <v>0.9750501470345601</v>
       </c>
       <c r="O51">
-        <v>180.49684018874</v>
+        <v>204.806901332071</v>
       </c>
       <c r="P51">
-        <v>16.4635720115377</v>
+        <v>15.8447304761512</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1369.0875320732</v>
+        <v>1371.08119407933</v>
       </c>
       <c r="C2">
-        <v>23.1165670891294</v>
+        <v>23.9977393697931</v>
       </c>
       <c r="D2">
-        <v>40.5912876594861</v>
+        <v>43.2138642374501</v>
       </c>
       <c r="E2">
-        <v>57.1879194045746</v>
+        <v>60.7363683332114</v>
       </c>
       <c r="F2">
-        <v>22.0229311914256</v>
+        <v>22.500299110285</v>
       </c>
       <c r="G2">
-        <v>11.272915722662</v>
+        <v>11.3008098087387</v>
       </c>
       <c r="H2">
-        <v>23.5996349071352</v>
+        <v>24.4721305528618</v>
       </c>
       <c r="I2">
-        <v>11.8028037780865</v>
+        <v>11.9984775469433</v>
       </c>
       <c r="J2">
-        <v>71.1398252562316</v>
+        <v>71.3793531478111</v>
       </c>
       <c r="K2">
-        <v>17.2536335921442</v>
+        <v>17.4501199778551</v>
       </c>
       <c r="L2">
-        <v>40.5841177519074</v>
+        <v>40.2230217925711</v>
       </c>
       <c r="M2">
-        <v>39.105329650887</v>
+        <v>38.8004825369702</v>
       </c>
       <c r="N2">
-        <v>25.9509330063067</v>
+        <v>26.4921520537442</v>
       </c>
       <c r="O2">
-        <v>1394.59243405442</v>
+        <v>1383.13414360536</v>
       </c>
       <c r="P2">
-        <v>20.8414946209896</v>
+        <v>22.3528167956001</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>104.070199295354</v>
+        <v>104.240102464682</v>
       </c>
       <c r="C3">
-        <v>3.65967603513904</v>
+        <v>3.67725603257198</v>
       </c>
       <c r="D3">
-        <v>0.157817230111161</v>
+        <v>0.158159763347901</v>
       </c>
       <c r="E3">
-        <v>0.877574609382227</v>
+        <v>0.9340229648034411</v>
       </c>
       <c r="F3">
-        <v>7.20282041210477</v>
+        <v>6.91119980147625</v>
       </c>
       <c r="G3">
-        <v>0.173322173126298</v>
+        <v>0.149978212668721</v>
       </c>
       <c r="H3">
-        <v>0.00928386819652246</v>
+        <v>0.00718247847247875</v>
       </c>
       <c r="I3">
-        <v>0.559939065302783</v>
+        <v>0.549415630785916</v>
       </c>
       <c r="J3">
-        <v>0.249109207748292</v>
+        <v>0.248780707485976</v>
       </c>
       <c r="K3">
-        <v>0.115184508866591</v>
+        <v>0.132555536340655</v>
       </c>
       <c r="L3">
-        <v>0.0930241961083636</v>
+        <v>0.09245995989516601</v>
       </c>
       <c r="M3">
-        <v>0.610744082220265</v>
+        <v>0.610795695797428</v>
       </c>
       <c r="N3">
-        <v>0.499682296432076</v>
+        <v>0.503134037832244</v>
       </c>
       <c r="O3">
-        <v>235.941908889199</v>
+        <v>235.414619195376</v>
       </c>
       <c r="P3">
-        <v>8.69237074828555</v>
+        <v>9.6068924770319</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1343.99248370712</v>
+        <v>1344.182807516</v>
       </c>
       <c r="C4">
-        <v>4.75339257059886</v>
+        <v>4.79792608455276</v>
       </c>
       <c r="D4">
-        <v>3.05250619874607</v>
+        <v>3.02817508945527</v>
       </c>
       <c r="E4">
-        <v>23.6923742889633</v>
+        <v>23.7113161671668</v>
       </c>
       <c r="F4">
-        <v>11.3447288420316</v>
+        <v>12.9262087548803</v>
       </c>
       <c r="G4">
-        <v>7.34154405122755</v>
+        <v>7.32742477045864</v>
       </c>
       <c r="H4">
-        <v>12.0155217660882</v>
+        <v>11.9793909018215</v>
       </c>
       <c r="I4">
-        <v>11.0749707002274</v>
+        <v>11.0440507740161</v>
       </c>
       <c r="J4">
-        <v>26.0724610711022</v>
+        <v>26.0821169078104</v>
       </c>
       <c r="K4">
-        <v>4.0443286412985</v>
+        <v>4.01159839145742</v>
       </c>
       <c r="L4">
-        <v>73.4648660696769</v>
+        <v>71.6902484463826</v>
       </c>
       <c r="M4">
-        <v>44.65564422816</v>
+        <v>43.7410414845613</v>
       </c>
       <c r="N4">
-        <v>34.5765345991028</v>
+        <v>34.416508133567</v>
       </c>
       <c r="O4">
-        <v>2143.43794719188</v>
+        <v>2139.49837743134</v>
       </c>
       <c r="P4">
-        <v>27.5053928697464</v>
+        <v>29.9070546689341</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>740.056528966407</v>
+        <v>741.419635966689</v>
       </c>
       <c r="C5">
-        <v>44.2414641603009</v>
+        <v>45.5956365218656</v>
       </c>
       <c r="D5">
-        <v>13.6604807167665</v>
+        <v>14.5794953660493</v>
       </c>
       <c r="E5">
-        <v>34.5766767300049</v>
+        <v>36.4032657021582</v>
       </c>
       <c r="F5">
-        <v>5.72332710666799</v>
+        <v>6.03335695507313</v>
       </c>
       <c r="G5">
-        <v>4.54184341307051</v>
+        <v>4.63970591354072</v>
       </c>
       <c r="H5">
-        <v>13.123413346174</v>
+        <v>13.5067937176502</v>
       </c>
       <c r="I5">
-        <v>6.66984828468893</v>
+        <v>6.83594645462901</v>
       </c>
       <c r="J5">
-        <v>31.809235182387</v>
+        <v>32.7245110266351</v>
       </c>
       <c r="K5">
-        <v>13.6553975555114</v>
+        <v>14.0283970488248</v>
       </c>
       <c r="L5">
-        <v>16.6825908052061</v>
+        <v>16.9531059160555</v>
       </c>
       <c r="M5">
-        <v>18.5274440239551</v>
+        <v>18.9638725767789</v>
       </c>
       <c r="N5">
-        <v>21.435618334893</v>
+        <v>22.1014901471392</v>
       </c>
       <c r="O5">
-        <v>931.028371520756</v>
+        <v>917.223785208999</v>
       </c>
       <c r="P5">
-        <v>50.8260973994775</v>
+        <v>56.9280208165124</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>8085.53680544286</v>
+        <v>8089.36013028232</v>
       </c>
       <c r="C6">
-        <v>218.398552078558</v>
+        <v>219.740956871571</v>
       </c>
       <c r="D6">
-        <v>98.7568983764167</v>
+        <v>98.83617989648199</v>
       </c>
       <c r="E6">
-        <v>146.866937617966</v>
+        <v>147.420343777246</v>
       </c>
       <c r="F6">
-        <v>49.1823761287126</v>
+        <v>49.3549228066527</v>
       </c>
       <c r="G6">
-        <v>109.62179591832</v>
+        <v>109.472628885336</v>
       </c>
       <c r="H6">
-        <v>55.3155637314285</v>
+        <v>55.2331087229568</v>
       </c>
       <c r="I6">
-        <v>46.8634448292679</v>
+        <v>46.782910508779</v>
       </c>
       <c r="J6">
-        <v>171.150499988307</v>
+        <v>170.704451142744</v>
       </c>
       <c r="K6">
-        <v>80.3975275098077</v>
+        <v>80.0689377372894</v>
       </c>
       <c r="L6">
-        <v>517.480043238775</v>
+        <v>514.8010144213461</v>
       </c>
       <c r="M6">
-        <v>250.825787576777</v>
+        <v>249.835867058575</v>
       </c>
       <c r="N6">
-        <v>261.537636987243</v>
+        <v>260.99968097874</v>
       </c>
       <c r="O6">
-        <v>12798.5940490468</v>
+        <v>12776.6742092632</v>
       </c>
       <c r="P6">
-        <v>312.119560995516</v>
+        <v>332.496216490873</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>859.851910481065</v>
+        <v>860.174335970883</v>
       </c>
       <c r="C7">
-        <v>38.5312198294471</v>
+        <v>39.4589763017008</v>
       </c>
       <c r="D7">
-        <v>4.04294214291082</v>
+        <v>3.95955588324209</v>
       </c>
       <c r="E7">
-        <v>19.2883239026468</v>
+        <v>19.0619873988193</v>
       </c>
       <c r="F7">
-        <v>17.5284941428667</v>
+        <v>18.5241698708715</v>
       </c>
       <c r="G7">
-        <v>9.077283845663359</v>
+        <v>8.870662216745631</v>
       </c>
       <c r="H7">
-        <v>5.81184307443189</v>
+        <v>5.67313562564463</v>
       </c>
       <c r="I7">
-        <v>6.96272659064824</v>
+        <v>6.97912971002772</v>
       </c>
       <c r="J7">
-        <v>19.1549910847436</v>
+        <v>18.9421856211421</v>
       </c>
       <c r="K7">
-        <v>7.76166489839069</v>
+        <v>7.67303057017415</v>
       </c>
       <c r="L7">
-        <v>63.6786301573877</v>
+        <v>62.3609546119011</v>
       </c>
       <c r="M7">
-        <v>13.2143724112814</v>
+        <v>12.876199829049</v>
       </c>
       <c r="N7">
-        <v>24.6247156761428</v>
+        <v>24.1607977238056</v>
       </c>
       <c r="O7">
-        <v>1915.03439815448</v>
+        <v>1908.57101667971</v>
       </c>
       <c r="P7">
-        <v>22.5572090607479</v>
+        <v>27.0667879484842</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>676.092123992816</v>
+        <v>676.005400263791</v>
       </c>
       <c r="C8">
-        <v>10.5483127697415</v>
+        <v>10.5844287062184</v>
       </c>
       <c r="D8">
-        <v>3.29692749311018</v>
+        <v>3.25973142642284</v>
       </c>
       <c r="E8">
-        <v>20.2462188284326</v>
+        <v>20.3684860642119</v>
       </c>
       <c r="F8">
-        <v>0.686828833116187</v>
+        <v>0.6883747353602771</v>
       </c>
       <c r="G8">
-        <v>28.1199446258848</v>
+        <v>27.9700931742864</v>
       </c>
       <c r="H8">
-        <v>8.409130810796411</v>
+        <v>8.37805303349276</v>
       </c>
       <c r="I8">
-        <v>6.45595301127285</v>
+        <v>6.49076253340058</v>
       </c>
       <c r="J8">
-        <v>37.5521372657588</v>
+        <v>37.4762561028474</v>
       </c>
       <c r="K8">
-        <v>22.2415740818107</v>
+        <v>22.2292400796192</v>
       </c>
       <c r="L8">
-        <v>47.077592554294</v>
+        <v>46.921458504255</v>
       </c>
       <c r="M8">
-        <v>44.4174175807303</v>
+        <v>44.5098244077632</v>
       </c>
       <c r="N8">
-        <v>28.1039799720124</v>
+        <v>28.0961892584558</v>
       </c>
       <c r="O8">
-        <v>1439.66230247273</v>
+        <v>1439.57166587028</v>
       </c>
       <c r="P8">
-        <v>2.53552223284216</v>
+        <v>2.60292574321794</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>174.584724280262</v>
+        <v>174.587833221499</v>
       </c>
       <c r="C9">
-        <v>7.90549268499507</v>
+        <v>8.066682316491081</v>
       </c>
       <c r="D9">
-        <v>2.84271475212739</v>
+        <v>2.83226891018558</v>
       </c>
       <c r="E9">
-        <v>3.59779645177368</v>
+        <v>3.61975511102278</v>
       </c>
       <c r="F9">
-        <v>0.8040564193827771</v>
+        <v>0.826872984983457</v>
       </c>
       <c r="G9">
-        <v>18.2694036693602</v>
+        <v>17.819885353768</v>
       </c>
       <c r="H9">
-        <v>3.49282176372937</v>
+        <v>3.45030380421556</v>
       </c>
       <c r="I9">
-        <v>0.660371620945963</v>
+        <v>0.661197143711338</v>
       </c>
       <c r="J9">
-        <v>4.88780540983681</v>
+        <v>4.8380403645763</v>
       </c>
       <c r="K9">
-        <v>2.22611586756351</v>
+        <v>2.21584407944836</v>
       </c>
       <c r="L9">
-        <v>3.34438074615065</v>
+        <v>3.30543831383432</v>
       </c>
       <c r="M9">
-        <v>5.89678953600628</v>
+        <v>5.44262115308592</v>
       </c>
       <c r="N9">
-        <v>4.29898125081648</v>
+        <v>4.3100977639205</v>
       </c>
       <c r="O9">
-        <v>331.054661630268</v>
+        <v>331.561251797646</v>
       </c>
       <c r="P9">
-        <v>5.45666103865195</v>
+        <v>5.73393407476916</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4471.36097419045</v>
+        <v>4471.27578459285</v>
       </c>
       <c r="C10">
-        <v>84.4491625636429</v>
+        <v>85.42988589390301</v>
       </c>
       <c r="D10">
-        <v>22.8890865420881</v>
+        <v>22.9374092718056</v>
       </c>
       <c r="E10">
-        <v>48.479983030378</v>
+        <v>48.774756007841</v>
       </c>
       <c r="F10">
-        <v>8.71582388971073</v>
+        <v>8.79126293348004</v>
       </c>
       <c r="G10">
-        <v>38.1285268338074</v>
+        <v>38.1982682166927</v>
       </c>
       <c r="H10">
-        <v>14.3747599026918</v>
+        <v>14.3846919148766</v>
       </c>
       <c r="I10">
-        <v>40.2172520775281</v>
+        <v>40.3526871388586</v>
       </c>
       <c r="J10">
-        <v>60.8709447770499</v>
+        <v>61.1014372307961</v>
       </c>
       <c r="K10">
-        <v>20.7760539340529</v>
+        <v>20.811429366</v>
       </c>
       <c r="L10">
-        <v>77.3343305382427</v>
+        <v>77.20713474877169</v>
       </c>
       <c r="M10">
-        <v>73.4902420610341</v>
+        <v>73.79848481080261</v>
       </c>
       <c r="N10">
-        <v>85.5520638702518</v>
+        <v>85.4928541131861</v>
       </c>
       <c r="O10">
-        <v>7085.75807984183</v>
+        <v>7078.06583354719</v>
       </c>
       <c r="P10">
-        <v>67.6680141975155</v>
+        <v>69.7216396306379</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1908.24638675786</v>
+        <v>1908.393433768</v>
       </c>
       <c r="C11">
-        <v>82.0881031373751</v>
+        <v>83.7541689306904</v>
       </c>
       <c r="D11">
-        <v>140.279676955368</v>
+        <v>147.628455764063</v>
       </c>
       <c r="E11">
-        <v>71.1848111267082</v>
+        <v>72.5369824639086</v>
       </c>
       <c r="F11">
-        <v>4.42649159952596</v>
+        <v>4.5787611880936</v>
       </c>
       <c r="G11">
-        <v>27.3064083089545</v>
+        <v>27.847130257357</v>
       </c>
       <c r="H11">
-        <v>16.4922528170449</v>
+        <v>16.812825685763</v>
       </c>
       <c r="I11">
-        <v>15.9748547920103</v>
+        <v>16.1448769841044</v>
       </c>
       <c r="J11">
-        <v>41.0239336341314</v>
+        <v>41.7285925555622</v>
       </c>
       <c r="K11">
-        <v>17.2517701808232</v>
+        <v>17.5677311026769</v>
       </c>
       <c r="L11">
-        <v>57.4237543490056</v>
+        <v>56.9367774644608</v>
       </c>
       <c r="M11">
-        <v>42.9651587961988</v>
+        <v>44.0424342767786</v>
       </c>
       <c r="N11">
-        <v>54.8012684875879</v>
+        <v>55.0127587083607</v>
       </c>
       <c r="O11">
-        <v>3229.62624377697</v>
+        <v>3213.15210220549</v>
       </c>
       <c r="P11">
-        <v>47.7120887733009</v>
+        <v>50.5057802272762</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>257.947160045256</v>
+        <v>258.000511175759</v>
       </c>
       <c r="C12">
-        <v>6.56086396346075</v>
+        <v>6.73017761094455</v>
       </c>
       <c r="D12">
-        <v>0.799919477204596</v>
+        <v>0.791605030305799</v>
       </c>
       <c r="E12">
-        <v>1.53367111510227</v>
+        <v>1.52277215302467</v>
       </c>
       <c r="F12">
-        <v>1.17849771736856</v>
+        <v>1.17602970475046</v>
       </c>
       <c r="G12">
-        <v>0.268777528946742</v>
+        <v>0.269683148851785</v>
       </c>
       <c r="H12">
-        <v>0.008196636214215951</v>
+        <v>0.0096241999804097</v>
       </c>
       <c r="I12">
-        <v>0.959629038208684</v>
+        <v>0.95536312301569</v>
       </c>
       <c r="J12">
-        <v>2.8553335535673</v>
+        <v>2.83919212117955</v>
       </c>
       <c r="K12">
-        <v>0.0597264242559205</v>
+        <v>0.0558205628495349</v>
       </c>
       <c r="L12">
-        <v>0.21914993792849</v>
+        <v>0.218314237489688</v>
       </c>
       <c r="M12">
-        <v>3.63948365344157</v>
+        <v>3.56531119113818</v>
       </c>
       <c r="N12">
-        <v>3.7408605467708</v>
+        <v>3.73153928898825</v>
       </c>
       <c r="O12">
-        <v>533.84738239952</v>
+        <v>532.703798824281</v>
       </c>
       <c r="P12">
-        <v>17.5089136738207</v>
+        <v>18.6781924747254</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>246.478510081864</v>
+        <v>246.966715777847</v>
       </c>
       <c r="C13">
-        <v>16.0227737370123</v>
+        <v>16.4104655702154</v>
       </c>
       <c r="D13">
-        <v>0.41414679122136</v>
+        <v>0.411223400332669</v>
       </c>
       <c r="E13">
-        <v>9.96031878048934</v>
+        <v>10.2538336138002</v>
       </c>
       <c r="F13">
-        <v>2.60688320147112</v>
+        <v>3.03082521767407</v>
       </c>
       <c r="G13">
-        <v>5.14989929427875</v>
+        <v>5.54042893219736</v>
       </c>
       <c r="H13">
-        <v>0.995344359462725</v>
+        <v>1.00257844749</v>
       </c>
       <c r="I13">
-        <v>1.4344263702156</v>
+        <v>1.42271358223739</v>
       </c>
       <c r="J13">
-        <v>5.36162337692334</v>
+        <v>5.44290218741146</v>
       </c>
       <c r="K13">
-        <v>2.71267877112222</v>
+        <v>2.66261118339952</v>
       </c>
       <c r="L13">
-        <v>21.2439657796956</v>
+        <v>18.8511255499608</v>
       </c>
       <c r="M13">
-        <v>0.554689447156636</v>
+        <v>0.553056232175885</v>
       </c>
       <c r="N13">
-        <v>5.24968737692465</v>
+        <v>5.17825582079571</v>
       </c>
       <c r="O13">
-        <v>520.837626290878</v>
+        <v>516.43798869708</v>
       </c>
       <c r="P13">
-        <v>42.7597860710557</v>
+        <v>48.5619656523557</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2809.89538662841</v>
+        <v>2809.95963292021</v>
       </c>
       <c r="C14">
-        <v>127.30346458909</v>
+        <v>128.766720340769</v>
       </c>
       <c r="D14">
-        <v>11.2060356425901</v>
+        <v>11.2170546971679</v>
       </c>
       <c r="E14">
-        <v>81.1026307342038</v>
+        <v>81.8496073191322</v>
       </c>
       <c r="F14">
-        <v>18.4365472914591</v>
+        <v>19.4210115760954</v>
       </c>
       <c r="G14">
-        <v>78.6394231897423</v>
+        <v>78.6808743872482</v>
       </c>
       <c r="H14">
-        <v>40.8141249931452</v>
+        <v>41.7145893456886</v>
       </c>
       <c r="I14">
-        <v>27.3942268195784</v>
+        <v>28.163590988009</v>
       </c>
       <c r="J14">
-        <v>132.296532526517</v>
+        <v>136.009309228829</v>
       </c>
       <c r="K14">
-        <v>139.000505066999</v>
+        <v>143.853134843667</v>
       </c>
       <c r="L14">
-        <v>112.552528506719</v>
+        <v>112.203373991312</v>
       </c>
       <c r="M14">
-        <v>74.9027518391016</v>
+        <v>77.7205729034298</v>
       </c>
       <c r="N14">
-        <v>100.722104630843</v>
+        <v>100.805118028699</v>
       </c>
       <c r="O14">
-        <v>4740.9067405382</v>
+        <v>4712.62343352871</v>
       </c>
       <c r="P14">
-        <v>52.8046107441206</v>
+        <v>63.2774867926583</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1333.8814149371</v>
+        <v>1333.8028337458</v>
       </c>
       <c r="C15">
-        <v>39.3303408866006</v>
+        <v>39.7204223814315</v>
       </c>
       <c r="D15">
-        <v>10.6805531105911</v>
+        <v>10.9343300682399</v>
       </c>
       <c r="E15">
-        <v>75.684253401402</v>
+        <v>77.6382444273019</v>
       </c>
       <c r="F15">
-        <v>22.7854858430932</v>
+        <v>23.4780348766206</v>
       </c>
       <c r="G15">
-        <v>42.8384668091142</v>
+        <v>42.2361388747156</v>
       </c>
       <c r="H15">
-        <v>44.8625767550903</v>
+        <v>46.1419328483824</v>
       </c>
       <c r="I15">
-        <v>21.1062857704205</v>
+        <v>21.5957514997854</v>
       </c>
       <c r="J15">
-        <v>143.021315245176</v>
+        <v>146.280883335584</v>
       </c>
       <c r="K15">
-        <v>42.6567454878234</v>
+        <v>43.4100722822486</v>
       </c>
       <c r="L15">
-        <v>37.7387576837886</v>
+        <v>38.5422333440205</v>
       </c>
       <c r="M15">
-        <v>168.16742494562</v>
+        <v>173.723050377775</v>
       </c>
       <c r="N15">
-        <v>90.9507982297762</v>
+        <v>94.6751659830945</v>
       </c>
       <c r="O15">
-        <v>2152.18412564384</v>
+        <v>2133.87241040704</v>
       </c>
       <c r="P15">
-        <v>50.1561135090758</v>
+        <v>51.3130598349791</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>526.08696369567</v>
+        <v>525.692946837321</v>
       </c>
       <c r="C16">
-        <v>64.7431599720494</v>
+        <v>65.250068808281</v>
       </c>
       <c r="D16">
-        <v>4.97852479686226</v>
+        <v>5.28003705776366</v>
       </c>
       <c r="E16">
-        <v>22.5863953396785</v>
+        <v>22.7610307182273</v>
       </c>
       <c r="F16">
-        <v>2.68717314850425</v>
+        <v>3.06733995921229</v>
       </c>
       <c r="G16">
-        <v>18.9024752652705</v>
+        <v>19.1611194469933</v>
       </c>
       <c r="H16">
-        <v>11.0165130741928</v>
+        <v>11.3801326126264</v>
       </c>
       <c r="I16">
-        <v>6.3030653318214</v>
+        <v>6.71421811887347</v>
       </c>
       <c r="J16">
-        <v>46.8543092299725</v>
+        <v>48.8147113238563</v>
       </c>
       <c r="K16">
-        <v>50.6791323542217</v>
+        <v>52.4270378562581</v>
       </c>
       <c r="L16">
-        <v>23.1152538359946</v>
+        <v>23.0277836156549</v>
       </c>
       <c r="M16">
-        <v>22.2216073176215</v>
+        <v>23.1879100410596</v>
       </c>
       <c r="N16">
-        <v>29.440124379642</v>
+        <v>29.8849304359576</v>
       </c>
       <c r="O16">
-        <v>1142.34185798316</v>
+        <v>1126.79503562927</v>
       </c>
       <c r="P16">
-        <v>77.0868428580021</v>
+        <v>86.73923063484899</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>505.218812228966</v>
+        <v>505.555401852662</v>
       </c>
       <c r="C17">
-        <v>18.2863322659844</v>
+        <v>17.8946156093348</v>
       </c>
       <c r="D17">
-        <v>2.22760559234324</v>
+        <v>2.16883785691422</v>
       </c>
       <c r="E17">
-        <v>23.7015314459399</v>
+        <v>23.4636453934016</v>
       </c>
       <c r="F17">
-        <v>10.5101903541171</v>
+        <v>11.5756257498457</v>
       </c>
       <c r="G17">
-        <v>6.11928515839685</v>
+        <v>5.95086639736501</v>
       </c>
       <c r="H17">
-        <v>7.82549803462215</v>
+        <v>8.31559475759035</v>
       </c>
       <c r="I17">
-        <v>7.31092322180797</v>
+        <v>7.50667152176166</v>
       </c>
       <c r="J17">
-        <v>17.7528855559831</v>
+        <v>18.2703894567823</v>
       </c>
       <c r="K17">
-        <v>10.2354491050462</v>
+        <v>10.300273931614</v>
       </c>
       <c r="L17">
-        <v>11.8316066285459</v>
+        <v>11.595748016928</v>
       </c>
       <c r="M17">
-        <v>69.4987139900779</v>
+        <v>66.84041389755311</v>
       </c>
       <c r="N17">
-        <v>11.9523972108366</v>
+        <v>11.8446817816762</v>
       </c>
       <c r="O17">
-        <v>1087.80310532456</v>
+        <v>1079.61723609532</v>
       </c>
       <c r="P17">
-        <v>37.6410813675475</v>
+        <v>47.6663218101151</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1091.20923567569</v>
+        <v>1091.4757772488</v>
       </c>
       <c r="C18">
-        <v>29.7379326858045</v>
+        <v>29.9338152218139</v>
       </c>
       <c r="D18">
-        <v>6.67856537745221</v>
+        <v>6.79230748796884</v>
       </c>
       <c r="E18">
-        <v>38.5880652015672</v>
+        <v>38.626566920943</v>
       </c>
       <c r="F18">
-        <v>33.2771354096803</v>
+        <v>34.1834325297581</v>
       </c>
       <c r="G18">
-        <v>25.2698932190364</v>
+        <v>25.3014249247892</v>
       </c>
       <c r="H18">
-        <v>15.4914204997101</v>
+        <v>15.4432246529492</v>
       </c>
       <c r="I18">
-        <v>3.7400330660159</v>
+        <v>3.66165186959247</v>
       </c>
       <c r="J18">
-        <v>37.6741289309537</v>
+        <v>37.7113532208732</v>
       </c>
       <c r="K18">
-        <v>15.8937928192333</v>
+        <v>15.8199560271584</v>
       </c>
       <c r="L18">
-        <v>31.4705224298622</v>
+        <v>31.3074208020088</v>
       </c>
       <c r="M18">
-        <v>65.1905479193976</v>
+        <v>64.8091981455235</v>
       </c>
       <c r="N18">
-        <v>20.4308161829501</v>
+        <v>20.3299874973417</v>
       </c>
       <c r="O18">
-        <v>1433.42603094241</v>
+        <v>1432.5102410918</v>
       </c>
       <c r="P18">
-        <v>59.1207680792442</v>
+        <v>59.661954504905</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1234.62133859841</v>
+        <v>1233.60312463134</v>
       </c>
       <c r="C19">
-        <v>32.1348974734778</v>
+        <v>32.6439224851481</v>
       </c>
       <c r="D19">
-        <v>11.8484518061119</v>
+        <v>12.3503701548955</v>
       </c>
       <c r="E19">
-        <v>33.7682363885777</v>
+        <v>36.8954208505335</v>
       </c>
       <c r="F19">
-        <v>92.7896365203007</v>
+        <v>92.9499725450179</v>
       </c>
       <c r="G19">
-        <v>39.5839139748782</v>
+        <v>39.6624331582031</v>
       </c>
       <c r="H19">
-        <v>6.64487461400219</v>
+        <v>6.6475042675311</v>
       </c>
       <c r="I19">
-        <v>3.51114613022038</v>
+        <v>3.53517196689021</v>
       </c>
       <c r="J19">
-        <v>13.6731801359846</v>
+        <v>13.8204110191231</v>
       </c>
       <c r="K19">
-        <v>10.6176761867733</v>
+        <v>10.7427296912428</v>
       </c>
       <c r="L19">
-        <v>2.6146889868294</v>
+        <v>2.63607672735803</v>
       </c>
       <c r="M19">
-        <v>31.3683572917455</v>
+        <v>30.8237290933771</v>
       </c>
       <c r="N19">
-        <v>12.3188169345632</v>
+        <v>12.4624677295025</v>
       </c>
       <c r="O19">
-        <v>1500.08673010886</v>
+        <v>1493.7758881219</v>
       </c>
       <c r="P19">
-        <v>41.0080021905195</v>
+        <v>43.8694783339655</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>289.466916028967</v>
+        <v>290.411940802768</v>
       </c>
       <c r="C20">
-        <v>8.61377796833836</v>
+        <v>8.629856841887721</v>
       </c>
       <c r="D20">
-        <v>7.35358443323567</v>
+        <v>7.65515548629446</v>
       </c>
       <c r="E20">
-        <v>32.0246710006122</v>
+        <v>34.9051736295143</v>
       </c>
       <c r="F20">
-        <v>0.7503406651854611</v>
+        <v>0.782215838570095</v>
       </c>
       <c r="G20">
-        <v>2.12323831479267</v>
+        <v>2.11277308568605</v>
       </c>
       <c r="H20">
-        <v>1.16417957956357</v>
+        <v>1.17272027984809</v>
       </c>
       <c r="I20">
-        <v>2.23099058789361</v>
+        <v>2.17807348300921</v>
       </c>
       <c r="J20">
-        <v>3.76405381349981</v>
+        <v>3.64695645359081</v>
       </c>
       <c r="K20">
-        <v>2.31661774571099</v>
+        <v>2.19574874969932</v>
       </c>
       <c r="L20">
-        <v>8.643688248456311</v>
+        <v>8.283495724553349</v>
       </c>
       <c r="M20">
-        <v>20.817751241498</v>
+        <v>19.0182291070747</v>
       </c>
       <c r="N20">
-        <v>4.80882650176587</v>
+        <v>4.79818312973421</v>
       </c>
       <c r="O20">
-        <v>538.696498647407</v>
+        <v>535.30844055136</v>
       </c>
       <c r="P20">
-        <v>19.5391296830717</v>
+        <v>21.9526706896936</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1113.53304550572</v>
+        <v>1113.09471640055</v>
       </c>
       <c r="C21">
-        <v>18.441061901129</v>
+        <v>18.8555099728611</v>
       </c>
       <c r="D21">
-        <v>2.69554350506638</v>
+        <v>2.85693329302937</v>
       </c>
       <c r="E21">
-        <v>18.7398101055198</v>
+        <v>19.0393291481176</v>
       </c>
       <c r="F21">
-        <v>4.7423425944044</v>
+        <v>4.83789075267889</v>
       </c>
       <c r="G21">
-        <v>24.8900566222512</v>
+        <v>24.9270451951643</v>
       </c>
       <c r="H21">
-        <v>3.42804888941306</v>
+        <v>3.46685697800694</v>
       </c>
       <c r="I21">
-        <v>10.4622913628797</v>
+        <v>10.5322310747759</v>
       </c>
       <c r="J21">
-        <v>28.0581909122425</v>
+        <v>28.4896057767504</v>
       </c>
       <c r="K21">
-        <v>3.03492990020436</v>
+        <v>3.04365744091397</v>
       </c>
       <c r="L21">
-        <v>29.384672055107</v>
+        <v>29.4165817359407</v>
       </c>
       <c r="M21">
-        <v>29.177461055123</v>
+        <v>29.238824611072</v>
       </c>
       <c r="N21">
-        <v>16.9239097393124</v>
+        <v>17.0435388826623</v>
       </c>
       <c r="O21">
-        <v>2331.6083002259</v>
+        <v>2327.3540867219</v>
       </c>
       <c r="P21">
-        <v>20.8450785557819</v>
+        <v>22.2434094366493</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1323.91893603629</v>
+        <v>1323.70394304981</v>
       </c>
       <c r="C22">
-        <v>16.2218740142411</v>
+        <v>16.2779573710068</v>
       </c>
       <c r="D22">
-        <v>20.5082128217166</v>
+        <v>20.634176982282</v>
       </c>
       <c r="E22">
-        <v>40.5585739884931</v>
+        <v>41.3256549596817</v>
       </c>
       <c r="F22">
-        <v>2.26680858404613</v>
+        <v>2.28903928089387</v>
       </c>
       <c r="G22">
-        <v>28.8033905354685</v>
+        <v>28.8177070367755</v>
       </c>
       <c r="H22">
-        <v>16.8918463073166</v>
+        <v>17.0622005194982</v>
       </c>
       <c r="I22">
-        <v>12.4541925251882</v>
+        <v>12.6522449347929</v>
       </c>
       <c r="J22">
-        <v>41.6412230207681</v>
+        <v>42.0827573097045</v>
       </c>
       <c r="K22">
-        <v>13.7297275197639</v>
+        <v>13.7904423893453</v>
       </c>
       <c r="L22">
-        <v>117.9606303423</v>
+        <v>117.433315789843</v>
       </c>
       <c r="M22">
-        <v>13.7180015636697</v>
+        <v>13.6880695795569</v>
       </c>
       <c r="N22">
-        <v>68.9856381124406</v>
+        <v>69.2660592130509</v>
       </c>
       <c r="O22">
-        <v>2675.70903902328</v>
+        <v>2672.55497336187</v>
       </c>
       <c r="P22">
-        <v>10.3231113935145</v>
+        <v>11.361193104349</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2423.47587263291</v>
+        <v>2426.56988951653</v>
       </c>
       <c r="C23">
-        <v>34.9843434235498</v>
+        <v>36.022395892419</v>
       </c>
       <c r="D23">
-        <v>9.619415320929241</v>
+        <v>9.745779238497979</v>
       </c>
       <c r="E23">
-        <v>39.3814240058184</v>
+        <v>40.8823500957254</v>
       </c>
       <c r="F23">
-        <v>6.24660244461908</v>
+        <v>7.12129647452791</v>
       </c>
       <c r="G23">
-        <v>50.9634846683613</v>
+        <v>50.752471061184</v>
       </c>
       <c r="H23">
-        <v>59.3929324737119</v>
+        <v>60.0863106410242</v>
       </c>
       <c r="I23">
-        <v>11.8888860885218</v>
+        <v>12.1518523151686</v>
       </c>
       <c r="J23">
-        <v>133.321031057918</v>
+        <v>133.890115271111</v>
       </c>
       <c r="K23">
-        <v>86.7769134354146</v>
+        <v>86.9833906948143</v>
       </c>
       <c r="L23">
-        <v>37.492928278379</v>
+        <v>37.4835934788859</v>
       </c>
       <c r="M23">
-        <v>562.764526884267</v>
+        <v>550.309462363008</v>
       </c>
       <c r="N23">
-        <v>78.6746348127742</v>
+        <v>78.4808483286748</v>
       </c>
       <c r="O23">
-        <v>3400.5352977752</v>
+        <v>3393.08674691462</v>
       </c>
       <c r="P23">
-        <v>41.2778719170096</v>
+        <v>50.6631274033095</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>877.385517155249</v>
+        <v>877.1162270007091</v>
       </c>
       <c r="C24">
-        <v>46.4543256836205</v>
+        <v>50.3944943429854</v>
       </c>
       <c r="D24">
-        <v>6.41846953235883</v>
+        <v>7.12344467159293</v>
       </c>
       <c r="E24">
-        <v>51.4934654053682</v>
+        <v>50.8114776582065</v>
       </c>
       <c r="F24">
-        <v>9.63847706563045</v>
+        <v>10.4198532803971</v>
       </c>
       <c r="G24">
-        <v>31.026943755523</v>
+        <v>30.5784672351962</v>
       </c>
       <c r="H24">
-        <v>16.5794147442027</v>
+        <v>16.4917627663702</v>
       </c>
       <c r="I24">
-        <v>15.8745761530451</v>
+        <v>16.1007442658993</v>
       </c>
       <c r="J24">
-        <v>53.2345257180636</v>
+        <v>54.6382436526575</v>
       </c>
       <c r="K24">
-        <v>41.7193277453549</v>
+        <v>42.2795837708134</v>
       </c>
       <c r="L24">
-        <v>70.57257397791599</v>
+        <v>68.08561612923759</v>
       </c>
       <c r="M24">
-        <v>26.1288994364368</v>
+        <v>26.8399196861494</v>
       </c>
       <c r="N24">
-        <v>76.94988734186831</v>
+        <v>75.23179910575639</v>
       </c>
       <c r="O24">
-        <v>2049.14568781684</v>
+        <v>2014.92575682242</v>
       </c>
       <c r="P24">
-        <v>75.4055263017548</v>
+        <v>106.685964967492</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>773.496227136738</v>
+        <v>773.236805362291</v>
       </c>
       <c r="C25">
-        <v>45.4353811024935</v>
+        <v>47.2000442693807</v>
       </c>
       <c r="D25">
-        <v>13.1185908652875</v>
+        <v>13.9536746747718</v>
       </c>
       <c r="E25">
-        <v>44.4187095115716</v>
+        <v>46.049182038238</v>
       </c>
       <c r="F25">
-        <v>16.7720345046288</v>
+        <v>16.9209171790832</v>
       </c>
       <c r="G25">
-        <v>11.6277726064519</v>
+        <v>11.7006974917283</v>
       </c>
       <c r="H25">
-        <v>12.9774924891386</v>
+        <v>13.78864772769</v>
       </c>
       <c r="I25">
-        <v>5.80855105171358</v>
+        <v>5.92844179824472</v>
       </c>
       <c r="J25">
-        <v>13.0738232850732</v>
+        <v>13.7011539866726</v>
       </c>
       <c r="K25">
-        <v>10.0364656796509</v>
+        <v>10.4853810428842</v>
       </c>
       <c r="L25">
-        <v>15.6709445896306</v>
+        <v>16.2475891393816</v>
       </c>
       <c r="M25">
-        <v>39.8858345399521</v>
+        <v>39.5556438329698</v>
       </c>
       <c r="N25">
-        <v>35.1799315872425</v>
+        <v>37.6172115069349</v>
       </c>
       <c r="O25">
-        <v>875.404022243657</v>
+        <v>864.637124984466</v>
       </c>
       <c r="P25">
-        <v>38.5239965281446</v>
+        <v>41.5292159970058</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1190.22598067557</v>
+        <v>1190.29763927617</v>
       </c>
       <c r="C26">
-        <v>54.6943473386057</v>
+        <v>56.968398476143</v>
       </c>
       <c r="D26">
-        <v>7.4362862876218</v>
+        <v>7.84405953407655</v>
       </c>
       <c r="E26">
-        <v>37.4411941066785</v>
+        <v>39.1320260189085</v>
       </c>
       <c r="F26">
-        <v>9.29102344604088</v>
+        <v>10.0928954143419</v>
       </c>
       <c r="G26">
-        <v>27.4999786139296</v>
+        <v>27.102810724614</v>
       </c>
       <c r="H26">
-        <v>15.5743921015844</v>
+        <v>15.9830364598629</v>
       </c>
       <c r="I26">
-        <v>16.1332638716964</v>
+        <v>16.7309492756356</v>
       </c>
       <c r="J26">
-        <v>49.4738899720565</v>
+        <v>50.6194179180174</v>
       </c>
       <c r="K26">
-        <v>23.1171936433457</v>
+        <v>23.3041248507626</v>
       </c>
       <c r="L26">
-        <v>31.7355693059531</v>
+        <v>32.5908563226923</v>
       </c>
       <c r="M26">
-        <v>74.0259713759005</v>
+        <v>74.3896620056736</v>
       </c>
       <c r="N26">
-        <v>22.446460069285</v>
+        <v>23.3134393039023</v>
       </c>
       <c r="O26">
-        <v>2302.08552292637</v>
+        <v>2280.93756004324</v>
       </c>
       <c r="P26">
-        <v>62.0900964607667</v>
+        <v>72.6288970812403</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>198.536769907818</v>
+        <v>198.63115678122</v>
       </c>
       <c r="C27">
-        <v>1.84990649260675</v>
+        <v>1.82436328686414</v>
       </c>
       <c r="D27">
-        <v>2.28476867744067</v>
+        <v>2.35522074371357</v>
       </c>
       <c r="E27">
-        <v>9.998156884879281</v>
+        <v>9.928520180550059</v>
       </c>
       <c r="F27">
-        <v>5.67797771123788</v>
+        <v>5.97618268479262</v>
       </c>
       <c r="G27">
-        <v>0.564612925060462</v>
+        <v>0.545169924507162</v>
       </c>
       <c r="H27">
-        <v>0.199232500267316</v>
+        <v>0.194842852851369</v>
       </c>
       <c r="I27">
-        <v>2.45691194633262</v>
+        <v>2.52211514912574</v>
       </c>
       <c r="J27">
-        <v>3.48167938483634</v>
+        <v>3.46696816324799</v>
       </c>
       <c r="K27">
-        <v>1.17195995187538</v>
+        <v>1.15535137199144</v>
       </c>
       <c r="L27">
-        <v>1.54634973806073</v>
+        <v>1.43861141940605</v>
       </c>
       <c r="M27">
-        <v>0.526408525522307</v>
+        <v>0.5240321788871341</v>
       </c>
       <c r="N27">
-        <v>3.41343840956593</v>
+        <v>3.34905041379309</v>
       </c>
       <c r="O27">
-        <v>371.939278640293</v>
+        <v>365.603391874151</v>
       </c>
       <c r="P27">
-        <v>35.9188987557578</v>
+        <v>43.4694853778112</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>278.421366473153</v>
+        <v>276.099542713665</v>
       </c>
       <c r="C28">
-        <v>30.1553882975905</v>
+        <v>29.900660845847</v>
       </c>
       <c r="D28">
-        <v>3.66178037583382</v>
+        <v>3.60204359374621</v>
       </c>
       <c r="E28">
-        <v>7.66173184143561</v>
+        <v>7.35305310115328</v>
       </c>
       <c r="F28">
-        <v>1.29563973451377</v>
+        <v>1.42181495740725</v>
       </c>
       <c r="G28">
-        <v>4.09116267874002</v>
+        <v>3.90355290401137</v>
       </c>
       <c r="H28">
-        <v>8.827198507339571</v>
+        <v>9.02246834666634</v>
       </c>
       <c r="I28">
-        <v>2.9517473766707</v>
+        <v>2.90560934021056</v>
       </c>
       <c r="J28">
-        <v>18.2844250053625</v>
+        <v>19.1196800090031</v>
       </c>
       <c r="K28">
-        <v>9.72275226815357</v>
+        <v>10.153997889681</v>
       </c>
       <c r="L28">
-        <v>15.1455382026172</v>
+        <v>14.2574798850183</v>
       </c>
       <c r="M28">
-        <v>9.182684147989059</v>
+        <v>9.547524283274431</v>
       </c>
       <c r="N28">
-        <v>10.6391532582587</v>
+        <v>10.5966842225393</v>
       </c>
       <c r="O28">
-        <v>725.6538604099291</v>
+        <v>705.033515470292</v>
       </c>
       <c r="P28">
-        <v>62.9920013025204</v>
+        <v>88.1025336053996</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>450.158563775747</v>
+        <v>449.641616152794</v>
       </c>
       <c r="C29">
-        <v>4.55330050241607</v>
+        <v>4.60032839529284</v>
       </c>
       <c r="D29">
-        <v>2.13149898000881</v>
+        <v>2.12132112928568</v>
       </c>
       <c r="E29">
-        <v>3.33032067186283</v>
+        <v>3.31349541076957</v>
       </c>
       <c r="F29">
-        <v>21.4561250572672</v>
+        <v>24.8941628216894</v>
       </c>
       <c r="G29">
-        <v>4.52699629443959</v>
+        <v>4.49217892944323</v>
       </c>
       <c r="H29">
-        <v>1.30089988844156</v>
+        <v>1.27237328336244</v>
       </c>
       <c r="I29">
-        <v>1.42907597208386</v>
+        <v>1.5235434128275</v>
       </c>
       <c r="J29">
-        <v>4.00311569206101</v>
+        <v>3.99139705159845</v>
       </c>
       <c r="K29">
-        <v>1.99441538083525</v>
+        <v>1.96184160109362</v>
       </c>
       <c r="L29">
-        <v>2.85204015382906</v>
+        <v>2.83210230527071</v>
       </c>
       <c r="M29">
-        <v>3.56146487475494</v>
+        <v>3.53240036727001</v>
       </c>
       <c r="N29">
-        <v>8.92700135452837</v>
+        <v>8.872466379984189</v>
       </c>
       <c r="O29">
-        <v>993.290819104549</v>
+        <v>989.250742457696</v>
       </c>
       <c r="P29">
-        <v>5.2819605872704</v>
+        <v>5.67981920696466</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>221.503182273878</v>
+        <v>221.358819974009</v>
       </c>
       <c r="C30">
-        <v>3.33287479404886</v>
+        <v>3.29960197110867</v>
       </c>
       <c r="D30">
-        <v>4.74370768603411</v>
+        <v>4.81910915244575</v>
       </c>
       <c r="E30">
-        <v>11.8535508271012</v>
+        <v>12.3206777430415</v>
       </c>
       <c r="F30">
-        <v>1.02118916504401</v>
+        <v>1.02261508856005</v>
       </c>
       <c r="G30">
-        <v>4.72109112220945</v>
+        <v>4.6630119035019</v>
       </c>
       <c r="H30">
-        <v>5.30390262769562</v>
+        <v>5.27421824761532</v>
       </c>
       <c r="I30">
-        <v>1.63977404180624</v>
+        <v>1.5936320803779</v>
       </c>
       <c r="J30">
-        <v>16.1912461265184</v>
+        <v>16.1648636988898</v>
       </c>
       <c r="K30">
-        <v>9.399626907996471</v>
+        <v>9.385830680351299</v>
       </c>
       <c r="L30">
-        <v>40.6862156678689</v>
+        <v>39.1065380614307</v>
       </c>
       <c r="M30">
-        <v>10.5471165812082</v>
+        <v>10.349643866331</v>
       </c>
       <c r="N30">
-        <v>13.8729093997472</v>
+        <v>13.9180126926408</v>
       </c>
       <c r="O30">
-        <v>513.425948147537</v>
+        <v>513.875755533918</v>
       </c>
       <c r="P30">
-        <v>5.76470867086095</v>
+        <v>6.38467134042709</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1917.39325875015</v>
+        <v>1917.32962983054</v>
       </c>
       <c r="C31">
-        <v>60.1135765235666</v>
+        <v>60.1676447427435</v>
       </c>
       <c r="D31">
-        <v>27.0080298013459</v>
+        <v>26.9236494003046</v>
       </c>
       <c r="E31">
-        <v>46.8950775052318</v>
+        <v>46.9153962622403</v>
       </c>
       <c r="F31">
-        <v>4.27009468977246</v>
+        <v>4.40955605038914</v>
       </c>
       <c r="G31">
-        <v>94.75076882200381</v>
+        <v>94.786898980866</v>
       </c>
       <c r="H31">
-        <v>7.94751606689665</v>
+        <v>8.079354752331961</v>
       </c>
       <c r="I31">
-        <v>19.673092910796</v>
+        <v>20.0544279267506</v>
       </c>
       <c r="J31">
-        <v>32.5910700340411</v>
+        <v>32.6493104591776</v>
       </c>
       <c r="K31">
-        <v>15.1672461066833</v>
+        <v>15.1760174400372</v>
       </c>
       <c r="L31">
-        <v>67.41671254840981</v>
+        <v>67.2398919215408</v>
       </c>
       <c r="M31">
-        <v>20.7701775247843</v>
+        <v>20.7558501284743</v>
       </c>
       <c r="N31">
-        <v>45.7766823965491</v>
+        <v>45.7582239096288</v>
       </c>
       <c r="O31">
-        <v>3521.62448957753</v>
+        <v>3519.32137720791</v>
       </c>
       <c r="P31">
-        <v>13.6458891701029</v>
+        <v>14.2669821100087</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>457.705884025336</v>
+        <v>457.798347310034</v>
       </c>
       <c r="C32">
-        <v>4.24598640394043</v>
+        <v>4.33280737434732</v>
       </c>
       <c r="D32">
-        <v>0.664689285263157</v>
+        <v>0.662528117244534</v>
       </c>
       <c r="E32">
-        <v>4.29631028410303</v>
+        <v>4.44914943009523</v>
       </c>
       <c r="F32">
-        <v>22.6762276246379</v>
+        <v>23.4075413402444</v>
       </c>
       <c r="G32">
-        <v>2.71997376113704</v>
+        <v>2.77178489118472</v>
       </c>
       <c r="H32">
-        <v>2.34973228861371</v>
+        <v>2.44973968995866</v>
       </c>
       <c r="I32">
-        <v>4.11608603465899</v>
+        <v>4.13083300964699</v>
       </c>
       <c r="J32">
-        <v>3.64150359242705</v>
+        <v>3.6002559109792</v>
       </c>
       <c r="K32">
-        <v>2.98134750657585</v>
+        <v>2.96776613062899</v>
       </c>
       <c r="L32">
-        <v>13.1600977798593</v>
+        <v>12.5020614445606</v>
       </c>
       <c r="M32">
-        <v>2.69695197374261</v>
+        <v>2.64303235471708</v>
       </c>
       <c r="N32">
-        <v>9.105308698029131</v>
+        <v>9.112157902430461</v>
       </c>
       <c r="O32">
-        <v>722.755872183094</v>
+        <v>720.486817271465</v>
       </c>
       <c r="P32">
-        <v>19.4692127191542</v>
+        <v>22.1988168097104</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4786.20852224882</v>
+        <v>4783.35498188913</v>
       </c>
       <c r="C33">
-        <v>81.7980292613085</v>
+        <v>83.1103972563502</v>
       </c>
       <c r="D33">
-        <v>49.5601583780199</v>
+        <v>48.9589721291596</v>
       </c>
       <c r="E33">
-        <v>68.3462216579555</v>
+        <v>70.4585074288869</v>
       </c>
       <c r="F33">
-        <v>7.35287549936353</v>
+        <v>7.4684638418443</v>
       </c>
       <c r="G33">
-        <v>68.1421922873519</v>
+        <v>69.93728482311749</v>
       </c>
       <c r="H33">
-        <v>26.0469098144218</v>
+        <v>27.1288389687837</v>
       </c>
       <c r="I33">
-        <v>27.7238267800382</v>
+        <v>28.829304703718</v>
       </c>
       <c r="J33">
-        <v>96.2402664030036</v>
+        <v>101.981237328902</v>
       </c>
       <c r="K33">
-        <v>73.0906331280318</v>
+        <v>76.86039069800179</v>
       </c>
       <c r="L33">
-        <v>113.834495321023</v>
+        <v>117.442764550977</v>
       </c>
       <c r="M33">
-        <v>59.5723828694971</v>
+        <v>62.621567878761</v>
       </c>
       <c r="N33">
-        <v>141.427255493957</v>
+        <v>145.324416046056</v>
       </c>
       <c r="O33">
-        <v>7443.1279555082</v>
+        <v>7396.73220669544</v>
       </c>
       <c r="P33">
-        <v>59.4898480159773</v>
+        <v>77.3398568668663</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1970.14881923268</v>
+        <v>1971.24931156593</v>
       </c>
       <c r="C34">
-        <v>77.1657618572053</v>
+        <v>77.7893691708686</v>
       </c>
       <c r="D34">
-        <v>144.776363635435</v>
+        <v>148.612916179112</v>
       </c>
       <c r="E34">
-        <v>45.0837431236977</v>
+        <v>45.5665260681571</v>
       </c>
       <c r="F34">
-        <v>7.48050063320593</v>
+        <v>7.78909319815974</v>
       </c>
       <c r="G34">
-        <v>40.9133923537725</v>
+        <v>40.7991821189089</v>
       </c>
       <c r="H34">
-        <v>48.2448391846528</v>
+        <v>48.1078966622839</v>
       </c>
       <c r="I34">
-        <v>13.4410401264052</v>
+        <v>13.4250649005328</v>
       </c>
       <c r="J34">
-        <v>52.3186910451313</v>
+        <v>52.4190986789021</v>
       </c>
       <c r="K34">
-        <v>32.9322458620192</v>
+        <v>32.7238081921191</v>
       </c>
       <c r="L34">
-        <v>100.011867232374</v>
+        <v>99.98221887951991</v>
       </c>
       <c r="M34">
-        <v>37.055747951486</v>
+        <v>36.879434206066</v>
       </c>
       <c r="N34">
-        <v>126.748741404724</v>
+        <v>128.600423686219</v>
       </c>
       <c r="O34">
-        <v>2991.54607617382</v>
+        <v>2983.72127827363</v>
       </c>
       <c r="P34">
-        <v>55.637576349863</v>
+        <v>57.4338592307752</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.451224513335</v>
+        <v>117.986109333994</v>
       </c>
       <c r="C35">
-        <v>6.71858512999927</v>
+        <v>6.78459808354559</v>
       </c>
       <c r="D35">
-        <v>0.3719518758575</v>
+        <v>0.360744313832337</v>
       </c>
       <c r="E35">
-        <v>2.67503056665954</v>
+        <v>2.59460807036463</v>
       </c>
       <c r="F35">
-        <v>3.9728623299059</v>
+        <v>4.30861111041366</v>
       </c>
       <c r="G35">
-        <v>0.913482534772303</v>
+        <v>0.865864175005818</v>
       </c>
       <c r="H35">
-        <v>0.184368018296155</v>
+        <v>0.177181961007449</v>
       </c>
       <c r="I35">
-        <v>0.901888851102474</v>
+        <v>0.874245807293669</v>
       </c>
       <c r="J35">
-        <v>2.81024156919084</v>
+        <v>2.78395060689589</v>
       </c>
       <c r="K35">
-        <v>5.42743791654005</v>
+        <v>5.4366734853886</v>
       </c>
       <c r="L35">
-        <v>2.44331364042461</v>
+        <v>2.3033881117287</v>
       </c>
       <c r="M35">
-        <v>2.22729754531402</v>
+        <v>2.25138605389203</v>
       </c>
       <c r="N35">
-        <v>3.58342544477596</v>
+        <v>3.45196034984842</v>
       </c>
       <c r="O35">
-        <v>263.006651003987</v>
+        <v>254.466414472323</v>
       </c>
       <c r="P35">
-        <v>33.5415786887873</v>
+        <v>42.7607930393086</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2677.57288766653</v>
+        <v>2677.91887690282</v>
       </c>
       <c r="C36">
-        <v>51.2524220070052</v>
+        <v>51.9642541506422</v>
       </c>
       <c r="D36">
-        <v>10.9912248912925</v>
+        <v>11.2030167706582</v>
       </c>
       <c r="E36">
-        <v>99.3312720784959</v>
+        <v>100.742396425755</v>
       </c>
       <c r="F36">
-        <v>33.6815355291422</v>
+        <v>35.055228976398</v>
       </c>
       <c r="G36">
-        <v>90.24305439232531</v>
+        <v>90.6464035399561</v>
       </c>
       <c r="H36">
-        <v>90.585998318197</v>
+        <v>93.80615327625949</v>
       </c>
       <c r="I36">
-        <v>41.9949643292264</v>
+        <v>42.8403856685404</v>
       </c>
       <c r="J36">
-        <v>205.046744729752</v>
+        <v>209.535251399899</v>
       </c>
       <c r="K36">
-        <v>82.1883246288257</v>
+        <v>83.6794141939853</v>
       </c>
       <c r="L36">
-        <v>72.7635086346981</v>
+        <v>73.3645720467523</v>
       </c>
       <c r="M36">
-        <v>209.411149327522</v>
+        <v>214.491502485562</v>
       </c>
       <c r="N36">
-        <v>88.8127059657695</v>
+        <v>90.1339538112489</v>
       </c>
       <c r="O36">
-        <v>4196.55272949906</v>
+        <v>4174.13568241506</v>
       </c>
       <c r="P36">
-        <v>45.7227104747655</v>
+        <v>47.4188497441501</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>841.195166596147</v>
+        <v>844.164972531035</v>
       </c>
       <c r="C37">
-        <v>23.8297016357888</v>
+        <v>25.2185097431263</v>
       </c>
       <c r="D37">
-        <v>3.56215566914343</v>
+        <v>3.99298536116261</v>
       </c>
       <c r="E37">
-        <v>19.0060157137851</v>
+        <v>19.3903000147108</v>
       </c>
       <c r="F37">
-        <v>30.3411971428602</v>
+        <v>31.6091483322977</v>
       </c>
       <c r="G37">
-        <v>10.1800570359396</v>
+        <v>10.1212484329129</v>
       </c>
       <c r="H37">
-        <v>25.4814323753203</v>
+        <v>26.2241669337216</v>
       </c>
       <c r="I37">
-        <v>11.5480367005985</v>
+        <v>12.1915094844129</v>
       </c>
       <c r="J37">
-        <v>38.7464301964868</v>
+        <v>39.4506957576048</v>
       </c>
       <c r="K37">
-        <v>22.7913502541892</v>
+        <v>22.8131321983895</v>
       </c>
       <c r="L37">
-        <v>18.6804458702608</v>
+        <v>18.3973561249595</v>
       </c>
       <c r="M37">
-        <v>42.2929211119255</v>
+        <v>42.0411628079711</v>
       </c>
       <c r="N37">
-        <v>21.6269058386235</v>
+        <v>21.9046359465418</v>
       </c>
       <c r="O37">
-        <v>1265.26563908921</v>
+        <v>1251.84250242035</v>
       </c>
       <c r="P37">
-        <v>42.9114759560378</v>
+        <v>49.3598837750201</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>814.019106912717</v>
+        <v>815.1583043699141</v>
       </c>
       <c r="C38">
-        <v>24.7789710941362</v>
+        <v>25.6849378010394</v>
       </c>
       <c r="D38">
-        <v>9.08651843044429</v>
+        <v>8.98983083219767</v>
       </c>
       <c r="E38">
-        <v>50.656294104101</v>
+        <v>52.400533812667</v>
       </c>
       <c r="F38">
-        <v>1.42399472952853</v>
+        <v>1.43766908162151</v>
       </c>
       <c r="G38">
-        <v>6.56653179524288</v>
+        <v>6.61185161112707</v>
       </c>
       <c r="H38">
-        <v>2.20545761942333</v>
+        <v>2.16383726948815</v>
       </c>
       <c r="I38">
-        <v>1.41389733083618</v>
+        <v>1.4510639586106</v>
       </c>
       <c r="J38">
-        <v>41.8362387494009</v>
+        <v>41.8675944513078</v>
       </c>
       <c r="K38">
-        <v>4.49857681091145</v>
+        <v>4.42398920826689</v>
       </c>
       <c r="L38">
-        <v>76.881535691094</v>
+        <v>74.02560580363171</v>
       </c>
       <c r="M38">
-        <v>18.8101914976859</v>
+        <v>18.4496736244354</v>
       </c>
       <c r="N38">
-        <v>39.6943706853238</v>
+        <v>39.5092848279096</v>
       </c>
       <c r="O38">
-        <v>1379.85554970327</v>
+        <v>1374.7365528203</v>
       </c>
       <c r="P38">
-        <v>54.664154090917</v>
+        <v>60.0879089450384</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2979.32694433687</v>
+        <v>2980.78209773394</v>
       </c>
       <c r="C39">
-        <v>93.9204281725051</v>
+        <v>95.1144070257558</v>
       </c>
       <c r="D39">
-        <v>44.063615221662</v>
+        <v>45.968839794704</v>
       </c>
       <c r="E39">
-        <v>135.92679000972</v>
+        <v>144.643828144657</v>
       </c>
       <c r="F39">
-        <v>29.3949679024115</v>
+        <v>31.6813264894428</v>
       </c>
       <c r="G39">
-        <v>122.951473685228</v>
+        <v>120.962052217585</v>
       </c>
       <c r="H39">
-        <v>50.4987670038362</v>
+        <v>52.6133785767217</v>
       </c>
       <c r="I39">
-        <v>32.7493394283122</v>
+        <v>34.3772066077527</v>
       </c>
       <c r="J39">
-        <v>156.797366331932</v>
+        <v>164.294688267283</v>
       </c>
       <c r="K39">
-        <v>82.5067861769946</v>
+        <v>86.3903941720784</v>
       </c>
       <c r="L39">
-        <v>98.063512417057</v>
+        <v>98.8104786246066</v>
       </c>
       <c r="M39">
-        <v>65.711016338777</v>
+        <v>68.098319484085</v>
       </c>
       <c r="N39">
-        <v>114.134356072415</v>
+        <v>117.642211912434</v>
       </c>
       <c r="O39">
-        <v>4688.0459966804</v>
+        <v>4643.77123352568</v>
       </c>
       <c r="P39">
-        <v>56.0157317107979</v>
+        <v>66.0541813848369</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>229.040526473046</v>
+        <v>228.99665785302</v>
       </c>
       <c r="C40">
-        <v>2.71712821169161</v>
+        <v>2.71243211821234</v>
       </c>
       <c r="D40">
-        <v>7.16734122528125</v>
+        <v>7.16417090077619</v>
       </c>
       <c r="E40">
-        <v>5.02863886265737</v>
+        <v>5.02612688966759</v>
       </c>
       <c r="F40">
-        <v>0.431459501159608</v>
+        <v>0.429186171076835</v>
       </c>
       <c r="G40">
-        <v>4.09929157750931</v>
+        <v>4.15288379118097</v>
       </c>
       <c r="H40">
-        <v>4.65626090240781</v>
+        <v>4.71675717853662</v>
       </c>
       <c r="I40">
-        <v>1.94374528707447</v>
+        <v>1.94562767321221</v>
       </c>
       <c r="J40">
-        <v>9.25316420574271</v>
+        <v>9.24267539535149</v>
       </c>
       <c r="K40">
-        <v>3.34748162962831</v>
+        <v>3.34618053202806</v>
       </c>
       <c r="L40">
-        <v>14.1969750736786</v>
+        <v>14.1881112122157</v>
       </c>
       <c r="M40">
-        <v>4.53951932270994</v>
+        <v>4.52638840274175</v>
       </c>
       <c r="N40">
-        <v>20.1175130445909</v>
+        <v>20.0370552527526</v>
       </c>
       <c r="O40">
-        <v>420.273653780955</v>
+        <v>420.233311635129</v>
       </c>
       <c r="P40">
-        <v>4.28003447959304</v>
+        <v>4.318518288879</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1071.2670735398</v>
+        <v>1072.02586164594</v>
       </c>
       <c r="C41">
-        <v>14.0653031560619</v>
+        <v>14.6452486700819</v>
       </c>
       <c r="D41">
-        <v>77.18192521829479</v>
+        <v>81.3541966003279</v>
       </c>
       <c r="E41">
-        <v>29.0590190317674</v>
+        <v>29.4871713876404</v>
       </c>
       <c r="F41">
-        <v>1.30868134905973</v>
+        <v>1.30348283139984</v>
       </c>
       <c r="G41">
-        <v>22.8103652766566</v>
+        <v>23.0376930426674</v>
       </c>
       <c r="H41">
-        <v>30.9274474621139</v>
+        <v>31.2928013441986</v>
       </c>
       <c r="I41">
-        <v>12.6655938117738</v>
+        <v>12.9406271988184</v>
       </c>
       <c r="J41">
-        <v>38.6252390495695</v>
+        <v>39.0405345783212</v>
       </c>
       <c r="K41">
-        <v>13.4849318686478</v>
+        <v>13.5324118014875</v>
       </c>
       <c r="L41">
-        <v>33.9674580216467</v>
+        <v>33.7383581594246</v>
       </c>
       <c r="M41">
-        <v>28.5241524291632</v>
+        <v>28.4972498393537</v>
       </c>
       <c r="N41">
-        <v>18.4488989150822</v>
+        <v>18.4042603145881</v>
       </c>
       <c r="O41">
-        <v>1448.5813855346</v>
+        <v>1441.08122417928</v>
       </c>
       <c r="P41">
-        <v>21.8125289001576</v>
+        <v>22.7879430842334</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>113.229811319537</v>
+        <v>112.566451931087</v>
       </c>
       <c r="C42">
-        <v>5.25862109369111</v>
+        <v>5.32763845128576</v>
       </c>
       <c r="D42">
-        <v>1.75289577887138</v>
+        <v>1.71322174238628</v>
       </c>
       <c r="E42">
-        <v>5.56369670408339</v>
+        <v>5.29535483948762</v>
       </c>
       <c r="F42">
-        <v>2.35786810274122</v>
+        <v>2.25945366086121</v>
       </c>
       <c r="G42">
-        <v>1.5297156003137</v>
+        <v>1.50822807495327</v>
       </c>
       <c r="H42">
-        <v>0.564542060856962</v>
+        <v>0.523091901268625</v>
       </c>
       <c r="I42">
-        <v>1.13396698751523</v>
+        <v>1.06392421704762</v>
       </c>
       <c r="J42">
-        <v>3.63383485156134</v>
+        <v>3.5643866444504</v>
       </c>
       <c r="K42">
-        <v>4.83832963238897</v>
+        <v>4.91277743144309</v>
       </c>
       <c r="L42">
-        <v>7.44691133075037</v>
+        <v>6.66055626313722</v>
       </c>
       <c r="M42">
-        <v>3.63350481332304</v>
+        <v>3.74067505658981</v>
       </c>
       <c r="N42">
-        <v>7.09319726389495</v>
+        <v>6.77897345484147</v>
       </c>
       <c r="O42">
-        <v>304.669550394997</v>
+        <v>296.979431827974</v>
       </c>
       <c r="P42">
-        <v>40.6394652053274</v>
+        <v>51.7604313812693</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1554.93639583194</v>
+        <v>1554.73946415496</v>
       </c>
       <c r="C43">
-        <v>38.7578656004053</v>
+        <v>38.5669821323191</v>
       </c>
       <c r="D43">
-        <v>31.7874893550786</v>
+        <v>34.2378609766033</v>
       </c>
       <c r="E43">
-        <v>69.38367085115959</v>
+        <v>69.5412596118357</v>
       </c>
       <c r="F43">
-        <v>7.24471524437933</v>
+        <v>7.6532195766756</v>
       </c>
       <c r="G43">
-        <v>32.006025996095</v>
+        <v>32.3631592103171</v>
       </c>
       <c r="H43">
-        <v>36.8829713546876</v>
+        <v>38.1314798100102</v>
       </c>
       <c r="I43">
-        <v>27.1606241397452</v>
+        <v>28.0704862680092</v>
       </c>
       <c r="J43">
-        <v>54.8975648735027</v>
+        <v>56.81190291347</v>
       </c>
       <c r="K43">
-        <v>36.5225379448546</v>
+        <v>38.1234017443716</v>
       </c>
       <c r="L43">
-        <v>39.5991365576867</v>
+        <v>40.4789827895871</v>
       </c>
       <c r="M43">
-        <v>110.623602353408</v>
+        <v>115.093063742156</v>
       </c>
       <c r="N43">
-        <v>51.0731186451007</v>
+        <v>52.0368513820175</v>
       </c>
       <c r="O43">
-        <v>2011.06332001282</v>
+        <v>1994.92628406061</v>
       </c>
       <c r="P43">
-        <v>50.5794675338807</v>
+        <v>52.0453455036839</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4816.53025061609</v>
+        <v>4821.61578559201</v>
       </c>
       <c r="C44">
-        <v>131.760570813571</v>
+        <v>134.944403751385</v>
       </c>
       <c r="D44">
-        <v>34.1419895600282</v>
+        <v>34.2759414875365</v>
       </c>
       <c r="E44">
-        <v>84.6151380655257</v>
+        <v>85.5514569734376</v>
       </c>
       <c r="F44">
-        <v>222.683877329384</v>
+        <v>225.752678252241</v>
       </c>
       <c r="G44">
-        <v>129.907131144766</v>
+        <v>130.077082229166</v>
       </c>
       <c r="H44">
-        <v>38.1499714584241</v>
+        <v>38.7233792946154</v>
       </c>
       <c r="I44">
-        <v>45.5442244431255</v>
+        <v>46.4150977271542</v>
       </c>
       <c r="J44">
-        <v>119.116606496258</v>
+        <v>120.563783212478</v>
       </c>
       <c r="K44">
-        <v>55.5590194403182</v>
+        <v>55.7522616935032</v>
       </c>
       <c r="L44">
-        <v>183.166879398203</v>
+        <v>177.66978930912</v>
       </c>
       <c r="M44">
-        <v>91.95742344887169</v>
+        <v>92.82228506513241</v>
       </c>
       <c r="N44">
-        <v>99.8352847334338</v>
+        <v>99.6465752138058</v>
       </c>
       <c r="O44">
-        <v>8097.77875592527</v>
+        <v>8065.24899176283</v>
       </c>
       <c r="P44">
-        <v>167.419065915417</v>
+        <v>189.986137771831</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>427.376011959421</v>
+        <v>428.206134670951</v>
       </c>
       <c r="C45">
-        <v>17.56308173708</v>
+        <v>17.6608042206947</v>
       </c>
       <c r="D45">
-        <v>3.53667115802617</v>
+        <v>3.49849104061848</v>
       </c>
       <c r="E45">
-        <v>17.3785095500433</v>
+        <v>17.1876942836923</v>
       </c>
       <c r="F45">
-        <v>18.2098498593399</v>
+        <v>21.1599745870397</v>
       </c>
       <c r="G45">
-        <v>6.43768716877394</v>
+        <v>6.37913979218172</v>
       </c>
       <c r="H45">
-        <v>2.80166179631467</v>
+        <v>2.80952424621586</v>
       </c>
       <c r="I45">
-        <v>3.66900936626644</v>
+        <v>3.73470581252246</v>
       </c>
       <c r="J45">
-        <v>23.3300107712802</v>
+        <v>23.458449538342</v>
       </c>
       <c r="K45">
-        <v>3.94161333281676</v>
+        <v>3.92824780174475</v>
       </c>
       <c r="L45">
-        <v>18.4050060763179</v>
+        <v>18.036234050415</v>
       </c>
       <c r="M45">
-        <v>16.8474582425412</v>
+        <v>17.0130349672839</v>
       </c>
       <c r="N45">
-        <v>31.9134774056317</v>
+        <v>31.3986652793691</v>
       </c>
       <c r="O45">
-        <v>837.106835206838</v>
+        <v>830.64705947901</v>
       </c>
       <c r="P45">
-        <v>17.5597855500238</v>
+        <v>20.9357747806618</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>104.883817023049</v>
+        <v>105.039491414489</v>
       </c>
       <c r="C46">
-        <v>3.46251621137908</v>
+        <v>3.68948129742131</v>
       </c>
       <c r="D46">
-        <v>0.748741011198532</v>
+        <v>0.761843128524473</v>
       </c>
       <c r="E46">
-        <v>4.30544322911686</v>
+        <v>4.46916675802392</v>
       </c>
       <c r="F46">
-        <v>0.763581223532641</v>
+        <v>0.766756794375422</v>
       </c>
       <c r="G46">
-        <v>2.36775938335646</v>
+        <v>2.31530407761623</v>
       </c>
       <c r="H46">
-        <v>1.67291790405055</v>
+        <v>1.70347601023484</v>
       </c>
       <c r="I46">
-        <v>2.02872868982574</v>
+        <v>1.98987783874275</v>
       </c>
       <c r="J46">
-        <v>4.87111386911671</v>
+        <v>4.84578320731207</v>
       </c>
       <c r="K46">
-        <v>3.82960936777176</v>
+        <v>3.8076367015195</v>
       </c>
       <c r="L46">
-        <v>13.1411027865547</v>
+        <v>11.6455362444155</v>
       </c>
       <c r="M46">
-        <v>2.985469910543</v>
+        <v>2.85858675039097</v>
       </c>
       <c r="N46">
-        <v>10.0828807364842</v>
+        <v>10.2538487926842</v>
       </c>
       <c r="O46">
-        <v>259.940032390937</v>
+        <v>259.547533016608</v>
       </c>
       <c r="P46">
-        <v>9.1462624184574</v>
+        <v>10.7214174443919</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1637.14834269506</v>
+        <v>1639.07601961887</v>
       </c>
       <c r="C47">
-        <v>39.8332714290278</v>
+        <v>41.5072335798388</v>
       </c>
       <c r="D47">
-        <v>23.1652577862216</v>
+        <v>24.3309072502617</v>
       </c>
       <c r="E47">
-        <v>53.2055701470754</v>
+        <v>54.3495182075783</v>
       </c>
       <c r="F47">
-        <v>7.16027432527689</v>
+        <v>7.70660336590748</v>
       </c>
       <c r="G47">
-        <v>24.6884847221731</v>
+        <v>25.0720258223051</v>
       </c>
       <c r="H47">
-        <v>10.3433539287981</v>
+        <v>10.6494058844878</v>
       </c>
       <c r="I47">
-        <v>2.9826395761693</v>
+        <v>3.14318038219129</v>
       </c>
       <c r="J47">
-        <v>35.9534310116829</v>
+        <v>36.678434455695</v>
       </c>
       <c r="K47">
-        <v>12.1182053205797</v>
+        <v>12.0433952268693</v>
       </c>
       <c r="L47">
-        <v>40.1250889025529</v>
+        <v>40.3614894829532</v>
       </c>
       <c r="M47">
-        <v>68.4696767832033</v>
+        <v>67.3976682148695</v>
       </c>
       <c r="N47">
-        <v>38.1933407517959</v>
+        <v>38.8093352910944</v>
       </c>
       <c r="O47">
-        <v>2933.24038483809</v>
+        <v>2923.38239179318</v>
       </c>
       <c r="P47">
-        <v>21.4036881525536</v>
+        <v>22.6788598291186</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1352.99875231176</v>
+        <v>1354.61109409397</v>
       </c>
       <c r="C48">
-        <v>25.6783064479569</v>
+        <v>25.9349053693574</v>
       </c>
       <c r="D48">
-        <v>7.60148561289295</v>
+        <v>7.50222093752983</v>
       </c>
       <c r="E48">
-        <v>69.01648706052001</v>
+        <v>71.4753014518917</v>
       </c>
       <c r="F48">
-        <v>7.86333501478447</v>
+        <v>7.99399419349925</v>
       </c>
       <c r="G48">
-        <v>6.37594796102925</v>
+        <v>6.34394338604065</v>
       </c>
       <c r="H48">
-        <v>5.03811389209261</v>
+        <v>4.98009724210909</v>
       </c>
       <c r="I48">
-        <v>8.804751705424801</v>
+        <v>9.106768638383549</v>
       </c>
       <c r="J48">
-        <v>45.371223740246</v>
+        <v>44.8938777157913</v>
       </c>
       <c r="K48">
-        <v>14.3252813151384</v>
+        <v>14.1599924248902</v>
       </c>
       <c r="L48">
-        <v>50.9639956060086</v>
+        <v>50.2271989651911</v>
       </c>
       <c r="M48">
-        <v>134.211533873649</v>
+        <v>128.487535050372</v>
       </c>
       <c r="N48">
-        <v>31.0977950092389</v>
+        <v>30.9951497396528</v>
       </c>
       <c r="O48">
-        <v>2361.58848979768</v>
+        <v>2357.16935979134</v>
       </c>
       <c r="P48">
-        <v>81.4042434374702</v>
+        <v>88.8317037133443</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>647.31268688484</v>
+        <v>647.49005223341</v>
       </c>
       <c r="C49">
-        <v>5.43270930416355</v>
+        <v>5.46324009177743</v>
       </c>
       <c r="D49">
-        <v>1.99515105136041</v>
+        <v>2.03217171289277</v>
       </c>
       <c r="E49">
-        <v>23.1068987887975</v>
+        <v>23.3044207674061</v>
       </c>
       <c r="F49">
-        <v>24.9177819169349</v>
+        <v>25.6161177692723</v>
       </c>
       <c r="G49">
-        <v>16.6227663591156</v>
+        <v>16.298004803658</v>
       </c>
       <c r="H49">
-        <v>7.01604489537777</v>
+        <v>6.99514333297388</v>
       </c>
       <c r="I49">
-        <v>6.13317913535568</v>
+        <v>5.97868760390317</v>
       </c>
       <c r="J49">
-        <v>20.4661919181242</v>
+        <v>20.1876980546362</v>
       </c>
       <c r="K49">
-        <v>2.64285684646336</v>
+        <v>2.5955876326371</v>
       </c>
       <c r="L49">
-        <v>1.3416646442395</v>
+        <v>1.33939005477714</v>
       </c>
       <c r="M49">
-        <v>4.82229701262546</v>
+        <v>4.85627631842549</v>
       </c>
       <c r="N49">
-        <v>5.38167497540091</v>
+        <v>5.37088548482565</v>
       </c>
       <c r="O49">
-        <v>563.901391297357</v>
+        <v>563.7242393171221</v>
       </c>
       <c r="P49">
-        <v>6.97061669718577</v>
+        <v>7.03235327459847</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>976.183561794081</v>
+        <v>977.2967285367411</v>
       </c>
       <c r="C50">
-        <v>71.00956922820821</v>
+        <v>75.4261091025902</v>
       </c>
       <c r="D50">
-        <v>17.651457917769</v>
+        <v>18.1963362696546</v>
       </c>
       <c r="E50">
-        <v>149.422538933298</v>
+        <v>151.552321981129</v>
       </c>
       <c r="F50">
-        <v>3.05987913715587</v>
+        <v>3.09065248210958</v>
       </c>
       <c r="G50">
-        <v>39.1608001262734</v>
+        <v>38.082899822543</v>
       </c>
       <c r="H50">
-        <v>35.8562726889763</v>
+        <v>36.0732616006526</v>
       </c>
       <c r="I50">
-        <v>8.559138706779709</v>
+        <v>9.092391407108361</v>
       </c>
       <c r="J50">
-        <v>104.901426836071</v>
+        <v>105.228174683772</v>
       </c>
       <c r="K50">
-        <v>75.715834154847</v>
+        <v>75.70887348960861</v>
       </c>
       <c r="L50">
-        <v>63.9699771528198</v>
+        <v>62.2313640470566</v>
       </c>
       <c r="M50">
-        <v>46.5564233045468</v>
+        <v>46.1180286846509</v>
       </c>
       <c r="N50">
-        <v>59.8562894450269</v>
+        <v>60.0258104784227</v>
       </c>
       <c r="O50">
-        <v>2099.44981142816</v>
+        <v>2071.05900883483</v>
       </c>
       <c r="P50">
-        <v>71.3413847224016</v>
+        <v>95.201210438692</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>96.9992512409124</v>
+        <v>96.79548080336051</v>
       </c>
       <c r="C51">
-        <v>3.88215766812934</v>
+        <v>3.79234559823775</v>
       </c>
       <c r="D51">
-        <v>0.0189036279440849</v>
+        <v>0.0212232177235246</v>
       </c>
       <c r="E51">
-        <v>1.68018224969936</v>
+        <v>1.68537684606286</v>
       </c>
       <c r="F51">
-        <v>21.1603575264835</v>
+        <v>22.0512392489564</v>
       </c>
       <c r="G51">
-        <v>1.74437605189566</v>
+        <v>1.69691040589259</v>
       </c>
       <c r="H51">
-        <v>0.00709388481466893</v>
+        <v>0.00639987666857286</v>
       </c>
       <c r="I51">
-        <v>0.891468363881744</v>
+        <v>0.895438331122987</v>
       </c>
       <c r="J51">
-        <v>0.800009789785161</v>
+        <v>0.732723988052133</v>
       </c>
       <c r="K51">
-        <v>0.53219268937266</v>
+        <v>0.529220373646968</v>
       </c>
       <c r="L51">
-        <v>0.253225714454176</v>
+        <v>0.256158485311067</v>
       </c>
       <c r="M51">
-        <v>0.376960103238594</v>
+        <v>0.364014060303424</v>
       </c>
       <c r="N51">
-        <v>0.9750501470345601</v>
+        <v>0.952827940807879</v>
       </c>
       <c r="O51">
-        <v>204.806901332071</v>
+        <v>203.065926912851</v>
       </c>
       <c r="P51">
-        <v>15.8447304761512</v>
+        <v>18.1751673728991</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2003.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2003.xlsx
@@ -507,7 +507,7 @@
         <v>0.158159763347901</v>
       </c>
       <c r="E3">
-        <v>0.9340229648034411</v>
+        <v>0.934022964803441</v>
       </c>
       <c r="F3">
         <v>6.91119980147625</v>
@@ -641,7 +641,7 @@
         <v>22.1014901471392</v>
       </c>
       <c r="O5">
-        <v>917.223785208999</v>
+        <v>917.2237852089989</v>
       </c>
       <c r="P5">
         <v>56.9280208165124</v>
@@ -770,7 +770,7 @@
         <v>20.3684860642119</v>
       </c>
       <c r="F8">
-        <v>0.6883747353602771</v>
+        <v>0.688374735360277</v>
       </c>
       <c r="G8">
         <v>27.9700931742864</v>
@@ -1522,7 +1522,7 @@
         <v>13.6880695795569</v>
       </c>
       <c r="N22">
-        <v>69.2660592130509</v>
+        <v>69.26605921305089</v>
       </c>
       <c r="O22">
         <v>2672.55497336187</v>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>877.1162270007091</v>
+        <v>877.116227000709</v>
       </c>
       <c r="C24">
         <v>50.3944943429854</v>
@@ -1779,7 +1779,7 @@
         <v>1.43861141940605</v>
       </c>
       <c r="M27">
-        <v>0.5240321788871341</v>
+        <v>0.524032178887134</v>
       </c>
       <c r="N27">
         <v>3.34905041379309</v>
@@ -1837,7 +1837,7 @@
         <v>10.5966842225393</v>
       </c>
       <c r="O28">
-        <v>705.033515470292</v>
+        <v>705.0335154702919</v>
       </c>
       <c r="P28">
         <v>88.1025336053996</v>
@@ -2241,7 +2241,7 @@
         <v>209.535251399899</v>
       </c>
       <c r="K36">
-        <v>83.6794141939853</v>
+        <v>83.67941419398529</v>
       </c>
       <c r="L36">
         <v>73.3645720467523</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>815.1583043699141</v>
+        <v>815.158304369914</v>
       </c>
       <c r="C38">
         <v>25.6849378010394</v>
@@ -2412,7 +2412,7 @@
         <v>4643.77123352568</v>
       </c>
       <c r="P39">
-        <v>66.0541813848369</v>
+        <v>66.05418138483689</v>
       </c>
     </row>
     <row r="40">
@@ -2963,7 +2963,7 @@
         <v>36.0732616006526</v>
       </c>
       <c r="I50">
-        <v>9.092391407108361</v>
+        <v>9.09239140710836</v>
       </c>
       <c r="J50">
         <v>105.228174683772</v>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>96.79548080336051</v>
+        <v>96.7954808033605</v>
       </c>
       <c r="C51">
         <v>3.79234559823775</v>
@@ -3021,7 +3021,7 @@
         <v>0.732723988052133</v>
       </c>
       <c r="K51">
-        <v>0.529220373646968</v>
+        <v>0.5292203736469679</v>
       </c>
       <c r="L51">
         <v>0.256158485311067</v>
@@ -3162,10 +3162,10 @@
         <v>60.5929457091062</v>
       </c>
       <c r="F54">
-        <v>8.775957562542351</v>
+        <v>8.77595756254235</v>
       </c>
       <c r="G54">
-        <v>68.696735238495</v>
+        <v>68.69673523849499</v>
       </c>
       <c r="H54">
         <v>24.6929740709654</v>
@@ -3278,7 +3278,7 @@
         <v>470.476656229106</v>
       </c>
       <c r="J56">
-        <v>758.210419421018</v>
+        <v>758.2104194210179</v>
       </c>
       <c r="K56">
         <v>405.918330408008</v>
@@ -3382,7 +3382,7 @@
         <v>8573.29786194691</v>
       </c>
       <c r="J58">
-        <v>7536.893311654631</v>
+        <v>7536.89331165463</v>
       </c>
       <c r="K58">
         <v>7587.47299910499</v>
@@ -4333,7 +4333,7 @@
         <v>20.317826765112</v>
       </c>
       <c r="O76">
-        <v>778.817465376146</v>
+        <v>778.8174653761459</v>
       </c>
       <c r="P76">
         <v>248.209604856489</v>
@@ -4523,7 +4523,7 @@
         <v>26.0983427894751</v>
       </c>
       <c r="I80">
-        <v>69.26098663360691</v>
+        <v>69.2609866336069</v>
       </c>
       <c r="J80">
         <v>100.378241497981</v>
@@ -4939,7 +4939,7 @@
         <v>200.141281107638</v>
       </c>
       <c r="I88">
-        <v>82.37199066700561</v>
+        <v>82.3719906670056</v>
       </c>
       <c r="J88">
         <v>396.982299807663</v>
